--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Contest</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>user4286</t>
+  </si>
+  <si>
+    <t>-2:     Not joined group yet</t>
+  </si>
+  <si>
+    <t>-1:     Absent or zero score</t>
   </si>
 </sst>
 </file>
@@ -316,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -345,6 +351,7 @@
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -637,12 +644,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3055,6 +3062,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:C1"/>
@@ -3066,6 +3083,82 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A12" r:id="rId9"/>
+    <hyperlink ref="A13" r:id="rId10"/>
+    <hyperlink ref="A14" r:id="rId11"/>
+    <hyperlink ref="A15" r:id="rId12"/>
+    <hyperlink ref="A16" r:id="rId13"/>
+    <hyperlink ref="A17" r:id="rId14"/>
+    <hyperlink ref="A18" r:id="rId15"/>
+    <hyperlink ref="A19" r:id="rId16"/>
+    <hyperlink ref="A20" r:id="rId17"/>
+    <hyperlink ref="A21" r:id="rId18"/>
+    <hyperlink ref="A22" r:id="rId19"/>
+    <hyperlink ref="A23" r:id="rId20"/>
+    <hyperlink ref="A24" r:id="rId21"/>
+    <hyperlink ref="A25" r:id="rId22"/>
+    <hyperlink ref="A26" r:id="rId23"/>
+    <hyperlink ref="A27" r:id="rId24"/>
+    <hyperlink ref="A28" r:id="rId25"/>
+    <hyperlink ref="A29" r:id="rId26"/>
+    <hyperlink ref="A30" r:id="rId27"/>
+    <hyperlink ref="A31" r:id="rId28"/>
+    <hyperlink ref="A32" r:id="rId29"/>
+    <hyperlink ref="A33" r:id="rId30"/>
+    <hyperlink ref="A34" r:id="rId31"/>
+    <hyperlink ref="A35" r:id="rId32"/>
+    <hyperlink ref="A36" r:id="rId33"/>
+    <hyperlink ref="A37" r:id="rId34"/>
+    <hyperlink ref="A38" r:id="rId35"/>
+    <hyperlink ref="A39" r:id="rId36"/>
+    <hyperlink ref="A40" r:id="rId37"/>
+    <hyperlink ref="A41" r:id="rId38"/>
+    <hyperlink ref="A42" r:id="rId39"/>
+    <hyperlink ref="A43" r:id="rId40"/>
+    <hyperlink ref="A44" r:id="rId41"/>
+    <hyperlink ref="A45" r:id="rId42"/>
+    <hyperlink ref="A46" r:id="rId43"/>
+    <hyperlink ref="A47" r:id="rId44"/>
+    <hyperlink ref="A48" r:id="rId45"/>
+    <hyperlink ref="A49" r:id="rId46"/>
+    <hyperlink ref="A50" r:id="rId47"/>
+    <hyperlink ref="A51" r:id="rId48"/>
+    <hyperlink ref="A52" r:id="rId49"/>
+    <hyperlink ref="A53" r:id="rId50"/>
+    <hyperlink ref="A54" r:id="rId51"/>
+    <hyperlink ref="A55" r:id="rId52"/>
+    <hyperlink ref="A56" r:id="rId53"/>
+    <hyperlink ref="A57" r:id="rId54"/>
+    <hyperlink ref="A58" r:id="rId55"/>
+    <hyperlink ref="A59" r:id="rId56"/>
+    <hyperlink ref="A60" r:id="rId57"/>
+    <hyperlink ref="A61" r:id="rId58"/>
+    <hyperlink ref="A62" r:id="rId59"/>
+    <hyperlink ref="A63" r:id="rId60"/>
+    <hyperlink ref="A64" r:id="rId61"/>
+    <hyperlink ref="A65" r:id="rId62"/>
+    <hyperlink ref="A66" r:id="rId63"/>
+    <hyperlink ref="A67" r:id="rId64"/>
+    <hyperlink ref="A68" r:id="rId65"/>
+    <hyperlink ref="A69" r:id="rId66"/>
+    <hyperlink ref="A70" r:id="rId67"/>
+    <hyperlink ref="A71" r:id="rId68"/>
+    <hyperlink ref="A72" r:id="rId69"/>
+    <hyperlink ref="A73" r:id="rId70"/>
+    <hyperlink ref="A74" r:id="rId71"/>
+    <hyperlink ref="A75" r:id="rId72"/>
+    <hyperlink ref="A76" r:id="rId73"/>
+    <hyperlink ref="A77" r:id="rId74"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -286,12 +286,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0019b457"/>
+        <fgColor rgb="00EAEAEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffb261"/>
+        <fgColor rgb="0019b457"/>
       </patternFill>
     </fill>
     <fill>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -333,13 +333,16 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -695,34 +698,34 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="5" t="n">
         <v>99.8</v>
       </c>
     </row>
@@ -730,63 +733,63 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="7" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="7" t="n">
         <v>99.3</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="7" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>99.2</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="5" t="n">
         <v>99.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>324</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="6" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>98.5</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="6" t="n">
         <v>97.7</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="5" t="n">
         <v>98.2</v>
       </c>
     </row>
@@ -794,63 +797,63 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>233</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="7" t="n">
         <v>89.8</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>2069</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="7" t="n">
         <v>96.3</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="7" t="n">
         <v>98.8</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="5" t="n">
         <v>97.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>117</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="6" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>163</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <v>675</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>109</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="6" t="n">
         <v>97.8</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="5" t="n">
         <v>97.2</v>
       </c>
     </row>
@@ -858,63 +861,63 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="7" t="n">
         <v>97.5</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="7" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>154</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="7" t="n">
         <v>96.8</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="8" t="n">
         <v>637</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="7" t="n">
         <v>82</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="5" t="n">
         <v>96.7</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="n">
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
         <v>169</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="5" t="n">
         <v>96.59999999999999</v>
       </c>
     </row>
@@ -922,63 +925,63 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="8" t="n">
         <v>251</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="7" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>127</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="7" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <v>581</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="7" t="n">
         <v>83</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <v>218</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="7" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="K11" s="6" t="n">
+      <c r="K11" s="5" t="n">
         <v>96.5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>514</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="6" t="n">
         <v>83.5</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="6" t="n">
         <v>97.3</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>222</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="6" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="8" t="n">
         <v>250</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="6" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="5" t="n">
         <v>96.40000000000001</v>
       </c>
     </row>
@@ -986,63 +989,63 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>429</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="7" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>174</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="7" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>322</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="7" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="8" t="n">
         <v>492</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="7" t="n">
         <v>85</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="5" t="n">
         <v>94.90000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="10" t="n">
         <v>1455</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="6" t="n">
         <v>52.5</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="8" t="n">
         <v>1023</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>345</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="6" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="5" t="n">
         <v>184</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="6" t="n">
         <v>96.2</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="5" t="n">
         <v>94.59999999999999</v>
       </c>
     </row>
@@ -1050,63 +1053,63 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="7" t="n">
         <v>98.7</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="8" t="n">
         <v>454</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="7" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>425</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="7" t="n">
         <v>91.2</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="7" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="5" t="n">
         <v>94.59999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <v>642</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="6" t="n">
         <v>80.7</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <v>672</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>518</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="6" t="n">
         <v>89.3</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="5" t="n">
         <v>205</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="6" t="n">
         <v>95.8</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="5" t="n">
         <v>92.59999999999999</v>
       </c>
     </row>
@@ -1114,63 +1117,63 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <v>578</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="7" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>233</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="7" t="n">
         <v>95.2</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>502</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="7" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="10" t="n">
         <v>1641</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="7" t="n">
         <v>51.5</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="5" t="n">
         <v>92.40000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <v>301</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="6" t="n">
         <v>88.3</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>344</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>232</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="6" t="n">
         <v>95.2</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6" t="n">
+      <c r="H18" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="n">
         <v>91.5</v>
       </c>
     </row>
@@ -1178,63 +1181,63 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="7" t="n">
         <v>83.8</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>225</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="7" t="n">
         <v>95.3</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7" t="n">
+      <c r="F19" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="n">
         <v>430</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="7" t="n">
         <v>86.2</v>
       </c>
-      <c r="K19" s="6" t="n">
+      <c r="K19" s="5" t="n">
         <v>90.8</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="9" t="n">
         <v>1266</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="6" t="n">
         <v>61.8</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="8" t="n">
         <v>345</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <v>339</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="8" t="n">
         <v>488</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="6" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="5" t="n">
         <v>90.40000000000001</v>
       </c>
     </row>
@@ -1242,63 +1245,63 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="8" t="n">
         <v>290</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="7" t="n">
         <v>88.5</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="8" t="n">
         <v>443</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="7" t="n">
         <v>85.8</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>336</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="7" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="H21" s="7" t="n">
+      <c r="H21" s="8" t="n">
         <v>497</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="7" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="K21" s="6" t="n">
+      <c r="K21" s="5" t="n">
         <v>89.5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="9" t="n">
         <v>1302</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="n">
+      <c r="D22" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="8" t="n">
         <v>560</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="6" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="K22" s="5" t="n">
         <v>89.3</v>
       </c>
     </row>
@@ -1306,63 +1309,63 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="8" t="n">
         <v>612</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="7" t="n">
         <v>81.40000000000001</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="10" t="n">
         <v>2384</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="7" t="n">
         <v>35.4</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="5" t="n">
         <v>397</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="7" t="n">
         <v>91.8</v>
       </c>
-      <c r="H23" s="7" t="n">
+      <c r="H23" s="8" t="n">
         <v>561</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="7" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="K23" s="6" t="n">
+      <c r="K23" s="5" t="n">
         <v>87.7</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="8" t="n">
         <v>394</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="6" t="n">
         <v>86.2</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="8" t="n">
         <v>509</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="6" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="10" t="n">
         <v>2350</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="6" t="n">
         <v>36.5</v>
       </c>
-      <c r="H24" s="7" t="n">
+      <c r="H24" s="8" t="n">
         <v>276</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="6" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="K24" s="6" t="n">
+      <c r="K24" s="5" t="n">
         <v>86.90000000000001</v>
       </c>
     </row>
@@ -1370,63 +1373,63 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="9" t="n">
         <v>1191</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="7" t="n">
         <v>63.4</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="8" t="n">
         <v>638</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="7" t="n">
         <v>81.7</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="8" t="n">
         <v>645</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="7" t="n">
         <v>81.7</v>
       </c>
-      <c r="H25" s="7" t="n">
+      <c r="H25" s="8" t="n">
         <v>271</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="7" t="n">
         <v>89.5</v>
       </c>
-      <c r="K25" s="6" t="n">
+      <c r="K25" s="5" t="n">
         <v>85.59999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7" t="n">
+      <c r="B26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8" t="n">
         <v>711</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="6" t="n">
         <v>80.2</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="5" t="n">
         <v>474</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="6" t="n">
         <v>90.2</v>
       </c>
-      <c r="H26" s="8" t="n">
+      <c r="H26" s="9" t="n">
         <v>806</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="6" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="K26" s="6" t="n">
+      <c r="K26" s="5" t="n">
         <v>85.2</v>
       </c>
     </row>
@@ -1434,63 +1437,63 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="10" t="n">
         <v>1904</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="7" t="n">
         <v>42.5</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="8" t="n">
         <v>793</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="7" t="n">
         <v>78.5</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="5" t="n">
         <v>420</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="7" t="n">
         <v>91.3</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27" s="9" t="n">
         <v>721</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="7" t="n">
         <v>75.3</v>
       </c>
-      <c r="K27" s="6" t="n">
+      <c r="K27" s="5" t="n">
         <v>84.90000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5" t="n">
+      <c r="C28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="E28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="n">
+      <c r="E28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="G28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7" t="n">
+      <c r="G28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="n">
         <v>541</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="K28" s="6" t="n">
+      <c r="K28" s="5" t="n">
         <v>84</v>
       </c>
     </row>
@@ -1498,63 +1501,63 @@
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="9" t="n">
         <v>1153</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="7" t="n">
         <v>64.3</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="8" t="n">
         <v>477</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="7" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="9" t="n">
         <v>1612</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="7" t="n">
         <v>56.7</v>
       </c>
-      <c r="H29" s="7" t="n">
+      <c r="H29" s="8" t="n">
         <v>629</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="7" t="n">
         <v>82.2</v>
       </c>
-      <c r="K29" s="6" t="n">
+      <c r="K29" s="5" t="n">
         <v>83.7</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="8" t="n">
         <v>565</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="6" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="D30" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="n">
+      <c r="D30" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8" t="n">
         <v>845</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="6" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="H30" s="8" t="n">
         <v>419</v>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="6" t="n">
         <v>86.5</v>
       </c>
-      <c r="K30" s="6" t="n">
+      <c r="K30" s="5" t="n">
         <v>82</v>
       </c>
     </row>
@@ -1562,63 +1565,63 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="n">
+      <c r="B31" s="9" t="n">
         <v>1117</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="7" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="8" t="n">
         <v>459</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="7" t="n">
         <v>85.5</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="8" t="n">
         <v>846</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="7" t="n">
         <v>77.5</v>
       </c>
-      <c r="H31" s="8" t="n">
+      <c r="H31" s="9" t="n">
         <v>828</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="7" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="K31" s="6" t="n">
+      <c r="K31" s="5" t="n">
         <v>81.5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="n">
+      <c r="B32" s="9" t="n">
         <v>760</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="D32" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4" t="n">
+      <c r="D32" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5" t="n">
         <v>221</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="6" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="H32" s="8" t="n">
+      <c r="H32" s="9" t="n">
         <v>1114</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I32" s="6" t="n">
         <v>67.3</v>
       </c>
-      <c r="K32" s="6" t="n">
+      <c r="K32" s="5" t="n">
         <v>81.3</v>
       </c>
     </row>
@@ -1626,63 +1629,63 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="10" t="n">
         <v>1421</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="7" t="n">
         <v>53.3</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="8" t="n">
         <v>410</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="7" t="n">
         <v>86.5</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="8" t="n">
         <v>935</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="7" t="n">
         <v>75.7</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6" t="n">
+      <c r="H33" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="n">
         <v>81.09999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7" t="n">
+      <c r="B34" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8" t="n">
         <v>484</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="6" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="F34" s="7" t="n">
+      <c r="F34" s="8" t="n">
         <v>872</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6" t="n">
+      <c r="H34" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="n">
         <v>81</v>
       </c>
     </row>
@@ -1690,63 +1693,63 @@
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="n">
+      <c r="B35" s="8" t="n">
         <v>567</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="7" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="8" t="n">
         <v>865</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="7" t="n">
         <v>77</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="9" t="n">
         <v>1717</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="7" t="n">
         <v>54.6</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="H35" s="8" t="n">
         <v>506</v>
       </c>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="7" t="n">
         <v>84.7</v>
       </c>
-      <c r="K35" s="6" t="n">
+      <c r="K35" s="5" t="n">
         <v>80.90000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="10" t="n">
         <v>2181</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="6" t="n">
         <v>36.4</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="8" t="n">
         <v>460</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="6" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="F36" s="7" t="n">
+      <c r="F36" s="8" t="n">
         <v>967</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36" s="9" t="n">
         <v>1280</v>
       </c>
-      <c r="I36" s="5" t="n">
+      <c r="I36" s="6" t="n">
         <v>63.9</v>
       </c>
-      <c r="K36" s="6" t="n">
+      <c r="K36" s="5" t="n">
         <v>80.2</v>
       </c>
     </row>
@@ -1754,63 +1757,63 @@
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="n">
+      <c r="B37" s="9" t="n">
         <v>952</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="7" t="n">
         <v>68.8</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="8" t="n">
         <v>886</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="7" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="F37" s="8" t="n">
+      <c r="F37" s="9" t="n">
         <v>1971</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="7" t="n">
         <v>49.3</v>
       </c>
-      <c r="H37" s="7" t="n">
+      <c r="H37" s="8" t="n">
         <v>625</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="7" t="n">
         <v>82.3</v>
       </c>
-      <c r="K37" s="6" t="n">
+      <c r="K37" s="5" t="n">
         <v>79.40000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B38" s="9" t="n">
         <v>1242</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="6" t="n">
         <v>62.3</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="8" t="n">
         <v>903</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="6" t="n">
         <v>76.2</v>
       </c>
-      <c r="F38" s="8" t="n">
+      <c r="F38" s="9" t="n">
         <v>1582</v>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="G38" s="6" t="n">
         <v>57.3</v>
       </c>
-      <c r="H38" s="7" t="n">
+      <c r="H38" s="8" t="n">
         <v>621</v>
       </c>
-      <c r="I38" s="5" t="n">
+      <c r="I38" s="6" t="n">
         <v>82.3</v>
       </c>
-      <c r="K38" s="6" t="n">
+      <c r="K38" s="5" t="n">
         <v>79.2</v>
       </c>
     </row>
@@ -1818,63 +1821,63 @@
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="10" t="n">
         <v>1799</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="7" t="n">
         <v>44.9</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="8" t="n">
         <v>555</v>
       </c>
-      <c r="E39" s="5" t="n">
+      <c r="E39" s="7" t="n">
         <v>83.5</v>
       </c>
-      <c r="F39" s="8" t="n">
+      <c r="F39" s="9" t="n">
         <v>1622</v>
       </c>
-      <c r="G39" s="5" t="n">
+      <c r="G39" s="7" t="n">
         <v>56.5</v>
       </c>
-      <c r="H39" s="8" t="n">
+      <c r="H39" s="9" t="n">
         <v>769</v>
       </c>
-      <c r="I39" s="5" t="n">
+      <c r="I39" s="7" t="n">
         <v>74.3</v>
       </c>
-      <c r="K39" s="6" t="n">
+      <c r="K39" s="5" t="n">
         <v>78.90000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="n">
+      <c r="B40" s="9" t="n">
         <v>1332</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="6" t="n">
         <v>60.3</v>
       </c>
-      <c r="D40" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7" t="n">
+      <c r="D40" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8" t="n">
         <v>948</v>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="G40" s="6" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="H40" s="7" t="n">
+      <c r="H40" s="8" t="n">
         <v>617</v>
       </c>
-      <c r="I40" s="5" t="n">
+      <c r="I40" s="6" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="K40" s="6" t="n">
+      <c r="K40" s="5" t="n">
         <v>78.90000000000001</v>
       </c>
     </row>
@@ -1882,63 +1885,63 @@
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="n">
+      <c r="B41" s="9" t="n">
         <v>1272</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="7" t="n">
         <v>61.6</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="8" t="n">
         <v>451</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="7" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="F41" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8" t="n">
+      <c r="F41" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9" t="n">
         <v>897</v>
       </c>
-      <c r="I41" s="5" t="n">
+      <c r="I41" s="7" t="n">
         <v>71.7</v>
       </c>
-      <c r="K41" s="6" t="n">
+      <c r="K41" s="5" t="n">
         <v>78.7</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="n">
+      <c r="B42" s="9" t="n">
         <v>730</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="8" t="n">
         <v>1024</v>
       </c>
-      <c r="E42" s="5" t="n">
+      <c r="E42" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c r="F42" s="7" t="n">
+      <c r="F42" s="8" t="n">
         <v>557</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="G42" s="6" t="n">
         <v>83.5</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="9" t="n">
         <v>1092</v>
       </c>
-      <c r="I42" s="5" t="n">
+      <c r="I42" s="6" t="n">
         <v>67.7</v>
       </c>
-      <c r="K42" s="6" t="n">
+      <c r="K42" s="5" t="n">
         <v>78.59999999999999</v>
       </c>
     </row>
@@ -1946,63 +1949,63 @@
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="8" t="n">
+      <c r="B43" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9" t="n">
         <v>1144</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="7" t="n">
         <v>66.2</v>
       </c>
-      <c r="F43" s="7" t="n">
+      <c r="F43" s="8" t="n">
         <v>598</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43" s="7" t="n">
         <v>82.7</v>
       </c>
-      <c r="H43" s="8" t="n">
+      <c r="H43" s="9" t="n">
         <v>798</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="7" t="n">
         <v>73.7</v>
       </c>
-      <c r="K43" s="6" t="n">
+      <c r="K43" s="5" t="n">
         <v>78.2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="n">
+      <c r="B44" s="9" t="n">
         <v>1210</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="8" t="n">
         <v>648</v>
       </c>
-      <c r="E44" s="5" t="n">
+      <c r="E44" s="6" t="n">
         <v>81.5</v>
       </c>
-      <c r="F44" s="7" t="n">
+      <c r="F44" s="8" t="n">
         <v>985</v>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="G44" s="6" t="n">
         <v>74.7</v>
       </c>
-      <c r="H44" s="9" t="n">
+      <c r="H44" s="10" t="n">
         <v>1860</v>
       </c>
-      <c r="I44" s="5" t="n">
+      <c r="I44" s="6" t="n">
         <v>47.1</v>
       </c>
-      <c r="K44" s="6" t="n">
+      <c r="K44" s="5" t="n">
         <v>78.09999999999999</v>
       </c>
     </row>
@@ -2010,63 +2013,63 @@
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="n">
+      <c r="B45" s="9" t="n">
         <v>1136</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="7" t="n">
         <v>64.7</v>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45" s="9" t="n">
         <v>1238</v>
       </c>
-      <c r="E45" s="5" t="n">
+      <c r="E45" s="7" t="n">
         <v>64.3</v>
       </c>
-      <c r="F45" s="8" t="n">
+      <c r="F45" s="9" t="n">
         <v>1178</v>
       </c>
-      <c r="G45" s="5" t="n">
+      <c r="G45" s="7" t="n">
         <v>65.7</v>
       </c>
-      <c r="H45" s="7" t="n">
+      <c r="H45" s="8" t="n">
         <v>268</v>
       </c>
-      <c r="I45" s="5" t="n">
+      <c r="I45" s="7" t="n">
         <v>89.5</v>
       </c>
-      <c r="K45" s="6" t="n">
+      <c r="K45" s="5" t="n">
         <v>77.59999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="n">
+      <c r="B46" s="9" t="n">
         <v>901</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="6" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="8" t="n">
         <v>350</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46" s="6" t="n">
         <v>87.7</v>
       </c>
-      <c r="F46" s="8" t="n">
+      <c r="F46" s="9" t="n">
         <v>1127</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46" s="6" t="n">
         <v>66.7</v>
       </c>
-      <c r="H46" s="9" t="n">
+      <c r="H46" s="10" t="n">
         <v>1573</v>
       </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="6" t="n">
         <v>52.9</v>
       </c>
-      <c r="K46" s="6" t="n">
+      <c r="K46" s="5" t="n">
         <v>77.2</v>
       </c>
     </row>
@@ -2074,63 +2077,63 @@
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="7" t="n">
+      <c r="B47" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8" t="n">
         <v>958</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="7" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="F47" s="7" t="n">
+      <c r="F47" s="8" t="n">
         <v>817</v>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="G47" s="7" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="H47" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6" t="n">
+      <c r="H47" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="n">
         <v>76.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="10" t="n">
         <v>1855</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="6" t="n">
         <v>43.6</v>
       </c>
-      <c r="D48" s="7" t="n">
+      <c r="D48" s="8" t="n">
         <v>892</v>
       </c>
-      <c r="E48" s="5" t="n">
+      <c r="E48" s="6" t="n">
         <v>76.5</v>
       </c>
-      <c r="F48" s="8" t="n">
+      <c r="F48" s="9" t="n">
         <v>1429</v>
       </c>
-      <c r="G48" s="5" t="n">
+      <c r="G48" s="6" t="n">
         <v>60.5</v>
       </c>
-      <c r="H48" s="8" t="n">
+      <c r="H48" s="9" t="n">
         <v>811</v>
       </c>
-      <c r="I48" s="5" t="n">
+      <c r="I48" s="6" t="n">
         <v>73.5</v>
       </c>
-      <c r="K48" s="6" t="n">
+      <c r="K48" s="5" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2138,63 +2141,63 @@
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="8" t="n">
+      <c r="B49" s="9" t="n">
         <v>1133</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="7" t="n">
         <v>64.7</v>
       </c>
-      <c r="D49" s="7" t="n">
+      <c r="D49" s="8" t="n">
         <v>975</v>
       </c>
-      <c r="E49" s="5" t="n">
+      <c r="E49" s="7" t="n">
         <v>74.7</v>
       </c>
-      <c r="F49" s="7" t="n">
+      <c r="F49" s="8" t="n">
         <v>959</v>
       </c>
-      <c r="G49" s="5" t="n">
+      <c r="G49" s="7" t="n">
         <v>75.2</v>
       </c>
-      <c r="H49" s="9" t="n">
+      <c r="H49" s="10" t="n">
         <v>1754</v>
       </c>
-      <c r="I49" s="5" t="n">
+      <c r="I49" s="7" t="n">
         <v>49.2</v>
       </c>
-      <c r="K49" s="6" t="n">
+      <c r="K49" s="5" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="8" t="n">
+      <c r="B50" s="9" t="n">
         <v>1025</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="6" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="D50" s="9" t="n">
+      <c r="D50" s="10" t="n">
         <v>2546</v>
       </c>
-      <c r="E50" s="5" t="n">
+      <c r="E50" s="6" t="n">
         <v>32.1</v>
       </c>
-      <c r="F50" s="8" t="n">
+      <c r="F50" s="9" t="n">
         <v>1136</v>
       </c>
-      <c r="G50" s="5" t="n">
+      <c r="G50" s="6" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="H50" s="7" t="n">
+      <c r="H50" s="8" t="n">
         <v>579</v>
       </c>
-      <c r="I50" s="5" t="n">
+      <c r="I50" s="6" t="n">
         <v>83.2</v>
       </c>
-      <c r="K50" s="6" t="n">
+      <c r="K50" s="5" t="n">
         <v>74.90000000000001</v>
       </c>
     </row>
@@ -2202,63 +2205,63 @@
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="7" t="n">
+      <c r="B51" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="8" t="n">
         <v>1043</v>
       </c>
-      <c r="E51" s="5" t="n">
+      <c r="E51" s="7" t="n">
         <v>73.3</v>
       </c>
-      <c r="F51" s="8" t="n">
+      <c r="F51" s="9" t="n">
         <v>2069</v>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="G51" s="7" t="n">
         <v>47.3</v>
       </c>
-      <c r="H51" s="8" t="n">
+      <c r="H51" s="9" t="n">
         <v>790</v>
       </c>
-      <c r="I51" s="5" t="n">
+      <c r="I51" s="7" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="K51" s="6" t="n">
+      <c r="K51" s="5" t="n">
         <v>73.59999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="n">
+      <c r="B52" s="10" t="n">
         <v>2018</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="D52" s="7" t="n">
+      <c r="D52" s="8" t="n">
         <v>510</v>
       </c>
-      <c r="E52" s="5" t="n">
+      <c r="E52" s="6" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="F52" s="8" t="n">
+      <c r="F52" s="9" t="n">
         <v>1414</v>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="G52" s="6" t="n">
         <v>60.8</v>
       </c>
-      <c r="H52" s="9" t="n">
+      <c r="H52" s="10" t="n">
         <v>1900</v>
       </c>
-      <c r="I52" s="5" t="n">
+      <c r="I52" s="6" t="n">
         <v>46.3</v>
       </c>
-      <c r="K52" s="6" t="n">
+      <c r="K52" s="5" t="n">
         <v>72.59999999999999</v>
       </c>
     </row>
@@ -2266,63 +2269,63 @@
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="n">
+      <c r="B53" s="9" t="n">
         <v>870</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="7" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" s="8" t="n">
         <v>385</v>
       </c>
-      <c r="E53" s="5" t="n">
+      <c r="E53" s="7" t="n">
         <v>87</v>
       </c>
-      <c r="F53" s="8" t="n">
+      <c r="F53" s="9" t="n">
         <v>1727</v>
       </c>
-      <c r="G53" s="5" t="n">
+      <c r="G53" s="7" t="n">
         <v>54.4</v>
       </c>
-      <c r="H53" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6" t="n">
+      <c r="H53" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="n">
         <v>70.7</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="8" t="n">
+      <c r="B54" s="9" t="n">
         <v>858</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" s="6" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" s="8" t="n">
         <v>458</v>
       </c>
-      <c r="E54" s="5" t="n">
+      <c r="E54" s="6" t="n">
         <v>85.5</v>
       </c>
-      <c r="F54" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="n">
+      <c r="F54" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10" t="n">
         <v>1463</v>
       </c>
-      <c r="I54" s="5" t="n">
+      <c r="I54" s="6" t="n">
         <v>55.2</v>
       </c>
-      <c r="K54" s="6" t="n">
+      <c r="K54" s="5" t="n">
         <v>70.3</v>
       </c>
     </row>
@@ -2330,63 +2333,63 @@
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="8" t="n">
+      <c r="B55" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="9" t="n">
         <v>1223</v>
       </c>
-      <c r="E55" s="5" t="n">
+      <c r="E55" s="7" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="F55" s="8" t="n">
+      <c r="F55" s="9" t="n">
         <v>1340</v>
       </c>
-      <c r="G55" s="5" t="n">
+      <c r="G55" s="7" t="n">
         <v>62.3</v>
       </c>
-      <c r="H55" s="8" t="n">
+      <c r="H55" s="9" t="n">
         <v>740</v>
       </c>
-      <c r="I55" s="5" t="n">
+      <c r="I55" s="7" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="K55" s="6" t="n">
+      <c r="K55" s="5" t="n">
         <v>69.8</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="8" t="n">
+      <c r="B56" s="9" t="n">
         <v>736</v>
       </c>
-      <c r="C56" s="5" t="n">
+      <c r="C56" s="6" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="D56" s="8" t="n">
+      <c r="D56" s="9" t="n">
         <v>1283</v>
       </c>
-      <c r="E56" s="5" t="n">
+      <c r="E56" s="6" t="n">
         <v>63.3</v>
       </c>
-      <c r="F56" s="9" t="n">
+      <c r="F56" s="10" t="n">
         <v>2615</v>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="G56" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="H56" s="8" t="n">
+      <c r="H56" s="9" t="n">
         <v>792</v>
       </c>
-      <c r="I56" s="5" t="n">
+      <c r="I56" s="6" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="K56" s="6" t="n">
+      <c r="K56" s="5" t="n">
         <v>68.59999999999999</v>
       </c>
     </row>
@@ -2394,63 +2397,63 @@
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="8" t="n">
+      <c r="B57" s="9" t="n">
         <v>1109</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="7" t="n">
         <v>65.3</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57" s="9" t="n">
         <v>1181</v>
       </c>
-      <c r="E57" s="5" t="n">
+      <c r="E57" s="7" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="F57" s="8" t="n">
+      <c r="F57" s="9" t="n">
         <v>1223</v>
       </c>
-      <c r="G57" s="5" t="n">
+      <c r="G57" s="7" t="n">
         <v>64.8</v>
       </c>
-      <c r="H57" s="8" t="n">
+      <c r="H57" s="9" t="n">
         <v>913</v>
       </c>
-      <c r="I57" s="5" t="n">
+      <c r="I57" s="7" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="K57" s="6" t="n">
+      <c r="K57" s="5" t="n">
         <v>68.40000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="n">
+      <c r="B58" s="8" t="n">
         <v>315</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="D58" s="8" t="n">
+      <c r="D58" s="9" t="n">
         <v>2123</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58" s="6" t="n">
         <v>45.9</v>
       </c>
-      <c r="F58" s="7" t="n">
+      <c r="F58" s="8" t="n">
         <v>757</v>
       </c>
-      <c r="G58" s="5" t="n">
+      <c r="G58" s="6" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="H58" s="9" t="n">
+      <c r="H58" s="10" t="n">
         <v>1642</v>
       </c>
-      <c r="I58" s="5" t="n">
+      <c r="I58" s="6" t="n">
         <v>51.5</v>
       </c>
-      <c r="K58" s="6" t="n">
+      <c r="K58" s="5" t="n">
         <v>65.5</v>
       </c>
     </row>
@@ -2458,63 +2461,63 @@
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B59" s="10" t="n">
         <v>2048</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="7" t="n">
         <v>39.3</v>
       </c>
-      <c r="D59" s="8" t="n">
+      <c r="D59" s="9" t="n">
         <v>1234</v>
       </c>
-      <c r="E59" s="5" t="n">
+      <c r="E59" s="7" t="n">
         <v>64.3</v>
       </c>
-      <c r="F59" s="8" t="n">
+      <c r="F59" s="9" t="n">
         <v>1181</v>
       </c>
-      <c r="G59" s="5" t="n">
+      <c r="G59" s="7" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="H59" s="8" t="n">
+      <c r="H59" s="9" t="n">
         <v>1297</v>
       </c>
-      <c r="I59" s="5" t="n">
+      <c r="I59" s="7" t="n">
         <v>63.6</v>
       </c>
-      <c r="K59" s="6" t="n">
+      <c r="K59" s="5" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="n">
+      <c r="B60" s="10" t="n">
         <v>2157</v>
       </c>
-      <c r="C60" s="5" t="n">
+      <c r="C60" s="6" t="n">
         <v>36.9</v>
       </c>
-      <c r="D60" s="8" t="n">
+      <c r="D60" s="9" t="n">
         <v>1642</v>
       </c>
-      <c r="E60" s="5" t="n">
+      <c r="E60" s="6" t="n">
         <v>55.9</v>
       </c>
-      <c r="F60" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8" t="n">
+      <c r="F60" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="n">
         <v>789</v>
       </c>
-      <c r="I60" s="5" t="n">
+      <c r="I60" s="6" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="K60" s="6" t="n">
+      <c r="K60" s="5" t="n">
         <v>64.90000000000001</v>
       </c>
     </row>
@@ -2522,63 +2525,63 @@
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="8" t="n">
+      <c r="B61" s="9" t="n">
         <v>1215</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="7" t="n">
         <v>62.9</v>
       </c>
-      <c r="D61" s="8" t="n">
+      <c r="D61" s="9" t="n">
         <v>1648</v>
       </c>
-      <c r="E61" s="5" t="n">
+      <c r="E61" s="7" t="n">
         <v>55.7</v>
       </c>
-      <c r="F61" s="8" t="n">
+      <c r="F61" s="9" t="n">
         <v>1754</v>
       </c>
-      <c r="G61" s="5" t="n">
+      <c r="G61" s="7" t="n">
         <v>53.8</v>
       </c>
-      <c r="H61" s="8" t="n">
+      <c r="H61" s="9" t="n">
         <v>883</v>
       </c>
-      <c r="I61" s="5" t="n">
+      <c r="I61" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="K61" s="6" t="n">
+      <c r="K61" s="5" t="n">
         <v>63.9</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="C62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" s="5" t="n">
+      <c r="C62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="E62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7" t="n">
+      <c r="E62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8" t="n">
         <v>608</v>
       </c>
-      <c r="G62" s="5" t="n">
+      <c r="G62" s="6" t="n">
         <v>82.5</v>
       </c>
-      <c r="H62" s="9" t="n">
+      <c r="H62" s="10" t="n">
         <v>1959</v>
       </c>
-      <c r="I62" s="5" t="n">
+      <c r="I62" s="6" t="n">
         <v>45.1</v>
       </c>
-      <c r="K62" s="6" t="n">
+      <c r="K62" s="5" t="n">
         <v>63.8</v>
       </c>
     </row>
@@ -2586,63 +2589,63 @@
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="8" t="n">
+      <c r="B63" s="9" t="n">
         <v>867</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="7" t="n">
         <v>70.7</v>
       </c>
-      <c r="D63" s="8" t="n">
+      <c r="D63" s="9" t="n">
         <v>1421</v>
       </c>
-      <c r="E63" s="5" t="n">
+      <c r="E63" s="7" t="n">
         <v>60.4</v>
       </c>
-      <c r="F63" s="9" t="n">
+      <c r="F63" s="10" t="n">
         <v>2124</v>
       </c>
-      <c r="G63" s="5" t="n">
+      <c r="G63" s="7" t="n">
         <v>41.2</v>
       </c>
-      <c r="H63" s="8" t="n">
+      <c r="H63" s="9" t="n">
         <v>1153</v>
       </c>
-      <c r="I63" s="5" t="n">
+      <c r="I63" s="7" t="n">
         <v>66.5</v>
       </c>
-      <c r="K63" s="6" t="n">
+      <c r="K63" s="5" t="n">
         <v>63.4</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="8" t="n">
+      <c r="B64" s="9" t="n">
         <v>995</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" s="6" t="n">
         <v>67.8</v>
       </c>
-      <c r="D64" s="7" t="n">
+      <c r="D64" s="8" t="n">
         <v>914</v>
       </c>
-      <c r="E64" s="5" t="n">
+      <c r="E64" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="F64" s="8" t="n">
+      <c r="F64" s="9" t="n">
         <v>2034</v>
       </c>
-      <c r="G64" s="5" t="n">
+      <c r="G64" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="H64" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="6" t="n">
+      <c r="H64" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="n">
         <v>62</v>
       </c>
     </row>
@@ -2650,63 +2653,63 @@
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="9" t="n">
+      <c r="B65" s="10" t="n">
         <v>1537</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="7" t="n">
         <v>50.7</v>
       </c>
-      <c r="D65" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="n">
+      <c r="D65" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8" t="n">
         <v>986</v>
       </c>
-      <c r="G65" s="5" t="n">
+      <c r="G65" s="7" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="H65" s="9" t="n">
+      <c r="H65" s="10" t="n">
         <v>1778</v>
       </c>
-      <c r="I65" s="5" t="n">
+      <c r="I65" s="7" t="n">
         <v>48.8</v>
       </c>
-      <c r="K65" s="6" t="n">
+      <c r="K65" s="5" t="n">
         <v>61.7</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="9" t="n">
+      <c r="B66" s="10" t="n">
         <v>2119</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="6" t="n">
         <v>37.7</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66" s="9" t="n">
         <v>1412</v>
       </c>
-      <c r="E66" s="5" t="n">
+      <c r="E66" s="6" t="n">
         <v>60.6</v>
       </c>
-      <c r="F66" s="8" t="n">
+      <c r="F66" s="9" t="n">
         <v>1876</v>
       </c>
-      <c r="G66" s="5" t="n">
+      <c r="G66" s="6" t="n">
         <v>51.3</v>
       </c>
-      <c r="H66" s="9" t="n">
+      <c r="H66" s="10" t="n">
         <v>1373</v>
       </c>
-      <c r="I66" s="5" t="n">
+      <c r="I66" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="K66" s="6" t="n">
+      <c r="K66" s="5" t="n">
         <v>58.8</v>
       </c>
     </row>
@@ -2714,63 +2717,63 @@
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="9" t="n">
+      <c r="B67" s="10" t="n">
         <v>2011</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="7" t="n">
         <v>40.1</v>
       </c>
-      <c r="D67" s="8" t="n">
+      <c r="D67" s="9" t="n">
         <v>1398</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="7" t="n">
         <v>60.9</v>
       </c>
-      <c r="F67" s="8" t="n">
+      <c r="F67" s="9" t="n">
         <v>2099</v>
       </c>
-      <c r="G67" s="5" t="n">
+      <c r="G67" s="7" t="n">
         <v>46.7</v>
       </c>
-      <c r="H67" s="9" t="n">
+      <c r="H67" s="10" t="n">
         <v>1665</v>
       </c>
-      <c r="I67" s="5" t="n">
+      <c r="I67" s="7" t="n">
         <v>51.1</v>
       </c>
-      <c r="K67" s="6" t="n">
+      <c r="K67" s="5" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" s="7" t="n">
+      <c r="B68" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8" t="n">
         <v>942</v>
       </c>
-      <c r="E68" s="5" t="n">
+      <c r="E68" s="6" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="F68" s="9" t="n">
+      <c r="F68" s="10" t="n">
         <v>2382</v>
       </c>
-      <c r="G68" s="5" t="n">
+      <c r="G68" s="6" t="n">
         <v>35.8</v>
       </c>
-      <c r="H68" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="6" t="n">
+      <c r="H68" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="n">
         <v>55.6</v>
       </c>
     </row>
@@ -2778,63 +2781,63 @@
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="9" t="n">
+      <c r="B69" s="10" t="n">
         <v>2014</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="7" t="n">
         <v>40.1</v>
       </c>
-      <c r="D69" s="8" t="n">
+      <c r="D69" s="9" t="n">
         <v>2067</v>
       </c>
-      <c r="E69" s="5" t="n">
+      <c r="E69" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="F69" s="8" t="n">
+      <c r="F69" s="9" t="n">
         <v>1309</v>
       </c>
-      <c r="G69" s="5" t="n">
+      <c r="G69" s="7" t="n">
         <v>63</v>
       </c>
-      <c r="H69" s="9" t="n">
+      <c r="H69" s="10" t="n">
         <v>1917</v>
       </c>
-      <c r="I69" s="5" t="n">
+      <c r="I69" s="7" t="n">
         <v>45.9</v>
       </c>
-      <c r="K69" s="6" t="n">
+      <c r="K69" s="5" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C70" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" s="8" t="n">
+      <c r="B70" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="9" t="n">
         <v>1657</v>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E70" s="6" t="n">
         <v>55.5</v>
       </c>
-      <c r="F70" s="8" t="n">
+      <c r="F70" s="9" t="n">
         <v>1955</v>
       </c>
-      <c r="G70" s="5" t="n">
+      <c r="G70" s="6" t="n">
         <v>49.6</v>
       </c>
-      <c r="H70" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I70" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" s="6" t="n">
+      <c r="H70" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5" t="n">
         <v>52.5</v>
       </c>
     </row>
@@ -2842,63 +2845,63 @@
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="9" t="n">
+      <c r="B71" s="10" t="n">
         <v>1637</v>
       </c>
-      <c r="C71" s="5" t="n">
+      <c r="C71" s="7" t="n">
         <v>48.5</v>
       </c>
-      <c r="D71" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9" t="n">
+      <c r="D71" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10" t="n">
         <v>2217</v>
       </c>
-      <c r="G71" s="5" t="n">
+      <c r="G71" s="7" t="n">
         <v>39.2</v>
       </c>
-      <c r="H71" s="8" t="n">
+      <c r="H71" s="9" t="n">
         <v>1275</v>
       </c>
-      <c r="I71" s="5" t="n">
+      <c r="I71" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="K71" s="6" t="n">
+      <c r="K71" s="5" t="n">
         <v>51.6</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="C72" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" s="5" t="n">
+      <c r="C72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="E72" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8" t="n">
+      <c r="E72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9" t="n">
         <v>1761</v>
       </c>
-      <c r="G72" s="5" t="n">
+      <c r="G72" s="6" t="n">
         <v>53.7</v>
       </c>
-      <c r="H72" s="9" t="n">
+      <c r="H72" s="10" t="n">
         <v>1838</v>
       </c>
-      <c r="I72" s="5" t="n">
+      <c r="I72" s="6" t="n">
         <v>47.5</v>
       </c>
-      <c r="K72" s="6" t="n">
+      <c r="K72" s="5" t="n">
         <v>50.6</v>
       </c>
     </row>
@@ -2906,63 +2909,63 @@
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C73" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="8" t="n">
+      <c r="B73" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="9" t="n">
         <v>2027</v>
       </c>
-      <c r="E73" s="5" t="n">
+      <c r="E73" s="7" t="n">
         <v>47.8</v>
       </c>
-      <c r="F73" s="8" t="n">
+      <c r="F73" s="9" t="n">
         <v>2079</v>
       </c>
-      <c r="G73" s="5" t="n">
+      <c r="G73" s="7" t="n">
         <v>47.1</v>
       </c>
-      <c r="H73" s="9" t="n">
+      <c r="H73" s="10" t="n">
         <v>1762</v>
       </c>
-      <c r="I73" s="5" t="n">
+      <c r="I73" s="7" t="n">
         <v>49.1</v>
       </c>
-      <c r="K73" s="6" t="n">
+      <c r="K73" s="5" t="n">
         <v>48.5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="7" t="n">
+      <c r="B74" s="8" t="n">
         <v>461</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C74" s="6" t="n">
         <v>84.7</v>
       </c>
-      <c r="D74" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E74" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7" t="n">
+      <c r="D74" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8" t="n">
         <v>544</v>
       </c>
-      <c r="G74" s="5" t="n">
+      <c r="G74" s="6" t="n">
         <v>83.8</v>
       </c>
-      <c r="H74" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I74" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" s="6" t="n">
+      <c r="H74" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5" t="n">
         <v>41.9</v>
       </c>
     </row>
@@ -2970,63 +2973,63 @@
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="8" t="n">
+      <c r="B75" s="9" t="n">
         <v>1361</v>
       </c>
-      <c r="C75" s="5" t="n">
+      <c r="C75" s="7" t="n">
         <v>59.6</v>
       </c>
-      <c r="D75" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G75" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="8" t="n">
+      <c r="D75" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9" t="n">
         <v>908</v>
       </c>
-      <c r="I75" s="5" t="n">
+      <c r="I75" s="7" t="n">
         <v>71.5</v>
       </c>
-      <c r="K75" s="6" t="n">
+      <c r="K75" s="5" t="n">
         <v>35.8</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="7" t="n">
+      <c r="B76" s="8" t="n">
         <v>641</v>
       </c>
-      <c r="C76" s="5" t="n">
+      <c r="C76" s="6" t="n">
         <v>80.7</v>
       </c>
-      <c r="D76" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E76" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G76" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I76" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" s="6" t="n">
+      <c r="D76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,41 +3037,41 @@
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="5" t="n">
+      <c r="B77" s="7" t="n">
         <v>-2</v>
       </c>
-      <c r="C77" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" s="5" t="n">
+      <c r="C77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7" t="n">
         <v>-2</v>
       </c>
-      <c r="E77" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="5" t="n">
+      <c r="E77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7" t="n">
         <v>-2</v>
       </c>
-      <c r="G77" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I77" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" s="6" t="n">
+      <c r="G77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="11" t="s">
         <v>77</v>
       </c>
     </row>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -272,7 +272,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -292,6 +292,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0019b457"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffb261"/>
       </patternFill>
     </fill>
     <fill>
@@ -322,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -342,16 +347,19 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -725,7 +733,7 @@
       <c r="I4" s="6" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="7" t="n">
         <v>99.8</v>
       </c>
     </row>
@@ -736,28 +744,28 @@
       <c r="B5" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="8" t="n">
         <v>99.3</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="8" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="8" t="n">
         <v>99.2</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="7" t="n">
         <v>99.59999999999999</v>
       </c>
     </row>
@@ -765,7 +773,7 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>324</v>
       </c>
       <c r="C6" s="6" t="n">
@@ -789,7 +797,7 @@
       <c r="I6" s="6" t="n">
         <v>97.7</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="7" t="n">
         <v>98.2</v>
       </c>
     </row>
@@ -797,31 +805,31 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>233</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>89.8</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="10" t="n">
         <v>2069</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>47</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="8" t="n">
         <v>96.3</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="8" t="n">
         <v>98.8</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="7" t="n">
         <v>97.5</v>
       </c>
     </row>
@@ -841,7 +849,7 @@
       <c r="E8" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <v>675</v>
       </c>
       <c r="G8" s="6" t="n">
@@ -853,7 +861,7 @@
       <c r="I8" s="6" t="n">
         <v>97.8</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="7" t="n">
         <v>97.2</v>
       </c>
     </row>
@@ -864,28 +872,28 @@
       <c r="B9" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <v>97.5</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>154</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="8" t="n">
         <v>96.8</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="9" t="n">
         <v>637</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="7" t="n">
         <v>96.7</v>
       </c>
     </row>
@@ -917,7 +925,7 @@
       <c r="I10" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="7" t="n">
         <v>96.59999999999999</v>
       </c>
     </row>
@@ -925,31 +933,31 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>251</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <v>89.40000000000001</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>127</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="9" t="n">
         <v>581</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="8" t="n">
         <v>83</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>218</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="8" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="7" t="n">
         <v>96.5</v>
       </c>
     </row>
@@ -957,7 +965,7 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>514</v>
       </c>
       <c r="C12" s="6" t="n">
@@ -975,13 +983,13 @@
       <c r="G12" s="6" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="9" t="n">
         <v>250</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="7" t="n">
         <v>96.40000000000001</v>
       </c>
     </row>
@@ -989,31 +997,31 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>429</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>174</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="8" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>322</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="8" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="9" t="n">
         <v>492</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="7" t="n">
         <v>94.90000000000001</v>
       </c>
     </row>
@@ -1021,13 +1029,13 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="11" t="n">
         <v>1455</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>52.5</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9" t="n">
         <v>1023</v>
       </c>
       <c r="E14" s="6" t="n">
@@ -1045,7 +1053,7 @@
       <c r="I14" s="6" t="n">
         <v>96.2</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="7" t="n">
         <v>94.59999999999999</v>
       </c>
     </row>
@@ -1056,28 +1064,28 @@
       <c r="B15" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="8" t="n">
         <v>98.7</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9" t="n">
         <v>454</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>425</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="8" t="n">
         <v>91.2</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="8" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="7" t="n">
         <v>94.59999999999999</v>
       </c>
     </row>
@@ -1085,13 +1093,13 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>642</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>80.7</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9" t="n">
         <v>672</v>
       </c>
       <c r="E16" s="6" t="n">
@@ -1109,7 +1117,7 @@
       <c r="I16" s="6" t="n">
         <v>95.8</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="7" t="n">
         <v>92.59999999999999</v>
       </c>
     </row>
@@ -1117,31 +1125,31 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>578</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="8" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>233</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="8" t="n">
         <v>95.2</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>502</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="8" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H17" s="11" t="n">
         <v>1641</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="8" t="n">
         <v>51.5</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="7" t="n">
         <v>92.40000000000001</v>
       </c>
     </row>
@@ -1149,13 +1157,13 @@
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>301</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>88.3</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="9" t="n">
         <v>344</v>
       </c>
       <c r="E18" s="6" t="n">
@@ -1173,7 +1181,7 @@
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="7" t="n">
         <v>91.5</v>
       </c>
     </row>
@@ -1181,31 +1189,31 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="8" t="n">
         <v>83.8</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>225</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="8" t="n">
         <v>95.3</v>
       </c>
-      <c r="F19" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8" t="n">
+      <c r="F19" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
         <v>430</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="8" t="n">
         <v>86.2</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="7" t="n">
         <v>90.8</v>
       </c>
     </row>
@@ -1213,13 +1221,13 @@
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="10" t="n">
         <v>1266</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>61.8</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="9" t="n">
         <v>345</v>
       </c>
       <c r="E20" s="6" t="n">
@@ -1231,13 +1239,13 @@
       <c r="G20" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="9" t="n">
         <v>488</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="7" t="n">
         <v>90.40000000000001</v>
       </c>
     </row>
@@ -1245,31 +1253,31 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="9" t="n">
         <v>290</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="8" t="n">
         <v>88.5</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9" t="n">
         <v>443</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="8" t="n">
         <v>85.8</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>336</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="8" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="9" t="n">
         <v>497</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="8" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="7" t="n">
         <v>89.5</v>
       </c>
     </row>
@@ -1277,7 +1285,7 @@
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="10" t="n">
         <v>1302</v>
       </c>
       <c r="C22" s="6" t="n">
@@ -1295,13 +1303,13 @@
       <c r="G22" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="H22" s="8" t="n">
+      <c r="H22" s="9" t="n">
         <v>560</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="7" t="n">
         <v>89.3</v>
       </c>
     </row>
@@ -1309,31 +1317,31 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="n">
+      <c r="B23" s="9" t="n">
         <v>612</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="8" t="n">
         <v>81.40000000000001</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="11" t="n">
         <v>2384</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="8" t="n">
         <v>35.4</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>397</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="8" t="n">
         <v>91.8</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="9" t="n">
         <v>561</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="8" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="7" t="n">
         <v>87.7</v>
       </c>
     </row>
@@ -1341,31 +1349,31 @@
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="9" t="n">
         <v>394</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>86.2</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="9" t="n">
         <v>509</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="11" t="n">
         <v>2350</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>36.5</v>
       </c>
-      <c r="H24" s="8" t="n">
+      <c r="H24" s="9" t="n">
         <v>276</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="7" t="n">
         <v>86.90000000000001</v>
       </c>
     </row>
@@ -1373,31 +1381,31 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="10" t="n">
         <v>1191</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="8" t="n">
         <v>63.4</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="9" t="n">
         <v>638</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="8" t="n">
         <v>81.7</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="9" t="n">
         <v>645</v>
       </c>
-      <c r="G25" s="7" t="n">
+      <c r="G25" s="8" t="n">
         <v>81.7</v>
       </c>
-      <c r="H25" s="8" t="n">
+      <c r="H25" s="9" t="n">
         <v>271</v>
       </c>
-      <c r="I25" s="7" t="n">
+      <c r="I25" s="8" t="n">
         <v>89.5</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="7" t="n">
         <v>85.59999999999999</v>
       </c>
     </row>
@@ -1411,7 +1419,7 @@
       <c r="C26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="9" t="n">
         <v>711</v>
       </c>
       <c r="E26" s="6" t="n">
@@ -1423,13 +1431,13 @@
       <c r="G26" s="6" t="n">
         <v>90.2</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H26" s="10" t="n">
         <v>806</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="7" t="n">
         <v>85.2</v>
       </c>
     </row>
@@ -1437,31 +1445,31 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B27" s="11" t="n">
         <v>1904</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="8" t="n">
         <v>42.5</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="9" t="n">
         <v>793</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="8" t="n">
         <v>78.5</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>420</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="G27" s="8" t="n">
         <v>91.3</v>
       </c>
-      <c r="H27" s="9" t="n">
+      <c r="H27" s="10" t="n">
         <v>721</v>
       </c>
-      <c r="I27" s="7" t="n">
+      <c r="I27" s="8" t="n">
         <v>75.3</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="7" t="n">
         <v>84.90000000000001</v>
       </c>
     </row>
@@ -1487,13 +1495,13 @@
       <c r="G28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="8" t="n">
+      <c r="H28" s="9" t="n">
         <v>541</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="7" t="n">
         <v>84</v>
       </c>
     </row>
@@ -1501,31 +1509,31 @@
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="10" t="n">
         <v>1153</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="8" t="n">
         <v>64.3</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="9" t="n">
         <v>477</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="8" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="10" t="n">
         <v>1612</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="G29" s="8" t="n">
         <v>56.7</v>
       </c>
-      <c r="H29" s="8" t="n">
+      <c r="H29" s="9" t="n">
         <v>629</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="8" t="n">
         <v>82.2</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="7" t="n">
         <v>83.7</v>
       </c>
     </row>
@@ -1533,7 +1541,7 @@
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="9" t="n">
         <v>565</v>
       </c>
       <c r="C30" s="6" t="n">
@@ -1545,19 +1553,19 @@
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="9" t="n">
         <v>845</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="H30" s="8" t="n">
+      <c r="H30" s="9" t="n">
         <v>419</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>86.5</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="7" t="n">
         <v>82</v>
       </c>
     </row>
@@ -1565,31 +1573,31 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="10" t="n">
         <v>1117</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="8" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="9" t="n">
         <v>459</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="8" t="n">
         <v>85.5</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="9" t="n">
         <v>846</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="G31" s="8" t="n">
         <v>77.5</v>
       </c>
-      <c r="H31" s="9" t="n">
+      <c r="H31" s="10" t="n">
         <v>828</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="I31" s="8" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="7" t="n">
         <v>81.5</v>
       </c>
     </row>
@@ -1597,7 +1605,7 @@
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="10" t="n">
         <v>760</v>
       </c>
       <c r="C32" s="6" t="n">
@@ -1615,13 +1623,13 @@
       <c r="G32" s="6" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="H32" s="9" t="n">
+      <c r="H32" s="10" t="n">
         <v>1114</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>67.3</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="7" t="n">
         <v>81.3</v>
       </c>
     </row>
@@ -1629,31 +1637,31 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B33" s="11" t="n">
         <v>1421</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="8" t="n">
         <v>53.3</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="9" t="n">
         <v>410</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="8" t="n">
         <v>86.5</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="9" t="n">
         <v>935</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="G33" s="8" t="n">
         <v>75.7</v>
       </c>
-      <c r="H33" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5" t="n">
+      <c r="H33" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="n">
         <v>81.09999999999999</v>
       </c>
     </row>
@@ -1667,13 +1675,13 @@
       <c r="C34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="9" t="n">
         <v>484</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="9" t="n">
         <v>872</v>
       </c>
       <c r="G34" s="6" t="n">
@@ -1685,7 +1693,7 @@
       <c r="I34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="7" t="n">
         <v>81</v>
       </c>
     </row>
@@ -1693,31 +1701,31 @@
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="n">
+      <c r="B35" s="9" t="n">
         <v>567</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="8" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="9" t="n">
         <v>865</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="8" t="n">
         <v>77</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="10" t="n">
         <v>1717</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="8" t="n">
         <v>54.6</v>
       </c>
-      <c r="H35" s="8" t="n">
+      <c r="H35" s="9" t="n">
         <v>506</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="I35" s="8" t="n">
         <v>84.7</v>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="7" t="n">
         <v>80.90000000000001</v>
       </c>
     </row>
@@ -1725,31 +1733,31 @@
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="11" t="n">
         <v>2181</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>36.4</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="9" t="n">
         <v>460</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="9" t="n">
         <v>967</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="H36" s="9" t="n">
+      <c r="H36" s="10" t="n">
         <v>1280</v>
       </c>
       <c r="I36" s="6" t="n">
         <v>63.9</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="7" t="n">
         <v>80.2</v>
       </c>
     </row>
@@ -1757,31 +1765,31 @@
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="10" t="n">
         <v>952</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="8" t="n">
         <v>68.8</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="9" t="n">
         <v>886</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="8" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="F37" s="9" t="n">
+      <c r="F37" s="10" t="n">
         <v>1971</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="G37" s="8" t="n">
         <v>49.3</v>
       </c>
-      <c r="H37" s="8" t="n">
+      <c r="H37" s="9" t="n">
         <v>625</v>
       </c>
-      <c r="I37" s="7" t="n">
+      <c r="I37" s="8" t="n">
         <v>82.3</v>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="7" t="n">
         <v>79.40000000000001</v>
       </c>
     </row>
@@ -1789,31 +1797,31 @@
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="10" t="n">
         <v>1242</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>62.3</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="9" t="n">
         <v>903</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>76.2</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F38" s="10" t="n">
         <v>1582</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>57.3</v>
       </c>
-      <c r="H38" s="8" t="n">
+      <c r="H38" s="9" t="n">
         <v>621</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>82.3</v>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="K38" s="7" t="n">
         <v>79.2</v>
       </c>
     </row>
@@ -1821,31 +1829,31 @@
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="n">
+      <c r="B39" s="11" t="n">
         <v>1799</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="8" t="n">
         <v>44.9</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="9" t="n">
         <v>555</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="8" t="n">
         <v>83.5</v>
       </c>
-      <c r="F39" s="9" t="n">
+      <c r="F39" s="10" t="n">
         <v>1622</v>
       </c>
-      <c r="G39" s="7" t="n">
+      <c r="G39" s="8" t="n">
         <v>56.5</v>
       </c>
-      <c r="H39" s="9" t="n">
+      <c r="H39" s="10" t="n">
         <v>769</v>
       </c>
-      <c r="I39" s="7" t="n">
+      <c r="I39" s="8" t="n">
         <v>74.3</v>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="K39" s="7" t="n">
         <v>78.90000000000001</v>
       </c>
     </row>
@@ -1853,7 +1861,7 @@
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="10" t="n">
         <v>1332</v>
       </c>
       <c r="C40" s="6" t="n">
@@ -1865,19 +1873,19 @@
       <c r="E40" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="8" t="n">
+      <c r="F40" s="9" t="n">
         <v>948</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="H40" s="8" t="n">
+      <c r="H40" s="9" t="n">
         <v>617</v>
       </c>
       <c r="I40" s="6" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="K40" s="7" t="n">
         <v>78.90000000000001</v>
       </c>
     </row>
@@ -1885,31 +1893,31 @@
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="10" t="n">
         <v>1272</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="8" t="n">
         <v>61.6</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="9" t="n">
         <v>451</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="8" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="F41" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9" t="n">
+      <c r="F41" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10" t="n">
         <v>897</v>
       </c>
-      <c r="I41" s="7" t="n">
+      <c r="I41" s="8" t="n">
         <v>71.7</v>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="K41" s="7" t="n">
         <v>78.7</v>
       </c>
     </row>
@@ -1917,31 +1925,31 @@
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="10" t="n">
         <v>730</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="9" t="n">
         <v>1024</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c r="F42" s="8" t="n">
+      <c r="F42" s="9" t="n">
         <v>557</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>83.5</v>
       </c>
-      <c r="H42" s="9" t="n">
+      <c r="H42" s="10" t="n">
         <v>1092</v>
       </c>
       <c r="I42" s="6" t="n">
         <v>67.7</v>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="K42" s="7" t="n">
         <v>78.59999999999999</v>
       </c>
     </row>
@@ -1949,31 +1957,31 @@
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="9" t="n">
+      <c r="B43" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10" t="n">
         <v>1144</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="8" t="n">
         <v>66.2</v>
       </c>
-      <c r="F43" s="8" t="n">
+      <c r="F43" s="9" t="n">
         <v>598</v>
       </c>
-      <c r="G43" s="7" t="n">
+      <c r="G43" s="8" t="n">
         <v>82.7</v>
       </c>
-      <c r="H43" s="9" t="n">
+      <c r="H43" s="10" t="n">
         <v>798</v>
       </c>
-      <c r="I43" s="7" t="n">
+      <c r="I43" s="8" t="n">
         <v>73.7</v>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="K43" s="7" t="n">
         <v>78.2</v>
       </c>
     </row>
@@ -1981,31 +1989,31 @@
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="10" t="n">
         <v>1210</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="9" t="n">
         <v>648</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>81.5</v>
       </c>
-      <c r="F44" s="8" t="n">
+      <c r="F44" s="9" t="n">
         <v>985</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>74.7</v>
       </c>
-      <c r="H44" s="10" t="n">
+      <c r="H44" s="11" t="n">
         <v>1860</v>
       </c>
       <c r="I44" s="6" t="n">
         <v>47.1</v>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="K44" s="7" t="n">
         <v>78.09999999999999</v>
       </c>
     </row>
@@ -2013,31 +2021,31 @@
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="10" t="n">
         <v>1136</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="8" t="n">
         <v>64.7</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D45" s="10" t="n">
         <v>1238</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="8" t="n">
         <v>64.3</v>
       </c>
-      <c r="F45" s="9" t="n">
+      <c r="F45" s="10" t="n">
         <v>1178</v>
       </c>
-      <c r="G45" s="7" t="n">
+      <c r="G45" s="8" t="n">
         <v>65.7</v>
       </c>
-      <c r="H45" s="8" t="n">
+      <c r="H45" s="9" t="n">
         <v>268</v>
       </c>
-      <c r="I45" s="7" t="n">
+      <c r="I45" s="8" t="n">
         <v>89.5</v>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="K45" s="7" t="n">
         <v>77.59999999999999</v>
       </c>
     </row>
@@ -2045,31 +2053,31 @@
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B46" s="10" t="n">
         <v>901</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="D46" s="8" t="n">
+      <c r="D46" s="9" t="n">
         <v>350</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>87.7</v>
       </c>
-      <c r="F46" s="9" t="n">
+      <c r="F46" s="10" t="n">
         <v>1127</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>66.7</v>
       </c>
-      <c r="H46" s="10" t="n">
+      <c r="H46" s="11" t="n">
         <v>1573</v>
       </c>
       <c r="I46" s="6" t="n">
         <v>52.9</v>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="K46" s="7" t="n">
         <v>77.2</v>
       </c>
     </row>
@@ -2077,31 +2085,31 @@
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="8" t="n">
+      <c r="B47" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="9" t="n">
         <v>958</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="8" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="F47" s="8" t="n">
+      <c r="F47" s="9" t="n">
         <v>817</v>
       </c>
-      <c r="G47" s="7" t="n">
+      <c r="G47" s="8" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="H47" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5" t="n">
+      <c r="H47" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7" t="n">
         <v>76.59999999999999</v>
       </c>
     </row>
@@ -2109,31 +2117,31 @@
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="10" t="n">
+      <c r="B48" s="11" t="n">
         <v>1855</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>43.6</v>
       </c>
-      <c r="D48" s="8" t="n">
+      <c r="D48" s="9" t="n">
         <v>892</v>
       </c>
       <c r="E48" s="6" t="n">
         <v>76.5</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="F48" s="10" t="n">
         <v>1429</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>60.5</v>
       </c>
-      <c r="H48" s="9" t="n">
+      <c r="H48" s="10" t="n">
         <v>811</v>
       </c>
       <c r="I48" s="6" t="n">
         <v>73.5</v>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="K48" s="7" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2141,31 +2149,31 @@
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="10" t="n">
         <v>1133</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="8" t="n">
         <v>64.7</v>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49" s="9" t="n">
         <v>975</v>
       </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="8" t="n">
         <v>74.7</v>
       </c>
-      <c r="F49" s="8" t="n">
+      <c r="F49" s="9" t="n">
         <v>959</v>
       </c>
-      <c r="G49" s="7" t="n">
+      <c r="G49" s="8" t="n">
         <v>75.2</v>
       </c>
-      <c r="H49" s="10" t="n">
+      <c r="H49" s="11" t="n">
         <v>1754</v>
       </c>
-      <c r="I49" s="7" t="n">
+      <c r="I49" s="8" t="n">
         <v>49.2</v>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="K49" s="7" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2173,31 +2181,31 @@
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="10" t="n">
         <v>1025</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="11" t="n">
         <v>2546</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>32.1</v>
       </c>
-      <c r="F50" s="9" t="n">
+      <c r="F50" s="10" t="n">
         <v>1136</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="H50" s="8" t="n">
+      <c r="H50" s="9" t="n">
         <v>579</v>
       </c>
       <c r="I50" s="6" t="n">
         <v>83.2</v>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="K50" s="7" t="n">
         <v>74.90000000000001</v>
       </c>
     </row>
@@ -2205,31 +2213,31 @@
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="8" t="n">
+      <c r="B51" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9" t="n">
         <v>1043</v>
       </c>
-      <c r="E51" s="7" t="n">
+      <c r="E51" s="8" t="n">
         <v>73.3</v>
       </c>
-      <c r="F51" s="9" t="n">
+      <c r="F51" s="10" t="n">
         <v>2069</v>
       </c>
-      <c r="G51" s="7" t="n">
+      <c r="G51" s="8" t="n">
         <v>47.3</v>
       </c>
-      <c r="H51" s="9" t="n">
+      <c r="H51" s="10" t="n">
         <v>790</v>
       </c>
-      <c r="I51" s="7" t="n">
+      <c r="I51" s="8" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="K51" s="7" t="n">
         <v>73.59999999999999</v>
       </c>
     </row>
@@ -2237,31 +2245,31 @@
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="10" t="n">
+      <c r="B52" s="11" t="n">
         <v>2018</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="D52" s="8" t="n">
+      <c r="D52" s="9" t="n">
         <v>510</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="F52" s="9" t="n">
+      <c r="F52" s="10" t="n">
         <v>1414</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>60.8</v>
       </c>
-      <c r="H52" s="10" t="n">
+      <c r="H52" s="11" t="n">
         <v>1900</v>
       </c>
       <c r="I52" s="6" t="n">
         <v>46.3</v>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="K52" s="7" t="n">
         <v>72.59999999999999</v>
       </c>
     </row>
@@ -2269,31 +2277,31 @@
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="10" t="n">
         <v>870</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="8" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53" s="9" t="n">
         <v>385</v>
       </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="F53" s="9" t="n">
+      <c r="F53" s="10" t="n">
         <v>1727</v>
       </c>
-      <c r="G53" s="7" t="n">
+      <c r="G53" s="8" t="n">
         <v>54.4</v>
       </c>
-      <c r="H53" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5" t="n">
+      <c r="H53" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7" t="n">
         <v>70.7</v>
       </c>
     </row>
@@ -2301,13 +2309,13 @@
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B54" s="10" t="n">
         <v>858</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="D54" s="8" t="n">
+      <c r="D54" s="9" t="n">
         <v>458</v>
       </c>
       <c r="E54" s="6" t="n">
@@ -2319,13 +2327,13 @@
       <c r="G54" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H54" s="10" t="n">
+      <c r="H54" s="11" t="n">
         <v>1463</v>
       </c>
       <c r="I54" s="6" t="n">
         <v>55.2</v>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="K54" s="7" t="n">
         <v>70.3</v>
       </c>
     </row>
@@ -2333,31 +2341,31 @@
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="9" t="n">
+      <c r="B55" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="10" t="n">
         <v>1223</v>
       </c>
-      <c r="E55" s="7" t="n">
+      <c r="E55" s="8" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="F55" s="9" t="n">
+      <c r="F55" s="10" t="n">
         <v>1340</v>
       </c>
-      <c r="G55" s="7" t="n">
+      <c r="G55" s="8" t="n">
         <v>62.3</v>
       </c>
-      <c r="H55" s="9" t="n">
+      <c r="H55" s="10" t="n">
         <v>740</v>
       </c>
-      <c r="I55" s="7" t="n">
+      <c r="I55" s="8" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="K55" s="7" t="n">
         <v>69.8</v>
       </c>
     </row>
@@ -2365,31 +2373,31 @@
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="n">
+      <c r="B56" s="10" t="n">
         <v>736</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="D56" s="9" t="n">
+      <c r="D56" s="10" t="n">
         <v>1283</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>63.3</v>
       </c>
-      <c r="F56" s="10" t="n">
+      <c r="F56" s="11" t="n">
         <v>2615</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="H56" s="9" t="n">
+      <c r="H56" s="10" t="n">
         <v>792</v>
       </c>
       <c r="I56" s="6" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="K56" s="7" t="n">
         <v>68.59999999999999</v>
       </c>
     </row>
@@ -2397,31 +2405,31 @@
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="n">
+      <c r="B57" s="10" t="n">
         <v>1109</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="8" t="n">
         <v>65.3</v>
       </c>
-      <c r="D57" s="9" t="n">
+      <c r="D57" s="10" t="n">
         <v>1181</v>
       </c>
-      <c r="E57" s="7" t="n">
+      <c r="E57" s="8" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="F57" s="9" t="n">
+      <c r="F57" s="10" t="n">
         <v>1223</v>
       </c>
-      <c r="G57" s="7" t="n">
+      <c r="G57" s="8" t="n">
         <v>64.8</v>
       </c>
-      <c r="H57" s="9" t="n">
+      <c r="H57" s="10" t="n">
         <v>913</v>
       </c>
-      <c r="I57" s="7" t="n">
+      <c r="I57" s="8" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="K57" s="7" t="n">
         <v>68.40000000000001</v>
       </c>
     </row>
@@ -2429,31 +2437,31 @@
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="8" t="n">
+      <c r="B58" s="9" t="n">
         <v>315</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="D58" s="9" t="n">
+      <c r="D58" s="10" t="n">
         <v>2123</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>45.9</v>
       </c>
-      <c r="F58" s="8" t="n">
+      <c r="F58" s="9" t="n">
         <v>757</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="H58" s="10" t="n">
+      <c r="H58" s="11" t="n">
         <v>1642</v>
       </c>
       <c r="I58" s="6" t="n">
         <v>51.5</v>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="K58" s="7" t="n">
         <v>65.5</v>
       </c>
     </row>
@@ -2461,31 +2469,31 @@
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="10" t="n">
+      <c r="B59" s="11" t="n">
         <v>2048</v>
       </c>
-      <c r="C59" s="7" t="n">
+      <c r="C59" s="8" t="n">
         <v>39.3</v>
       </c>
-      <c r="D59" s="9" t="n">
+      <c r="D59" s="10" t="n">
         <v>1234</v>
       </c>
-      <c r="E59" s="7" t="n">
+      <c r="E59" s="8" t="n">
         <v>64.3</v>
       </c>
-      <c r="F59" s="9" t="n">
+      <c r="F59" s="10" t="n">
         <v>1181</v>
       </c>
-      <c r="G59" s="7" t="n">
+      <c r="G59" s="8" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="H59" s="9" t="n">
+      <c r="H59" s="10" t="n">
         <v>1297</v>
       </c>
-      <c r="I59" s="7" t="n">
+      <c r="I59" s="8" t="n">
         <v>63.6</v>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="K59" s="7" t="n">
         <v>65</v>
       </c>
     </row>
@@ -2493,13 +2501,13 @@
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="10" t="n">
+      <c r="B60" s="11" t="n">
         <v>2157</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>36.9</v>
       </c>
-      <c r="D60" s="9" t="n">
+      <c r="D60" s="10" t="n">
         <v>1642</v>
       </c>
       <c r="E60" s="6" t="n">
@@ -2511,13 +2519,13 @@
       <c r="G60" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H60" s="9" t="n">
+      <c r="H60" s="10" t="n">
         <v>789</v>
       </c>
       <c r="I60" s="6" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="K60" s="5" t="n">
+      <c r="K60" s="7" t="n">
         <v>64.90000000000001</v>
       </c>
     </row>
@@ -2525,31 +2533,31 @@
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="n">
+      <c r="B61" s="10" t="n">
         <v>1215</v>
       </c>
-      <c r="C61" s="7" t="n">
+      <c r="C61" s="8" t="n">
         <v>62.9</v>
       </c>
-      <c r="D61" s="9" t="n">
+      <c r="D61" s="10" t="n">
         <v>1648</v>
       </c>
-      <c r="E61" s="7" t="n">
+      <c r="E61" s="8" t="n">
         <v>55.7</v>
       </c>
-      <c r="F61" s="9" t="n">
+      <c r="F61" s="10" t="n">
         <v>1754</v>
       </c>
-      <c r="G61" s="7" t="n">
+      <c r="G61" s="8" t="n">
         <v>53.8</v>
       </c>
-      <c r="H61" s="9" t="n">
+      <c r="H61" s="10" t="n">
         <v>883</v>
       </c>
-      <c r="I61" s="7" t="n">
+      <c r="I61" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="K61" s="7" t="n">
         <v>63.9</v>
       </c>
     </row>
@@ -2569,19 +2577,19 @@
       <c r="E62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F62" s="8" t="n">
+      <c r="F62" s="9" t="n">
         <v>608</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>82.5</v>
       </c>
-      <c r="H62" s="10" t="n">
+      <c r="H62" s="11" t="n">
         <v>1959</v>
       </c>
       <c r="I62" s="6" t="n">
         <v>45.1</v>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="K62" s="7" t="n">
         <v>63.8</v>
       </c>
     </row>
@@ -2589,31 +2597,31 @@
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="9" t="n">
+      <c r="B63" s="10" t="n">
         <v>867</v>
       </c>
-      <c r="C63" s="7" t="n">
+      <c r="C63" s="8" t="n">
         <v>70.7</v>
       </c>
-      <c r="D63" s="9" t="n">
+      <c r="D63" s="10" t="n">
         <v>1421</v>
       </c>
-      <c r="E63" s="7" t="n">
+      <c r="E63" s="8" t="n">
         <v>60.4</v>
       </c>
-      <c r="F63" s="10" t="n">
+      <c r="F63" s="11" t="n">
         <v>2124</v>
       </c>
-      <c r="G63" s="7" t="n">
+      <c r="G63" s="8" t="n">
         <v>41.2</v>
       </c>
-      <c r="H63" s="9" t="n">
+      <c r="H63" s="10" t="n">
         <v>1153</v>
       </c>
-      <c r="I63" s="7" t="n">
+      <c r="I63" s="8" t="n">
         <v>66.5</v>
       </c>
-      <c r="K63" s="5" t="n">
+      <c r="K63" s="7" t="n">
         <v>63.4</v>
       </c>
     </row>
@@ -2621,19 +2629,19 @@
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="9" t="n">
+      <c r="B64" s="10" t="n">
         <v>995</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>67.8</v>
       </c>
-      <c r="D64" s="8" t="n">
+      <c r="D64" s="9" t="n">
         <v>914</v>
       </c>
       <c r="E64" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="F64" s="9" t="n">
+      <c r="F64" s="10" t="n">
         <v>2034</v>
       </c>
       <c r="G64" s="6" t="n">
@@ -2645,7 +2653,7 @@
       <c r="I64" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="K64" s="7" t="n">
         <v>62</v>
       </c>
     </row>
@@ -2653,31 +2661,31 @@
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="10" t="n">
+      <c r="B65" s="11" t="n">
         <v>1537</v>
       </c>
-      <c r="C65" s="7" t="n">
+      <c r="C65" s="8" t="n">
         <v>50.7</v>
       </c>
-      <c r="D65" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E65" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8" t="n">
+      <c r="D65" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9" t="n">
         <v>986</v>
       </c>
-      <c r="G65" s="7" t="n">
+      <c r="G65" s="8" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="H65" s="10" t="n">
+      <c r="H65" s="11" t="n">
         <v>1778</v>
       </c>
-      <c r="I65" s="7" t="n">
+      <c r="I65" s="8" t="n">
         <v>48.8</v>
       </c>
-      <c r="K65" s="5" t="n">
+      <c r="K65" s="7" t="n">
         <v>61.7</v>
       </c>
     </row>
@@ -2685,31 +2693,31 @@
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="10" t="n">
+      <c r="B66" s="11" t="n">
         <v>2119</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>37.7</v>
       </c>
-      <c r="D66" s="9" t="n">
+      <c r="D66" s="10" t="n">
         <v>1412</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>60.6</v>
       </c>
-      <c r="F66" s="9" t="n">
+      <c r="F66" s="10" t="n">
         <v>1876</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>51.3</v>
       </c>
-      <c r="H66" s="10" t="n">
+      <c r="H66" s="11" t="n">
         <v>1373</v>
       </c>
       <c r="I66" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="K66" s="5" t="n">
+      <c r="K66" s="7" t="n">
         <v>58.8</v>
       </c>
     </row>
@@ -2717,31 +2725,31 @@
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="10" t="n">
+      <c r="B67" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="C67" s="7" t="n">
+      <c r="C67" s="8" t="n">
         <v>40.1</v>
       </c>
-      <c r="D67" s="9" t="n">
+      <c r="D67" s="10" t="n">
         <v>1398</v>
       </c>
-      <c r="E67" s="7" t="n">
+      <c r="E67" s="8" t="n">
         <v>60.9</v>
       </c>
-      <c r="F67" s="9" t="n">
+      <c r="F67" s="10" t="n">
         <v>2099</v>
       </c>
-      <c r="G67" s="7" t="n">
+      <c r="G67" s="8" t="n">
         <v>46.7</v>
       </c>
-      <c r="H67" s="10" t="n">
+      <c r="H67" s="11" t="n">
         <v>1665</v>
       </c>
-      <c r="I67" s="7" t="n">
+      <c r="I67" s="8" t="n">
         <v>51.1</v>
       </c>
-      <c r="K67" s="5" t="n">
+      <c r="K67" s="7" t="n">
         <v>56</v>
       </c>
     </row>
@@ -2755,13 +2763,13 @@
       <c r="C68" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D68" s="8" t="n">
+      <c r="D68" s="9" t="n">
         <v>942</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="F68" s="10" t="n">
+      <c r="F68" s="11" t="n">
         <v>2382</v>
       </c>
       <c r="G68" s="6" t="n">
@@ -2773,7 +2781,7 @@
       <c r="I68" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K68" s="5" t="n">
+      <c r="K68" s="7" t="n">
         <v>55.6</v>
       </c>
     </row>
@@ -2781,31 +2789,31 @@
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="10" t="n">
+      <c r="B69" s="11" t="n">
         <v>2014</v>
       </c>
-      <c r="C69" s="7" t="n">
+      <c r="C69" s="8" t="n">
         <v>40.1</v>
       </c>
-      <c r="D69" s="9" t="n">
+      <c r="D69" s="10" t="n">
         <v>2067</v>
       </c>
-      <c r="E69" s="7" t="n">
+      <c r="E69" s="8" t="n">
         <v>47</v>
       </c>
-      <c r="F69" s="9" t="n">
+      <c r="F69" s="10" t="n">
         <v>1309</v>
       </c>
-      <c r="G69" s="7" t="n">
+      <c r="G69" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="H69" s="10" t="n">
+      <c r="H69" s="11" t="n">
         <v>1917</v>
       </c>
-      <c r="I69" s="7" t="n">
+      <c r="I69" s="8" t="n">
         <v>45.9</v>
       </c>
-      <c r="K69" s="5" t="n">
+      <c r="K69" s="7" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2819,13 +2827,13 @@
       <c r="C70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="9" t="n">
+      <c r="D70" s="10" t="n">
         <v>1657</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>55.5</v>
       </c>
-      <c r="F70" s="9" t="n">
+      <c r="F70" s="10" t="n">
         <v>1955</v>
       </c>
       <c r="G70" s="6" t="n">
@@ -2837,7 +2845,7 @@
       <c r="I70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K70" s="5" t="n">
+      <c r="K70" s="7" t="n">
         <v>52.5</v>
       </c>
     </row>
@@ -2845,31 +2853,31 @@
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="10" t="n">
+      <c r="B71" s="11" t="n">
         <v>1637</v>
       </c>
-      <c r="C71" s="7" t="n">
+      <c r="C71" s="8" t="n">
         <v>48.5</v>
       </c>
-      <c r="D71" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="10" t="n">
+      <c r="D71" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11" t="n">
         <v>2217</v>
       </c>
-      <c r="G71" s="7" t="n">
+      <c r="G71" s="8" t="n">
         <v>39.2</v>
       </c>
-      <c r="H71" s="9" t="n">
+      <c r="H71" s="10" t="n">
         <v>1275</v>
       </c>
-      <c r="I71" s="7" t="n">
+      <c r="I71" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="K71" s="5" t="n">
+      <c r="K71" s="7" t="n">
         <v>51.6</v>
       </c>
     </row>
@@ -2889,19 +2897,19 @@
       <c r="E72" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F72" s="9" t="n">
+      <c r="F72" s="10" t="n">
         <v>1761</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>53.7</v>
       </c>
-      <c r="H72" s="10" t="n">
+      <c r="H72" s="11" t="n">
         <v>1838</v>
       </c>
       <c r="I72" s="6" t="n">
         <v>47.5</v>
       </c>
-      <c r="K72" s="5" t="n">
+      <c r="K72" s="7" t="n">
         <v>50.6</v>
       </c>
     </row>
@@ -2909,31 +2917,31 @@
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C73" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="9" t="n">
+      <c r="B73" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="10" t="n">
         <v>2027</v>
       </c>
-      <c r="E73" s="7" t="n">
+      <c r="E73" s="8" t="n">
         <v>47.8</v>
       </c>
-      <c r="F73" s="9" t="n">
+      <c r="F73" s="10" t="n">
         <v>2079</v>
       </c>
-      <c r="G73" s="7" t="n">
+      <c r="G73" s="8" t="n">
         <v>47.1</v>
       </c>
-      <c r="H73" s="10" t="n">
+      <c r="H73" s="11" t="n">
         <v>1762</v>
       </c>
-      <c r="I73" s="7" t="n">
+      <c r="I73" s="8" t="n">
         <v>49.1</v>
       </c>
-      <c r="K73" s="5" t="n">
+      <c r="K73" s="7" t="n">
         <v>48.5</v>
       </c>
     </row>
@@ -2941,7 +2949,7 @@
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="8" t="n">
+      <c r="B74" s="9" t="n">
         <v>461</v>
       </c>
       <c r="C74" s="6" t="n">
@@ -2953,7 +2961,7 @@
       <c r="E74" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F74" s="8" t="n">
+      <c r="F74" s="9" t="n">
         <v>544</v>
       </c>
       <c r="G74" s="6" t="n">
@@ -2965,7 +2973,7 @@
       <c r="I74" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K74" s="5" t="n">
+      <c r="K74" s="7" t="n">
         <v>41.9</v>
       </c>
     </row>
@@ -2973,31 +2981,31 @@
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="9" t="n">
+      <c r="B75" s="10" t="n">
         <v>1361</v>
       </c>
-      <c r="C75" s="7" t="n">
+      <c r="C75" s="8" t="n">
         <v>59.6</v>
       </c>
-      <c r="D75" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G75" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9" t="n">
+      <c r="D75" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10" t="n">
         <v>908</v>
       </c>
-      <c r="I75" s="7" t="n">
+      <c r="I75" s="8" t="n">
         <v>71.5</v>
       </c>
-      <c r="K75" s="5" t="n">
+      <c r="K75" s="7" t="n">
         <v>35.8</v>
       </c>
     </row>
@@ -3005,7 +3013,7 @@
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="8" t="n">
+      <c r="B76" s="9" t="n">
         <v>641</v>
       </c>
       <c r="C76" s="6" t="n">
@@ -3029,7 +3037,7 @@
       <c r="I76" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K76" s="5" t="n">
+      <c r="K76" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,41 +3045,41 @@
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="7" t="n">
+      <c r="B77" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="C77" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" s="7" t="n">
+      <c r="C77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="E77" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7" t="n">
+      <c r="E77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="G77" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I77" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" s="5" t="n">
+      <c r="G77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="12" t="s">
         <v>77</v>
       </c>
     </row>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -128,7 +128,7 @@
     <t>bifeitang</t>
   </si>
   <si>
-    <t>Ansonluo</t>
+    <t>Ansonluo1</t>
   </si>
   <si>
     <t>softair</t>
@@ -1836,10 +1836,10 @@
         <v>44.9</v>
       </c>
       <c r="D39" s="9" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E39" s="8" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="F39" s="10" t="n">
         <v>1622</v>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -3258,12 +3258,12 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="12" t="s">
+      <c r="B80" s="12" t="s">
         <v>76</v>
       </c>
     </row>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LeetCode Score Book" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LeetCode Score Book" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,7 +176,7 @@
     <t>yykfight</t>
   </si>
   <si>
-    <t>Ansonluo</t>
+    <t>Ansonluo1</t>
   </si>
   <si>
     <t>zchen9523</t>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -675,3127 +675,3127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c s="1" r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c s="2" r="C1" t="n">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>118</v>
       </c>
-      <c s="2" r="E1" t="n">
+      <c r="E1" s="2" t="n">
         <v>119</v>
       </c>
-      <c s="2" r="G1" t="n">
+      <c r="G1" s="2" t="n">
         <v>120</v>
       </c>
-      <c s="2" r="I1" t="n">
+      <c r="I1" s="2" t="n">
         <v>121</v>
       </c>
-      <c s="2" r="K1" t="n">
+      <c r="K1" s="2" t="n">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c s="1" r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c s="3" r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>3587</v>
       </c>
-      <c s="3" r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>3847</v>
       </c>
-      <c s="3" r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>3876</v>
       </c>
-      <c s="3" r="I2" t="n">
+      <c r="I2" s="3" t="n">
         <v>3924</v>
       </c>
-      <c s="3" r="K2" t="n">
+      <c r="K2" s="3" t="n">
         <v>3482</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c s="4" r="A4" t="n">
+      <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c s="4" r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c s="5" r="C4" t="n">
+      <c r="C4" s="5" t="n">
         <v>51</v>
       </c>
-      <c s="6" r="D4" t="n">
+      <c r="D4" s="6" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c s="5" r="E4" t="n">
+      <c r="E4" s="5" t="n">
         <v>36</v>
       </c>
-      <c s="6" r="F4" t="n">
+      <c r="F4" s="6" t="n">
         <v>99.3</v>
       </c>
-      <c s="5" r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>7</v>
       </c>
-      <c s="6" r="H4" t="n">
+      <c r="H4" s="6" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c s="5" r="I4" t="n">
+      <c r="I4" s="5" t="n">
         <v>39</v>
       </c>
-      <c s="6" r="J4" t="n">
+      <c r="J4" s="6" t="n">
         <v>99.2</v>
       </c>
-      <c s="5" r="K4" t="n">
+      <c r="K4" s="5" t="n">
         <v>148</v>
       </c>
-      <c s="6" r="L4" t="n">
+      <c r="L4" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c s="7" r="N4" t="n">
+      <c r="N4" s="7" t="n">
         <v>99.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c s="1" r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c s="1" r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c s="5" r="C5" t="n">
+      <c r="C5" s="5" t="n">
         <v>39</v>
       </c>
-      <c s="8" r="D5" t="n">
+      <c r="D5" s="8" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c s="5" r="E5" t="n">
+      <c r="E5" s="5" t="n">
         <v>20</v>
       </c>
-      <c s="8" r="F5" t="n">
+      <c r="F5" s="8" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c s="5" r="G5" t="n">
+      <c r="G5" s="5" t="n">
         <v>93</v>
       </c>
-      <c s="8" r="H5" t="n">
+      <c r="H5" s="8" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c s="5" r="I5" t="n">
+      <c r="I5" s="5" t="n">
         <v>7</v>
       </c>
-      <c s="8" r="J5" t="n">
+      <c r="J5" s="8" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c s="5" r="K5" t="n">
+      <c r="K5" s="5" t="n">
         <v>30</v>
       </c>
-      <c s="8" r="L5" t="n">
+      <c r="L5" s="8" t="n">
         <v>99.3</v>
       </c>
-      <c s="7" r="N5" t="n">
+      <c r="N5" s="7" t="n">
         <v>99.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c s="4" r="A6" t="n">
+      <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
-      <c s="4" r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c s="5" r="C6" t="n">
+      <c r="C6" s="5" t="n">
         <v>117</v>
       </c>
-      <c s="6" r="D6" t="n">
+      <c r="D6" s="6" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c s="5" r="E6" t="n">
+      <c r="E6" s="5" t="n">
         <v>163</v>
       </c>
-      <c s="6" r="F6" t="n">
+      <c r="F6" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c s="9" r="G6" t="n">
+      <c r="G6" s="9" t="n">
         <v>675</v>
       </c>
-      <c s="6" r="H6" t="n">
+      <c r="H6" s="6" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c s="5" r="I6" t="n">
+      <c r="I6" s="5" t="n">
         <v>109</v>
       </c>
-      <c s="6" r="J6" t="n">
+      <c r="J6" s="6" t="n">
         <v>97.8</v>
       </c>
-      <c s="5" r="K6" t="n">
+      <c r="K6" s="5" t="n">
         <v>13</v>
       </c>
-      <c s="6" r="L6" t="n">
+      <c r="L6" s="6" t="n">
         <v>99.7</v>
       </c>
-      <c s="7" r="N6" t="n">
+      <c r="N6" s="7" t="n">
         <v>98.8</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c s="1" r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c s="1" r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c s="9" r="C7" t="n">
+      <c r="C7" s="9" t="n">
         <v>324</v>
       </c>
-      <c s="8" r="D7" t="n">
+      <c r="D7" s="8" t="n">
         <v>87.8</v>
       </c>
-      <c s="5" r="E7" t="n">
+      <c r="E7" s="5" t="n">
         <v>100</v>
       </c>
-      <c s="8" r="F7" t="n">
+      <c r="F7" s="8" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c s="5" r="G7" t="n">
+      <c r="G7" s="5" t="n">
         <v>74</v>
       </c>
-      <c s="8" r="H7" t="n">
+      <c r="H7" s="8" t="n">
         <v>98.5</v>
       </c>
-      <c s="5" r="I7" t="n">
+      <c r="I7" s="5" t="n">
         <v>111</v>
       </c>
-      <c s="8" r="J7" t="n">
+      <c r="J7" s="8" t="n">
         <v>97.7</v>
       </c>
-      <c s="5" r="K7" t="n">
+      <c r="K7" s="5" t="n">
         <v>262</v>
       </c>
-      <c s="8" r="L7" t="n">
+      <c r="L7" s="8" t="n">
         <v>94</v>
       </c>
-      <c s="7" r="N7" t="n">
+      <c r="N7" s="7" t="n">
         <v>98.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c s="4" r="A8" t="n">
+      <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
-      <c s="4" r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c s="9" r="C8" t="n">
+      <c r="C8" s="9" t="n">
         <v>233</v>
       </c>
-      <c s="6" r="D8" t="n">
+      <c r="D8" s="6" t="n">
         <v>89.8</v>
       </c>
-      <c s="10" r="E8" t="n">
+      <c r="E8" s="10" t="n">
         <v>2069</v>
       </c>
-      <c s="6" r="F8" t="n">
+      <c r="F8" s="6" t="n">
         <v>47</v>
       </c>
-      <c s="5" r="G8" t="n">
+      <c r="G8" s="5" t="n">
         <v>178</v>
       </c>
-      <c s="6" r="H8" t="n">
+      <c r="H8" s="6" t="n">
         <v>96.3</v>
       </c>
-      <c s="5" r="I8" t="n">
+      <c r="I8" s="5" t="n">
         <v>61</v>
       </c>
-      <c s="6" r="J8" t="n">
+      <c r="J8" s="6" t="n">
         <v>98.8</v>
       </c>
-      <c s="5" r="K8" t="n">
+      <c r="K8" s="5" t="n">
         <v>355</v>
       </c>
-      <c s="6" r="L8" t="n">
+      <c r="L8" s="6" t="n">
         <v>91.8</v>
       </c>
-      <c s="7" r="N8" t="n">
+      <c r="N8" s="7" t="n">
         <v>97.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c s="1" r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
-      <c s="1" r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c s="5" r="C9" t="n">
+      <c r="C9" s="5" t="n">
         <v>60</v>
       </c>
-      <c s="8" r="D9" t="n">
+      <c r="D9" s="8" t="n">
         <v>98.7</v>
       </c>
-      <c s="9" r="E9" t="n">
+      <c r="E9" s="9" t="n">
         <v>454</v>
       </c>
-      <c s="8" r="F9" t="n">
+      <c r="F9" s="8" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c s="5" r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>425</v>
       </c>
-      <c s="8" r="H9" t="n">
+      <c r="H9" s="8" t="n">
         <v>91.2</v>
       </c>
-      <c s="5" r="I9" t="n">
+      <c r="I9" s="5" t="n">
         <v>103</v>
       </c>
-      <c s="8" r="J9" t="n">
+      <c r="J9" s="8" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c s="5" r="K9" t="n">
+      <c r="K9" s="5" t="n">
         <v>128</v>
       </c>
-      <c s="8" r="L9" t="n">
+      <c r="L9" s="8" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c s="7" r="N9" t="n">
+      <c r="N9" s="7" t="n">
         <v>97.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c s="4" r="A10" t="n">
+      <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c s="4" r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c s="5" r="C10" t="n">
+      <c r="C10" s="5" t="n">
         <v>112</v>
       </c>
-      <c s="6" r="D10" t="n">
+      <c r="D10" s="6" t="n">
         <v>97.5</v>
       </c>
-      <c s="5" r="E10" t="n">
+      <c r="E10" s="5" t="n">
         <v>164</v>
       </c>
-      <c s="6" r="F10" t="n">
+      <c r="F10" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c s="5" r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>154</v>
       </c>
-      <c s="6" r="H10" t="n">
+      <c r="H10" s="6" t="n">
         <v>96.8</v>
       </c>
-      <c s="9" r="I10" t="n">
+      <c r="I10" s="9" t="n">
         <v>637</v>
       </c>
-      <c s="6" r="J10" t="n">
+      <c r="J10" s="6" t="n">
         <v>82</v>
       </c>
-      <c s="5" r="K10" t="n">
+      <c r="K10" s="5" t="n">
         <v>142</v>
       </c>
-      <c s="6" r="L10" t="n">
+      <c r="L10" s="6" t="n">
         <v>96.7</v>
       </c>
-      <c s="7" r="N10" t="n">
+      <c r="N10" s="7" t="n">
         <v>96.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c s="1" r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
-      <c s="1" r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c s="11" r="C11" t="n">
+      <c r="C11" s="11" t="n">
         <v>1455</v>
       </c>
-      <c s="8" r="D11" t="n">
+      <c r="D11" s="8" t="n">
         <v>52.5</v>
       </c>
-      <c s="9" r="E11" t="n">
+      <c r="E11" s="9" t="n">
         <v>1023</v>
       </c>
-      <c s="8" r="F11" t="n">
+      <c r="F11" s="8" t="n">
         <v>73.7</v>
       </c>
-      <c s="5" r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>345</v>
       </c>
-      <c s="8" r="H11" t="n">
+      <c r="H11" s="8" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c s="5" r="I11" t="n">
+      <c r="I11" s="5" t="n">
         <v>184</v>
       </c>
-      <c s="8" r="J11" t="n">
+      <c r="J11" s="8" t="n">
         <v>96.2</v>
       </c>
-      <c s="5" r="K11" t="n">
+      <c r="K11" s="5" t="n">
         <v>170</v>
       </c>
-      <c s="8" r="L11" t="n">
+      <c r="L11" s="8" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c s="7" r="N11" t="n">
+      <c r="N11" s="7" t="n">
         <v>96.2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c s="4" r="A12" t="n">
+      <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c s="4" r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c s="6" r="C12" t="n">
+      <c r="C12" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="E12" t="n">
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="G12" t="n">
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c s="5" r="I12" t="n">
+      <c r="H12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>169</v>
       </c>
-      <c s="6" r="J12" t="n">
+      <c r="J12" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c s="5" r="K12" t="n">
+      <c r="K12" s="5" t="n">
         <v>179</v>
       </c>
-      <c s="6" r="L12" t="n">
+      <c r="L12" s="6" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c s="7" r="N12" t="n">
+      <c r="N12" s="7" t="n">
         <v>96.2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c s="1" r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
-      <c s="1" r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c s="9" r="C13" t="n">
+      <c r="C13" s="9" t="n">
         <v>290</v>
       </c>
-      <c s="8" r="D13" t="n">
+      <c r="D13" s="8" t="n">
         <v>88.5</v>
       </c>
-      <c s="9" r="E13" t="n">
+      <c r="E13" s="9" t="n">
         <v>443</v>
       </c>
-      <c s="8" r="F13" t="n">
+      <c r="F13" s="8" t="n">
         <v>85.8</v>
       </c>
-      <c s="5" r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>336</v>
       </c>
-      <c s="8" r="H13" t="n">
+      <c r="H13" s="8" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c s="9" r="I13" t="n">
+      <c r="I13" s="9" t="n">
         <v>497</v>
       </c>
-      <c s="8" r="J13" t="n">
+      <c r="J13" s="8" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c s="5" r="K13" t="n">
+      <c r="K13" s="5" t="n">
         <v>45</v>
       </c>
-      <c s="8" r="L13" t="n">
+      <c r="L13" s="8" t="n">
         <v>99</v>
       </c>
-      <c s="7" r="N13" t="n">
+      <c r="N13" s="7" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c s="4" r="A14" t="n">
+      <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
-      <c s="4" r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c s="9" r="C14" t="n">
+      <c r="C14" s="9" t="n">
         <v>301</v>
       </c>
-      <c s="6" r="D14" t="n">
+      <c r="D14" s="6" t="n">
         <v>88.3</v>
       </c>
-      <c s="9" r="E14" t="n">
+      <c r="E14" s="9" t="n">
         <v>344</v>
       </c>
-      <c s="6" r="F14" t="n">
+      <c r="F14" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c s="5" r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>232</v>
       </c>
-      <c s="6" r="H14" t="n">
+      <c r="H14" s="6" t="n">
         <v>95.2</v>
       </c>
-      <c s="6" r="I14" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c s="5" r="K14" t="n">
+      <c r="I14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>172</v>
       </c>
-      <c s="6" r="L14" t="n">
+      <c r="L14" s="6" t="n">
         <v>96</v>
       </c>
-      <c s="7" r="N14" t="n">
+      <c r="N14" s="7" t="n">
         <v>95.59999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c s="1" r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
-      <c s="1" r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c s="9" r="C15" t="n">
+      <c r="C15" s="9" t="n">
         <v>514</v>
       </c>
-      <c s="8" r="D15" t="n">
+      <c r="D15" s="8" t="n">
         <v>83.5</v>
       </c>
-      <c s="5" r="E15" t="n">
+      <c r="E15" s="5" t="n">
         <v>128</v>
       </c>
-      <c s="8" r="F15" t="n">
+      <c r="F15" s="8" t="n">
         <v>97.3</v>
       </c>
-      <c s="5" r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>222</v>
       </c>
-      <c s="8" r="H15" t="n">
+      <c r="H15" s="8" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c s="9" r="I15" t="n">
+      <c r="I15" s="9" t="n">
         <v>250</v>
       </c>
-      <c s="8" r="J15" t="n">
+      <c r="J15" s="8" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c s="5" r="K15" t="n">
+      <c r="K15" s="5" t="n">
         <v>194</v>
       </c>
-      <c s="8" r="L15" t="n">
+      <c r="L15" s="8" t="n">
         <v>95.5</v>
       </c>
-      <c s="7" r="N15" t="n">
+      <c r="N15" s="7" t="n">
         <v>95.5</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c s="4" r="A16" t="n">
+      <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
-      <c s="4" r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c s="9" r="C16" t="n">
+      <c r="C16" s="9" t="n">
         <v>429</v>
       </c>
-      <c s="6" r="D16" t="n">
+      <c r="D16" s="6" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c s="5" r="E16" t="n">
+      <c r="E16" s="5" t="n">
         <v>174</v>
       </c>
-      <c s="6" r="F16" t="n">
+      <c r="F16" s="6" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c s="5" r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>322</v>
       </c>
-      <c s="6" r="H16" t="n">
+      <c r="H16" s="6" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c s="9" r="I16" t="n">
+      <c r="I16" s="9" t="n">
         <v>492</v>
       </c>
-      <c s="6" r="J16" t="n">
+      <c r="J16" s="6" t="n">
         <v>85</v>
       </c>
-      <c s="5" r="K16" t="n">
+      <c r="K16" s="5" t="n">
         <v>335</v>
       </c>
-      <c s="6" r="L16" t="n">
+      <c r="L16" s="6" t="n">
         <v>92.3</v>
       </c>
-      <c s="7" r="N16" t="n">
+      <c r="N16" s="7" t="n">
         <v>92.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c s="1" r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
-      <c s="1" r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c s="9" r="C17" t="n">
+      <c r="C17" s="9" t="n">
         <v>642</v>
       </c>
-      <c s="8" r="D17" t="n">
+      <c r="D17" s="8" t="n">
         <v>80.7</v>
       </c>
-      <c s="9" r="E17" t="n">
+      <c r="E17" s="9" t="n">
         <v>672</v>
       </c>
-      <c s="8" r="F17" t="n">
+      <c r="F17" s="8" t="n">
         <v>81</v>
       </c>
-      <c s="5" r="G17" t="n">
+      <c r="G17" s="5" t="n">
         <v>518</v>
       </c>
-      <c s="8" r="H17" t="n">
+      <c r="H17" s="8" t="n">
         <v>89.3</v>
       </c>
-      <c s="5" r="I17" t="n">
+      <c r="I17" s="5" t="n">
         <v>205</v>
       </c>
-      <c s="8" r="J17" t="n">
+      <c r="J17" s="8" t="n">
         <v>95.8</v>
       </c>
-      <c s="5" r="K17" t="n">
+      <c r="K17" s="5" t="n">
         <v>813</v>
       </c>
-      <c s="8" r="L17" t="n">
+      <c r="L17" s="8" t="n">
         <v>81.3</v>
       </c>
-      <c s="7" r="N17" t="n">
+      <c r="N17" s="7" t="n">
         <v>92.5</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c s="4" r="A18" t="n">
+      <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
-      <c s="4" r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c s="10" r="C18" t="n">
+      <c r="C18" s="10" t="n">
         <v>1266</v>
       </c>
-      <c s="6" r="D18" t="n">
+      <c r="D18" s="6" t="n">
         <v>61.8</v>
       </c>
-      <c s="9" r="E18" t="n">
+      <c r="E18" s="9" t="n">
         <v>345</v>
       </c>
-      <c s="6" r="F18" t="n">
+      <c r="F18" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c s="5" r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>339</v>
       </c>
-      <c s="6" r="H18" t="n">
+      <c r="H18" s="6" t="n">
         <v>93</v>
       </c>
-      <c s="9" r="I18" t="n">
+      <c r="I18" s="9" t="n">
         <v>488</v>
       </c>
-      <c s="6" r="J18" t="n">
+      <c r="J18" s="6" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c s="5" r="K18" t="n">
+      <c r="K18" s="5" t="n">
         <v>483</v>
       </c>
-      <c s="6" r="L18" t="n">
+      <c r="L18" s="6" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c s="7" r="N18" t="n">
+      <c r="N18" s="7" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c s="1" r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
-      <c s="1" r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c s="9" r="C19" t="n">
+      <c r="C19" s="9" t="n">
         <v>612</v>
       </c>
-      <c s="8" r="D19" t="n">
+      <c r="D19" s="8" t="n">
         <v>81.40000000000001</v>
       </c>
-      <c s="11" r="E19" t="n">
+      <c r="E19" s="11" t="n">
         <v>2384</v>
       </c>
-      <c s="8" r="F19" t="n">
+      <c r="F19" s="8" t="n">
         <v>35.4</v>
       </c>
-      <c s="5" r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>397</v>
       </c>
-      <c s="8" r="H19" t="n">
+      <c r="H19" s="8" t="n">
         <v>91.8</v>
       </c>
-      <c s="9" r="I19" t="n">
+      <c r="I19" s="9" t="n">
         <v>561</v>
       </c>
-      <c s="8" r="J19" t="n">
+      <c r="J19" s="8" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c s="5" r="K19" t="n">
+      <c r="K19" s="5" t="n">
         <v>494</v>
       </c>
-      <c s="8" r="L19" t="n">
+      <c r="L19" s="8" t="n">
         <v>88.7</v>
       </c>
-      <c s="7" r="N19" t="n">
+      <c r="N19" s="7" t="n">
         <v>90.3</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c s="4" r="A20" t="n">
+      <c r="A20" s="4" t="n">
         <v>17</v>
       </c>
-      <c s="4" r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c s="9" r="C20" t="n">
+      <c r="C20" s="9" t="n">
         <v>251</v>
       </c>
-      <c s="6" r="D20" t="n">
+      <c r="D20" s="6" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c s="5" r="E20" t="n">
+      <c r="E20" s="5" t="n">
         <v>127</v>
       </c>
-      <c s="6" r="F20" t="n">
+      <c r="F20" s="6" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c s="9" r="G20" t="n">
+      <c r="G20" s="9" t="n">
         <v>581</v>
       </c>
-      <c s="6" r="H20" t="n">
+      <c r="H20" s="6" t="n">
         <v>83</v>
       </c>
-      <c s="5" r="I20" t="n">
+      <c r="I20" s="5" t="n">
         <v>218</v>
       </c>
-      <c s="6" r="J20" t="n">
+      <c r="J20" s="6" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c s="6" r="K20" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N20" t="n">
+      <c r="K20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7" t="n">
         <v>89.3</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c s="1" r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
-      <c s="1" r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c s="9" r="C21" t="n">
+      <c r="C21" s="9" t="n">
         <v>394</v>
       </c>
-      <c s="8" r="D21" t="n">
+      <c r="D21" s="8" t="n">
         <v>86.2</v>
       </c>
-      <c s="9" r="E21" t="n">
+      <c r="E21" s="9" t="n">
         <v>509</v>
       </c>
-      <c s="8" r="F21" t="n">
+      <c r="F21" s="8" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c s="11" r="G21" t="n">
+      <c r="G21" s="11" t="n">
         <v>2350</v>
       </c>
-      <c s="8" r="H21" t="n">
+      <c r="H21" s="8" t="n">
         <v>36.5</v>
       </c>
-      <c s="9" r="I21" t="n">
+      <c r="I21" s="9" t="n">
         <v>276</v>
       </c>
-      <c s="8" r="J21" t="n">
+      <c r="J21" s="8" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c s="5" r="K21" t="n">
+      <c r="K21" s="5" t="n">
         <v>631</v>
       </c>
-      <c s="8" r="L21" t="n">
+      <c r="L21" s="8" t="n">
         <v>85.5</v>
       </c>
-      <c s="7" r="N21" t="n">
+      <c r="N21" s="7" t="n">
         <v>87.5</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c s="4" r="A22" t="n">
+      <c r="A22" s="4" t="n">
         <v>19</v>
       </c>
-      <c s="4" r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c s="10" r="C22" t="n">
+      <c r="C22" s="10" t="n">
         <v>1153</v>
       </c>
-      <c s="6" r="D22" t="n">
+      <c r="D22" s="6" t="n">
         <v>64.3</v>
       </c>
-      <c s="9" r="E22" t="n">
+      <c r="E22" s="9" t="n">
         <v>477</v>
       </c>
-      <c s="6" r="F22" t="n">
+      <c r="F22" s="6" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c s="10" r="G22" t="n">
+      <c r="G22" s="10" t="n">
         <v>1612</v>
       </c>
-      <c s="6" r="H22" t="n">
+      <c r="H22" s="6" t="n">
         <v>56.7</v>
       </c>
-      <c s="9" r="I22" t="n">
+      <c r="I22" s="9" t="n">
         <v>629</v>
       </c>
-      <c s="6" r="J22" t="n">
+      <c r="J22" s="6" t="n">
         <v>82.2</v>
       </c>
-      <c s="5" r="K22" t="n">
+      <c r="K22" s="5" t="n">
         <v>404</v>
       </c>
-      <c s="6" r="L22" t="n">
+      <c r="L22" s="6" t="n">
         <v>90.7</v>
       </c>
-      <c s="7" r="N22" t="n">
+      <c r="N22" s="7" t="n">
         <v>86.5</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c s="1" r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
-      <c s="1" r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c s="10" r="C23" t="n">
+      <c r="C23" s="10" t="n">
         <v>1191</v>
       </c>
-      <c s="8" r="D23" t="n">
+      <c r="D23" s="8" t="n">
         <v>63.4</v>
       </c>
-      <c s="9" r="E23" t="n">
+      <c r="E23" s="9" t="n">
         <v>638</v>
       </c>
-      <c s="8" r="F23" t="n">
+      <c r="F23" s="8" t="n">
         <v>81.7</v>
       </c>
-      <c s="9" r="G23" t="n">
+      <c r="G23" s="9" t="n">
         <v>645</v>
       </c>
-      <c s="8" r="H23" t="n">
+      <c r="H23" s="8" t="n">
         <v>81.7</v>
       </c>
-      <c s="9" r="I23" t="n">
+      <c r="I23" s="9" t="n">
         <v>271</v>
       </c>
-      <c s="8" r="J23" t="n">
+      <c r="J23" s="8" t="n">
         <v>89.5</v>
       </c>
-      <c s="5" r="K23" t="n">
+      <c r="K23" s="5" t="n">
         <v>760</v>
       </c>
-      <c s="8" r="L23" t="n">
+      <c r="L23" s="8" t="n">
         <v>82.5</v>
       </c>
-      <c s="7" r="N23" t="n">
+      <c r="N23" s="7" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c s="4" r="A24" t="n">
+      <c r="A24" s="4" t="n">
         <v>21</v>
       </c>
-      <c s="4" r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c s="10" r="C24" t="n">
+      <c r="C24" s="10" t="n">
         <v>730</v>
       </c>
-      <c s="6" r="D24" t="n">
+      <c r="D24" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c s="9" r="E24" t="n">
+      <c r="E24" s="9" t="n">
         <v>1024</v>
       </c>
-      <c s="6" r="F24" t="n">
+      <c r="F24" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c s="9" r="G24" t="n">
+      <c r="G24" s="9" t="n">
         <v>557</v>
       </c>
-      <c s="6" r="H24" t="n">
+      <c r="H24" s="6" t="n">
         <v>83.5</v>
       </c>
-      <c s="10" r="I24" t="n">
+      <c r="I24" s="10" t="n">
         <v>1092</v>
       </c>
-      <c s="6" r="J24" t="n">
+      <c r="J24" s="6" t="n">
         <v>67.7</v>
       </c>
-      <c s="5" r="K24" t="n">
+      <c r="K24" s="5" t="n">
         <v>531</v>
       </c>
-      <c s="6" r="L24" t="n">
+      <c r="L24" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c s="7" r="N24" t="n">
+      <c r="N24" s="7" t="n">
         <v>85.7</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c s="1" r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
-      <c s="1" r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c s="8" r="C25" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="E25" t="n">
+      <c r="C25" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="n">
         <v>1223</v>
       </c>
-      <c s="8" r="F25" t="n">
+      <c r="F25" s="8" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c s="10" r="G25" t="n">
+      <c r="G25" s="10" t="n">
         <v>1340</v>
       </c>
-      <c s="8" r="H25" t="n">
+      <c r="H25" s="8" t="n">
         <v>62.3</v>
       </c>
-      <c s="10" r="I25" t="n">
+      <c r="I25" s="10" t="n">
         <v>740</v>
       </c>
-      <c s="8" r="J25" t="n">
+      <c r="J25" s="8" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c s="5" r="K25" t="n">
+      <c r="K25" s="5" t="n">
         <v>182</v>
       </c>
-      <c s="8" r="L25" t="n">
+      <c r="L25" s="8" t="n">
         <v>95.8</v>
       </c>
-      <c s="7" r="N25" t="n">
+      <c r="N25" s="7" t="n">
         <v>85.3</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c s="4" r="A26" t="n">
+      <c r="A26" s="4" t="n">
         <v>23</v>
       </c>
-      <c s="4" r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c s="9" r="C26" t="n">
+      <c r="C26" s="9" t="n">
         <v>565</v>
       </c>
-      <c s="6" r="D26" t="n">
+      <c r="D26" s="6" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c s="6" r="E26" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="G26" t="n">
+      <c r="E26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
         <v>845</v>
       </c>
-      <c s="6" r="H26" t="n">
+      <c r="H26" s="6" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c s="9" r="I26" t="n">
+      <c r="I26" s="9" t="n">
         <v>419</v>
       </c>
-      <c s="6" r="J26" t="n">
+      <c r="J26" s="6" t="n">
         <v>86.5</v>
       </c>
-      <c s="5" r="K26" t="n">
+      <c r="K26" s="5" t="n">
         <v>711</v>
       </c>
-      <c s="6" r="L26" t="n">
+      <c r="L26" s="6" t="n">
         <v>83.7</v>
       </c>
-      <c s="7" r="N26" t="n">
+      <c r="N26" s="7" t="n">
         <v>85.09999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c s="1" r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
-      <c s="1" r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c s="9" r="C27" t="n">
+      <c r="C27" s="9" t="n">
         <v>567</v>
       </c>
-      <c s="8" r="D27" t="n">
+      <c r="D27" s="8" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c s="9" r="E27" t="n">
+      <c r="E27" s="9" t="n">
         <v>865</v>
       </c>
-      <c s="8" r="F27" t="n">
+      <c r="F27" s="8" t="n">
         <v>77</v>
       </c>
-      <c s="10" r="G27" t="n">
+      <c r="G27" s="10" t="n">
         <v>1717</v>
       </c>
-      <c s="8" r="H27" t="n">
+      <c r="H27" s="8" t="n">
         <v>54.6</v>
       </c>
-      <c s="9" r="I27" t="n">
+      <c r="I27" s="9" t="n">
         <v>506</v>
       </c>
-      <c s="8" r="J27" t="n">
+      <c r="J27" s="8" t="n">
         <v>84.7</v>
       </c>
-      <c s="5" r="K27" t="n">
+      <c r="K27" s="5" t="n">
         <v>664</v>
       </c>
-      <c s="8" r="L27" t="n">
+      <c r="L27" s="8" t="n">
         <v>84.7</v>
       </c>
-      <c s="7" r="N27" t="n">
+      <c r="N27" s="7" t="n">
         <v>84.7</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c s="4" r="A28" t="n">
+      <c r="A28" s="4" t="n">
         <v>25</v>
       </c>
-      <c s="4" r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c s="6" r="C28" t="n">
+      <c r="C28" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="E28" t="n">
+      <c r="D28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="G28" t="n">
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="n">
         <v>608</v>
       </c>
-      <c s="6" r="H28" t="n">
+      <c r="H28" s="6" t="n">
         <v>82.5</v>
       </c>
-      <c s="11" r="I28" t="n">
+      <c r="I28" s="11" t="n">
         <v>1959</v>
       </c>
-      <c s="6" r="J28" t="n">
+      <c r="J28" s="6" t="n">
         <v>45.1</v>
       </c>
-      <c s="5" r="K28" t="n">
+      <c r="K28" s="5" t="n">
         <v>667</v>
       </c>
-      <c s="6" r="L28" t="n">
+      <c r="L28" s="6" t="n">
         <v>84.7</v>
       </c>
-      <c s="7" r="N28" t="n">
+      <c r="N28" s="7" t="n">
         <v>83.59999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c s="1" r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
-      <c s="1" r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c s="11" r="C29" t="n">
+      <c r="C29" s="11" t="n">
         <v>1904</v>
       </c>
-      <c s="8" r="D29" t="n">
+      <c r="D29" s="8" t="n">
         <v>42.5</v>
       </c>
-      <c s="9" r="E29" t="n">
+      <c r="E29" s="9" t="n">
         <v>793</v>
       </c>
-      <c s="8" r="F29" t="n">
+      <c r="F29" s="8" t="n">
         <v>78.5</v>
       </c>
-      <c s="5" r="G29" t="n">
+      <c r="G29" s="5" t="n">
         <v>420</v>
       </c>
-      <c s="8" r="H29" t="n">
+      <c r="H29" s="8" t="n">
         <v>91.3</v>
       </c>
-      <c s="10" r="I29" t="n">
+      <c r="I29" s="10" t="n">
         <v>721</v>
       </c>
-      <c s="8" r="J29" t="n">
+      <c r="J29" s="8" t="n">
         <v>75.3</v>
       </c>
-      <c s="9" r="K29" t="n">
+      <c r="K29" s="9" t="n">
         <v>1228</v>
       </c>
-      <c s="8" r="L29" t="n">
+      <c r="L29" s="8" t="n">
         <v>66.8</v>
       </c>
-      <c s="7" r="N29" t="n">
+      <c r="N29" s="7" t="n">
         <v>83.3</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c s="4" r="A30" t="n">
+      <c r="A30" s="4" t="n">
         <v>27</v>
       </c>
-      <c s="4" r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c s="6" r="C30" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="E30" t="n">
+      <c r="C30" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
         <v>711</v>
       </c>
-      <c s="6" r="F30" t="n">
+      <c r="F30" s="6" t="n">
         <v>80.2</v>
       </c>
-      <c s="5" r="G30" t="n">
+      <c r="G30" s="5" t="n">
         <v>474</v>
       </c>
-      <c s="6" r="H30" t="n">
+      <c r="H30" s="6" t="n">
         <v>90.2</v>
       </c>
-      <c s="10" r="I30" t="n">
+      <c r="I30" s="10" t="n">
         <v>806</v>
       </c>
-      <c s="6" r="J30" t="n">
+      <c r="J30" s="6" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c s="6" r="K30" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N30" t="n">
+      <c r="K30" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7" t="n">
         <v>81.90000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c s="1" r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
-      <c s="1" r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c s="10" r="C31" t="n">
+      <c r="C31" s="10" t="n">
         <v>760</v>
       </c>
-      <c s="8" r="D31" t="n">
+      <c r="D31" s="8" t="n">
         <v>73</v>
       </c>
-      <c s="8" r="E31" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c s="5" r="G31" t="n">
+      <c r="E31" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
         <v>221</v>
       </c>
-      <c s="8" r="H31" t="n">
+      <c r="H31" s="8" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c s="10" r="I31" t="n">
+      <c r="I31" s="10" t="n">
         <v>1114</v>
       </c>
-      <c s="8" r="J31" t="n">
+      <c r="J31" s="8" t="n">
         <v>67.3</v>
       </c>
-      <c s="9" r="K31" t="n">
+      <c r="K31" s="9" t="n">
         <v>1243</v>
       </c>
-      <c s="8" r="L31" t="n">
+      <c r="L31" s="8" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c s="7" r="N31" t="n">
+      <c r="N31" s="7" t="n">
         <v>81.3</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c s="4" r="A32" t="n">
+      <c r="A32" s="4" t="n">
         <v>29</v>
       </c>
-      <c s="4" r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-      <c s="10" r="C32" t="n">
+      <c r="C32" s="10" t="n">
         <v>1136</v>
       </c>
-      <c s="6" r="D32" t="n">
+      <c r="D32" s="6" t="n">
         <v>64.7</v>
       </c>
-      <c s="10" r="E32" t="n">
+      <c r="E32" s="10" t="n">
         <v>1238</v>
       </c>
-      <c s="6" r="F32" t="n">
+      <c r="F32" s="6" t="n">
         <v>64.3</v>
       </c>
-      <c s="10" r="G32" t="n">
+      <c r="G32" s="10" t="n">
         <v>1178</v>
       </c>
-      <c s="6" r="H32" t="n">
+      <c r="H32" s="6" t="n">
         <v>65.7</v>
       </c>
-      <c s="9" r="I32" t="n">
+      <c r="I32" s="9" t="n">
         <v>268</v>
       </c>
-      <c s="6" r="J32" t="n">
+      <c r="J32" s="6" t="n">
         <v>89.5</v>
       </c>
-      <c s="9" r="K32" t="n">
+      <c r="K32" s="9" t="n">
         <v>1079</v>
       </c>
-      <c s="6" r="L32" t="n">
+      <c r="L32" s="6" t="n">
         <v>70.2</v>
       </c>
-      <c s="7" r="N32" t="n">
+      <c r="N32" s="7" t="n">
         <v>79.8</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c s="1" r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
-      <c s="1" r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c s="10" r="C33" t="n">
+      <c r="C33" s="10" t="n">
         <v>1215</v>
       </c>
-      <c s="8" r="D33" t="n">
+      <c r="D33" s="8" t="n">
         <v>62.9</v>
       </c>
-      <c s="10" r="E33" t="n">
+      <c r="E33" s="10" t="n">
         <v>1648</v>
       </c>
-      <c s="8" r="F33" t="n">
+      <c r="F33" s="8" t="n">
         <v>55.7</v>
       </c>
-      <c s="10" r="G33" t="n">
+      <c r="G33" s="10" t="n">
         <v>1754</v>
       </c>
-      <c s="8" r="H33" t="n">
+      <c r="H33" s="8" t="n">
         <v>53.8</v>
       </c>
-      <c s="10" r="I33" t="n">
+      <c r="I33" s="10" t="n">
         <v>883</v>
       </c>
-      <c s="8" r="J33" t="n">
+      <c r="J33" s="8" t="n">
         <v>72</v>
       </c>
-      <c s="5" r="K33" t="n">
+      <c r="K33" s="5" t="n">
         <v>618</v>
       </c>
-      <c s="8" r="L33" t="n">
+      <c r="L33" s="8" t="n">
         <v>85.8</v>
       </c>
-      <c s="7" r="N33" t="n">
+      <c r="N33" s="7" t="n">
         <v>78.90000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c s="4" r="A34" t="n">
+      <c r="A34" s="4" t="n">
         <v>31</v>
       </c>
-      <c s="4" r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-      <c s="10" r="C34" t="n">
+      <c r="C34" s="10" t="n">
         <v>1332</v>
       </c>
-      <c s="6" r="D34" t="n">
+      <c r="D34" s="6" t="n">
         <v>60.3</v>
       </c>
-      <c s="6" r="E34" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="G34" t="n">
+      <c r="E34" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9" t="n">
         <v>948</v>
       </c>
-      <c s="6" r="H34" t="n">
+      <c r="H34" s="6" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c s="9" r="I34" t="n">
+      <c r="I34" s="9" t="n">
         <v>617</v>
       </c>
-      <c s="6" r="J34" t="n">
+      <c r="J34" s="6" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c s="9" r="K34" t="n">
+      <c r="K34" s="9" t="n">
         <v>1262</v>
       </c>
-      <c s="6" r="L34" t="n">
+      <c r="L34" s="6" t="n">
         <v>66</v>
       </c>
-      <c s="7" r="N34" t="n">
+      <c r="N34" s="7" t="n">
         <v>78.90000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c s="1" r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
-      <c s="1" r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c s="8" r="C35" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="E35" t="n">
+      <c r="C35" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="n">
         <v>1144</v>
       </c>
-      <c s="8" r="F35" t="n">
+      <c r="F35" s="8" t="n">
         <v>66.2</v>
       </c>
-      <c s="9" r="G35" t="n">
+      <c r="G35" s="9" t="n">
         <v>598</v>
       </c>
-      <c s="8" r="H35" t="n">
+      <c r="H35" s="8" t="n">
         <v>82.7</v>
       </c>
-      <c s="10" r="I35" t="n">
+      <c r="I35" s="10" t="n">
         <v>798</v>
       </c>
-      <c s="8" r="J35" t="n">
+      <c r="J35" s="8" t="n">
         <v>73.7</v>
       </c>
-      <c s="8" r="K35" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N35" t="n">
+      <c r="K35" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7" t="n">
         <v>78.2</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c s="4" r="A36" t="n">
+      <c r="A36" s="4" t="n">
         <v>33</v>
       </c>
-      <c s="4" r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
-      <c s="11" r="C36" t="n">
+      <c r="C36" s="11" t="n">
         <v>2157</v>
       </c>
-      <c s="6" r="D36" t="n">
+      <c r="D36" s="6" t="n">
         <v>36.9</v>
       </c>
-      <c s="10" r="E36" t="n">
+      <c r="E36" s="10" t="n">
         <v>1642</v>
       </c>
-      <c s="6" r="F36" t="n">
+      <c r="F36" s="6" t="n">
         <v>55.9</v>
       </c>
-      <c s="6" r="G36" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="I36" t="n">
+      <c r="G36" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="n">
         <v>789</v>
       </c>
-      <c s="6" r="J36" t="n">
+      <c r="J36" s="6" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c s="5" r="K36" t="n">
+      <c r="K36" s="5" t="n">
         <v>794</v>
       </c>
-      <c s="6" r="L36" t="n">
+      <c r="L36" s="6" t="n">
         <v>81.8</v>
       </c>
-      <c s="7" r="N36" t="n">
+      <c r="N36" s="7" t="n">
         <v>77.8</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c s="1" r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
-      <c s="1" r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c s="11" r="C37" t="n">
+      <c r="C37" s="11" t="n">
         <v>2048</v>
       </c>
-      <c s="8" r="D37" t="n">
+      <c r="D37" s="8" t="n">
         <v>39.3</v>
       </c>
-      <c s="10" r="E37" t="n">
+      <c r="E37" s="10" t="n">
         <v>1234</v>
       </c>
-      <c s="8" r="F37" t="n">
+      <c r="F37" s="8" t="n">
         <v>64.3</v>
       </c>
-      <c s="10" r="G37" t="n">
+      <c r="G37" s="10" t="n">
         <v>1181</v>
       </c>
-      <c s="8" r="H37" t="n">
+      <c r="H37" s="8" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c s="10" r="I37" t="n">
+      <c r="I37" s="10" t="n">
         <v>1297</v>
       </c>
-      <c s="8" r="J37" t="n">
+      <c r="J37" s="8" t="n">
         <v>63.6</v>
       </c>
-      <c s="5" r="K37" t="n">
+      <c r="K37" s="5" t="n">
         <v>654</v>
       </c>
-      <c s="8" r="L37" t="n">
+      <c r="L37" s="8" t="n">
         <v>85</v>
       </c>
-      <c s="7" r="N37" t="n">
+      <c r="N37" s="7" t="n">
         <v>75.3</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c s="4" r="A38" t="n">
+      <c r="A38" s="4" t="n">
         <v>35</v>
       </c>
-      <c s="4" r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
-      <c s="10" r="C38" t="n">
+      <c r="C38" s="10" t="n">
         <v>1117</v>
       </c>
-      <c s="6" r="D38" t="n">
+      <c r="D38" s="6" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c s="9" r="E38" t="n">
+      <c r="E38" s="9" t="n">
         <v>459</v>
       </c>
-      <c s="6" r="F38" t="n">
+      <c r="F38" s="6" t="n">
         <v>85.5</v>
       </c>
-      <c s="9" r="G38" t="n">
+      <c r="G38" s="9" t="n">
         <v>846</v>
       </c>
-      <c s="6" r="H38" t="n">
+      <c r="H38" s="6" t="n">
         <v>77.5</v>
       </c>
-      <c s="10" r="I38" t="n">
+      <c r="I38" s="10" t="n">
         <v>828</v>
       </c>
-      <c s="6" r="J38" t="n">
+      <c r="J38" s="6" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c s="10" r="K38" t="n">
+      <c r="K38" s="10" t="n">
         <v>1573</v>
       </c>
-      <c s="6" r="L38" t="n">
+      <c r="L38" s="6" t="n">
         <v>53.9</v>
       </c>
-      <c s="7" r="N38" t="n">
+      <c r="N38" s="7" t="n">
         <v>75.3</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c s="1" r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>36</v>
       </c>
-      <c s="1" r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c s="10" r="C39" t="n">
+      <c r="C39" s="10" t="n">
         <v>1025</v>
       </c>
-      <c s="8" r="D39" t="n">
+      <c r="D39" s="8" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c s="11" r="E39" t="n">
+      <c r="E39" s="11" t="n">
         <v>2546</v>
       </c>
-      <c s="8" r="F39" t="n">
+      <c r="F39" s="8" t="n">
         <v>32.1</v>
       </c>
-      <c s="10" r="G39" t="n">
+      <c r="G39" s="10" t="n">
         <v>1136</v>
       </c>
-      <c s="8" r="H39" t="n">
+      <c r="H39" s="8" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c s="9" r="I39" t="n">
+      <c r="I39" s="9" t="n">
         <v>579</v>
       </c>
-      <c s="8" r="J39" t="n">
+      <c r="J39" s="8" t="n">
         <v>83.2</v>
       </c>
-      <c s="10" r="K39" t="n">
+      <c r="K39" s="10" t="n">
         <v>1350</v>
       </c>
-      <c s="8" r="L39" t="n">
+      <c r="L39" s="8" t="n">
         <v>59</v>
       </c>
-      <c s="7" r="N39" t="n">
+      <c r="N39" s="7" t="n">
         <v>74.90000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c s="4" r="A40" t="n">
+      <c r="A40" s="4" t="n">
         <v>37</v>
       </c>
-      <c s="4" r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>38</v>
       </c>
-      <c s="6" r="C40" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="E40" t="n">
+      <c r="C40" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="n">
         <v>484</v>
       </c>
-      <c s="6" r="F40" t="n">
+      <c r="F40" s="6" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c s="9" r="G40" t="n">
+      <c r="G40" s="9" t="n">
         <v>872</v>
       </c>
-      <c s="6" r="H40" t="n">
+      <c r="H40" s="6" t="n">
         <v>77</v>
       </c>
-      <c s="6" r="I40" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="K40" t="n">
+      <c r="I40" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9" t="n">
         <v>997</v>
       </c>
-      <c s="6" r="L40" t="n">
+      <c r="L40" s="6" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c s="7" r="N40" t="n">
+      <c r="N40" s="7" t="n">
         <v>74.5</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c s="1" r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>38</v>
       </c>
-      <c s="1" r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c s="8" r="C41" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="E41" t="n">
+      <c r="C41" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9" t="n">
         <v>1043</v>
       </c>
-      <c s="8" r="F41" t="n">
+      <c r="F41" s="8" t="n">
         <v>73.3</v>
       </c>
-      <c s="10" r="G41" t="n">
+      <c r="G41" s="10" t="n">
         <v>2069</v>
       </c>
-      <c s="8" r="H41" t="n">
+      <c r="H41" s="8" t="n">
         <v>47.3</v>
       </c>
-      <c s="10" r="I41" t="n">
+      <c r="I41" s="10" t="n">
         <v>790</v>
       </c>
-      <c s="8" r="J41" t="n">
+      <c r="J41" s="8" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c s="9" r="K41" t="n">
+      <c r="K41" s="9" t="n">
         <v>1060</v>
       </c>
-      <c s="8" r="L41" t="n">
+      <c r="L41" s="8" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c s="7" r="N41" t="n">
+      <c r="N41" s="7" t="n">
         <v>72.2</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c s="4" r="A42" t="n">
+      <c r="A42" s="4" t="n">
         <v>39</v>
       </c>
-      <c s="4" r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
-      <c s="10" r="C42" t="n">
+      <c r="C42" s="10" t="n">
         <v>736</v>
       </c>
-      <c s="6" r="D42" t="n">
+      <c r="D42" s="6" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c s="10" r="E42" t="n">
+      <c r="E42" s="10" t="n">
         <v>1283</v>
       </c>
-      <c s="6" r="F42" t="n">
+      <c r="F42" s="6" t="n">
         <v>63.3</v>
       </c>
-      <c s="11" r="G42" t="n">
+      <c r="G42" s="11" t="n">
         <v>2615</v>
       </c>
-      <c s="6" r="H42" t="n">
+      <c r="H42" s="6" t="n">
         <v>31</v>
       </c>
-      <c s="10" r="I42" t="n">
+      <c r="I42" s="10" t="n">
         <v>792</v>
       </c>
-      <c s="6" r="J42" t="n">
+      <c r="J42" s="6" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c s="9" r="K42" t="n">
+      <c r="K42" s="9" t="n">
         <v>1095</v>
       </c>
-      <c s="6" r="L42" t="n">
+      <c r="L42" s="6" t="n">
         <v>69.8</v>
       </c>
-      <c s="7" r="N42" t="n">
+      <c r="N42" s="7" t="n">
         <v>71.8</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c s="1" r="A43" t="n">
+      <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
-      <c s="1" r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c s="8" r="C43" t="n">
+      <c r="C43" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="E43" t="n">
+      <c r="D43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="G43" t="n">
+      <c r="F43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="I43" t="n">
+      <c r="H43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9" t="n">
         <v>541</v>
       </c>
-      <c s="8" r="J43" t="n">
+      <c r="J43" s="8" t="n">
         <v>84</v>
       </c>
-      <c s="10" r="K43" t="n">
+      <c r="K43" s="10" t="n">
         <v>1344</v>
       </c>
-      <c s="8" r="L43" t="n">
+      <c r="L43" s="8" t="n">
         <v>59.1</v>
       </c>
-      <c s="7" r="N43" t="n">
+      <c r="N43" s="7" t="n">
         <v>71.5</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c s="4" r="A44" t="n">
+      <c r="A44" s="4" t="n">
         <v>41</v>
       </c>
-      <c s="4" r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>42</v>
       </c>
-      <c s="6" r="C44" t="n">
+      <c r="C44" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="E44" t="n">
+      <c r="D44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="G44" t="n">
+      <c r="F44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="I44" t="n">
+      <c r="H44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="K44" t="n">
+      <c r="J44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9" t="n">
         <v>1038</v>
       </c>
-      <c s="6" r="L44" t="n">
+      <c r="L44" s="6" t="n">
         <v>71.2</v>
       </c>
-      <c s="7" r="N44" t="n">
+      <c r="N44" s="7" t="n">
         <v>71.2</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c s="1" r="A45" t="n">
+      <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
-      <c s="1" r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c s="9" r="C45" t="n">
+      <c r="C45" s="9" t="n">
         <v>578</v>
       </c>
-      <c s="8" r="D45" t="n">
+      <c r="D45" s="8" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c s="5" r="E45" t="n">
+      <c r="E45" s="5" t="n">
         <v>233</v>
       </c>
-      <c s="8" r="F45" t="n">
+      <c r="F45" s="8" t="n">
         <v>95.2</v>
       </c>
-      <c s="5" r="G45" t="n">
+      <c r="G45" s="5" t="n">
         <v>502</v>
       </c>
-      <c s="8" r="H45" t="n">
+      <c r="H45" s="8" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c s="11" r="I45" t="n">
+      <c r="I45" s="11" t="n">
         <v>1641</v>
       </c>
-      <c s="8" r="J45" t="n">
+      <c r="J45" s="8" t="n">
         <v>51.5</v>
       </c>
-      <c s="8" r="K45" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N45" t="n">
+      <c r="K45" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7" t="n">
         <v>70.5</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c s="4" r="A46" t="n">
+      <c r="A46" s="4" t="n">
         <v>43</v>
       </c>
-      <c s="4" r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
-      <c s="10" r="C46" t="n">
+      <c r="C46" s="10" t="n">
         <v>1242</v>
       </c>
-      <c s="6" r="D46" t="n">
+      <c r="D46" s="6" t="n">
         <v>62.3</v>
       </c>
-      <c s="9" r="E46" t="n">
+      <c r="E46" s="9" t="n">
         <v>903</v>
       </c>
-      <c s="6" r="F46" t="n">
+      <c r="F46" s="6" t="n">
         <v>76.2</v>
       </c>
-      <c s="10" r="G46" t="n">
+      <c r="G46" s="10" t="n">
         <v>1582</v>
       </c>
-      <c s="6" r="H46" t="n">
+      <c r="H46" s="6" t="n">
         <v>57.3</v>
       </c>
-      <c s="9" r="I46" t="n">
+      <c r="I46" s="9" t="n">
         <v>621</v>
       </c>
-      <c s="6" r="J46" t="n">
+      <c r="J46" s="6" t="n">
         <v>82.3</v>
       </c>
-      <c s="10" r="K46" t="n">
+      <c r="K46" s="10" t="n">
         <v>1717</v>
       </c>
-      <c s="6" r="L46" t="n">
+      <c r="L46" s="6" t="n">
         <v>50.6</v>
       </c>
-      <c s="7" r="N46" t="n">
+      <c r="N46" s="7" t="n">
         <v>69.8</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c s="1" r="A47" t="n">
+      <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
-      <c s="1" r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c s="11" r="C47" t="n">
+      <c r="C47" s="11" t="n">
         <v>2181</v>
       </c>
-      <c s="8" r="D47" t="n">
+      <c r="D47" s="8" t="n">
         <v>36.4</v>
       </c>
-      <c s="9" r="E47" t="n">
+      <c r="E47" s="9" t="n">
         <v>460</v>
       </c>
-      <c s="8" r="F47" t="n">
+      <c r="F47" s="8" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c s="9" r="G47" t="n">
+      <c r="G47" s="9" t="n">
         <v>967</v>
       </c>
-      <c s="8" r="H47" t="n">
+      <c r="H47" s="8" t="n">
         <v>75</v>
       </c>
-      <c s="10" r="I47" t="n">
+      <c r="I47" s="10" t="n">
         <v>1280</v>
       </c>
-      <c s="8" r="J47" t="n">
+      <c r="J47" s="8" t="n">
         <v>63.9</v>
       </c>
-      <c s="10" r="K47" t="n">
+      <c r="K47" s="10" t="n">
         <v>1348</v>
       </c>
-      <c s="8" r="L47" t="n">
+      <c r="L47" s="8" t="n">
         <v>59</v>
       </c>
-      <c s="7" r="N47" t="n">
+      <c r="N47" s="7" t="n">
         <v>69.5</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c s="4" r="A48" t="n">
+      <c r="A48" s="4" t="n">
         <v>45</v>
       </c>
-      <c s="4" r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
-      <c s="9" r="C48" t="n">
+      <c r="C48" s="9" t="n">
         <v>315</v>
       </c>
-      <c s="6" r="D48" t="n">
+      <c r="D48" s="6" t="n">
         <v>88</v>
       </c>
-      <c s="10" r="E48" t="n">
+      <c r="E48" s="10" t="n">
         <v>2123</v>
       </c>
-      <c s="6" r="F48" t="n">
+      <c r="F48" s="6" t="n">
         <v>45.9</v>
       </c>
-      <c s="9" r="G48" t="n">
+      <c r="G48" s="9" t="n">
         <v>757</v>
       </c>
-      <c s="6" r="H48" t="n">
+      <c r="H48" s="6" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c s="11" r="I48" t="n">
+      <c r="I48" s="11" t="n">
         <v>1642</v>
       </c>
-      <c s="6" r="J48" t="n">
+      <c r="J48" s="6" t="n">
         <v>51.5</v>
       </c>
-      <c s="10" r="K48" t="n">
+      <c r="K48" s="10" t="n">
         <v>1411</v>
       </c>
-      <c s="6" r="L48" t="n">
+      <c r="L48" s="6" t="n">
         <v>57.6</v>
       </c>
-      <c s="7" r="N48" t="n">
+      <c r="N48" s="7" t="n">
         <v>68.5</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c s="1" r="A49" t="n">
+      <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
-      <c s="1" r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c s="10" r="C49" t="n">
+      <c r="C49" s="10" t="n">
         <v>1109</v>
       </c>
-      <c s="8" r="D49" t="n">
+      <c r="D49" s="8" t="n">
         <v>65.3</v>
       </c>
-      <c s="10" r="E49" t="n">
+      <c r="E49" s="10" t="n">
         <v>1181</v>
       </c>
-      <c s="8" r="F49" t="n">
+      <c r="F49" s="8" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c s="10" r="G49" t="n">
+      <c r="G49" s="10" t="n">
         <v>1223</v>
       </c>
-      <c s="8" r="H49" t="n">
+      <c r="H49" s="8" t="n">
         <v>64.8</v>
       </c>
-      <c s="10" r="I49" t="n">
+      <c r="I49" s="10" t="n">
         <v>913</v>
       </c>
-      <c s="8" r="J49" t="n">
+      <c r="J49" s="8" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c s="8" r="K49" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N49" t="n">
+      <c r="K49" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7" t="n">
         <v>68.09999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c s="4" r="A50" t="n">
+      <c r="A50" s="4" t="n">
         <v>47</v>
       </c>
-      <c s="4" r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
-      <c s="6" r="C50" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="E50" t="n">
+      <c r="C50" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="n">
         <v>958</v>
       </c>
-      <c s="6" r="F50" t="n">
+      <c r="F50" s="6" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c s="9" r="G50" t="n">
+      <c r="G50" s="9" t="n">
         <v>817</v>
       </c>
-      <c s="6" r="H50" t="n">
+      <c r="H50" s="6" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c s="6" r="I50" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="K50" t="n">
+      <c r="I50" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10" t="n">
         <v>1458</v>
       </c>
-      <c s="6" r="L50" t="n">
+      <c r="L50" s="6" t="n">
         <v>56.5</v>
       </c>
-      <c s="7" r="N50" t="n">
+      <c r="N50" s="7" t="n">
         <v>67.3</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c s="1" r="A51" t="n">
+      <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
-      <c s="1" r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c s="11" r="C51" t="n">
+      <c r="C51" s="11" t="n">
         <v>1855</v>
       </c>
-      <c s="8" r="D51" t="n">
+      <c r="D51" s="8" t="n">
         <v>43.6</v>
       </c>
-      <c s="9" r="E51" t="n">
+      <c r="E51" s="9" t="n">
         <v>892</v>
       </c>
-      <c s="8" r="F51" t="n">
+      <c r="F51" s="8" t="n">
         <v>76.5</v>
       </c>
-      <c s="10" r="G51" t="n">
+      <c r="G51" s="10" t="n">
         <v>1429</v>
       </c>
-      <c s="8" r="H51" t="n">
+      <c r="H51" s="8" t="n">
         <v>60.5</v>
       </c>
-      <c s="10" r="I51" t="n">
+      <c r="I51" s="10" t="n">
         <v>811</v>
       </c>
-      <c s="8" r="J51" t="n">
+      <c r="J51" s="8" t="n">
         <v>73.5</v>
       </c>
-      <c s="8" r="K51" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N51" t="n">
+      <c r="K51" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L51" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c s="4" r="A52" t="n">
+      <c r="A52" s="4" t="n">
         <v>49</v>
       </c>
-      <c s="4" r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
-      <c s="10" r="C52" t="n">
+      <c r="C52" s="10" t="n">
         <v>952</v>
       </c>
-      <c s="6" r="D52" t="n">
+      <c r="D52" s="6" t="n">
         <v>68.8</v>
       </c>
-      <c s="9" r="E52" t="n">
+      <c r="E52" s="9" t="n">
         <v>886</v>
       </c>
-      <c s="6" r="F52" t="n">
+      <c r="F52" s="6" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c s="10" r="G52" t="n">
+      <c r="G52" s="10" t="n">
         <v>1971</v>
       </c>
-      <c s="6" r="H52" t="n">
+      <c r="H52" s="6" t="n">
         <v>49.3</v>
       </c>
-      <c s="9" r="I52" t="n">
+      <c r="I52" s="9" t="n">
         <v>625</v>
       </c>
-      <c s="6" r="J52" t="n">
+      <c r="J52" s="6" t="n">
         <v>82.3</v>
       </c>
-      <c s="11" r="K52" t="n">
+      <c r="K52" s="11" t="n">
         <v>2045</v>
       </c>
-      <c s="6" r="L52" t="n">
+      <c r="L52" s="6" t="n">
         <v>38</v>
       </c>
-      <c s="7" r="N52" t="n">
+      <c r="N52" s="7" t="n">
         <v>65.8</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c s="1" r="A53" t="n">
+      <c r="A53" s="1" t="n">
         <v>50</v>
       </c>
-      <c s="1" r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c s="10" r="C53" t="n">
+      <c r="C53" s="10" t="n">
         <v>1133</v>
       </c>
-      <c s="8" r="D53" t="n">
+      <c r="D53" s="8" t="n">
         <v>64.7</v>
       </c>
-      <c s="9" r="E53" t="n">
+      <c r="E53" s="9" t="n">
         <v>975</v>
       </c>
-      <c s="8" r="F53" t="n">
+      <c r="F53" s="8" t="n">
         <v>74.7</v>
       </c>
-      <c s="9" r="G53" t="n">
+      <c r="G53" s="9" t="n">
         <v>959</v>
       </c>
-      <c s="8" r="H53" t="n">
+      <c r="H53" s="8" t="n">
         <v>75.2</v>
       </c>
-      <c s="11" r="I53" t="n">
+      <c r="I53" s="11" t="n">
         <v>1754</v>
       </c>
-      <c s="8" r="J53" t="n">
+      <c r="J53" s="8" t="n">
         <v>49.2</v>
       </c>
-      <c s="10" r="K53" t="n">
+      <c r="K53" s="10" t="n">
         <v>1473</v>
       </c>
-      <c s="8" r="L53" t="n">
+      <c r="L53" s="8" t="n">
         <v>56.2</v>
       </c>
-      <c s="7" r="N53" t="n">
+      <c r="N53" s="7" t="n">
         <v>65.7</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c s="4" r="A54" t="n">
+      <c r="A54" s="4" t="n">
         <v>51</v>
       </c>
-      <c s="4" r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>52</v>
       </c>
-      <c s="10" r="C54" t="n">
+      <c r="C54" s="10" t="n">
         <v>995</v>
       </c>
-      <c s="6" r="D54" t="n">
+      <c r="D54" s="6" t="n">
         <v>67.8</v>
       </c>
-      <c s="9" r="E54" t="n">
+      <c r="E54" s="9" t="n">
         <v>914</v>
       </c>
-      <c s="6" r="F54" t="n">
+      <c r="F54" s="6" t="n">
         <v>76</v>
       </c>
-      <c s="10" r="G54" t="n">
+      <c r="G54" s="10" t="n">
         <v>2034</v>
       </c>
-      <c s="6" r="H54" t="n">
+      <c r="H54" s="6" t="n">
         <v>48</v>
       </c>
-      <c s="6" r="I54" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c s="5" r="K54" t="n">
+      <c r="I54" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="n">
         <v>741</v>
       </c>
-      <c s="6" r="L54" t="n">
+      <c r="L54" s="6" t="n">
         <v>83</v>
       </c>
-      <c s="7" r="N54" t="n">
+      <c r="N54" s="7" t="n">
         <v>65.5</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c s="1" r="A55" t="n">
+      <c r="A55" s="1" t="n">
         <v>52</v>
       </c>
-      <c s="1" r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-      <c s="11" r="C55" t="n">
+      <c r="C55" s="11" t="n">
         <v>1799</v>
       </c>
-      <c s="8" r="D55" t="n">
+      <c r="D55" s="8" t="n">
         <v>44.9</v>
       </c>
-      <c s="9" r="E55" t="n">
-        <v>555</v>
-      </c>
-      <c s="8" r="F55" t="n">
-        <v>83.5</v>
-      </c>
-      <c s="10" r="G55" t="n">
+      <c r="E55" s="9" t="n">
+        <v>556</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="G55" s="10" t="n">
         <v>1622</v>
       </c>
-      <c s="8" r="H55" t="n">
+      <c r="H55" s="8" t="n">
         <v>56.5</v>
       </c>
-      <c s="10" r="I55" t="n">
+      <c r="I55" s="10" t="n">
         <v>769</v>
       </c>
-      <c s="8" r="J55" t="n">
+      <c r="J55" s="8" t="n">
         <v>74.3</v>
       </c>
-      <c s="8" r="K55" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N55" t="n">
+      <c r="K55" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L55" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7" t="n">
         <v>65.40000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c s="4" r="A56" t="n">
+      <c r="A56" s="4" t="n">
         <v>53</v>
       </c>
-      <c s="4" r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
-      <c s="10" r="C56" t="n">
+      <c r="C56" s="10" t="n">
         <v>1210</v>
       </c>
-      <c s="6" r="D56" t="n">
+      <c r="D56" s="6" t="n">
         <v>63</v>
       </c>
-      <c s="9" r="E56" t="n">
+      <c r="E56" s="9" t="n">
         <v>648</v>
       </c>
-      <c s="6" r="F56" t="n">
+      <c r="F56" s="6" t="n">
         <v>81.5</v>
       </c>
-      <c s="9" r="G56" t="n">
+      <c r="G56" s="9" t="n">
         <v>985</v>
       </c>
-      <c s="6" r="H56" t="n">
+      <c r="H56" s="6" t="n">
         <v>74.7</v>
       </c>
-      <c s="11" r="I56" t="n">
+      <c r="I56" s="11" t="n">
         <v>1860</v>
       </c>
-      <c s="6" r="J56" t="n">
+      <c r="J56" s="6" t="n">
         <v>47.1</v>
       </c>
-      <c s="10" r="K56" t="n">
+      <c r="K56" s="10" t="n">
         <v>1644</v>
       </c>
-      <c s="6" r="L56" t="n">
+      <c r="L56" s="6" t="n">
         <v>52.2</v>
       </c>
-      <c s="7" r="N56" t="n">
+      <c r="N56" s="7" t="n">
         <v>63.5</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c s="1" r="A57" t="n">
+      <c r="A57" s="1" t="n">
         <v>54</v>
       </c>
-      <c s="1" r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
-      <c s="11" r="C57" t="n">
+      <c r="C57" s="11" t="n">
         <v>1421</v>
       </c>
-      <c s="8" r="D57" t="n">
+      <c r="D57" s="8" t="n">
         <v>53.3</v>
       </c>
-      <c s="9" r="E57" t="n">
+      <c r="E57" s="9" t="n">
         <v>410</v>
       </c>
-      <c s="8" r="F57" t="n">
+      <c r="F57" s="8" t="n">
         <v>86.5</v>
       </c>
-      <c s="9" r="G57" t="n">
+      <c r="G57" s="9" t="n">
         <v>935</v>
       </c>
-      <c s="8" r="H57" t="n">
+      <c r="H57" s="8" t="n">
         <v>75.7</v>
       </c>
-      <c s="8" r="I57" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="K57" t="n">
+      <c r="I57" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J57" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="10" t="n">
         <v>1713</v>
       </c>
-      <c s="8" r="L57" t="n">
+      <c r="L57" s="8" t="n">
         <v>50.6</v>
       </c>
-      <c s="7" r="N57" t="n">
+      <c r="N57" s="7" t="n">
         <v>63.2</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c s="4" r="A58" t="n">
+      <c r="A58" s="4" t="n">
         <v>55</v>
       </c>
-      <c s="4" r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
-      <c s="10" r="C58" t="n">
+      <c r="C58" s="10" t="n">
         <v>867</v>
       </c>
-      <c s="6" r="D58" t="n">
+      <c r="D58" s="6" t="n">
         <v>70.7</v>
       </c>
-      <c s="10" r="E58" t="n">
+      <c r="E58" s="10" t="n">
         <v>1421</v>
       </c>
-      <c s="6" r="F58" t="n">
+      <c r="F58" s="6" t="n">
         <v>60.4</v>
       </c>
-      <c s="11" r="G58" t="n">
+      <c r="G58" s="11" t="n">
         <v>2124</v>
       </c>
-      <c s="6" r="H58" t="n">
+      <c r="H58" s="6" t="n">
         <v>41.2</v>
       </c>
-      <c s="10" r="I58" t="n">
+      <c r="I58" s="10" t="n">
         <v>1153</v>
       </c>
-      <c s="6" r="J58" t="n">
+      <c r="J58" s="6" t="n">
         <v>66.5</v>
       </c>
-      <c s="10" r="K58" t="n">
+      <c r="K58" s="10" t="n">
         <v>1352</v>
       </c>
-      <c s="6" r="L58" t="n">
+      <c r="L58" s="6" t="n">
         <v>58.9</v>
       </c>
-      <c s="7" r="N58" t="n">
+      <c r="N58" s="7" t="n">
         <v>62.7</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c s="1" r="A59" t="n">
+      <c r="A59" s="1" t="n">
         <v>56</v>
       </c>
-      <c s="1" r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
-      <c s="10" r="C59" t="n">
+      <c r="C59" s="10" t="n">
         <v>1272</v>
       </c>
-      <c s="8" r="D59" t="n">
+      <c r="D59" s="8" t="n">
         <v>61.6</v>
       </c>
-      <c s="9" r="E59" t="n">
+      <c r="E59" s="9" t="n">
         <v>451</v>
       </c>
-      <c s="8" r="F59" t="n">
+      <c r="F59" s="8" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c s="8" r="G59" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="I59" t="n">
+      <c r="G59" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H59" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10" t="n">
         <v>897</v>
       </c>
-      <c s="8" r="J59" t="n">
+      <c r="J59" s="8" t="n">
         <v>71.7</v>
       </c>
-      <c s="10" r="K59" t="n">
+      <c r="K59" s="10" t="n">
         <v>1600</v>
       </c>
-      <c s="8" r="L59" t="n">
+      <c r="L59" s="8" t="n">
         <v>53.2</v>
       </c>
-      <c s="7" r="N59" t="n">
+      <c r="N59" s="7" t="n">
         <v>62.5</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c s="4" r="A60" t="n">
+      <c r="A60" s="4" t="n">
         <v>57</v>
       </c>
-      <c s="4" r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
-      <c s="11" r="C60" t="n">
+      <c r="C60" s="11" t="n">
         <v>1537</v>
       </c>
-      <c s="6" r="D60" t="n">
+      <c r="D60" s="6" t="n">
         <v>50.7</v>
       </c>
-      <c s="6" r="E60" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="G60" t="n">
+      <c r="E60" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9" t="n">
         <v>986</v>
       </c>
-      <c s="6" r="H60" t="n">
+      <c r="H60" s="6" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c s="11" r="I60" t="n">
+      <c r="I60" s="11" t="n">
         <v>1778</v>
       </c>
-      <c s="6" r="J60" t="n">
+      <c r="J60" s="6" t="n">
         <v>48.8</v>
       </c>
-      <c s="11" r="K60" t="n">
+      <c r="K60" s="11" t="n">
         <v>2316</v>
       </c>
-      <c s="6" r="L60" t="n">
+      <c r="L60" s="6" t="n">
         <v>31.8</v>
       </c>
-      <c s="7" r="N60" t="n">
+      <c r="N60" s="7" t="n">
         <v>61.7</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c s="1" r="A61" t="n">
+      <c r="A61" s="1" t="n">
         <v>58</v>
       </c>
-      <c s="1" r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
-      <c s="8" r="C61" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="E61" t="n">
+      <c r="C61" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10" t="n">
         <v>2027</v>
       </c>
-      <c s="8" r="F61" t="n">
+      <c r="F61" s="8" t="n">
         <v>47.8</v>
       </c>
-      <c s="10" r="G61" t="n">
+      <c r="G61" s="10" t="n">
         <v>2079</v>
       </c>
-      <c s="8" r="H61" t="n">
+      <c r="H61" s="8" t="n">
         <v>47.1</v>
       </c>
-      <c s="11" r="I61" t="n">
+      <c r="I61" s="11" t="n">
         <v>1762</v>
       </c>
-      <c s="8" r="J61" t="n">
+      <c r="J61" s="8" t="n">
         <v>49.1</v>
       </c>
-      <c s="9" r="K61" t="n">
+      <c r="K61" s="9" t="n">
         <v>931</v>
       </c>
-      <c s="8" r="L61" t="n">
+      <c r="L61" s="8" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c s="7" r="N61" t="n">
+      <c r="N61" s="7" t="n">
         <v>61.3</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c s="4" r="A62" t="n">
+      <c r="A62" s="4" t="n">
         <v>59</v>
       </c>
-      <c s="4" r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>60</v>
       </c>
-      <c s="10" r="C62" t="n">
+      <c r="C62" s="10" t="n">
         <v>901</v>
       </c>
-      <c s="6" r="D62" t="n">
+      <c r="D62" s="6" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c s="9" r="E62" t="n">
+      <c r="E62" s="9" t="n">
         <v>350</v>
       </c>
-      <c s="6" r="F62" t="n">
+      <c r="F62" s="6" t="n">
         <v>87.7</v>
       </c>
-      <c s="10" r="G62" t="n">
+      <c r="G62" s="10" t="n">
         <v>1127</v>
       </c>
-      <c s="6" r="H62" t="n">
+      <c r="H62" s="6" t="n">
         <v>66.7</v>
       </c>
-      <c s="11" r="I62" t="n">
+      <c r="I62" s="11" t="n">
         <v>1573</v>
       </c>
-      <c s="6" r="J62" t="n">
+      <c r="J62" s="6" t="n">
         <v>52.9</v>
       </c>
-      <c s="10" r="K62" t="n">
+      <c r="K62" s="10" t="n">
         <v>1525</v>
       </c>
-      <c s="6" r="L62" t="n">
+      <c r="L62" s="6" t="n">
         <v>55</v>
       </c>
-      <c s="7" r="N62" t="n">
+      <c r="N62" s="7" t="n">
         <v>60.9</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c s="1" r="A63" t="n">
+      <c r="A63" s="1" t="n">
         <v>60</v>
       </c>
-      <c s="1" r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-      <c s="8" r="C63" t="n">
+      <c r="C63" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="E63" t="n">
+      <c r="D63" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="G63" t="n">
+      <c r="F63" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10" t="n">
         <v>1761</v>
       </c>
-      <c s="8" r="H63" t="n">
+      <c r="H63" s="8" t="n">
         <v>53.7</v>
       </c>
-      <c s="11" r="I63" t="n">
+      <c r="I63" s="11" t="n">
         <v>1838</v>
       </c>
-      <c s="8" r="J63" t="n">
+      <c r="J63" s="8" t="n">
         <v>47.5</v>
       </c>
-      <c s="9" r="K63" t="n">
+      <c r="K63" s="9" t="n">
         <v>1271</v>
       </c>
-      <c s="8" r="L63" t="n">
+      <c r="L63" s="8" t="n">
         <v>65.8</v>
       </c>
-      <c s="7" r="N63" t="n">
+      <c r="N63" s="7" t="n">
         <v>59.8</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c s="4" r="A64" t="n">
+      <c r="A64" s="4" t="n">
         <v>61</v>
       </c>
-      <c s="4" r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
-      <c s="10" r="C64" t="n">
+      <c r="C64" s="10" t="n">
         <v>1361</v>
       </c>
-      <c s="6" r="D64" t="n">
+      <c r="D64" s="6" t="n">
         <v>59.6</v>
       </c>
-      <c s="6" r="E64" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="G64" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="I64" t="n">
+      <c r="E64" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="10" t="n">
         <v>908</v>
       </c>
-      <c s="6" r="J64" t="n">
+      <c r="J64" s="6" t="n">
         <v>71.5</v>
       </c>
-      <c s="10" r="K64" t="n">
+      <c r="K64" s="10" t="n">
         <v>1832</v>
       </c>
-      <c s="6" r="L64" t="n">
+      <c r="L64" s="6" t="n">
         <v>47.9</v>
       </c>
-      <c s="7" r="N64" t="n">
+      <c r="N64" s="7" t="n">
         <v>59.7</v>
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c s="1" r="A65" t="n">
+      <c r="A65" s="1" t="n">
         <v>62</v>
       </c>
-      <c s="1" r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-      <c s="11" r="C65" t="n">
+      <c r="C65" s="11" t="n">
         <v>1637</v>
       </c>
-      <c s="8" r="D65" t="n">
+      <c r="D65" s="8" t="n">
         <v>48.5</v>
       </c>
-      <c s="8" r="E65" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c s="11" r="G65" t="n">
+      <c r="E65" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11" t="n">
         <v>2217</v>
       </c>
-      <c s="8" r="H65" t="n">
+      <c r="H65" s="8" t="n">
         <v>39.2</v>
       </c>
-      <c s="10" r="I65" t="n">
+      <c r="I65" s="10" t="n">
         <v>1275</v>
       </c>
-      <c s="8" r="J65" t="n">
+      <c r="J65" s="8" t="n">
         <v>64</v>
       </c>
-      <c s="10" r="K65" t="n">
+      <c r="K65" s="10" t="n">
         <v>1838</v>
       </c>
-      <c s="8" r="L65" t="n">
+      <c r="L65" s="8" t="n">
         <v>47.8</v>
       </c>
-      <c s="7" r="N65" t="n">
+      <c r="N65" s="7" t="n">
         <v>55.9</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c s="4" r="A66" t="n">
+      <c r="A66" s="4" t="n">
         <v>63</v>
       </c>
-      <c s="4" r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>64</v>
       </c>
-      <c s="11" r="C66" t="n">
+      <c r="C66" s="11" t="n">
         <v>2014</v>
       </c>
-      <c s="6" r="D66" t="n">
+      <c r="D66" s="6" t="n">
         <v>40.1</v>
       </c>
-      <c s="10" r="E66" t="n">
+      <c r="E66" s="10" t="n">
         <v>2067</v>
       </c>
-      <c s="6" r="F66" t="n">
+      <c r="F66" s="6" t="n">
         <v>47</v>
       </c>
-      <c s="10" r="G66" t="n">
+      <c r="G66" s="10" t="n">
         <v>1309</v>
       </c>
-      <c s="6" r="H66" t="n">
+      <c r="H66" s="6" t="n">
         <v>63</v>
       </c>
-      <c s="11" r="I66" t="n">
+      <c r="I66" s="11" t="n">
         <v>1917</v>
       </c>
-      <c s="6" r="J66" t="n">
+      <c r="J66" s="6" t="n">
         <v>45.9</v>
       </c>
-      <c s="11" r="K66" t="n">
+      <c r="K66" s="11" t="n">
         <v>2267</v>
       </c>
-      <c s="6" r="L66" t="n">
+      <c r="L66" s="6" t="n">
         <v>32.9</v>
       </c>
-      <c s="7" r="N66" t="n">
+      <c r="N66" s="7" t="n">
         <v>54.5</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c s="1" r="A67" t="n">
+      <c r="A67" s="1" t="n">
         <v>64</v>
       </c>
-      <c s="1" r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="11" r="C67" t="n">
+      <c r="C67" s="11" t="n">
         <v>2119</v>
       </c>
-      <c s="8" r="D67" t="n">
+      <c r="D67" s="8" t="n">
         <v>37.7</v>
       </c>
-      <c s="10" r="E67" t="n">
+      <c r="E67" s="10" t="n">
         <v>1412</v>
       </c>
-      <c s="8" r="F67" t="n">
+      <c r="F67" s="8" t="n">
         <v>60.6</v>
       </c>
-      <c s="10" r="G67" t="n">
+      <c r="G67" s="10" t="n">
         <v>1876</v>
       </c>
-      <c s="8" r="H67" t="n">
+      <c r="H67" s="8" t="n">
         <v>51.3</v>
       </c>
-      <c s="11" r="I67" t="n">
+      <c r="I67" s="11" t="n">
         <v>1373</v>
       </c>
-      <c s="8" r="J67" t="n">
+      <c r="J67" s="8" t="n">
         <v>57</v>
       </c>
-      <c s="11" r="K67" t="n">
+      <c r="K67" s="11" t="n">
         <v>1951</v>
       </c>
-      <c s="8" r="L67" t="n">
+      <c r="L67" s="8" t="n">
         <v>40.2</v>
       </c>
-      <c s="7" r="N67" t="n">
+      <c r="N67" s="7" t="n">
         <v>54.1</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c s="4" r="A68" t="n">
+      <c r="A68" s="4" t="n">
         <v>65</v>
       </c>
-      <c s="4" r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>66</v>
       </c>
-      <c s="11" r="C68" t="n">
+      <c r="C68" s="11" t="n">
         <v>2018</v>
       </c>
-      <c s="6" r="D68" t="n">
+      <c r="D68" s="6" t="n">
         <v>40</v>
       </c>
-      <c s="9" r="E68" t="n">
+      <c r="E68" s="9" t="n">
         <v>510</v>
       </c>
-      <c s="6" r="F68" t="n">
+      <c r="F68" s="6" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c s="10" r="G68" t="n">
+      <c r="G68" s="10" t="n">
         <v>1414</v>
       </c>
-      <c s="6" r="H68" t="n">
+      <c r="H68" s="6" t="n">
         <v>60.8</v>
       </c>
-      <c s="11" r="I68" t="n">
+      <c r="I68" s="11" t="n">
         <v>1900</v>
       </c>
-      <c s="6" r="J68" t="n">
+      <c r="J68" s="6" t="n">
         <v>46.3</v>
       </c>
-      <c s="10" r="K68" t="n">
+      <c r="K68" s="10" t="n">
         <v>1877</v>
       </c>
-      <c s="6" r="L68" t="n">
+      <c r="L68" s="6" t="n">
         <v>46.9</v>
       </c>
-      <c s="7" r="N68" t="n">
+      <c r="N68" s="7" t="n">
         <v>53.9</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c s="1" r="A69" t="n">
+      <c r="A69" s="1" t="n">
         <v>66</v>
       </c>
-      <c s="1" r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-      <c s="11" r="C69" t="n">
+      <c r="C69" s="11" t="n">
         <v>2011</v>
       </c>
-      <c s="8" r="D69" t="n">
+      <c r="D69" s="8" t="n">
         <v>40.1</v>
       </c>
-      <c s="10" r="E69" t="n">
+      <c r="E69" s="10" t="n">
         <v>1398</v>
       </c>
-      <c s="8" r="F69" t="n">
+      <c r="F69" s="8" t="n">
         <v>60.9</v>
       </c>
-      <c s="10" r="G69" t="n">
+      <c r="G69" s="10" t="n">
         <v>2099</v>
       </c>
-      <c s="8" r="H69" t="n">
+      <c r="H69" s="8" t="n">
         <v>46.7</v>
       </c>
-      <c s="11" r="I69" t="n">
+      <c r="I69" s="11" t="n">
         <v>1665</v>
       </c>
-      <c s="8" r="J69" t="n">
+      <c r="J69" s="8" t="n">
         <v>51.1</v>
       </c>
-      <c s="10" r="K69" t="n">
+      <c r="K69" s="10" t="n">
         <v>1479</v>
       </c>
-      <c s="8" r="L69" t="n">
+      <c r="L69" s="8" t="n">
         <v>56</v>
       </c>
-      <c s="7" r="N69" t="n">
+      <c r="N69" s="7" t="n">
         <v>53.6</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c s="4" r="A70" t="n">
+      <c r="A70" s="4" t="n">
         <v>67</v>
       </c>
-      <c s="4" r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>68</v>
       </c>
-      <c s="10" r="C70" t="n">
+      <c r="C70" s="10" t="n">
         <v>858</v>
       </c>
-      <c s="6" r="D70" t="n">
+      <c r="D70" s="6" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c s="9" r="E70" t="n">
+      <c r="E70" s="9" t="n">
         <v>458</v>
       </c>
-      <c s="6" r="F70" t="n">
+      <c r="F70" s="6" t="n">
         <v>85.5</v>
       </c>
-      <c s="6" r="G70" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c s="11" r="I70" t="n">
+      <c r="G70" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11" t="n">
         <v>1463</v>
       </c>
-      <c s="6" r="J70" t="n">
+      <c r="J70" s="6" t="n">
         <v>55.2</v>
       </c>
-      <c s="10" r="K70" t="n">
+      <c r="K70" s="10" t="n">
         <v>1673</v>
       </c>
-      <c s="6" r="L70" t="n">
+      <c r="L70" s="6" t="n">
         <v>51.6</v>
       </c>
-      <c s="7" r="N70" t="n">
+      <c r="N70" s="7" t="n">
         <v>53.4</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c s="1" r="A71" t="n">
+      <c r="A71" s="1" t="n">
         <v>68</v>
       </c>
-      <c s="1" r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
-      <c s="8" r="C71" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c s="10" r="E71" t="n">
+      <c r="C71" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10" t="n">
         <v>1657</v>
       </c>
-      <c s="8" r="F71" t="n">
+      <c r="F71" s="8" t="n">
         <v>55.5</v>
       </c>
-      <c s="10" r="G71" t="n">
+      <c r="G71" s="10" t="n">
         <v>1955</v>
       </c>
-      <c s="8" r="H71" t="n">
+      <c r="H71" s="8" t="n">
         <v>49.6</v>
       </c>
-      <c s="8" r="I71" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c s="11" r="K71" t="n">
+      <c r="I71" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J71" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="11" t="n">
         <v>2034</v>
       </c>
-      <c s="8" r="L71" t="n">
+      <c r="L71" s="8" t="n">
         <v>38.3</v>
       </c>
-      <c s="7" r="N71" t="n">
+      <c r="N71" s="7" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c s="4" r="A72" t="n">
+      <c r="A72" s="4" t="n">
         <v>69</v>
       </c>
-      <c s="4" r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>70</v>
       </c>
-      <c s="9" r="C72" t="n">
+      <c r="C72" s="9" t="n">
         <v>500</v>
       </c>
-      <c s="6" r="D72" t="n">
+      <c r="D72" s="6" t="n">
         <v>83.8</v>
       </c>
-      <c s="5" r="E72" t="n">
+      <c r="E72" s="5" t="n">
         <v>225</v>
       </c>
-      <c s="6" r="F72" t="n">
+      <c r="F72" s="6" t="n">
         <v>95.3</v>
       </c>
-      <c s="6" r="G72" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="I72" t="n">
+      <c r="G72" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9" t="n">
         <v>430</v>
       </c>
-      <c s="6" r="J72" t="n">
+      <c r="J72" s="6" t="n">
         <v>86.2</v>
       </c>
-      <c s="6" r="K72" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N72" t="n">
+      <c r="K72" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7" t="n">
         <v>43.1</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c s="1" r="A73" t="n">
+      <c r="A73" s="1" t="n">
         <v>70</v>
       </c>
-      <c s="1" r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-      <c s="8" r="C73" t="n">
+      <c r="C73" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="E73" t="n">
+      <c r="D73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="G73" t="n">
+      <c r="F73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="I73" t="n">
+      <c r="H73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c s="11" r="K73" t="n">
+      <c r="J73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11" t="n">
         <v>2394</v>
       </c>
-      <c s="8" r="L73" t="n">
+      <c r="L73" s="8" t="n">
         <v>30</v>
       </c>
-      <c s="7" r="N73" t="n">
+      <c r="N73" s="7" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c s="4" r="A74" t="n">
+      <c r="A74" s="4" t="n">
         <v>71</v>
       </c>
-      <c s="4" r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>72</v>
       </c>
-      <c s="10" r="C74" t="n">
+      <c r="C74" s="10" t="n">
         <v>870</v>
       </c>
-      <c s="6" r="D74" t="n">
+      <c r="D74" s="6" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c s="9" r="E74" t="n">
+      <c r="E74" s="9" t="n">
         <v>385</v>
       </c>
-      <c s="6" r="F74" t="n">
+      <c r="F74" s="6" t="n">
         <v>87</v>
       </c>
-      <c s="10" r="G74" t="n">
+      <c r="G74" s="10" t="n">
         <v>1727</v>
       </c>
-      <c s="6" r="H74" t="n">
+      <c r="H74" s="6" t="n">
         <v>54.4</v>
       </c>
-      <c s="6" r="I74" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="K74" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N74" t="n">
+      <c r="I74" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7" t="n">
         <v>27.2</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c s="1" r="A75" t="n">
+      <c r="A75" s="1" t="n">
         <v>72</v>
       </c>
-      <c s="1" r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-      <c s="8" r="C75" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c s="9" r="E75" t="n">
+      <c r="C75" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="9" t="n">
         <v>942</v>
       </c>
-      <c s="8" r="F75" t="n">
+      <c r="F75" s="8" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c s="11" r="G75" t="n">
+      <c r="G75" s="11" t="n">
         <v>2382</v>
       </c>
-      <c s="8" r="H75" t="n">
+      <c r="H75" s="8" t="n">
         <v>35.8</v>
       </c>
-      <c s="8" r="I75" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="K75" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N75" t="n">
+      <c r="I75" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="7" t="n">
         <v>17.9</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c s="4" r="A76" t="n">
+      <c r="A76" s="4" t="n">
         <v>73</v>
       </c>
-      <c s="4" r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>74</v>
       </c>
-      <c s="9" r="C76" t="n">
+      <c r="C76" s="9" t="n">
         <v>641</v>
       </c>
-      <c s="6" r="D76" t="n">
+      <c r="D76" s="6" t="n">
         <v>80.7</v>
       </c>
-      <c s="6" r="E76" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="G76" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="I76" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="K76" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N76" t="n">
+      <c r="E76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c s="1" r="A77" t="n">
+      <c r="A77" s="1" t="n">
         <v>74</v>
       </c>
-      <c s="1" r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
-      <c s="8" r="C77" t="n">
+      <c r="C77" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="E77" t="n">
+      <c r="D77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="G77" t="n">
+      <c r="F77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="8" t="n">
         <v>-2</v>
       </c>
-      <c s="8" r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="I77" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c s="8" r="K77" t="n">
-        <v>-1</v>
-      </c>
-      <c s="8" r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N77" t="n">
+      <c r="H77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c s="4" r="A78" t="n">
+      <c r="A78" s="4" t="n">
         <v>75</v>
       </c>
-      <c s="4" r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>76</v>
       </c>
-      <c s="6" r="C78" t="n">
+      <c r="C78" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="E78" t="n">
+      <c r="D78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="G78" t="n">
+      <c r="F78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="I78" t="n">
+      <c r="H78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6" t="n">
         <v>-2</v>
       </c>
-      <c s="6" r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c s="6" r="K78" t="n">
-        <v>-1</v>
-      </c>
-      <c s="6" r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c s="7" r="N78" t="n">
+      <c r="J78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c s="12" r="B81" t="s">
+      <c r="B81" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c s="12" r="B82" t="s">
+      <c r="B82" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3813,81 +3813,81 @@
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B66" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B68" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B69" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B70" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B71" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B72" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B73" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B74" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B75" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B76" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B77" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B78" r:id="rId75"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B37" r:id="rId34"/>
+    <hyperlink ref="B38" r:id="rId35"/>
+    <hyperlink ref="B39" r:id="rId36"/>
+    <hyperlink ref="B40" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B42" r:id="rId39"/>
+    <hyperlink ref="B43" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41"/>
+    <hyperlink ref="B45" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B48" r:id="rId45"/>
+    <hyperlink ref="B49" r:id="rId46"/>
+    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B51" r:id="rId48"/>
+    <hyperlink ref="B52" r:id="rId49"/>
+    <hyperlink ref="B53" r:id="rId50"/>
+    <hyperlink ref="B54" r:id="rId51"/>
+    <hyperlink ref="B55" r:id="rId52"/>
+    <hyperlink ref="B56" r:id="rId53"/>
+    <hyperlink ref="B57" r:id="rId54"/>
+    <hyperlink ref="B58" r:id="rId55"/>
+    <hyperlink ref="B59" r:id="rId56"/>
+    <hyperlink ref="B60" r:id="rId57"/>
+    <hyperlink ref="B61" r:id="rId58"/>
+    <hyperlink ref="B62" r:id="rId59"/>
+    <hyperlink ref="B63" r:id="rId60"/>
+    <hyperlink ref="B64" r:id="rId61"/>
+    <hyperlink ref="B65" r:id="rId62"/>
+    <hyperlink ref="B66" r:id="rId63"/>
+    <hyperlink ref="B67" r:id="rId64"/>
+    <hyperlink ref="B68" r:id="rId65"/>
+    <hyperlink ref="B69" r:id="rId66"/>
+    <hyperlink ref="B70" r:id="rId67"/>
+    <hyperlink ref="B71" r:id="rId68"/>
+    <hyperlink ref="B72" r:id="rId69"/>
+    <hyperlink ref="B73" r:id="rId70"/>
+    <hyperlink ref="B74" r:id="rId71"/>
+    <hyperlink ref="B75" r:id="rId72"/>
+    <hyperlink ref="B76" r:id="rId73"/>
+    <hyperlink ref="B77" r:id="rId74"/>
+    <hyperlink ref="B78" r:id="rId75"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -71,15 +71,15 @@
     <t>TOYAMA_NAO</t>
   </si>
   <si>
+    <t>Brooky</t>
+  </si>
+  <si>
     <t>user760</t>
   </si>
   <si>
     <t>siqiaochen</t>
   </si>
   <si>
-    <t>Brooky</t>
-  </si>
-  <si>
     <t>ZOEGREEN</t>
   </si>
   <si>
@@ -107,6 +107,12 @@
     <t>bifeitang</t>
   </si>
   <si>
+    <t>yykfight</t>
+  </si>
+  <si>
+    <t>XingxingHuang</t>
+  </si>
+  <si>
     <t>supersam331</t>
   </si>
   <si>
@@ -116,33 +122,27 @@
     <t>icodingg</t>
   </si>
   <si>
-    <t>yykfight</t>
-  </si>
-  <si>
-    <t>XingxingHuang</t>
-  </si>
-  <si>
     <t>SeymourLee</t>
   </si>
   <si>
     <t>zchen9523</t>
   </si>
   <si>
+    <t>Clary</t>
+  </si>
+  <si>
     <t>zihao</t>
   </si>
   <si>
-    <t>Clary</t>
+    <t>softair</t>
+  </si>
+  <si>
+    <t>TianSkyer</t>
   </si>
   <si>
     <t>Yizhao_Han</t>
   </si>
   <si>
-    <t>TianSkyer</t>
-  </si>
-  <si>
-    <t>softair</t>
-  </si>
-  <si>
     <t>wendyimayday</t>
   </si>
   <si>
@@ -152,15 +152,15 @@
     <t>ws1255</t>
   </si>
   <si>
+    <t>liulaoye135</t>
+  </si>
+  <si>
+    <t>LittleBaldHead</t>
+  </si>
+  <si>
     <t>Spencial</t>
   </si>
   <si>
-    <t>LittleBaldHead</t>
-  </si>
-  <si>
-    <t>liulaoye135</t>
-  </si>
-  <si>
     <t>memoryfraction</t>
   </si>
   <si>
@@ -173,24 +173,24 @@
     <t>Vanggie</t>
   </si>
   <si>
+    <t>yexiaoxiao2102</t>
+  </si>
+  <si>
+    <t>hfuwu5</t>
+  </si>
+  <si>
     <t>whe_bupt</t>
   </si>
   <si>
-    <t>hfuwu5</t>
-  </si>
-  <si>
-    <t>yexiaoxiao2102</t>
-  </si>
-  <si>
     <t>dhf13</t>
   </si>
   <si>
+    <t>Aaron_S</t>
+  </si>
+  <si>
     <t>Ansonluo1</t>
   </si>
   <si>
-    <t>Aaron_S</t>
-  </si>
-  <si>
     <t>kaizer87</t>
   </si>
   <si>
@@ -215,16 +215,16 @@
     <t>Shaotong</t>
   </si>
   <si>
+    <t>Coder35</t>
+  </si>
+  <si>
+    <t>KyleAC</t>
+  </si>
+  <si>
+    <t>got7amy</t>
+  </si>
+  <si>
     <t>banrenmasanxing</t>
-  </si>
-  <si>
-    <t>KyleAC</t>
-  </si>
-  <si>
-    <t>got7amy</t>
-  </si>
-  <si>
-    <t>Coder35</t>
   </si>
   <si>
     <t>zhangsikai123</t>
@@ -973,13 +973,13 @@
         <v>90.90000000000001</v>
       </c>
       <c t="n" r="O8" s="5">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c t="n" r="P8" s="6">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c t="n" r="R8" s="7">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row spans="1:18" r="9">
@@ -1079,13 +1079,13 @@
         <v>97.09999999999999</v>
       </c>
       <c t="n" r="O10" s="5">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c t="n" r="P10" s="6">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c t="n" r="R10" s="7">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
     </row>
     <row spans="1:18" r="11">
@@ -1132,13 +1132,13 @@
         <v>89.5</v>
       </c>
       <c t="n" r="O11" s="5">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c t="n" r="P11" s="8">
-        <v>94.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c t="n" r="R11" s="7">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
     </row>
     <row spans="1:18" r="12">
@@ -1185,10 +1185,10 @@
         <v>90.5</v>
       </c>
       <c t="n" r="O12" s="11">
-        <v>850</v>
+        <v>917</v>
       </c>
       <c t="n" r="P12" s="6">
-        <v>73.59999999999999</v>
+        <v>72.3</v>
       </c>
       <c t="n" r="R12" s="7">
         <v>94.8</v>
@@ -1238,10 +1238,10 @@
         <v>91.59999999999999</v>
       </c>
       <c t="n" r="O13" s="10">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c t="n" r="P13" s="8">
-        <v>87.40000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c t="n" r="R13" s="7">
         <v>94.09999999999999</v>
@@ -1291,13 +1291,13 @@
         <v>88.8</v>
       </c>
       <c t="n" r="O14" s="5">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c t="n" r="P14" s="6">
-        <v>94.40000000000001</v>
+        <v>94</v>
       </c>
       <c t="n" r="R14" s="7">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
     </row>
     <row spans="1:18" r="15">
@@ -1344,10 +1344,10 @@
         <v>90.8</v>
       </c>
       <c t="n" r="O15" s="11">
-        <v>837</v>
+        <v>902</v>
       </c>
       <c t="n" r="P15" s="8">
-        <v>73.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c t="n" r="R15" s="7">
         <v>92.40000000000001</v>
@@ -1397,10 +1397,10 @@
         <v>87.2</v>
       </c>
       <c t="n" r="O16" s="11">
-        <v>1148</v>
+        <v>1232</v>
       </c>
       <c t="n" r="P16" s="6">
-        <v>67.90000000000001</v>
+        <v>66.2</v>
       </c>
       <c t="n" r="R16" s="7">
         <v>91.5</v>
@@ -1450,13 +1450,13 @@
         <v>84.90000000000001</v>
       </c>
       <c t="n" r="O17" s="11">
-        <v>851</v>
+        <v>918</v>
       </c>
       <c t="n" r="P17" s="8">
-        <v>73.59999999999999</v>
+        <v>72.3</v>
       </c>
       <c t="n" r="R17" s="7">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row spans="1:18" r="18">
@@ -1503,13 +1503,13 @@
         <v>97.8</v>
       </c>
       <c t="n" r="O18" s="11">
-        <v>1135</v>
+        <v>1218</v>
       </c>
       <c t="n" r="P18" s="6">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c t="n" r="R18" s="7">
-        <v>90.09999999999999</v>
+        <v>90.2</v>
       </c>
     </row>
     <row spans="1:18" r="19">
@@ -1556,13 +1556,13 @@
         <v>91.09999999999999</v>
       </c>
       <c t="n" r="O19" s="10">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c t="n" r="P19" s="8">
-        <v>87.3</v>
+        <v>86.8</v>
       </c>
       <c t="n" r="R19" s="7">
-        <v>89.2</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row spans="1:18" r="20">
@@ -1590,32 +1590,32 @@
       <c t="n" r="H20" s="6">
         <v>0</v>
       </c>
-      <c t="n" r="I20" s="6">
-        <v>-2</v>
+      <c t="n" r="I20" s="5">
+        <v>169</v>
       </c>
       <c t="n" r="J20" s="6">
-        <v>0</v>
+        <v>96.59999999999999</v>
       </c>
       <c t="n" r="K20" s="5">
-        <v>352</v>
+        <v>179</v>
       </c>
       <c t="n" r="L20" s="6">
-        <v>91.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c t="n" r="M20" s="11">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c t="n" r="N20" s="6">
-        <v>78</v>
-      </c>
-      <c t="n" r="O20" s="10">
-        <v>719</v>
+        <v>76.2</v>
+      </c>
+      <c t="n" r="O20" s="11">
+        <v>1244</v>
       </c>
       <c t="n" r="P20" s="6">
-        <v>81.09999999999999</v>
+        <v>66</v>
       </c>
       <c t="n" r="R20" s="7">
-        <v>86.5</v>
+        <v>86</v>
       </c>
     </row>
     <row spans="1:18" r="21">
@@ -1625,50 +1625,50 @@
       <c t="s" r="B21" s="1">
         <v>19</v>
       </c>
-      <c t="n" r="C21" s="11">
-        <v>1266</v>
+      <c t="n" r="C21" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="D21" s="8">
-        <v>61.8</v>
-      </c>
-      <c t="n" r="E21" s="10">
-        <v>345</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="E21" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="F21" s="8">
-        <v>87.8</v>
-      </c>
-      <c t="n" r="G21" s="5">
-        <v>339</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="G21" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="H21" s="8">
-        <v>93</v>
-      </c>
-      <c t="n" r="I21" s="10">
-        <v>488</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="I21" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="J21" s="8">
-        <v>85.09999999999999</v>
+        <v>0</v>
       </c>
       <c t="n" r="K21" s="5">
-        <v>483</v>
+        <v>352</v>
       </c>
       <c t="n" r="L21" s="8">
-        <v>88.90000000000001</v>
-      </c>
-      <c t="n" r="M21" s="8">
-        <v>-1</v>
+        <v>91.90000000000001</v>
+      </c>
+      <c t="n" r="M21" s="11">
+        <v>519</v>
       </c>
       <c t="n" r="N21" s="8">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c t="n" r="O21" s="10">
-        <v>602</v>
+        <v>773</v>
       </c>
       <c t="n" r="P21" s="8">
-        <v>83.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c t="n" r="R21" s="7">
-        <v>86.2</v>
+        <v>86</v>
       </c>
     </row>
     <row spans="1:18" r="22">
@@ -1678,50 +1678,50 @@
       <c t="s" r="B22" s="4">
         <v>20</v>
       </c>
-      <c t="n" r="C22" s="6">
-        <v>-2</v>
+      <c t="n" r="C22" s="11">
+        <v>1266</v>
       </c>
       <c t="n" r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E22" s="6">
-        <v>-2</v>
+        <v>61.8</v>
+      </c>
+      <c t="n" r="E22" s="10">
+        <v>345</v>
       </c>
       <c t="n" r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G22" s="6">
-        <v>-2</v>
+        <v>87.8</v>
+      </c>
+      <c t="n" r="G22" s="5">
+        <v>339</v>
       </c>
       <c t="n" r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I22" s="5">
-        <v>169</v>
+        <v>93</v>
+      </c>
+      <c t="n" r="I22" s="10">
+        <v>488</v>
       </c>
       <c t="n" r="J22" s="6">
-        <v>96.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c t="n" r="K22" s="5">
-        <v>179</v>
+        <v>483</v>
       </c>
       <c t="n" r="L22" s="6">
-        <v>95.90000000000001</v>
-      </c>
-      <c t="n" r="M22" s="11">
-        <v>597</v>
+        <v>88.90000000000001</v>
+      </c>
+      <c t="n" r="M22" s="6">
+        <v>-1</v>
       </c>
       <c t="n" r="N22" s="6">
-        <v>76.2</v>
-      </c>
-      <c t="n" r="O22" s="11">
-        <v>1160</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="O22" s="10">
+        <v>649</v>
       </c>
       <c t="n" r="P22" s="6">
-        <v>67.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c t="n" r="R22" s="7">
-        <v>86.09999999999999</v>
+        <v>85.7</v>
       </c>
     </row>
     <row spans="1:18" r="23">
@@ -1768,13 +1768,13 @@
         <v>85.5</v>
       </c>
       <c t="n" r="O23" s="10">
-        <v>627</v>
+        <v>674</v>
       </c>
       <c t="n" r="P23" s="8">
-        <v>82.90000000000001</v>
+        <v>82</v>
       </c>
       <c t="n" r="R23" s="7">
-        <v>84.2</v>
+        <v>83.8</v>
       </c>
     </row>
     <row spans="1:18" r="24">
@@ -1821,13 +1821,13 @@
         <v>42.5</v>
       </c>
       <c t="n" r="O24" s="10">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c t="n" r="P24" s="6">
-        <v>86.90000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c t="n" r="R24" s="7">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
     </row>
     <row spans="1:18" r="25">
@@ -1874,13 +1874,13 @@
         <v>0</v>
       </c>
       <c t="n" r="O25" s="5">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c t="n" r="P25" s="8">
-        <v>94.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c t="n" r="R25" s="7">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
     </row>
     <row spans="1:18" r="26">
@@ -1927,10 +1927,10 @@
         <v>76.5</v>
       </c>
       <c t="n" r="O26" s="9">
-        <v>1857</v>
+        <v>2022</v>
       </c>
       <c t="n" r="P26" s="6">
-        <v>49.2</v>
+        <v>46</v>
       </c>
       <c t="n" r="R26" s="7">
         <v>80.8</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c t="n" r="O27" s="11">
-        <v>920</v>
+        <v>988</v>
       </c>
       <c t="n" r="P27" s="8">
-        <v>72.3</v>
+        <v>70.90000000000001</v>
       </c>
       <c t="n" r="R27" s="7">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row spans="1:18" r="28">
@@ -2033,13 +2033,13 @@
         <v>89.7</v>
       </c>
       <c t="n" r="O28" s="11">
-        <v>1067</v>
+        <v>1144</v>
       </c>
       <c t="n" r="P28" s="6">
-        <v>69.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c t="n" r="R28" s="7">
-        <v>79.59999999999999</v>
+        <v>78.8</v>
       </c>
     </row>
     <row spans="1:18" r="29">
@@ -2086,13 +2086,13 @@
         <v>68.40000000000001</v>
       </c>
       <c t="n" r="O29" s="11">
-        <v>989</v>
+        <v>1060</v>
       </c>
       <c t="n" r="P29" s="8">
-        <v>70.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c t="n" r="R29" s="7">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row spans="1:18" r="30">
@@ -2139,13 +2139,13 @@
         <v>0</v>
       </c>
       <c t="n" r="O30" s="11">
-        <v>1055</v>
+        <v>1132</v>
       </c>
       <c t="n" r="P30" s="6">
-        <v>69.59999999999999</v>
+        <v>68.2</v>
       </c>
       <c t="n" r="R30" s="7">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
     </row>
     <row spans="1:18" r="31">
@@ -2192,13 +2192,13 @@
         <v>84.7</v>
       </c>
       <c t="n" r="O31" s="11">
-        <v>1115</v>
+        <v>1195</v>
       </c>
       <c t="n" r="P31" s="8">
-        <v>68.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c t="n" r="R31" s="7">
-        <v>76.59999999999999</v>
+        <v>75.8</v>
       </c>
     </row>
     <row spans="1:18" r="32">
@@ -2209,49 +2209,49 @@
         <v>30</v>
       </c>
       <c t="n" r="C32" s="11">
-        <v>736</v>
+        <v>995</v>
       </c>
       <c t="n" r="D32" s="6">
-        <v>73.59999999999999</v>
-      </c>
-      <c t="n" r="E32" s="11">
-        <v>1283</v>
+        <v>67.8</v>
+      </c>
+      <c t="n" r="E32" s="10">
+        <v>914</v>
       </c>
       <c t="n" r="F32" s="6">
-        <v>63.3</v>
-      </c>
-      <c t="n" r="G32" s="9">
-        <v>2615</v>
+        <v>76</v>
+      </c>
+      <c t="n" r="G32" s="11">
+        <v>2034</v>
       </c>
       <c t="n" r="H32" s="6">
-        <v>31</v>
-      </c>
-      <c t="n" r="I32" s="11">
-        <v>792</v>
+        <v>48</v>
+      </c>
+      <c t="n" r="I32" s="6">
+        <v>-1</v>
       </c>
       <c t="n" r="J32" s="6">
-        <v>73.90000000000001</v>
-      </c>
-      <c t="n" r="K32" s="10">
-        <v>1095</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="K32" s="5">
+        <v>741</v>
       </c>
       <c t="n" r="L32" s="6">
-        <v>69.8</v>
+        <v>83</v>
       </c>
       <c t="n" r="M32" s="11">
-        <v>894</v>
+        <v>957</v>
       </c>
       <c t="n" r="N32" s="6">
-        <v>69.40000000000001</v>
-      </c>
-      <c t="n" r="O32" s="10">
-        <v>685</v>
+        <v>67.90000000000001</v>
+      </c>
+      <c t="n" r="O32" s="11">
+        <v>1315</v>
       </c>
       <c t="n" r="P32" s="6">
-        <v>81.8</v>
+        <v>64.59999999999999</v>
       </c>
       <c t="n" r="R32" s="7">
-        <v>75.8</v>
+        <v>75.5</v>
       </c>
     </row>
     <row spans="1:18" r="33">
@@ -2262,49 +2262,49 @@
         <v>31</v>
       </c>
       <c t="n" r="C33" s="10">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c t="n" r="D33" s="8">
-        <v>82.09999999999999</v>
-      </c>
-      <c t="n" r="E33" s="5">
-        <v>233</v>
+        <v>81.40000000000001</v>
+      </c>
+      <c t="n" r="E33" s="9">
+        <v>2384</v>
       </c>
       <c t="n" r="F33" s="8">
-        <v>95.2</v>
+        <v>35.4</v>
       </c>
       <c t="n" r="G33" s="5">
-        <v>502</v>
+        <v>397</v>
       </c>
       <c t="n" r="H33" s="8">
-        <v>89.59999999999999</v>
-      </c>
-      <c t="n" r="I33" s="9">
-        <v>1641</v>
+        <v>91.8</v>
+      </c>
+      <c t="n" r="I33" s="10">
+        <v>561</v>
       </c>
       <c t="n" r="J33" s="8">
-        <v>51.5</v>
-      </c>
-      <c t="n" r="K33" s="8">
-        <v>-1</v>
+        <v>83.59999999999999</v>
+      </c>
+      <c t="n" r="K33" s="5">
+        <v>494</v>
       </c>
       <c t="n" r="L33" s="8">
-        <v>0</v>
+        <v>88.7</v>
       </c>
       <c t="n" r="M33" s="11">
-        <v>888</v>
+        <v>1207</v>
       </c>
       <c t="n" r="N33" s="8">
-        <v>69.5</v>
-      </c>
-      <c t="n" r="O33" s="10">
-        <v>664</v>
+        <v>62.2</v>
+      </c>
+      <c t="n" r="O33" s="8">
+        <v>-1</v>
       </c>
       <c t="n" r="P33" s="8">
-        <v>82.2</v>
+        <v>0</v>
       </c>
       <c t="n" r="R33" s="7">
-        <v>75.8</v>
+        <v>75.5</v>
       </c>
     </row>
     <row spans="1:18" r="34">
@@ -2315,49 +2315,49 @@
         <v>32</v>
       </c>
       <c t="n" r="C34" s="11">
-        <v>1272</v>
+        <v>736</v>
       </c>
       <c t="n" r="D34" s="6">
-        <v>61.6</v>
-      </c>
-      <c t="n" r="E34" s="10">
-        <v>451</v>
+        <v>73.59999999999999</v>
+      </c>
+      <c t="n" r="E34" s="11">
+        <v>1283</v>
       </c>
       <c t="n" r="F34" s="6">
-        <v>85.59999999999999</v>
-      </c>
-      <c t="n" r="G34" s="6">
-        <v>-1</v>
+        <v>63.3</v>
+      </c>
+      <c t="n" r="G34" s="9">
+        <v>2615</v>
       </c>
       <c t="n" r="H34" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c t="n" r="I34" s="11">
-        <v>897</v>
+        <v>792</v>
       </c>
       <c t="n" r="J34" s="6">
-        <v>71.7</v>
-      </c>
-      <c t="n" r="K34" s="11">
-        <v>1600</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c t="n" r="K34" s="10">
+        <v>1095</v>
       </c>
       <c t="n" r="L34" s="6">
-        <v>53.2</v>
+        <v>69.8</v>
       </c>
       <c t="n" r="M34" s="11">
-        <v>944</v>
+        <v>894</v>
       </c>
       <c t="n" r="N34" s="6">
-        <v>68.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c t="n" r="O34" s="10">
-        <v>625</v>
+        <v>736</v>
       </c>
       <c t="n" r="P34" s="6">
-        <v>82.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c t="n" r="R34" s="7">
-        <v>75.59999999999999</v>
+        <v>75.3</v>
       </c>
     </row>
     <row spans="1:18" r="35">
@@ -2367,50 +2367,50 @@
       <c t="s" r="B35" s="1">
         <v>33</v>
       </c>
-      <c t="n" r="C35" s="11">
-        <v>995</v>
+      <c t="n" r="C35" s="10">
+        <v>578</v>
       </c>
       <c t="n" r="D35" s="8">
-        <v>67.8</v>
-      </c>
-      <c t="n" r="E35" s="10">
-        <v>914</v>
+        <v>82.09999999999999</v>
+      </c>
+      <c t="n" r="E35" s="5">
+        <v>233</v>
       </c>
       <c t="n" r="F35" s="8">
-        <v>76</v>
-      </c>
-      <c t="n" r="G35" s="11">
-        <v>2034</v>
+        <v>95.2</v>
+      </c>
+      <c t="n" r="G35" s="5">
+        <v>502</v>
       </c>
       <c t="n" r="H35" s="8">
-        <v>48</v>
-      </c>
-      <c t="n" r="I35" s="8">
-        <v>-1</v>
+        <v>89.59999999999999</v>
+      </c>
+      <c t="n" r="I35" s="9">
+        <v>1641</v>
       </c>
       <c t="n" r="J35" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K35" s="5">
-        <v>741</v>
+        <v>51.5</v>
+      </c>
+      <c t="n" r="K35" s="8">
+        <v>-1</v>
       </c>
       <c t="n" r="L35" s="8">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c t="n" r="M35" s="11">
-        <v>957</v>
+        <v>888</v>
       </c>
       <c t="n" r="N35" s="8">
-        <v>67.90000000000001</v>
-      </c>
-      <c t="n" r="O35" s="11">
-        <v>1224</v>
+        <v>69.5</v>
+      </c>
+      <c t="n" r="O35" s="10">
+        <v>714</v>
       </c>
       <c t="n" r="P35" s="8">
-        <v>66.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c t="n" r="R35" s="7">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
     </row>
     <row spans="1:18" r="36">
@@ -2420,50 +2420,50 @@
       <c t="s" r="B36" s="4">
         <v>34</v>
       </c>
-      <c t="n" r="C36" s="10">
-        <v>612</v>
+      <c t="n" r="C36" s="11">
+        <v>1272</v>
       </c>
       <c t="n" r="D36" s="6">
-        <v>81.40000000000001</v>
-      </c>
-      <c t="n" r="E36" s="9">
-        <v>2384</v>
+        <v>61.6</v>
+      </c>
+      <c t="n" r="E36" s="10">
+        <v>451</v>
       </c>
       <c t="n" r="F36" s="6">
-        <v>35.4</v>
-      </c>
-      <c t="n" r="G36" s="5">
-        <v>397</v>
+        <v>85.59999999999999</v>
+      </c>
+      <c t="n" r="G36" s="6">
+        <v>-1</v>
       </c>
       <c t="n" r="H36" s="6">
-        <v>91.8</v>
-      </c>
-      <c t="n" r="I36" s="10">
-        <v>561</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="I36" s="11">
+        <v>897</v>
       </c>
       <c t="n" r="J36" s="6">
-        <v>83.59999999999999</v>
-      </c>
-      <c t="n" r="K36" s="5">
-        <v>494</v>
+        <v>71.7</v>
+      </c>
+      <c t="n" r="K36" s="11">
+        <v>1600</v>
       </c>
       <c t="n" r="L36" s="6">
-        <v>88.7</v>
+        <v>53.2</v>
       </c>
       <c t="n" r="M36" s="11">
-        <v>1207</v>
+        <v>944</v>
       </c>
       <c t="n" r="N36" s="6">
-        <v>62.2</v>
-      </c>
-      <c t="n" r="O36" s="6">
-        <v>-1</v>
+        <v>68.2</v>
+      </c>
+      <c t="n" r="O36" s="10">
+        <v>672</v>
       </c>
       <c t="n" r="P36" s="6">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c t="n" r="R36" s="7">
-        <v>75.5</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row spans="1:18" r="37">
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c t="n" r="O37" s="10">
-        <v>598</v>
+        <v>644</v>
       </c>
       <c t="n" r="P37" s="8">
-        <v>83.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c t="n" r="R37" s="7">
-        <v>75</v>
+        <v>74.5</v>
       </c>
     </row>
     <row spans="1:18" r="38">
@@ -2563,13 +2563,13 @@
         <v>73</v>
       </c>
       <c t="n" r="O38" s="11">
-        <v>910</v>
+        <v>978</v>
       </c>
       <c t="n" r="P38" s="6">
-        <v>72.40000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c t="n" r="R38" s="7">
-        <v>72.7</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row spans="1:18" r="39">
@@ -2580,49 +2580,49 @@
         <v>37</v>
       </c>
       <c t="n" r="C39" s="8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c t="n" r="D39" s="8">
         <v>0</v>
       </c>
-      <c t="n" r="E39" s="8">
-        <v>-2</v>
+      <c t="n" r="E39" s="10">
+        <v>958</v>
       </c>
       <c t="n" r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G39" s="11">
-        <v>1761</v>
+        <v>75.09999999999999</v>
+      </c>
+      <c t="n" r="G39" s="10">
+        <v>817</v>
       </c>
       <c t="n" r="H39" s="8">
-        <v>53.7</v>
-      </c>
-      <c t="n" r="I39" s="9">
-        <v>1838</v>
+        <v>78.09999999999999</v>
+      </c>
+      <c t="n" r="I39" s="8">
+        <v>-1</v>
       </c>
       <c t="n" r="J39" s="8">
-        <v>47.5</v>
-      </c>
-      <c t="n" r="K39" s="10">
-        <v>1271</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="K39" s="11">
+        <v>1458</v>
       </c>
       <c t="n" r="L39" s="8">
-        <v>65.8</v>
-      </c>
-      <c t="n" r="M39" s="11">
-        <v>708</v>
+        <v>56.5</v>
+      </c>
+      <c t="n" r="M39" s="8">
+        <v>-1</v>
       </c>
       <c t="n" r="N39" s="8">
-        <v>73.7</v>
-      </c>
-      <c t="n" r="O39" s="11">
-        <v>1089</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="O39" s="10">
+        <v>510</v>
       </c>
       <c t="n" r="P39" s="8">
-        <v>69</v>
+        <v>85.2</v>
       </c>
       <c t="n" r="R39" s="7">
-        <v>71.3</v>
+        <v>70.8</v>
       </c>
     </row>
     <row spans="1:18" r="40">
@@ -2633,49 +2633,49 @@
         <v>38</v>
       </c>
       <c t="n" r="C40" s="6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c t="n" r="D40" s="6">
         <v>0</v>
       </c>
-      <c t="n" r="E40" s="10">
-        <v>958</v>
+      <c t="n" r="E40" s="6">
+        <v>-2</v>
       </c>
       <c t="n" r="F40" s="6">
-        <v>75.09999999999999</v>
-      </c>
-      <c t="n" r="G40" s="10">
-        <v>817</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="G40" s="11">
+        <v>1761</v>
       </c>
       <c t="n" r="H40" s="6">
-        <v>78.09999999999999</v>
-      </c>
-      <c t="n" r="I40" s="6">
-        <v>-1</v>
+        <v>53.7</v>
+      </c>
+      <c t="n" r="I40" s="9">
+        <v>1838</v>
       </c>
       <c t="n" r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K40" s="11">
-        <v>1458</v>
+        <v>47.5</v>
+      </c>
+      <c t="n" r="K40" s="10">
+        <v>1271</v>
       </c>
       <c t="n" r="L40" s="6">
-        <v>56.5</v>
-      </c>
-      <c t="n" r="M40" s="6">
-        <v>-1</v>
+        <v>65.8</v>
+      </c>
+      <c t="n" r="M40" s="11">
+        <v>708</v>
       </c>
       <c t="n" r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O40" s="10">
-        <v>475</v>
+        <v>73.7</v>
+      </c>
+      <c t="n" r="O40" s="11">
+        <v>1169</v>
       </c>
       <c t="n" r="P40" s="6">
-        <v>85.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c t="n" r="R40" s="7">
-        <v>71.2</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row spans="1:18" r="41">
@@ -2685,50 +2685,50 @@
       <c t="s" r="B41" s="1">
         <v>39</v>
       </c>
-      <c t="n" r="C41" s="8">
-        <v>-2</v>
+      <c t="n" r="C41" s="11">
+        <v>1332</v>
       </c>
       <c t="n" r="D41" s="8">
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c t="n" r="E41" s="8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c t="n" r="F41" s="8">
         <v>0</v>
       </c>
-      <c t="n" r="G41" s="8">
-        <v>-2</v>
+      <c t="n" r="G41" s="10">
+        <v>948</v>
       </c>
       <c t="n" r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I41" s="8">
-        <v>-2</v>
+        <v>75.40000000000001</v>
+      </c>
+      <c t="n" r="I41" s="10">
+        <v>617</v>
       </c>
       <c t="n" r="J41" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K41" s="8">
-        <v>-2</v>
+        <v>82.40000000000001</v>
+      </c>
+      <c t="n" r="K41" s="10">
+        <v>1262</v>
       </c>
       <c t="n" r="L41" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M41" s="8">
-        <v>-2</v>
+        <v>66</v>
+      </c>
+      <c t="n" r="M41" s="11">
+        <v>781</v>
       </c>
       <c t="n" r="N41" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O41" s="11">
-        <v>1047</v>
+        <v>72</v>
+      </c>
+      <c t="n" r="O41" s="8">
+        <v>-1</v>
       </c>
       <c t="n" r="P41" s="8">
-        <v>69.8</v>
+        <v>0</v>
       </c>
       <c t="n" r="R41" s="7">
-        <v>69.8</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:18" r="42">
@@ -2775,13 +2775,13 @@
         <v>68.8</v>
       </c>
       <c t="n" r="O42" s="11">
-        <v>1006</v>
+        <v>1080</v>
       </c>
       <c t="n" r="P42" s="6">
-        <v>70.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c t="n" r="R42" s="7">
-        <v>69.7</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:18" r="43">
@@ -2791,50 +2791,50 @@
       <c t="s" r="B43" s="1">
         <v>41</v>
       </c>
-      <c t="n" r="C43" s="11">
-        <v>1332</v>
+      <c t="n" r="C43" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="D43" s="8">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c t="n" r="E43" s="8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c t="n" r="F43" s="8">
         <v>0</v>
       </c>
-      <c t="n" r="G43" s="10">
-        <v>948</v>
+      <c t="n" r="G43" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="H43" s="8">
-        <v>75.40000000000001</v>
-      </c>
-      <c t="n" r="I43" s="10">
-        <v>617</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="I43" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="J43" s="8">
-        <v>82.40000000000001</v>
-      </c>
-      <c t="n" r="K43" s="10">
-        <v>1262</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="K43" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="L43" s="8">
-        <v>66</v>
-      </c>
-      <c t="n" r="M43" s="11">
-        <v>781</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="M43" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="N43" s="8">
-        <v>72</v>
-      </c>
-      <c t="n" r="O43" s="8">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="O43" s="11">
+        <v>1124</v>
       </c>
       <c t="n" r="P43" s="8">
-        <v>0</v>
+        <v>68.3</v>
       </c>
       <c t="n" r="R43" s="7">
-        <v>69</v>
+        <v>68.3</v>
       </c>
     </row>
     <row spans="1:18" r="44">
@@ -2881,13 +2881,13 @@
         <v>65.2</v>
       </c>
       <c t="n" r="O44" s="11">
-        <v>1013</v>
+        <v>1089</v>
       </c>
       <c t="n" r="P44" s="6">
-        <v>70.5</v>
+        <v>69</v>
       </c>
       <c t="n" r="R44" s="7">
-        <v>68.7</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row spans="1:18" r="45">
@@ -2934,13 +2934,13 @@
         <v>69.59999999999999</v>
       </c>
       <c t="n" r="O45" s="11">
-        <v>1245</v>
+        <v>1338</v>
       </c>
       <c t="n" r="P45" s="8">
-        <v>66</v>
+        <v>64.2</v>
       </c>
       <c t="n" r="R45" s="7">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row spans="1:18" r="46">
@@ -2987,13 +2987,13 @@
         <v>67.3</v>
       </c>
       <c t="n" r="O46" s="11">
-        <v>1154</v>
+        <v>1238</v>
       </c>
       <c t="n" r="P46" s="6">
-        <v>67.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c t="n" r="R46" s="7">
-        <v>67.5</v>
+        <v>66.7</v>
       </c>
     </row>
     <row spans="1:18" r="47">
@@ -3003,50 +3003,50 @@
       <c t="s" r="B47" s="1">
         <v>45</v>
       </c>
-      <c t="n" r="C47" s="8">
-        <v>-2</v>
+      <c t="n" r="C47" s="11">
+        <v>867</v>
       </c>
       <c t="n" r="D47" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E47" s="8">
-        <v>-2</v>
+        <v>70.7</v>
+      </c>
+      <c t="n" r="E47" s="11">
+        <v>1421</v>
       </c>
       <c t="n" r="F47" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G47" s="8">
-        <v>-2</v>
+        <v>60.4</v>
+      </c>
+      <c t="n" r="G47" s="9">
+        <v>2124</v>
       </c>
       <c t="n" r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I47" s="8">
-        <v>-2</v>
+        <v>41.2</v>
+      </c>
+      <c t="n" r="I47" s="11">
+        <v>1153</v>
       </c>
       <c t="n" r="J47" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K47" s="8">
-        <v>-1</v>
+        <v>66.5</v>
+      </c>
+      <c t="n" r="K47" s="11">
+        <v>1352</v>
       </c>
       <c t="n" r="L47" s="8">
-        <v>0</v>
+        <v>58.9</v>
       </c>
       <c t="n" r="M47" s="11">
-        <v>804</v>
+        <v>672</v>
       </c>
       <c t="n" r="N47" s="8">
-        <v>71.5</v>
-      </c>
-      <c t="n" r="O47" s="11">
-        <v>1374</v>
+        <v>74.5</v>
+      </c>
+      <c t="n" r="O47" s="8">
+        <v>-1</v>
       </c>
       <c t="n" r="P47" s="8">
-        <v>63.5</v>
+        <v>0</v>
       </c>
       <c t="n" r="R47" s="7">
-        <v>67.5</v>
+        <v>66.7</v>
       </c>
     </row>
     <row spans="1:18" r="48">
@@ -3093,13 +3093,13 @@
         <v>68.3</v>
       </c>
       <c t="n" r="O48" s="11">
-        <v>1222</v>
+        <v>1313</v>
       </c>
       <c t="n" r="P48" s="6">
-        <v>66.40000000000001</v>
+        <v>64.7</v>
       </c>
       <c t="n" r="R48" s="7">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
     </row>
     <row spans="1:18" r="49">
@@ -3109,50 +3109,50 @@
       <c t="s" r="B49" s="1">
         <v>47</v>
       </c>
-      <c t="n" r="C49" s="11">
-        <v>867</v>
+      <c t="n" r="C49" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="D49" s="8">
-        <v>70.7</v>
-      </c>
-      <c t="n" r="E49" s="11">
-        <v>1421</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="E49" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="F49" s="8">
-        <v>60.4</v>
-      </c>
-      <c t="n" r="G49" s="9">
-        <v>2124</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="G49" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="H49" s="8">
-        <v>41.2</v>
-      </c>
-      <c t="n" r="I49" s="11">
-        <v>1153</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="I49" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c t="n" r="K49" s="8">
+        <v>-1</v>
+      </c>
+      <c t="n" r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c t="n" r="M49" s="11">
+        <v>804</v>
+      </c>
+      <c t="n" r="N49" s="8">
+        <v>71.5</v>
+      </c>
+      <c t="n" r="O49" s="11">
+        <v>1473</v>
+      </c>
+      <c t="n" r="P49" s="8">
+        <v>61.6</v>
+      </c>
+      <c t="n" r="R49" s="7">
         <v>66.5</v>
-      </c>
-      <c t="n" r="K49" s="11">
-        <v>1352</v>
-      </c>
-      <c t="n" r="L49" s="8">
-        <v>58.9</v>
-      </c>
-      <c t="n" r="M49" s="11">
-        <v>672</v>
-      </c>
-      <c t="n" r="N49" s="8">
-        <v>74.5</v>
-      </c>
-      <c t="n" r="O49" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P49" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="R49" s="7">
-        <v>66.7</v>
       </c>
     </row>
     <row spans="1:18" r="50">
@@ -3199,13 +3199,13 @@
         <v>40.9</v>
       </c>
       <c t="n" r="O50" s="11">
-        <v>1563</v>
+        <v>1686</v>
       </c>
       <c t="n" r="P50" s="6">
-        <v>59.8</v>
+        <v>57.5</v>
       </c>
       <c t="n" r="R50" s="7">
-        <v>66.7</v>
+        <v>65.5</v>
       </c>
     </row>
     <row spans="1:18" r="51">
@@ -3252,13 +3252,13 @@
         <v>65.90000000000001</v>
       </c>
       <c t="n" r="O51" s="11">
-        <v>1215</v>
+        <v>1305</v>
       </c>
       <c t="n" r="P51" s="8">
-        <v>66.59999999999999</v>
+        <v>64.8</v>
       </c>
       <c t="n" r="R51" s="7">
-        <v>66.2</v>
+        <v>65.3</v>
       </c>
     </row>
     <row spans="1:18" r="52">
@@ -3305,13 +3305,13 @@
         <v>63.9</v>
       </c>
       <c t="n" r="O52" s="11">
-        <v>1227</v>
+        <v>1319</v>
       </c>
       <c t="n" r="P52" s="6">
-        <v>66.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c t="n" r="R52" s="7">
-        <v>65.09999999999999</v>
+        <v>64.2</v>
       </c>
     </row>
     <row spans="1:18" r="53">
@@ -3358,13 +3358,13 @@
         <v>56.5</v>
       </c>
       <c t="n" r="O53" s="9">
-        <v>1996</v>
+        <v>2171</v>
       </c>
       <c t="n" r="P53" s="8">
-        <v>46.5</v>
+        <v>43.1</v>
       </c>
       <c t="n" r="R53" s="7">
-        <v>63.8</v>
+        <v>63.9</v>
       </c>
     </row>
     <row spans="1:18" r="54">
@@ -3374,50 +3374,50 @@
       <c t="s" r="B54" s="4">
         <v>52</v>
       </c>
-      <c t="n" r="C54" s="11">
-        <v>952</v>
+      <c t="n" r="C54" s="6">
+        <v>-2</v>
       </c>
       <c t="n" r="D54" s="6">
-        <v>68.8</v>
-      </c>
-      <c t="n" r="E54" s="10">
-        <v>886</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="E54" s="6">
+        <v>-2</v>
       </c>
       <c t="n" r="F54" s="6">
-        <v>76.59999999999999</v>
-      </c>
-      <c t="n" r="G54" s="11">
-        <v>1971</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="G54" s="6">
+        <v>-2</v>
       </c>
       <c t="n" r="H54" s="6">
-        <v>49.3</v>
+        <v>0</v>
       </c>
       <c t="n" r="I54" s="10">
-        <v>625</v>
+        <v>541</v>
       </c>
       <c t="n" r="J54" s="6">
-        <v>82.3</v>
-      </c>
-      <c t="n" r="K54" s="9">
-        <v>2045</v>
+        <v>84</v>
+      </c>
+      <c t="n" r="K54" s="11">
+        <v>1344</v>
       </c>
       <c t="n" r="L54" s="6">
-        <v>38</v>
-      </c>
-      <c t="n" r="M54" s="11">
-        <v>555</v>
+        <v>59.1</v>
+      </c>
+      <c t="n" r="M54" s="6">
+        <v>-1</v>
       </c>
       <c t="n" r="N54" s="6">
-        <v>77.2</v>
-      </c>
-      <c t="n" r="O54" s="9">
-        <v>1827</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="O54" s="11">
+        <v>1256</v>
       </c>
       <c t="n" r="P54" s="6">
-        <v>49.8</v>
+        <v>65.8</v>
       </c>
       <c t="n" r="R54" s="7">
-        <v>63.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row spans="1:18" r="55">
@@ -3464,13 +3464,13 @@
         <v>53.2</v>
       </c>
       <c t="n" r="O55" s="11">
-        <v>1737</v>
+        <v>1880</v>
       </c>
       <c t="n" r="P55" s="8">
-        <v>56.5</v>
+        <v>53.7</v>
       </c>
       <c t="n" r="R55" s="7">
-        <v>63.4</v>
+        <v>62</v>
       </c>
     </row>
     <row spans="1:18" r="56">
@@ -3480,50 +3480,50 @@
       <c t="s" r="B56" s="4">
         <v>54</v>
       </c>
-      <c t="n" r="C56" s="6">
-        <v>-2</v>
+      <c t="n" r="C56" s="11">
+        <v>952</v>
       </c>
       <c t="n" r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E56" s="6">
-        <v>-2</v>
+        <v>68.8</v>
+      </c>
+      <c t="n" r="E56" s="10">
+        <v>886</v>
       </c>
       <c t="n" r="F56" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G56" s="6">
-        <v>-2</v>
+        <v>76.59999999999999</v>
+      </c>
+      <c t="n" r="G56" s="11">
+        <v>1971</v>
       </c>
       <c t="n" r="H56" s="6">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c t="n" r="I56" s="10">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c t="n" r="J56" s="6">
-        <v>84</v>
-      </c>
-      <c t="n" r="K56" s="11">
-        <v>1344</v>
+        <v>82.3</v>
+      </c>
+      <c t="n" r="K56" s="9">
+        <v>2045</v>
       </c>
       <c t="n" r="L56" s="6">
-        <v>59.1</v>
-      </c>
-      <c t="n" r="M56" s="6">
-        <v>-1</v>
+        <v>38</v>
+      </c>
+      <c t="n" r="M56" s="11">
+        <v>555</v>
       </c>
       <c t="n" r="N56" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O56" s="11">
-        <v>1171</v>
+        <v>77.2</v>
+      </c>
+      <c t="n" r="O56" s="9">
+        <v>1988</v>
       </c>
       <c t="n" r="P56" s="6">
-        <v>67.40000000000001</v>
+        <v>46.6</v>
       </c>
       <c t="n" r="R56" s="7">
-        <v>63.2</v>
+        <v>61.9</v>
       </c>
     </row>
     <row spans="1:18" r="57">
@@ -3570,13 +3570,13 @@
         <v>51.3</v>
       </c>
       <c t="n" r="O57" s="11">
-        <v>858</v>
+        <v>925</v>
       </c>
       <c t="n" r="P57" s="8">
-        <v>73.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c t="n" r="R57" s="7">
-        <v>62.4</v>
+        <v>61.8</v>
       </c>
     </row>
     <row spans="1:18" r="58">
@@ -3587,49 +3587,49 @@
         <v>56</v>
       </c>
       <c t="n" r="C58" s="9">
-        <v>1799</v>
+        <v>2157</v>
       </c>
       <c t="n" r="D58" s="6">
-        <v>44.9</v>
-      </c>
-      <c t="n" r="E58" s="10">
-        <v>556</v>
+        <v>36.9</v>
+      </c>
+      <c t="n" r="E58" s="11">
+        <v>1642</v>
       </c>
       <c t="n" r="F58" s="6">
-        <v>83.40000000000001</v>
-      </c>
-      <c t="n" r="G58" s="11">
-        <v>1622</v>
+        <v>55.9</v>
+      </c>
+      <c t="n" r="G58" s="6">
+        <v>-1</v>
       </c>
       <c t="n" r="H58" s="6">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c t="n" r="I58" s="11">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c t="n" r="J58" s="6">
-        <v>74.3</v>
-      </c>
-      <c t="n" r="K58" s="6">
-        <v>-1</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c t="n" r="K58" s="5">
+        <v>794</v>
       </c>
       <c t="n" r="L58" s="6">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c t="n" r="M58" s="9">
-        <v>1353</v>
+        <v>1903</v>
       </c>
       <c t="n" r="N58" s="6">
-        <v>53.8</v>
-      </c>
-      <c t="n" r="O58" s="11">
-        <v>1056</v>
+        <v>41.1</v>
+      </c>
+      <c t="n" r="O58" s="6">
+        <v>-1</v>
       </c>
       <c t="n" r="P58" s="6">
-        <v>69.59999999999999</v>
+        <v>0</v>
       </c>
       <c t="n" r="R58" s="7">
-        <v>61.7</v>
+        <v>61.5</v>
       </c>
     </row>
     <row spans="1:18" r="59">
@@ -3640,49 +3640,49 @@
         <v>57</v>
       </c>
       <c t="n" r="C59" s="9">
-        <v>2157</v>
+        <v>1799</v>
       </c>
       <c t="n" r="D59" s="8">
-        <v>36.9</v>
-      </c>
-      <c t="n" r="E59" s="11">
-        <v>1642</v>
+        <v>44.9</v>
+      </c>
+      <c t="n" r="E59" s="10">
+        <v>556</v>
       </c>
       <c t="n" r="F59" s="8">
-        <v>55.9</v>
-      </c>
-      <c t="n" r="G59" s="8">
-        <v>-1</v>
+        <v>83.40000000000001</v>
+      </c>
+      <c t="n" r="G59" s="11">
+        <v>1622</v>
       </c>
       <c t="n" r="H59" s="8">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c t="n" r="I59" s="11">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c t="n" r="J59" s="8">
-        <v>73.90000000000001</v>
-      </c>
-      <c t="n" r="K59" s="5">
-        <v>794</v>
+        <v>74.3</v>
+      </c>
+      <c t="n" r="K59" s="8">
+        <v>-1</v>
       </c>
       <c t="n" r="L59" s="8">
-        <v>81.8</v>
+        <v>0</v>
       </c>
       <c t="n" r="M59" s="9">
-        <v>1903</v>
+        <v>1353</v>
       </c>
       <c t="n" r="N59" s="8">
-        <v>41.1</v>
-      </c>
-      <c t="n" r="O59" s="8">
-        <v>-1</v>
+        <v>53.8</v>
+      </c>
+      <c t="n" r="O59" s="11">
+        <v>1133</v>
       </c>
       <c t="n" r="P59" s="8">
-        <v>0</v>
+        <v>68.09999999999999</v>
       </c>
       <c t="n" r="R59" s="7">
-        <v>61.5</v>
+        <v>60.9</v>
       </c>
     </row>
     <row spans="1:18" r="60">
@@ -3729,13 +3729,13 @@
         <v>47.6</v>
       </c>
       <c t="n" r="O60" s="11">
-        <v>860</v>
+        <v>927</v>
       </c>
       <c t="n" r="P60" s="6">
-        <v>73.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c t="n" r="R60" s="7">
-        <v>60.5</v>
+        <v>59.8</v>
       </c>
     </row>
     <row spans="1:18" r="61">
@@ -3782,13 +3782,13 @@
         <v>42.4</v>
       </c>
       <c t="n" r="O61" s="9">
-        <v>1898</v>
+        <v>2064</v>
       </c>
       <c t="n" r="P61" s="8">
-        <v>48.4</v>
+        <v>45.2</v>
       </c>
       <c t="n" r="R61" s="7">
-        <v>60.2</v>
+        <v>58.6</v>
       </c>
     </row>
     <row spans="1:18" r="62">
@@ -3835,13 +3835,13 @@
         <v>47.5</v>
       </c>
       <c t="n" r="O62" s="11">
-        <v>1532</v>
+        <v>1651</v>
       </c>
       <c t="n" r="P62" s="6">
-        <v>60.4</v>
+        <v>58.2</v>
       </c>
       <c t="n" r="R62" s="7">
-        <v>58.2</v>
+        <v>57.1</v>
       </c>
     </row>
     <row spans="1:18" r="63">
@@ -3888,13 +3888,13 @@
         <v>0</v>
       </c>
       <c t="n" r="O63" s="11">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c t="n" r="P63" s="8">
-        <v>62.3</v>
+        <v>60.2</v>
       </c>
       <c t="n" r="R63" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row spans="1:18" r="64">
@@ -3941,13 +3941,13 @@
         <v>53.9</v>
       </c>
       <c t="n" r="O64" s="11">
-        <v>1754</v>
+        <v>1899</v>
       </c>
       <c t="n" r="P64" s="6">
-        <v>56.2</v>
+        <v>53.4</v>
       </c>
       <c t="n" r="R64" s="7">
-        <v>55</v>
+        <v>53.6</v>
       </c>
     </row>
     <row spans="1:18" r="65">
@@ -3994,13 +3994,13 @@
         <v>44.8</v>
       </c>
       <c t="n" r="O65" s="9">
-        <v>1965</v>
+        <v>2137</v>
       </c>
       <c t="n" r="P65" s="8">
-        <v>47.1</v>
+        <v>43.8</v>
       </c>
       <c t="n" r="R65" s="7">
-        <v>53.1</v>
+        <v>51.9</v>
       </c>
     </row>
     <row spans="1:18" r="66">
@@ -4047,13 +4047,13 @@
         <v>39.8</v>
       </c>
       <c t="n" r="O66" s="11">
-        <v>1728</v>
+        <v>1870</v>
       </c>
       <c t="n" r="P66" s="6">
-        <v>56.7</v>
+        <v>53.9</v>
       </c>
       <c t="n" r="R66" s="7">
-        <v>52.3</v>
+        <v>50.9</v>
       </c>
     </row>
     <row spans="1:18" r="67">
@@ -4100,13 +4100,13 @@
         <v>35.7</v>
       </c>
       <c t="n" r="O67" s="11">
-        <v>1515</v>
+        <v>1632</v>
       </c>
       <c t="n" r="P67" s="8">
-        <v>60.8</v>
+        <v>58.5</v>
       </c>
       <c t="n" r="R67" s="7">
-        <v>48.2</v>
+        <v>47.1</v>
       </c>
     </row>
     <row spans="1:18" r="68">
@@ -4116,50 +4116,50 @@
       <c t="s" r="B68" s="4">
         <v>66</v>
       </c>
-      <c t="n" r="C68" s="6">
-        <v>-2</v>
+      <c t="n" r="C68" s="10">
+        <v>251</v>
       </c>
       <c t="n" r="D68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E68" s="6">
-        <v>-2</v>
+        <v>89.40000000000001</v>
+      </c>
+      <c t="n" r="E68" s="5">
+        <v>127</v>
       </c>
       <c t="n" r="F68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G68" s="6">
-        <v>-2</v>
+        <v>97.40000000000001</v>
+      </c>
+      <c t="n" r="G68" s="10">
+        <v>581</v>
       </c>
       <c t="n" r="H68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I68" s="6">
-        <v>-2</v>
+        <v>83</v>
+      </c>
+      <c t="n" r="I68" s="5">
+        <v>218</v>
       </c>
       <c t="n" r="J68" s="6">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c t="n" r="K68" s="6">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c t="n" r="L68" s="6">
         <v>0</v>
       </c>
-      <c t="n" r="M68" s="6">
-        <v>-2</v>
+      <c t="n" r="M68" s="11">
+        <v>540</v>
       </c>
       <c t="n" r="N68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O68" s="9">
-        <v>2303</v>
+        <v>77.5</v>
+      </c>
+      <c t="n" r="O68" s="6">
+        <v>-1</v>
       </c>
       <c t="n" r="P68" s="6">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c t="n" r="R68" s="7">
-        <v>40.6</v>
+        <v>38.8</v>
       </c>
     </row>
     <row spans="1:18" r="69">
@@ -4206,13 +4206,13 @@
         <v>0</v>
       </c>
       <c t="n" r="O69" s="9">
-        <v>2207</v>
+        <v>2397</v>
       </c>
       <c t="n" r="P69" s="8">
-        <v>42.4</v>
+        <v>38.8</v>
       </c>
       <c t="n" r="R69" s="7">
-        <v>40.3</v>
+        <v>38.5</v>
       </c>
     </row>
     <row spans="1:18" r="70">
@@ -4259,13 +4259,13 @@
         <v>33.6</v>
       </c>
       <c t="n" r="O70" s="9">
-        <v>2365</v>
+        <v>2574</v>
       </c>
       <c t="n" r="P70" s="6">
-        <v>39.4</v>
+        <v>35.3</v>
       </c>
       <c t="n" r="R70" s="7">
-        <v>39.8</v>
+        <v>37.8</v>
       </c>
     </row>
     <row spans="1:18" r="71">
@@ -4275,50 +4275,50 @@
       <c t="s" r="B71" s="1">
         <v>69</v>
       </c>
-      <c t="n" r="C71" s="10">
-        <v>251</v>
+      <c t="n" r="C71" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="D71" s="8">
-        <v>89.40000000000001</v>
-      </c>
-      <c t="n" r="E71" s="5">
-        <v>127</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="E71" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="F71" s="8">
-        <v>97.40000000000001</v>
-      </c>
-      <c t="n" r="G71" s="10">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="G71" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="H71" s="8">
-        <v>83</v>
-      </c>
-      <c t="n" r="I71" s="5">
-        <v>218</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="I71" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="J71" s="8">
-        <v>95.59999999999999</v>
+        <v>0</v>
       </c>
       <c t="n" r="K71" s="8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c t="n" r="L71" s="8">
         <v>0</v>
       </c>
-      <c t="n" r="M71" s="11">
-        <v>540</v>
+      <c t="n" r="M71" s="8">
+        <v>-2</v>
       </c>
       <c t="n" r="N71" s="8">
-        <v>77.5</v>
-      </c>
-      <c t="n" r="O71" s="8">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="O71" s="9">
+        <v>2502</v>
       </c>
       <c t="n" r="P71" s="8">
-        <v>0</v>
+        <v>36.7</v>
       </c>
       <c t="n" r="R71" s="7">
-        <v>38.8</v>
+        <v>36.7</v>
       </c>
     </row>
     <row spans="1:18" r="72">
@@ -4365,13 +4365,13 @@
         <v>0</v>
       </c>
       <c t="n" r="O72" s="9">
-        <v>2156</v>
+        <v>2338</v>
       </c>
       <c t="n" r="P72" s="6">
-        <v>43.4</v>
+        <v>39.9</v>
       </c>
       <c t="n" r="R72" s="7">
-        <v>37.6</v>
+        <v>35.9</v>
       </c>
     </row>
     <row spans="1:18" r="73">
@@ -4418,13 +4418,13 @@
         <v>0</v>
       </c>
       <c t="n" r="O73" s="9">
-        <v>2323</v>
+        <v>2526</v>
       </c>
       <c t="n" r="P73" s="8">
-        <v>40.2</v>
+        <v>36.3</v>
       </c>
       <c t="n" r="R73" s="7">
-        <v>20.1</v>
+        <v>18.1</v>
       </c>
     </row>
     <row spans="1:18" r="74">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -665,7 +665,7 @@
     <col customWidth="1" max="2" min="2" width="25"/>
   </cols>
   <sheetData>
-    <row spans="1:18" r="1">
+    <row r="1" spans="1:18">
       <c t="s" r="B1" s="1">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
         <v>124</v>
       </c>
     </row>
-    <row spans="1:18" r="2">
+    <row r="2" spans="1:18">
       <c t="s" r="B2" s="1">
         <v>1</v>
       </c>
@@ -717,7 +717,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row spans="1:18" r="4">
+    <row r="4" spans="1:18">
       <c t="n" r="A4" s="4">
         <v>1</v>
       </c>
@@ -770,7 +770,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row spans="1:18" r="5">
+    <row r="5" spans="1:18">
       <c t="n" r="A5" s="1">
         <v>2</v>
       </c>
@@ -823,7 +823,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row spans="1:18" r="6">
+    <row r="6" spans="1:18">
       <c t="n" r="A6" s="4">
         <v>3</v>
       </c>
@@ -876,7 +876,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row spans="1:18" r="7">
+    <row r="7" spans="1:18">
       <c t="n" r="A7" s="1">
         <v>4</v>
       </c>
@@ -929,7 +929,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row spans="1:18" r="8">
+    <row r="8" spans="1:18">
       <c t="n" r="A8" s="4">
         <v>5</v>
       </c>
@@ -982,7 +982,7 @@
         <v>97.40000000000001</v>
       </c>
     </row>
-    <row spans="1:18" r="9">
+    <row r="9" spans="1:18">
       <c t="n" r="A9" s="1">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row spans="1:18" r="10">
+    <row r="10" spans="1:18">
       <c t="n" r="A10" s="4">
         <v>7</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row spans="1:18" r="11">
+    <row r="11" spans="1:18">
       <c t="n" r="A11" s="1">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row spans="1:18" r="12">
+    <row r="12" spans="1:18">
       <c t="n" r="A12" s="4">
         <v>9</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row spans="1:18" r="13">
+    <row r="13" spans="1:18">
       <c t="n" r="A13" s="1">
         <v>10</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>94.09999999999999</v>
       </c>
     </row>
-    <row spans="1:18" r="14">
+    <row r="14" spans="1:18">
       <c t="n" r="A14" s="4">
         <v>11</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row spans="1:18" r="15">
+    <row r="15" spans="1:18">
       <c t="n" r="A15" s="1">
         <v>12</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>92.40000000000001</v>
       </c>
     </row>
-    <row spans="1:18" r="16">
+    <row r="16" spans="1:18">
       <c t="n" r="A16" s="4">
         <v>13</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row spans="1:18" r="17">
+    <row r="17" spans="1:18">
       <c t="n" r="A17" s="1">
         <v>14</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>90.40000000000001</v>
       </c>
     </row>
-    <row spans="1:18" r="18">
+    <row r="18" spans="1:18">
       <c t="n" r="A18" s="4">
         <v>15</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row spans="1:18" r="19">
+    <row r="19" spans="1:18">
       <c t="n" r="A19" s="1">
         <v>16</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>88.90000000000001</v>
       </c>
     </row>
-    <row spans="1:18" r="20">
+    <row r="20" spans="1:18">
       <c t="n" r="A20" s="4">
         <v>17</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>86</v>
       </c>
     </row>
-    <row spans="1:18" r="21">
+    <row r="21" spans="1:18">
       <c t="n" r="A21" s="1">
         <v>18</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>86</v>
       </c>
     </row>
-    <row spans="1:18" r="22">
+    <row r="22" spans="1:18">
       <c t="n" r="A22" s="4">
         <v>19</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row spans="1:18" r="23">
+    <row r="23" spans="1:18">
       <c t="n" r="A23" s="1">
         <v>20</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row spans="1:18" r="24">
+    <row r="24" spans="1:18">
       <c t="n" r="A24" s="4">
         <v>21</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row spans="1:18" r="25">
+    <row r="25" spans="1:18">
       <c t="n" r="A25" s="1">
         <v>22</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>82.2</v>
       </c>
     </row>
-    <row spans="1:18" r="26">
+    <row r="26" spans="1:18">
       <c t="n" r="A26" s="4">
         <v>23</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row spans="1:18" r="27">
+    <row r="27" spans="1:18">
       <c t="n" r="A27" s="1">
         <v>24</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row spans="1:18" r="28">
+    <row r="28" spans="1:18">
       <c t="n" r="A28" s="4">
         <v>25</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row spans="1:18" r="29">
+    <row r="29" spans="1:18">
       <c t="n" r="A29" s="1">
         <v>26</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>77.09999999999999</v>
       </c>
     </row>
-    <row spans="1:18" r="30">
+    <row r="30" spans="1:18">
       <c t="n" r="A30" s="4">
         <v>27</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row spans="1:18" r="31">
+    <row r="31" spans="1:18">
       <c t="n" r="A31" s="1">
         <v>28</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row spans="1:18" r="32">
+    <row r="32" spans="1:18">
       <c t="n" r="A32" s="4">
         <v>29</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row spans="1:18" r="33">
+    <row r="33" spans="1:18">
       <c t="n" r="A33" s="1">
         <v>30</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row spans="1:18" r="34">
+    <row r="34" spans="1:18">
       <c t="n" r="A34" s="4">
         <v>31</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row spans="1:18" r="35">
+    <row r="35" spans="1:18">
       <c t="n" r="A35" s="1">
         <v>32</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row spans="1:18" r="36">
+    <row r="36" spans="1:18">
       <c t="n" r="A36" s="4">
         <v>33</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>75.09999999999999</v>
       </c>
     </row>
-    <row spans="1:18" r="37">
+    <row r="37" spans="1:18">
       <c t="n" r="A37" s="1">
         <v>34</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row spans="1:18" r="38">
+    <row r="38" spans="1:18">
       <c t="n" r="A38" s="4">
         <v>35</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>72.09999999999999</v>
       </c>
     </row>
-    <row spans="1:18" r="39">
+    <row r="39" spans="1:18">
       <c t="n" r="A39" s="1">
         <v>36</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row spans="1:18" r="40">
+    <row r="40" spans="1:18">
       <c t="n" r="A40" s="4">
         <v>37</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>70.59999999999999</v>
       </c>
     </row>
-    <row spans="1:18" r="41">
+    <row r="41" spans="1:18">
       <c t="n" r="A41" s="1">
         <v>38</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row spans="1:18" r="42">
+    <row r="42" spans="1:18">
       <c t="n" r="A42" s="4">
         <v>39</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row spans="1:18" r="43">
+    <row r="43" spans="1:18">
       <c t="n" r="A43" s="1">
         <v>40</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row spans="1:18" r="44">
+    <row r="44" spans="1:18">
       <c t="n" r="A44" s="4">
         <v>41</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>67.90000000000001</v>
       </c>
     </row>
-    <row spans="1:18" r="45">
+    <row r="45" spans="1:18">
       <c t="n" r="A45" s="1">
         <v>42</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>66.90000000000001</v>
       </c>
     </row>
-    <row spans="1:18" r="46">
+    <row r="46" spans="1:18">
       <c t="n" r="A46" s="4">
         <v>43</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row spans="1:18" r="47">
+    <row r="47" spans="1:18">
       <c t="n" r="A47" s="1">
         <v>44</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row spans="1:18" r="48">
+    <row r="48" spans="1:18">
       <c t="n" r="A48" s="4">
         <v>45</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row spans="1:18" r="49">
+    <row r="49" spans="1:18">
       <c t="n" r="A49" s="1">
         <v>46</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row spans="1:18" r="50">
+    <row r="50" spans="1:18">
       <c t="n" r="A50" s="4">
         <v>47</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row spans="1:18" r="51">
+    <row r="51" spans="1:18">
       <c t="n" r="A51" s="1">
         <v>48</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row spans="1:18" r="52">
+    <row r="52" spans="1:18">
       <c t="n" r="A52" s="4">
         <v>49</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row spans="1:18" r="53">
+    <row r="53" spans="1:18">
       <c t="n" r="A53" s="1">
         <v>50</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row spans="1:18" r="54">
+    <row r="54" spans="1:18">
       <c t="n" r="A54" s="4">
         <v>51</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row spans="1:18" r="55">
+    <row r="55" spans="1:18">
       <c t="n" r="A55" s="1">
         <v>52</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row spans="1:18" r="56">
+    <row r="56" spans="1:18">
       <c t="n" r="A56" s="4">
         <v>53</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row spans="1:18" r="57">
+    <row r="57" spans="1:18">
       <c t="n" r="A57" s="1">
         <v>54</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row spans="1:18" r="58">
+    <row r="58" spans="1:18">
       <c t="n" r="A58" s="4">
         <v>55</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row spans="1:18" r="59">
+    <row r="59" spans="1:18">
       <c t="n" r="A59" s="1">
         <v>56</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row spans="1:18" r="60">
+    <row r="60" spans="1:18">
       <c t="n" r="A60" s="4">
         <v>57</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row spans="1:18" r="61">
+    <row r="61" spans="1:18">
       <c t="n" r="A61" s="1">
         <v>58</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row spans="1:18" r="62">
+    <row r="62" spans="1:18">
       <c t="n" r="A62" s="4">
         <v>59</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row spans="1:18" r="63">
+    <row r="63" spans="1:18">
       <c t="n" r="A63" s="1">
         <v>60</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row spans="1:18" r="64">
+    <row r="64" spans="1:18">
       <c t="n" r="A64" s="4">
         <v>61</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row spans="1:18" r="65">
+    <row r="65" spans="1:18">
       <c t="n" r="A65" s="1">
         <v>62</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row spans="1:18" r="66">
+    <row r="66" spans="1:18">
       <c t="n" r="A66" s="4">
         <v>63</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row spans="1:18" r="67">
+    <row r="67" spans="1:18">
       <c t="n" r="A67" s="1">
         <v>64</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row spans="1:18" r="68">
+    <row r="68" spans="1:18">
       <c t="n" r="A68" s="4">
         <v>65</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>38.8</v>
       </c>
     </row>
-    <row spans="1:18" r="69">
+    <row r="69" spans="1:18">
       <c t="n" r="A69" s="1">
         <v>66</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row spans="1:18" r="70">
+    <row r="70" spans="1:18">
       <c t="n" r="A70" s="4">
         <v>67</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>37.8</v>
       </c>
     </row>
-    <row spans="1:18" r="71">
+    <row r="71" spans="1:18">
       <c t="n" r="A71" s="1">
         <v>68</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>36.7</v>
       </c>
     </row>
-    <row spans="1:18" r="72">
+    <row r="72" spans="1:18">
       <c t="n" r="A72" s="4">
         <v>69</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row spans="1:18" r="73">
+    <row r="73" spans="1:18">
       <c t="n" r="A73" s="1">
         <v>70</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>18.1</v>
       </c>
     </row>
-    <row spans="1:18" r="74">
+    <row r="74" spans="1:18">
       <c t="n" r="A74" s="4">
         <v>71</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:18" r="75">
+    <row r="75" spans="1:18">
       <c t="n" r="A75" s="1">
         <v>72</v>
       </c>
@@ -4533,12 +4533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:18" r="78">
+    <row r="78" spans="1:18">
       <c t="s" r="B78" s="12">
         <v>74</v>
       </c>
     </row>
-    <row spans="1:18" r="79">
+    <row r="79" spans="1:18">
       <c t="s" r="B79" s="12">
         <v>75</v>
       </c>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LeetCode Score Book" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LeetCode Score Book" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -674,4952 +674,4952 @@
     <col customWidth="1" max="2" min="2" width="25"/>
   </cols>
   <sheetData>
-    <row spans="1:22" r="1">
-      <c t="s" r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c t="n" r="C1" s="2">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>118</v>
       </c>
-      <c t="n" r="E1" s="2">
+      <c r="E1" s="2" t="n">
         <v>119</v>
       </c>
-      <c t="n" r="G1" s="2">
+      <c r="G1" s="2" t="n">
         <v>120</v>
       </c>
-      <c t="n" r="I1" s="2">
+      <c r="I1" s="2" t="n">
         <v>121</v>
       </c>
-      <c t="n" r="K1" s="2">
+      <c r="K1" s="2" t="n">
         <v>122</v>
       </c>
-      <c t="n" r="M1" s="2">
+      <c r="M1" s="2" t="n">
         <v>123</v>
       </c>
-      <c t="n" r="O1" s="2">
+      <c r="O1" s="2" t="n">
         <v>124</v>
       </c>
-      <c t="n" r="Q1" s="2">
+      <c r="Q1" s="2" t="n">
         <v>125</v>
       </c>
-      <c t="n" r="S1" s="2">
+      <c r="S1" s="2" t="n">
         <v>126</v>
       </c>
     </row>
-    <row spans="1:22" r="2">
-      <c t="s" r="B2" s="1">
+    <row r="2" spans="1:22">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="n" r="C2" s="3">
+      <c r="C2" s="3" t="n">
         <v>3587</v>
       </c>
-      <c t="n" r="E2" s="3">
+      <c r="E2" s="3" t="n">
         <v>3847</v>
       </c>
-      <c t="n" r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>3876</v>
       </c>
-      <c t="n" r="I2" s="3">
+      <c r="I2" s="3" t="n">
         <v>3924</v>
       </c>
-      <c t="n" r="K2" s="3">
+      <c r="K2" s="3" t="n">
         <v>3482</v>
       </c>
-      <c t="n" r="M2" s="3">
+      <c r="M2" s="3" t="n">
         <v>3468</v>
       </c>
-      <c t="n" r="O2" s="3">
+      <c r="O2" s="3" t="n">
         <v>4174</v>
       </c>
-      <c t="n" r="Q2" s="3">
+      <c r="Q2" s="3" t="n">
         <v>4288</v>
       </c>
-      <c t="n" r="S2" s="3">
+      <c r="S2" s="3" t="n">
         <v>4564</v>
       </c>
     </row>
-    <row spans="1:22" r="4">
-      <c t="n" r="A4" s="4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c t="s" r="B4" s="4">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c t="n" r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>51</v>
       </c>
-      <c t="n" r="D4" s="6">
+      <c r="D4" s="6" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c t="n" r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>36</v>
       </c>
-      <c t="n" r="F4" s="6">
+      <c r="F4" s="6" t="n">
         <v>99.3</v>
       </c>
-      <c t="n" r="G4" s="5">
+      <c r="G4" s="5" t="n">
         <v>7</v>
       </c>
-      <c t="n" r="H4" s="6">
+      <c r="H4" s="6" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c t="n" r="I4" s="5">
+      <c r="I4" s="5" t="n">
         <v>39</v>
       </c>
-      <c t="n" r="J4" s="6">
+      <c r="J4" s="6" t="n">
         <v>99.2</v>
       </c>
-      <c t="n" r="K4" s="5">
+      <c r="K4" s="5" t="n">
         <v>148</v>
       </c>
-      <c t="n" r="L4" s="6">
+      <c r="L4" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c t="n" r="M4" s="5">
+      <c r="M4" s="5" t="n">
         <v>8</v>
       </c>
-      <c t="n" r="N4" s="6">
+      <c r="N4" s="6" t="n">
         <v>99.8</v>
       </c>
-      <c t="n" r="O4" s="5">
+      <c r="O4" s="5" t="n">
         <v>41</v>
       </c>
-      <c t="n" r="P4" s="6">
+      <c r="P4" s="6" t="n">
         <v>99.2</v>
       </c>
-      <c t="n" r="Q4" s="5">
+      <c r="Q4" s="5" t="n">
         <v>22</v>
       </c>
-      <c t="n" r="R4" s="6">
+      <c r="R4" s="6" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c t="n" r="S4" s="5">
+      <c r="S4" s="5" t="n">
         <v>56</v>
       </c>
-      <c t="n" r="T4" s="6">
+      <c r="T4" s="6" t="n">
         <v>99</v>
       </c>
-      <c t="n" r="V4" s="7">
+      <c r="V4" s="7" t="n">
         <v>99.40000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="5">
-      <c t="n" r="A5" s="1">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c t="s" r="B5" s="1">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="n" r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>39</v>
       </c>
-      <c t="n" r="D5" s="8">
+      <c r="D5" s="8" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c t="n" r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>20</v>
       </c>
-      <c t="n" r="F5" s="8">
+      <c r="F5" s="8" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c t="n" r="G5" s="5">
+      <c r="G5" s="5" t="n">
         <v>93</v>
       </c>
-      <c t="n" r="H5" s="8">
+      <c r="H5" s="8" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c t="n" r="I5" s="5">
+      <c r="I5" s="5" t="n">
         <v>7</v>
       </c>
-      <c t="n" r="J5" s="8">
+      <c r="J5" s="8" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c t="n" r="K5" s="5">
+      <c r="K5" s="5" t="n">
         <v>30</v>
       </c>
-      <c t="n" r="L5" s="8">
+      <c r="L5" s="8" t="n">
         <v>99.3</v>
       </c>
-      <c t="n" r="M5" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O5" s="5">
+      <c r="M5" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>48</v>
       </c>
-      <c t="n" r="P5" s="8">
+      <c r="P5" s="8" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c t="n" r="Q5" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="S5" s="5">
+      <c r="Q5" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="n">
         <v>35</v>
       </c>
-      <c t="n" r="T5" s="8">
+      <c r="T5" s="8" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c t="n" r="V5" s="7">
+      <c r="V5" s="7" t="n">
         <v>99.2</v>
       </c>
     </row>
-    <row spans="1:22" r="6">
-      <c t="n" r="A6" s="4">
+    <row r="6" spans="1:22">
+      <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
-      <c t="s" r="B6" s="4">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c t="n" r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>117</v>
       </c>
-      <c t="n" r="D6" s="6">
+      <c r="D6" s="6" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c t="n" r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>163</v>
       </c>
-      <c t="n" r="F6" s="6">
+      <c r="F6" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c t="n" r="G6" s="9">
+      <c r="G6" s="9" t="n">
         <v>675</v>
       </c>
-      <c t="n" r="H6" s="6">
+      <c r="H6" s="6" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c t="n" r="I6" s="5">
+      <c r="I6" s="5" t="n">
         <v>109</v>
       </c>
-      <c t="n" r="J6" s="6">
+      <c r="J6" s="6" t="n">
         <v>97.8</v>
       </c>
-      <c t="n" r="K6" s="5">
+      <c r="K6" s="5" t="n">
         <v>13</v>
       </c>
-      <c t="n" r="L6" s="6">
+      <c r="L6" s="6" t="n">
         <v>99.7</v>
       </c>
-      <c t="n" r="M6" s="9">
+      <c r="M6" s="9" t="n">
         <v>178</v>
       </c>
-      <c t="n" r="N6" s="6">
+      <c r="N6" s="6" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c t="n" r="O6" s="5">
+      <c r="O6" s="5" t="n">
         <v>255</v>
       </c>
-      <c t="n" r="P6" s="6">
+      <c r="P6" s="6" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c t="n" r="Q6" s="5">
+      <c r="Q6" s="5" t="n">
         <v>58</v>
       </c>
-      <c t="n" r="R6" s="6">
+      <c r="R6" s="6" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c t="n" r="S6" s="5">
+      <c r="S6" s="5" t="n">
         <v>91</v>
       </c>
-      <c t="n" r="T6" s="6">
+      <c r="T6" s="6" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c t="n" r="V6" s="7">
+      <c r="V6" s="7" t="n">
         <v>98.59999999999999</v>
       </c>
     </row>
-    <row spans="1:22" r="7">
-      <c t="n" r="A7" s="1">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c t="s" r="B7" s="1">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="n" r="C7" s="9">
+      <c r="C7" s="9" t="n">
         <v>429</v>
       </c>
-      <c t="n" r="D7" s="8">
+      <c r="D7" s="8" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c t="n" r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>174</v>
       </c>
-      <c t="n" r="F7" s="8">
+      <c r="F7" s="8" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c t="n" r="G7" s="5">
+      <c r="G7" s="5" t="n">
         <v>322</v>
       </c>
-      <c t="n" r="H7" s="8">
+      <c r="H7" s="8" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c t="n" r="I7" s="9">
+      <c r="I7" s="9" t="n">
         <v>492</v>
       </c>
-      <c t="n" r="J7" s="8">
+      <c r="J7" s="8" t="n">
         <v>85</v>
       </c>
-      <c t="n" r="K7" s="5">
+      <c r="K7" s="5" t="n">
         <v>335</v>
       </c>
-      <c t="n" r="L7" s="8">
+      <c r="L7" s="8" t="n">
         <v>92.3</v>
       </c>
-      <c t="n" r="M7" s="9">
+      <c r="M7" s="9" t="n">
         <v>269</v>
       </c>
-      <c t="n" r="N7" s="8">
+      <c r="N7" s="8" t="n">
         <v>88.8</v>
       </c>
-      <c t="n" r="O7" s="5">
+      <c r="O7" s="5" t="n">
         <v>311</v>
       </c>
-      <c t="n" r="P7" s="8">
+      <c r="P7" s="8" t="n">
         <v>94</v>
       </c>
-      <c t="n" r="Q7" s="5">
+      <c r="Q7" s="5" t="n">
         <v>107</v>
       </c>
-      <c t="n" r="R7" s="8">
+      <c r="R7" s="8" t="n">
         <v>98</v>
       </c>
-      <c t="n" r="S7" s="5">
+      <c r="S7" s="5" t="n">
         <v>75</v>
       </c>
-      <c t="n" r="T7" s="8">
+      <c r="T7" s="8" t="n">
         <v>98.7</v>
       </c>
-      <c t="n" r="V7" s="7">
+      <c r="V7" s="7" t="n">
         <v>98.3</v>
       </c>
     </row>
-    <row spans="1:22" r="8">
-      <c t="n" r="A8" s="4">
+    <row r="8" spans="1:22">
+      <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
-      <c t="s" r="B8" s="4">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c t="n" r="C8" s="5">
+      <c r="C8" s="5" t="n">
         <v>112</v>
       </c>
-      <c t="n" r="D8" s="6">
+      <c r="D8" s="6" t="n">
         <v>97.5</v>
       </c>
-      <c t="n" r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>164</v>
       </c>
-      <c t="n" r="F8" s="6">
+      <c r="F8" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c t="n" r="G8" s="5">
+      <c r="G8" s="5" t="n">
         <v>154</v>
       </c>
-      <c t="n" r="H8" s="6">
+      <c r="H8" s="6" t="n">
         <v>96.8</v>
       </c>
-      <c t="n" r="I8" s="9">
+      <c r="I8" s="9" t="n">
         <v>637</v>
       </c>
-      <c t="n" r="J8" s="6">
+      <c r="J8" s="6" t="n">
         <v>82</v>
       </c>
-      <c t="n" r="K8" s="5">
+      <c r="K8" s="5" t="n">
         <v>142</v>
       </c>
-      <c t="n" r="L8" s="6">
+      <c r="L8" s="6" t="n">
         <v>96.7</v>
       </c>
-      <c t="n" r="M8" s="9">
+      <c r="M8" s="9" t="n">
         <v>149</v>
       </c>
-      <c t="n" r="N8" s="6">
+      <c r="N8" s="6" t="n">
         <v>91.59999999999999</v>
       </c>
-      <c t="n" r="O8" s="9">
+      <c r="O8" s="9" t="n">
         <v>418</v>
       </c>
-      <c t="n" r="P8" s="6">
+      <c r="P8" s="6" t="n">
         <v>87</v>
       </c>
-      <c t="n" r="Q8" s="5">
+      <c r="Q8" s="5" t="n">
         <v>269</v>
       </c>
-      <c t="n" r="R8" s="6">
+      <c r="R8" s="6" t="n">
         <v>95</v>
       </c>
-      <c t="n" r="S8" s="5">
+      <c r="S8" s="5" t="n">
         <v>20</v>
       </c>
-      <c t="n" r="T8" s="6">
+      <c r="T8" s="6" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c t="n" r="V8" s="7">
+      <c r="V8" s="7" t="n">
         <v>97.3</v>
       </c>
     </row>
-    <row spans="1:22" r="9">
-      <c t="n" r="A9" s="1">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
-      <c t="s" r="B9" s="1">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="n" r="C9" s="9">
+      <c r="C9" s="9" t="n">
         <v>514</v>
       </c>
-      <c t="n" r="D9" s="8">
+      <c r="D9" s="8" t="n">
         <v>83.5</v>
       </c>
-      <c t="n" r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>128</v>
       </c>
-      <c t="n" r="F9" s="8">
+      <c r="F9" s="8" t="n">
         <v>97.3</v>
       </c>
-      <c t="n" r="G9" s="5">
+      <c r="G9" s="5" t="n">
         <v>222</v>
       </c>
-      <c t="n" r="H9" s="8">
+      <c r="H9" s="8" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c t="n" r="I9" s="9">
+      <c r="I9" s="9" t="n">
         <v>250</v>
       </c>
-      <c t="n" r="J9" s="8">
+      <c r="J9" s="8" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c t="n" r="K9" s="5">
+      <c r="K9" s="5" t="n">
         <v>194</v>
       </c>
-      <c t="n" r="L9" s="8">
+      <c r="L9" s="8" t="n">
         <v>95.5</v>
       </c>
-      <c t="n" r="M9" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O9" s="5">
+      <c r="M9" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="n">
         <v>98</v>
       </c>
-      <c t="n" r="P9" s="8">
+      <c r="P9" s="8" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c t="n" r="Q9" s="5">
+      <c r="Q9" s="5" t="n">
         <v>230</v>
       </c>
-      <c t="n" r="R9" s="8">
+      <c r="R9" s="8" t="n">
         <v>95.7</v>
       </c>
-      <c t="n" r="S9" s="9">
+      <c r="S9" s="9" t="n">
         <v>112</v>
       </c>
-      <c t="n" r="T9" s="8">
+      <c r="T9" s="8" t="n">
         <v>93</v>
       </c>
-      <c t="n" r="V9" s="7">
+      <c r="V9" s="7" t="n">
         <v>96.90000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="10">
-      <c t="n" r="A10" s="4">
+    <row r="10" spans="1:22">
+      <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c t="s" r="B10" s="4">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c t="n" r="C10" s="5">
+      <c r="C10" s="5" t="n">
         <v>60</v>
       </c>
-      <c t="n" r="D10" s="6">
+      <c r="D10" s="6" t="n">
         <v>98.7</v>
       </c>
-      <c t="n" r="E10" s="9">
+      <c r="E10" s="9" t="n">
         <v>454</v>
       </c>
-      <c t="n" r="F10" s="6">
+      <c r="F10" s="6" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c t="n" r="G10" s="5">
+      <c r="G10" s="5" t="n">
         <v>425</v>
       </c>
-      <c t="n" r="H10" s="6">
+      <c r="H10" s="6" t="n">
         <v>91.2</v>
       </c>
-      <c t="n" r="I10" s="5">
+      <c r="I10" s="5" t="n">
         <v>103</v>
       </c>
-      <c t="n" r="J10" s="6">
+      <c r="J10" s="6" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c t="n" r="K10" s="5">
+      <c r="K10" s="5" t="n">
         <v>128</v>
       </c>
-      <c t="n" r="L10" s="6">
+      <c r="L10" s="6" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c t="n" r="M10" s="9">
+      <c r="M10" s="9" t="n">
         <v>239</v>
       </c>
-      <c t="n" r="N10" s="6">
+      <c r="N10" s="6" t="n">
         <v>89.5</v>
       </c>
-      <c t="n" r="O10" s="5">
+      <c r="O10" s="5" t="n">
         <v>318</v>
       </c>
-      <c t="n" r="P10" s="6">
+      <c r="P10" s="6" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c t="n" r="Q10" s="5">
+      <c r="Q10" s="5" t="n">
         <v>292</v>
       </c>
-      <c t="n" r="R10" s="6">
+      <c r="R10" s="6" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c t="n" r="S10" s="5">
+      <c r="S10" s="5" t="n">
         <v>88</v>
       </c>
-      <c t="n" r="T10" s="6">
+      <c r="T10" s="6" t="n">
         <v>98.5</v>
       </c>
-      <c t="n" r="V10" s="7">
+      <c r="V10" s="7" t="n">
         <v>96.5</v>
       </c>
     </row>
-    <row spans="1:22" r="11">
-      <c t="n" r="A11" s="1">
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
-      <c t="s" r="B11" s="1">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="n" r="C11" s="9">
+      <c r="C11" s="9" t="n">
         <v>565</v>
       </c>
-      <c t="n" r="D11" s="8">
+      <c r="D11" s="8" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c t="n" r="E11" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G11" s="9">
+      <c r="E11" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <v>845</v>
       </c>
-      <c t="n" r="H11" s="8">
+      <c r="H11" s="8" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c t="n" r="I11" s="9">
+      <c r="I11" s="9" t="n">
         <v>419</v>
       </c>
-      <c t="n" r="J11" s="8">
+      <c r="J11" s="8" t="n">
         <v>86.5</v>
       </c>
-      <c t="n" r="K11" s="5">
+      <c r="K11" s="5" t="n">
         <v>711</v>
       </c>
-      <c t="n" r="L11" s="8">
+      <c r="L11" s="8" t="n">
         <v>83.7</v>
       </c>
-      <c t="n" r="M11" s="5">
+      <c r="M11" s="5" t="n">
         <v>100</v>
       </c>
-      <c t="n" r="N11" s="8">
+      <c r="N11" s="8" t="n">
         <v>97.7</v>
       </c>
-      <c t="n" r="O11" s="5">
+      <c r="O11" s="5" t="n">
         <v>53</v>
       </c>
-      <c t="n" r="P11" s="8">
+      <c r="P11" s="8" t="n">
         <v>99</v>
       </c>
-      <c t="n" r="Q11" s="5">
+      <c r="Q11" s="5" t="n">
         <v>648</v>
       </c>
-      <c t="n" r="R11" s="8">
+      <c r="R11" s="8" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c t="n" r="S11" s="9">
+      <c r="S11" s="9" t="n">
         <v>281</v>
       </c>
-      <c t="n" r="T11" s="8">
+      <c r="T11" s="8" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c t="n" r="V11" s="7">
+      <c r="V11" s="7" t="n">
         <v>94.5</v>
       </c>
     </row>
-    <row spans="1:22" r="12">
-      <c t="n" r="A12" s="4">
+    <row r="12" spans="1:22">
+      <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c t="s" r="B12" s="4">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c t="n" r="C12" s="9">
+      <c r="C12" s="9" t="n">
         <v>233</v>
       </c>
-      <c t="n" r="D12" s="6">
+      <c r="D12" s="6" t="n">
         <v>89.8</v>
       </c>
-      <c t="n" r="E12" s="10">
+      <c r="E12" s="10" t="n">
         <v>2069</v>
       </c>
-      <c t="n" r="F12" s="6">
+      <c r="F12" s="6" t="n">
         <v>47</v>
       </c>
-      <c t="n" r="G12" s="5">
+      <c r="G12" s="5" t="n">
         <v>178</v>
       </c>
-      <c t="n" r="H12" s="6">
+      <c r="H12" s="6" t="n">
         <v>96.3</v>
       </c>
-      <c t="n" r="I12" s="5">
+      <c r="I12" s="5" t="n">
         <v>61</v>
       </c>
-      <c t="n" r="J12" s="6">
+      <c r="J12" s="6" t="n">
         <v>98.8</v>
       </c>
-      <c t="n" r="K12" s="5">
+      <c r="K12" s="5" t="n">
         <v>355</v>
       </c>
-      <c t="n" r="L12" s="6">
+      <c r="L12" s="6" t="n">
         <v>91.8</v>
       </c>
-      <c t="n" r="M12" s="5">
+      <c r="M12" s="5" t="n">
         <v>127</v>
       </c>
-      <c t="n" r="N12" s="6">
+      <c r="N12" s="6" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c t="n" r="O12" s="5">
+      <c r="O12" s="5" t="n">
         <v>226</v>
       </c>
-      <c t="n" r="P12" s="6">
+      <c r="P12" s="6" t="n">
         <v>95.7</v>
       </c>
-      <c t="n" r="Q12" s="5">
+      <c r="Q12" s="5" t="n">
         <v>515</v>
       </c>
-      <c t="n" r="R12" s="6">
+      <c r="R12" s="6" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c t="n" r="S12" s="9">
+      <c r="S12" s="9" t="n">
         <v>104</v>
       </c>
-      <c t="n" r="T12" s="6">
+      <c r="T12" s="6" t="n">
         <v>93.2</v>
       </c>
-      <c t="n" r="V12" s="7">
+      <c r="V12" s="7" t="n">
         <v>94.5</v>
       </c>
     </row>
-    <row spans="1:22" r="13">
-      <c t="n" r="A13" s="1">
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
-      <c t="s" r="B13" s="1">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c t="n" r="C13" s="11">
+      <c r="C13" s="11" t="n">
         <v>1455</v>
       </c>
-      <c t="n" r="D13" s="8">
+      <c r="D13" s="8" t="n">
         <v>52.5</v>
       </c>
-      <c t="n" r="E13" s="9">
+      <c r="E13" s="9" t="n">
         <v>1023</v>
       </c>
-      <c t="n" r="F13" s="8">
+      <c r="F13" s="8" t="n">
         <v>73.7</v>
       </c>
-      <c t="n" r="G13" s="5">
+      <c r="G13" s="5" t="n">
         <v>345</v>
       </c>
-      <c t="n" r="H13" s="8">
+      <c r="H13" s="8" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c t="n" r="I13" s="5">
+      <c r="I13" s="5" t="n">
         <v>184</v>
       </c>
-      <c t="n" r="J13" s="8">
+      <c r="J13" s="8" t="n">
         <v>96.2</v>
       </c>
-      <c t="n" r="K13" s="5">
+      <c r="K13" s="5" t="n">
         <v>170</v>
       </c>
-      <c t="n" r="L13" s="8">
+      <c r="L13" s="8" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c t="n" r="M13" s="5">
+      <c r="M13" s="5" t="n">
         <v>97</v>
       </c>
-      <c t="n" r="N13" s="8">
+      <c r="N13" s="8" t="n">
         <v>97.8</v>
       </c>
-      <c t="n" r="O13" s="5">
+      <c r="O13" s="5" t="n">
         <v>56</v>
       </c>
-      <c t="n" r="P13" s="8">
+      <c r="P13" s="8" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c t="n" r="Q13" s="5">
+      <c r="Q13" s="5" t="n">
         <v>540</v>
       </c>
-      <c t="n" r="R13" s="8">
+      <c r="R13" s="8" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c t="n" r="S13" s="9">
+      <c r="S13" s="9" t="n">
         <v>1102</v>
       </c>
-      <c t="n" r="T13" s="8">
+      <c r="T13" s="8" t="n">
         <v>75.7</v>
       </c>
-      <c t="n" r="V13" s="7">
+      <c r="V13" s="7" t="n">
         <v>94.40000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="14">
-      <c t="n" r="A14" s="4">
+    <row r="14" spans="1:22">
+      <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
-      <c t="s" r="B14" s="4">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c t="n" r="C14" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E14" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G14" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I14" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K14" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M14" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O14" s="9">
+      <c r="C14" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="n">
         <v>637</v>
       </c>
-      <c t="n" r="P14" s="6">
+      <c r="P14" s="6" t="n">
         <v>82.8</v>
       </c>
-      <c t="n" r="Q14" s="5">
+      <c r="Q14" s="5" t="n">
         <v>229</v>
       </c>
-      <c t="n" r="R14" s="6">
+      <c r="R14" s="6" t="n">
         <v>95.7</v>
       </c>
-      <c t="n" r="S14" s="9">
+      <c r="S14" s="9" t="n">
         <v>185</v>
       </c>
-      <c t="n" r="T14" s="6">
+      <c r="T14" s="6" t="n">
         <v>91.8</v>
       </c>
-      <c t="n" r="V14" s="7">
+      <c r="V14" s="7" t="n">
         <v>93.8</v>
       </c>
     </row>
-    <row spans="1:22" r="15">
-      <c t="n" r="A15" s="1">
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
-      <c t="s" r="B15" s="1">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c t="n" r="C15" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E15" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G15" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I15" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K15" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M15" s="11">
+      <c r="C15" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11" t="n">
         <v>1800</v>
       </c>
-      <c t="n" r="N15" s="8">
+      <c r="N15" s="8" t="n">
         <v>43.5</v>
       </c>
-      <c t="n" r="O15" s="5">
+      <c r="O15" s="5" t="n">
         <v>321</v>
       </c>
-      <c t="n" r="P15" s="8">
+      <c r="P15" s="8" t="n">
         <v>93.8</v>
       </c>
-      <c t="n" r="Q15" s="5">
+      <c r="Q15" s="5" t="n">
         <v>379</v>
       </c>
-      <c t="n" r="R15" s="8">
+      <c r="R15" s="8" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c t="n" r="S15" s="10">
+      <c r="S15" s="10" t="n">
         <v>1268</v>
       </c>
-      <c t="n" r="T15" s="8">
+      <c r="T15" s="8" t="n">
         <v>67.8</v>
       </c>
-      <c t="n" r="V15" s="7">
+      <c r="V15" s="7" t="n">
         <v>93.3</v>
       </c>
     </row>
-    <row spans="1:22" r="16">
-      <c t="n" r="A16" s="4">
+    <row r="16" spans="1:22">
+      <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
-      <c t="s" r="B16" s="4">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c t="n" r="C16" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E16" s="9">
+      <c r="C16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <v>1043</v>
       </c>
-      <c t="n" r="F16" s="6">
+      <c r="F16" s="6" t="n">
         <v>73.3</v>
       </c>
-      <c t="n" r="G16" s="10">
+      <c r="G16" s="10" t="n">
         <v>2069</v>
       </c>
-      <c t="n" r="H16" s="6">
+      <c r="H16" s="6" t="n">
         <v>47.3</v>
       </c>
-      <c t="n" r="I16" s="10">
+      <c r="I16" s="10" t="n">
         <v>790</v>
       </c>
-      <c t="n" r="J16" s="6">
+      <c r="J16" s="6" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c t="n" r="K16" s="9">
+      <c r="K16" s="9" t="n">
         <v>1060</v>
       </c>
-      <c t="n" r="L16" s="6">
+      <c r="L16" s="6" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c t="n" r="M16" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O16" s="5">
+      <c r="M16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5" t="n">
         <v>324</v>
       </c>
-      <c t="n" r="P16" s="6">
+      <c r="P16" s="6" t="n">
         <v>93.8</v>
       </c>
-      <c t="n" r="Q16" s="5">
+      <c r="Q16" s="5" t="n">
         <v>614</v>
       </c>
-      <c t="n" r="R16" s="6">
+      <c r="R16" s="6" t="n">
         <v>88.5</v>
       </c>
-      <c t="n" r="S16" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="V16" s="7">
+      <c r="S16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7" t="n">
         <v>91.2</v>
       </c>
     </row>
-    <row spans="1:22" r="17">
-      <c t="n" r="A17" s="1">
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
-      <c t="s" r="B17" s="1">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c t="n" r="C17" s="9">
+      <c r="C17" s="9" t="n">
         <v>641</v>
       </c>
-      <c t="n" r="D17" s="8">
+      <c r="D17" s="8" t="n">
         <v>80.7</v>
       </c>
-      <c t="n" r="E17" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G17" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I17" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K17" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M17" s="11">
+      <c r="E17" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11" t="n">
         <v>1623</v>
       </c>
-      <c t="n" r="N17" s="8">
+      <c r="N17" s="8" t="n">
         <v>47.6</v>
       </c>
-      <c t="n" r="O17" s="10">
+      <c r="O17" s="10" t="n">
         <v>927</v>
       </c>
-      <c t="n" r="P17" s="8">
+      <c r="P17" s="8" t="n">
         <v>72.2</v>
       </c>
-      <c t="n" r="Q17" s="5">
+      <c r="Q17" s="5" t="n">
         <v>642</v>
       </c>
-      <c t="n" r="R17" s="8">
+      <c r="R17" s="8" t="n">
         <v>88</v>
       </c>
-      <c t="n" r="S17" s="9">
+      <c r="S17" s="9" t="n">
         <v>204</v>
       </c>
-      <c t="n" r="T17" s="8">
+      <c r="T17" s="8" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c t="n" r="V17" s="7">
+      <c r="V17" s="7" t="n">
         <v>89.7</v>
       </c>
     </row>
-    <row spans="1:22" r="18">
-      <c t="n" r="A18" s="4">
+    <row r="18" spans="1:22">
+      <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
-      <c t="s" r="B18" s="4">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c t="n" r="C18" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E18" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G18" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I18" s="9">
+      <c r="C18" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
         <v>541</v>
       </c>
-      <c t="n" r="J18" s="6">
+      <c r="J18" s="6" t="n">
         <v>84</v>
       </c>
-      <c t="n" r="K18" s="10">
+      <c r="K18" s="10" t="n">
         <v>1344</v>
       </c>
-      <c t="n" r="L18" s="6">
+      <c r="L18" s="6" t="n">
         <v>59.1</v>
       </c>
-      <c t="n" r="M18" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O18" s="10">
+      <c r="M18" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10" t="n">
         <v>1256</v>
       </c>
-      <c t="n" r="P18" s="6">
+      <c r="P18" s="6" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c t="n" r="Q18" s="5">
+      <c r="Q18" s="5" t="n">
         <v>225</v>
       </c>
-      <c t="n" r="R18" s="6">
+      <c r="R18" s="6" t="n">
         <v>95.8</v>
       </c>
-      <c t="n" r="S18" s="9">
+      <c r="S18" s="9" t="n">
         <v>773</v>
       </c>
-      <c t="n" r="T18" s="6">
+      <c r="T18" s="6" t="n">
         <v>81.5</v>
       </c>
-      <c t="n" r="V18" s="7">
+      <c r="V18" s="7" t="n">
         <v>88.7</v>
       </c>
     </row>
-    <row spans="1:22" r="19">
-      <c t="n" r="A19" s="1">
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
-      <c t="s" r="B19" s="1">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c t="n" r="C19" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E19" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G19" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I19" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K19" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M19" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O19" s="9">
+      <c r="C19" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9" t="n">
         <v>742</v>
       </c>
-      <c t="n" r="P19" s="8">
+      <c r="P19" s="8" t="n">
         <v>80.8</v>
       </c>
-      <c t="n" r="Q19" s="5">
+      <c r="Q19" s="5" t="n">
         <v>336</v>
       </c>
-      <c t="n" r="R19" s="8">
+      <c r="R19" s="8" t="n">
         <v>93.7</v>
       </c>
-      <c t="n" r="S19" s="9">
+      <c r="S19" s="9" t="n">
         <v>864</v>
       </c>
-      <c t="n" r="T19" s="8">
+      <c r="T19" s="8" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c t="n" r="V19" s="7">
+      <c r="V19" s="7" t="n">
         <v>87.3</v>
       </c>
     </row>
-    <row spans="1:22" r="20">
-      <c t="n" r="A20" s="4">
+    <row r="20" spans="1:22">
+      <c r="A20" s="4" t="n">
         <v>17</v>
       </c>
-      <c t="s" r="B20" s="4">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c t="n" r="C20" s="9">
+      <c r="C20" s="9" t="n">
         <v>324</v>
       </c>
-      <c t="n" r="D20" s="6">
+      <c r="D20" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c t="n" r="E20" s="5">
+      <c r="E20" s="5" t="n">
         <v>100</v>
       </c>
-      <c t="n" r="F20" s="6">
+      <c r="F20" s="6" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c t="n" r="G20" s="5">
+      <c r="G20" s="5" t="n">
         <v>74</v>
       </c>
-      <c t="n" r="H20" s="6">
+      <c r="H20" s="6" t="n">
         <v>98.5</v>
       </c>
-      <c t="n" r="I20" s="5">
+      <c r="I20" s="5" t="n">
         <v>111</v>
       </c>
-      <c t="n" r="J20" s="6">
+      <c r="J20" s="6" t="n">
         <v>97.7</v>
       </c>
-      <c t="n" r="K20" s="5">
+      <c r="K20" s="5" t="n">
         <v>262</v>
       </c>
-      <c t="n" r="L20" s="6">
+      <c r="L20" s="6" t="n">
         <v>94</v>
       </c>
-      <c t="n" r="M20" s="9">
+      <c r="M20" s="9" t="n">
         <v>183</v>
       </c>
-      <c t="n" r="N20" s="6">
+      <c r="N20" s="6" t="n">
         <v>90.8</v>
       </c>
-      <c t="n" r="O20" s="10">
+      <c r="O20" s="10" t="n">
         <v>902</v>
       </c>
-      <c t="n" r="P20" s="6">
+      <c r="P20" s="6" t="n">
         <v>72.7</v>
       </c>
-      <c t="n" r="Q20" s="5">
+      <c r="Q20" s="5" t="n">
         <v>631</v>
       </c>
-      <c t="n" r="R20" s="6">
+      <c r="R20" s="6" t="n">
         <v>88.2</v>
       </c>
-      <c t="n" r="S20" s="9">
+      <c r="S20" s="9" t="n">
         <v>499</v>
       </c>
-      <c t="n" r="T20" s="6">
+      <c r="T20" s="6" t="n">
         <v>86.3</v>
       </c>
-      <c t="n" r="V20" s="7">
+      <c r="V20" s="7" t="n">
         <v>87.2</v>
       </c>
     </row>
-    <row spans="1:22" r="21">
-      <c t="n" r="A21" s="1">
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
-      <c t="s" r="B21" s="1">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c t="n" r="C21" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E21" s="9">
+      <c r="C21" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
         <v>958</v>
       </c>
-      <c t="n" r="F21" s="8">
+      <c r="F21" s="8" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c t="n" r="G21" s="9">
+      <c r="G21" s="9" t="n">
         <v>817</v>
       </c>
-      <c t="n" r="H21" s="8">
+      <c r="H21" s="8" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c t="n" r="I21" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K21" s="10">
+      <c r="I21" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="n">
         <v>1458</v>
       </c>
-      <c t="n" r="L21" s="8">
+      <c r="L21" s="8" t="n">
         <v>56.5</v>
       </c>
-      <c t="n" r="M21" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O21" s="9">
+      <c r="M21" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9" t="n">
         <v>510</v>
       </c>
-      <c t="n" r="P21" s="8">
+      <c r="P21" s="8" t="n">
         <v>85.2</v>
       </c>
-      <c t="n" r="Q21" s="11">
+      <c r="Q21" s="11" t="n">
         <v>2698</v>
       </c>
-      <c t="n" r="R21" s="8">
+      <c r="R21" s="8" t="n">
         <v>34.7</v>
       </c>
-      <c t="n" r="S21" s="10">
+      <c r="S21" s="10" t="n">
         <v>96</v>
       </c>
-      <c t="n" r="T21" s="8">
+      <c r="T21" s="8" t="n">
         <v>88.3</v>
       </c>
-      <c t="n" r="V21" s="7">
+      <c r="V21" s="7" t="n">
         <v>86.8</v>
       </c>
     </row>
-    <row spans="1:22" r="22">
-      <c t="n" r="A22" s="4">
+    <row r="22" spans="1:22">
+      <c r="A22" s="4" t="n">
         <v>19</v>
       </c>
-      <c t="s" r="B22" s="4">
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c t="n" r="C22" s="10">
+      <c r="C22" s="10" t="n">
         <v>1266</v>
       </c>
-      <c t="n" r="D22" s="6">
+      <c r="D22" s="6" t="n">
         <v>61.8</v>
       </c>
-      <c t="n" r="E22" s="9">
+      <c r="E22" s="9" t="n">
         <v>345</v>
       </c>
-      <c t="n" r="F22" s="6">
+      <c r="F22" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c t="n" r="G22" s="5">
+      <c r="G22" s="5" t="n">
         <v>339</v>
       </c>
-      <c t="n" r="H22" s="6">
+      <c r="H22" s="6" t="n">
         <v>93</v>
       </c>
-      <c t="n" r="I22" s="9">
+      <c r="I22" s="9" t="n">
         <v>488</v>
       </c>
-      <c t="n" r="J22" s="6">
+      <c r="J22" s="6" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c t="n" r="K22" s="5">
+      <c r="K22" s="5" t="n">
         <v>483</v>
       </c>
-      <c t="n" r="L22" s="6">
+      <c r="L22" s="6" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c t="n" r="M22" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O22" s="9">
+      <c r="M22" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9" t="n">
         <v>649</v>
       </c>
-      <c t="n" r="P22" s="6">
+      <c r="P22" s="6" t="n">
         <v>82.59999999999999</v>
       </c>
-      <c t="n" r="Q22" s="9">
+      <c r="Q22" s="9" t="n">
         <v>1480</v>
       </c>
-      <c t="n" r="R22" s="6">
+      <c r="R22" s="6" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c t="n" r="S22" s="9">
+      <c r="S22" s="9" t="n">
         <v>310</v>
       </c>
-      <c t="n" r="T22" s="6">
+      <c r="T22" s="6" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c t="n" r="V22" s="7">
+      <c r="V22" s="7" t="n">
         <v>86.09999999999999</v>
       </c>
     </row>
-    <row spans="1:22" r="23">
-      <c t="n" r="A23" s="1">
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
-      <c t="s" r="B23" s="1">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c t="n" r="C23" s="9">
+      <c r="C23" s="9" t="n">
         <v>301</v>
       </c>
-      <c t="n" r="D23" s="8">
+      <c r="D23" s="8" t="n">
         <v>88.3</v>
       </c>
-      <c t="n" r="E23" s="9">
+      <c r="E23" s="9" t="n">
         <v>344</v>
       </c>
-      <c t="n" r="F23" s="8">
+      <c r="F23" s="8" t="n">
         <v>87.8</v>
       </c>
-      <c t="n" r="G23" s="5">
+      <c r="G23" s="5" t="n">
         <v>232</v>
       </c>
-      <c t="n" r="H23" s="8">
+      <c r="H23" s="8" t="n">
         <v>95.2</v>
       </c>
-      <c t="n" r="I23" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K23" s="5">
+      <c r="I23" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="n">
         <v>172</v>
       </c>
-      <c t="n" r="L23" s="8">
+      <c r="L23" s="8" t="n">
         <v>96</v>
       </c>
-      <c t="n" r="M23" s="9">
+      <c r="M23" s="9" t="n">
         <v>437</v>
       </c>
-      <c t="n" r="N23" s="8">
+      <c r="N23" s="8" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c t="n" r="O23" s="10">
+      <c r="O23" s="10" t="n">
         <v>918</v>
       </c>
-      <c t="n" r="P23" s="8">
+      <c r="P23" s="8" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c t="n" r="Q23" s="5">
+      <c r="Q23" s="5" t="n">
         <v>328</v>
       </c>
-      <c t="n" r="R23" s="8">
+      <c r="R23" s="8" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c t="n" r="S23" s="9">
+      <c r="S23" s="9" t="n">
         <v>1019</v>
       </c>
-      <c t="n" r="T23" s="8">
+      <c r="T23" s="8" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c t="n" r="V23" s="7">
+      <c r="V23" s="7" t="n">
         <v>85.5</v>
       </c>
     </row>
-    <row spans="1:22" r="24">
-      <c t="n" r="A24" s="4">
+    <row r="24" spans="1:22">
+      <c r="A24" s="4" t="n">
         <v>21</v>
       </c>
-      <c t="s" r="B24" s="4">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c t="n" r="C24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I24" s="5">
+      <c r="C24" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>169</v>
       </c>
-      <c t="n" r="J24" s="6">
+      <c r="J24" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c t="n" r="K24" s="5">
+      <c r="K24" s="5" t="n">
         <v>179</v>
       </c>
-      <c t="n" r="L24" s="6">
+      <c r="L24" s="6" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c t="n" r="M24" s="10">
+      <c r="M24" s="10" t="n">
         <v>597</v>
       </c>
-      <c t="n" r="N24" s="6">
+      <c r="N24" s="6" t="n">
         <v>76.2</v>
       </c>
-      <c t="n" r="O24" s="10">
+      <c r="O24" s="10" t="n">
         <v>1244</v>
       </c>
-      <c t="n" r="P24" s="6">
+      <c r="P24" s="6" t="n">
         <v>66.2</v>
       </c>
-      <c t="n" r="Q24" s="5">
+      <c r="Q24" s="5" t="n">
         <v>371</v>
       </c>
-      <c t="n" r="R24" s="6">
+      <c r="R24" s="6" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c t="n" r="S24" s="9">
+      <c r="S24" s="9" t="n">
         <v>1048</v>
       </c>
-      <c t="n" r="T24" s="6">
+      <c r="T24" s="6" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c t="n" r="V24" s="7">
+      <c r="V24" s="7" t="n">
         <v>84.8</v>
       </c>
     </row>
-    <row spans="1:22" r="25">
-      <c t="n" r="A25" s="1">
+    <row r="25" spans="1:22">
+      <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
-      <c t="s" r="B25" s="1">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c t="n" r="C25" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E25" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G25" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I25" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K25" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M25" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O25" s="10">
+      <c r="C25" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10" t="n">
         <v>1124</v>
       </c>
-      <c t="n" r="P25" s="8">
+      <c r="P25" s="8" t="n">
         <v>68.5</v>
       </c>
-      <c t="n" r="Q25" s="5">
+      <c r="Q25" s="5" t="n">
         <v>402</v>
       </c>
-      <c t="n" r="R25" s="8">
+      <c r="R25" s="8" t="n">
         <v>92.5</v>
       </c>
-      <c t="n" r="S25" s="9">
+      <c r="S25" s="9" t="n">
         <v>1041</v>
       </c>
-      <c t="n" r="T25" s="8">
+      <c r="T25" s="8" t="n">
         <v>76.8</v>
       </c>
-      <c t="n" r="V25" s="7">
+      <c r="V25" s="7" t="n">
         <v>84.7</v>
       </c>
     </row>
-    <row spans="1:22" r="26">
-      <c t="n" r="A26" s="4">
+    <row r="26" spans="1:22">
+      <c r="A26" s="4" t="n">
         <v>23</v>
       </c>
-      <c t="s" r="B26" s="4">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c t="n" r="C26" s="10">
+      <c r="C26" s="10" t="n">
         <v>1117</v>
       </c>
-      <c t="n" r="D26" s="6">
+      <c r="D26" s="6" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c t="n" r="E26" s="9">
+      <c r="E26" s="9" t="n">
         <v>459</v>
       </c>
-      <c t="n" r="F26" s="6">
+      <c r="F26" s="6" t="n">
         <v>85.5</v>
       </c>
-      <c t="n" r="G26" s="9">
+      <c r="G26" s="9" t="n">
         <v>846</v>
       </c>
-      <c t="n" r="H26" s="6">
+      <c r="H26" s="6" t="n">
         <v>77.5</v>
       </c>
-      <c t="n" r="I26" s="10">
+      <c r="I26" s="10" t="n">
         <v>828</v>
       </c>
-      <c t="n" r="J26" s="6">
+      <c r="J26" s="6" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c t="n" r="K26" s="10">
+      <c r="K26" s="10" t="n">
         <v>1573</v>
       </c>
-      <c t="n" r="L26" s="6">
+      <c r="L26" s="6" t="n">
         <v>53.9</v>
       </c>
-      <c t="n" r="M26" s="10">
+      <c r="M26" s="10" t="n">
         <v>885</v>
       </c>
-      <c t="n" r="N26" s="6">
+      <c r="N26" s="6" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c t="n" r="O26" s="10">
+      <c r="O26" s="10" t="n">
         <v>1338</v>
       </c>
-      <c t="n" r="P26" s="6">
+      <c r="P26" s="6" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c t="n" r="Q26" s="9">
+      <c r="Q26" s="9" t="n">
         <v>859</v>
       </c>
-      <c t="n" r="R26" s="6">
+      <c r="R26" s="6" t="n">
         <v>79</v>
       </c>
-      <c t="n" r="S26" s="9">
+      <c r="S26" s="9" t="n">
         <v>364</v>
       </c>
-      <c t="n" r="T26" s="6">
+      <c r="T26" s="6" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c t="n" r="V26" s="7">
+      <c r="V26" s="7" t="n">
         <v>83.8</v>
       </c>
     </row>
-    <row spans="1:22" r="27">
-      <c t="n" r="A27" s="1">
+    <row r="27" spans="1:22">
+      <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
-      <c t="s" r="B27" s="1">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c t="n" r="C27" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E27" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G27" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I27" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K27" s="5">
+      <c r="C27" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="n">
         <v>352</v>
       </c>
-      <c t="n" r="L27" s="8">
+      <c r="L27" s="8" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c t="n" r="M27" s="10">
+      <c r="M27" s="10" t="n">
         <v>519</v>
       </c>
-      <c t="n" r="N27" s="8">
+      <c r="N27" s="8" t="n">
         <v>78</v>
       </c>
-      <c t="n" r="O27" s="9">
+      <c r="O27" s="9" t="n">
         <v>773</v>
       </c>
-      <c t="n" r="P27" s="8">
+      <c r="P27" s="8" t="n">
         <v>80.2</v>
       </c>
-      <c t="n" r="Q27" s="9">
+      <c r="Q27" s="9" t="n">
         <v>981</v>
       </c>
-      <c t="n" r="R27" s="8">
+      <c r="R27" s="8" t="n">
         <v>76.7</v>
       </c>
-      <c t="n" r="S27" s="9">
+      <c r="S27" s="9" t="n">
         <v>556</v>
       </c>
-      <c t="n" r="T27" s="8">
+      <c r="T27" s="8" t="n">
         <v>85.3</v>
       </c>
-      <c t="n" r="V27" s="7">
+      <c r="V27" s="7" t="n">
         <v>82.8</v>
       </c>
     </row>
-    <row spans="1:22" r="28">
-      <c t="n" r="A28" s="4">
+    <row r="28" spans="1:22">
+      <c r="A28" s="4" t="n">
         <v>25</v>
       </c>
-      <c t="s" r="B28" s="4">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c t="n" r="C28" s="10">
+      <c r="C28" s="10" t="n">
         <v>730</v>
       </c>
-      <c t="n" r="D28" s="6">
+      <c r="D28" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c t="n" r="E28" s="9">
+      <c r="E28" s="9" t="n">
         <v>1024</v>
       </c>
-      <c t="n" r="F28" s="6">
+      <c r="F28" s="6" t="n">
         <v>73.7</v>
       </c>
-      <c t="n" r="G28" s="9">
+      <c r="G28" s="9" t="n">
         <v>557</v>
       </c>
-      <c t="n" r="H28" s="6">
+      <c r="H28" s="6" t="n">
         <v>83.5</v>
       </c>
-      <c t="n" r="I28" s="10">
+      <c r="I28" s="10" t="n">
         <v>1092</v>
       </c>
-      <c t="n" r="J28" s="6">
+      <c r="J28" s="6" t="n">
         <v>67.7</v>
       </c>
-      <c t="n" r="K28" s="5">
+      <c r="K28" s="5" t="n">
         <v>531</v>
       </c>
-      <c t="n" r="L28" s="6">
+      <c r="L28" s="6" t="n">
         <v>87.8</v>
       </c>
-      <c t="n" r="M28" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O28" s="10">
+      <c r="M28" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10" t="n">
         <v>988</v>
       </c>
-      <c t="n" r="P28" s="6">
+      <c r="P28" s="6" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c t="n" r="Q28" s="9">
+      <c r="Q28" s="9" t="n">
         <v>1008</v>
       </c>
-      <c t="n" r="R28" s="6">
+      <c r="R28" s="6" t="n">
         <v>76.2</v>
       </c>
-      <c t="n" r="S28" s="9">
+      <c r="S28" s="9" t="n">
         <v>333</v>
       </c>
-      <c t="n" r="T28" s="6">
+      <c r="T28" s="6" t="n">
         <v>89.2</v>
       </c>
-      <c t="n" r="V28" s="7">
+      <c r="V28" s="7" t="n">
         <v>82.7</v>
       </c>
     </row>
-    <row spans="1:22" r="29">
-      <c t="n" r="A29" s="1">
+    <row r="29" spans="1:22">
+      <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
-      <c t="s" r="B29" s="1">
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c t="n" r="C29" s="10">
+      <c r="C29" s="10" t="n">
         <v>760</v>
       </c>
-      <c t="n" r="D29" s="8">
+      <c r="D29" s="8" t="n">
         <v>73</v>
       </c>
-      <c t="n" r="E29" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G29" s="5">
+      <c r="E29" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
         <v>221</v>
       </c>
-      <c t="n" r="H29" s="8">
+      <c r="H29" s="8" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c t="n" r="I29" s="10">
+      <c r="I29" s="10" t="n">
         <v>1114</v>
       </c>
-      <c t="n" r="J29" s="8">
+      <c r="J29" s="8" t="n">
         <v>67.3</v>
       </c>
-      <c t="n" r="K29" s="9">
+      <c r="K29" s="9" t="n">
         <v>1243</v>
       </c>
-      <c t="n" r="L29" s="8">
+      <c r="L29" s="8" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c t="n" r="M29" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N29" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O29" s="9">
+      <c r="M29" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9" t="n">
         <v>644</v>
       </c>
-      <c t="n" r="P29" s="8">
+      <c r="P29" s="8" t="n">
         <v>82.7</v>
       </c>
-      <c t="n" r="Q29" s="9">
+      <c r="Q29" s="9" t="n">
         <v>735</v>
       </c>
-      <c t="n" r="R29" s="8">
+      <c r="R29" s="8" t="n">
         <v>81.3</v>
       </c>
-      <c t="n" r="S29" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T29" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V29" s="7">
+      <c r="S29" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7" t="n">
         <v>82</v>
       </c>
     </row>
-    <row spans="1:22" r="30">
-      <c t="n" r="A30" s="4">
+    <row r="30" spans="1:22">
+      <c r="A30" s="4" t="n">
         <v>27</v>
       </c>
-      <c t="s" r="B30" s="4">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c t="n" r="C30" s="10">
+      <c r="C30" s="10" t="n">
         <v>952</v>
       </c>
-      <c t="n" r="D30" s="6">
+      <c r="D30" s="6" t="n">
         <v>68.8</v>
       </c>
-      <c t="n" r="E30" s="9">
+      <c r="E30" s="9" t="n">
         <v>886</v>
       </c>
-      <c t="n" r="F30" s="6">
+      <c r="F30" s="6" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c t="n" r="G30" s="10">
+      <c r="G30" s="10" t="n">
         <v>1971</v>
       </c>
-      <c t="n" r="H30" s="6">
+      <c r="H30" s="6" t="n">
         <v>49.3</v>
       </c>
-      <c t="n" r="I30" s="9">
+      <c r="I30" s="9" t="n">
         <v>625</v>
       </c>
-      <c t="n" r="J30" s="6">
+      <c r="J30" s="6" t="n">
         <v>82.3</v>
       </c>
-      <c t="n" r="K30" s="11">
+      <c r="K30" s="11" t="n">
         <v>2045</v>
       </c>
-      <c t="n" r="L30" s="6">
+      <c r="L30" s="6" t="n">
         <v>38</v>
       </c>
-      <c t="n" r="M30" s="10">
+      <c r="M30" s="10" t="n">
         <v>555</v>
       </c>
-      <c t="n" r="N30" s="6">
+      <c r="N30" s="6" t="n">
         <v>77.2</v>
       </c>
-      <c t="n" r="O30" s="11">
+      <c r="O30" s="11" t="n">
         <v>1988</v>
       </c>
-      <c t="n" r="P30" s="6">
+      <c r="P30" s="6" t="n">
         <v>46.9</v>
       </c>
-      <c t="n" r="Q30" s="9">
+      <c r="Q30" s="9" t="n">
         <v>1215</v>
       </c>
-      <c t="n" r="R30" s="6">
+      <c r="R30" s="6" t="n">
         <v>72.3</v>
       </c>
-      <c t="n" r="S30" s="9">
+      <c r="S30" s="9" t="n">
         <v>198</v>
       </c>
-      <c t="n" r="T30" s="6">
+      <c r="T30" s="6" t="n">
         <v>91.5</v>
       </c>
-      <c t="n" r="V30" s="7">
+      <c r="V30" s="7" t="n">
         <v>81.90000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="31">
-      <c t="n" r="A31" s="1">
+    <row r="31" spans="1:22">
+      <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
-      <c t="s" r="B31" s="1">
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c t="n" r="C31" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E31" s="10">
+      <c r="C31" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10" t="n">
         <v>1223</v>
       </c>
-      <c t="n" r="F31" s="8">
+      <c r="F31" s="8" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c t="n" r="G31" s="10">
+      <c r="G31" s="10" t="n">
         <v>1340</v>
       </c>
-      <c t="n" r="H31" s="8">
+      <c r="H31" s="8" t="n">
         <v>62.3</v>
       </c>
-      <c t="n" r="I31" s="10">
+      <c r="I31" s="10" t="n">
         <v>740</v>
       </c>
-      <c t="n" r="J31" s="8">
+      <c r="J31" s="8" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c t="n" r="K31" s="5">
+      <c r="K31" s="5" t="n">
         <v>182</v>
       </c>
-      <c t="n" r="L31" s="8">
+      <c r="L31" s="8" t="n">
         <v>95.8</v>
       </c>
-      <c t="n" r="M31" s="9">
+      <c r="M31" s="9" t="n">
         <v>338</v>
       </c>
-      <c t="n" r="N31" s="8">
+      <c r="N31" s="8" t="n">
         <v>87.2</v>
       </c>
-      <c t="n" r="O31" s="10">
+      <c r="O31" s="10" t="n">
         <v>1232</v>
       </c>
-      <c t="n" r="P31" s="8">
+      <c r="P31" s="8" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c t="n" r="Q31" s="9">
+      <c r="Q31" s="9" t="n">
         <v>1200</v>
       </c>
-      <c t="n" r="R31" s="8">
+      <c r="R31" s="8" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c t="n" r="S31" s="9">
+      <c r="S31" s="9" t="n">
         <v>219</v>
       </c>
-      <c t="n" r="T31" s="8">
+      <c r="T31" s="8" t="n">
         <v>91.2</v>
       </c>
-      <c t="n" r="V31" s="7">
+      <c r="V31" s="7" t="n">
         <v>81.90000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="32">
-      <c t="n" r="A32" s="4">
+    <row r="32" spans="1:22">
+      <c r="A32" s="4" t="n">
         <v>29</v>
       </c>
-      <c t="s" r="B32" s="4">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-      <c t="n" r="C32" s="11">
+      <c r="C32" s="11" t="n">
         <v>2157</v>
       </c>
-      <c t="n" r="D32" s="6">
+      <c r="D32" s="6" t="n">
         <v>36.9</v>
       </c>
-      <c t="n" r="E32" s="10">
+      <c r="E32" s="10" t="n">
         <v>1642</v>
       </c>
-      <c t="n" r="F32" s="6">
+      <c r="F32" s="6" t="n">
         <v>55.9</v>
       </c>
-      <c t="n" r="G32" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I32" s="10">
+      <c r="G32" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="n">
         <v>789</v>
       </c>
-      <c t="n" r="J32" s="6">
+      <c r="J32" s="6" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c t="n" r="K32" s="5">
+      <c r="K32" s="5" t="n">
         <v>794</v>
       </c>
-      <c t="n" r="L32" s="6">
+      <c r="L32" s="6" t="n">
         <v>81.8</v>
       </c>
-      <c t="n" r="M32" s="11">
+      <c r="M32" s="11" t="n">
         <v>1903</v>
       </c>
-      <c t="n" r="N32" s="6">
+      <c r="N32" s="6" t="n">
         <v>41.1</v>
       </c>
-      <c t="n" r="O32" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P32" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q32" s="9">
+      <c r="O32" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9" t="n">
         <v>1319</v>
       </c>
-      <c t="n" r="R32" s="6">
+      <c r="R32" s="6" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c t="n" r="S32" s="9">
+      <c r="S32" s="9" t="n">
         <v>182</v>
       </c>
-      <c t="n" r="T32" s="6">
+      <c r="T32" s="6" t="n">
         <v>91.8</v>
       </c>
-      <c t="n" r="V32" s="7">
+      <c r="V32" s="7" t="n">
         <v>81.09999999999999</v>
       </c>
     </row>
-    <row spans="1:22" r="33">
-      <c t="n" r="A33" s="1">
+    <row r="33" spans="1:22">
+      <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
-      <c t="s" r="B33" s="1">
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c t="n" r="C33" s="10">
+      <c r="C33" s="10" t="n">
         <v>736</v>
       </c>
-      <c t="n" r="D33" s="8">
+      <c r="D33" s="8" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c t="n" r="E33" s="10">
+      <c r="E33" s="10" t="n">
         <v>1283</v>
       </c>
-      <c t="n" r="F33" s="8">
+      <c r="F33" s="8" t="n">
         <v>63.3</v>
       </c>
-      <c t="n" r="G33" s="11">
+      <c r="G33" s="11" t="n">
         <v>2615</v>
       </c>
-      <c t="n" r="H33" s="8">
+      <c r="H33" s="8" t="n">
         <v>31</v>
       </c>
-      <c t="n" r="I33" s="10">
+      <c r="I33" s="10" t="n">
         <v>792</v>
       </c>
-      <c t="n" r="J33" s="8">
+      <c r="J33" s="8" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c t="n" r="K33" s="9">
+      <c r="K33" s="9" t="n">
         <v>1095</v>
       </c>
-      <c t="n" r="L33" s="8">
+      <c r="L33" s="8" t="n">
         <v>69.8</v>
       </c>
-      <c t="n" r="M33" s="10">
+      <c r="M33" s="10" t="n">
         <v>894</v>
       </c>
-      <c t="n" r="N33" s="8">
+      <c r="N33" s="8" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c t="n" r="O33" s="9">
+      <c r="O33" s="9" t="n">
         <v>736</v>
       </c>
-      <c t="n" r="P33" s="8">
+      <c r="P33" s="8" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c t="n" r="Q33" s="9">
+      <c r="Q33" s="9" t="n">
         <v>1281</v>
       </c>
-      <c t="n" r="R33" s="8">
+      <c r="R33" s="8" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c t="n" r="S33" s="9">
+      <c r="S33" s="9" t="n">
         <v>804</v>
       </c>
-      <c t="n" r="T33" s="8">
+      <c r="T33" s="8" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c t="n" r="V33" s="7">
+      <c r="V33" s="7" t="n">
         <v>80.90000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="34">
-      <c t="n" r="A34" s="4">
+    <row r="34" spans="1:22">
+      <c r="A34" s="4" t="n">
         <v>31</v>
       </c>
-      <c t="s" r="B34" s="4">
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-      <c t="n" r="C34" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E34" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G34" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I34" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K34" s="9">
+      <c r="C34" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9" t="n">
         <v>1038</v>
       </c>
-      <c t="n" r="L34" s="6">
+      <c r="L34" s="6" t="n">
         <v>71.2</v>
       </c>
-      <c t="n" r="M34" s="11">
+      <c r="M34" s="11" t="n">
         <v>1235</v>
       </c>
-      <c t="n" r="N34" s="6">
+      <c r="N34" s="6" t="n">
         <v>56.5</v>
       </c>
-      <c t="n" r="O34" s="11">
+      <c r="O34" s="11" t="n">
         <v>2171</v>
       </c>
-      <c t="n" r="P34" s="6">
+      <c r="P34" s="6" t="n">
         <v>43.4</v>
       </c>
-      <c t="n" r="Q34" s="9">
+      <c r="Q34" s="9" t="n">
         <v>1017</v>
       </c>
-      <c t="n" r="R34" s="6">
+      <c r="R34" s="6" t="n">
         <v>76</v>
       </c>
-      <c t="n" r="S34" s="9">
+      <c r="S34" s="9" t="n">
         <v>810</v>
       </c>
-      <c t="n" r="T34" s="6">
+      <c r="T34" s="6" t="n">
         <v>80.8</v>
       </c>
-      <c t="n" r="V34" s="7">
+      <c r="V34" s="7" t="n">
         <v>78.40000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="35">
-      <c t="n" r="A35" s="1">
+    <row r="35" spans="1:22">
+      <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
-      <c t="s" r="B35" s="1">
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c t="n" r="C35" s="11">
+      <c r="C35" s="11" t="n">
         <v>1799</v>
       </c>
-      <c t="n" r="D35" s="8">
+      <c r="D35" s="8" t="n">
         <v>44.9</v>
       </c>
-      <c t="n" r="E35" s="9">
+      <c r="E35" s="9" t="n">
         <v>556</v>
       </c>
-      <c t="n" r="F35" s="8">
+      <c r="F35" s="8" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c t="n" r="G35" s="10">
+      <c r="G35" s="10" t="n">
         <v>1622</v>
       </c>
-      <c t="n" r="H35" s="8">
+      <c r="H35" s="8" t="n">
         <v>56.5</v>
       </c>
-      <c t="n" r="I35" s="10">
+      <c r="I35" s="10" t="n">
         <v>769</v>
       </c>
-      <c t="n" r="J35" s="8">
+      <c r="J35" s="8" t="n">
         <v>74.3</v>
       </c>
-      <c t="n" r="K35" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M35" s="11">
+      <c r="K35" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11" t="n">
         <v>1353</v>
       </c>
-      <c t="n" r="N35" s="8">
+      <c r="N35" s="8" t="n">
         <v>53.8</v>
       </c>
-      <c t="n" r="O35" s="10">
+      <c r="O35" s="10" t="n">
         <v>1133</v>
       </c>
-      <c t="n" r="P35" s="8">
+      <c r="P35" s="8" t="n">
         <v>68.3</v>
       </c>
-      <c t="n" r="Q35" s="9">
+      <c r="Q35" s="9" t="n">
         <v>1778</v>
       </c>
-      <c t="n" r="R35" s="8">
+      <c r="R35" s="8" t="n">
         <v>61.8</v>
       </c>
-      <c t="n" r="S35" s="9">
+      <c r="S35" s="9" t="n">
         <v>596</v>
       </c>
-      <c t="n" r="T35" s="8">
+      <c r="T35" s="8" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c t="n" r="V35" s="7">
+      <c r="V35" s="7" t="n">
         <v>76.40000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="36">
-      <c t="n" r="A36" s="4">
+    <row r="36" spans="1:22">
+      <c r="A36" s="4" t="n">
         <v>33</v>
       </c>
-      <c t="s" r="B36" s="4">
+      <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
-      <c t="n" r="C36" s="11">
+      <c r="C36" s="11" t="n">
         <v>2018</v>
       </c>
-      <c t="n" r="D36" s="6">
+      <c r="D36" s="6" t="n">
         <v>40</v>
       </c>
-      <c t="n" r="E36" s="9">
+      <c r="E36" s="9" t="n">
         <v>510</v>
       </c>
-      <c t="n" r="F36" s="6">
+      <c r="F36" s="6" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c t="n" r="G36" s="10">
+      <c r="G36" s="10" t="n">
         <v>1414</v>
       </c>
-      <c t="n" r="H36" s="6">
+      <c r="H36" s="6" t="n">
         <v>60.8</v>
       </c>
-      <c t="n" r="I36" s="11">
+      <c r="I36" s="11" t="n">
         <v>1900</v>
       </c>
-      <c t="n" r="J36" s="6">
+      <c r="J36" s="6" t="n">
         <v>46.3</v>
       </c>
-      <c t="n" r="K36" s="10">
+      <c r="K36" s="10" t="n">
         <v>1877</v>
       </c>
-      <c t="n" r="L36" s="6">
+      <c r="L36" s="6" t="n">
         <v>46.9</v>
       </c>
-      <c t="n" r="M36" s="11">
+      <c r="M36" s="11" t="n">
         <v>1347</v>
       </c>
-      <c t="n" r="N36" s="6">
+      <c r="N36" s="6" t="n">
         <v>53.9</v>
       </c>
-      <c t="n" r="O36" s="10">
+      <c r="O36" s="10" t="n">
         <v>1899</v>
       </c>
-      <c t="n" r="P36" s="6">
+      <c r="P36" s="6" t="n">
         <v>53.6</v>
       </c>
-      <c t="n" r="Q36" s="10">
+      <c r="Q36" s="10" t="n">
         <v>2276</v>
       </c>
-      <c t="n" r="R36" s="6">
+      <c r="R36" s="6" t="n">
         <v>47.5</v>
       </c>
-      <c t="n" r="S36" s="5">
+      <c r="S36" s="5" t="n">
         <v>94</v>
       </c>
-      <c t="n" r="T36" s="6">
+      <c r="T36" s="6" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c t="n" r="V36" s="7">
+      <c r="V36" s="7" t="n">
         <v>76</v>
       </c>
     </row>
-    <row spans="1:22" r="37">
-      <c t="n" r="A37" s="1">
+    <row r="37" spans="1:22">
+      <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
-      <c t="s" r="B37" s="1">
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c t="n" r="C37" s="9">
+      <c r="C37" s="9" t="n">
         <v>290</v>
       </c>
-      <c t="n" r="D37" s="8">
+      <c r="D37" s="8" t="n">
         <v>88.5</v>
       </c>
-      <c t="n" r="E37" s="9">
+      <c r="E37" s="9" t="n">
         <v>443</v>
       </c>
-      <c t="n" r="F37" s="8">
+      <c r="F37" s="8" t="n">
         <v>85.8</v>
       </c>
-      <c t="n" r="G37" s="5">
+      <c r="G37" s="5" t="n">
         <v>336</v>
       </c>
-      <c t="n" r="H37" s="8">
+      <c r="H37" s="8" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c t="n" r="I37" s="9">
+      <c r="I37" s="9" t="n">
         <v>497</v>
       </c>
-      <c t="n" r="J37" s="8">
+      <c r="J37" s="8" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c t="n" r="K37" s="5">
+      <c r="K37" s="5" t="n">
         <v>45</v>
       </c>
-      <c t="n" r="L37" s="8">
+      <c r="L37" s="8" t="n">
         <v>99</v>
       </c>
-      <c t="n" r="M37" s="9">
+      <c r="M37" s="9" t="n">
         <v>195</v>
       </c>
-      <c t="n" r="N37" s="8">
+      <c r="N37" s="8" t="n">
         <v>90.5</v>
       </c>
-      <c t="n" r="O37" s="10">
+      <c r="O37" s="10" t="n">
         <v>917</v>
       </c>
-      <c t="n" r="P37" s="8">
+      <c r="P37" s="8" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c t="n" r="Q37" s="9">
+      <c r="Q37" s="9" t="n">
         <v>838</v>
       </c>
-      <c t="n" r="R37" s="8">
+      <c r="R37" s="8" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c t="n" r="S37" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T37" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V37" s="7">
+      <c r="S37" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="7" t="n">
         <v>75.90000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="38">
-      <c t="n" r="A38" s="4">
+    <row r="38" spans="1:22">
+      <c r="A38" s="4" t="n">
         <v>35</v>
       </c>
-      <c t="s" r="B38" s="4">
+      <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
-      <c t="n" r="C38" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E38" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G38" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I38" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K38" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M38" s="10">
+      <c r="C38" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="10" t="n">
         <v>804</v>
       </c>
-      <c t="n" r="N38" s="6">
+      <c r="N38" s="6" t="n">
         <v>71.5</v>
       </c>
-      <c t="n" r="O38" s="10">
+      <c r="O38" s="10" t="n">
         <v>1473</v>
       </c>
-      <c t="n" r="P38" s="6">
+      <c r="P38" s="6" t="n">
         <v>61.8</v>
       </c>
-      <c t="n" r="Q38" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S38" s="9">
+      <c r="Q38" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9" t="n">
         <v>320</v>
       </c>
-      <c t="n" r="T38" s="6">
+      <c r="T38" s="6" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c t="n" r="V38" s="7">
+      <c r="V38" s="7" t="n">
         <v>75.59999999999999</v>
       </c>
     </row>
-    <row spans="1:22" r="39">
-      <c t="n" r="A39" s="1">
+    <row r="39" spans="1:22">
+      <c r="A39" s="1" t="n">
         <v>36</v>
       </c>
-      <c t="s" r="B39" s="1">
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c t="n" r="C39" s="10">
+      <c r="C39" s="10" t="n">
         <v>1272</v>
       </c>
-      <c t="n" r="D39" s="8">
+      <c r="D39" s="8" t="n">
         <v>61.6</v>
       </c>
-      <c t="n" r="E39" s="9">
+      <c r="E39" s="9" t="n">
         <v>451</v>
       </c>
-      <c t="n" r="F39" s="8">
+      <c r="F39" s="8" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c t="n" r="G39" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I39" s="10">
+      <c r="G39" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10" t="n">
         <v>897</v>
       </c>
-      <c t="n" r="J39" s="8">
+      <c r="J39" s="8" t="n">
         <v>71.7</v>
       </c>
-      <c t="n" r="K39" s="10">
+      <c r="K39" s="10" t="n">
         <v>1600</v>
       </c>
-      <c t="n" r="L39" s="8">
+      <c r="L39" s="8" t="n">
         <v>53.2</v>
       </c>
-      <c t="n" r="M39" s="10">
+      <c r="M39" s="10" t="n">
         <v>944</v>
       </c>
-      <c t="n" r="N39" s="8">
+      <c r="N39" s="8" t="n">
         <v>68.2</v>
       </c>
-      <c t="n" r="O39" s="9">
+      <c r="O39" s="9" t="n">
         <v>672</v>
       </c>
-      <c t="n" r="P39" s="8">
+      <c r="P39" s="8" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c t="n" r="Q39" s="9">
+      <c r="Q39" s="9" t="n">
         <v>1521</v>
       </c>
-      <c t="n" r="R39" s="8">
+      <c r="R39" s="8" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c t="n" r="S39" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T39" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V39" s="7">
+      <c r="S39" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T39" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="7" t="n">
         <v>74.3</v>
       </c>
     </row>
-    <row spans="1:22" r="40">
-      <c t="n" r="A40" s="4">
+    <row r="40" spans="1:22">
+      <c r="A40" s="4" t="n">
         <v>37</v>
       </c>
-      <c t="s" r="B40" s="4">
+      <c r="B40" s="4" t="s">
         <v>38</v>
       </c>
-      <c t="n" r="C40" s="11">
+      <c r="C40" s="11" t="n">
         <v>1855</v>
       </c>
-      <c t="n" r="D40" s="6">
+      <c r="D40" s="6" t="n">
         <v>43.6</v>
       </c>
-      <c t="n" r="E40" s="9">
+      <c r="E40" s="9" t="n">
         <v>892</v>
       </c>
-      <c t="n" r="F40" s="6">
+      <c r="F40" s="6" t="n">
         <v>76.5</v>
       </c>
-      <c t="n" r="G40" s="10">
+      <c r="G40" s="10" t="n">
         <v>1429</v>
       </c>
-      <c t="n" r="H40" s="6">
+      <c r="H40" s="6" t="n">
         <v>60.5</v>
       </c>
-      <c t="n" r="I40" s="10">
+      <c r="I40" s="10" t="n">
         <v>811</v>
       </c>
-      <c t="n" r="J40" s="6">
+      <c r="J40" s="6" t="n">
         <v>73.5</v>
       </c>
-      <c t="n" r="K40" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M40" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O40" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q40" s="5">
+      <c r="K40" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5" t="n">
         <v>507</v>
       </c>
-      <c t="n" r="R40" s="6">
+      <c r="R40" s="6" t="n">
         <v>90.5</v>
       </c>
-      <c t="n" r="S40" s="10">
+      <c r="S40" s="10" t="n">
         <v>1874</v>
       </c>
-      <c t="n" r="T40" s="6">
+      <c r="T40" s="6" t="n">
         <v>57.2</v>
       </c>
-      <c t="n" r="V40" s="7">
+      <c r="V40" s="7" t="n">
         <v>73.8</v>
       </c>
     </row>
-    <row spans="1:22" r="41">
-      <c t="n" r="A41" s="1">
+    <row r="41" spans="1:22">
+      <c r="A41" s="1" t="n">
         <v>38</v>
       </c>
-      <c t="s" r="B41" s="1">
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c t="n" r="C41" s="9">
+      <c r="C41" s="9" t="n">
         <v>315</v>
       </c>
-      <c t="n" r="D41" s="8">
+      <c r="D41" s="8" t="n">
         <v>88</v>
       </c>
-      <c t="n" r="E41" s="10">
+      <c r="E41" s="10" t="n">
         <v>2123</v>
       </c>
-      <c t="n" r="F41" s="8">
+      <c r="F41" s="8" t="n">
         <v>45.9</v>
       </c>
-      <c t="n" r="G41" s="9">
+      <c r="G41" s="9" t="n">
         <v>757</v>
       </c>
-      <c t="n" r="H41" s="8">
+      <c r="H41" s="8" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c t="n" r="I41" s="11">
+      <c r="I41" s="11" t="n">
         <v>1642</v>
       </c>
-      <c t="n" r="J41" s="8">
+      <c r="J41" s="8" t="n">
         <v>51.5</v>
       </c>
-      <c t="n" r="K41" s="10">
+      <c r="K41" s="10" t="n">
         <v>1411</v>
       </c>
-      <c t="n" r="L41" s="8">
+      <c r="L41" s="8" t="n">
         <v>57.6</v>
       </c>
-      <c t="n" r="M41" s="10">
+      <c r="M41" s="10" t="n">
         <v>1132</v>
       </c>
-      <c t="n" r="N41" s="8">
+      <c r="N41" s="8" t="n">
         <v>63.9</v>
       </c>
-      <c t="n" r="O41" s="10">
+      <c r="O41" s="10" t="n">
         <v>1319</v>
       </c>
-      <c t="n" r="P41" s="8">
+      <c r="P41" s="8" t="n">
         <v>64.7</v>
       </c>
-      <c t="n" r="Q41" s="9">
+      <c r="Q41" s="9" t="n">
         <v>734</v>
       </c>
-      <c t="n" r="R41" s="8">
+      <c r="R41" s="8" t="n">
         <v>81.3</v>
       </c>
-      <c t="n" r="S41" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T41" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V41" s="7">
+      <c r="S41" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T41" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7" t="n">
         <v>73</v>
       </c>
     </row>
-    <row spans="1:22" r="42">
-      <c t="n" r="A42" s="4">
+    <row r="42" spans="1:22">
+      <c r="A42" s="4" t="n">
         <v>39</v>
       </c>
-      <c t="s" r="B42" s="4">
+      <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
-      <c t="n" r="C42" s="11">
+      <c r="C42" s="11" t="n">
         <v>1421</v>
       </c>
-      <c t="n" r="D42" s="6">
+      <c r="D42" s="6" t="n">
         <v>53.3</v>
       </c>
-      <c t="n" r="E42" s="9">
+      <c r="E42" s="9" t="n">
         <v>410</v>
       </c>
-      <c t="n" r="F42" s="6">
+      <c r="F42" s="6" t="n">
         <v>86.5</v>
       </c>
-      <c t="n" r="G42" s="9">
+      <c r="G42" s="9" t="n">
         <v>935</v>
       </c>
-      <c t="n" r="H42" s="6">
+      <c r="H42" s="6" t="n">
         <v>75.7</v>
       </c>
-      <c t="n" r="I42" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K42" s="10">
+      <c r="I42" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10" t="n">
         <v>1713</v>
       </c>
-      <c t="n" r="L42" s="6">
+      <c r="L42" s="6" t="n">
         <v>50.6</v>
       </c>
-      <c t="n" r="M42" s="10">
+      <c r="M42" s="10" t="n">
         <v>983</v>
       </c>
-      <c t="n" r="N42" s="6">
+      <c r="N42" s="6" t="n">
         <v>67.3</v>
       </c>
-      <c t="n" r="O42" s="10">
+      <c r="O42" s="10" t="n">
         <v>1238</v>
       </c>
-      <c t="n" r="P42" s="6">
+      <c r="P42" s="6" t="n">
         <v>66.3</v>
       </c>
-      <c t="n" r="Q42" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R42" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S42" s="9">
+      <c r="Q42" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9" t="n">
         <v>869</v>
       </c>
-      <c t="n" r="T42" s="6">
+      <c r="T42" s="6" t="n">
         <v>79.8</v>
       </c>
-      <c t="n" r="V42" s="7">
+      <c r="V42" s="7" t="n">
         <v>73</v>
       </c>
     </row>
-    <row spans="1:22" r="43">
-      <c t="n" r="A43" s="1">
+    <row r="43" spans="1:22">
+      <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
-      <c t="s" r="B43" s="1">
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c t="n" r="C43" s="10">
+      <c r="C43" s="10" t="n">
         <v>1191</v>
       </c>
-      <c t="n" r="D43" s="8">
+      <c r="D43" s="8" t="n">
         <v>63.4</v>
       </c>
-      <c t="n" r="E43" s="9">
+      <c r="E43" s="9" t="n">
         <v>638</v>
       </c>
-      <c t="n" r="F43" s="8">
+      <c r="F43" s="8" t="n">
         <v>81.7</v>
       </c>
-      <c t="n" r="G43" s="9">
+      <c r="G43" s="9" t="n">
         <v>645</v>
       </c>
-      <c t="n" r="H43" s="8">
+      <c r="H43" s="8" t="n">
         <v>81.7</v>
       </c>
-      <c t="n" r="I43" s="9">
+      <c r="I43" s="9" t="n">
         <v>271</v>
       </c>
-      <c t="n" r="J43" s="8">
+      <c r="J43" s="8" t="n">
         <v>89.5</v>
       </c>
-      <c t="n" r="K43" s="5">
+      <c r="K43" s="5" t="n">
         <v>760</v>
       </c>
-      <c t="n" r="L43" s="8">
+      <c r="L43" s="8" t="n">
         <v>82.5</v>
       </c>
-      <c t="n" r="M43" s="5">
+      <c r="M43" s="5" t="n">
         <v>95</v>
       </c>
-      <c t="n" r="N43" s="8">
+      <c r="N43" s="8" t="n">
         <v>97.8</v>
       </c>
-      <c t="n" r="O43" s="10">
+      <c r="O43" s="10" t="n">
         <v>1218</v>
       </c>
-      <c t="n" r="P43" s="8">
+      <c r="P43" s="8" t="n">
         <v>66.7</v>
       </c>
-      <c t="n" r="Q43" s="10">
+      <c r="Q43" s="10" t="n">
         <v>1795</v>
       </c>
-      <c t="n" r="R43" s="8">
+      <c r="R43" s="8" t="n">
         <v>56.5</v>
       </c>
-      <c t="n" r="S43" s="9">
+      <c r="S43" s="9" t="n">
         <v>963</v>
       </c>
-      <c t="n" r="T43" s="8">
+      <c r="T43" s="8" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c t="n" r="V43" s="7">
+      <c r="V43" s="7" t="n">
         <v>72.40000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="44">
-      <c t="n" r="A44" s="4">
+    <row r="44" spans="1:22">
+      <c r="A44" s="4" t="n">
         <v>41</v>
       </c>
-      <c t="s" r="B44" s="4">
+      <c r="B44" s="4" t="s">
         <v>42</v>
       </c>
-      <c t="n" r="C44" s="9">
+      <c r="C44" s="9" t="n">
         <v>394</v>
       </c>
-      <c t="n" r="D44" s="6">
+      <c r="D44" s="6" t="n">
         <v>86.2</v>
       </c>
-      <c t="n" r="E44" s="9">
+      <c r="E44" s="9" t="n">
         <v>509</v>
       </c>
-      <c t="n" r="F44" s="6">
+      <c r="F44" s="6" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c t="n" r="G44" s="11">
+      <c r="G44" s="11" t="n">
         <v>2350</v>
       </c>
-      <c t="n" r="H44" s="6">
+      <c r="H44" s="6" t="n">
         <v>36.5</v>
       </c>
-      <c t="n" r="I44" s="9">
+      <c r="I44" s="9" t="n">
         <v>276</v>
       </c>
-      <c t="n" r="J44" s="6">
+      <c r="J44" s="6" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c t="n" r="K44" s="5">
+      <c r="K44" s="5" t="n">
         <v>631</v>
       </c>
-      <c t="n" r="L44" s="6">
+      <c r="L44" s="6" t="n">
         <v>85.5</v>
       </c>
-      <c t="n" r="M44" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N44" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O44" s="10">
+      <c r="M44" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="10" t="n">
         <v>1132</v>
       </c>
-      <c t="n" r="P44" s="6">
+      <c r="P44" s="6" t="n">
         <v>68.3</v>
       </c>
-      <c t="n" r="Q44" s="9">
+      <c r="Q44" s="9" t="n">
         <v>1057</v>
       </c>
-      <c t="n" r="R44" s="6">
+      <c r="R44" s="6" t="n">
         <v>75.3</v>
       </c>
-      <c t="n" r="S44" s="10">
+      <c r="S44" s="10" t="n">
         <v>1383</v>
       </c>
-      <c t="n" r="T44" s="6">
+      <c r="T44" s="6" t="n">
         <v>65.8</v>
       </c>
-      <c t="n" r="V44" s="7">
+      <c r="V44" s="7" t="n">
         <v>71.8</v>
       </c>
     </row>
-    <row spans="1:22" r="45">
-      <c t="n" r="A45" s="1">
+    <row r="45" spans="1:22">
+      <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
-      <c t="s" r="B45" s="1">
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c t="n" r="C45" s="10">
+      <c r="C45" s="10" t="n">
         <v>1133</v>
       </c>
-      <c t="n" r="D45" s="8">
+      <c r="D45" s="8" t="n">
         <v>64.7</v>
       </c>
-      <c t="n" r="E45" s="9">
+      <c r="E45" s="9" t="n">
         <v>975</v>
       </c>
-      <c t="n" r="F45" s="8">
+      <c r="F45" s="8" t="n">
         <v>74.7</v>
       </c>
-      <c t="n" r="G45" s="9">
+      <c r="G45" s="9" t="n">
         <v>959</v>
       </c>
-      <c t="n" r="H45" s="8">
+      <c r="H45" s="8" t="n">
         <v>75.2</v>
       </c>
-      <c t="n" r="I45" s="11">
+      <c r="I45" s="11" t="n">
         <v>1754</v>
       </c>
-      <c t="n" r="J45" s="8">
+      <c r="J45" s="8" t="n">
         <v>49.2</v>
       </c>
-      <c t="n" r="K45" s="10">
+      <c r="K45" s="10" t="n">
         <v>1473</v>
       </c>
-      <c t="n" r="L45" s="8">
+      <c r="L45" s="8" t="n">
         <v>56.2</v>
       </c>
-      <c t="n" r="M45" s="10">
+      <c r="M45" s="10" t="n">
         <v>920</v>
       </c>
-      <c t="n" r="N45" s="8">
+      <c r="N45" s="8" t="n">
         <v>68.8</v>
       </c>
-      <c t="n" r="O45" s="10">
+      <c r="O45" s="10" t="n">
         <v>1080</v>
       </c>
-      <c t="n" r="P45" s="8">
+      <c r="P45" s="8" t="n">
         <v>69.3</v>
       </c>
-      <c t="n" r="Q45" s="9">
+      <c r="Q45" s="9" t="n">
         <v>1128</v>
       </c>
-      <c t="n" r="R45" s="8">
+      <c r="R45" s="8" t="n">
         <v>74</v>
       </c>
-      <c t="n" r="S45" s="10">
+      <c r="S45" s="10" t="n">
         <v>1821</v>
       </c>
-      <c t="n" r="T45" s="8">
+      <c r="T45" s="8" t="n">
         <v>58.1</v>
       </c>
-      <c t="n" r="V45" s="7">
+      <c r="V45" s="7" t="n">
         <v>71.59999999999999</v>
       </c>
     </row>
-    <row spans="1:22" r="46">
-      <c t="n" r="A46" s="4">
+    <row r="46" spans="1:22">
+      <c r="A46" s="4" t="n">
         <v>43</v>
       </c>
-      <c t="s" r="B46" s="4">
+      <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
-      <c t="n" r="C46" s="10">
+      <c r="C46" s="10" t="n">
         <v>1242</v>
       </c>
-      <c t="n" r="D46" s="6">
+      <c r="D46" s="6" t="n">
         <v>62.3</v>
       </c>
-      <c t="n" r="E46" s="9">
+      <c r="E46" s="9" t="n">
         <v>903</v>
       </c>
-      <c t="n" r="F46" s="6">
+      <c r="F46" s="6" t="n">
         <v>76.2</v>
       </c>
-      <c t="n" r="G46" s="10">
+      <c r="G46" s="10" t="n">
         <v>1582</v>
       </c>
-      <c t="n" r="H46" s="6">
+      <c r="H46" s="6" t="n">
         <v>57.3</v>
       </c>
-      <c t="n" r="I46" s="9">
+      <c r="I46" s="9" t="n">
         <v>621</v>
       </c>
-      <c t="n" r="J46" s="6">
+      <c r="J46" s="6" t="n">
         <v>82.3</v>
       </c>
-      <c t="n" r="K46" s="10">
+      <c r="K46" s="10" t="n">
         <v>1717</v>
       </c>
-      <c t="n" r="L46" s="6">
+      <c r="L46" s="6" t="n">
         <v>50.6</v>
       </c>
-      <c t="n" r="M46" s="9">
+      <c r="M46" s="9" t="n">
         <v>447</v>
       </c>
-      <c t="n" r="N46" s="6">
+      <c r="N46" s="6" t="n">
         <v>84.7</v>
       </c>
-      <c t="n" r="O46" s="10">
+      <c r="O46" s="10" t="n">
         <v>1195</v>
       </c>
-      <c t="n" r="P46" s="6">
+      <c r="P46" s="6" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c t="n" r="Q46" s="9">
+      <c r="Q46" s="9" t="n">
         <v>1125</v>
       </c>
-      <c t="n" r="R46" s="6">
+      <c r="R46" s="6" t="n">
         <v>74</v>
       </c>
-      <c t="n" r="S46" s="10">
+      <c r="S46" s="10" t="n">
         <v>1692</v>
       </c>
-      <c t="n" r="T46" s="6">
+      <c r="T46" s="6" t="n">
         <v>60.3</v>
       </c>
-      <c t="n" r="V46" s="7">
+      <c r="V46" s="7" t="n">
         <v>70.59999999999999</v>
       </c>
     </row>
-    <row spans="1:22" r="47">
-      <c t="n" r="A47" s="1">
+    <row r="47" spans="1:22">
+      <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
-      <c t="s" r="B47" s="1">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c t="n" r="C47" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D47" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E47" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F47" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G47" s="10">
+      <c r="C47" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10" t="n">
         <v>1761</v>
       </c>
-      <c t="n" r="H47" s="8">
+      <c r="H47" s="8" t="n">
         <v>53.7</v>
       </c>
-      <c t="n" r="I47" s="11">
+      <c r="I47" s="11" t="n">
         <v>1838</v>
       </c>
-      <c t="n" r="J47" s="8">
+      <c r="J47" s="8" t="n">
         <v>47.5</v>
       </c>
-      <c t="n" r="K47" s="9">
+      <c r="K47" s="9" t="n">
         <v>1271</v>
       </c>
-      <c t="n" r="L47" s="8">
+      <c r="L47" s="8" t="n">
         <v>65.8</v>
       </c>
-      <c t="n" r="M47" s="10">
+      <c r="M47" s="10" t="n">
         <v>708</v>
       </c>
-      <c t="n" r="N47" s="8">
+      <c r="N47" s="8" t="n">
         <v>73.7</v>
       </c>
-      <c t="n" r="O47" s="10">
+      <c r="O47" s="10" t="n">
         <v>1169</v>
       </c>
-      <c t="n" r="P47" s="8">
+      <c r="P47" s="8" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c t="n" r="Q47" s="9">
+      <c r="Q47" s="9" t="n">
         <v>1293</v>
       </c>
-      <c t="n" r="R47" s="8">
+      <c r="R47" s="8" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c t="n" r="S47" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T47" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V47" s="7">
+      <c r="S47" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="7" t="n">
         <v>69.2</v>
       </c>
     </row>
-    <row spans="1:22" r="48">
-      <c t="n" r="A48" s="4">
+    <row r="48" spans="1:22">
+      <c r="A48" s="4" t="n">
         <v>45</v>
       </c>
-      <c t="s" r="B48" s="4">
+      <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
-      <c t="n" r="C48" s="10">
+      <c r="C48" s="10" t="n">
         <v>1210</v>
       </c>
-      <c t="n" r="D48" s="6">
+      <c r="D48" s="6" t="n">
         <v>63</v>
       </c>
-      <c t="n" r="E48" s="9">
+      <c r="E48" s="9" t="n">
         <v>648</v>
       </c>
-      <c t="n" r="F48" s="6">
+      <c r="F48" s="6" t="n">
         <v>81.5</v>
       </c>
-      <c t="n" r="G48" s="9">
+      <c r="G48" s="9" t="n">
         <v>985</v>
       </c>
-      <c t="n" r="H48" s="6">
+      <c r="H48" s="6" t="n">
         <v>74.7</v>
       </c>
-      <c t="n" r="I48" s="11">
+      <c r="I48" s="11" t="n">
         <v>1860</v>
       </c>
-      <c t="n" r="J48" s="6">
+      <c r="J48" s="6" t="n">
         <v>47.1</v>
       </c>
-      <c t="n" r="K48" s="10">
+      <c r="K48" s="10" t="n">
         <v>1644</v>
       </c>
-      <c t="n" r="L48" s="6">
+      <c r="L48" s="6" t="n">
         <v>52.2</v>
       </c>
-      <c t="n" r="M48" s="10">
+      <c r="M48" s="10" t="n">
         <v>736</v>
       </c>
-      <c t="n" r="N48" s="6">
+      <c r="N48" s="6" t="n">
         <v>73</v>
       </c>
-      <c t="n" r="O48" s="10">
+      <c r="O48" s="10" t="n">
         <v>978</v>
       </c>
-      <c t="n" r="P48" s="6">
+      <c r="P48" s="6" t="n">
         <v>71.3</v>
       </c>
-      <c t="n" r="Q48" s="9">
+      <c r="Q48" s="9" t="n">
         <v>1614</v>
       </c>
-      <c t="n" r="R48" s="6">
+      <c r="R48" s="6" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c t="n" r="S48" s="10">
+      <c r="S48" s="10" t="n">
         <v>1479</v>
       </c>
-      <c t="n" r="T48" s="6">
+      <c r="T48" s="6" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c t="n" r="V48" s="7">
+      <c r="V48" s="7" t="n">
         <v>68.09999999999999</v>
       </c>
     </row>
-    <row spans="1:22" r="49">
-      <c t="n" r="A49" s="1">
+    <row r="49" spans="1:22">
+      <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
-      <c t="s" r="B49" s="1">
+      <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c t="n" r="C49" s="10">
+      <c r="C49" s="10" t="n">
         <v>858</v>
       </c>
-      <c t="n" r="D49" s="8">
+      <c r="D49" s="8" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c t="n" r="E49" s="9">
+      <c r="E49" s="9" t="n">
         <v>458</v>
       </c>
-      <c t="n" r="F49" s="8">
+      <c r="F49" s="8" t="n">
         <v>85.5</v>
       </c>
-      <c t="n" r="G49" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="H49" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I49" s="11">
+      <c r="G49" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11" t="n">
         <v>1463</v>
       </c>
-      <c t="n" r="J49" s="8">
+      <c r="J49" s="8" t="n">
         <v>55.2</v>
       </c>
-      <c t="n" r="K49" s="10">
+      <c r="K49" s="10" t="n">
         <v>1673</v>
       </c>
-      <c t="n" r="L49" s="8">
+      <c r="L49" s="8" t="n">
         <v>51.6</v>
       </c>
-      <c t="n" r="M49" s="9">
+      <c r="M49" s="9" t="n">
         <v>228</v>
       </c>
-      <c t="n" r="N49" s="8">
+      <c r="N49" s="8" t="n">
         <v>89.7</v>
       </c>
-      <c t="n" r="O49" s="10">
+      <c r="O49" s="10" t="n">
         <v>1144</v>
       </c>
-      <c t="n" r="P49" s="8">
+      <c r="P49" s="8" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c t="n" r="Q49" s="9">
+      <c r="Q49" s="9" t="n">
         <v>1530</v>
       </c>
-      <c t="n" r="R49" s="8">
+      <c r="R49" s="8" t="n">
         <v>66.5</v>
       </c>
-      <c t="n" r="S49" s="10">
+      <c r="S49" s="10" t="n">
         <v>1634</v>
       </c>
-      <c t="n" r="T49" s="8">
+      <c r="T49" s="8" t="n">
         <v>61.4</v>
       </c>
-      <c t="n" r="V49" s="7">
+      <c r="V49" s="7" t="n">
         <v>67.3</v>
       </c>
     </row>
-    <row spans="1:22" r="50">
-      <c t="n" r="A50" s="4">
+    <row r="50" spans="1:22">
+      <c r="A50" s="4" t="n">
         <v>47</v>
       </c>
-      <c t="s" r="B50" s="4">
+      <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
-      <c t="n" r="C50" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E50" s="9">
+      <c r="C50" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="n">
         <v>711</v>
       </c>
-      <c t="n" r="F50" s="6">
+      <c r="F50" s="6" t="n">
         <v>80.2</v>
       </c>
-      <c t="n" r="G50" s="5">
+      <c r="G50" s="5" t="n">
         <v>474</v>
       </c>
-      <c t="n" r="H50" s="6">
+      <c r="H50" s="6" t="n">
         <v>90.2</v>
       </c>
-      <c t="n" r="I50" s="10">
+      <c r="I50" s="10" t="n">
         <v>806</v>
       </c>
-      <c t="n" r="J50" s="6">
+      <c r="J50" s="6" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c t="n" r="K50" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M50" s="10">
+      <c r="K50" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="10" t="n">
         <v>939</v>
       </c>
-      <c t="n" r="N50" s="6">
+      <c r="N50" s="6" t="n">
         <v>68.3</v>
       </c>
-      <c t="n" r="O50" s="10">
+      <c r="O50" s="10" t="n">
         <v>1313</v>
       </c>
-      <c t="n" r="P50" s="6">
+      <c r="P50" s="6" t="n">
         <v>64.8</v>
       </c>
-      <c t="n" r="Q50" s="9">
+      <c r="Q50" s="9" t="n">
         <v>1350</v>
       </c>
-      <c t="n" r="R50" s="6">
+      <c r="R50" s="6" t="n">
         <v>69.8</v>
       </c>
-      <c t="n" r="S50" s="10">
+      <c r="S50" s="10" t="n">
         <v>1475</v>
       </c>
-      <c t="n" r="T50" s="6">
+      <c r="T50" s="6" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c t="n" r="V50" s="7">
+      <c r="V50" s="7" t="n">
         <v>67.3</v>
       </c>
     </row>
-    <row spans="1:22" r="51">
-      <c t="n" r="A51" s="1">
+    <row r="51" spans="1:22">
+      <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
-      <c t="s" r="B51" s="1">
+      <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c t="n" r="C51" s="10">
+      <c r="C51" s="10" t="n">
         <v>1136</v>
       </c>
-      <c t="n" r="D51" s="8">
+      <c r="D51" s="8" t="n">
         <v>64.7</v>
       </c>
-      <c t="n" r="E51" s="10">
+      <c r="E51" s="10" t="n">
         <v>1238</v>
       </c>
-      <c t="n" r="F51" s="8">
+      <c r="F51" s="8" t="n">
         <v>64.3</v>
       </c>
-      <c t="n" r="G51" s="10">
+      <c r="G51" s="10" t="n">
         <v>1178</v>
       </c>
-      <c t="n" r="H51" s="8">
+      <c r="H51" s="8" t="n">
         <v>65.7</v>
       </c>
-      <c t="n" r="I51" s="9">
+      <c r="I51" s="9" t="n">
         <v>268</v>
       </c>
-      <c t="n" r="J51" s="8">
+      <c r="J51" s="8" t="n">
         <v>89.5</v>
       </c>
-      <c t="n" r="K51" s="9">
+      <c r="K51" s="9" t="n">
         <v>1079</v>
       </c>
-      <c t="n" r="L51" s="8">
+      <c r="L51" s="8" t="n">
         <v>70.2</v>
       </c>
-      <c t="n" r="M51" s="11">
+      <c r="M51" s="11" t="n">
         <v>1378</v>
       </c>
-      <c t="n" r="N51" s="8">
+      <c r="N51" s="8" t="n">
         <v>53.2</v>
       </c>
-      <c t="n" r="O51" s="10">
+      <c r="O51" s="10" t="n">
         <v>1880</v>
       </c>
-      <c t="n" r="P51" s="8">
+      <c r="P51" s="8" t="n">
         <v>54</v>
       </c>
-      <c t="n" r="Q51" s="9">
+      <c r="Q51" s="9" t="n">
         <v>1366</v>
       </c>
-      <c t="n" r="R51" s="8">
+      <c r="R51" s="8" t="n">
         <v>69.5</v>
       </c>
-      <c t="n" r="S51" s="10">
+      <c r="S51" s="10" t="n">
         <v>1482</v>
       </c>
-      <c t="n" r="T51" s="8">
+      <c r="T51" s="8" t="n">
         <v>64</v>
       </c>
-      <c t="n" r="V51" s="7">
+      <c r="V51" s="7" t="n">
         <v>66.8</v>
       </c>
     </row>
-    <row spans="1:22" r="52">
-      <c t="n" r="A52" s="4">
+    <row r="52" spans="1:22">
+      <c r="A52" s="4" t="n">
         <v>49</v>
       </c>
-      <c t="s" r="B52" s="4">
+      <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
-      <c t="n" r="C52" s="9">
+      <c r="C52" s="9" t="n">
         <v>612</v>
       </c>
-      <c t="n" r="D52" s="6">
+      <c r="D52" s="6" t="n">
         <v>81.40000000000001</v>
       </c>
-      <c t="n" r="E52" s="11">
+      <c r="E52" s="11" t="n">
         <v>2384</v>
       </c>
-      <c t="n" r="F52" s="6">
+      <c r="F52" s="6" t="n">
         <v>35.4</v>
       </c>
-      <c t="n" r="G52" s="5">
+      <c r="G52" s="5" t="n">
         <v>397</v>
       </c>
-      <c t="n" r="H52" s="6">
+      <c r="H52" s="6" t="n">
         <v>91.8</v>
       </c>
-      <c t="n" r="I52" s="9">
+      <c r="I52" s="9" t="n">
         <v>561</v>
       </c>
-      <c t="n" r="J52" s="6">
+      <c r="J52" s="6" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c t="n" r="K52" s="5">
+      <c r="K52" s="5" t="n">
         <v>494</v>
       </c>
-      <c t="n" r="L52" s="6">
+      <c r="L52" s="6" t="n">
         <v>88.7</v>
       </c>
-      <c t="n" r="M52" s="10">
+      <c r="M52" s="10" t="n">
         <v>1207</v>
       </c>
-      <c t="n" r="N52" s="6">
+      <c r="N52" s="6" t="n">
         <v>62.2</v>
       </c>
-      <c t="n" r="O52" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P52" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q52" s="9">
+      <c r="O52" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9" t="n">
         <v>657</v>
       </c>
-      <c t="n" r="R52" s="6">
+      <c r="R52" s="6" t="n">
         <v>82.7</v>
       </c>
-      <c t="n" r="S52" s="10">
+      <c r="S52" s="10" t="n">
         <v>2313</v>
       </c>
-      <c t="n" r="T52" s="6">
+      <c r="T52" s="6" t="n">
         <v>49.5</v>
       </c>
-      <c t="n" r="V52" s="7">
+      <c r="V52" s="7" t="n">
         <v>66.09999999999999</v>
       </c>
     </row>
-    <row spans="1:22" r="53">
-      <c t="n" r="A53" s="1">
+    <row r="53" spans="1:22">
+      <c r="A53" s="1" t="n">
         <v>50</v>
       </c>
-      <c t="s" r="B53" s="1">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c t="n" r="C53" s="10">
+      <c r="C53" s="10" t="n">
         <v>1025</v>
       </c>
-      <c t="n" r="D53" s="8">
+      <c r="D53" s="8" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c t="n" r="E53" s="11">
+      <c r="E53" s="11" t="n">
         <v>2546</v>
       </c>
-      <c t="n" r="F53" s="8">
+      <c r="F53" s="8" t="n">
         <v>32.1</v>
       </c>
-      <c t="n" r="G53" s="10">
+      <c r="G53" s="10" t="n">
         <v>1136</v>
       </c>
-      <c t="n" r="H53" s="8">
+      <c r="H53" s="8" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c t="n" r="I53" s="9">
+      <c r="I53" s="9" t="n">
         <v>579</v>
       </c>
-      <c t="n" r="J53" s="8">
+      <c r="J53" s="8" t="n">
         <v>83.2</v>
       </c>
-      <c t="n" r="K53" s="10">
+      <c r="K53" s="10" t="n">
         <v>1350</v>
       </c>
-      <c t="n" r="L53" s="8">
+      <c r="L53" s="8" t="n">
         <v>59</v>
       </c>
-      <c t="n" r="M53" s="11">
+      <c r="M53" s="11" t="n">
         <v>1744</v>
       </c>
-      <c t="n" r="N53" s="8">
+      <c r="N53" s="8" t="n">
         <v>44.8</v>
       </c>
-      <c t="n" r="O53" s="11">
+      <c r="O53" s="11" t="n">
         <v>2137</v>
       </c>
-      <c t="n" r="P53" s="8">
+      <c r="P53" s="8" t="n">
         <v>44</v>
       </c>
-      <c t="n" r="Q53" s="10">
+      <c r="Q53" s="10" t="n">
         <v>2542</v>
       </c>
-      <c t="n" r="R53" s="8">
+      <c r="R53" s="8" t="n">
         <v>42.6</v>
       </c>
-      <c t="n" r="S53" s="9">
+      <c r="S53" s="9" t="n">
         <v>476</v>
       </c>
-      <c t="n" r="T53" s="8">
+      <c r="T53" s="8" t="n">
         <v>86.7</v>
       </c>
-      <c t="n" r="V53" s="7">
+      <c r="V53" s="7" t="n">
         <v>65.40000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="54">
-      <c t="n" r="A54" s="4">
+    <row r="54" spans="1:22">
+      <c r="A54" s="4" t="n">
         <v>51</v>
       </c>
-      <c t="s" r="B54" s="4">
+      <c r="B54" s="4" t="s">
         <v>52</v>
       </c>
-      <c t="n" r="C54" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E54" s="9">
+      <c r="C54" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9" t="n">
         <v>484</v>
       </c>
-      <c t="n" r="F54" s="6">
+      <c r="F54" s="6" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c t="n" r="G54" s="9">
+      <c r="G54" s="9" t="n">
         <v>872</v>
       </c>
-      <c t="n" r="H54" s="6">
+      <c r="H54" s="6" t="n">
         <v>77</v>
       </c>
-      <c t="n" r="I54" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K54" s="9">
+      <c r="I54" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9" t="n">
         <v>997</v>
       </c>
-      <c t="n" r="L54" s="6">
+      <c r="L54" s="6" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c t="n" r="M54" s="11">
+      <c r="M54" s="11" t="n">
         <v>1848</v>
       </c>
-      <c t="n" r="N54" s="6">
+      <c r="N54" s="6" t="n">
         <v>42.4</v>
       </c>
-      <c t="n" r="O54" s="11">
+      <c r="O54" s="11" t="n">
         <v>2064</v>
       </c>
-      <c t="n" r="P54" s="6">
+      <c r="P54" s="6" t="n">
         <v>45.4</v>
       </c>
-      <c t="n" r="Q54" s="9">
+      <c r="Q54" s="9" t="n">
         <v>1737</v>
       </c>
-      <c t="n" r="R54" s="6">
+      <c r="R54" s="6" t="n">
         <v>62.6</v>
       </c>
-      <c t="n" r="S54" s="10">
+      <c r="S54" s="10" t="n">
         <v>1285</v>
       </c>
-      <c t="n" r="T54" s="6">
+      <c r="T54" s="6" t="n">
         <v>67.5</v>
       </c>
-      <c t="n" r="V54" s="7">
+      <c r="V54" s="7" t="n">
         <v>65</v>
       </c>
     </row>
-    <row spans="1:22" r="55">
-      <c t="n" r="A55" s="1">
+    <row r="55" spans="1:22">
+      <c r="A55" s="1" t="n">
         <v>52</v>
       </c>
-      <c t="s" r="B55" s="1">
+      <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-      <c t="n" r="C55" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D55" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E55" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G55" s="9">
+      <c r="C55" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D55" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9" t="n">
         <v>608</v>
       </c>
-      <c t="n" r="H55" s="8">
+      <c r="H55" s="8" t="n">
         <v>82.5</v>
       </c>
-      <c t="n" r="I55" s="11">
+      <c r="I55" s="11" t="n">
         <v>1959</v>
       </c>
-      <c t="n" r="J55" s="8">
+      <c r="J55" s="8" t="n">
         <v>45.1</v>
       </c>
-      <c t="n" r="K55" s="5">
+      <c r="K55" s="5" t="n">
         <v>667</v>
       </c>
-      <c t="n" r="L55" s="8">
+      <c r="L55" s="8" t="n">
         <v>84.7</v>
       </c>
-      <c t="n" r="M55" s="10">
+      <c r="M55" s="10" t="n">
         <v>935</v>
       </c>
-      <c t="n" r="N55" s="8">
+      <c r="N55" s="8" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c t="n" r="O55" s="10">
+      <c r="O55" s="10" t="n">
         <v>1060</v>
       </c>
-      <c t="n" r="P55" s="8">
+      <c r="P55" s="8" t="n">
         <v>69.7</v>
       </c>
-      <c t="n" r="Q55" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R55" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="S55" s="10">
+      <c r="Q55" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R55" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="10" t="n">
         <v>1705</v>
       </c>
-      <c t="n" r="T55" s="8">
+      <c r="T55" s="8" t="n">
         <v>60.1</v>
       </c>
-      <c t="n" r="V55" s="7">
+      <c r="V55" s="7" t="n">
         <v>64.90000000000001</v>
       </c>
     </row>
-    <row spans="1:22" r="56">
-      <c t="n" r="A56" s="4">
+    <row r="56" spans="1:22">
+      <c r="A56" s="4" t="n">
         <v>53</v>
       </c>
-      <c t="s" r="B56" s="4">
+      <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
-      <c t="n" r="C56" s="11">
+      <c r="C56" s="11" t="n">
         <v>1637</v>
       </c>
-      <c t="n" r="D56" s="6">
+      <c r="D56" s="6" t="n">
         <v>48.5</v>
       </c>
-      <c t="n" r="E56" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F56" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G56" s="11">
+      <c r="E56" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11" t="n">
         <v>2217</v>
       </c>
-      <c t="n" r="H56" s="6">
+      <c r="H56" s="6" t="n">
         <v>39.2</v>
       </c>
-      <c t="n" r="I56" s="10">
+      <c r="I56" s="10" t="n">
         <v>1275</v>
       </c>
-      <c t="n" r="J56" s="6">
+      <c r="J56" s="6" t="n">
         <v>64</v>
       </c>
-      <c t="n" r="K56" s="10">
+      <c r="K56" s="10" t="n">
         <v>1838</v>
       </c>
-      <c t="n" r="L56" s="6">
+      <c r="L56" s="6" t="n">
         <v>47.8</v>
       </c>
-      <c t="n" r="M56" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N56" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O56" s="10">
+      <c r="M56" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="10" t="n">
         <v>1546</v>
       </c>
-      <c t="n" r="P56" s="6">
+      <c r="P56" s="6" t="n">
         <v>60.4</v>
       </c>
-      <c t="n" r="Q56" s="9">
+      <c r="Q56" s="9" t="n">
         <v>1469</v>
       </c>
-      <c t="n" r="R56" s="6">
+      <c r="R56" s="6" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c t="n" r="S56" s="11">
+      <c r="S56" s="11" t="n">
         <v>2546</v>
       </c>
-      <c t="n" r="T56" s="6">
+      <c r="T56" s="6" t="n">
         <v>40.4</v>
       </c>
-      <c t="n" r="V56" s="7">
+      <c r="V56" s="7" t="n">
         <v>64</v>
       </c>
     </row>
-    <row spans="1:22" r="57">
-      <c t="n" r="A57" s="1">
+    <row r="57" spans="1:22">
+      <c r="A57" s="1" t="n">
         <v>54</v>
       </c>
-      <c t="s" r="B57" s="1">
+      <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
-      <c t="n" r="C57" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D57" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E57" s="10">
+      <c r="C57" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10" t="n">
         <v>2027</v>
       </c>
-      <c t="n" r="F57" s="8">
+      <c r="F57" s="8" t="n">
         <v>47.8</v>
       </c>
-      <c t="n" r="G57" s="10">
+      <c r="G57" s="10" t="n">
         <v>2079</v>
       </c>
-      <c t="n" r="H57" s="8">
+      <c r="H57" s="8" t="n">
         <v>47.1</v>
       </c>
-      <c t="n" r="I57" s="11">
+      <c r="I57" s="11" t="n">
         <v>1762</v>
       </c>
-      <c t="n" r="J57" s="8">
+      <c r="J57" s="8" t="n">
         <v>49.1</v>
       </c>
-      <c t="n" r="K57" s="9">
+      <c r="K57" s="9" t="n">
         <v>931</v>
       </c>
-      <c t="n" r="L57" s="8">
+      <c r="L57" s="8" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c t="n" r="M57" s="11">
+      <c r="M57" s="11" t="n">
         <v>1913</v>
       </c>
-      <c t="n" r="N57" s="8">
+      <c r="N57" s="8" t="n">
         <v>40.9</v>
       </c>
-      <c t="n" r="O57" s="10">
+      <c r="O57" s="10" t="n">
         <v>1686</v>
       </c>
-      <c t="n" r="P57" s="8">
+      <c r="P57" s="8" t="n">
         <v>57.7</v>
       </c>
-      <c t="n" r="Q57" s="9">
+      <c r="Q57" s="9" t="n">
         <v>1461</v>
       </c>
-      <c t="n" r="R57" s="8">
+      <c r="R57" s="8" t="n">
         <v>67.7</v>
       </c>
-      <c t="n" r="S57" s="11">
+      <c r="S57" s="11" t="n">
         <v>2634</v>
       </c>
-      <c t="n" r="T57" s="8">
+      <c r="T57" s="8" t="n">
         <v>38.8</v>
       </c>
-      <c t="n" r="V57" s="7">
+      <c r="V57" s="7" t="n">
         <v>62.7</v>
       </c>
     </row>
-    <row spans="1:22" r="58">
-      <c t="n" r="A58" s="4">
+    <row r="58" spans="1:22">
+      <c r="A58" s="4" t="n">
         <v>55</v>
       </c>
-      <c t="s" r="B58" s="4">
+      <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
-      <c t="n" r="C58" s="11">
+      <c r="C58" s="11" t="n">
         <v>1537</v>
       </c>
-      <c t="n" r="D58" s="6">
+      <c r="D58" s="6" t="n">
         <v>50.7</v>
       </c>
-      <c t="n" r="E58" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G58" s="9">
+      <c r="E58" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9" t="n">
         <v>986</v>
       </c>
-      <c t="n" r="H58" s="6">
+      <c r="H58" s="6" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c t="n" r="I58" s="11">
+      <c r="I58" s="11" t="n">
         <v>1778</v>
       </c>
-      <c t="n" r="J58" s="6">
+      <c r="J58" s="6" t="n">
         <v>48.8</v>
       </c>
-      <c t="n" r="K58" s="11">
+      <c r="K58" s="11" t="n">
         <v>2316</v>
       </c>
-      <c t="n" r="L58" s="6">
+      <c r="L58" s="6" t="n">
         <v>31.8</v>
       </c>
-      <c t="n" r="M58" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O58" s="11">
+      <c r="M58" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="11" t="n">
         <v>2338</v>
       </c>
-      <c t="n" r="P58" s="6">
+      <c r="P58" s="6" t="n">
         <v>40.2</v>
       </c>
-      <c t="n" r="Q58" s="10">
+      <c r="Q58" s="10" t="n">
         <v>2266</v>
       </c>
-      <c t="n" r="R58" s="6">
+      <c r="R58" s="6" t="n">
         <v>47.7</v>
       </c>
-      <c t="n" r="S58" s="9">
+      <c r="S58" s="9" t="n">
         <v>1128</v>
       </c>
-      <c t="n" r="T58" s="6">
+      <c r="T58" s="6" t="n">
         <v>75.2</v>
       </c>
-      <c t="n" r="V58" s="7">
+      <c r="V58" s="7" t="n">
         <v>61.5</v>
       </c>
     </row>
-    <row spans="1:22" r="59">
-      <c t="n" r="A59" s="1">
+    <row r="59" spans="1:22">
+      <c r="A59" s="1" t="n">
         <v>56</v>
       </c>
-      <c t="s" r="B59" s="1">
+      <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
-      <c t="n" r="C59" s="11">
+      <c r="C59" s="11" t="n">
         <v>2011</v>
       </c>
-      <c t="n" r="D59" s="8">
+      <c r="D59" s="8" t="n">
         <v>40.1</v>
       </c>
-      <c t="n" r="E59" s="10">
+      <c r="E59" s="10" t="n">
         <v>1398</v>
       </c>
-      <c t="n" r="F59" s="8">
+      <c r="F59" s="8" t="n">
         <v>60.9</v>
       </c>
-      <c t="n" r="G59" s="10">
+      <c r="G59" s="10" t="n">
         <v>2099</v>
       </c>
-      <c t="n" r="H59" s="8">
+      <c r="H59" s="8" t="n">
         <v>46.7</v>
       </c>
-      <c t="n" r="I59" s="11">
+      <c r="I59" s="11" t="n">
         <v>1665</v>
       </c>
-      <c t="n" r="J59" s="8">
+      <c r="J59" s="8" t="n">
         <v>51.1</v>
       </c>
-      <c t="n" r="K59" s="10">
+      <c r="K59" s="10" t="n">
         <v>1479</v>
       </c>
-      <c t="n" r="L59" s="8">
+      <c r="L59" s="8" t="n">
         <v>56</v>
       </c>
-      <c t="n" r="M59" s="11">
+      <c r="M59" s="11" t="n">
         <v>1625</v>
       </c>
-      <c t="n" r="N59" s="8">
+      <c r="N59" s="8" t="n">
         <v>47.5</v>
       </c>
-      <c t="n" r="O59" s="10">
+      <c r="O59" s="10" t="n">
         <v>1651</v>
       </c>
-      <c t="n" r="P59" s="8">
+      <c r="P59" s="8" t="n">
         <v>58.4</v>
       </c>
-      <c t="n" r="Q59" s="9">
+      <c r="Q59" s="9" t="n">
         <v>1640</v>
       </c>
-      <c t="n" r="R59" s="8">
+      <c r="R59" s="8" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c t="n" r="S59" s="11">
+      <c r="S59" s="11" t="n">
         <v>2611</v>
       </c>
-      <c t="n" r="T59" s="8">
+      <c r="T59" s="8" t="n">
         <v>39.2</v>
       </c>
-      <c t="n" r="V59" s="7">
+      <c r="V59" s="7" t="n">
         <v>61.4</v>
       </c>
     </row>
-    <row spans="1:22" r="60">
-      <c t="n" r="A60" s="4">
+    <row r="60" spans="1:22">
+      <c r="A60" s="4" t="n">
         <v>57</v>
       </c>
-      <c t="s" r="B60" s="4">
+      <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
-      <c t="n" r="C60" s="10">
+      <c r="C60" s="10" t="n">
         <v>867</v>
       </c>
-      <c t="n" r="D60" s="6">
+      <c r="D60" s="6" t="n">
         <v>70.7</v>
       </c>
-      <c t="n" r="E60" s="10">
+      <c r="E60" s="10" t="n">
         <v>1421</v>
       </c>
-      <c t="n" r="F60" s="6">
+      <c r="F60" s="6" t="n">
         <v>60.4</v>
       </c>
-      <c t="n" r="G60" s="11">
+      <c r="G60" s="11" t="n">
         <v>2124</v>
       </c>
-      <c t="n" r="H60" s="6">
+      <c r="H60" s="6" t="n">
         <v>41.2</v>
       </c>
-      <c t="n" r="I60" s="10">
+      <c r="I60" s="10" t="n">
         <v>1153</v>
       </c>
-      <c t="n" r="J60" s="6">
+      <c r="J60" s="6" t="n">
         <v>66.5</v>
       </c>
-      <c t="n" r="K60" s="10">
+      <c r="K60" s="10" t="n">
         <v>1352</v>
       </c>
-      <c t="n" r="L60" s="6">
+      <c r="L60" s="6" t="n">
         <v>58.9</v>
       </c>
-      <c t="n" r="M60" s="10">
+      <c r="M60" s="10" t="n">
         <v>672</v>
       </c>
-      <c t="n" r="N60" s="6">
+      <c r="N60" s="6" t="n">
         <v>74.5</v>
       </c>
-      <c t="n" r="O60" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P60" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q60" s="9">
+      <c r="O60" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="9" t="n">
         <v>1016</v>
       </c>
-      <c t="n" r="R60" s="6">
+      <c r="R60" s="6" t="n">
         <v>76</v>
       </c>
-      <c t="n" r="S60" s="11">
+      <c r="S60" s="11" t="n">
         <v>2473</v>
       </c>
-      <c t="n" r="T60" s="6">
+      <c r="T60" s="6" t="n">
         <v>41.7</v>
       </c>
-      <c t="n" r="V60" s="7">
+      <c r="V60" s="7" t="n">
         <v>58.9</v>
       </c>
     </row>
-    <row spans="1:22" r="61">
-      <c t="n" r="A61" s="1">
+    <row r="61" spans="1:22">
+      <c r="A61" s="1" t="n">
         <v>58</v>
       </c>
-      <c t="s" r="B61" s="1">
+      <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
-      <c t="n" r="C61" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D61" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E61" s="10">
+      <c r="C61" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10" t="n">
         <v>1144</v>
       </c>
-      <c t="n" r="F61" s="8">
+      <c r="F61" s="8" t="n">
         <v>66.2</v>
       </c>
-      <c t="n" r="G61" s="9">
+      <c r="G61" s="9" t="n">
         <v>598</v>
       </c>
-      <c t="n" r="H61" s="8">
+      <c r="H61" s="8" t="n">
         <v>82.7</v>
       </c>
-      <c t="n" r="I61" s="10">
+      <c r="I61" s="10" t="n">
         <v>798</v>
       </c>
-      <c t="n" r="J61" s="8">
+      <c r="J61" s="8" t="n">
         <v>73.7</v>
       </c>
-      <c t="n" r="K61" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L61" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M61" s="11">
+      <c r="K61" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L61" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11" t="n">
         <v>2138</v>
       </c>
-      <c t="n" r="N61" s="8">
+      <c r="N61" s="8" t="n">
         <v>35.7</v>
       </c>
-      <c t="n" r="O61" s="10">
+      <c r="O61" s="10" t="n">
         <v>1632</v>
       </c>
-      <c t="n" r="P61" s="8">
+      <c r="P61" s="8" t="n">
         <v>58.7</v>
       </c>
-      <c t="n" r="Q61" s="10">
+      <c r="Q61" s="10" t="n">
         <v>2001</v>
       </c>
-      <c t="n" r="R61" s="8">
+      <c r="R61" s="8" t="n">
         <v>52.7</v>
       </c>
-      <c t="n" r="S61" s="10">
+      <c r="S61" s="10" t="n">
         <v>1767</v>
       </c>
-      <c t="n" r="T61" s="8">
+      <c r="T61" s="8" t="n">
         <v>59</v>
       </c>
-      <c t="n" r="V61" s="7">
+      <c r="V61" s="7" t="n">
         <v>58.9</v>
       </c>
     </row>
-    <row spans="1:22" r="62">
-      <c t="n" r="A62" s="4">
+    <row r="62" spans="1:22">
+      <c r="A62" s="4" t="n">
         <v>59</v>
       </c>
-      <c t="s" r="B62" s="4">
+      <c r="B62" s="4" t="s">
         <v>60</v>
       </c>
-      <c t="n" r="C62" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E62" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G62" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I62" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K62" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M62" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O62" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q62" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S62" s="10">
+      <c r="C62" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="10" t="n">
         <v>1816</v>
       </c>
-      <c t="n" r="T62" s="6">
+      <c r="T62" s="6" t="n">
         <v>58.2</v>
       </c>
-      <c t="n" r="V62" s="7">
+      <c r="V62" s="7" t="n">
         <v>58.2</v>
       </c>
     </row>
-    <row spans="1:22" r="63">
-      <c t="n" r="A63" s="1">
+    <row r="63" spans="1:22">
+      <c r="A63" s="1" t="n">
         <v>60</v>
       </c>
-      <c t="s" r="B63" s="1">
+      <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-      <c t="n" r="C63" s="9">
+      <c r="C63" s="9" t="n">
         <v>578</v>
       </c>
-      <c t="n" r="D63" s="8">
+      <c r="D63" s="8" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c t="n" r="E63" s="5">
+      <c r="E63" s="5" t="n">
         <v>233</v>
       </c>
-      <c t="n" r="F63" s="8">
+      <c r="F63" s="8" t="n">
         <v>95.2</v>
       </c>
-      <c t="n" r="G63" s="5">
+      <c r="G63" s="5" t="n">
         <v>502</v>
       </c>
-      <c t="n" r="H63" s="8">
+      <c r="H63" s="8" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c t="n" r="I63" s="11">
+      <c r="I63" s="11" t="n">
         <v>1641</v>
       </c>
-      <c t="n" r="J63" s="8">
+      <c r="J63" s="8" t="n">
         <v>51.5</v>
       </c>
-      <c t="n" r="K63" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L63" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M63" s="10">
+      <c r="K63" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L63" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="10" t="n">
         <v>888</v>
       </c>
-      <c t="n" r="N63" s="8">
+      <c r="N63" s="8" t="n">
         <v>69.5</v>
       </c>
-      <c t="n" r="O63" s="9">
+      <c r="O63" s="9" t="n">
         <v>714</v>
       </c>
-      <c t="n" r="P63" s="8">
+      <c r="P63" s="8" t="n">
         <v>81.3</v>
       </c>
-      <c t="n" r="Q63" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R63" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="S63" s="11">
+      <c r="Q63" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R63" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="11" t="n">
         <v>2884</v>
       </c>
-      <c t="n" r="T63" s="8">
+      <c r="T63" s="8" t="n">
         <v>34.4</v>
       </c>
-      <c t="n" r="V63" s="7">
+      <c r="V63" s="7" t="n">
         <v>57.8</v>
       </c>
     </row>
-    <row spans="1:22" r="64">
-      <c t="n" r="A64" s="4">
+    <row r="64" spans="1:22">
+      <c r="A64" s="4" t="n">
         <v>61</v>
       </c>
-      <c t="s" r="B64" s="4">
+      <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
-      <c t="n" r="C64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M64" s="11">
+      <c r="C64" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="11" t="n">
         <v>2215</v>
       </c>
-      <c t="n" r="N64" s="6">
+      <c r="N64" s="6" t="n">
         <v>33.9</v>
       </c>
-      <c t="n" r="O64" s="10">
+      <c r="O64" s="10" t="n">
         <v>1896</v>
       </c>
-      <c t="n" r="P64" s="6">
+      <c r="P64" s="6" t="n">
         <v>53.7</v>
       </c>
-      <c t="n" r="Q64" s="10">
+      <c r="Q64" s="10" t="n">
         <v>2013</v>
       </c>
-      <c t="n" r="R64" s="6">
+      <c r="R64" s="6" t="n">
         <v>52.4</v>
       </c>
-      <c t="n" r="S64" s="10">
+      <c r="S64" s="10" t="n">
         <v>2091</v>
       </c>
-      <c t="n" r="T64" s="6">
+      <c r="T64" s="6" t="n">
         <v>53.3</v>
       </c>
-      <c t="n" r="V64" s="7">
+      <c r="V64" s="7" t="n">
         <v>53.5</v>
       </c>
     </row>
-    <row spans="1:22" r="65">
-      <c t="n" r="A65" s="1">
+    <row r="65" spans="1:22">
+      <c r="A65" s="1" t="n">
         <v>62</v>
       </c>
-      <c t="s" r="B65" s="1">
+      <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-      <c t="n" r="C65" s="10">
+      <c r="C65" s="10" t="n">
         <v>995</v>
       </c>
-      <c t="n" r="D65" s="8">
+      <c r="D65" s="8" t="n">
         <v>67.8</v>
       </c>
-      <c t="n" r="E65" s="9">
+      <c r="E65" s="9" t="n">
         <v>914</v>
       </c>
-      <c t="n" r="F65" s="8">
+      <c r="F65" s="8" t="n">
         <v>76</v>
       </c>
-      <c t="n" r="G65" s="10">
+      <c r="G65" s="10" t="n">
         <v>2034</v>
       </c>
-      <c t="n" r="H65" s="8">
+      <c r="H65" s="8" t="n">
         <v>48</v>
       </c>
-      <c t="n" r="I65" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J65" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K65" s="5">
+      <c r="I65" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J65" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="n">
         <v>741</v>
       </c>
-      <c t="n" r="L65" s="8">
+      <c r="L65" s="8" t="n">
         <v>83</v>
       </c>
-      <c t="n" r="M65" s="10">
+      <c r="M65" s="10" t="n">
         <v>957</v>
       </c>
-      <c t="n" r="N65" s="8">
+      <c r="N65" s="8" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c t="n" r="O65" s="10">
+      <c r="O65" s="10" t="n">
         <v>1315</v>
       </c>
-      <c t="n" r="P65" s="8">
+      <c r="P65" s="8" t="n">
         <v>64.8</v>
       </c>
-      <c t="n" r="Q65" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R65" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="S65" s="11">
+      <c r="Q65" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R65" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="11" t="n">
         <v>2517</v>
       </c>
-      <c t="n" r="T65" s="8">
+      <c r="T65" s="8" t="n">
         <v>40.9</v>
       </c>
-      <c t="n" r="V65" s="7">
+      <c r="V65" s="7" t="n">
         <v>52.8</v>
       </c>
     </row>
-    <row spans="1:22" r="66">
-      <c t="n" r="A66" s="4">
+    <row r="66" spans="1:22">
+      <c r="A66" s="4" t="n">
         <v>63</v>
       </c>
-      <c t="s" r="B66" s="4">
+      <c r="B66" s="4" t="s">
         <v>64</v>
       </c>
-      <c t="n" r="C66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S66" s="10">
+      <c r="C66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="10" t="n">
         <v>2218</v>
       </c>
-      <c t="n" r="T66" s="6">
+      <c r="T66" s="6" t="n">
         <v>51.1</v>
       </c>
-      <c t="n" r="V66" s="7">
+      <c r="V66" s="7" t="n">
         <v>51.1</v>
       </c>
     </row>
-    <row spans="1:22" r="67">
-      <c t="n" r="A67" s="1">
+    <row r="67" spans="1:22">
+      <c r="A67" s="1" t="n">
         <v>64</v>
       </c>
-      <c t="s" r="B67" s="1">
+      <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c t="n" r="C67" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D67" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E67" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G67" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H67" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I67" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J67" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K67" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L67" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M67" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N67" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O67" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P67" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q67" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R67" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="S67" s="10">
+      <c r="C67" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" s="10" t="n">
         <v>2234</v>
       </c>
-      <c t="n" r="T67" s="8">
+      <c r="T67" s="8" t="n">
         <v>50.8</v>
       </c>
-      <c t="n" r="V67" s="7">
+      <c r="V67" s="7" t="n">
         <v>50.8</v>
       </c>
     </row>
-    <row spans="1:22" r="68">
-      <c t="n" r="A68" s="4">
+    <row r="68" spans="1:22">
+      <c r="A68" s="4" t="n">
         <v>65</v>
       </c>
-      <c t="s" r="B68" s="4">
+      <c r="B68" s="4" t="s">
         <v>66</v>
       </c>
-      <c t="n" r="C68" s="9">
+      <c r="C68" s="9" t="n">
         <v>251</v>
       </c>
-      <c t="n" r="D68" s="6">
+      <c r="D68" s="6" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c t="n" r="E68" s="5">
+      <c r="E68" s="5" t="n">
         <v>127</v>
       </c>
-      <c t="n" r="F68" s="6">
+      <c r="F68" s="6" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c t="n" r="G68" s="9">
+      <c r="G68" s="9" t="n">
         <v>581</v>
       </c>
-      <c t="n" r="H68" s="6">
+      <c r="H68" s="6" t="n">
         <v>83</v>
       </c>
-      <c t="n" r="I68" s="5">
+      <c r="I68" s="5" t="n">
         <v>218</v>
       </c>
-      <c t="n" r="J68" s="6">
+      <c r="J68" s="6" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c t="n" r="K68" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M68" s="10">
+      <c r="K68" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="10" t="n">
         <v>540</v>
       </c>
-      <c t="n" r="N68" s="6">
+      <c r="N68" s="6" t="n">
         <v>77.5</v>
       </c>
-      <c t="n" r="O68" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q68" s="5">
+      <c r="O68" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5" t="n">
         <v>180</v>
       </c>
-      <c t="n" r="R68" s="6">
+      <c r="R68" s="6" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c t="n" r="S68" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="V68" s="7">
+      <c r="S68" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="7" t="n">
         <v>48.3</v>
       </c>
     </row>
-    <row spans="1:22" r="69">
-      <c t="n" r="A69" s="1">
+    <row r="69" spans="1:22">
+      <c r="A69" s="1" t="n">
         <v>66</v>
       </c>
-      <c t="s" r="B69" s="1">
+      <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-      <c t="n" r="C69" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D69" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E69" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G69" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H69" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I69" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J69" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K69" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L69" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M69" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N69" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O69" s="11">
+      <c r="C69" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D69" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F69" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H69" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J69" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L69" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N69" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="11" t="n">
         <v>2502</v>
       </c>
-      <c t="n" r="P69" s="8">
+      <c r="P69" s="8" t="n">
         <v>37</v>
       </c>
-      <c t="n" r="Q69" s="10">
+      <c r="Q69" s="10" t="n">
         <v>2579</v>
       </c>
-      <c t="n" r="R69" s="8">
+      <c r="R69" s="8" t="n">
         <v>41.9</v>
       </c>
-      <c t="n" r="S69" s="10">
+      <c r="S69" s="10" t="n">
         <v>2042</v>
       </c>
-      <c t="n" r="T69" s="8">
+      <c r="T69" s="8" t="n">
         <v>54.2</v>
       </c>
-      <c t="n" r="V69" s="7">
+      <c r="V69" s="7" t="n">
         <v>48</v>
       </c>
     </row>
-    <row spans="1:22" r="70">
-      <c t="n" r="A70" s="4">
+    <row r="70" spans="1:22">
+      <c r="A70" s="4" t="n">
         <v>67</v>
       </c>
-      <c t="s" r="B70" s="4">
+      <c r="B70" s="4" t="s">
         <v>68</v>
       </c>
-      <c t="n" r="C70" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E70" s="10">
+      <c r="C70" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10" t="n">
         <v>1657</v>
       </c>
-      <c t="n" r="F70" s="6">
+      <c r="F70" s="6" t="n">
         <v>55.5</v>
       </c>
-      <c t="n" r="G70" s="10">
+      <c r="G70" s="10" t="n">
         <v>1955</v>
       </c>
-      <c t="n" r="H70" s="6">
+      <c r="H70" s="6" t="n">
         <v>49.6</v>
       </c>
-      <c t="n" r="I70" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K70" s="11">
+      <c r="I70" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="11" t="n">
         <v>2034</v>
       </c>
-      <c t="n" r="L70" s="6">
+      <c r="L70" s="6" t="n">
         <v>38.3</v>
       </c>
-      <c t="n" r="M70" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O70" s="11">
+      <c r="M70" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="11" t="n">
         <v>2397</v>
       </c>
-      <c t="n" r="P70" s="6">
+      <c r="P70" s="6" t="n">
         <v>39.1</v>
       </c>
-      <c t="n" r="Q70" s="11">
+      <c r="Q70" s="11" t="n">
         <v>2838</v>
       </c>
-      <c t="n" r="R70" s="6">
+      <c r="R70" s="6" t="n">
         <v>32.1</v>
       </c>
-      <c t="n" r="S70" s="10">
+      <c r="S70" s="10" t="n">
         <v>2055</v>
       </c>
-      <c t="n" r="T70" s="6">
+      <c r="T70" s="6" t="n">
         <v>54</v>
       </c>
-      <c t="n" r="V70" s="7">
+      <c r="V70" s="7" t="n">
         <v>46.5</v>
       </c>
     </row>
-    <row spans="1:22" r="71">
-      <c t="n" r="A71" s="1">
+    <row r="71" spans="1:22">
+      <c r="A71" s="1" t="n">
         <v>68</v>
       </c>
-      <c t="s" r="B71" s="1">
+      <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
-      <c t="n" r="C71" s="11">
+      <c r="C71" s="11" t="n">
         <v>2119</v>
       </c>
-      <c t="n" r="D71" s="8">
+      <c r="D71" s="8" t="n">
         <v>37.7</v>
       </c>
-      <c t="n" r="E71" s="10">
+      <c r="E71" s="10" t="n">
         <v>1412</v>
       </c>
-      <c t="n" r="F71" s="8">
+      <c r="F71" s="8" t="n">
         <v>60.6</v>
       </c>
-      <c t="n" r="G71" s="10">
+      <c r="G71" s="10" t="n">
         <v>1876</v>
       </c>
-      <c t="n" r="H71" s="8">
+      <c r="H71" s="8" t="n">
         <v>51.3</v>
       </c>
-      <c t="n" r="I71" s="11">
+      <c r="I71" s="11" t="n">
         <v>1373</v>
       </c>
-      <c t="n" r="J71" s="8">
+      <c r="J71" s="8" t="n">
         <v>57</v>
       </c>
-      <c t="n" r="K71" s="11">
+      <c r="K71" s="11" t="n">
         <v>1951</v>
       </c>
-      <c t="n" r="L71" s="8">
+      <c r="L71" s="8" t="n">
         <v>40.2</v>
       </c>
-      <c t="n" r="M71" s="11">
+      <c r="M71" s="11" t="n">
         <v>2230</v>
       </c>
-      <c t="n" r="N71" s="8">
+      <c r="N71" s="8" t="n">
         <v>33.6</v>
       </c>
-      <c t="n" r="O71" s="11">
+      <c r="O71" s="11" t="n">
         <v>2574</v>
       </c>
-      <c t="n" r="P71" s="8">
+      <c r="P71" s="8" t="n">
         <v>35.7</v>
       </c>
-      <c t="n" r="Q71" s="10">
+      <c r="Q71" s="10" t="n">
         <v>1830</v>
       </c>
-      <c t="n" r="R71" s="8">
+      <c r="R71" s="8" t="n">
         <v>55.9</v>
       </c>
-      <c t="n" r="S71" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T71" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V71" s="7">
+      <c r="S71" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T71" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" s="7" t="n">
         <v>45.8</v>
       </c>
     </row>
-    <row spans="1:22" r="72">
-      <c t="n" r="A72" s="4">
+    <row r="72" spans="1:22">
+      <c r="A72" s="4" t="n">
         <v>69</v>
       </c>
-      <c t="s" r="B72" s="4">
+      <c r="B72" s="4" t="s">
         <v>70</v>
       </c>
-      <c t="n" r="C72" s="11">
+      <c r="C72" s="11" t="n">
         <v>2048</v>
       </c>
-      <c t="n" r="D72" s="6">
+      <c r="D72" s="6" t="n">
         <v>39.3</v>
       </c>
-      <c t="n" r="E72" s="10">
+      <c r="E72" s="10" t="n">
         <v>1234</v>
       </c>
-      <c t="n" r="F72" s="6">
+      <c r="F72" s="6" t="n">
         <v>64.3</v>
       </c>
-      <c t="n" r="G72" s="10">
+      <c r="G72" s="10" t="n">
         <v>1181</v>
       </c>
-      <c t="n" r="H72" s="6">
+      <c r="H72" s="6" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c t="n" r="I72" s="10">
+      <c r="I72" s="10" t="n">
         <v>1297</v>
       </c>
-      <c t="n" r="J72" s="6">
+      <c r="J72" s="6" t="n">
         <v>63.6</v>
       </c>
-      <c t="n" r="K72" s="5">
+      <c r="K72" s="5" t="n">
         <v>654</v>
       </c>
-      <c t="n" r="L72" s="6">
+      <c r="L72" s="6" t="n">
         <v>85</v>
       </c>
-      <c t="n" r="M72" s="10">
+      <c r="M72" s="10" t="n">
         <v>587</v>
       </c>
-      <c t="n" r="N72" s="6">
+      <c r="N72" s="6" t="n">
         <v>76.5</v>
       </c>
-      <c t="n" r="O72" s="11">
+      <c r="O72" s="11" t="n">
         <v>2022</v>
       </c>
-      <c t="n" r="P72" s="6">
+      <c r="P72" s="6" t="n">
         <v>46.2</v>
       </c>
-      <c t="n" r="Q72" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R72" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S72" s="11">
+      <c r="Q72" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" s="11" t="n">
         <v>2477</v>
       </c>
-      <c t="n" r="T72" s="6">
+      <c r="T72" s="6" t="n">
         <v>41.6</v>
       </c>
-      <c t="n" r="V72" s="7">
+      <c r="V72" s="7" t="n">
         <v>43.9</v>
       </c>
     </row>
-    <row spans="1:22" r="73">
-      <c t="n" r="A73" s="1">
+    <row r="73" spans="1:22">
+      <c r="A73" s="1" t="n">
         <v>70</v>
       </c>
-      <c t="s" r="B73" s="1">
+      <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-      <c t="n" r="C73" s="10">
+      <c r="C73" s="10" t="n">
         <v>901</v>
       </c>
-      <c t="n" r="D73" s="8">
+      <c r="D73" s="8" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c t="n" r="E73" s="9">
+      <c r="E73" s="9" t="n">
         <v>350</v>
       </c>
-      <c t="n" r="F73" s="8">
+      <c r="F73" s="8" t="n">
         <v>87.7</v>
       </c>
-      <c t="n" r="G73" s="10">
+      <c r="G73" s="10" t="n">
         <v>1127</v>
       </c>
-      <c t="n" r="H73" s="8">
+      <c r="H73" s="8" t="n">
         <v>66.7</v>
       </c>
-      <c t="n" r="I73" s="11">
+      <c r="I73" s="11" t="n">
         <v>1573</v>
       </c>
-      <c t="n" r="J73" s="8">
+      <c r="J73" s="8" t="n">
         <v>52.9</v>
       </c>
-      <c t="n" r="K73" s="10">
+      <c r="K73" s="10" t="n">
         <v>1525</v>
       </c>
-      <c t="n" r="L73" s="8">
+      <c r="L73" s="8" t="n">
         <v>55</v>
       </c>
-      <c t="n" r="M73" s="9">
+      <c r="M73" s="9" t="n">
         <v>170</v>
       </c>
-      <c t="n" r="N73" s="8">
+      <c r="N73" s="8" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c t="n" r="O73" s="9">
+      <c r="O73" s="9" t="n">
         <v>426</v>
       </c>
-      <c t="n" r="P73" s="8">
+      <c r="P73" s="8" t="n">
         <v>86.8</v>
       </c>
-      <c t="n" r="Q73" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R73" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="S73" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T73" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V73" s="7">
+      <c r="Q73" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T73" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" s="7" t="n">
         <v>43.4</v>
       </c>
     </row>
-    <row spans="1:22" r="74">
-      <c t="n" r="A74" s="4">
+    <row r="74" spans="1:22">
+      <c r="A74" s="4" t="n">
         <v>71</v>
       </c>
-      <c t="s" r="B74" s="4">
+      <c r="B74" s="4" t="s">
         <v>72</v>
       </c>
-      <c t="n" r="C74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S74" s="11">
+      <c r="C74" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="10" t="n">
+        <v>2068</v>
+      </c>
+      <c r="R74" s="6" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="S74" s="11" t="n">
         <v>2944</v>
       </c>
-      <c t="n" r="T74" s="6">
+      <c r="T74" s="6" t="n">
         <v>33.4</v>
       </c>
-      <c t="n" r="V74" s="7">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row spans="1:22" r="75">
-      <c t="n" r="A75" s="1">
+      <c r="V74" s="7" t="n">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="1" t="n">
         <v>72</v>
       </c>
-      <c t="s" r="B75" s="1">
+      <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-      <c t="n" r="C75" s="11">
+      <c r="C75" s="11" t="n">
         <v>2014</v>
       </c>
-      <c t="n" r="D75" s="8">
+      <c r="D75" s="8" t="n">
         <v>40.1</v>
       </c>
-      <c t="n" r="E75" s="10">
+      <c r="E75" s="10" t="n">
         <v>2067</v>
       </c>
-      <c t="n" r="F75" s="8">
+      <c r="F75" s="8" t="n">
         <v>47</v>
       </c>
-      <c t="n" r="G75" s="10">
+      <c r="G75" s="10" t="n">
         <v>1309</v>
       </c>
-      <c t="n" r="H75" s="8">
+      <c r="H75" s="8" t="n">
         <v>63</v>
       </c>
-      <c t="n" r="I75" s="11">
+      <c r="I75" s="11" t="n">
         <v>1917</v>
       </c>
-      <c t="n" r="J75" s="8">
+      <c r="J75" s="8" t="n">
         <v>45.9</v>
       </c>
-      <c t="n" r="K75" s="11">
+      <c r="K75" s="11" t="n">
         <v>2267</v>
       </c>
-      <c t="n" r="L75" s="8">
+      <c r="L75" s="8" t="n">
         <v>32.9</v>
       </c>
-      <c t="n" r="M75" s="10">
+      <c r="M75" s="10" t="n">
         <v>1046</v>
       </c>
-      <c t="n" r="N75" s="8">
+      <c r="N75" s="8" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c t="n" r="O75" s="10">
+      <c r="O75" s="10" t="n">
         <v>1305</v>
       </c>
-      <c t="n" r="P75" s="8">
+      <c r="P75" s="8" t="n">
         <v>65</v>
       </c>
-      <c t="n" r="Q75" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R75" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="S75" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T75" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V75" s="7">
+      <c r="Q75" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="7" t="n">
         <v>32.5</v>
       </c>
     </row>
-    <row spans="1:22" r="76">
-      <c t="n" r="A76" s="4">
+    <row r="76" spans="1:22">
+      <c r="A76" s="4" t="n">
         <v>73</v>
       </c>
-      <c t="s" r="B76" s="4">
+      <c r="B76" s="4" t="s">
         <v>74</v>
       </c>
-      <c t="n" r="C76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I76" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K76" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M76" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O76" s="11">
+      <c r="C76" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="11" t="n">
         <v>2526</v>
       </c>
-      <c t="n" r="P76" s="6">
+      <c r="P76" s="6" t="n">
         <v>36.6</v>
       </c>
-      <c t="n" r="Q76" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S76" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="V76" s="7">
+      <c r="Q76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" s="7" t="n">
         <v>18.3</v>
       </c>
     </row>
-    <row spans="1:22" r="77">
-      <c t="n" r="A77" s="1">
+    <row r="77" spans="1:22">
+      <c r="A77" s="1" t="n">
         <v>74</v>
       </c>
-      <c t="s" r="B77" s="1">
+      <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
-      <c t="n" r="C77" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E77" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G77" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="I77" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="K77" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="M77" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="O77" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q77" s="8">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="S77" s="8">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T77" s="8">
-        <v>0</v>
-      </c>
-      <c t="n" r="V77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:22" r="78">
-      <c t="n" r="A78" s="4">
+      <c r="C77" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="4" t="n">
         <v>75</v>
       </c>
-      <c t="s" r="B78" s="4">
+      <c r="B78" s="4" t="s">
         <v>76</v>
       </c>
-      <c t="n" r="C78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S78" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="V78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:22" r="81">
-      <c t="s" r="B81" s="12">
+      <c r="C78" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="B81" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row spans="1:22" r="82">
-      <c t="s" r="B82" s="12">
+    <row r="82" spans="1:22">
+      <c r="B82" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5645,81 +5645,81 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B66" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B68" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B69" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B70" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B71" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B72" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B73" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B74" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B75" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B76" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B77" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B78" r:id="rId75"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B37" r:id="rId34"/>
+    <hyperlink ref="B38" r:id="rId35"/>
+    <hyperlink ref="B39" r:id="rId36"/>
+    <hyperlink ref="B40" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B42" r:id="rId39"/>
+    <hyperlink ref="B43" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41"/>
+    <hyperlink ref="B45" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B48" r:id="rId45"/>
+    <hyperlink ref="B49" r:id="rId46"/>
+    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B51" r:id="rId48"/>
+    <hyperlink ref="B52" r:id="rId49"/>
+    <hyperlink ref="B53" r:id="rId50"/>
+    <hyperlink ref="B54" r:id="rId51"/>
+    <hyperlink ref="B55" r:id="rId52"/>
+    <hyperlink ref="B56" r:id="rId53"/>
+    <hyperlink ref="B57" r:id="rId54"/>
+    <hyperlink ref="B58" r:id="rId55"/>
+    <hyperlink ref="B59" r:id="rId56"/>
+    <hyperlink ref="B60" r:id="rId57"/>
+    <hyperlink ref="B61" r:id="rId58"/>
+    <hyperlink ref="B62" r:id="rId59"/>
+    <hyperlink ref="B63" r:id="rId60"/>
+    <hyperlink ref="B64" r:id="rId61"/>
+    <hyperlink ref="B65" r:id="rId62"/>
+    <hyperlink ref="B66" r:id="rId63"/>
+    <hyperlink ref="B67" r:id="rId64"/>
+    <hyperlink ref="B68" r:id="rId65"/>
+    <hyperlink ref="B69" r:id="rId66"/>
+    <hyperlink ref="B70" r:id="rId67"/>
+    <hyperlink ref="B71" r:id="rId68"/>
+    <hyperlink ref="B72" r:id="rId69"/>
+    <hyperlink ref="B73" r:id="rId70"/>
+    <hyperlink ref="B74" r:id="rId71"/>
+    <hyperlink ref="B75" r:id="rId72"/>
+    <hyperlink ref="B76" r:id="rId73"/>
+    <hyperlink ref="B77" r:id="rId74"/>
+    <hyperlink ref="B78" r:id="rId75"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -239,13 +239,13 @@
     <t>user4286</t>
   </si>
   <si>
+    <t>cookiecookie</t>
+  </si>
+  <si>
     <t>huange</t>
   </si>
   <si>
     <t>crossbowman</t>
-  </si>
-  <si>
-    <t>cookiecookie</t>
   </si>
   <si>
     <t>-2:     Not joined group yet</t>
@@ -675,5407 +675,5407 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c t="s" r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c t="n" r="C1" s="2">
+      <c r="B1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n" s="2">
         <v>118</v>
       </c>
-      <c t="n" r="E1" s="2">
+      <c r="E1" t="n" s="2">
         <v>119</v>
       </c>
-      <c t="n" r="G1" s="2">
+      <c r="G1" t="n" s="2">
         <v>120</v>
       </c>
-      <c t="n" r="I1" s="2">
+      <c r="I1" t="n" s="2">
         <v>121</v>
       </c>
-      <c t="n" r="K1" s="2">
+      <c r="K1" t="n" s="2">
         <v>122</v>
       </c>
-      <c t="n" r="M1" s="2">
+      <c r="M1" t="n" s="2">
         <v>123</v>
       </c>
-      <c t="n" r="O1" s="2">
+      <c r="O1" t="n" s="2">
         <v>124</v>
       </c>
-      <c t="n" r="Q1" s="2">
+      <c r="Q1" t="n" s="2">
         <v>125</v>
       </c>
-      <c t="n" r="S1" s="2">
+      <c r="S1" t="n" s="2">
         <v>126</v>
       </c>
-      <c t="n" r="U1" s="2">
+      <c r="U1" t="n" s="2">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c t="s" r="B2" s="1">
+      <c r="B2" t="s" s="1">
         <v>1</v>
       </c>
-      <c t="n" r="C2" s="3">
+      <c r="C2" t="n" s="3">
         <v>3587</v>
       </c>
-      <c t="n" r="E2" s="3">
+      <c r="E2" t="n" s="3">
         <v>3847</v>
       </c>
-      <c t="n" r="G2" s="3">
+      <c r="G2" t="n" s="3">
         <v>3876</v>
       </c>
-      <c t="n" r="I2" s="3">
+      <c r="I2" t="n" s="3">
         <v>3924</v>
       </c>
-      <c t="n" r="K2" s="3">
+      <c r="K2" t="n" s="3">
         <v>3482</v>
       </c>
-      <c t="n" r="M2" s="3">
+      <c r="M2" t="n" s="3">
         <v>3468</v>
       </c>
-      <c t="n" r="O2" s="3">
+      <c r="O2" t="n" s="3">
         <v>4174</v>
       </c>
-      <c t="n" r="Q2" s="3">
+      <c r="Q2" t="n" s="3">
         <v>4288</v>
       </c>
-      <c t="n" r="S2" s="3">
+      <c r="S2" t="n" s="3">
         <v>4564</v>
       </c>
-      <c t="n" r="U2" s="3">
+      <c r="U2" t="n" s="3">
         <v>4071</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c t="n" r="A4" s="4">
+      <c r="A4" t="n" s="4">
         <v>1</v>
       </c>
-      <c t="s" r="B4" s="4">
+      <c r="B4" t="s" s="4">
         <v>2</v>
       </c>
-      <c t="n" r="C4" s="5">
+      <c r="C4" t="n" s="5">
         <v>51</v>
       </c>
-      <c t="n" r="D4" s="6">
+      <c r="D4" t="n" s="6">
         <v>98.90000000000001</v>
       </c>
-      <c t="n" r="E4" s="5">
+      <c r="E4" t="n" s="5">
         <v>36</v>
       </c>
-      <c t="n" r="F4" s="6">
+      <c r="F4" t="n" s="6">
         <v>99.3</v>
       </c>
-      <c t="n" r="G4" s="5">
+      <c r="G4" t="n" s="5">
         <v>7</v>
       </c>
-      <c t="n" r="H4" s="6">
+      <c r="H4" t="n" s="6">
         <v>99.90000000000001</v>
       </c>
-      <c t="n" r="I4" s="5">
+      <c r="I4" t="n" s="5">
         <v>39</v>
       </c>
-      <c t="n" r="J4" s="6">
+      <c r="J4" t="n" s="6">
         <v>99.2</v>
       </c>
-      <c t="n" r="K4" s="5">
+      <c r="K4" t="n" s="5">
         <v>148</v>
       </c>
-      <c t="n" r="L4" s="6">
+      <c r="L4" t="n" s="6">
         <v>96.59999999999999</v>
       </c>
-      <c t="n" r="M4" s="5">
+      <c r="M4" t="n" s="5">
         <v>8</v>
       </c>
-      <c t="n" r="N4" s="6">
+      <c r="N4" t="n" s="6">
         <v>99.8</v>
       </c>
-      <c t="n" r="O4" s="5">
+      <c r="O4" t="n" s="5">
         <v>41</v>
       </c>
-      <c t="n" r="P4" s="6">
+      <c r="P4" t="n" s="6">
         <v>99.2</v>
       </c>
-      <c t="n" r="Q4" s="5">
+      <c r="Q4" t="n" s="5">
         <v>22</v>
       </c>
-      <c t="n" r="R4" s="6">
+      <c r="R4" t="n" s="6">
         <v>99.59999999999999</v>
       </c>
-      <c t="n" r="S4" s="5">
+      <c r="S4" t="n" s="5">
         <v>56</v>
       </c>
-      <c t="n" r="T4" s="6">
+      <c r="T4" t="n" s="6">
         <v>99</v>
       </c>
-      <c t="n" r="U4" s="5">
+      <c r="U4" t="n" s="5">
         <v>362</v>
       </c>
-      <c t="n" r="V4" s="6">
+      <c r="V4" t="n" s="6">
         <v>92.90000000000001</v>
       </c>
-      <c t="n" r="X4" s="7">
+      <c r="X4" t="n" s="7">
         <v>99.3</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c t="n" r="A5" s="1">
+      <c r="A5" t="n" s="1">
         <v>2</v>
       </c>
-      <c t="s" r="B5" s="1">
+      <c r="B5" t="s" s="1">
         <v>3</v>
       </c>
-      <c t="n" r="C5" s="8">
+      <c r="C5" t="n" s="8">
         <v>429</v>
       </c>
-      <c t="n" r="D5" s="9">
+      <c r="D5" t="n" s="9">
         <v>85.40000000000001</v>
       </c>
-      <c t="n" r="E5" s="5">
+      <c r="E5" t="n" s="5">
         <v>174</v>
       </c>
-      <c t="n" r="F5" s="9">
+      <c r="F5" t="n" s="9">
         <v>96.40000000000001</v>
       </c>
-      <c t="n" r="G5" s="5">
+      <c r="G5" t="n" s="5">
         <v>322</v>
       </c>
-      <c t="n" r="H5" s="9">
+      <c r="H5" t="n" s="9">
         <v>93.40000000000001</v>
       </c>
-      <c t="n" r="I5" s="8">
+      <c r="I5" t="n" s="8">
         <v>492</v>
       </c>
-      <c t="n" r="J5" s="9">
+      <c r="J5" t="n" s="9">
         <v>85</v>
       </c>
-      <c t="n" r="K5" s="5">
+      <c r="K5" t="n" s="5">
         <v>335</v>
       </c>
-      <c t="n" r="L5" s="9">
+      <c r="L5" t="n" s="9">
         <v>92.3</v>
       </c>
-      <c t="n" r="M5" s="8">
+      <c r="M5" t="n" s="8">
         <v>269</v>
       </c>
-      <c t="n" r="N5" s="9">
+      <c r="N5" t="n" s="9">
         <v>88.8</v>
       </c>
-      <c t="n" r="O5" s="5">
+      <c r="O5" t="n" s="5">
         <v>311</v>
       </c>
-      <c t="n" r="P5" s="9">
+      <c r="P5" t="n" s="9">
         <v>94</v>
       </c>
-      <c t="n" r="Q5" s="5">
+      <c r="Q5" t="n" s="5">
         <v>107</v>
       </c>
-      <c t="n" r="R5" s="9">
+      <c r="R5" t="n" s="9">
         <v>98</v>
       </c>
-      <c t="n" r="S5" s="5">
+      <c r="S5" t="n" s="5">
         <v>75</v>
       </c>
-      <c t="n" r="T5" s="9">
+      <c r="T5" t="n" s="9">
         <v>98.7</v>
       </c>
-      <c t="n" r="U5" s="5">
+      <c r="U5" t="n" s="5">
         <v>155</v>
       </c>
-      <c t="n" r="V5" s="9">
+      <c r="V5" t="n" s="9">
         <v>97</v>
       </c>
-      <c t="n" r="X5" s="7">
+      <c r="X5" t="n" s="7">
         <v>98.3</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c t="n" r="A6" s="4">
+      <c r="A6" t="n" s="4">
         <v>3</v>
       </c>
-      <c t="s" r="B6" s="4">
+      <c r="B6" t="s" s="4">
         <v>4</v>
       </c>
-      <c t="n" r="C6" s="5">
+      <c r="C6" t="n" s="5">
         <v>112</v>
       </c>
-      <c t="n" r="D6" s="6">
+      <c r="D6" t="n" s="6">
         <v>97.5</v>
       </c>
-      <c t="n" r="E6" s="5">
+      <c r="E6" t="n" s="5">
         <v>164</v>
       </c>
-      <c t="n" r="F6" s="6">
+      <c r="F6" t="n" s="6">
         <v>96.59999999999999</v>
       </c>
-      <c t="n" r="G6" s="5">
+      <c r="G6" t="n" s="5">
         <v>154</v>
       </c>
-      <c t="n" r="H6" s="6">
+      <c r="H6" t="n" s="6">
         <v>96.8</v>
       </c>
-      <c t="n" r="I6" s="8">
+      <c r="I6" t="n" s="8">
         <v>637</v>
       </c>
-      <c t="n" r="J6" s="6">
+      <c r="J6" t="n" s="6">
         <v>82</v>
       </c>
-      <c t="n" r="K6" s="5">
+      <c r="K6" t="n" s="5">
         <v>142</v>
       </c>
-      <c t="n" r="L6" s="6">
+      <c r="L6" t="n" s="6">
         <v>96.7</v>
       </c>
-      <c t="n" r="M6" s="8">
+      <c r="M6" t="n" s="8">
         <v>149</v>
       </c>
-      <c t="n" r="N6" s="6">
+      <c r="N6" t="n" s="6">
         <v>91.59999999999999</v>
       </c>
-      <c t="n" r="O6" s="8">
+      <c r="O6" t="n" s="8">
         <v>418</v>
       </c>
-      <c t="n" r="P6" s="6">
+      <c r="P6" t="n" s="6">
         <v>87</v>
       </c>
-      <c t="n" r="Q6" s="5">
+      <c r="Q6" t="n" s="5">
         <v>269</v>
       </c>
-      <c t="n" r="R6" s="6">
+      <c r="R6" t="n" s="6">
         <v>95</v>
       </c>
-      <c t="n" r="S6" s="5">
+      <c r="S6" t="n" s="5">
         <v>20</v>
       </c>
-      <c t="n" r="T6" s="6">
+      <c r="T6" t="n" s="6">
         <v>99.59999999999999</v>
       </c>
-      <c t="n" r="U6" s="5">
+      <c r="U6" t="n" s="5">
         <v>758</v>
       </c>
-      <c t="n" r="V6" s="6">
+      <c r="V6" t="n" s="6">
         <v>85.09999999999999</v>
       </c>
-      <c t="n" r="X6" s="7">
+      <c r="X6" t="n" s="7">
         <v>97.3</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c t="n" r="A7" s="1">
+      <c r="A7" t="n" s="1">
         <v>4</v>
       </c>
-      <c t="s" r="B7" s="1">
+      <c r="B7" t="s" s="1">
         <v>5</v>
       </c>
-      <c t="n" r="C7" s="5">
+      <c r="C7" t="n" s="5">
         <v>60</v>
       </c>
-      <c t="n" r="D7" s="9">
+      <c r="D7" t="n" s="9">
         <v>98.7</v>
       </c>
-      <c t="n" r="E7" s="8">
+      <c r="E7" t="n" s="8">
         <v>454</v>
       </c>
-      <c t="n" r="F7" s="9">
+      <c r="F7" t="n" s="9">
         <v>85.59999999999999</v>
       </c>
-      <c t="n" r="G7" s="5">
+      <c r="G7" t="n" s="5">
         <v>425</v>
       </c>
-      <c t="n" r="H7" s="9">
+      <c r="H7" t="n" s="9">
         <v>91.2</v>
       </c>
-      <c t="n" r="I7" s="5">
+      <c r="I7" t="n" s="5">
         <v>103</v>
       </c>
-      <c t="n" r="J7" s="9">
+      <c r="J7" t="n" s="9">
         <v>97.90000000000001</v>
       </c>
-      <c t="n" r="K7" s="5">
+      <c r="K7" t="n" s="5">
         <v>128</v>
       </c>
-      <c t="n" r="L7" s="9">
+      <c r="L7" t="n" s="9">
         <v>97.09999999999999</v>
       </c>
-      <c t="n" r="M7" s="8">
+      <c r="M7" t="n" s="8">
         <v>239</v>
       </c>
-      <c t="n" r="N7" s="9">
+      <c r="N7" t="n" s="9">
         <v>89.5</v>
       </c>
-      <c t="n" r="O7" s="5">
+      <c r="O7" t="n" s="5">
         <v>318</v>
       </c>
-      <c t="n" r="P7" s="9">
+      <c r="P7" t="n" s="9">
         <v>93.90000000000001</v>
       </c>
-      <c t="n" r="Q7" s="5">
+      <c r="Q7" t="n" s="5">
         <v>292</v>
       </c>
-      <c t="n" r="R7" s="9">
+      <c r="R7" t="n" s="9">
         <v>94.59999999999999</v>
       </c>
-      <c t="n" r="S7" s="5">
+      <c r="S7" t="n" s="5">
         <v>88</v>
       </c>
-      <c t="n" r="T7" s="9">
+      <c r="T7" t="n" s="9">
         <v>98.5</v>
       </c>
-      <c t="n" r="U7" s="5">
+      <c r="U7" t="n" s="5">
         <v>357</v>
       </c>
-      <c t="n" r="V7" s="9">
+      <c r="V7" t="n" s="9">
         <v>93</v>
       </c>
-      <c t="n" r="X7" s="7">
+      <c r="X7" t="n" s="7">
         <v>96.59999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c t="n" r="A8" s="4">
+      <c r="A8" t="n" s="4">
         <v>5</v>
       </c>
-      <c t="s" r="B8" s="4">
+      <c r="B8" t="s" s="4">
         <v>6</v>
       </c>
-      <c t="n" r="C8" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E8" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G8" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I8" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K8" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M8" s="10">
+      <c r="C8" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D8" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H8" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J8" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L8" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n" s="10">
         <v>1800</v>
       </c>
-      <c t="n" r="N8" s="6">
+      <c r="N8" t="n" s="6">
         <v>43.5</v>
       </c>
-      <c t="n" r="O8" s="5">
+      <c r="O8" t="n" s="5">
         <v>321</v>
       </c>
-      <c t="n" r="P8" s="6">
+      <c r="P8" t="n" s="6">
         <v>93.8</v>
       </c>
-      <c t="n" r="Q8" s="5">
+      <c r="Q8" t="n" s="5">
         <v>379</v>
       </c>
-      <c t="n" r="R8" s="6">
+      <c r="R8" t="n" s="6">
         <v>92.90000000000001</v>
       </c>
-      <c t="n" r="S8" s="11">
+      <c r="S8" t="n" s="11">
         <v>1268</v>
       </c>
-      <c t="n" r="T8" s="6">
+      <c r="T8" t="n" s="6">
         <v>67.8</v>
       </c>
-      <c t="n" r="U8" s="5">
+      <c r="U8" t="n" s="5">
         <v>87</v>
       </c>
-      <c t="n" r="V8" s="6">
+      <c r="V8" t="n" s="6">
         <v>98.3</v>
       </c>
-      <c t="n" r="X8" s="7">
+      <c r="X8" t="n" s="7">
         <v>95.59999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c t="n" r="A9" s="1">
+      <c r="A9" t="n" s="1">
         <v>6</v>
       </c>
-      <c t="s" r="B9" s="1">
+      <c r="B9" t="s" s="1">
         <v>7</v>
       </c>
-      <c t="n" r="C9" s="8">
+      <c r="C9" t="n" s="8">
         <v>514</v>
       </c>
-      <c t="n" r="D9" s="9">
+      <c r="D9" t="n" s="9">
         <v>83.5</v>
       </c>
-      <c t="n" r="E9" s="5">
+      <c r="E9" t="n" s="5">
         <v>128</v>
       </c>
-      <c t="n" r="F9" s="9">
+      <c r="F9" t="n" s="9">
         <v>97.3</v>
       </c>
-      <c t="n" r="G9" s="5">
+      <c r="G9" t="n" s="5">
         <v>222</v>
       </c>
-      <c t="n" r="H9" s="9">
+      <c r="H9" t="n" s="9">
         <v>95.40000000000001</v>
       </c>
-      <c t="n" r="I9" s="8">
+      <c r="I9" t="n" s="8">
         <v>250</v>
       </c>
-      <c t="n" r="J9" s="9">
+      <c r="J9" t="n" s="9">
         <v>89.90000000000001</v>
       </c>
-      <c t="n" r="K9" s="5">
+      <c r="K9" t="n" s="5">
         <v>194</v>
       </c>
-      <c t="n" r="L9" s="9">
+      <c r="L9" t="n" s="9">
         <v>95.5</v>
       </c>
-      <c t="n" r="M9" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O9" s="5">
+      <c r="M9" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N9" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n" s="5">
         <v>98</v>
       </c>
-      <c t="n" r="P9" s="9">
+      <c r="P9" t="n" s="9">
         <v>98.09999999999999</v>
       </c>
-      <c t="n" r="Q9" s="5">
+      <c r="Q9" t="n" s="5">
         <v>230</v>
       </c>
-      <c t="n" r="R9" s="9">
+      <c r="R9" t="n" s="9">
         <v>95.7</v>
       </c>
-      <c t="n" r="S9" s="8">
+      <c r="S9" t="n" s="8">
         <v>112</v>
       </c>
-      <c t="n" r="T9" s="9">
+      <c r="T9" t="n" s="9">
         <v>93</v>
       </c>
-      <c t="n" r="U9" s="5">
+      <c r="U9" t="n" s="5">
         <v>744</v>
       </c>
-      <c t="n" r="V9" s="9">
+      <c r="V9" t="n" s="9">
         <v>85.40000000000001</v>
       </c>
-      <c t="n" r="X9" s="7">
+      <c r="X9" t="n" s="7">
         <v>94.40000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c t="n" r="A10" s="4">
+      <c r="A10" t="n" s="4">
         <v>7</v>
       </c>
-      <c t="s" r="B10" s="4">
+      <c r="B10" t="s" s="4">
         <v>8</v>
       </c>
-      <c t="n" r="C10" s="8">
+      <c r="C10" t="n" s="8">
         <v>565</v>
       </c>
-      <c t="n" r="D10" s="6">
+      <c r="D10" t="n" s="6">
         <v>82.40000000000001</v>
       </c>
-      <c t="n" r="E10" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G10" s="8">
+      <c r="E10" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n" s="8">
         <v>845</v>
       </c>
-      <c t="n" r="H10" s="6">
+      <c r="H10" t="n" s="6">
         <v>77.59999999999999</v>
       </c>
-      <c t="n" r="I10" s="8">
+      <c r="I10" t="n" s="8">
         <v>419</v>
       </c>
-      <c t="n" r="J10" s="6">
+      <c r="J10" t="n" s="6">
         <v>86.5</v>
       </c>
-      <c t="n" r="K10" s="5">
+      <c r="K10" t="n" s="5">
         <v>711</v>
       </c>
-      <c t="n" r="L10" s="6">
+      <c r="L10" t="n" s="6">
         <v>83.7</v>
       </c>
-      <c t="n" r="M10" s="5">
+      <c r="M10" t="n" s="5">
         <v>100</v>
       </c>
-      <c t="n" r="N10" s="6">
+      <c r="N10" t="n" s="6">
         <v>97.7</v>
       </c>
-      <c t="n" r="O10" s="5">
+      <c r="O10" t="n" s="5">
         <v>53</v>
       </c>
-      <c t="n" r="P10" s="6">
+      <c r="P10" t="n" s="6">
         <v>99</v>
       </c>
-      <c t="n" r="Q10" s="5">
+      <c r="Q10" t="n" s="5">
         <v>648</v>
       </c>
-      <c t="n" r="R10" s="6">
+      <c r="R10" t="n" s="6">
         <v>87.90000000000001</v>
       </c>
-      <c t="n" r="S10" s="8">
+      <c r="S10" t="n" s="8">
         <v>281</v>
       </c>
-      <c t="n" r="T10" s="6">
+      <c r="T10" t="n" s="6">
         <v>90.09999999999999</v>
       </c>
-      <c t="n" r="U10" s="5">
+      <c r="U10" t="n" s="5">
         <v>64</v>
       </c>
-      <c t="n" r="V10" s="6">
+      <c r="V10" t="n" s="6">
         <v>98.7</v>
       </c>
-      <c t="n" r="X10" s="7">
+      <c r="X10" t="n" s="7">
         <v>94.40000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c t="n" r="A11" s="1">
+      <c r="A11" t="n" s="1">
         <v>8</v>
       </c>
-      <c t="s" r="B11" s="1">
+      <c r="B11" t="s" s="1">
         <v>9</v>
       </c>
-      <c t="n" r="C11" s="11">
+      <c r="C11" t="n" s="11">
         <v>1117</v>
       </c>
-      <c t="n" r="D11" s="9">
+      <c r="D11" t="n" s="9">
         <v>65.09999999999999</v>
       </c>
-      <c t="n" r="E11" s="8">
+      <c r="E11" t="n" s="8">
         <v>459</v>
       </c>
-      <c t="n" r="F11" s="9">
+      <c r="F11" t="n" s="9">
         <v>85.5</v>
       </c>
-      <c t="n" r="G11" s="8">
+      <c r="G11" t="n" s="8">
         <v>846</v>
       </c>
-      <c t="n" r="H11" s="9">
+      <c r="H11" t="n" s="9">
         <v>77.5</v>
       </c>
-      <c t="n" r="I11" s="11">
+      <c r="I11" t="n" s="11">
         <v>828</v>
       </c>
-      <c t="n" r="J11" s="9">
+      <c r="J11" t="n" s="9">
         <v>73.09999999999999</v>
       </c>
-      <c t="n" r="K11" s="11">
+      <c r="K11" t="n" s="11">
         <v>1573</v>
       </c>
-      <c t="n" r="L11" s="9">
+      <c r="L11" t="n" s="9">
         <v>53.9</v>
       </c>
-      <c t="n" r="M11" s="11">
+      <c r="M11" t="n" s="11">
         <v>885</v>
       </c>
-      <c t="n" r="N11" s="9">
+      <c r="N11" t="n" s="9">
         <v>69.59999999999999</v>
       </c>
-      <c t="n" r="O11" s="11">
+      <c r="O11" t="n" s="11">
         <v>1338</v>
       </c>
-      <c t="n" r="P11" s="9">
+      <c r="P11" t="n" s="9">
         <v>64.40000000000001</v>
       </c>
-      <c t="n" r="Q11" s="8">
+      <c r="Q11" t="n" s="8">
         <v>859</v>
       </c>
-      <c t="n" r="R11" s="9">
+      <c r="R11" t="n" s="9">
         <v>79</v>
       </c>
-      <c t="n" r="S11" s="8">
+      <c r="S11" t="n" s="8">
         <v>364</v>
       </c>
-      <c t="n" r="T11" s="9">
+      <c r="T11" t="n" s="9">
         <v>88.59999999999999</v>
       </c>
-      <c t="n" r="U11" s="5">
+      <c r="U11" t="n" s="5">
         <v>28</v>
       </c>
-      <c t="n" r="V11" s="9">
+      <c r="V11" t="n" s="9">
         <v>99.40000000000001</v>
       </c>
-      <c t="n" r="X11" s="7">
+      <c r="X11" t="n" s="7">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c t="n" r="A12" s="4">
+      <c r="A12" t="n" s="4">
         <v>9</v>
       </c>
-      <c t="s" r="B12" s="4">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c t="n" r="C12" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E12" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G12" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I12" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K12" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M12" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O12" s="8">
+      <c r="C12" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D12" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F12" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H12" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J12" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L12" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N12" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n" s="8">
         <v>637</v>
       </c>
-      <c t="n" r="P12" s="6">
+      <c r="P12" t="n" s="6">
         <v>82.8</v>
       </c>
-      <c t="n" r="Q12" s="5">
+      <c r="Q12" t="n" s="5">
         <v>229</v>
       </c>
-      <c t="n" r="R12" s="6">
+      <c r="R12" t="n" s="6">
         <v>95.7</v>
       </c>
-      <c t="n" r="S12" s="8">
+      <c r="S12" t="n" s="8">
         <v>185</v>
       </c>
-      <c t="n" r="T12" s="6">
+      <c r="T12" t="n" s="6">
         <v>91.8</v>
       </c>
-      <c t="n" r="U12" s="5">
+      <c r="U12" t="n" s="5">
         <v>447</v>
       </c>
-      <c t="n" r="V12" s="6">
+      <c r="V12" t="n" s="6">
         <v>91.2</v>
       </c>
-      <c t="n" r="X12" s="7">
+      <c r="X12" t="n" s="7">
         <v>93.8</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c t="n" r="A13" s="1">
+      <c r="A13" t="n" s="1">
         <v>10</v>
       </c>
-      <c t="s" r="B13" s="1">
+      <c r="B13" t="s" s="1">
         <v>11</v>
       </c>
-      <c t="n" r="C13" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E13" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G13" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I13" s="8">
+      <c r="C13" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D13" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F13" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H13" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n" s="8">
         <v>541</v>
       </c>
-      <c t="n" r="J13" s="9">
+      <c r="J13" t="n" s="9">
         <v>84</v>
       </c>
-      <c t="n" r="K13" s="11">
+      <c r="K13" t="n" s="11">
         <v>1344</v>
       </c>
-      <c t="n" r="L13" s="9">
+      <c r="L13" t="n" s="9">
         <v>59.1</v>
       </c>
-      <c t="n" r="M13" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O13" s="11">
+      <c r="M13" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N13" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n" s="11">
         <v>1256</v>
       </c>
-      <c t="n" r="P13" s="9">
+      <c r="P13" t="n" s="9">
         <v>65.90000000000001</v>
       </c>
-      <c t="n" r="Q13" s="5">
+      <c r="Q13" t="n" s="5">
         <v>225</v>
       </c>
-      <c t="n" r="R13" s="9">
+      <c r="R13" t="n" s="9">
         <v>95.8</v>
       </c>
-      <c t="n" r="S13" s="8">
+      <c r="S13" t="n" s="8">
         <v>773</v>
       </c>
-      <c t="n" r="T13" s="9">
+      <c r="T13" t="n" s="9">
         <v>81.5</v>
       </c>
-      <c t="n" r="U13" s="5">
+      <c r="U13" t="n" s="5">
         <v>441</v>
       </c>
-      <c t="n" r="V13" s="9">
+      <c r="V13" t="n" s="9">
         <v>91.3</v>
       </c>
-      <c t="n" r="X13" s="7">
+      <c r="X13" t="n" s="7">
         <v>93.59999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c t="n" r="A14" s="4">
+      <c r="A14" t="n" s="4">
         <v>11</v>
       </c>
-      <c t="s" r="B14" s="4">
+      <c r="B14" t="s" s="4">
         <v>12</v>
       </c>
-      <c t="n" r="C14" s="8">
+      <c r="C14" t="n" s="8">
         <v>301</v>
       </c>
-      <c t="n" r="D14" s="6">
+      <c r="D14" t="n" s="6">
         <v>88.3</v>
       </c>
-      <c t="n" r="E14" s="8">
+      <c r="E14" t="n" s="8">
         <v>344</v>
       </c>
-      <c t="n" r="F14" s="6">
+      <c r="F14" t="n" s="6">
         <v>87.8</v>
       </c>
-      <c t="n" r="G14" s="5">
+      <c r="G14" t="n" s="5">
         <v>232</v>
       </c>
-      <c t="n" r="H14" s="6">
+      <c r="H14" t="n" s="6">
         <v>95.2</v>
       </c>
-      <c t="n" r="I14" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K14" s="5">
+      <c r="I14" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n" s="5">
         <v>172</v>
       </c>
-      <c t="n" r="L14" s="6">
+      <c r="L14" t="n" s="6">
         <v>96</v>
       </c>
-      <c t="n" r="M14" s="8">
+      <c r="M14" t="n" s="8">
         <v>437</v>
       </c>
-      <c t="n" r="N14" s="6">
+      <c r="N14" t="n" s="6">
         <v>84.90000000000001</v>
       </c>
-      <c t="n" r="O14" s="11">
+      <c r="O14" t="n" s="11">
         <v>918</v>
       </c>
-      <c t="n" r="P14" s="6">
+      <c r="P14" t="n" s="6">
         <v>72.40000000000001</v>
       </c>
-      <c t="n" r="Q14" s="5">
+      <c r="Q14" t="n" s="5">
         <v>328</v>
       </c>
-      <c t="n" r="R14" s="6">
+      <c r="R14" t="n" s="6">
         <v>93.90000000000001</v>
       </c>
-      <c t="n" r="S14" s="8">
+      <c r="S14" t="n" s="8">
         <v>1019</v>
       </c>
-      <c t="n" r="T14" s="6">
+      <c r="T14" t="n" s="6">
         <v>77.09999999999999</v>
       </c>
-      <c t="n" r="U14" s="5">
+      <c r="U14" t="n" s="5">
         <v>369</v>
       </c>
-      <c t="n" r="V14" s="6">
+      <c r="V14" t="n" s="6">
         <v>92.7</v>
       </c>
-      <c t="n" r="X14" s="7">
+      <c r="X14" t="n" s="7">
         <v>93.3</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c t="n" r="A15" s="1">
+      <c r="A15" t="n" s="1">
         <v>12</v>
       </c>
-      <c t="s" r="B15" s="1">
+      <c r="B15" t="s" s="1">
         <v>13</v>
       </c>
-      <c t="n" r="C15" s="8">
+      <c r="C15" t="n" s="8">
         <v>251</v>
       </c>
-      <c t="n" r="D15" s="9">
+      <c r="D15" t="n" s="9">
         <v>89.40000000000001</v>
       </c>
-      <c t="n" r="E15" s="5">
+      <c r="E15" t="n" s="5">
         <v>127</v>
       </c>
-      <c t="n" r="F15" s="9">
+      <c r="F15" t="n" s="9">
         <v>97.40000000000001</v>
       </c>
-      <c t="n" r="G15" s="8">
+      <c r="G15" t="n" s="8">
         <v>581</v>
       </c>
-      <c t="n" r="H15" s="9">
+      <c r="H15" t="n" s="9">
         <v>83</v>
       </c>
-      <c t="n" r="I15" s="5">
+      <c r="I15" t="n" s="5">
         <v>218</v>
       </c>
-      <c t="n" r="J15" s="9">
+      <c r="J15" t="n" s="9">
         <v>95.59999999999999</v>
       </c>
-      <c t="n" r="K15" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M15" s="11">
+      <c r="K15" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L15" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n" s="11">
         <v>540</v>
       </c>
-      <c t="n" r="N15" s="9">
+      <c r="N15" t="n" s="9">
         <v>77.5</v>
       </c>
-      <c t="n" r="O15" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q15" s="5">
+      <c r="O15" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P15" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n" s="5">
         <v>180</v>
       </c>
-      <c t="n" r="R15" s="9">
+      <c r="R15" t="n" s="9">
         <v>96.59999999999999</v>
       </c>
-      <c t="n" r="S15" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T15" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U15" s="5">
+      <c r="S15" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T15" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n" s="5">
         <v>549</v>
       </c>
-      <c t="n" r="V15" s="9">
+      <c r="V15" t="n" s="9">
         <v>89.2</v>
       </c>
-      <c t="n" r="X15" s="7">
+      <c r="X15" t="n" s="7">
         <v>92.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c t="n" r="A16" s="4">
+      <c r="A16" t="n" s="4">
         <v>13</v>
       </c>
-      <c t="s" r="B16" s="4">
+      <c r="B16" t="s" s="4">
         <v>14</v>
       </c>
-      <c t="n" r="C16" s="10">
+      <c r="C16" t="n" s="10">
         <v>1455</v>
       </c>
-      <c t="n" r="D16" s="6">
+      <c r="D16" t="n" s="6">
         <v>52.5</v>
       </c>
-      <c t="n" r="E16" s="8">
+      <c r="E16" t="n" s="8">
         <v>1023</v>
       </c>
-      <c t="n" r="F16" s="6">
+      <c r="F16" t="n" s="6">
         <v>73.7</v>
       </c>
-      <c t="n" r="G16" s="5">
+      <c r="G16" t="n" s="5">
         <v>345</v>
       </c>
-      <c t="n" r="H16" s="6">
+      <c r="H16" t="n" s="6">
         <v>92.90000000000001</v>
       </c>
-      <c t="n" r="I16" s="5">
+      <c r="I16" t="n" s="5">
         <v>184</v>
       </c>
-      <c t="n" r="J16" s="6">
+      <c r="J16" t="n" s="6">
         <v>96.2</v>
       </c>
-      <c t="n" r="K16" s="5">
+      <c r="K16" t="n" s="5">
         <v>170</v>
       </c>
-      <c t="n" r="L16" s="6">
+      <c r="L16" t="n" s="6">
         <v>96.09999999999999</v>
       </c>
-      <c t="n" r="M16" s="5">
+      <c r="M16" t="n" s="5">
         <v>97</v>
       </c>
-      <c t="n" r="N16" s="6">
+      <c r="N16" t="n" s="6">
         <v>97.8</v>
       </c>
-      <c t="n" r="O16" s="5">
+      <c r="O16" t="n" s="5">
         <v>56</v>
       </c>
-      <c t="n" r="P16" s="6">
+      <c r="P16" t="n" s="6">
         <v>98.90000000000001</v>
       </c>
-      <c t="n" r="Q16" s="5">
+      <c r="Q16" t="n" s="5">
         <v>540</v>
       </c>
-      <c t="n" r="R16" s="6">
+      <c r="R16" t="n" s="6">
         <v>89.90000000000001</v>
       </c>
-      <c t="n" r="S16" s="8">
+      <c r="S16" t="n" s="8">
         <v>1102</v>
       </c>
-      <c t="n" r="T16" s="6">
+      <c r="T16" t="n" s="6">
         <v>75.7</v>
       </c>
-      <c t="n" r="U16" s="5">
+      <c r="U16" t="n" s="5">
         <v>305</v>
       </c>
-      <c t="n" r="V16" s="6">
+      <c r="V16" t="n" s="6">
         <v>94</v>
       </c>
-      <c t="n" r="X16" s="7">
+      <c r="X16" t="n" s="7">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c t="n" r="A17" s="1">
+      <c r="A17" t="n" s="1">
         <v>14</v>
       </c>
-      <c t="s" r="B17" s="1">
+      <c r="B17" t="s" s="1">
         <v>15</v>
       </c>
-      <c t="n" r="C17" s="8">
+      <c r="C17" t="n" s="8">
         <v>324</v>
       </c>
-      <c t="n" r="D17" s="9">
+      <c r="D17" t="n" s="9">
         <v>87.8</v>
       </c>
-      <c t="n" r="E17" s="5">
+      <c r="E17" t="n" s="5">
         <v>100</v>
       </c>
-      <c t="n" r="F17" s="9">
+      <c r="F17" t="n" s="9">
         <v>97.90000000000001</v>
       </c>
-      <c t="n" r="G17" s="5">
+      <c r="G17" t="n" s="5">
         <v>74</v>
       </c>
-      <c t="n" r="H17" s="9">
+      <c r="H17" t="n" s="9">
         <v>98.5</v>
       </c>
-      <c t="n" r="I17" s="5">
+      <c r="I17" t="n" s="5">
         <v>111</v>
       </c>
-      <c t="n" r="J17" s="9">
+      <c r="J17" t="n" s="9">
         <v>97.7</v>
       </c>
-      <c t="n" r="K17" s="5">
+      <c r="K17" t="n" s="5">
         <v>262</v>
       </c>
-      <c t="n" r="L17" s="9">
+      <c r="L17" t="n" s="9">
         <v>94</v>
       </c>
-      <c t="n" r="M17" s="8">
+      <c r="M17" t="n" s="8">
         <v>183</v>
       </c>
-      <c t="n" r="N17" s="9">
+      <c r="N17" t="n" s="9">
         <v>90.8</v>
       </c>
-      <c t="n" r="O17" s="11">
+      <c r="O17" t="n" s="11">
         <v>902</v>
       </c>
-      <c t="n" r="P17" s="9">
+      <c r="P17" t="n" s="9">
         <v>72.7</v>
       </c>
-      <c t="n" r="Q17" s="5">
+      <c r="Q17" t="n" s="5">
         <v>631</v>
       </c>
-      <c t="n" r="R17" s="9">
+      <c r="R17" t="n" s="9">
         <v>88.2</v>
       </c>
-      <c t="n" r="S17" s="8">
+      <c r="S17" t="n" s="8">
         <v>499</v>
       </c>
-      <c t="n" r="T17" s="9">
+      <c r="T17" t="n" s="9">
         <v>86.3</v>
       </c>
-      <c t="n" r="U17" s="5">
+      <c r="U17" t="n" s="5">
         <v>211</v>
       </c>
-      <c t="n" r="V17" s="9">
+      <c r="V17" t="n" s="9">
         <v>95.90000000000001</v>
       </c>
-      <c t="n" r="X17" s="7">
+      <c r="X17" t="n" s="7">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c t="n" r="A18" s="4">
+      <c r="A18" t="n" s="4">
         <v>15</v>
       </c>
-      <c t="s" r="B18" s="4">
+      <c r="B18" t="s" s="4">
         <v>16</v>
       </c>
-      <c t="n" r="C18" s="8">
+      <c r="C18" t="n" s="8">
         <v>233</v>
       </c>
-      <c t="n" r="D18" s="6">
+      <c r="D18" t="n" s="6">
         <v>89.8</v>
       </c>
-      <c t="n" r="E18" s="11">
+      <c r="E18" t="n" s="11">
         <v>2069</v>
       </c>
-      <c t="n" r="F18" s="6">
+      <c r="F18" t="n" s="6">
         <v>47</v>
       </c>
-      <c t="n" r="G18" s="5">
+      <c r="G18" t="n" s="5">
         <v>178</v>
       </c>
-      <c t="n" r="H18" s="6">
+      <c r="H18" t="n" s="6">
         <v>96.3</v>
       </c>
-      <c t="n" r="I18" s="5">
+      <c r="I18" t="n" s="5">
         <v>61</v>
       </c>
-      <c t="n" r="J18" s="6">
+      <c r="J18" t="n" s="6">
         <v>98.8</v>
       </c>
-      <c t="n" r="K18" s="5">
+      <c r="K18" t="n" s="5">
         <v>355</v>
       </c>
-      <c t="n" r="L18" s="6">
+      <c r="L18" t="n" s="6">
         <v>91.8</v>
       </c>
-      <c t="n" r="M18" s="5">
+      <c r="M18" t="n" s="5">
         <v>127</v>
       </c>
-      <c t="n" r="N18" s="6">
+      <c r="N18" t="n" s="6">
         <v>97.09999999999999</v>
       </c>
-      <c t="n" r="O18" s="5">
+      <c r="O18" t="n" s="5">
         <v>226</v>
       </c>
-      <c t="n" r="P18" s="6">
+      <c r="P18" t="n" s="6">
         <v>95.7</v>
       </c>
-      <c t="n" r="Q18" s="5">
+      <c r="Q18" t="n" s="5">
         <v>515</v>
       </c>
-      <c t="n" r="R18" s="6">
+      <c r="R18" t="n" s="6">
         <v>90.40000000000001</v>
       </c>
-      <c t="n" r="S18" s="8">
+      <c r="S18" t="n" s="8">
         <v>104</v>
       </c>
-      <c t="n" r="T18" s="6">
+      <c r="T18" t="n" s="6">
         <v>93.2</v>
       </c>
-      <c t="n" r="U18" s="5">
+      <c r="U18" t="n" s="5">
         <v>529</v>
       </c>
-      <c t="n" r="V18" s="6">
+      <c r="V18" t="n" s="6">
         <v>89.59999999999999</v>
       </c>
-      <c t="n" r="X18" s="7">
+      <c r="X18" t="n" s="7">
         <v>91.8</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c t="n" r="A19" s="1">
+      <c r="A19" t="n" s="1">
         <v>16</v>
       </c>
-      <c t="s" r="B19" s="1">
+      <c r="B19" t="s" s="1">
         <v>17</v>
       </c>
-      <c t="n" r="C19" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E19" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G19" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I19" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K19" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M19" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O19" s="11">
+      <c r="C19" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D19" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F19" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H19" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J19" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="L19" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="N19" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n" s="11">
         <v>1124</v>
       </c>
-      <c t="n" r="P19" s="9">
+      <c r="P19" t="n" s="9">
         <v>68.5</v>
       </c>
-      <c t="n" r="Q19" s="5">
+      <c r="Q19" t="n" s="5">
         <v>402</v>
       </c>
-      <c t="n" r="R19" s="9">
+      <c r="R19" t="n" s="9">
         <v>92.5</v>
       </c>
-      <c t="n" r="S19" s="8">
+      <c r="S19" t="n" s="8">
         <v>1041</v>
       </c>
-      <c t="n" r="T19" s="9">
+      <c r="T19" t="n" s="9">
         <v>76.8</v>
       </c>
-      <c t="n" r="U19" s="5">
+      <c r="U19" t="n" s="5">
         <v>461</v>
       </c>
-      <c t="n" r="V19" s="9">
+      <c r="V19" t="n" s="9">
         <v>90.90000000000001</v>
       </c>
-      <c t="n" r="X19" s="7">
+      <c r="X19" t="n" s="7">
         <v>91.7</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c t="n" r="A20" s="4">
+      <c r="A20" t="n" s="4">
         <v>17</v>
       </c>
-      <c t="s" r="B20" s="4">
+      <c r="B20" t="s" s="4">
         <v>18</v>
       </c>
-      <c t="n" r="C20" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E20" s="11">
+      <c r="C20" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D20" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n" s="11">
         <v>1223</v>
       </c>
-      <c t="n" r="F20" s="6">
+      <c r="F20" t="n" s="6">
         <v>64.59999999999999</v>
       </c>
-      <c t="n" r="G20" s="11">
+      <c r="G20" t="n" s="11">
         <v>1340</v>
       </c>
-      <c t="n" r="H20" s="6">
+      <c r="H20" t="n" s="6">
         <v>62.3</v>
       </c>
-      <c t="n" r="I20" s="11">
+      <c r="I20" t="n" s="11">
         <v>740</v>
       </c>
-      <c t="n" r="J20" s="6">
+      <c r="J20" t="n" s="6">
         <v>74.90000000000001</v>
       </c>
-      <c t="n" r="K20" s="5">
+      <c r="K20" t="n" s="5">
         <v>182</v>
       </c>
-      <c t="n" r="L20" s="6">
+      <c r="L20" t="n" s="6">
         <v>95.8</v>
       </c>
-      <c t="n" r="M20" s="8">
+      <c r="M20" t="n" s="8">
         <v>338</v>
       </c>
-      <c t="n" r="N20" s="6">
+      <c r="N20" t="n" s="6">
         <v>87.2</v>
       </c>
-      <c t="n" r="O20" s="11">
+      <c r="O20" t="n" s="11">
         <v>1232</v>
       </c>
-      <c t="n" r="P20" s="6">
+      <c r="P20" t="n" s="6">
         <v>66.40000000000001</v>
       </c>
-      <c t="n" r="Q20" s="8">
+      <c r="Q20" t="n" s="8">
         <v>1200</v>
       </c>
-      <c t="n" r="R20" s="6">
+      <c r="R20" t="n" s="6">
         <v>72.59999999999999</v>
       </c>
-      <c t="n" r="S20" s="8">
+      <c r="S20" t="n" s="8">
         <v>219</v>
       </c>
-      <c t="n" r="T20" s="6">
+      <c r="T20" t="n" s="6">
         <v>91.2</v>
       </c>
-      <c t="n" r="U20" s="5">
+      <c r="U20" t="n" s="5">
         <v>449</v>
       </c>
-      <c t="n" r="V20" s="6">
+      <c r="V20" t="n" s="6">
         <v>91.2</v>
       </c>
-      <c t="n" r="X20" s="7">
+      <c r="X20" t="n" s="7">
         <v>91.2</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c t="n" r="A21" s="1">
+      <c r="A21" t="n" s="1">
         <v>18</v>
       </c>
-      <c t="s" r="B21" s="1">
+      <c r="B21" t="s" s="1">
         <v>19</v>
       </c>
-      <c t="n" r="C21" s="11">
+      <c r="C21" t="n" s="11">
         <v>730</v>
       </c>
-      <c t="n" r="D21" s="9">
+      <c r="D21" t="n" s="9">
         <v>73.7</v>
       </c>
-      <c t="n" r="E21" s="8">
+      <c r="E21" t="n" s="8">
         <v>1024</v>
       </c>
-      <c t="n" r="F21" s="9">
+      <c r="F21" t="n" s="9">
         <v>73.7</v>
       </c>
-      <c t="n" r="G21" s="8">
+      <c r="G21" t="n" s="8">
         <v>557</v>
       </c>
-      <c t="n" r="H21" s="9">
+      <c r="H21" t="n" s="9">
         <v>83.5</v>
       </c>
-      <c t="n" r="I21" s="11">
+      <c r="I21" t="n" s="11">
         <v>1092</v>
       </c>
-      <c t="n" r="J21" s="9">
+      <c r="J21" t="n" s="9">
         <v>67.7</v>
       </c>
-      <c t="n" r="K21" s="5">
+      <c r="K21" t="n" s="5">
         <v>531</v>
       </c>
-      <c t="n" r="L21" s="9">
+      <c r="L21" t="n" s="9">
         <v>87.8</v>
       </c>
-      <c t="n" r="M21" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O21" s="11">
+      <c r="M21" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N21" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n" s="11">
         <v>988</v>
       </c>
-      <c t="n" r="P21" s="9">
+      <c r="P21" t="n" s="9">
         <v>71.09999999999999</v>
       </c>
-      <c t="n" r="Q21" s="8">
+      <c r="Q21" t="n" s="8">
         <v>1008</v>
       </c>
-      <c t="n" r="R21" s="9">
+      <c r="R21" t="n" s="9">
         <v>76.2</v>
       </c>
-      <c t="n" r="S21" s="8">
+      <c r="S21" t="n" s="8">
         <v>333</v>
       </c>
-      <c t="n" r="T21" s="9">
+      <c r="T21" t="n" s="9">
         <v>89.2</v>
       </c>
-      <c t="n" r="U21" s="5">
+      <c r="U21" t="n" s="5">
         <v>476</v>
       </c>
-      <c t="n" r="V21" s="9">
+      <c r="V21" t="n" s="9">
         <v>90.59999999999999</v>
       </c>
-      <c t="n" r="X21" s="7">
+      <c r="X21" t="n" s="7">
         <v>89.90000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c t="n" r="A22" s="4">
+      <c r="A22" t="n" s="4">
         <v>19</v>
       </c>
-      <c t="s" r="B22" s="4">
+      <c r="B22" t="s" s="4">
         <v>20</v>
       </c>
-      <c t="n" r="C22" s="8">
+      <c r="C22" t="n" s="8">
         <v>641</v>
       </c>
-      <c t="n" r="D22" s="6">
+      <c r="D22" t="n" s="6">
         <v>80.7</v>
       </c>
-      <c t="n" r="E22" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G22" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I22" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K22" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M22" s="10">
+      <c r="E22" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F22" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H22" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J22" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L22" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n" s="10">
         <v>1623</v>
       </c>
-      <c t="n" r="N22" s="6">
+      <c r="N22" t="n" s="6">
         <v>47.6</v>
       </c>
-      <c t="n" r="O22" s="11">
+      <c r="O22" t="n" s="11">
         <v>927</v>
       </c>
-      <c t="n" r="P22" s="6">
+      <c r="P22" t="n" s="6">
         <v>72.2</v>
       </c>
-      <c t="n" r="Q22" s="5">
+      <c r="Q22" t="n" s="5">
         <v>642</v>
       </c>
-      <c t="n" r="R22" s="6">
+      <c r="R22" t="n" s="6">
         <v>88</v>
       </c>
-      <c t="n" r="S22" s="8">
+      <c r="S22" t="n" s="8">
         <v>204</v>
       </c>
-      <c t="n" r="T22" s="6">
+      <c r="T22" t="n" s="6">
         <v>91.40000000000001</v>
       </c>
-      <c t="n" r="U22" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V22" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X22" s="7">
+      <c r="U22" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V22" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n" s="7">
         <v>89.7</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c t="n" r="A23" s="1">
+      <c r="A23" t="n" s="1">
         <v>20</v>
       </c>
-      <c t="s" r="B23" s="1">
+      <c r="B23" t="s" s="1">
         <v>21</v>
       </c>
-      <c t="n" r="C23" s="11">
+      <c r="C23" t="n" s="11">
         <v>1266</v>
       </c>
-      <c t="n" r="D23" s="9">
+      <c r="D23" t="n" s="9">
         <v>61.8</v>
       </c>
-      <c t="n" r="E23" s="8">
+      <c r="E23" t="n" s="8">
         <v>345</v>
       </c>
-      <c t="n" r="F23" s="9">
+      <c r="F23" t="n" s="9">
         <v>87.8</v>
       </c>
-      <c t="n" r="G23" s="5">
+      <c r="G23" t="n" s="5">
         <v>339</v>
       </c>
-      <c t="n" r="H23" s="9">
+      <c r="H23" t="n" s="9">
         <v>93</v>
       </c>
-      <c t="n" r="I23" s="8">
+      <c r="I23" t="n" s="8">
         <v>488</v>
       </c>
-      <c t="n" r="J23" s="9">
+      <c r="J23" t="n" s="9">
         <v>85.09999999999999</v>
       </c>
-      <c t="n" r="K23" s="5">
+      <c r="K23" t="n" s="5">
         <v>483</v>
       </c>
-      <c t="n" r="L23" s="9">
+      <c r="L23" t="n" s="9">
         <v>88.90000000000001</v>
       </c>
-      <c t="n" r="M23" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O23" s="8">
+      <c r="M23" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N23" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n" s="8">
         <v>649</v>
       </c>
-      <c t="n" r="P23" s="9">
+      <c r="P23" t="n" s="9">
         <v>82.59999999999999</v>
       </c>
-      <c t="n" r="Q23" s="8">
+      <c r="Q23" t="n" s="8">
         <v>1480</v>
       </c>
-      <c t="n" r="R23" s="9">
+      <c r="R23" t="n" s="9">
         <v>67.40000000000001</v>
       </c>
-      <c t="n" r="S23" s="8">
+      <c r="S23" t="n" s="8">
         <v>310</v>
       </c>
-      <c t="n" r="T23" s="9">
+      <c r="T23" t="n" s="9">
         <v>89.59999999999999</v>
       </c>
-      <c t="n" r="U23" s="5">
+      <c r="U23" t="n" s="5">
         <v>639</v>
       </c>
-      <c t="n" r="V23" s="9">
+      <c r="V23" t="n" s="9">
         <v>87.40000000000001</v>
       </c>
-      <c t="n" r="X23" s="7">
+      <c r="X23" t="n" s="7">
         <v>88.5</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c t="n" r="A24" s="4">
+      <c r="A24" t="n" s="4">
         <v>21</v>
       </c>
-      <c t="s" r="B24" s="4">
+      <c r="B24" t="s" s="4">
         <v>22</v>
       </c>
-      <c t="n" r="C24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M24" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O24" s="8">
+      <c r="C24" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D24" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F24" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H24" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J24" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L24" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N24" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n" s="8">
         <v>742</v>
       </c>
-      <c t="n" r="P24" s="6">
+      <c r="P24" t="n" s="6">
         <v>80.8</v>
       </c>
-      <c t="n" r="Q24" s="5">
+      <c r="Q24" t="n" s="5">
         <v>336</v>
       </c>
-      <c t="n" r="R24" s="6">
+      <c r="R24" t="n" s="6">
         <v>93.7</v>
       </c>
-      <c t="n" r="S24" s="8">
+      <c r="S24" t="n" s="8">
         <v>864</v>
       </c>
-      <c t="n" r="T24" s="6">
+      <c r="T24" t="n" s="6">
         <v>79.90000000000001</v>
       </c>
-      <c t="n" r="U24" s="5">
+      <c r="U24" t="n" s="5">
         <v>846</v>
       </c>
-      <c t="n" r="V24" s="6">
+      <c r="V24" t="n" s="6">
         <v>83.40000000000001</v>
       </c>
-      <c t="n" r="X24" s="7">
+      <c r="X24" t="n" s="7">
         <v>88.5</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c t="n" r="A25" s="1">
+      <c r="A25" t="n" s="1">
         <v>22</v>
       </c>
-      <c t="s" r="B25" s="1">
+      <c r="B25" t="s" s="1">
         <v>23</v>
       </c>
-      <c t="n" r="C25" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E25" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G25" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I25" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K25" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M25" s="11">
+      <c r="C25" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D25" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F25" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H25" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J25" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L25" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n" s="11">
         <v>804</v>
       </c>
-      <c t="n" r="N25" s="9">
+      <c r="N25" t="n" s="9">
         <v>71.5</v>
       </c>
-      <c t="n" r="O25" s="11">
+      <c r="O25" t="n" s="11">
         <v>1473</v>
       </c>
-      <c t="n" r="P25" s="9">
+      <c r="P25" t="n" s="9">
         <v>61.8</v>
       </c>
-      <c t="n" r="Q25" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="S25" s="8">
+      <c r="Q25" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R25" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n" s="8">
         <v>320</v>
       </c>
-      <c t="n" r="T25" s="9">
+      <c r="T25" t="n" s="9">
         <v>89.40000000000001</v>
       </c>
-      <c t="n" r="U25" s="5">
+      <c r="U25" t="n" s="5">
         <v>708</v>
       </c>
-      <c t="n" r="V25" s="9">
+      <c r="V25" t="n" s="9">
         <v>86.09999999999999</v>
       </c>
-      <c t="n" r="X25" s="7">
+      <c r="X25" t="n" s="7">
         <v>87.8</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c t="n" r="A26" s="4">
+      <c r="A26" t="n" s="4">
         <v>23</v>
       </c>
-      <c t="s" r="B26" s="4">
+      <c r="B26" t="s" s="4">
         <v>24</v>
       </c>
-      <c t="n" r="C26" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E26" s="8">
+      <c r="C26" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D26" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n" s="8">
         <v>1043</v>
       </c>
-      <c t="n" r="F26" s="6">
+      <c r="F26" t="n" s="6">
         <v>73.3</v>
       </c>
-      <c t="n" r="G26" s="11">
+      <c r="G26" t="n" s="11">
         <v>2069</v>
       </c>
-      <c t="n" r="H26" s="6">
+      <c r="H26" t="n" s="6">
         <v>47.3</v>
       </c>
-      <c t="n" r="I26" s="11">
+      <c r="I26" t="n" s="11">
         <v>790</v>
       </c>
-      <c t="n" r="J26" s="6">
+      <c r="J26" t="n" s="6">
         <v>73.90000000000001</v>
       </c>
-      <c t="n" r="K26" s="8">
+      <c r="K26" t="n" s="8">
         <v>1060</v>
       </c>
-      <c t="n" r="L26" s="6">
+      <c r="L26" t="n" s="6">
         <v>70.59999999999999</v>
       </c>
-      <c t="n" r="M26" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O26" s="5">
+      <c r="M26" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N26" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n" s="5">
         <v>324</v>
       </c>
-      <c t="n" r="P26" s="6">
+      <c r="P26" t="n" s="6">
         <v>93.8</v>
       </c>
-      <c t="n" r="Q26" s="5">
+      <c r="Q26" t="n" s="5">
         <v>614</v>
       </c>
-      <c t="n" r="R26" s="6">
+      <c r="R26" t="n" s="6">
         <v>88.5</v>
       </c>
-      <c t="n" r="S26" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T26" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="U26" s="5">
+      <c r="S26" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T26" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n" s="5">
         <v>695</v>
       </c>
-      <c t="n" r="V26" s="6">
+      <c r="V26" t="n" s="6">
         <v>86.3</v>
       </c>
-      <c t="n" r="X26" s="7">
+      <c r="X26" t="n" s="7">
         <v>87.40000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c t="n" r="A27" s="1">
+      <c r="A27" t="n" s="1">
         <v>24</v>
       </c>
-      <c t="s" r="B27" s="1">
+      <c r="B27" t="s" s="1">
         <v>25</v>
       </c>
-      <c t="n" r="C27" s="11">
+      <c r="C27" t="n" s="11">
         <v>760</v>
       </c>
-      <c t="n" r="D27" s="9">
+      <c r="D27" t="n" s="9">
         <v>73</v>
       </c>
-      <c t="n" r="E27" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G27" s="5">
+      <c r="E27" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n" s="5">
         <v>221</v>
       </c>
-      <c t="n" r="H27" s="9">
+      <c r="H27" t="n" s="9">
         <v>95.40000000000001</v>
       </c>
-      <c t="n" r="I27" s="11">
+      <c r="I27" t="n" s="11">
         <v>1114</v>
       </c>
-      <c t="n" r="J27" s="9">
+      <c r="J27" t="n" s="9">
         <v>67.3</v>
       </c>
-      <c t="n" r="K27" s="8">
+      <c r="K27" t="n" s="8">
         <v>1243</v>
       </c>
-      <c t="n" r="L27" s="9">
+      <c r="L27" t="n" s="9">
         <v>66.40000000000001</v>
       </c>
-      <c t="n" r="M27" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O27" s="8">
+      <c r="M27" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N27" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n" s="8">
         <v>644</v>
       </c>
-      <c t="n" r="P27" s="9">
+      <c r="P27" t="n" s="9">
         <v>82.7</v>
       </c>
-      <c t="n" r="Q27" s="8">
+      <c r="Q27" t="n" s="8">
         <v>735</v>
       </c>
-      <c t="n" r="R27" s="9">
+      <c r="R27" t="n" s="9">
         <v>81.3</v>
       </c>
-      <c t="n" r="S27" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T27" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U27" s="5">
+      <c r="S27" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T27" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n" s="5">
         <v>380</v>
       </c>
-      <c t="n" r="V27" s="9">
+      <c r="V27" t="n" s="9">
         <v>92.5</v>
       </c>
-      <c t="n" r="X27" s="7">
+      <c r="X27" t="n" s="7">
         <v>86.90000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c t="n" r="A28" s="4">
+      <c r="A28" t="n" s="4">
         <v>25</v>
       </c>
-      <c t="s" r="B28" s="4">
+      <c r="B28" t="s" s="4">
         <v>26</v>
       </c>
-      <c t="n" r="C28" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E28" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G28" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I28" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K28" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M28" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O28" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q28" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R28" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S28" s="8">
+      <c r="C28" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D28" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F28" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H28" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J28" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L28" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N28" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P28" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R28" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n" s="8">
         <v>498</v>
       </c>
-      <c t="n" r="T28" s="6">
+      <c r="T28" t="n" s="6">
         <v>86.3</v>
       </c>
-      <c t="n" r="U28" s="5">
+      <c r="U28" t="n" s="5">
         <v>754</v>
       </c>
-      <c t="n" r="V28" s="6">
+      <c r="V28" t="n" s="6">
         <v>85.2</v>
       </c>
-      <c t="n" r="X28" s="7">
+      <c r="X28" t="n" s="7">
         <v>85.8</v>
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c t="n" r="A29" s="1">
+      <c r="A29" t="n" s="1">
         <v>26</v>
       </c>
-      <c t="s" r="B29" s="1">
+      <c r="B29" t="s" s="1">
         <v>27</v>
       </c>
-      <c t="n" r="C29" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E29" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G29" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I29" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K29" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M29" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O29" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P29" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q29" s="5">
+      <c r="C29" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D29" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F29" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H29" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J29" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="L29" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="N29" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="P29" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n" s="5">
         <v>514</v>
       </c>
-      <c t="n" r="R29" s="9">
+      <c r="R29" t="n" s="9">
         <v>90.40000000000001</v>
       </c>
-      <c t="n" r="S29" s="8">
+      <c r="S29" t="n" s="8">
         <v>819</v>
       </c>
-      <c t="n" r="T29" s="9">
+      <c r="T29" t="n" s="9">
         <v>80.59999999999999</v>
       </c>
-      <c t="n" r="U29" s="8">
+      <c r="U29" t="n" s="8">
         <v>1457</v>
       </c>
-      <c t="n" r="V29" s="9">
+      <c r="V29" t="n" s="9">
         <v>66.40000000000001</v>
       </c>
-      <c t="n" r="X29" s="7">
+      <c r="X29" t="n" s="7">
         <v>85.5</v>
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c t="n" r="A30" s="4">
+      <c r="A30" t="n" s="4">
         <v>27</v>
       </c>
-      <c t="s" r="B30" s="4">
+      <c r="B30" t="s" s="4">
         <v>28</v>
       </c>
-      <c t="n" r="C30" s="10">
+      <c r="C30" t="n" s="10">
         <v>1421</v>
       </c>
-      <c t="n" r="D30" s="6">
+      <c r="D30" t="n" s="6">
         <v>53.3</v>
       </c>
-      <c t="n" r="E30" s="8">
+      <c r="E30" t="n" s="8">
         <v>410</v>
       </c>
-      <c t="n" r="F30" s="6">
+      <c r="F30" t="n" s="6">
         <v>86.5</v>
       </c>
-      <c t="n" r="G30" s="8">
+      <c r="G30" t="n" s="8">
         <v>935</v>
       </c>
-      <c t="n" r="H30" s="6">
+      <c r="H30" t="n" s="6">
         <v>75.7</v>
       </c>
-      <c t="n" r="I30" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K30" s="11">
+      <c r="I30" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n" s="11">
         <v>1713</v>
       </c>
-      <c t="n" r="L30" s="6">
+      <c r="L30" t="n" s="6">
         <v>50.6</v>
       </c>
-      <c t="n" r="M30" s="11">
+      <c r="M30" t="n" s="11">
         <v>983</v>
       </c>
-      <c t="n" r="N30" s="6">
+      <c r="N30" t="n" s="6">
         <v>67.3</v>
       </c>
-      <c t="n" r="O30" s="11">
+      <c r="O30" t="n" s="11">
         <v>1238</v>
       </c>
-      <c t="n" r="P30" s="6">
+      <c r="P30" t="n" s="6">
         <v>66.3</v>
       </c>
-      <c t="n" r="Q30" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S30" s="8">
+      <c r="Q30" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R30" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n" s="8">
         <v>869</v>
       </c>
-      <c t="n" r="T30" s="6">
+      <c r="T30" t="n" s="6">
         <v>79.8</v>
       </c>
-      <c t="n" r="U30" s="5">
+      <c r="U30" t="n" s="5">
         <v>467</v>
       </c>
-      <c t="n" r="V30" s="6">
+      <c r="V30" t="n" s="6">
         <v>90.8</v>
       </c>
-      <c t="n" r="X30" s="7">
+      <c r="X30" t="n" s="7">
         <v>85.3</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c t="n" r="A31" s="1">
+      <c r="A31" t="n" s="1">
         <v>28</v>
       </c>
-      <c t="s" r="B31" s="1">
+      <c r="B31" t="s" s="1">
         <v>29</v>
       </c>
-      <c t="n" r="C31" s="8">
+      <c r="C31" t="n" s="8">
         <v>394</v>
       </c>
-      <c t="n" r="D31" s="9">
+      <c r="D31" t="n" s="9">
         <v>86.2</v>
       </c>
-      <c t="n" r="E31" s="8">
+      <c r="E31" t="n" s="8">
         <v>509</v>
       </c>
-      <c t="n" r="F31" s="9">
+      <c r="F31" t="n" s="9">
         <v>84.40000000000001</v>
       </c>
-      <c t="n" r="G31" s="10">
+      <c r="G31" t="n" s="10">
         <v>2350</v>
       </c>
-      <c t="n" r="H31" s="9">
+      <c r="H31" t="n" s="9">
         <v>36.5</v>
       </c>
-      <c t="n" r="I31" s="8">
+      <c r="I31" t="n" s="8">
         <v>276</v>
       </c>
-      <c t="n" r="J31" s="9">
+      <c r="J31" t="n" s="9">
         <v>89.40000000000001</v>
       </c>
-      <c t="n" r="K31" s="5">
+      <c r="K31" t="n" s="5">
         <v>631</v>
       </c>
-      <c t="n" r="L31" s="9">
+      <c r="L31" t="n" s="9">
         <v>85.5</v>
       </c>
-      <c t="n" r="M31" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O31" s="11">
+      <c r="M31" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n" s="11">
         <v>1132</v>
       </c>
-      <c t="n" r="P31" s="9">
+      <c r="P31" t="n" s="9">
         <v>68.3</v>
       </c>
-      <c t="n" r="Q31" s="8">
+      <c r="Q31" t="n" s="8">
         <v>1057</v>
       </c>
-      <c t="n" r="R31" s="9">
+      <c r="R31" t="n" s="9">
         <v>75.3</v>
       </c>
-      <c t="n" r="S31" s="11">
+      <c r="S31" t="n" s="11">
         <v>1383</v>
       </c>
-      <c t="n" r="T31" s="9">
+      <c r="T31" t="n" s="9">
         <v>65.8</v>
       </c>
-      <c t="n" r="U31" s="5">
+      <c r="U31" t="n" s="5">
         <v>562</v>
       </c>
-      <c t="n" r="V31" s="9">
+      <c r="V31" t="n" s="9">
         <v>89</v>
       </c>
-      <c t="n" r="X31" s="7">
+      <c r="X31" t="n" s="7">
         <v>82.2</v>
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c t="n" r="A32" s="4">
+      <c r="A32" t="n" s="4">
         <v>29</v>
       </c>
-      <c t="s" r="B32" s="4">
+      <c r="B32" t="s" s="4">
         <v>30</v>
       </c>
-      <c t="n" r="C32" s="11">
+      <c r="C32" t="n" s="11">
         <v>952</v>
       </c>
-      <c t="n" r="D32" s="6">
+      <c r="D32" t="n" s="6">
         <v>68.8</v>
       </c>
-      <c t="n" r="E32" s="8">
+      <c r="E32" t="n" s="8">
         <v>886</v>
       </c>
-      <c t="n" r="F32" s="6">
+      <c r="F32" t="n" s="6">
         <v>76.59999999999999</v>
       </c>
-      <c t="n" r="G32" s="11">
+      <c r="G32" t="n" s="11">
         <v>1971</v>
       </c>
-      <c t="n" r="H32" s="6">
+      <c r="H32" t="n" s="6">
         <v>49.3</v>
       </c>
-      <c t="n" r="I32" s="8">
+      <c r="I32" t="n" s="8">
         <v>625</v>
       </c>
-      <c t="n" r="J32" s="6">
+      <c r="J32" t="n" s="6">
         <v>82.3</v>
       </c>
-      <c t="n" r="K32" s="10">
+      <c r="K32" t="n" s="10">
         <v>2045</v>
       </c>
-      <c t="n" r="L32" s="6">
+      <c r="L32" t="n" s="6">
         <v>38</v>
       </c>
-      <c t="n" r="M32" s="11">
+      <c r="M32" t="n" s="11">
         <v>555</v>
       </c>
-      <c t="n" r="N32" s="6">
+      <c r="N32" t="n" s="6">
         <v>77.2</v>
       </c>
-      <c t="n" r="O32" s="10">
+      <c r="O32" t="n" s="10">
         <v>1988</v>
       </c>
-      <c t="n" r="P32" s="6">
+      <c r="P32" t="n" s="6">
         <v>46.9</v>
       </c>
-      <c t="n" r="Q32" s="8">
+      <c r="Q32" t="n" s="8">
         <v>1215</v>
       </c>
-      <c t="n" r="R32" s="6">
+      <c r="R32" t="n" s="6">
         <v>72.3</v>
       </c>
-      <c t="n" r="S32" s="8">
+      <c r="S32" t="n" s="8">
         <v>198</v>
       </c>
-      <c t="n" r="T32" s="6">
+      <c r="T32" t="n" s="6">
         <v>91.5</v>
       </c>
-      <c t="n" r="U32" s="8">
+      <c r="U32" t="n" s="8">
         <v>1919</v>
       </c>
-      <c t="n" r="V32" s="6">
+      <c r="V32" t="n" s="6">
         <v>57.3</v>
       </c>
-      <c t="n" r="X32" s="7">
+      <c r="X32" t="n" s="7">
         <v>81.90000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c t="n" r="A33" s="1">
+      <c r="A33" t="n" s="1">
         <v>30</v>
       </c>
-      <c t="s" r="B33" s="1">
+      <c r="B33" t="s" s="1">
         <v>31</v>
       </c>
-      <c t="n" r="C33" s="10">
+      <c r="C33" t="n" s="10">
         <v>2018</v>
       </c>
-      <c t="n" r="D33" s="9">
+      <c r="D33" t="n" s="9">
         <v>40</v>
       </c>
-      <c t="n" r="E33" s="8">
+      <c r="E33" t="n" s="8">
         <v>510</v>
       </c>
-      <c t="n" r="F33" s="9">
+      <c r="F33" t="n" s="9">
         <v>84.40000000000001</v>
       </c>
-      <c t="n" r="G33" s="11">
+      <c r="G33" t="n" s="11">
         <v>1414</v>
       </c>
-      <c t="n" r="H33" s="9">
+      <c r="H33" t="n" s="9">
         <v>60.8</v>
       </c>
-      <c t="n" r="I33" s="10">
+      <c r="I33" t="n" s="10">
         <v>1900</v>
       </c>
-      <c t="n" r="J33" s="9">
+      <c r="J33" t="n" s="9">
         <v>46.3</v>
       </c>
-      <c t="n" r="K33" s="11">
+      <c r="K33" t="n" s="11">
         <v>1877</v>
       </c>
-      <c t="n" r="L33" s="9">
+      <c r="L33" t="n" s="9">
         <v>46.9</v>
       </c>
-      <c t="n" r="M33" s="10">
+      <c r="M33" t="n" s="10">
         <v>1347</v>
       </c>
-      <c t="n" r="N33" s="9">
+      <c r="N33" t="n" s="9">
         <v>53.9</v>
       </c>
-      <c t="n" r="O33" s="11">
+      <c r="O33" t="n" s="11">
         <v>1899</v>
       </c>
-      <c t="n" r="P33" s="9">
+      <c r="P33" t="n" s="9">
         <v>53.6</v>
       </c>
-      <c t="n" r="Q33" s="11">
+      <c r="Q33" t="n" s="11">
         <v>2276</v>
       </c>
-      <c t="n" r="R33" s="9">
+      <c r="R33" t="n" s="9">
         <v>47.5</v>
       </c>
-      <c t="n" r="S33" s="5">
+      <c r="S33" t="n" s="5">
         <v>94</v>
       </c>
-      <c t="n" r="T33" s="9">
+      <c r="T33" t="n" s="9">
         <v>98.40000000000001</v>
       </c>
-      <c t="n" r="U33" s="8">
+      <c r="U33" t="n" s="8">
         <v>1549</v>
       </c>
-      <c t="n" r="V33" s="9">
+      <c r="V33" t="n" s="9">
         <v>64.59999999999999</v>
       </c>
-      <c t="n" r="X33" s="7">
+      <c r="X33" t="n" s="7">
         <v>81.5</v>
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c t="n" r="A34" s="4">
+      <c r="A34" t="n" s="4">
         <v>31</v>
       </c>
-      <c t="s" r="B34" s="4">
+      <c r="B34" t="s" s="4">
         <v>32</v>
       </c>
-      <c t="n" r="C34" s="10">
+      <c r="C34" t="n" s="10">
         <v>2157</v>
       </c>
-      <c t="n" r="D34" s="6">
+      <c r="D34" t="n" s="6">
         <v>36.9</v>
       </c>
-      <c t="n" r="E34" s="11">
+      <c r="E34" t="n" s="11">
         <v>1642</v>
       </c>
-      <c t="n" r="F34" s="6">
+      <c r="F34" t="n" s="6">
         <v>55.9</v>
       </c>
-      <c t="n" r="G34" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I34" s="11">
+      <c r="G34" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n" s="11">
         <v>789</v>
       </c>
-      <c t="n" r="J34" s="6">
+      <c r="J34" t="n" s="6">
         <v>73.90000000000001</v>
       </c>
-      <c t="n" r="K34" s="5">
+      <c r="K34" t="n" s="5">
         <v>794</v>
       </c>
-      <c t="n" r="L34" s="6">
+      <c r="L34" t="n" s="6">
         <v>81.8</v>
       </c>
-      <c t="n" r="M34" s="10">
+      <c r="M34" t="n" s="10">
         <v>1903</v>
       </c>
-      <c t="n" r="N34" s="6">
+      <c r="N34" t="n" s="6">
         <v>41.1</v>
       </c>
-      <c t="n" r="O34" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q34" s="8">
+      <c r="O34" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P34" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n" s="8">
         <v>1319</v>
       </c>
-      <c t="n" r="R34" s="6">
+      <c r="R34" t="n" s="6">
         <v>70.40000000000001</v>
       </c>
-      <c t="n" r="S34" s="8">
+      <c r="S34" t="n" s="8">
         <v>182</v>
       </c>
-      <c t="n" r="T34" s="6">
+      <c r="T34" t="n" s="6">
         <v>91.8</v>
       </c>
-      <c t="n" r="U34" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V34" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X34" s="7">
+      <c r="U34" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V34" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n" s="7">
         <v>81.09999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c t="n" r="A35" s="1">
+      <c r="A35" t="n" s="1">
         <v>32</v>
       </c>
-      <c t="s" r="B35" s="1">
+      <c r="B35" t="s" s="1">
         <v>33</v>
       </c>
-      <c t="n" r="C35" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D35" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E35" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G35" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I35" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K35" s="5">
+      <c r="C35" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D35" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F35" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H35" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J35" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n" s="5">
         <v>352</v>
       </c>
-      <c t="n" r="L35" s="9">
+      <c r="L35" t="n" s="9">
         <v>91.90000000000001</v>
       </c>
-      <c t="n" r="M35" s="11">
+      <c r="M35" t="n" s="11">
         <v>519</v>
       </c>
-      <c t="n" r="N35" s="9">
+      <c r="N35" t="n" s="9">
         <v>78</v>
       </c>
-      <c t="n" r="O35" s="8">
+      <c r="O35" t="n" s="8">
         <v>773</v>
       </c>
-      <c t="n" r="P35" s="9">
+      <c r="P35" t="n" s="9">
         <v>80.2</v>
       </c>
-      <c t="n" r="Q35" s="8">
+      <c r="Q35" t="n" s="8">
         <v>981</v>
       </c>
-      <c t="n" r="R35" s="9">
+      <c r="R35" t="n" s="9">
         <v>76.7</v>
       </c>
-      <c t="n" r="S35" s="8">
+      <c r="S35" t="n" s="8">
         <v>556</v>
       </c>
-      <c t="n" r="T35" s="9">
+      <c r="T35" t="n" s="9">
         <v>85.3</v>
       </c>
-      <c t="n" r="U35" s="5">
+      <c r="U35" t="n" s="5">
         <v>1211</v>
       </c>
-      <c t="n" r="V35" s="9">
+      <c r="V35" t="n" s="9">
         <v>76.2</v>
       </c>
-      <c t="n" r="X35" s="7">
+      <c r="X35" t="n" s="7">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c t="n" r="A36" s="4">
+      <c r="A36" t="n" s="4">
         <v>33</v>
       </c>
-      <c t="s" r="B36" s="4">
+      <c r="B36" t="s" s="4">
         <v>34</v>
       </c>
-      <c t="n" r="C36" s="11">
+      <c r="C36" t="n" s="11">
         <v>1272</v>
       </c>
-      <c t="n" r="D36" s="6">
+      <c r="D36" t="n" s="6">
         <v>61.6</v>
       </c>
-      <c t="n" r="E36" s="8">
+      <c r="E36" t="n" s="8">
         <v>451</v>
       </c>
-      <c t="n" r="F36" s="6">
+      <c r="F36" t="n" s="6">
         <v>85.59999999999999</v>
       </c>
-      <c t="n" r="G36" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I36" s="11">
+      <c r="G36" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H36" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n" s="11">
         <v>897</v>
       </c>
-      <c t="n" r="J36" s="6">
+      <c r="J36" t="n" s="6">
         <v>71.7</v>
       </c>
-      <c t="n" r="K36" s="11">
+      <c r="K36" t="n" s="11">
         <v>1600</v>
       </c>
-      <c t="n" r="L36" s="6">
+      <c r="L36" t="n" s="6">
         <v>53.2</v>
       </c>
-      <c t="n" r="M36" s="11">
+      <c r="M36" t="n" s="11">
         <v>944</v>
       </c>
-      <c t="n" r="N36" s="6">
+      <c r="N36" t="n" s="6">
         <v>68.2</v>
       </c>
-      <c t="n" r="O36" s="8">
+      <c r="O36" t="n" s="8">
         <v>672</v>
       </c>
-      <c t="n" r="P36" s="6">
+      <c r="P36" t="n" s="6">
         <v>82.09999999999999</v>
       </c>
-      <c t="n" r="Q36" s="8">
+      <c r="Q36" t="n" s="8">
         <v>1521</v>
       </c>
-      <c t="n" r="R36" s="6">
+      <c r="R36" t="n" s="6">
         <v>66.59999999999999</v>
       </c>
-      <c t="n" r="S36" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T36" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="U36" s="5">
+      <c r="S36" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T36" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n" s="5">
         <v>409</v>
       </c>
-      <c t="n" r="V36" s="6">
+      <c r="V36" t="n" s="6">
         <v>92</v>
       </c>
-      <c t="n" r="X36" s="7">
+      <c r="X36" t="n" s="7">
         <v>79.3</v>
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c t="n" r="A37" s="1">
+      <c r="A37" t="n" s="1">
         <v>34</v>
       </c>
-      <c t="s" r="B37" s="1">
+      <c r="B37" t="s" s="1">
         <v>35</v>
       </c>
-      <c t="n" r="C37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="S37" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="T37" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U37" s="5">
+      <c r="C37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="L37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="N37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="P37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="R37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="T37" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n" s="5">
         <v>1081</v>
       </c>
-      <c t="n" r="V37" s="9">
+      <c r="V37" t="n" s="9">
         <v>78.8</v>
       </c>
-      <c t="n" r="X37" s="7">
+      <c r="X37" t="n" s="7">
         <v>78.8</v>
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c t="n" r="A38" s="4">
+      <c r="A38" t="n" s="4">
         <v>35</v>
       </c>
-      <c t="s" r="B38" s="4">
+      <c r="B38" t="s" s="4">
         <v>36</v>
       </c>
-      <c t="n" r="C38" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E38" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G38" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I38" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K38" s="8">
+      <c r="C38" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D38" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F38" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H38" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J38" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n" s="8">
         <v>1038</v>
       </c>
-      <c t="n" r="L38" s="6">
+      <c r="L38" t="n" s="6">
         <v>71.2</v>
       </c>
-      <c t="n" r="M38" s="10">
+      <c r="M38" t="n" s="10">
         <v>1235</v>
       </c>
-      <c t="n" r="N38" s="6">
+      <c r="N38" t="n" s="6">
         <v>56.5</v>
       </c>
-      <c t="n" r="O38" s="10">
+      <c r="O38" t="n" s="10">
         <v>2171</v>
       </c>
-      <c t="n" r="P38" s="6">
+      <c r="P38" t="n" s="6">
         <v>43.4</v>
       </c>
-      <c t="n" r="Q38" s="8">
+      <c r="Q38" t="n" s="8">
         <v>1017</v>
       </c>
-      <c t="n" r="R38" s="6">
+      <c r="R38" t="n" s="6">
         <v>76</v>
       </c>
-      <c t="n" r="S38" s="8">
+      <c r="S38" t="n" s="8">
         <v>810</v>
       </c>
-      <c t="n" r="T38" s="6">
+      <c r="T38" t="n" s="6">
         <v>80.8</v>
       </c>
-      <c t="n" r="U38" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V38" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X38" s="7">
+      <c r="U38" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V38" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n" s="7">
         <v>78.40000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:24">
-      <c t="n" r="A39" s="1">
+      <c r="A39" t="n" s="1">
         <v>36</v>
       </c>
-      <c t="s" r="B39" s="1">
+      <c r="B39" t="s" s="1">
         <v>37</v>
       </c>
-      <c t="n" r="C39" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E39" s="8">
+      <c r="C39" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D39" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n" s="8">
         <v>958</v>
       </c>
-      <c t="n" r="F39" s="9">
+      <c r="F39" t="n" s="9">
         <v>75.09999999999999</v>
       </c>
-      <c t="n" r="G39" s="8">
+      <c r="G39" t="n" s="8">
         <v>817</v>
       </c>
-      <c t="n" r="H39" s="9">
+      <c r="H39" t="n" s="9">
         <v>78.09999999999999</v>
       </c>
-      <c t="n" r="I39" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K39" s="11">
+      <c r="I39" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J39" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n" s="11">
         <v>1458</v>
       </c>
-      <c t="n" r="L39" s="9">
+      <c r="L39" t="n" s="9">
         <v>56.5</v>
       </c>
-      <c t="n" r="M39" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O39" s="8">
+      <c r="M39" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N39" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n" s="8">
         <v>510</v>
       </c>
-      <c t="n" r="P39" s="9">
+      <c r="P39" t="n" s="9">
         <v>85.2</v>
       </c>
-      <c t="n" r="Q39" s="10">
+      <c r="Q39" t="n" s="10">
         <v>2698</v>
       </c>
-      <c t="n" r="R39" s="9">
+      <c r="R39" t="n" s="9">
         <v>34.7</v>
       </c>
-      <c t="n" r="S39" s="11">
+      <c r="S39" t="n" s="11">
         <v>96</v>
       </c>
-      <c t="n" r="T39" s="9">
+      <c r="T39" t="n" s="9">
         <v>88.3</v>
       </c>
-      <c t="n" r="U39" s="8">
+      <c r="U39" t="n" s="8">
         <v>1486</v>
       </c>
-      <c t="n" r="V39" s="9">
+      <c r="V39" t="n" s="9">
         <v>65.8</v>
       </c>
-      <c t="n" r="X39" s="7">
+      <c r="X39" t="n" s="7">
         <v>77.09999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c t="n" r="A40" s="4">
+      <c r="A40" t="n" s="4">
         <v>37</v>
       </c>
-      <c t="s" r="B40" s="4">
+      <c r="B40" t="s" s="4">
         <v>38</v>
       </c>
-      <c t="n" r="C40" s="11">
+      <c r="C40" t="n" s="11">
         <v>736</v>
       </c>
-      <c t="n" r="D40" s="6">
+      <c r="D40" t="n" s="6">
         <v>73.59999999999999</v>
       </c>
-      <c t="n" r="E40" s="11">
+      <c r="E40" t="n" s="11">
         <v>1283</v>
       </c>
-      <c t="n" r="F40" s="6">
+      <c r="F40" t="n" s="6">
         <v>63.3</v>
       </c>
-      <c t="n" r="G40" s="10">
+      <c r="G40" t="n" s="10">
         <v>2615</v>
       </c>
-      <c t="n" r="H40" s="6">
+      <c r="H40" t="n" s="6">
         <v>31</v>
       </c>
-      <c t="n" r="I40" s="11">
+      <c r="I40" t="n" s="11">
         <v>792</v>
       </c>
-      <c t="n" r="J40" s="6">
+      <c r="J40" t="n" s="6">
         <v>73.90000000000001</v>
       </c>
-      <c t="n" r="K40" s="8">
+      <c r="K40" t="n" s="8">
         <v>1095</v>
       </c>
-      <c t="n" r="L40" s="6">
+      <c r="L40" t="n" s="6">
         <v>69.8</v>
       </c>
-      <c t="n" r="M40" s="11">
+      <c r="M40" t="n" s="11">
         <v>894</v>
       </c>
-      <c t="n" r="N40" s="6">
+      <c r="N40" t="n" s="6">
         <v>69.40000000000001</v>
       </c>
-      <c t="n" r="O40" s="8">
+      <c r="O40" t="n" s="8">
         <v>736</v>
       </c>
-      <c t="n" r="P40" s="6">
+      <c r="P40" t="n" s="6">
         <v>80.90000000000001</v>
       </c>
-      <c t="n" r="Q40" s="8">
+      <c r="Q40" t="n" s="8">
         <v>1281</v>
       </c>
-      <c t="n" r="R40" s="6">
+      <c r="R40" t="n" s="6">
         <v>71.09999999999999</v>
       </c>
-      <c t="n" r="S40" s="8">
+      <c r="S40" t="n" s="8">
         <v>804</v>
       </c>
-      <c t="n" r="T40" s="6">
+      <c r="T40" t="n" s="6">
         <v>80.90000000000001</v>
       </c>
-      <c t="n" r="U40" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V40" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X40" s="7">
+      <c r="U40" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V40" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n" s="7">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c t="n" r="A41" s="1">
+      <c r="A41" t="n" s="1">
         <v>38</v>
       </c>
-      <c t="s" r="B41" s="1">
+      <c r="B41" t="s" s="1">
         <v>39</v>
       </c>
-      <c t="n" r="C41" s="11">
+      <c r="C41" t="n" s="11">
         <v>1133</v>
       </c>
-      <c t="n" r="D41" s="9">
+      <c r="D41" t="n" s="9">
         <v>64.7</v>
       </c>
-      <c t="n" r="E41" s="8">
+      <c r="E41" t="n" s="8">
         <v>975</v>
       </c>
-      <c t="n" r="F41" s="9">
+      <c r="F41" t="n" s="9">
         <v>74.7</v>
       </c>
-      <c t="n" r="G41" s="8">
+      <c r="G41" t="n" s="8">
         <v>959</v>
       </c>
-      <c t="n" r="H41" s="9">
+      <c r="H41" t="n" s="9">
         <v>75.2</v>
       </c>
-      <c t="n" r="I41" s="10">
+      <c r="I41" t="n" s="10">
         <v>1754</v>
       </c>
-      <c t="n" r="J41" s="9">
+      <c r="J41" t="n" s="9">
         <v>49.2</v>
       </c>
-      <c t="n" r="K41" s="11">
+      <c r="K41" t="n" s="11">
         <v>1473</v>
       </c>
-      <c t="n" r="L41" s="9">
+      <c r="L41" t="n" s="9">
         <v>56.2</v>
       </c>
-      <c t="n" r="M41" s="11">
+      <c r="M41" t="n" s="11">
         <v>920</v>
       </c>
-      <c t="n" r="N41" s="9">
+      <c r="N41" t="n" s="9">
         <v>68.8</v>
       </c>
-      <c t="n" r="O41" s="11">
+      <c r="O41" t="n" s="11">
         <v>1080</v>
       </c>
-      <c t="n" r="P41" s="9">
+      <c r="P41" t="n" s="9">
         <v>69.3</v>
       </c>
-      <c t="n" r="Q41" s="8">
+      <c r="Q41" t="n" s="8">
         <v>1128</v>
       </c>
-      <c t="n" r="R41" s="9">
+      <c r="R41" t="n" s="9">
         <v>74</v>
       </c>
-      <c t="n" r="S41" s="11">
+      <c r="S41" t="n" s="11">
         <v>1821</v>
       </c>
-      <c t="n" r="T41" s="9">
+      <c r="T41" t="n" s="9">
         <v>58.1</v>
       </c>
-      <c t="n" r="U41" s="5">
+      <c r="U41" t="n" s="5">
         <v>1146</v>
       </c>
-      <c t="n" r="V41" s="9">
+      <c r="V41" t="n" s="9">
         <v>77.5</v>
       </c>
-      <c t="n" r="X41" s="7">
+      <c r="X41" t="n" s="7">
         <v>75.8</v>
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c t="n" r="A42" s="4">
+      <c r="A42" t="n" s="4">
         <v>39</v>
       </c>
-      <c t="s" r="B42" s="4">
+      <c r="B42" t="s" s="4">
         <v>40</v>
       </c>
-      <c t="n" r="C42" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E42" s="11">
+      <c r="C42" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D42" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n" s="11">
         <v>2027</v>
       </c>
-      <c t="n" r="F42" s="6">
+      <c r="F42" t="n" s="6">
         <v>47.8</v>
       </c>
-      <c t="n" r="G42" s="11">
+      <c r="G42" t="n" s="11">
         <v>2079</v>
       </c>
-      <c t="n" r="H42" s="6">
+      <c r="H42" t="n" s="6">
         <v>47.1</v>
       </c>
-      <c t="n" r="I42" s="10">
+      <c r="I42" t="n" s="10">
         <v>1762</v>
       </c>
-      <c t="n" r="J42" s="6">
+      <c r="J42" t="n" s="6">
         <v>49.1</v>
       </c>
-      <c t="n" r="K42" s="8">
+      <c r="K42" t="n" s="8">
         <v>931</v>
       </c>
-      <c t="n" r="L42" s="6">
+      <c r="L42" t="n" s="6">
         <v>73.59999999999999</v>
       </c>
-      <c t="n" r="M42" s="10">
+      <c r="M42" t="n" s="10">
         <v>1913</v>
       </c>
-      <c t="n" r="N42" s="6">
+      <c r="N42" t="n" s="6">
         <v>40.9</v>
       </c>
-      <c t="n" r="O42" s="11">
+      <c r="O42" t="n" s="11">
         <v>1686</v>
       </c>
-      <c t="n" r="P42" s="6">
+      <c r="P42" t="n" s="6">
         <v>57.7</v>
       </c>
-      <c t="n" r="Q42" s="8">
+      <c r="Q42" t="n" s="8">
         <v>1461</v>
       </c>
-      <c t="n" r="R42" s="6">
+      <c r="R42" t="n" s="6">
         <v>67.7</v>
       </c>
-      <c t="n" r="S42" s="10">
+      <c r="S42" t="n" s="10">
         <v>2634</v>
       </c>
-      <c t="n" r="T42" s="6">
+      <c r="T42" t="n" s="6">
         <v>38.8</v>
       </c>
-      <c t="n" r="U42" s="5">
+      <c r="U42" t="n" s="5">
         <v>845</v>
       </c>
-      <c t="n" r="V42" s="6">
+      <c r="V42" t="n" s="6">
         <v>83.40000000000001</v>
       </c>
-      <c t="n" r="X42" s="7">
+      <c r="X42" t="n" s="7">
         <v>75.59999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:24">
-      <c t="n" r="A43" s="1">
+      <c r="A43" t="n" s="1">
         <v>40</v>
       </c>
-      <c t="s" r="B43" s="1">
+      <c r="B43" t="s" s="1">
         <v>41</v>
       </c>
-      <c t="n" r="C43" s="10">
+      <c r="C43" t="n" s="10">
         <v>1855</v>
       </c>
-      <c t="n" r="D43" s="9">
+      <c r="D43" t="n" s="9">
         <v>43.6</v>
       </c>
-      <c t="n" r="E43" s="8">
+      <c r="E43" t="n" s="8">
         <v>892</v>
       </c>
-      <c t="n" r="F43" s="9">
+      <c r="F43" t="n" s="9">
         <v>76.5</v>
       </c>
-      <c t="n" r="G43" s="11">
+      <c r="G43" t="n" s="11">
         <v>1429</v>
       </c>
-      <c t="n" r="H43" s="9">
+      <c r="H43" t="n" s="9">
         <v>60.5</v>
       </c>
-      <c t="n" r="I43" s="11">
+      <c r="I43" t="n" s="11">
         <v>811</v>
       </c>
-      <c t="n" r="J43" s="9">
+      <c r="J43" t="n" s="9">
         <v>73.5</v>
       </c>
-      <c t="n" r="K43" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M43" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O43" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P43" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q43" s="5">
+      <c r="K43" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L43" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N43" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P43" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n" s="5">
         <v>507</v>
       </c>
-      <c t="n" r="R43" s="9">
+      <c r="R43" t="n" s="9">
         <v>90.5</v>
       </c>
-      <c t="n" r="S43" s="11">
+      <c r="S43" t="n" s="11">
         <v>1874</v>
       </c>
-      <c t="n" r="T43" s="9">
+      <c r="T43" t="n" s="9">
         <v>57.2</v>
       </c>
-      <c t="n" r="U43" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V43" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="X43" s="7">
+      <c r="U43" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="V43" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n" s="7">
         <v>73.8</v>
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c t="n" r="A44" s="4">
+      <c r="A44" t="n" s="4">
         <v>41</v>
       </c>
-      <c t="s" r="B44" s="4">
+      <c r="B44" t="s" s="4">
         <v>42</v>
       </c>
-      <c t="n" r="C44" s="11">
+      <c r="C44" t="n" s="11">
         <v>1136</v>
       </c>
-      <c t="n" r="D44" s="6">
+      <c r="D44" t="n" s="6">
         <v>64.7</v>
       </c>
-      <c t="n" r="E44" s="11">
+      <c r="E44" t="n" s="11">
         <v>1238</v>
       </c>
-      <c t="n" r="F44" s="6">
+      <c r="F44" t="n" s="6">
         <v>64.3</v>
       </c>
-      <c t="n" r="G44" s="11">
+      <c r="G44" t="n" s="11">
         <v>1178</v>
       </c>
-      <c t="n" r="H44" s="6">
+      <c r="H44" t="n" s="6">
         <v>65.7</v>
       </c>
-      <c t="n" r="I44" s="8">
+      <c r="I44" t="n" s="8">
         <v>268</v>
       </c>
-      <c t="n" r="J44" s="6">
+      <c r="J44" t="n" s="6">
         <v>89.5</v>
       </c>
-      <c t="n" r="K44" s="8">
+      <c r="K44" t="n" s="8">
         <v>1079</v>
       </c>
-      <c t="n" r="L44" s="6">
+      <c r="L44" t="n" s="6">
         <v>70.2</v>
       </c>
-      <c t="n" r="M44" s="10">
+      <c r="M44" t="n" s="10">
         <v>1378</v>
       </c>
-      <c t="n" r="N44" s="6">
+      <c r="N44" t="n" s="6">
         <v>53.2</v>
       </c>
-      <c t="n" r="O44" s="11">
+      <c r="O44" t="n" s="11">
         <v>1880</v>
       </c>
-      <c t="n" r="P44" s="6">
+      <c r="P44" t="n" s="6">
         <v>54</v>
       </c>
-      <c t="n" r="Q44" s="8">
+      <c r="Q44" t="n" s="8">
         <v>1366</v>
       </c>
-      <c t="n" r="R44" s="6">
+      <c r="R44" t="n" s="6">
         <v>69.5</v>
       </c>
-      <c t="n" r="S44" s="11">
+      <c r="S44" t="n" s="11">
         <v>1482</v>
       </c>
-      <c t="n" r="T44" s="6">
+      <c r="T44" t="n" s="6">
         <v>64</v>
       </c>
-      <c t="n" r="U44" s="5">
+      <c r="U44" t="n" s="5">
         <v>1157</v>
       </c>
-      <c t="n" r="V44" s="6">
+      <c r="V44" t="n" s="6">
         <v>77.3</v>
       </c>
-      <c t="n" r="X44" s="7">
+      <c r="X44" t="n" s="7">
         <v>73.40000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c t="n" r="A45" s="1">
+      <c r="A45" t="n" s="1">
         <v>42</v>
       </c>
-      <c t="s" r="B45" s="1">
+      <c r="B45" t="s" s="1">
         <v>43</v>
       </c>
-      <c t="n" r="C45" s="10">
+      <c r="C45" t="n" s="10">
         <v>1799</v>
       </c>
-      <c t="n" r="D45" s="9">
+      <c r="D45" t="n" s="9">
         <v>44.9</v>
       </c>
-      <c t="n" r="E45" s="8">
+      <c r="E45" t="n" s="8">
         <v>556</v>
       </c>
-      <c t="n" r="F45" s="9">
+      <c r="F45" t="n" s="9">
         <v>83.40000000000001</v>
       </c>
-      <c t="n" r="G45" s="11">
+      <c r="G45" t="n" s="11">
         <v>1622</v>
       </c>
-      <c t="n" r="H45" s="9">
+      <c r="H45" t="n" s="9">
         <v>56.5</v>
       </c>
-      <c t="n" r="I45" s="11">
+      <c r="I45" t="n" s="11">
         <v>769</v>
       </c>
-      <c t="n" r="J45" s="9">
+      <c r="J45" t="n" s="9">
         <v>74.3</v>
       </c>
-      <c t="n" r="K45" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L45" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M45" s="10">
+      <c r="K45" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L45" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n" s="10">
         <v>1353</v>
       </c>
-      <c t="n" r="N45" s="9">
+      <c r="N45" t="n" s="9">
         <v>53.8</v>
       </c>
-      <c t="n" r="O45" s="11">
+      <c r="O45" t="n" s="11">
         <v>1133</v>
       </c>
-      <c t="n" r="P45" s="9">
+      <c r="P45" t="n" s="9">
         <v>68.3</v>
       </c>
-      <c t="n" r="Q45" s="8">
+      <c r="Q45" t="n" s="8">
         <v>1778</v>
       </c>
-      <c t="n" r="R45" s="9">
+      <c r="R45" t="n" s="9">
         <v>61.8</v>
       </c>
-      <c t="n" r="S45" s="8">
+      <c r="S45" t="n" s="8">
         <v>596</v>
       </c>
-      <c t="n" r="T45" s="9">
+      <c r="T45" t="n" s="9">
         <v>84.59999999999999</v>
       </c>
-      <c t="n" r="U45" s="8">
+      <c r="U45" t="n" s="8">
         <v>1928</v>
       </c>
-      <c t="n" r="V45" s="9">
+      <c r="V45" t="n" s="9">
         <v>57.1</v>
       </c>
-      <c t="n" r="X45" s="7">
+      <c r="X45" t="n" s="7">
         <v>73.2</v>
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c t="n" r="A46" s="4">
+      <c r="A46" t="n" s="4">
         <v>43</v>
       </c>
-      <c t="s" r="B46" s="4">
+      <c r="B46" t="s" s="4">
         <v>44</v>
       </c>
-      <c t="n" r="C46" s="11">
+      <c r="C46" t="n" s="11">
         <v>1210</v>
       </c>
-      <c t="n" r="D46" s="6">
+      <c r="D46" t="n" s="6">
         <v>63</v>
       </c>
-      <c t="n" r="E46" s="8">
+      <c r="E46" t="n" s="8">
         <v>648</v>
       </c>
-      <c t="n" r="F46" s="6">
+      <c r="F46" t="n" s="6">
         <v>81.5</v>
       </c>
-      <c t="n" r="G46" s="8">
+      <c r="G46" t="n" s="8">
         <v>985</v>
       </c>
-      <c t="n" r="H46" s="6">
+      <c r="H46" t="n" s="6">
         <v>74.7</v>
       </c>
-      <c t="n" r="I46" s="10">
+      <c r="I46" t="n" s="10">
         <v>1860</v>
       </c>
-      <c t="n" r="J46" s="6">
+      <c r="J46" t="n" s="6">
         <v>47.1</v>
       </c>
-      <c t="n" r="K46" s="11">
+      <c r="K46" t="n" s="11">
         <v>1644</v>
       </c>
-      <c t="n" r="L46" s="6">
+      <c r="L46" t="n" s="6">
         <v>52.2</v>
       </c>
-      <c t="n" r="M46" s="11">
+      <c r="M46" t="n" s="11">
         <v>736</v>
       </c>
-      <c t="n" r="N46" s="6">
+      <c r="N46" t="n" s="6">
         <v>73</v>
       </c>
-      <c t="n" r="O46" s="11">
+      <c r="O46" t="n" s="11">
         <v>978</v>
       </c>
-      <c t="n" r="P46" s="6">
+      <c r="P46" t="n" s="6">
         <v>71.3</v>
       </c>
-      <c t="n" r="Q46" s="8">
+      <c r="Q46" t="n" s="8">
         <v>1614</v>
       </c>
-      <c t="n" r="R46" s="6">
+      <c r="R46" t="n" s="6">
         <v>64.90000000000001</v>
       </c>
-      <c t="n" r="S46" s="11">
+      <c r="S46" t="n" s="11">
         <v>1479</v>
       </c>
-      <c t="n" r="T46" s="6">
+      <c r="T46" t="n" s="6">
         <v>64.09999999999999</v>
       </c>
-      <c t="n" r="U46" s="5">
+      <c r="U46" t="n" s="5">
         <v>976</v>
       </c>
-      <c t="n" r="V46" s="6">
+      <c r="V46" t="n" s="6">
         <v>80.8</v>
       </c>
-      <c t="n" r="X46" s="7">
+      <c r="X46" t="n" s="7">
         <v>72.8</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c t="n" r="A47" s="1">
+      <c r="A47" t="n" s="1">
         <v>44</v>
       </c>
-      <c t="s" r="B47" s="1">
+      <c r="B47" t="s" s="1">
         <v>45</v>
       </c>
-      <c t="n" r="C47" s="8">
+      <c r="C47" t="n" s="8">
         <v>612</v>
       </c>
-      <c t="n" r="D47" s="9">
+      <c r="D47" t="n" s="9">
         <v>81.40000000000001</v>
       </c>
-      <c t="n" r="E47" s="10">
+      <c r="E47" t="n" s="10">
         <v>2384</v>
       </c>
-      <c t="n" r="F47" s="9">
+      <c r="F47" t="n" s="9">
         <v>35.4</v>
       </c>
-      <c t="n" r="G47" s="5">
+      <c r="G47" t="n" s="5">
         <v>397</v>
       </c>
-      <c t="n" r="H47" s="9">
+      <c r="H47" t="n" s="9">
         <v>91.8</v>
       </c>
-      <c t="n" r="I47" s="8">
+      <c r="I47" t="n" s="8">
         <v>561</v>
       </c>
-      <c t="n" r="J47" s="9">
+      <c r="J47" t="n" s="9">
         <v>83.59999999999999</v>
       </c>
-      <c t="n" r="K47" s="5">
+      <c r="K47" t="n" s="5">
         <v>494</v>
       </c>
-      <c t="n" r="L47" s="9">
+      <c r="L47" t="n" s="9">
         <v>88.7</v>
       </c>
-      <c t="n" r="M47" s="11">
+      <c r="M47" t="n" s="11">
         <v>1207</v>
       </c>
-      <c t="n" r="N47" s="9">
+      <c r="N47" t="n" s="9">
         <v>62.2</v>
       </c>
-      <c t="n" r="O47" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P47" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q47" s="8">
+      <c r="O47" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P47" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n" s="8">
         <v>657</v>
       </c>
-      <c t="n" r="R47" s="9">
+      <c r="R47" t="n" s="9">
         <v>82.7</v>
       </c>
-      <c t="n" r="S47" s="11">
+      <c r="S47" t="n" s="11">
         <v>2313</v>
       </c>
-      <c t="n" r="T47" s="9">
+      <c r="T47" t="n" s="9">
         <v>49.5</v>
       </c>
-      <c t="n" r="U47" s="8">
+      <c r="U47" t="n" s="8">
         <v>1694</v>
       </c>
-      <c t="n" r="V47" s="9">
+      <c r="V47" t="n" s="9">
         <v>61.7</v>
       </c>
-      <c t="n" r="X47" s="7">
+      <c r="X47" t="n" s="7">
         <v>72.2</v>
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c t="n" r="A48" s="4">
+      <c r="A48" t="n" s="4">
         <v>45</v>
       </c>
-      <c t="s" r="B48" s="4">
+      <c r="B48" t="s" s="4">
         <v>46</v>
       </c>
-      <c t="n" r="C48" s="10">
+      <c r="C48" t="n" s="10">
         <v>2011</v>
       </c>
-      <c t="n" r="D48" s="6">
+      <c r="D48" t="n" s="6">
         <v>40.1</v>
       </c>
-      <c t="n" r="E48" s="11">
+      <c r="E48" t="n" s="11">
         <v>1398</v>
       </c>
-      <c t="n" r="F48" s="6">
+      <c r="F48" t="n" s="6">
         <v>60.9</v>
       </c>
-      <c t="n" r="G48" s="11">
+      <c r="G48" t="n" s="11">
         <v>2099</v>
       </c>
-      <c t="n" r="H48" s="6">
+      <c r="H48" t="n" s="6">
         <v>46.7</v>
       </c>
-      <c t="n" r="I48" s="10">
+      <c r="I48" t="n" s="10">
         <v>1665</v>
       </c>
-      <c t="n" r="J48" s="6">
+      <c r="J48" t="n" s="6">
         <v>51.1</v>
       </c>
-      <c t="n" r="K48" s="11">
+      <c r="K48" t="n" s="11">
         <v>1479</v>
       </c>
-      <c t="n" r="L48" s="6">
+      <c r="L48" t="n" s="6">
         <v>56</v>
       </c>
-      <c t="n" r="M48" s="10">
+      <c r="M48" t="n" s="10">
         <v>1625</v>
       </c>
-      <c t="n" r="N48" s="6">
+      <c r="N48" t="n" s="6">
         <v>47.5</v>
       </c>
-      <c t="n" r="O48" s="11">
+      <c r="O48" t="n" s="11">
         <v>1651</v>
       </c>
-      <c t="n" r="P48" s="6">
+      <c r="P48" t="n" s="6">
         <v>58.4</v>
       </c>
-      <c t="n" r="Q48" s="8">
+      <c r="Q48" t="n" s="8">
         <v>1640</v>
       </c>
-      <c t="n" r="R48" s="6">
+      <c r="R48" t="n" s="6">
         <v>64.40000000000001</v>
       </c>
-      <c t="n" r="S48" s="10">
+      <c r="S48" t="n" s="10">
         <v>2611</v>
       </c>
-      <c t="n" r="T48" s="6">
+      <c r="T48" t="n" s="6">
         <v>39.2</v>
       </c>
-      <c t="n" r="U48" s="5">
+      <c r="U48" t="n" s="5">
         <v>1047</v>
       </c>
-      <c t="n" r="V48" s="6">
+      <c r="V48" t="n" s="6">
         <v>79.40000000000001</v>
       </c>
-      <c t="n" r="X48" s="7">
+      <c r="X48" t="n" s="7">
         <v>71.90000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c t="n" r="A49" s="1">
+      <c r="A49" t="n" s="1">
         <v>46</v>
       </c>
-      <c t="s" r="B49" s="1">
+      <c r="B49" t="s" s="1">
         <v>47</v>
       </c>
-      <c t="n" r="C49" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D49" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E49" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G49" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I49" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J49" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K49" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L49" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M49" s="10">
+      <c r="C49" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D49" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F49" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H49" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J49" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="L49" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n" s="10">
         <v>2215</v>
       </c>
-      <c t="n" r="N49" s="9">
+      <c r="N49" t="n" s="9">
         <v>33.9</v>
       </c>
-      <c t="n" r="O49" s="11">
+      <c r="O49" t="n" s="11">
         <v>1896</v>
       </c>
-      <c t="n" r="P49" s="9">
+      <c r="P49" t="n" s="9">
         <v>53.7</v>
       </c>
-      <c t="n" r="Q49" s="11">
+      <c r="Q49" t="n" s="11">
         <v>2013</v>
       </c>
-      <c t="n" r="R49" s="9">
+      <c r="R49" t="n" s="9">
         <v>52.4</v>
       </c>
-      <c t="n" r="S49" s="11">
+      <c r="S49" t="n" s="11">
         <v>2091</v>
       </c>
-      <c t="n" r="T49" s="9">
+      <c r="T49" t="n" s="9">
         <v>53.3</v>
       </c>
-      <c t="n" r="U49" s="5">
+      <c r="U49" t="n" s="5">
         <v>672</v>
       </c>
-      <c t="n" r="V49" s="9">
+      <c r="V49" t="n" s="9">
         <v>86.8</v>
       </c>
-      <c t="n" r="X49" s="7">
+      <c r="X49" t="n" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c t="n" r="A50" s="4">
+      <c r="A50" t="n" s="4">
         <v>47</v>
       </c>
-      <c t="s" r="B50" s="4">
+      <c r="B50" t="s" s="4">
         <v>48</v>
       </c>
-      <c t="n" r="C50" s="11">
+      <c r="C50" t="n" s="11">
         <v>1191</v>
       </c>
-      <c t="n" r="D50" s="6">
+      <c r="D50" t="n" s="6">
         <v>63.4</v>
       </c>
-      <c t="n" r="E50" s="8">
+      <c r="E50" t="n" s="8">
         <v>638</v>
       </c>
-      <c t="n" r="F50" s="6">
+      <c r="F50" t="n" s="6">
         <v>81.7</v>
       </c>
-      <c t="n" r="G50" s="8">
+      <c r="G50" t="n" s="8">
         <v>645</v>
       </c>
-      <c t="n" r="H50" s="6">
+      <c r="H50" t="n" s="6">
         <v>81.7</v>
       </c>
-      <c t="n" r="I50" s="8">
+      <c r="I50" t="n" s="8">
         <v>271</v>
       </c>
-      <c t="n" r="J50" s="6">
+      <c r="J50" t="n" s="6">
         <v>89.5</v>
       </c>
-      <c t="n" r="K50" s="5">
+      <c r="K50" t="n" s="5">
         <v>760</v>
       </c>
-      <c t="n" r="L50" s="6">
+      <c r="L50" t="n" s="6">
         <v>82.5</v>
       </c>
-      <c t="n" r="M50" s="5">
+      <c r="M50" t="n" s="5">
         <v>95</v>
       </c>
-      <c t="n" r="N50" s="6">
+      <c r="N50" t="n" s="6">
         <v>97.8</v>
       </c>
-      <c t="n" r="O50" s="11">
+      <c r="O50" t="n" s="11">
         <v>1218</v>
       </c>
-      <c t="n" r="P50" s="6">
+      <c r="P50" t="n" s="6">
         <v>66.7</v>
       </c>
-      <c t="n" r="Q50" s="11">
+      <c r="Q50" t="n" s="11">
         <v>1795</v>
       </c>
-      <c t="n" r="R50" s="6">
+      <c r="R50" t="n" s="6">
         <v>56.5</v>
       </c>
-      <c t="n" r="S50" s="8">
+      <c r="S50" t="n" s="8">
         <v>963</v>
       </c>
-      <c t="n" r="T50" s="6">
+      <c r="T50" t="n" s="6">
         <v>78.09999999999999</v>
       </c>
-      <c t="n" r="U50" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V50" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X50" s="7">
+      <c r="U50" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V50" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n" s="7">
         <v>67.3</v>
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c t="n" r="A51" s="1">
+      <c r="A51" t="n" s="1">
         <v>48</v>
       </c>
-      <c t="s" r="B51" s="1">
+      <c r="B51" t="s" s="1">
         <v>49</v>
       </c>
-      <c t="n" r="C51" s="11">
+      <c r="C51" t="n" s="11">
         <v>1242</v>
       </c>
-      <c t="n" r="D51" s="9">
+      <c r="D51" t="n" s="9">
         <v>62.3</v>
       </c>
-      <c t="n" r="E51" s="8">
+      <c r="E51" t="n" s="8">
         <v>903</v>
       </c>
-      <c t="n" r="F51" s="9">
+      <c r="F51" t="n" s="9">
         <v>76.2</v>
       </c>
-      <c t="n" r="G51" s="11">
+      <c r="G51" t="n" s="11">
         <v>1582</v>
       </c>
-      <c t="n" r="H51" s="9">
+      <c r="H51" t="n" s="9">
         <v>57.3</v>
       </c>
-      <c t="n" r="I51" s="8">
+      <c r="I51" t="n" s="8">
         <v>621</v>
       </c>
-      <c t="n" r="J51" s="9">
+      <c r="J51" t="n" s="9">
         <v>82.3</v>
       </c>
-      <c t="n" r="K51" s="11">
+      <c r="K51" t="n" s="11">
         <v>1717</v>
       </c>
-      <c t="n" r="L51" s="9">
+      <c r="L51" t="n" s="9">
         <v>50.6</v>
       </c>
-      <c t="n" r="M51" s="8">
+      <c r="M51" t="n" s="8">
         <v>447</v>
       </c>
-      <c t="n" r="N51" s="9">
+      <c r="N51" t="n" s="9">
         <v>84.7</v>
       </c>
-      <c t="n" r="O51" s="11">
+      <c r="O51" t="n" s="11">
         <v>1195</v>
       </c>
-      <c t="n" r="P51" s="9">
+      <c r="P51" t="n" s="9">
         <v>67.09999999999999</v>
       </c>
-      <c t="n" r="Q51" s="8">
+      <c r="Q51" t="n" s="8">
         <v>1125</v>
       </c>
-      <c t="n" r="R51" s="9">
+      <c r="R51" t="n" s="9">
         <v>74</v>
       </c>
-      <c t="n" r="S51" s="11">
+      <c r="S51" t="n" s="11">
         <v>1692</v>
       </c>
-      <c t="n" r="T51" s="9">
+      <c r="T51" t="n" s="9">
         <v>60.3</v>
       </c>
-      <c t="n" r="U51" s="11">
+      <c r="U51" t="n" s="11">
         <v>2231</v>
       </c>
-      <c t="n" r="V51" s="9">
+      <c r="V51" t="n" s="9">
         <v>46.2</v>
       </c>
-      <c t="n" r="X51" s="7">
+      <c r="X51" t="n" s="7">
         <v>67.2</v>
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c t="n" r="A52" s="4">
+      <c r="A52" t="n" s="4">
         <v>49</v>
       </c>
-      <c t="s" r="B52" s="4">
+      <c r="B52" t="s" s="4">
         <v>50</v>
       </c>
-      <c t="n" r="C52" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E52" s="8">
+      <c r="C52" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D52" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n" s="8">
         <v>711</v>
       </c>
-      <c t="n" r="F52" s="6">
+      <c r="F52" t="n" s="6">
         <v>80.2</v>
       </c>
-      <c t="n" r="G52" s="5">
+      <c r="G52" t="n" s="5">
         <v>474</v>
       </c>
-      <c t="n" r="H52" s="6">
+      <c r="H52" t="n" s="6">
         <v>90.2</v>
       </c>
-      <c t="n" r="I52" s="11">
+      <c r="I52" t="n" s="11">
         <v>806</v>
       </c>
-      <c t="n" r="J52" s="6">
+      <c r="J52" t="n" s="6">
         <v>73.59999999999999</v>
       </c>
-      <c t="n" r="K52" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M52" s="11">
+      <c r="K52" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L52" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n" s="11">
         <v>939</v>
       </c>
-      <c t="n" r="N52" s="6">
+      <c r="N52" t="n" s="6">
         <v>68.3</v>
       </c>
-      <c t="n" r="O52" s="11">
+      <c r="O52" t="n" s="11">
         <v>1313</v>
       </c>
-      <c t="n" r="P52" s="6">
+      <c r="P52" t="n" s="6">
         <v>64.8</v>
       </c>
-      <c t="n" r="Q52" s="8">
+      <c r="Q52" t="n" s="8">
         <v>1350</v>
       </c>
-      <c t="n" r="R52" s="6">
+      <c r="R52" t="n" s="6">
         <v>69.8</v>
       </c>
-      <c t="n" r="S52" s="11">
+      <c r="S52" t="n" s="11">
         <v>1475</v>
       </c>
-      <c t="n" r="T52" s="6">
+      <c r="T52" t="n" s="6">
         <v>64.09999999999999</v>
       </c>
-      <c t="n" r="U52" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V52" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X52" s="7">
+      <c r="U52" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V52" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n" s="7">
         <v>66.90000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c t="n" r="A53" s="1">
+      <c r="A53" t="n" s="1">
         <v>50</v>
       </c>
-      <c t="s" r="B53" s="1">
+      <c r="B53" t="s" s="1">
         <v>51</v>
       </c>
-      <c t="n" r="C53" s="11">
+      <c r="C53" t="n" s="11">
         <v>1025</v>
       </c>
-      <c t="n" r="D53" s="9">
+      <c r="D53" t="n" s="9">
         <v>67.09999999999999</v>
       </c>
-      <c t="n" r="E53" s="10">
+      <c r="E53" t="n" s="10">
         <v>2546</v>
       </c>
-      <c t="n" r="F53" s="9">
+      <c r="F53" t="n" s="9">
         <v>32.1</v>
       </c>
-      <c t="n" r="G53" s="11">
+      <c r="G53" t="n" s="11">
         <v>1136</v>
       </c>
-      <c t="n" r="H53" s="9">
+      <c r="H53" t="n" s="9">
         <v>66.59999999999999</v>
       </c>
-      <c t="n" r="I53" s="8">
+      <c r="I53" t="n" s="8">
         <v>579</v>
       </c>
-      <c t="n" r="J53" s="9">
+      <c r="J53" t="n" s="9">
         <v>83.2</v>
       </c>
-      <c t="n" r="K53" s="11">
+      <c r="K53" t="n" s="11">
         <v>1350</v>
       </c>
-      <c t="n" r="L53" s="9">
+      <c r="L53" t="n" s="9">
         <v>59</v>
       </c>
-      <c t="n" r="M53" s="10">
+      <c r="M53" t="n" s="10">
         <v>1744</v>
       </c>
-      <c t="n" r="N53" s="9">
+      <c r="N53" t="n" s="9">
         <v>44.8</v>
       </c>
-      <c t="n" r="O53" s="10">
+      <c r="O53" t="n" s="10">
         <v>2137</v>
       </c>
-      <c t="n" r="P53" s="9">
+      <c r="P53" t="n" s="9">
         <v>44</v>
       </c>
-      <c t="n" r="Q53" s="11">
+      <c r="Q53" t="n" s="11">
         <v>2542</v>
       </c>
-      <c t="n" r="R53" s="9">
+      <c r="R53" t="n" s="9">
         <v>42.6</v>
       </c>
-      <c t="n" r="S53" s="8">
+      <c r="S53" t="n" s="8">
         <v>476</v>
       </c>
-      <c t="n" r="T53" s="9">
+      <c r="T53" t="n" s="9">
         <v>86.7</v>
       </c>
-      <c t="n" r="U53" s="10">
+      <c r="U53" t="n" s="10">
         <v>2790</v>
       </c>
-      <c t="n" r="V53" s="9">
+      <c r="V53" t="n" s="9">
         <v>30.2</v>
       </c>
-      <c t="n" r="X53" s="7">
+      <c r="X53" t="n" s="7">
         <v>64.7</v>
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c t="n" r="A54" s="4">
+      <c r="A54" t="n" s="4">
         <v>51</v>
       </c>
-      <c t="s" r="B54" s="4">
+      <c r="B54" t="s" s="4">
         <v>52</v>
       </c>
-      <c t="n" r="C54" s="11">
+      <c r="C54" t="n" s="11">
         <v>858</v>
       </c>
-      <c t="n" r="D54" s="6">
+      <c r="D54" t="n" s="6">
         <v>70.90000000000001</v>
       </c>
-      <c t="n" r="E54" s="8">
+      <c r="E54" t="n" s="8">
         <v>458</v>
       </c>
-      <c t="n" r="F54" s="6">
+      <c r="F54" t="n" s="6">
         <v>85.5</v>
       </c>
-      <c t="n" r="G54" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="H54" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I54" s="10">
+      <c r="G54" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H54" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n" s="10">
         <v>1463</v>
       </c>
-      <c t="n" r="J54" s="6">
+      <c r="J54" t="n" s="6">
         <v>55.2</v>
       </c>
-      <c t="n" r="K54" s="11">
+      <c r="K54" t="n" s="11">
         <v>1673</v>
       </c>
-      <c t="n" r="L54" s="6">
+      <c r="L54" t="n" s="6">
         <v>51.6</v>
       </c>
-      <c t="n" r="M54" s="8">
+      <c r="M54" t="n" s="8">
         <v>228</v>
       </c>
-      <c t="n" r="N54" s="6">
+      <c r="N54" t="n" s="6">
         <v>89.7</v>
       </c>
-      <c t="n" r="O54" s="11">
+      <c r="O54" t="n" s="11">
         <v>1144</v>
       </c>
-      <c t="n" r="P54" s="6">
+      <c r="P54" t="n" s="6">
         <v>68.09999999999999</v>
       </c>
-      <c t="n" r="Q54" s="8">
+      <c r="Q54" t="n" s="8">
         <v>1530</v>
       </c>
-      <c t="n" r="R54" s="6">
+      <c r="R54" t="n" s="6">
         <v>66.5</v>
       </c>
-      <c t="n" r="S54" s="11">
+      <c r="S54" t="n" s="11">
         <v>1634</v>
       </c>
-      <c t="n" r="T54" s="6">
+      <c r="T54" t="n" s="6">
         <v>61.4</v>
       </c>
-      <c t="n" r="U54" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V54" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X54" s="7">
+      <c r="U54" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V54" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c t="n" r="A55" s="1">
+      <c r="A55" t="n" s="1">
         <v>52</v>
       </c>
-      <c t="s" r="B55" s="1">
+      <c r="B55" t="s" s="1">
         <v>53</v>
       </c>
-      <c t="n" r="C55" s="10">
+      <c r="C55" t="n" s="10">
         <v>1537</v>
       </c>
-      <c t="n" r="D55" s="9">
+      <c r="D55" t="n" s="9">
         <v>50.7</v>
       </c>
-      <c t="n" r="E55" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G55" s="8">
+      <c r="E55" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F55" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n" s="8">
         <v>986</v>
       </c>
-      <c t="n" r="H55" s="9">
+      <c r="H55" t="n" s="9">
         <v>74.59999999999999</v>
       </c>
-      <c t="n" r="I55" s="10">
+      <c r="I55" t="n" s="10">
         <v>1778</v>
       </c>
-      <c t="n" r="J55" s="9">
+      <c r="J55" t="n" s="9">
         <v>48.8</v>
       </c>
-      <c t="n" r="K55" s="10">
+      <c r="K55" t="n" s="10">
         <v>2316</v>
       </c>
-      <c t="n" r="L55" s="9">
+      <c r="L55" t="n" s="9">
         <v>31.8</v>
       </c>
-      <c t="n" r="M55" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N55" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O55" s="10">
+      <c r="M55" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N55" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n" s="10">
         <v>2338</v>
       </c>
-      <c t="n" r="P55" s="9">
+      <c r="P55" t="n" s="9">
         <v>40.2</v>
       </c>
-      <c t="n" r="Q55" s="11">
+      <c r="Q55" t="n" s="11">
         <v>2266</v>
       </c>
-      <c t="n" r="R55" s="9">
+      <c r="R55" t="n" s="9">
         <v>47.7</v>
       </c>
-      <c t="n" r="S55" s="8">
+      <c r="S55" t="n" s="8">
         <v>1128</v>
       </c>
-      <c t="n" r="T55" s="9">
+      <c r="T55" t="n" s="9">
         <v>75.2</v>
       </c>
-      <c t="n" r="U55" s="11">
+      <c r="U55" t="n" s="11">
         <v>2495</v>
       </c>
-      <c t="n" r="V55" s="9">
+      <c r="V55" t="n" s="9">
         <v>41</v>
       </c>
-      <c t="n" r="X55" s="7">
+      <c r="X55" t="n" s="7">
         <v>61.5</v>
       </c>
     </row>
     <row r="56" spans="1:24">
-      <c t="n" r="A56" s="4">
+      <c r="A56" t="n" s="4">
         <v>53</v>
       </c>
-      <c t="s" r="B56" s="4">
+      <c r="B56" t="s" s="4">
         <v>54</v>
       </c>
-      <c t="n" r="C56" s="11">
+      <c r="C56" t="n" s="11">
         <v>867</v>
       </c>
-      <c t="n" r="D56" s="6">
+      <c r="D56" t="n" s="6">
         <v>70.7</v>
       </c>
-      <c t="n" r="E56" s="11">
+      <c r="E56" t="n" s="11">
         <v>1421</v>
       </c>
-      <c t="n" r="F56" s="6">
+      <c r="F56" t="n" s="6">
         <v>60.4</v>
       </c>
-      <c t="n" r="G56" s="10">
+      <c r="G56" t="n" s="10">
         <v>2124</v>
       </c>
-      <c t="n" r="H56" s="6">
+      <c r="H56" t="n" s="6">
         <v>41.2</v>
       </c>
-      <c t="n" r="I56" s="11">
+      <c r="I56" t="n" s="11">
         <v>1153</v>
       </c>
-      <c t="n" r="J56" s="6">
+      <c r="J56" t="n" s="6">
         <v>66.5</v>
       </c>
-      <c t="n" r="K56" s="11">
+      <c r="K56" t="n" s="11">
         <v>1352</v>
       </c>
-      <c t="n" r="L56" s="6">
+      <c r="L56" t="n" s="6">
         <v>58.9</v>
       </c>
-      <c t="n" r="M56" s="11">
+      <c r="M56" t="n" s="11">
         <v>672</v>
       </c>
-      <c t="n" r="N56" s="6">
+      <c r="N56" t="n" s="6">
         <v>74.5</v>
       </c>
-      <c t="n" r="O56" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="P56" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q56" s="8">
+      <c r="O56" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P56" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n" s="8">
         <v>1016</v>
       </c>
-      <c t="n" r="R56" s="6">
+      <c r="R56" t="n" s="6">
         <v>76</v>
       </c>
-      <c t="n" r="S56" s="10">
+      <c r="S56" t="n" s="10">
         <v>2473</v>
       </c>
-      <c t="n" r="T56" s="6">
+      <c r="T56" t="n" s="6">
         <v>41.7</v>
       </c>
-      <c t="n" r="U56" s="11">
+      <c r="U56" t="n" s="11">
         <v>2296</v>
       </c>
-      <c t="n" r="V56" s="6">
+      <c r="V56" t="n" s="6">
         <v>44.9</v>
       </c>
-      <c t="n" r="X56" s="7">
+      <c r="X56" t="n" s="7">
         <v>60.4</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c t="n" r="A57" s="1">
+      <c r="A57" t="n" s="1">
         <v>54</v>
       </c>
-      <c t="s" r="B57" s="1">
+      <c r="B57" t="s" s="1">
         <v>55</v>
       </c>
-      <c t="n" r="C57" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D57" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E57" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G57" s="11">
+      <c r="C57" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D57" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F57" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n" s="11">
         <v>1761</v>
       </c>
-      <c t="n" r="H57" s="9">
+      <c r="H57" t="n" s="9">
         <v>53.7</v>
       </c>
-      <c t="n" r="I57" s="10">
+      <c r="I57" t="n" s="10">
         <v>1838</v>
       </c>
-      <c t="n" r="J57" s="9">
+      <c r="J57" t="n" s="9">
         <v>47.5</v>
       </c>
-      <c t="n" r="K57" s="8">
+      <c r="K57" t="n" s="8">
         <v>1271</v>
       </c>
-      <c t="n" r="L57" s="9">
+      <c r="L57" t="n" s="9">
         <v>65.8</v>
       </c>
-      <c t="n" r="M57" s="11">
+      <c r="M57" t="n" s="11">
         <v>708</v>
       </c>
-      <c t="n" r="N57" s="9">
+      <c r="N57" t="n" s="9">
         <v>73.7</v>
       </c>
-      <c t="n" r="O57" s="11">
+      <c r="O57" t="n" s="11">
         <v>1169</v>
       </c>
-      <c t="n" r="P57" s="9">
+      <c r="P57" t="n" s="9">
         <v>67.59999999999999</v>
       </c>
-      <c t="n" r="Q57" s="8">
+      <c r="Q57" t="n" s="8">
         <v>1293</v>
       </c>
-      <c t="n" r="R57" s="9">
+      <c r="R57" t="n" s="9">
         <v>70.90000000000001</v>
       </c>
-      <c t="n" r="S57" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T57" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U57" s="11">
+      <c r="S57" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T57" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n" s="11">
         <v>2090</v>
       </c>
-      <c t="n" r="V57" s="9">
+      <c r="V57" t="n" s="9">
         <v>48.9</v>
       </c>
-      <c t="n" r="X57" s="7">
+      <c r="X57" t="n" s="7">
         <v>59.9</v>
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c t="n" r="A58" s="4">
+      <c r="A58" t="n" s="4">
         <v>55</v>
       </c>
-      <c t="s" r="B58" s="4">
+      <c r="B58" t="s" s="4">
         <v>56</v>
       </c>
-      <c t="n" r="C58" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E58" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G58" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I58" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K58" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M58" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O58" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q58" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R58" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S58" s="8">
+      <c r="C58" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D58" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F58" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H58" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J58" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L58" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N58" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P58" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R58" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n" s="8">
         <v>1131</v>
       </c>
-      <c t="n" r="T58" s="6">
+      <c r="T58" t="n" s="6">
         <v>75.2</v>
       </c>
-      <c t="n" r="U58" s="11">
+      <c r="U58" t="n" s="11">
         <v>2405</v>
       </c>
-      <c t="n" r="V58" s="6">
+      <c r="V58" t="n" s="6">
         <v>42.7</v>
       </c>
-      <c t="n" r="X58" s="7">
+      <c r="X58" t="n" s="7">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c t="n" r="A59" s="1">
+      <c r="A59" t="n" s="1">
         <v>56</v>
       </c>
-      <c t="s" r="B59" s="1">
+      <c r="B59" t="s" s="1">
         <v>57</v>
       </c>
-      <c t="n" r="C59" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D59" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E59" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F59" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G59" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I59" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J59" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K59" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L59" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M59" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N59" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O59" s="10">
+      <c r="C59" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D59" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F59" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H59" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J59" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="L59" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="N59" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n" s="10">
         <v>2502</v>
       </c>
-      <c t="n" r="P59" s="9">
+      <c r="P59" t="n" s="9">
         <v>37</v>
       </c>
-      <c t="n" r="Q59" s="11">
+      <c r="Q59" t="n" s="11">
         <v>2579</v>
       </c>
-      <c t="n" r="R59" s="9">
+      <c r="R59" t="n" s="9">
         <v>41.9</v>
       </c>
-      <c t="n" r="S59" s="11">
+      <c r="S59" t="n" s="11">
         <v>2042</v>
       </c>
-      <c t="n" r="T59" s="9">
+      <c r="T59" t="n" s="9">
         <v>54.2</v>
       </c>
-      <c t="n" r="U59" s="8">
+      <c r="U59" t="n" s="8">
         <v>1852</v>
       </c>
-      <c t="n" r="V59" s="9">
+      <c r="V59" t="n" s="9">
         <v>58.6</v>
       </c>
-      <c t="n" r="X59" s="7">
+      <c r="X59" t="n" s="7">
         <v>56.4</v>
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c t="n" r="A60" s="4">
+      <c r="A60" t="n" s="4">
         <v>57</v>
       </c>
-      <c t="s" r="B60" s="4">
+      <c r="B60" t="s" s="4">
         <v>58</v>
       </c>
-      <c t="n" r="C60" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D60" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E60" s="11">
+      <c r="C60" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n" s="11">
         <v>1144</v>
       </c>
-      <c t="n" r="F60" s="6">
+      <c r="F60" t="n" s="6">
         <v>66.2</v>
       </c>
-      <c t="n" r="G60" s="8">
+      <c r="G60" t="n" s="8">
         <v>598</v>
       </c>
-      <c t="n" r="H60" s="6">
+      <c r="H60" t="n" s="6">
         <v>82.7</v>
       </c>
-      <c t="n" r="I60" s="11">
+      <c r="I60" t="n" s="11">
         <v>798</v>
       </c>
-      <c t="n" r="J60" s="6">
+      <c r="J60" t="n" s="6">
         <v>73.7</v>
       </c>
-      <c t="n" r="K60" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L60" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M60" s="10">
+      <c r="K60" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L60" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n" s="10">
         <v>2138</v>
       </c>
-      <c t="n" r="N60" s="6">
+      <c r="N60" t="n" s="6">
         <v>35.7</v>
       </c>
-      <c t="n" r="O60" s="11">
+      <c r="O60" t="n" s="11">
         <v>1632</v>
       </c>
-      <c t="n" r="P60" s="6">
+      <c r="P60" t="n" s="6">
         <v>58.7</v>
       </c>
-      <c t="n" r="Q60" s="11">
+      <c r="Q60" t="n" s="11">
         <v>2001</v>
       </c>
-      <c t="n" r="R60" s="6">
+      <c r="R60" t="n" s="6">
         <v>52.7</v>
       </c>
-      <c t="n" r="S60" s="11">
+      <c r="S60" t="n" s="11">
         <v>1767</v>
       </c>
-      <c t="n" r="T60" s="6">
+      <c r="T60" t="n" s="6">
         <v>59</v>
       </c>
-      <c t="n" r="U60" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V60" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X60" s="7">
+      <c r="U60" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V60" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n" s="7">
         <v>55.9</v>
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c t="n" r="A61" s="1">
+      <c r="A61" t="n" s="1">
         <v>58</v>
       </c>
-      <c t="s" r="B61" s="1">
+      <c r="B61" t="s" s="1">
         <v>59</v>
       </c>
-      <c t="n" r="C61" s="8">
+      <c r="C61" t="n" s="8">
         <v>315</v>
       </c>
-      <c t="n" r="D61" s="9">
+      <c r="D61" t="n" s="9">
         <v>88</v>
       </c>
-      <c t="n" r="E61" s="11">
+      <c r="E61" t="n" s="11">
         <v>2123</v>
       </c>
-      <c t="n" r="F61" s="9">
+      <c r="F61" t="n" s="9">
         <v>45.9</v>
       </c>
-      <c t="n" r="G61" s="8">
+      <c r="G61" t="n" s="8">
         <v>757</v>
       </c>
-      <c t="n" r="H61" s="9">
+      <c r="H61" t="n" s="9">
         <v>79.40000000000001</v>
       </c>
-      <c t="n" r="I61" s="10">
+      <c r="I61" t="n" s="10">
         <v>1642</v>
       </c>
-      <c t="n" r="J61" s="9">
+      <c r="J61" t="n" s="9">
         <v>51.5</v>
       </c>
-      <c t="n" r="K61" s="11">
+      <c r="K61" t="n" s="11">
         <v>1411</v>
       </c>
-      <c t="n" r="L61" s="9">
+      <c r="L61" t="n" s="9">
         <v>57.6</v>
       </c>
-      <c t="n" r="M61" s="11">
+      <c r="M61" t="n" s="11">
         <v>1132</v>
       </c>
-      <c t="n" r="N61" s="9">
+      <c r="N61" t="n" s="9">
         <v>63.9</v>
       </c>
-      <c t="n" r="O61" s="11">
+      <c r="O61" t="n" s="11">
         <v>1319</v>
       </c>
-      <c t="n" r="P61" s="9">
+      <c r="P61" t="n" s="9">
         <v>64.7</v>
       </c>
-      <c t="n" r="Q61" s="8">
+      <c r="Q61" t="n" s="8">
         <v>734</v>
       </c>
-      <c t="n" r="R61" s="9">
+      <c r="R61" t="n" s="9">
         <v>81.3</v>
       </c>
-      <c t="n" r="S61" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T61" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U61" s="10">
+      <c r="S61" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T61" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n" s="10">
         <v>2798</v>
       </c>
-      <c t="n" r="V61" s="9">
+      <c r="V61" t="n" s="9">
         <v>30</v>
       </c>
-      <c t="n" r="X61" s="7">
+      <c r="X61" t="n" s="7">
         <v>55.6</v>
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c t="n" r="A62" s="4">
+      <c r="A62" t="n" s="4">
         <v>59</v>
       </c>
-      <c t="s" r="B62" s="4">
+      <c r="B62" t="s" s="4">
         <v>60</v>
       </c>
-      <c t="n" r="C62" s="10">
+      <c r="C62" t="n" s="10">
         <v>1637</v>
       </c>
-      <c t="n" r="D62" s="6">
+      <c r="D62" t="n" s="6">
         <v>48.5</v>
       </c>
-      <c t="n" r="E62" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="F62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G62" s="10">
+      <c r="E62" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F62" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n" s="10">
         <v>2217</v>
       </c>
-      <c t="n" r="H62" s="6">
+      <c r="H62" t="n" s="6">
         <v>39.2</v>
       </c>
-      <c t="n" r="I62" s="11">
+      <c r="I62" t="n" s="11">
         <v>1275</v>
       </c>
-      <c t="n" r="J62" s="6">
+      <c r="J62" t="n" s="6">
         <v>64</v>
       </c>
-      <c t="n" r="K62" s="11">
+      <c r="K62" t="n" s="11">
         <v>1838</v>
       </c>
-      <c t="n" r="L62" s="6">
+      <c r="L62" t="n" s="6">
         <v>47.8</v>
       </c>
-      <c t="n" r="M62" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O62" s="11">
+      <c r="M62" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N62" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n" s="11">
         <v>1546</v>
       </c>
-      <c t="n" r="P62" s="6">
+      <c r="P62" t="n" s="6">
         <v>60.4</v>
       </c>
-      <c t="n" r="Q62" s="8">
+      <c r="Q62" t="n" s="8">
         <v>1469</v>
       </c>
-      <c t="n" r="R62" s="6">
+      <c r="R62" t="n" s="6">
         <v>67.59999999999999</v>
       </c>
-      <c t="n" r="S62" s="10">
+      <c r="S62" t="n" s="10">
         <v>2546</v>
       </c>
-      <c t="n" r="T62" s="6">
+      <c r="T62" t="n" s="6">
         <v>40.4</v>
       </c>
-      <c t="n" r="U62" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V62" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X62" s="7">
+      <c r="U62" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V62" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n" s="7">
         <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:24">
-      <c t="n" r="A63" s="1">
+      <c r="A63" t="n" s="1">
         <v>60</v>
       </c>
-      <c t="s" r="B63" s="1">
+      <c r="B63" t="s" s="1">
         <v>61</v>
       </c>
-      <c t="n" r="C63" s="10">
+      <c r="C63" t="n" s="10">
         <v>2119</v>
       </c>
-      <c t="n" r="D63" s="9">
+      <c r="D63" t="n" s="9">
         <v>37.7</v>
       </c>
-      <c t="n" r="E63" s="11">
+      <c r="E63" t="n" s="11">
         <v>1412</v>
       </c>
-      <c t="n" r="F63" s="9">
+      <c r="F63" t="n" s="9">
         <v>60.6</v>
       </c>
-      <c t="n" r="G63" s="11">
+      <c r="G63" t="n" s="11">
         <v>1876</v>
       </c>
-      <c t="n" r="H63" s="9">
+      <c r="H63" t="n" s="9">
         <v>51.3</v>
       </c>
-      <c t="n" r="I63" s="10">
+      <c r="I63" t="n" s="10">
         <v>1373</v>
       </c>
-      <c t="n" r="J63" s="9">
+      <c r="J63" t="n" s="9">
         <v>57</v>
       </c>
-      <c t="n" r="K63" s="10">
+      <c r="K63" t="n" s="10">
         <v>1951</v>
       </c>
-      <c t="n" r="L63" s="9">
+      <c r="L63" t="n" s="9">
         <v>40.2</v>
       </c>
-      <c t="n" r="M63" s="10">
+      <c r="M63" t="n" s="10">
         <v>2230</v>
       </c>
-      <c t="n" r="N63" s="9">
+      <c r="N63" t="n" s="9">
         <v>33.6</v>
       </c>
-      <c t="n" r="O63" s="10">
+      <c r="O63" t="n" s="10">
         <v>2574</v>
       </c>
-      <c t="n" r="P63" s="9">
+      <c r="P63" t="n" s="9">
         <v>35.7</v>
       </c>
-      <c t="n" r="Q63" s="11">
+      <c r="Q63" t="n" s="11">
         <v>1830</v>
       </c>
-      <c t="n" r="R63" s="9">
+      <c r="R63" t="n" s="9">
         <v>55.9</v>
       </c>
-      <c t="n" r="S63" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T63" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U63" s="11">
+      <c r="S63" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T63" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n" s="11">
         <v>2223</v>
       </c>
-      <c t="n" r="V63" s="9">
+      <c r="V63" t="n" s="9">
         <v>46.3</v>
       </c>
-      <c t="n" r="X63" s="7">
+      <c r="X63" t="n" s="7">
         <v>51.1</v>
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c t="n" r="A64" s="4">
+      <c r="A64" t="n" s="4">
         <v>61</v>
       </c>
-      <c t="s" r="B64" s="4">
+      <c r="B64" t="s" s="4">
         <v>62</v>
       </c>
-      <c t="n" r="C64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S64" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="T64" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="U64" s="11">
+      <c r="C64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="T64" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n" s="11">
         <v>2017</v>
       </c>
-      <c t="n" r="V64" s="6">
+      <c r="V64" t="n" s="6">
         <v>50.4</v>
       </c>
-      <c t="n" r="X64" s="7">
+      <c r="X64" t="n" s="7">
         <v>50.4</v>
       </c>
     </row>
     <row r="65" spans="1:24">
-      <c t="n" r="A65" s="1">
+      <c r="A65" t="n" s="1">
         <v>62</v>
       </c>
-      <c t="s" r="B65" s="1">
+      <c r="B65" t="s" s="1">
         <v>63</v>
       </c>
-      <c t="n" r="C65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="S65" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="T65" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U65" s="11">
+      <c r="C65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="L65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="N65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="P65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="R65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="T65" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n" s="11">
         <v>2105</v>
       </c>
-      <c t="n" r="V65" s="9">
+      <c r="V65" t="n" s="9">
         <v>48.6</v>
       </c>
-      <c t="n" r="X65" s="7">
+      <c r="X65" t="n" s="7">
         <v>48.6</v>
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c t="n" r="A66" s="4">
+      <c r="A66" t="n" s="4">
         <v>63</v>
       </c>
-      <c t="s" r="B66" s="4">
+      <c r="B66" t="s" s="4">
         <v>64</v>
       </c>
-      <c t="n" r="C66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q66" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R66" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S66" s="11">
+      <c r="C66" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D66" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F66" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H66" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J66" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L66" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N66" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P66" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R66" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n" s="11">
         <v>2234</v>
       </c>
-      <c t="n" r="T66" s="6">
+      <c r="T66" t="n" s="6">
         <v>50.8</v>
       </c>
-      <c t="n" r="U66" s="11">
+      <c r="U66" t="n" s="11">
         <v>2402</v>
       </c>
-      <c t="n" r="V66" s="6">
+      <c r="V66" t="n" s="6">
         <v>42.8</v>
       </c>
-      <c t="n" r="X66" s="7">
+      <c r="X66" t="n" s="7">
         <v>46.8</v>
       </c>
     </row>
     <row r="67" spans="1:24">
-      <c t="n" r="A67" s="1">
+      <c r="A67" t="n" s="1">
         <v>64</v>
       </c>
-      <c t="s" r="B67" s="1">
+      <c r="B67" t="s" s="1">
         <v>65</v>
       </c>
-      <c t="n" r="C67" s="11">
+      <c r="C67" t="n" s="11">
         <v>901</v>
       </c>
-      <c t="n" r="D67" s="9">
+      <c r="D67" t="n" s="9">
         <v>69.90000000000001</v>
       </c>
-      <c t="n" r="E67" s="8">
+      <c r="E67" t="n" s="8">
         <v>350</v>
       </c>
-      <c t="n" r="F67" s="9">
+      <c r="F67" t="n" s="9">
         <v>87.7</v>
       </c>
-      <c t="n" r="G67" s="11">
+      <c r="G67" t="n" s="11">
         <v>1127</v>
       </c>
-      <c t="n" r="H67" s="9">
+      <c r="H67" t="n" s="9">
         <v>66.7</v>
       </c>
-      <c t="n" r="I67" s="10">
+      <c r="I67" t="n" s="10">
         <v>1573</v>
       </c>
-      <c t="n" r="J67" s="9">
+      <c r="J67" t="n" s="9">
         <v>52.9</v>
       </c>
-      <c t="n" r="K67" s="11">
+      <c r="K67" t="n" s="11">
         <v>1525</v>
       </c>
-      <c t="n" r="L67" s="9">
+      <c r="L67" t="n" s="9">
         <v>55</v>
       </c>
-      <c t="n" r="M67" s="8">
+      <c r="M67" t="n" s="8">
         <v>170</v>
       </c>
-      <c t="n" r="N67" s="9">
+      <c r="N67" t="n" s="9">
         <v>91.09999999999999</v>
       </c>
-      <c t="n" r="O67" s="8">
+      <c r="O67" t="n" s="8">
         <v>426</v>
       </c>
-      <c t="n" r="P67" s="9">
+      <c r="P67" t="n" s="9">
         <v>86.8</v>
       </c>
-      <c t="n" r="Q67" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R67" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="S67" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T67" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U67" s="5">
+      <c r="Q67" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R67" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T67" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n" s="5">
         <v>521</v>
       </c>
-      <c t="n" r="V67" s="9">
+      <c r="V67" t="n" s="9">
         <v>89.8</v>
       </c>
-      <c t="n" r="X67" s="7">
+      <c r="X67" t="n" s="7">
         <v>44.9</v>
       </c>
     </row>
     <row r="68" spans="1:24">
-      <c t="n" r="A68" s="4">
+      <c r="A68" t="n" s="4">
         <v>65</v>
       </c>
-      <c t="s" r="B68" s="4">
+      <c r="B68" t="s" s="4">
         <v>66</v>
       </c>
-      <c t="n" r="C68" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E68" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G68" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I68" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K68" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M68" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O68" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q68" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R68" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S68" s="11">
+      <c r="C68" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D68" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F68" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H68" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J68" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L68" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N68" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P68" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R68" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n" s="11">
         <v>2218</v>
       </c>
-      <c t="n" r="T68" s="6">
+      <c r="T68" t="n" s="6">
         <v>51.1</v>
       </c>
-      <c t="n" r="U68" s="11">
+      <c r="U68" t="n" s="11">
         <v>2619</v>
       </c>
-      <c t="n" r="V68" s="6">
+      <c r="V68" t="n" s="6">
         <v>38.5</v>
       </c>
-      <c t="n" r="X68" s="7">
+      <c r="X68" t="n" s="7">
         <v>44.8</v>
       </c>
     </row>
     <row r="69" spans="1:24">
-      <c t="n" r="A69" s="1">
+      <c r="A69" t="n" s="1">
         <v>66</v>
       </c>
-      <c t="s" r="B69" s="1">
+      <c r="B69" t="s" s="1">
         <v>67</v>
       </c>
-      <c t="n" r="C69" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="D69" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E69" s="11">
+      <c r="C69" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D69" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n" s="11">
         <v>1657</v>
       </c>
-      <c t="n" r="F69" s="9">
+      <c r="F69" t="n" s="9">
         <v>55.5</v>
       </c>
-      <c t="n" r="G69" s="11">
+      <c r="G69" t="n" s="11">
         <v>1955</v>
       </c>
-      <c t="n" r="H69" s="9">
+      <c r="H69" t="n" s="9">
         <v>49.6</v>
       </c>
-      <c t="n" r="I69" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J69" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K69" s="10">
+      <c r="I69" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J69" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n" s="10">
         <v>2034</v>
       </c>
-      <c t="n" r="L69" s="9">
+      <c r="L69" t="n" s="9">
         <v>38.3</v>
       </c>
-      <c t="n" r="M69" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N69" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O69" s="10">
+      <c r="M69" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N69" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n" s="10">
         <v>2397</v>
       </c>
-      <c t="n" r="P69" s="9">
+      <c r="P69" t="n" s="9">
         <v>39.1</v>
       </c>
-      <c t="n" r="Q69" s="10">
+      <c r="Q69" t="n" s="10">
         <v>2838</v>
       </c>
-      <c t="n" r="R69" s="9">
+      <c r="R69" t="n" s="9">
         <v>32.1</v>
       </c>
-      <c t="n" r="S69" s="11">
+      <c r="S69" t="n" s="11">
         <v>2055</v>
       </c>
-      <c t="n" r="T69" s="9">
+      <c r="T69" t="n" s="9">
         <v>54</v>
       </c>
-      <c t="n" r="U69" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V69" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="X69" s="7">
+      <c r="U69" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="V69" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c t="n" r="A70" s="4">
+      <c r="A70" t="n" s="4">
         <v>67</v>
       </c>
-      <c t="s" r="B70" s="4">
+      <c r="B70" t="s" s="4">
         <v>68</v>
       </c>
-      <c t="n" r="C70" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E70" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G70" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I70" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K70" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M70" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O70" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P70" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q70" s="11">
+      <c r="C70" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D70" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F70" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H70" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J70" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L70" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N70" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P70" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n" s="11">
         <v>2068</v>
       </c>
-      <c t="n" r="R70" s="6">
+      <c r="R70" t="n" s="6">
         <v>51.4</v>
       </c>
-      <c t="n" r="S70" s="10">
+      <c r="S70" t="n" s="10">
         <v>2944</v>
       </c>
-      <c t="n" r="T70" s="6">
+      <c r="T70" t="n" s="6">
         <v>33.4</v>
       </c>
-      <c t="n" r="U70" s="10">
+      <c r="U70" t="n" s="10">
         <v>2702</v>
       </c>
-      <c t="n" r="V70" s="6">
+      <c r="V70" t="n" s="6">
         <v>31.9</v>
       </c>
-      <c t="n" r="X70" s="7">
+      <c r="X70" t="n" s="7">
         <v>42.4</v>
       </c>
     </row>
     <row r="71" spans="1:24">
-      <c t="n" r="A71" s="1">
+      <c r="A71" t="n" s="1">
         <v>68</v>
       </c>
-      <c t="s" r="B71" s="1">
+      <c r="B71" t="s" s="1">
         <v>69</v>
       </c>
-      <c t="n" r="C71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="S71" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="T71" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U71" s="11">
+      <c r="C71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="L71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="N71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="P71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="R71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="T71" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n" s="11">
         <v>2517</v>
       </c>
-      <c t="n" r="V71" s="9">
+      <c r="V71" t="n" s="9">
         <v>40.5</v>
       </c>
-      <c t="n" r="X71" s="7">
+      <c r="X71" t="n" s="7">
         <v>40.5</v>
       </c>
     </row>
     <row r="72" spans="1:24">
-      <c t="n" r="A72" s="4">
+      <c r="A72" t="n" s="4">
         <v>69</v>
       </c>
-      <c t="s" r="B72" s="4">
+      <c r="B72" t="s" s="4">
         <v>70</v>
       </c>
-      <c t="n" r="C72" s="10">
+      <c r="C72" t="n" s="10">
         <v>2014</v>
       </c>
-      <c t="n" r="D72" s="6">
+      <c r="D72" t="n" s="6">
         <v>40.1</v>
       </c>
-      <c t="n" r="E72" s="11">
+      <c r="E72" t="n" s="11">
         <v>2067</v>
       </c>
-      <c t="n" r="F72" s="6">
+      <c r="F72" t="n" s="6">
         <v>47</v>
       </c>
-      <c t="n" r="G72" s="11">
+      <c r="G72" t="n" s="11">
         <v>1309</v>
       </c>
-      <c t="n" r="H72" s="6">
+      <c r="H72" t="n" s="6">
         <v>63</v>
       </c>
-      <c t="n" r="I72" s="10">
+      <c r="I72" t="n" s="10">
         <v>1917</v>
       </c>
-      <c t="n" r="J72" s="6">
+      <c r="J72" t="n" s="6">
         <v>45.9</v>
       </c>
-      <c t="n" r="K72" s="10">
+      <c r="K72" t="n" s="10">
         <v>2267</v>
       </c>
-      <c t="n" r="L72" s="6">
+      <c r="L72" t="n" s="6">
         <v>32.9</v>
       </c>
-      <c t="n" r="M72" s="11">
+      <c r="M72" t="n" s="11">
         <v>1046</v>
       </c>
-      <c t="n" r="N72" s="6">
+      <c r="N72" t="n" s="6">
         <v>65.90000000000001</v>
       </c>
-      <c t="n" r="O72" s="11">
+      <c r="O72" t="n" s="11">
         <v>1305</v>
       </c>
-      <c t="n" r="P72" s="6">
+      <c r="P72" t="n" s="6">
         <v>65</v>
       </c>
-      <c t="n" r="Q72" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R72" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S72" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T72" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="U72" s="5">
+      <c r="Q72" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R72" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T72" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n" s="5">
         <v>1020</v>
       </c>
-      <c t="n" r="V72" s="6">
+      <c r="V72" t="n" s="6">
         <v>80</v>
       </c>
-      <c t="n" r="X72" s="7">
+      <c r="X72" t="n" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:24">
-      <c t="n" r="A73" s="1">
+      <c r="A73" t="n" s="1">
         <v>70</v>
       </c>
-      <c t="s" r="B73" s="1">
+      <c r="B73" t="s" s="1">
         <v>71</v>
       </c>
-      <c t="n" r="C73" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D73" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E73" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G73" s="8">
+      <c r="C73" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D73" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F73" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n" s="8">
         <v>608</v>
       </c>
-      <c t="n" r="H73" s="9">
+      <c r="H73" t="n" s="9">
         <v>82.5</v>
       </c>
-      <c t="n" r="I73" s="10">
+      <c r="I73" t="n" s="10">
         <v>1959</v>
       </c>
-      <c t="n" r="J73" s="9">
+      <c r="J73" t="n" s="9">
         <v>45.1</v>
       </c>
-      <c t="n" r="K73" s="5">
+      <c r="K73" t="n" s="5">
         <v>667</v>
       </c>
-      <c t="n" r="L73" s="9">
+      <c r="L73" t="n" s="9">
         <v>84.7</v>
       </c>
-      <c t="n" r="M73" s="11">
+      <c r="M73" t="n" s="11">
         <v>935</v>
       </c>
-      <c t="n" r="N73" s="9">
+      <c r="N73" t="n" s="9">
         <v>68.40000000000001</v>
       </c>
-      <c t="n" r="O73" s="11">
+      <c r="O73" t="n" s="11">
         <v>1060</v>
       </c>
-      <c t="n" r="P73" s="9">
+      <c r="P73" t="n" s="9">
         <v>69.7</v>
       </c>
-      <c t="n" r="Q73" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R73" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="S73" s="11">
+      <c r="Q73" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R73" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n" s="11">
         <v>1705</v>
       </c>
-      <c t="n" r="T73" s="9">
+      <c r="T73" t="n" s="9">
         <v>60.1</v>
       </c>
-      <c t="n" r="U73" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V73" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="X73" s="7">
+      <c r="U73" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="V73" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n" s="7">
         <v>30.1</v>
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c t="n" r="A74" s="4">
+      <c r="A74" t="n" s="4">
         <v>71</v>
       </c>
-      <c t="s" r="B74" s="4">
+      <c r="B74" t="s" s="4">
         <v>72</v>
       </c>
-      <c t="n" r="C74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q74" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S74" s="11">
+      <c r="C74" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n" s="11">
         <v>1816</v>
       </c>
-      <c t="n" r="T74" s="6">
+      <c r="T74" t="n" s="6">
         <v>58.2</v>
       </c>
-      <c t="n" r="U74" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V74" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X74" s="7">
+      <c r="U74" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V74" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n" s="7">
         <v>29.1</v>
       </c>
     </row>
     <row r="75" spans="1:24">
-      <c t="n" r="A75" s="1">
+      <c r="A75" t="n" s="1">
         <v>72</v>
       </c>
-      <c t="s" r="B75" s="1">
+      <c r="B75" t="s" s="1">
         <v>73</v>
       </c>
-      <c t="n" r="C75" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D75" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E75" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F75" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G75" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H75" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I75" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="J75" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K75" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="L75" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M75" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="N75" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O75" s="10">
+      <c r="C75" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D75" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F75" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H75" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J75" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L75" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N75" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n" s="10">
         <v>2526</v>
       </c>
-      <c t="n" r="P75" s="9">
+      <c r="P75" t="n" s="9">
         <v>36.6</v>
       </c>
-      <c t="n" r="Q75" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="R75" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="S75" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T75" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U75" s="11">
+      <c r="Q75" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R75" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T75" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n" s="11">
         <v>2029</v>
       </c>
-      <c t="n" r="V75" s="9">
+      <c r="V75" t="n" s="9">
         <v>50.1</v>
       </c>
-      <c t="n" r="X75" s="7">
+      <c r="X75" t="n" s="7">
         <v>25.1</v>
       </c>
     </row>
     <row r="76" spans="1:24">
-      <c t="n" r="A76" s="4">
+      <c r="A76" t="n" s="4">
         <v>73</v>
       </c>
-      <c t="s" r="B76" s="4">
+      <c r="B76" t="s" s="4">
         <v>74</v>
       </c>
-      <c t="n" r="C76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q76" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S76" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T76" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="U76" s="10">
-        <v>2816</v>
-      </c>
-      <c t="n" r="V76" s="6">
-        <v>29.7</v>
-      </c>
-      <c t="n" r="X76" s="7">
-        <v>14.8</v>
+      <c r="C76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="T76" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n" s="10">
+        <v>3055</v>
+      </c>
+      <c r="V76" t="n" s="6">
+        <v>25</v>
+      </c>
+      <c r="X76" t="n" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:24">
-      <c t="n" r="A77" s="1">
+      <c r="A77" t="n" s="1">
         <v>74</v>
       </c>
-      <c t="s" r="B77" s="1">
+      <c r="B77" t="s" s="1">
         <v>75</v>
       </c>
-      <c t="n" r="C77" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E77" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G77" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="I77" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="K77" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="M77" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="O77" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q77" s="9">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="S77" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="T77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="U77" s="9">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V77" s="9">
-        <v>0</v>
-      </c>
-      <c t="n" r="X77" s="7">
-        <v>0</v>
+      <c r="C77" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="J77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="L77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="N77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="P77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n" s="9">
+        <v>-2</v>
+      </c>
+      <c r="R77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T77" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n" s="10">
+        <v>3209</v>
+      </c>
+      <c r="V77" t="n" s="9">
+        <v>21.9</v>
+      </c>
+      <c r="X77" t="n" s="7">
+        <v>10.9</v>
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c t="n" r="A78" s="4">
+      <c r="A78" t="n" s="4">
         <v>75</v>
       </c>
-      <c t="s" r="B78" s="4">
+      <c r="B78" t="s" s="4">
         <v>76</v>
       </c>
-      <c t="n" r="C78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="D78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="F78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="H78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="I78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="J78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="K78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="L78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="M78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="N78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="O78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="P78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="Q78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="R78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="S78" s="6">
-        <v>-2</v>
-      </c>
-      <c t="n" r="T78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="U78" s="6">
-        <v>-1</v>
-      </c>
-      <c t="n" r="V78" s="6">
-        <v>0</v>
-      </c>
-      <c t="n" r="X78" s="7">
+      <c r="C78" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="L78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="P78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V78" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:24">
-      <c t="s" r="B81" s="12">
+      <c r="B81" t="s" s="12">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c t="s" r="B82" s="12">
+      <c r="B82" t="s" s="12">
         <v>78</v>
       </c>
     </row>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -215,6 +215,9 @@
     <t>SeymourLee</t>
   </si>
   <si>
+    <t>MaggieZhao95</t>
+  </si>
+  <si>
     <t>user4286</t>
   </si>
   <si>
@@ -224,16 +227,13 @@
     <t>cookiecookie</t>
   </si>
   <si>
+    <t>got7amy</t>
+  </si>
+  <si>
     <t>zexingfa</t>
   </si>
   <si>
-    <t>MaggieZhao95</t>
-  </si>
-  <si>
     <t>jmzhang18</t>
-  </si>
-  <si>
-    <t>got7amy</t>
   </si>
   <si>
     <t>shuizhouwang</t>
@@ -666,5632 +666,5632 @@
   </cols>
   <sheetData>
     <row spans="1:26" r="1">
-      <c s="1" t="s" r="B1">
-        <v>0</v>
-      </c>
-      <c s="2" t="n" r="C1">
+      <c t="s" s="1" r="B1">
+        <v>0</v>
+      </c>
+      <c t="n" s="2" r="C1">
         <v>118</v>
       </c>
-      <c s="2" t="n" r="E1">
+      <c t="n" s="2" r="E1">
         <v>119</v>
       </c>
-      <c s="2" t="n" r="G1">
+      <c t="n" s="2" r="G1">
         <v>120</v>
       </c>
-      <c s="2" t="n" r="I1">
+      <c t="n" s="2" r="I1">
         <v>121</v>
       </c>
-      <c s="2" t="n" r="K1">
+      <c t="n" s="2" r="K1">
         <v>122</v>
       </c>
-      <c s="2" t="n" r="M1">
+      <c t="n" s="2" r="M1">
         <v>123</v>
       </c>
-      <c s="2" t="n" r="O1">
+      <c t="n" s="2" r="O1">
         <v>124</v>
       </c>
-      <c s="2" t="n" r="Q1">
+      <c t="n" s="2" r="Q1">
         <v>125</v>
       </c>
-      <c s="2" t="n" r="S1">
+      <c t="n" s="2" r="S1">
         <v>126</v>
       </c>
-      <c s="2" t="n" r="U1">
+      <c t="n" s="2" r="U1">
         <v>127</v>
       </c>
-      <c s="2" t="n" r="W1">
+      <c t="n" s="2" r="W1">
         <v>128</v>
       </c>
     </row>
     <row spans="1:26" r="2">
-      <c s="1" t="s" r="B2">
+      <c t="s" s="1" r="B2">
         <v>1</v>
       </c>
-      <c s="3" t="n" r="C2">
+      <c t="n" s="3" r="C2">
         <v>3587</v>
       </c>
-      <c s="3" t="n" r="E2">
+      <c t="n" s="3" r="E2">
         <v>3847</v>
       </c>
-      <c s="3" t="n" r="G2">
+      <c t="n" s="3" r="G2">
         <v>3876</v>
       </c>
-      <c s="3" t="n" r="I2">
+      <c t="n" s="3" r="I2">
         <v>3924</v>
       </c>
-      <c s="3" t="n" r="K2">
+      <c t="n" s="3" r="K2">
         <v>3482</v>
       </c>
-      <c s="3" t="n" r="M2">
+      <c t="n" s="3" r="M2">
         <v>3468</v>
       </c>
-      <c s="3" t="n" r="O2">
+      <c t="n" s="3" r="O2">
         <v>4174</v>
       </c>
-      <c s="3" t="n" r="Q2">
+      <c t="n" s="3" r="Q2">
         <v>4288</v>
       </c>
-      <c s="3" t="n" r="S2">
+      <c t="n" s="3" r="S2">
         <v>4564</v>
       </c>
-      <c s="3" t="n" r="U2">
+      <c t="n" s="3" r="U2">
         <v>4071</v>
       </c>
-      <c s="3" t="n" r="W2">
+      <c t="n" s="3" r="W2">
         <v>5164</v>
       </c>
     </row>
     <row spans="1:26" r="4">
-      <c s="4" t="n" r="A4">
+      <c t="n" s="4" r="A4">
         <v>1</v>
       </c>
-      <c s="4" t="s" r="B4">
+      <c t="s" s="4" r="B4">
         <v>2</v>
       </c>
-      <c s="5" t="n" r="C4">
+      <c t="n" s="5" r="C4">
         <v>51</v>
       </c>
-      <c s="6" t="n" r="D4">
+      <c t="n" s="6" r="D4">
         <v>98.90000000000001</v>
       </c>
-      <c s="5" t="n" r="E4">
+      <c t="n" s="5" r="E4">
         <v>36</v>
       </c>
-      <c s="6" t="n" r="F4">
+      <c t="n" s="6" r="F4">
         <v>99.3</v>
       </c>
-      <c s="5" t="n" r="G4">
+      <c t="n" s="5" r="G4">
         <v>7</v>
       </c>
-      <c s="6" t="n" r="H4">
+      <c t="n" s="6" r="H4">
         <v>99.90000000000001</v>
       </c>
-      <c s="5" t="n" r="I4">
+      <c t="n" s="5" r="I4">
         <v>39</v>
       </c>
-      <c s="6" t="n" r="J4">
+      <c t="n" s="6" r="J4">
         <v>99.2</v>
       </c>
-      <c s="5" t="n" r="K4">
+      <c t="n" s="5" r="K4">
         <v>148</v>
       </c>
-      <c s="6" t="n" r="L4">
+      <c t="n" s="6" r="L4">
         <v>96.59999999999999</v>
       </c>
-      <c s="5" t="n" r="M4">
+      <c t="n" s="5" r="M4">
         <v>8</v>
       </c>
-      <c s="6" t="n" r="N4">
+      <c t="n" s="6" r="N4">
         <v>99.8</v>
       </c>
-      <c s="5" t="n" r="O4">
+      <c t="n" s="5" r="O4">
         <v>41</v>
       </c>
-      <c s="6" t="n" r="P4">
+      <c t="n" s="6" r="P4">
         <v>99.2</v>
       </c>
-      <c s="5" t="n" r="Q4">
+      <c t="n" s="5" r="Q4">
         <v>22</v>
       </c>
-      <c s="6" t="n" r="R4">
+      <c t="n" s="6" r="R4">
         <v>99.59999999999999</v>
       </c>
-      <c s="5" t="n" r="S4">
+      <c t="n" s="5" r="S4">
         <v>56</v>
       </c>
-      <c s="6" t="n" r="T4">
+      <c t="n" s="6" r="T4">
         <v>99</v>
       </c>
-      <c s="5" t="n" r="U4">
+      <c t="n" s="5" r="U4">
         <v>362</v>
       </c>
-      <c s="6" t="n" r="V4">
+      <c t="n" s="6" r="V4">
         <v>92.90000000000001</v>
       </c>
-      <c s="5" t="n" r="W4">
+      <c t="n" s="5" r="W4">
         <v>7</v>
       </c>
-      <c s="6" t="n" r="X4">
+      <c t="n" s="6" r="X4">
         <v>99.90000000000001</v>
       </c>
-      <c s="7" t="n" r="Z4">
+      <c t="n" s="7" r="Z4">
         <v>99.5</v>
       </c>
     </row>
     <row spans="1:26" r="5">
-      <c s="1" t="n" r="A5">
+      <c t="n" s="1" r="A5">
         <v>2</v>
       </c>
-      <c s="1" t="s" r="B5">
+      <c t="s" s="1" r="B5">
         <v>3</v>
       </c>
-      <c s="8" t="n" r="C5">
+      <c t="n" s="8" r="C5">
         <v>429</v>
       </c>
-      <c s="9" t="n" r="D5">
+      <c t="n" s="9" r="D5">
         <v>85.40000000000001</v>
       </c>
-      <c s="5" t="n" r="E5">
+      <c t="n" s="5" r="E5">
         <v>174</v>
       </c>
-      <c s="9" t="n" r="F5">
+      <c t="n" s="9" r="F5">
         <v>96.40000000000001</v>
       </c>
-      <c s="5" t="n" r="G5">
+      <c t="n" s="5" r="G5">
         <v>322</v>
       </c>
-      <c s="9" t="n" r="H5">
+      <c t="n" s="9" r="H5">
         <v>93.40000000000001</v>
       </c>
-      <c s="8" t="n" r="I5">
+      <c t="n" s="8" r="I5">
         <v>492</v>
       </c>
-      <c s="9" t="n" r="J5">
+      <c t="n" s="9" r="J5">
         <v>85</v>
       </c>
-      <c s="5" t="n" r="K5">
+      <c t="n" s="5" r="K5">
         <v>335</v>
       </c>
-      <c s="9" t="n" r="L5">
+      <c t="n" s="9" r="L5">
         <v>92.3</v>
       </c>
-      <c s="8" t="n" r="M5">
+      <c t="n" s="8" r="M5">
         <v>269</v>
       </c>
-      <c s="9" t="n" r="N5">
+      <c t="n" s="9" r="N5">
         <v>88.8</v>
       </c>
-      <c s="5" t="n" r="O5">
+      <c t="n" s="5" r="O5">
         <v>311</v>
       </c>
-      <c s="9" t="n" r="P5">
+      <c t="n" s="9" r="P5">
         <v>94</v>
       </c>
-      <c s="5" t="n" r="Q5">
+      <c t="n" s="5" r="Q5">
         <v>107</v>
       </c>
-      <c s="9" t="n" r="R5">
+      <c t="n" s="9" r="R5">
         <v>98</v>
       </c>
-      <c s="5" t="n" r="S5">
+      <c t="n" s="5" r="S5">
         <v>75</v>
       </c>
-      <c s="9" t="n" r="T5">
+      <c t="n" s="9" r="T5">
         <v>98.7</v>
       </c>
-      <c s="5" t="n" r="U5">
+      <c t="n" s="5" r="U5">
         <v>155</v>
       </c>
-      <c s="9" t="n" r="V5">
+      <c t="n" s="9" r="V5">
         <v>97</v>
       </c>
-      <c s="8" t="n" r="W5">
+      <c t="n" s="8" r="W5">
         <v>274</v>
       </c>
-      <c s="9" t="n" r="X5">
+      <c t="n" s="9" r="X5">
         <v>90.8</v>
       </c>
-      <c s="7" t="n" r="Z5">
+      <c t="n" s="7" r="Z5">
         <v>97.8</v>
       </c>
     </row>
     <row spans="1:26" r="6">
-      <c s="4" t="n" r="A6">
+      <c t="n" s="4" r="A6">
         <v>3</v>
       </c>
-      <c s="4" t="s" r="B6">
+      <c t="s" s="4" r="B6">
         <v>4</v>
       </c>
-      <c s="5" t="n" r="C6">
+      <c t="n" s="5" r="C6">
         <v>60</v>
       </c>
-      <c s="6" t="n" r="D6">
+      <c t="n" s="6" r="D6">
         <v>98.7</v>
       </c>
-      <c s="8" t="n" r="E6">
+      <c t="n" s="8" r="E6">
         <v>454</v>
       </c>
-      <c s="6" t="n" r="F6">
+      <c t="n" s="6" r="F6">
         <v>85.59999999999999</v>
       </c>
-      <c s="5" t="n" r="G6">
+      <c t="n" s="5" r="G6">
         <v>425</v>
       </c>
-      <c s="6" t="n" r="H6">
+      <c t="n" s="6" r="H6">
         <v>91.2</v>
       </c>
-      <c s="5" t="n" r="I6">
+      <c t="n" s="5" r="I6">
         <v>103</v>
       </c>
-      <c s="6" t="n" r="J6">
+      <c t="n" s="6" r="J6">
         <v>97.90000000000001</v>
       </c>
-      <c s="5" t="n" r="K6">
+      <c t="n" s="5" r="K6">
         <v>128</v>
       </c>
-      <c s="6" t="n" r="L6">
+      <c t="n" s="6" r="L6">
         <v>97.09999999999999</v>
       </c>
-      <c s="8" t="n" r="M6">
+      <c t="n" s="8" r="M6">
         <v>239</v>
       </c>
-      <c s="6" t="n" r="N6">
+      <c t="n" s="6" r="N6">
         <v>89.5</v>
       </c>
-      <c s="5" t="n" r="O6">
+      <c t="n" s="5" r="O6">
         <v>318</v>
       </c>
-      <c s="6" t="n" r="P6">
+      <c t="n" s="6" r="P6">
         <v>93.90000000000001</v>
       </c>
-      <c s="5" t="n" r="Q6">
+      <c t="n" s="5" r="Q6">
         <v>292</v>
       </c>
-      <c s="6" t="n" r="R6">
+      <c t="n" s="6" r="R6">
         <v>94.59999999999999</v>
       </c>
-      <c s="5" t="n" r="S6">
+      <c t="n" s="5" r="S6">
         <v>88</v>
       </c>
-      <c s="6" t="n" r="T6">
+      <c t="n" s="6" r="T6">
         <v>98.5</v>
       </c>
-      <c s="5" t="n" r="U6">
+      <c t="n" s="5" r="U6">
         <v>357</v>
       </c>
-      <c s="6" t="n" r="V6">
+      <c t="n" s="6" r="V6">
         <v>93</v>
       </c>
-      <c s="8" t="n" r="W6">
+      <c t="n" s="8" r="W6">
         <v>333</v>
       </c>
-      <c s="6" t="n" r="X6">
+      <c t="n" s="6" r="X6">
         <v>89.8</v>
       </c>
-      <c s="7" t="n" r="Z6">
+      <c t="n" s="7" r="Z6">
         <v>95.8</v>
       </c>
     </row>
     <row spans="1:26" r="7">
-      <c s="1" t="n" r="A7">
+      <c t="n" s="1" r="A7">
         <v>4</v>
       </c>
-      <c s="1" t="s" r="B7">
+      <c t="s" s="1" r="B7">
         <v>5</v>
       </c>
-      <c s="8" t="n" r="C7">
+      <c t="n" s="8" r="C7">
         <v>565</v>
       </c>
-      <c s="9" t="n" r="D7">
+      <c t="n" s="9" r="D7">
         <v>82.40000000000001</v>
       </c>
-      <c s="9" t="n" r="E7">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="F7">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="G7">
+      <c t="n" s="9" r="E7">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="F7">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="G7">
         <v>845</v>
       </c>
-      <c s="9" t="n" r="H7">
+      <c t="n" s="9" r="H7">
         <v>77.59999999999999</v>
       </c>
-      <c s="8" t="n" r="I7">
+      <c t="n" s="8" r="I7">
         <v>419</v>
       </c>
-      <c s="9" t="n" r="J7">
+      <c t="n" s="9" r="J7">
         <v>86.5</v>
       </c>
-      <c s="5" t="n" r="K7">
+      <c t="n" s="5" r="K7">
         <v>711</v>
       </c>
-      <c s="9" t="n" r="L7">
+      <c t="n" s="9" r="L7">
         <v>83.7</v>
       </c>
-      <c s="5" t="n" r="M7">
+      <c t="n" s="5" r="M7">
         <v>100</v>
       </c>
-      <c s="9" t="n" r="N7">
+      <c t="n" s="9" r="N7">
         <v>97.7</v>
       </c>
-      <c s="5" t="n" r="O7">
+      <c t="n" s="5" r="O7">
         <v>53</v>
       </c>
-      <c s="9" t="n" r="P7">
+      <c t="n" s="9" r="P7">
         <v>99</v>
       </c>
-      <c s="5" t="n" r="Q7">
+      <c t="n" s="5" r="Q7">
         <v>648</v>
       </c>
-      <c s="9" t="n" r="R7">
+      <c t="n" s="9" r="R7">
         <v>87.90000000000001</v>
       </c>
-      <c s="8" t="n" r="S7">
+      <c t="n" s="8" r="S7">
         <v>281</v>
       </c>
-      <c s="9" t="n" r="T7">
+      <c t="n" s="9" r="T7">
         <v>90.09999999999999</v>
       </c>
-      <c s="5" t="n" r="U7">
+      <c t="n" s="5" r="U7">
         <v>64</v>
       </c>
-      <c s="9" t="n" r="V7">
+      <c t="n" s="9" r="V7">
         <v>98.7</v>
       </c>
-      <c s="10" t="n" r="W7">
+      <c t="n" s="10" r="W7">
         <v>1470</v>
       </c>
-      <c s="9" t="n" r="X7">
+      <c t="n" s="9" r="X7">
         <v>67.2</v>
       </c>
-      <c s="7" t="n" r="Z7">
+      <c t="n" s="7" r="Z7">
         <v>94.40000000000001</v>
       </c>
     </row>
     <row spans="1:26" r="8">
-      <c s="4" t="n" r="A8">
+      <c t="n" s="4" r="A8">
         <v>5</v>
       </c>
-      <c s="4" t="s" r="B8">
+      <c t="s" s="4" r="B8">
         <v>6</v>
       </c>
-      <c s="8" t="n" r="C8">
+      <c t="n" s="8" r="C8">
         <v>324</v>
       </c>
-      <c s="6" t="n" r="D8">
+      <c t="n" s="6" r="D8">
         <v>87.8</v>
       </c>
-      <c s="5" t="n" r="E8">
+      <c t="n" s="5" r="E8">
         <v>100</v>
       </c>
-      <c s="6" t="n" r="F8">
+      <c t="n" s="6" r="F8">
         <v>97.90000000000001</v>
       </c>
-      <c s="5" t="n" r="G8">
+      <c t="n" s="5" r="G8">
         <v>74</v>
       </c>
-      <c s="6" t="n" r="H8">
+      <c t="n" s="6" r="H8">
         <v>98.5</v>
       </c>
-      <c s="5" t="n" r="I8">
+      <c t="n" s="5" r="I8">
         <v>111</v>
       </c>
-      <c s="6" t="n" r="J8">
+      <c t="n" s="6" r="J8">
         <v>97.7</v>
       </c>
-      <c s="5" t="n" r="K8">
+      <c t="n" s="5" r="K8">
         <v>262</v>
       </c>
-      <c s="6" t="n" r="L8">
+      <c t="n" s="6" r="L8">
         <v>94</v>
       </c>
-      <c s="8" t="n" r="M8">
+      <c t="n" s="8" r="M8">
         <v>183</v>
       </c>
-      <c s="6" t="n" r="N8">
+      <c t="n" s="6" r="N8">
         <v>90.8</v>
       </c>
-      <c s="10" t="n" r="O8">
+      <c t="n" s="10" r="O8">
         <v>902</v>
       </c>
-      <c s="6" t="n" r="P8">
+      <c t="n" s="6" r="P8">
         <v>72.7</v>
       </c>
-      <c s="5" t="n" r="Q8">
+      <c t="n" s="5" r="Q8">
         <v>631</v>
       </c>
-      <c s="6" t="n" r="R8">
+      <c t="n" s="6" r="R8">
         <v>88.2</v>
       </c>
-      <c s="8" t="n" r="S8">
+      <c t="n" s="8" r="S8">
         <v>499</v>
       </c>
-      <c s="6" t="n" r="T8">
+      <c t="n" s="6" r="T8">
         <v>86.3</v>
       </c>
-      <c s="5" t="n" r="U8">
+      <c t="n" s="5" r="U8">
         <v>211</v>
       </c>
-      <c s="6" t="n" r="V8">
+      <c t="n" s="6" r="V8">
         <v>95.90000000000001</v>
       </c>
-      <c s="8" t="n" r="W8">
+      <c t="n" s="8" r="W8">
         <v>196</v>
       </c>
-      <c s="6" t="n" r="X8">
+      <c t="n" s="6" r="X8">
         <v>92</v>
       </c>
-      <c s="7" t="n" r="Z8">
+      <c t="n" s="7" r="Z8">
         <v>93.90000000000001</v>
       </c>
     </row>
     <row spans="1:26" r="9">
-      <c s="1" t="n" r="A9">
+      <c t="n" s="1" r="A9">
         <v>6</v>
       </c>
-      <c s="1" t="s" r="B9">
+      <c t="s" s="1" r="B9">
         <v>7</v>
       </c>
-      <c s="5" t="n" r="C9">
+      <c t="n" s="5" r="C9">
         <v>112</v>
       </c>
-      <c s="9" t="n" r="D9">
+      <c t="n" s="9" r="D9">
         <v>97.5</v>
       </c>
-      <c s="5" t="n" r="E9">
+      <c t="n" s="5" r="E9">
         <v>164</v>
       </c>
-      <c s="9" t="n" r="F9">
+      <c t="n" s="9" r="F9">
         <v>96.59999999999999</v>
       </c>
-      <c s="5" t="n" r="G9">
+      <c t="n" s="5" r="G9">
         <v>154</v>
       </c>
-      <c s="9" t="n" r="H9">
+      <c t="n" s="9" r="H9">
         <v>96.8</v>
       </c>
-      <c s="8" t="n" r="I9">
+      <c t="n" s="8" r="I9">
         <v>637</v>
       </c>
-      <c s="9" t="n" r="J9">
+      <c t="n" s="9" r="J9">
         <v>82</v>
       </c>
-      <c s="5" t="n" r="K9">
+      <c t="n" s="5" r="K9">
         <v>142</v>
       </c>
-      <c s="9" t="n" r="L9">
+      <c t="n" s="9" r="L9">
         <v>96.7</v>
       </c>
-      <c s="8" t="n" r="M9">
+      <c t="n" s="8" r="M9">
         <v>149</v>
       </c>
-      <c s="9" t="n" r="N9">
+      <c t="n" s="9" r="N9">
         <v>91.59999999999999</v>
       </c>
-      <c s="8" t="n" r="O9">
+      <c t="n" s="8" r="O9">
         <v>418</v>
       </c>
-      <c s="9" t="n" r="P9">
+      <c t="n" s="9" r="P9">
         <v>87</v>
       </c>
-      <c s="5" t="n" r="Q9">
+      <c t="n" s="5" r="Q9">
         <v>269</v>
       </c>
-      <c s="9" t="n" r="R9">
+      <c t="n" s="9" r="R9">
         <v>95</v>
       </c>
-      <c s="5" t="n" r="S9">
+      <c t="n" s="5" r="S9">
         <v>20</v>
       </c>
-      <c s="9" t="n" r="T9">
+      <c t="n" s="9" r="T9">
         <v>99.59999999999999</v>
       </c>
-      <c s="5" t="n" r="U9">
+      <c t="n" s="5" r="U9">
         <v>758</v>
       </c>
-      <c s="9" t="n" r="V9">
+      <c t="n" s="9" r="V9">
         <v>85.09999999999999</v>
       </c>
-      <c s="8" t="n" r="W9">
+      <c t="n" s="8" r="W9">
         <v>613</v>
       </c>
-      <c s="9" t="n" r="X9">
+      <c t="n" s="9" r="X9">
         <v>85.5</v>
       </c>
-      <c s="7" t="n" r="Z9">
+      <c t="n" s="7" r="Z9">
         <v>92.5</v>
       </c>
     </row>
     <row spans="1:26" r="10">
-      <c s="4" t="n" r="A10">
+      <c t="n" s="4" r="A10">
         <v>7</v>
       </c>
-      <c s="4" t="s" r="B10">
+      <c t="s" s="4" r="B10">
         <v>8</v>
       </c>
-      <c s="8" t="n" r="C10">
+      <c t="n" s="8" r="C10">
         <v>301</v>
       </c>
-      <c s="6" t="n" r="D10">
+      <c t="n" s="6" r="D10">
         <v>88.3</v>
       </c>
-      <c s="8" t="n" r="E10">
+      <c t="n" s="8" r="E10">
         <v>344</v>
       </c>
-      <c s="6" t="n" r="F10">
+      <c t="n" s="6" r="F10">
         <v>87.8</v>
       </c>
-      <c s="5" t="n" r="G10">
+      <c t="n" s="5" r="G10">
         <v>232</v>
       </c>
-      <c s="6" t="n" r="H10">
+      <c t="n" s="6" r="H10">
         <v>95.2</v>
       </c>
-      <c s="6" t="n" r="I10">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="J10">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="K10">
+      <c t="n" s="6" r="I10">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="J10">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="K10">
         <v>172</v>
       </c>
-      <c s="6" t="n" r="L10">
+      <c t="n" s="6" r="L10">
         <v>96</v>
       </c>
-      <c s="8" t="n" r="M10">
+      <c t="n" s="8" r="M10">
         <v>437</v>
       </c>
-      <c s="6" t="n" r="N10">
+      <c t="n" s="6" r="N10">
         <v>84.90000000000001</v>
       </c>
-      <c s="10" t="n" r="O10">
+      <c t="n" s="10" r="O10">
         <v>918</v>
       </c>
-      <c s="6" t="n" r="P10">
+      <c t="n" s="6" r="P10">
         <v>72.40000000000001</v>
       </c>
-      <c s="5" t="n" r="Q10">
+      <c t="n" s="5" r="Q10">
         <v>328</v>
       </c>
-      <c s="6" t="n" r="R10">
+      <c t="n" s="6" r="R10">
         <v>93.90000000000001</v>
       </c>
-      <c s="8" t="n" r="S10">
+      <c t="n" s="8" r="S10">
         <v>1019</v>
       </c>
-      <c s="6" t="n" r="T10">
+      <c t="n" s="6" r="T10">
         <v>77.09999999999999</v>
       </c>
-      <c s="5" t="n" r="U10">
+      <c t="n" s="5" r="U10">
         <v>369</v>
       </c>
-      <c s="6" t="n" r="V10">
+      <c t="n" s="6" r="V10">
         <v>92.7</v>
       </c>
-      <c s="8" t="n" r="W10">
+      <c t="n" s="8" r="W10">
         <v>201</v>
       </c>
-      <c s="6" t="n" r="X10">
+      <c t="n" s="6" r="X10">
         <v>91.90000000000001</v>
       </c>
-      <c s="7" t="n" r="Z10">
+      <c t="n" s="7" r="Z10">
         <v>92.3</v>
       </c>
     </row>
     <row spans="1:26" r="11">
-      <c s="1" t="n" r="A11">
+      <c t="n" s="1" r="A11">
         <v>8</v>
       </c>
-      <c s="1" t="s" r="B11">
+      <c t="s" s="1" r="B11">
         <v>9</v>
       </c>
-      <c s="9" t="n" r="C11">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D11">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E11">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F11">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G11">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H11">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I11">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J11">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K11">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L11">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="M11">
+      <c t="n" s="9" r="C11">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D11">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E11">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F11">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G11">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H11">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I11">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J11">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K11">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L11">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="M11">
         <v>1800</v>
       </c>
-      <c s="9" t="n" r="N11">
+      <c t="n" s="9" r="N11">
         <v>43.5</v>
       </c>
-      <c s="5" t="n" r="O11">
+      <c t="n" s="5" r="O11">
         <v>321</v>
       </c>
-      <c s="9" t="n" r="P11">
+      <c t="n" s="9" r="P11">
         <v>93.8</v>
       </c>
-      <c s="5" t="n" r="Q11">
+      <c t="n" s="5" r="Q11">
         <v>379</v>
       </c>
-      <c s="9" t="n" r="R11">
+      <c t="n" s="9" r="R11">
         <v>92.90000000000001</v>
       </c>
-      <c s="10" t="n" r="S11">
+      <c t="n" s="10" r="S11">
         <v>1268</v>
       </c>
-      <c s="9" t="n" r="T11">
+      <c t="n" s="9" r="T11">
         <v>67.8</v>
       </c>
-      <c s="5" t="n" r="U11">
+      <c t="n" s="5" r="U11">
         <v>87</v>
       </c>
-      <c s="9" t="n" r="V11">
+      <c t="n" s="9" r="V11">
         <v>98.3</v>
       </c>
-      <c s="8" t="n" r="W11">
+      <c t="n" s="8" r="W11">
         <v>572</v>
       </c>
-      <c s="9" t="n" r="X11">
+      <c t="n" s="9" r="X11">
         <v>86.09999999999999</v>
       </c>
-      <c s="7" t="n" r="Z11">
+      <c t="n" s="7" r="Z11">
         <v>92.2</v>
       </c>
     </row>
     <row spans="1:26" r="12">
-      <c s="4" t="n" r="A12">
+      <c t="n" s="4" r="A12">
         <v>9</v>
       </c>
-      <c s="4" t="s" r="B12">
+      <c t="s" s="4" r="B12">
         <v>10</v>
       </c>
-      <c s="8" t="n" r="C12">
+      <c t="n" s="8" r="C12">
         <v>233</v>
       </c>
-      <c s="6" t="n" r="D12">
+      <c t="n" s="6" r="D12">
         <v>89.8</v>
       </c>
-      <c s="10" t="n" r="E12">
+      <c t="n" s="10" r="E12">
         <v>2069</v>
       </c>
-      <c s="6" t="n" r="F12">
+      <c t="n" s="6" r="F12">
         <v>47</v>
       </c>
-      <c s="5" t="n" r="G12">
+      <c t="n" s="5" r="G12">
         <v>178</v>
       </c>
-      <c s="6" t="n" r="H12">
+      <c t="n" s="6" r="H12">
         <v>96.3</v>
       </c>
-      <c s="5" t="n" r="I12">
+      <c t="n" s="5" r="I12">
         <v>61</v>
       </c>
-      <c s="6" t="n" r="J12">
+      <c t="n" s="6" r="J12">
         <v>98.8</v>
       </c>
-      <c s="5" t="n" r="K12">
+      <c t="n" s="5" r="K12">
         <v>355</v>
       </c>
-      <c s="6" t="n" r="L12">
+      <c t="n" s="6" r="L12">
         <v>91.8</v>
       </c>
-      <c s="5" t="n" r="M12">
+      <c t="n" s="5" r="M12">
         <v>127</v>
       </c>
-      <c s="6" t="n" r="N12">
+      <c t="n" s="6" r="N12">
         <v>97.09999999999999</v>
       </c>
-      <c s="5" t="n" r="O12">
+      <c t="n" s="5" r="O12">
         <v>226</v>
       </c>
-      <c s="6" t="n" r="P12">
+      <c t="n" s="6" r="P12">
         <v>95.7</v>
       </c>
-      <c s="5" t="n" r="Q12">
+      <c t="n" s="5" r="Q12">
         <v>515</v>
       </c>
-      <c s="6" t="n" r="R12">
+      <c t="n" s="6" r="R12">
         <v>90.40000000000001</v>
       </c>
-      <c s="8" t="n" r="S12">
+      <c t="n" s="8" r="S12">
         <v>104</v>
       </c>
-      <c s="6" t="n" r="T12">
+      <c t="n" s="6" r="T12">
         <v>93.2</v>
       </c>
-      <c s="5" t="n" r="U12">
+      <c t="n" s="5" r="U12">
         <v>529</v>
       </c>
-      <c s="6" t="n" r="V12">
+      <c t="n" s="6" r="V12">
         <v>89.59999999999999</v>
       </c>
-      <c s="8" t="n" r="W12">
+      <c t="n" s="8" r="W12">
         <v>262</v>
       </c>
-      <c s="6" t="n" r="X12">
+      <c t="n" s="6" r="X12">
         <v>90.90000000000001</v>
       </c>
-      <c s="7" t="n" r="Z12">
+      <c t="n" s="7" r="Z12">
         <v>92</v>
       </c>
     </row>
     <row spans="1:26" r="13">
-      <c s="1" t="n" r="A13">
+      <c t="n" s="1" r="A13">
         <v>10</v>
       </c>
-      <c s="1" t="s" r="B13">
+      <c t="s" s="1" r="B13">
         <v>11</v>
       </c>
-      <c s="9" t="n" r="C13">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D13">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E13">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F13">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G13">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H13">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I13">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J13">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K13">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L13">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M13">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N13">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="O13">
+      <c t="n" s="9" r="C13">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D13">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E13">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F13">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G13">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H13">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I13">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J13">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K13">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L13">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M13">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N13">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="O13">
         <v>637</v>
       </c>
-      <c s="9" t="n" r="P13">
+      <c t="n" s="9" r="P13">
         <v>82.8</v>
       </c>
-      <c s="5" t="n" r="Q13">
+      <c t="n" s="5" r="Q13">
         <v>229</v>
       </c>
-      <c s="9" t="n" r="R13">
+      <c t="n" s="9" r="R13">
         <v>95.7</v>
       </c>
-      <c s="8" t="n" r="S13">
+      <c t="n" s="8" r="S13">
         <v>185</v>
       </c>
-      <c s="9" t="n" r="T13">
+      <c t="n" s="9" r="T13">
         <v>91.8</v>
       </c>
-      <c s="5" t="n" r="U13">
+      <c t="n" s="5" r="U13">
         <v>447</v>
       </c>
-      <c s="9" t="n" r="V13">
+      <c t="n" s="9" r="V13">
         <v>91.2</v>
       </c>
-      <c s="10" t="n" r="W13">
+      <c t="n" s="10" r="W13">
         <v>1275</v>
       </c>
-      <c s="9" t="n" r="X13">
+      <c t="n" s="9" r="X13">
         <v>70.2</v>
       </c>
-      <c s="7" t="n" r="Z13">
+      <c t="n" s="7" r="Z13">
         <v>91.5</v>
       </c>
     </row>
     <row spans="1:26" r="14">
-      <c s="4" t="n" r="A14">
+      <c t="n" s="4" r="A14">
         <v>11</v>
       </c>
-      <c s="4" t="s" r="B14">
+      <c t="s" s="4" r="B14">
         <v>12</v>
       </c>
-      <c s="6" t="n" r="C14">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="D14">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="E14">
+      <c t="n" s="6" r="C14">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="D14">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="E14">
         <v>1223</v>
       </c>
-      <c s="6" t="n" r="F14">
+      <c t="n" s="6" r="F14">
         <v>64.59999999999999</v>
       </c>
-      <c s="10" t="n" r="G14">
+      <c t="n" s="10" r="G14">
         <v>1340</v>
       </c>
-      <c s="6" t="n" r="H14">
+      <c t="n" s="6" r="H14">
         <v>62.3</v>
       </c>
-      <c s="10" t="n" r="I14">
+      <c t="n" s="10" r="I14">
         <v>740</v>
       </c>
-      <c s="6" t="n" r="J14">
+      <c t="n" s="6" r="J14">
         <v>74.90000000000001</v>
       </c>
-      <c s="5" t="n" r="K14">
+      <c t="n" s="5" r="K14">
         <v>182</v>
       </c>
-      <c s="6" t="n" r="L14">
+      <c t="n" s="6" r="L14">
         <v>95.8</v>
       </c>
-      <c s="8" t="n" r="M14">
+      <c t="n" s="8" r="M14">
         <v>338</v>
       </c>
-      <c s="6" t="n" r="N14">
+      <c t="n" s="6" r="N14">
         <v>87.2</v>
       </c>
-      <c s="10" t="n" r="O14">
+      <c t="n" s="10" r="O14">
         <v>1232</v>
       </c>
-      <c s="6" t="n" r="P14">
+      <c t="n" s="6" r="P14">
         <v>66.40000000000001</v>
       </c>
-      <c s="8" t="n" r="Q14">
+      <c t="n" s="8" r="Q14">
         <v>1200</v>
       </c>
-      <c s="6" t="n" r="R14">
+      <c t="n" s="6" r="R14">
         <v>72.59999999999999</v>
       </c>
-      <c s="8" t="n" r="S14">
+      <c t="n" s="8" r="S14">
         <v>219</v>
       </c>
-      <c s="6" t="n" r="T14">
+      <c t="n" s="6" r="T14">
         <v>91.2</v>
       </c>
-      <c s="5" t="n" r="U14">
+      <c t="n" s="5" r="U14">
         <v>449</v>
       </c>
-      <c s="6" t="n" r="V14">
+      <c t="n" s="6" r="V14">
         <v>91.2</v>
       </c>
-      <c s="8" t="n" r="W14">
+      <c t="n" s="8" r="W14">
         <v>1133</v>
       </c>
-      <c s="6" t="n" r="X14">
+      <c t="n" s="6" r="X14">
         <v>77.40000000000001</v>
       </c>
-      <c s="7" t="n" r="Z14">
+      <c t="n" s="7" r="Z14">
         <v>91.2</v>
       </c>
     </row>
     <row spans="1:26" r="15">
-      <c s="1" t="n" r="A15">
+      <c t="n" s="1" r="A15">
         <v>12</v>
       </c>
-      <c s="1" t="s" r="B15">
+      <c t="s" s="1" r="B15">
         <v>13</v>
       </c>
-      <c s="11" t="n" r="C15">
+      <c t="n" s="11" r="C15">
         <v>1455</v>
       </c>
-      <c s="9" t="n" r="D15">
+      <c t="n" s="9" r="D15">
         <v>52.5</v>
       </c>
-      <c s="8" t="n" r="E15">
+      <c t="n" s="8" r="E15">
         <v>1023</v>
       </c>
-      <c s="9" t="n" r="F15">
+      <c t="n" s="9" r="F15">
         <v>73.7</v>
       </c>
-      <c s="5" t="n" r="G15">
+      <c t="n" s="5" r="G15">
         <v>345</v>
       </c>
-      <c s="9" t="n" r="H15">
+      <c t="n" s="9" r="H15">
         <v>92.90000000000001</v>
       </c>
-      <c s="5" t="n" r="I15">
+      <c t="n" s="5" r="I15">
         <v>184</v>
       </c>
-      <c s="9" t="n" r="J15">
+      <c t="n" s="9" r="J15">
         <v>96.2</v>
       </c>
-      <c s="5" t="n" r="K15">
+      <c t="n" s="5" r="K15">
         <v>170</v>
       </c>
-      <c s="9" t="n" r="L15">
+      <c t="n" s="9" r="L15">
         <v>96.09999999999999</v>
       </c>
-      <c s="5" t="n" r="M15">
+      <c t="n" s="5" r="M15">
         <v>97</v>
       </c>
-      <c s="9" t="n" r="N15">
+      <c t="n" s="9" r="N15">
         <v>97.8</v>
       </c>
-      <c s="5" t="n" r="O15">
+      <c t="n" s="5" r="O15">
         <v>56</v>
       </c>
-      <c s="9" t="n" r="P15">
+      <c t="n" s="9" r="P15">
         <v>98.90000000000001</v>
       </c>
-      <c s="5" t="n" r="Q15">
+      <c t="n" s="5" r="Q15">
         <v>540</v>
       </c>
-      <c s="9" t="n" r="R15">
+      <c t="n" s="9" r="R15">
         <v>89.90000000000001</v>
       </c>
-      <c s="8" t="n" r="S15">
+      <c t="n" s="8" r="S15">
         <v>1102</v>
       </c>
-      <c s="9" t="n" r="T15">
+      <c t="n" s="9" r="T15">
         <v>75.7</v>
       </c>
-      <c s="5" t="n" r="U15">
+      <c t="n" s="5" r="U15">
         <v>305</v>
       </c>
-      <c s="9" t="n" r="V15">
+      <c t="n" s="9" r="V15">
         <v>94</v>
       </c>
-      <c s="8" t="n" r="W15">
+      <c t="n" s="8" r="W15">
         <v>504</v>
       </c>
-      <c s="9" t="n" r="X15">
+      <c t="n" s="9" r="X15">
         <v>87.2</v>
       </c>
-      <c s="7" t="n" r="Z15">
+      <c t="n" s="7" r="Z15">
         <v>90.59999999999999</v>
       </c>
     </row>
     <row spans="1:26" r="16">
-      <c s="4" t="n" r="A16">
+      <c t="n" s="4" r="A16">
         <v>13</v>
       </c>
-      <c s="4" t="s" r="B16">
+      <c t="s" s="4" r="B16">
         <v>14</v>
       </c>
-      <c s="10" t="n" r="C16">
+      <c t="n" s="10" r="C16">
         <v>730</v>
       </c>
-      <c s="6" t="n" r="D16">
+      <c t="n" s="6" r="D16">
         <v>73.7</v>
       </c>
-      <c s="8" t="n" r="E16">
+      <c t="n" s="8" r="E16">
         <v>1024</v>
       </c>
-      <c s="6" t="n" r="F16">
+      <c t="n" s="6" r="F16">
         <v>73.7</v>
       </c>
-      <c s="8" t="n" r="G16">
+      <c t="n" s="8" r="G16">
         <v>557</v>
       </c>
-      <c s="6" t="n" r="H16">
+      <c t="n" s="6" r="H16">
         <v>83.5</v>
       </c>
-      <c s="10" t="n" r="I16">
+      <c t="n" s="10" r="I16">
         <v>1092</v>
       </c>
-      <c s="6" t="n" r="J16">
+      <c t="n" s="6" r="J16">
         <v>67.7</v>
       </c>
-      <c s="5" t="n" r="K16">
+      <c t="n" s="5" r="K16">
         <v>531</v>
       </c>
-      <c s="6" t="n" r="L16">
+      <c t="n" s="6" r="L16">
         <v>87.8</v>
       </c>
-      <c s="6" t="n" r="M16">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N16">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="O16">
+      <c t="n" s="6" r="M16">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N16">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="O16">
         <v>988</v>
       </c>
-      <c s="6" t="n" r="P16">
+      <c t="n" s="6" r="P16">
         <v>71.09999999999999</v>
       </c>
-      <c s="8" t="n" r="Q16">
+      <c t="n" s="8" r="Q16">
         <v>1008</v>
       </c>
-      <c s="6" t="n" r="R16">
+      <c t="n" s="6" r="R16">
         <v>76.2</v>
       </c>
-      <c s="8" t="n" r="S16">
+      <c t="n" s="8" r="S16">
         <v>333</v>
       </c>
-      <c s="6" t="n" r="T16">
+      <c t="n" s="6" r="T16">
         <v>89.2</v>
       </c>
-      <c s="5" t="n" r="U16">
+      <c t="n" s="5" r="U16">
         <v>476</v>
       </c>
-      <c s="6" t="n" r="V16">
+      <c t="n" s="6" r="V16">
         <v>90.59999999999999</v>
       </c>
-      <c s="8" t="n" r="W16">
+      <c t="n" s="8" r="W16">
         <v>619</v>
       </c>
-      <c s="6" t="n" r="X16">
+      <c t="n" s="6" r="X16">
         <v>85.40000000000001</v>
       </c>
-      <c s="7" t="n" r="Z16">
+      <c t="n" s="7" r="Z16">
         <v>89.90000000000001</v>
       </c>
     </row>
     <row spans="1:26" r="17">
-      <c s="1" t="n" r="A17">
+      <c t="n" s="1" r="A17">
         <v>14</v>
       </c>
-      <c s="1" t="s" r="B17">
+      <c t="s" s="1" r="B17">
         <v>15</v>
       </c>
-      <c s="10" t="n" r="C17">
+      <c t="n" s="10" r="C17">
         <v>1272</v>
       </c>
-      <c s="9" t="n" r="D17">
+      <c t="n" s="9" r="D17">
         <v>61.6</v>
       </c>
-      <c s="8" t="n" r="E17">
+      <c t="n" s="8" r="E17">
         <v>451</v>
       </c>
-      <c s="9" t="n" r="F17">
+      <c t="n" s="9" r="F17">
         <v>85.59999999999999</v>
       </c>
-      <c s="9" t="n" r="G17">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="H17">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="I17">
+      <c t="n" s="9" r="G17">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="H17">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="I17">
         <v>897</v>
       </c>
-      <c s="9" t="n" r="J17">
+      <c t="n" s="9" r="J17">
         <v>71.7</v>
       </c>
-      <c s="10" t="n" r="K17">
+      <c t="n" s="10" r="K17">
         <v>1600</v>
       </c>
-      <c s="9" t="n" r="L17">
+      <c t="n" s="9" r="L17">
         <v>53.2</v>
       </c>
-      <c s="10" t="n" r="M17">
+      <c t="n" s="10" r="M17">
         <v>944</v>
       </c>
-      <c s="9" t="n" r="N17">
+      <c t="n" s="9" r="N17">
         <v>68.2</v>
       </c>
-      <c s="8" t="n" r="O17">
+      <c t="n" s="8" r="O17">
         <v>672</v>
       </c>
-      <c s="9" t="n" r="P17">
+      <c t="n" s="9" r="P17">
         <v>82.09999999999999</v>
       </c>
-      <c s="8" t="n" r="Q17">
+      <c t="n" s="8" r="Q17">
         <v>1521</v>
       </c>
-      <c s="9" t="n" r="R17">
+      <c t="n" s="9" r="R17">
         <v>66.59999999999999</v>
       </c>
-      <c s="9" t="n" r="S17">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="T17">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="U17">
+      <c t="n" s="9" r="S17">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="T17">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="U17">
         <v>409</v>
       </c>
-      <c s="9" t="n" r="V17">
+      <c t="n" s="9" r="V17">
         <v>92</v>
       </c>
-      <c s="8" t="n" r="W17">
+      <c t="n" s="8" r="W17">
         <v>468</v>
       </c>
-      <c s="9" t="n" r="X17">
+      <c t="n" s="9" r="X17">
         <v>87.7</v>
       </c>
-      <c s="7" t="n" r="Z17">
+      <c t="n" s="7" r="Z17">
         <v>89.8</v>
       </c>
     </row>
     <row spans="1:26" r="18">
-      <c s="4" t="n" r="A18">
+      <c t="n" s="4" r="A18">
         <v>15</v>
       </c>
-      <c s="4" t="s" r="B18">
+      <c t="s" s="4" r="B18">
         <v>16</v>
       </c>
-      <c s="8" t="n" r="C18">
+      <c t="n" s="8" r="C18">
         <v>514</v>
       </c>
-      <c s="6" t="n" r="D18">
+      <c t="n" s="6" r="D18">
         <v>83.5</v>
       </c>
-      <c s="5" t="n" r="E18">
+      <c t="n" s="5" r="E18">
         <v>128</v>
       </c>
-      <c s="6" t="n" r="F18">
+      <c t="n" s="6" r="F18">
         <v>97.3</v>
       </c>
-      <c s="5" t="n" r="G18">
+      <c t="n" s="5" r="G18">
         <v>222</v>
       </c>
-      <c s="6" t="n" r="H18">
+      <c t="n" s="6" r="H18">
         <v>95.40000000000001</v>
       </c>
-      <c s="8" t="n" r="I18">
+      <c t="n" s="8" r="I18">
         <v>250</v>
       </c>
-      <c s="6" t="n" r="J18">
+      <c t="n" s="6" r="J18">
         <v>89.90000000000001</v>
       </c>
-      <c s="5" t="n" r="K18">
+      <c t="n" s="5" r="K18">
         <v>194</v>
       </c>
-      <c s="6" t="n" r="L18">
+      <c t="n" s="6" r="L18">
         <v>95.5</v>
       </c>
-      <c s="6" t="n" r="M18">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N18">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="O18">
+      <c t="n" s="6" r="M18">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N18">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="O18">
         <v>98</v>
       </c>
-      <c s="6" t="n" r="P18">
+      <c t="n" s="6" r="P18">
         <v>98.09999999999999</v>
       </c>
-      <c s="5" t="n" r="Q18">
+      <c t="n" s="5" r="Q18">
         <v>230</v>
       </c>
-      <c s="6" t="n" r="R18">
+      <c t="n" s="6" r="R18">
         <v>95.7</v>
       </c>
-      <c s="8" t="n" r="S18">
+      <c t="n" s="8" r="S18">
         <v>112</v>
       </c>
-      <c s="6" t="n" r="T18">
+      <c t="n" s="6" r="T18">
         <v>93</v>
       </c>
-      <c s="5" t="n" r="U18">
+      <c t="n" s="5" r="U18">
         <v>744</v>
       </c>
-      <c s="6" t="n" r="V18">
+      <c t="n" s="6" r="V18">
         <v>85.40000000000001</v>
       </c>
-      <c s="6" t="n" r="W18">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="X18">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Z18">
+      <c t="n" s="6" r="W18">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="X18">
+        <v>0</v>
+      </c>
+      <c t="n" s="7" r="Z18">
         <v>89.2</v>
       </c>
     </row>
     <row spans="1:26" r="19">
-      <c s="1" t="n" r="A19">
+      <c t="n" s="1" r="A19">
         <v>16</v>
       </c>
-      <c s="1" t="s" r="B19">
+      <c t="s" s="1" r="B19">
         <v>17</v>
       </c>
-      <c s="8" t="n" r="C19">
+      <c t="n" s="8" r="C19">
         <v>251</v>
       </c>
-      <c s="9" t="n" r="D19">
+      <c t="n" s="9" r="D19">
         <v>89.40000000000001</v>
       </c>
-      <c s="5" t="n" r="E19">
+      <c t="n" s="5" r="E19">
         <v>127</v>
       </c>
-      <c s="9" t="n" r="F19">
+      <c t="n" s="9" r="F19">
         <v>97.40000000000001</v>
       </c>
-      <c s="8" t="n" r="G19">
+      <c t="n" s="8" r="G19">
         <v>581</v>
       </c>
-      <c s="9" t="n" r="H19">
+      <c t="n" s="9" r="H19">
         <v>83</v>
       </c>
-      <c s="5" t="n" r="I19">
+      <c t="n" s="5" r="I19">
         <v>218</v>
       </c>
-      <c s="9" t="n" r="J19">
+      <c t="n" s="9" r="J19">
         <v>95.59999999999999</v>
       </c>
-      <c s="9" t="n" r="K19">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="L19">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="M19">
+      <c t="n" s="9" r="K19">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="L19">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="M19">
         <v>540</v>
       </c>
-      <c s="9" t="n" r="N19">
+      <c t="n" s="9" r="N19">
         <v>77.5</v>
       </c>
-      <c s="9" t="n" r="O19">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="P19">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="Q19">
+      <c t="n" s="9" r="O19">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="P19">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="Q19">
         <v>180</v>
       </c>
-      <c s="9" t="n" r="R19">
+      <c t="n" s="9" r="R19">
         <v>96.59999999999999</v>
       </c>
-      <c s="9" t="n" r="S19">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="T19">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="U19">
+      <c t="n" s="9" r="S19">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="T19">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="U19">
         <v>549</v>
       </c>
-      <c s="9" t="n" r="V19">
+      <c t="n" s="9" r="V19">
         <v>89.2</v>
       </c>
-      <c s="8" t="n" r="W19">
+      <c t="n" s="8" r="W19">
         <v>371</v>
       </c>
-      <c s="9" t="n" r="X19">
+      <c t="n" s="9" r="X19">
         <v>89.3</v>
       </c>
-      <c s="7" t="n" r="Z19">
+      <c t="n" s="7" r="Z19">
         <v>89.2</v>
       </c>
     </row>
     <row spans="1:26" r="20">
-      <c s="4" t="n" r="A20">
+      <c t="n" s="4" r="A20">
         <v>17</v>
       </c>
-      <c s="4" t="s" r="B20">
+      <c t="s" s="4" r="B20">
         <v>18</v>
       </c>
-      <c s="10" t="n" r="C20">
+      <c t="n" s="10" r="C20">
         <v>1266</v>
       </c>
-      <c s="6" t="n" r="D20">
+      <c t="n" s="6" r="D20">
         <v>61.8</v>
       </c>
-      <c s="8" t="n" r="E20">
+      <c t="n" s="8" r="E20">
         <v>345</v>
       </c>
-      <c s="6" t="n" r="F20">
+      <c t="n" s="6" r="F20">
         <v>87.8</v>
       </c>
-      <c s="5" t="n" r="G20">
+      <c t="n" s="5" r="G20">
         <v>339</v>
       </c>
-      <c s="6" t="n" r="H20">
+      <c t="n" s="6" r="H20">
         <v>93</v>
       </c>
-      <c s="8" t="n" r="I20">
+      <c t="n" s="8" r="I20">
         <v>488</v>
       </c>
-      <c s="6" t="n" r="J20">
+      <c t="n" s="6" r="J20">
         <v>85.09999999999999</v>
       </c>
-      <c s="5" t="n" r="K20">
+      <c t="n" s="5" r="K20">
         <v>483</v>
       </c>
-      <c s="6" t="n" r="L20">
+      <c t="n" s="6" r="L20">
         <v>88.90000000000001</v>
       </c>
-      <c s="6" t="n" r="M20">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N20">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="O20">
+      <c t="n" s="6" r="M20">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N20">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="O20">
         <v>649</v>
       </c>
-      <c s="6" t="n" r="P20">
+      <c t="n" s="6" r="P20">
         <v>82.59999999999999</v>
       </c>
-      <c s="8" t="n" r="Q20">
+      <c t="n" s="8" r="Q20">
         <v>1480</v>
       </c>
-      <c s="6" t="n" r="R20">
+      <c t="n" s="6" r="R20">
         <v>67.40000000000001</v>
       </c>
-      <c s="8" t="n" r="S20">
+      <c t="n" s="8" r="S20">
         <v>310</v>
       </c>
-      <c s="6" t="n" r="T20">
+      <c t="n" s="6" r="T20">
         <v>89.59999999999999</v>
       </c>
-      <c s="5" t="n" r="U20">
+      <c t="n" s="5" r="U20">
         <v>639</v>
       </c>
-      <c s="6" t="n" r="V20">
+      <c t="n" s="6" r="V20">
         <v>87.40000000000001</v>
       </c>
-      <c s="10" t="n" r="W20">
+      <c t="n" s="10" r="W20">
         <v>1494</v>
       </c>
-      <c s="6" t="n" r="X20">
+      <c t="n" s="6" r="X20">
         <v>66.90000000000001</v>
       </c>
-      <c s="7" t="n" r="Z20">
+      <c t="n" s="7" r="Z20">
         <v>88.5</v>
       </c>
     </row>
     <row spans="1:26" r="21">
-      <c s="1" t="n" r="A21">
+      <c t="n" s="1" r="A21">
         <v>18</v>
       </c>
-      <c s="1" t="s" r="B21">
+      <c t="s" s="1" r="B21">
         <v>19</v>
       </c>
-      <c s="9" t="n" r="C21">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D21">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E21">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F21">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G21">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H21">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I21">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J21">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K21">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="L21">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="M21">
+      <c t="n" s="9" r="C21">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D21">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E21">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F21">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G21">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H21">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I21">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J21">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K21">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="L21">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="M21">
         <v>804</v>
       </c>
-      <c s="9" t="n" r="N21">
+      <c t="n" s="9" r="N21">
         <v>71.5</v>
       </c>
-      <c s="10" t="n" r="O21">
+      <c t="n" s="10" r="O21">
         <v>1473</v>
       </c>
-      <c s="9" t="n" r="P21">
+      <c t="n" s="9" r="P21">
         <v>61.8</v>
       </c>
-      <c s="9" t="n" r="Q21">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="R21">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="S21">
+      <c t="n" s="9" r="Q21">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="R21">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="S21">
         <v>320</v>
       </c>
-      <c s="9" t="n" r="T21">
+      <c t="n" s="9" r="T21">
         <v>89.40000000000001</v>
       </c>
-      <c s="5" t="n" r="U21">
+      <c t="n" s="5" r="U21">
         <v>708</v>
       </c>
-      <c s="9" t="n" r="V21">
+      <c t="n" s="9" r="V21">
         <v>86.09999999999999</v>
       </c>
-      <c s="9" t="n" r="W21">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="X21">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Z21">
+      <c t="n" s="9" r="W21">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="X21">
+        <v>0</v>
+      </c>
+      <c t="n" s="7" r="Z21">
         <v>87.8</v>
       </c>
     </row>
     <row spans="1:26" r="22">
-      <c s="4" t="n" r="A22">
+      <c t="n" s="4" r="A22">
         <v>19</v>
       </c>
-      <c s="4" t="s" r="B22">
+      <c t="s" s="4" r="B22">
         <v>20</v>
       </c>
-      <c s="8" t="n" r="C22">
+      <c t="n" s="8" r="C22">
         <v>394</v>
       </c>
-      <c s="6" t="n" r="D22">
+      <c t="n" s="6" r="D22">
         <v>86.2</v>
       </c>
-      <c s="8" t="n" r="E22">
+      <c t="n" s="8" r="E22">
         <v>509</v>
       </c>
-      <c s="6" t="n" r="F22">
+      <c t="n" s="6" r="F22">
         <v>84.40000000000001</v>
       </c>
-      <c s="11" t="n" r="G22">
+      <c t="n" s="11" r="G22">
         <v>2350</v>
       </c>
-      <c s="6" t="n" r="H22">
+      <c t="n" s="6" r="H22">
         <v>36.5</v>
       </c>
-      <c s="8" t="n" r="I22">
+      <c t="n" s="8" r="I22">
         <v>276</v>
       </c>
-      <c s="6" t="n" r="J22">
+      <c t="n" s="6" r="J22">
         <v>89.40000000000001</v>
       </c>
-      <c s="5" t="n" r="K22">
+      <c t="n" s="5" r="K22">
         <v>631</v>
       </c>
-      <c s="6" t="n" r="L22">
+      <c t="n" s="6" r="L22">
         <v>85.5</v>
       </c>
-      <c s="6" t="n" r="M22">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N22">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="O22">
+      <c t="n" s="6" r="M22">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N22">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="O22">
         <v>1132</v>
       </c>
-      <c s="6" t="n" r="P22">
+      <c t="n" s="6" r="P22">
         <v>68.3</v>
       </c>
-      <c s="8" t="n" r="Q22">
+      <c t="n" s="8" r="Q22">
         <v>1057</v>
       </c>
-      <c s="6" t="n" r="R22">
+      <c t="n" s="6" r="R22">
         <v>75.3</v>
       </c>
-      <c s="10" t="n" r="S22">
+      <c t="n" s="10" r="S22">
         <v>1383</v>
       </c>
-      <c s="6" t="n" r="T22">
+      <c t="n" s="6" r="T22">
         <v>65.8</v>
       </c>
-      <c s="5" t="n" r="U22">
+      <c t="n" s="5" r="U22">
         <v>562</v>
       </c>
-      <c s="6" t="n" r="V22">
+      <c t="n" s="6" r="V22">
         <v>89</v>
       </c>
-      <c s="8" t="n" r="W22">
+      <c t="n" s="8" r="W22">
         <v>623</v>
       </c>
-      <c s="6" t="n" r="X22">
+      <c t="n" s="6" r="X22">
         <v>85.3</v>
       </c>
-      <c s="7" t="n" r="Z22">
+      <c t="n" s="7" r="Z22">
         <v>87.2</v>
       </c>
     </row>
     <row spans="1:26" r="23">
-      <c s="1" t="n" r="A23">
+      <c t="n" s="1" r="A23">
         <v>20</v>
       </c>
-      <c s="1" t="s" r="B23">
+      <c t="s" s="1" r="B23">
         <v>21</v>
       </c>
-      <c s="11" t="n" r="C23">
+      <c t="n" s="11" r="C23">
         <v>1421</v>
       </c>
-      <c s="9" t="n" r="D23">
+      <c t="n" s="9" r="D23">
         <v>53.3</v>
       </c>
-      <c s="8" t="n" r="E23">
+      <c t="n" s="8" r="E23">
         <v>410</v>
       </c>
-      <c s="9" t="n" r="F23">
+      <c t="n" s="9" r="F23">
         <v>86.5</v>
       </c>
-      <c s="8" t="n" r="G23">
+      <c t="n" s="8" r="G23">
         <v>935</v>
       </c>
-      <c s="9" t="n" r="H23">
+      <c t="n" s="9" r="H23">
         <v>75.7</v>
       </c>
-      <c s="9" t="n" r="I23">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="J23">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="K23">
+      <c t="n" s="9" r="I23">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="J23">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="K23">
         <v>1713</v>
       </c>
-      <c s="9" t="n" r="L23">
+      <c t="n" s="9" r="L23">
         <v>50.6</v>
       </c>
-      <c s="10" t="n" r="M23">
+      <c t="n" s="10" r="M23">
         <v>983</v>
       </c>
-      <c s="9" t="n" r="N23">
+      <c t="n" s="9" r="N23">
         <v>67.3</v>
       </c>
-      <c s="10" t="n" r="O23">
+      <c t="n" s="10" r="O23">
         <v>1238</v>
       </c>
-      <c s="9" t="n" r="P23">
+      <c t="n" s="9" r="P23">
         <v>66.3</v>
       </c>
-      <c s="9" t="n" r="Q23">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="R23">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="S23">
+      <c t="n" s="9" r="Q23">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="R23">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="S23">
         <v>869</v>
       </c>
-      <c s="9" t="n" r="T23">
+      <c t="n" s="9" r="T23">
         <v>79.8</v>
       </c>
-      <c s="5" t="n" r="U23">
+      <c t="n" s="5" r="U23">
         <v>467</v>
       </c>
-      <c s="9" t="n" r="V23">
+      <c t="n" s="9" r="V23">
         <v>90.8</v>
       </c>
-      <c s="8" t="n" r="W23">
+      <c t="n" s="8" r="W23">
         <v>748</v>
       </c>
-      <c s="9" t="n" r="X23">
+      <c t="n" s="9" r="X23">
         <v>83.40000000000001</v>
       </c>
-      <c s="7" t="n" r="Z23">
+      <c t="n" s="7" r="Z23">
         <v>87.09999999999999</v>
       </c>
     </row>
     <row spans="1:26" r="24">
-      <c s="4" t="n" r="A24">
+      <c t="n" s="4" r="A24">
         <v>21</v>
       </c>
-      <c s="4" t="s" r="B24">
+      <c t="s" s="4" r="B24">
         <v>22</v>
       </c>
-      <c s="6" t="n" r="C24">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D24">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E24">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F24">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G24">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H24">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="I24">
+      <c t="n" s="6" r="C24">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D24">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E24">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F24">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G24">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H24">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="I24">
         <v>541</v>
       </c>
-      <c s="6" t="n" r="J24">
+      <c t="n" s="6" r="J24">
         <v>84</v>
       </c>
-      <c s="10" t="n" r="K24">
+      <c t="n" s="10" r="K24">
         <v>1344</v>
       </c>
-      <c s="6" t="n" r="L24">
+      <c t="n" s="6" r="L24">
         <v>59.1</v>
       </c>
-      <c s="6" t="n" r="M24">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N24">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="O24">
+      <c t="n" s="6" r="M24">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N24">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="O24">
         <v>1256</v>
       </c>
-      <c s="6" t="n" r="P24">
+      <c t="n" s="6" r="P24">
         <v>65.90000000000001</v>
       </c>
-      <c s="5" t="n" r="Q24">
+      <c t="n" s="5" r="Q24">
         <v>225</v>
       </c>
-      <c s="6" t="n" r="R24">
+      <c t="n" s="6" r="R24">
         <v>95.8</v>
       </c>
-      <c s="8" t="n" r="S24">
+      <c t="n" s="8" r="S24">
         <v>773</v>
       </c>
-      <c s="6" t="n" r="T24">
+      <c t="n" s="6" r="T24">
         <v>81.5</v>
       </c>
-      <c s="5" t="n" r="U24">
+      <c t="n" s="5" r="U24">
         <v>441</v>
       </c>
-      <c s="6" t="n" r="V24">
+      <c t="n" s="6" r="V24">
         <v>91.3</v>
       </c>
-      <c s="6" t="n" r="W24">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="X24">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Z24">
+      <c t="n" s="6" r="W24">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="X24">
+        <v>0</v>
+      </c>
+      <c t="n" s="7" r="Z24">
         <v>86.40000000000001</v>
       </c>
     </row>
     <row spans="1:26" r="25">
-      <c s="1" t="n" r="A25">
+      <c t="n" s="1" r="A25">
         <v>22</v>
       </c>
-      <c s="1" t="s" r="B25">
+      <c t="s" s="1" r="B25">
         <v>23</v>
       </c>
-      <c s="9" t="n" r="C25">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="D25">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="E25">
+      <c t="n" s="9" r="C25">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="D25">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="E25">
         <v>1043</v>
       </c>
-      <c s="9" t="n" r="F25">
+      <c t="n" s="9" r="F25">
         <v>73.3</v>
       </c>
-      <c s="10" t="n" r="G25">
+      <c t="n" s="10" r="G25">
         <v>2069</v>
       </c>
-      <c s="9" t="n" r="H25">
+      <c t="n" s="9" r="H25">
         <v>47.3</v>
       </c>
-      <c s="10" t="n" r="I25">
+      <c t="n" s="10" r="I25">
         <v>790</v>
       </c>
-      <c s="9" t="n" r="J25">
+      <c t="n" s="9" r="J25">
         <v>73.90000000000001</v>
       </c>
-      <c s="8" t="n" r="K25">
+      <c t="n" s="8" r="K25">
         <v>1060</v>
       </c>
-      <c s="9" t="n" r="L25">
+      <c t="n" s="9" r="L25">
         <v>70.59999999999999</v>
       </c>
-      <c s="9" t="n" r="M25">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="N25">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="O25">
+      <c t="n" s="9" r="M25">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="N25">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="O25">
         <v>324</v>
       </c>
-      <c s="9" t="n" r="P25">
+      <c t="n" s="9" r="P25">
         <v>93.8</v>
       </c>
-      <c s="5" t="n" r="Q25">
+      <c t="n" s="5" r="Q25">
         <v>614</v>
       </c>
-      <c s="9" t="n" r="R25">
+      <c t="n" s="9" r="R25">
         <v>88.5</v>
       </c>
-      <c s="9" t="n" r="S25">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="T25">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="U25">
+      <c t="n" s="9" r="S25">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="T25">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="U25">
         <v>695</v>
       </c>
-      <c s="9" t="n" r="V25">
+      <c t="n" s="9" r="V25">
         <v>86.3</v>
       </c>
-      <c s="8" t="n" r="W25">
+      <c t="n" s="8" r="W25">
         <v>577</v>
       </c>
-      <c s="9" t="n" r="X25">
+      <c t="n" s="9" r="X25">
         <v>86.09999999999999</v>
       </c>
-      <c s="7" t="n" r="Z25">
+      <c t="n" s="7" r="Z25">
         <v>86.2</v>
       </c>
     </row>
     <row spans="1:26" r="26">
-      <c s="4" t="n" r="A26">
+      <c t="n" s="4" r="A26">
         <v>23</v>
       </c>
-      <c s="4" t="s" r="B26">
+      <c t="s" s="4" r="B26">
         <v>24</v>
       </c>
-      <c s="8" t="n" r="C26">
+      <c t="n" s="8" r="C26">
         <v>641</v>
       </c>
-      <c s="6" t="n" r="D26">
+      <c t="n" s="6" r="D26">
         <v>80.7</v>
       </c>
-      <c s="6" t="n" r="E26">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="F26">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G26">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="H26">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I26">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="J26">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K26">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="L26">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="M26">
+      <c t="n" s="6" r="E26">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="F26">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G26">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="H26">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I26">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="J26">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K26">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="L26">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="M26">
         <v>1623</v>
       </c>
-      <c s="6" t="n" r="N26">
+      <c t="n" s="6" r="N26">
         <v>47.6</v>
       </c>
-      <c s="10" t="n" r="O26">
+      <c t="n" s="10" r="O26">
         <v>927</v>
       </c>
-      <c s="6" t="n" r="P26">
+      <c t="n" s="6" r="P26">
         <v>72.2</v>
       </c>
-      <c s="5" t="n" r="Q26">
+      <c t="n" s="5" r="Q26">
         <v>642</v>
       </c>
-      <c s="6" t="n" r="R26">
+      <c t="n" s="6" r="R26">
         <v>88</v>
       </c>
-      <c s="8" t="n" r="S26">
+      <c t="n" s="8" r="S26">
         <v>204</v>
       </c>
-      <c s="6" t="n" r="T26">
+      <c t="n" s="6" r="T26">
         <v>91.40000000000001</v>
       </c>
-      <c s="6" t="n" r="U26">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="V26">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="W26">
+      <c t="n" s="6" r="U26">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="V26">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="W26">
         <v>919</v>
       </c>
-      <c s="6" t="n" r="X26">
+      <c t="n" s="6" r="X26">
         <v>80.8</v>
       </c>
-      <c s="7" t="n" r="Z26">
+      <c t="n" s="7" r="Z26">
         <v>86.09999999999999</v>
       </c>
     </row>
     <row spans="1:26" r="27">
-      <c s="1" t="n" r="A27">
+      <c t="n" s="1" r="A27">
         <v>24</v>
       </c>
-      <c s="1" t="s" r="B27">
+      <c t="s" s="1" r="B27">
         <v>25</v>
       </c>
-      <c s="9" t="n" r="C27">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D27">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E27">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F27">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G27">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H27">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I27">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J27">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K27">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L27">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M27">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N27">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O27">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="P27">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Q27">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="R27">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="S27">
+      <c t="n" s="9" r="C27">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D27">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E27">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F27">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G27">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H27">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I27">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J27">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K27">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L27">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M27">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N27">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="O27">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="P27">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="Q27">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="R27">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="S27">
         <v>498</v>
       </c>
-      <c s="9" t="n" r="T27">
+      <c t="n" s="9" r="T27">
         <v>86.3</v>
       </c>
-      <c s="5" t="n" r="U27">
+      <c t="n" s="5" r="U27">
         <v>754</v>
       </c>
-      <c s="9" t="n" r="V27">
+      <c t="n" s="9" r="V27">
         <v>85.2</v>
       </c>
-      <c s="8" t="n" r="W27">
+      <c t="n" s="8" r="W27">
         <v>642</v>
       </c>
-      <c s="9" t="n" r="X27">
+      <c t="n" s="9" r="X27">
         <v>85.09999999999999</v>
       </c>
-      <c s="7" t="n" r="Z27">
+      <c t="n" s="7" r="Z27">
         <v>85.8</v>
       </c>
     </row>
     <row spans="1:26" r="28">
-      <c s="4" t="n" r="A28">
+      <c t="n" s="4" r="A28">
         <v>25</v>
       </c>
-      <c s="4" t="s" r="B28">
+      <c t="s" s="4" r="B28">
         <v>26</v>
       </c>
-      <c s="10" t="n" r="C28">
+      <c t="n" s="10" r="C28">
         <v>901</v>
       </c>
-      <c s="6" t="n" r="D28">
+      <c t="n" s="6" r="D28">
         <v>69.90000000000001</v>
       </c>
-      <c s="8" t="n" r="E28">
+      <c t="n" s="8" r="E28">
         <v>350</v>
       </c>
-      <c s="6" t="n" r="F28">
+      <c t="n" s="6" r="F28">
         <v>87.7</v>
       </c>
-      <c s="10" t="n" r="G28">
+      <c t="n" s="10" r="G28">
         <v>1127</v>
       </c>
-      <c s="6" t="n" r="H28">
+      <c t="n" s="6" r="H28">
         <v>66.7</v>
       </c>
-      <c s="11" t="n" r="I28">
+      <c t="n" s="11" r="I28">
         <v>1573</v>
       </c>
-      <c s="6" t="n" r="J28">
+      <c t="n" s="6" r="J28">
         <v>52.9</v>
       </c>
-      <c s="10" t="n" r="K28">
+      <c t="n" s="10" r="K28">
         <v>1525</v>
       </c>
-      <c s="6" t="n" r="L28">
+      <c t="n" s="6" r="L28">
         <v>55</v>
       </c>
-      <c s="8" t="n" r="M28">
+      <c t="n" s="8" r="M28">
         <v>170</v>
       </c>
-      <c s="6" t="n" r="N28">
+      <c t="n" s="6" r="N28">
         <v>91.09999999999999</v>
       </c>
-      <c s="8" t="n" r="O28">
+      <c t="n" s="8" r="O28">
         <v>426</v>
       </c>
-      <c s="6" t="n" r="P28">
+      <c t="n" s="6" r="P28">
         <v>86.8</v>
       </c>
-      <c s="6" t="n" r="Q28">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="R28">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="S28">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="T28">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="U28">
+      <c t="n" s="6" r="Q28">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="R28">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="S28">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="T28">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="U28">
         <v>521</v>
       </c>
-      <c s="6" t="n" r="V28">
+      <c t="n" s="6" r="V28">
         <v>89.8</v>
       </c>
-      <c s="8" t="n" r="W28">
+      <c t="n" s="8" r="W28">
         <v>1053</v>
       </c>
-      <c s="6" t="n" r="X28">
+      <c t="n" s="6" r="X28">
         <v>78.7</v>
       </c>
-      <c s="7" t="n" r="Z28">
+      <c t="n" s="7" r="Z28">
         <v>84.2</v>
       </c>
     </row>
     <row spans="1:26" r="29">
-      <c s="1" t="n" r="A29">
+      <c t="n" s="1" r="A29">
         <v>26</v>
       </c>
-      <c s="1" t="s" r="B29">
+      <c t="s" s="1" r="B29">
         <v>27</v>
       </c>
-      <c s="9" t="n" r="C29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D29">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F29">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H29">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J29">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L29">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N29">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="P29">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Q29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="R29">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="S29">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="T29">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="U29">
+      <c t="n" s="9" r="C29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D29">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F29">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H29">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J29">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L29">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N29">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="O29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="P29">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="Q29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="R29">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="S29">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="T29">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="U29">
         <v>1081</v>
       </c>
-      <c s="9" t="n" r="V29">
+      <c t="n" s="9" r="V29">
         <v>78.8</v>
       </c>
-      <c s="8" t="n" r="W29">
+      <c t="n" s="8" r="W29">
         <v>366</v>
       </c>
-      <c s="9" t="n" r="X29">
+      <c t="n" s="9" r="X29">
         <v>89.3</v>
       </c>
-      <c s="7" t="n" r="Z29">
+      <c t="n" s="7" r="Z29">
         <v>84</v>
       </c>
     </row>
     <row spans="1:26" r="30">
-      <c s="4" t="n" r="A30">
+      <c t="n" s="4" r="A30">
         <v>27</v>
       </c>
-      <c s="4" t="s" r="B30">
+      <c t="s" s="4" r="B30">
         <v>28</v>
       </c>
-      <c s="6" t="n" r="C30">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D30">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E30">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F30">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G30">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H30">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I30">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J30">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K30">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L30">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M30">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N30">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="O30">
+      <c t="n" s="6" r="C30">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D30">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E30">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F30">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G30">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H30">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I30">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J30">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K30">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L30">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M30">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N30">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="O30">
         <v>1124</v>
       </c>
-      <c s="6" t="n" r="P30">
+      <c t="n" s="6" r="P30">
         <v>68.5</v>
       </c>
-      <c s="5" t="n" r="Q30">
+      <c t="n" s="5" r="Q30">
         <v>402</v>
       </c>
-      <c s="6" t="n" r="R30">
+      <c t="n" s="6" r="R30">
         <v>92.5</v>
       </c>
-      <c s="8" t="n" r="S30">
+      <c t="n" s="8" r="S30">
         <v>1041</v>
       </c>
-      <c s="6" t="n" r="T30">
+      <c t="n" s="6" r="T30">
         <v>76.8</v>
       </c>
-      <c s="5" t="n" r="U30">
+      <c t="n" s="5" r="U30">
         <v>461</v>
       </c>
-      <c s="6" t="n" r="V30">
+      <c t="n" s="6" r="V30">
         <v>90.90000000000001</v>
       </c>
-      <c s="10" t="n" r="W30">
+      <c t="n" s="10" r="W30">
         <v>1599</v>
       </c>
-      <c s="6" t="n" r="X30">
+      <c t="n" s="6" r="X30">
         <v>65.2</v>
       </c>
-      <c s="7" t="n" r="Z30">
+      <c t="n" s="7" r="Z30">
         <v>83.90000000000001</v>
       </c>
     </row>
     <row spans="1:26" r="31">
-      <c s="1" t="n" r="A31">
+      <c t="n" s="1" r="A31">
         <v>28</v>
       </c>
-      <c s="1" t="s" r="B31">
+      <c t="s" s="1" r="B31">
         <v>29</v>
       </c>
-      <c s="11" t="n" r="C31">
+      <c t="n" s="11" r="C31">
         <v>1799</v>
       </c>
-      <c s="9" t="n" r="D31">
+      <c t="n" s="9" r="D31">
         <v>44.9</v>
       </c>
-      <c s="8" t="n" r="E31">
+      <c t="n" s="8" r="E31">
         <v>556</v>
       </c>
-      <c s="9" t="n" r="F31">
+      <c t="n" s="9" r="F31">
         <v>83.40000000000001</v>
       </c>
-      <c s="10" t="n" r="G31">
+      <c t="n" s="10" r="G31">
         <v>1622</v>
       </c>
-      <c s="9" t="n" r="H31">
+      <c t="n" s="9" r="H31">
         <v>56.5</v>
       </c>
-      <c s="10" t="n" r="I31">
+      <c t="n" s="10" r="I31">
         <v>769</v>
       </c>
-      <c s="9" t="n" r="J31">
+      <c t="n" s="9" r="J31">
         <v>74.3</v>
       </c>
-      <c s="9" t="n" r="K31">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="L31">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="M31">
+      <c t="n" s="9" r="K31">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="L31">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="M31">
         <v>1353</v>
       </c>
-      <c s="9" t="n" r="N31">
+      <c t="n" s="9" r="N31">
         <v>53.8</v>
       </c>
-      <c s="10" t="n" r="O31">
+      <c t="n" s="10" r="O31">
         <v>1133</v>
       </c>
-      <c s="9" t="n" r="P31">
+      <c t="n" s="9" r="P31">
         <v>68.3</v>
       </c>
-      <c s="8" t="n" r="Q31">
+      <c t="n" s="8" r="Q31">
         <v>1778</v>
       </c>
-      <c s="9" t="n" r="R31">
+      <c t="n" s="9" r="R31">
         <v>61.8</v>
       </c>
-      <c s="8" t="n" r="S31">
+      <c t="n" s="8" r="S31">
         <v>596</v>
       </c>
-      <c s="9" t="n" r="T31">
+      <c t="n" s="9" r="T31">
         <v>84.59999999999999</v>
       </c>
-      <c s="8" t="n" r="U31">
+      <c t="n" s="8" r="U31">
         <v>1928</v>
       </c>
-      <c s="9" t="n" r="V31">
+      <c t="n" s="9" r="V31">
         <v>57.1</v>
       </c>
-      <c s="8" t="n" r="W31">
+      <c t="n" s="8" r="W31">
         <v>858</v>
       </c>
-      <c s="9" t="n" r="X31">
+      <c t="n" s="9" r="X31">
         <v>81.7</v>
       </c>
-      <c s="7" t="n" r="Z31">
+      <c t="n" s="7" r="Z31">
         <v>83.2</v>
       </c>
     </row>
     <row spans="1:26" r="32">
-      <c s="4" t="n" r="A32">
+      <c t="n" s="4" r="A32">
         <v>29</v>
       </c>
-      <c s="4" t="s" r="B32">
+      <c t="s" s="4" r="B32">
         <v>30</v>
       </c>
-      <c s="6" t="n" r="C32">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D32">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E32">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F32">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G32">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H32">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I32">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J32">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K32">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L32">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M32">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N32">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="O32">
+      <c t="n" s="6" r="C32">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D32">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E32">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F32">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G32">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H32">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I32">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J32">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K32">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L32">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M32">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N32">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="O32">
         <v>742</v>
       </c>
-      <c s="6" t="n" r="P32">
+      <c t="n" s="6" r="P32">
         <v>80.8</v>
       </c>
-      <c s="5" t="n" r="Q32">
+      <c t="n" s="5" r="Q32">
         <v>336</v>
       </c>
-      <c s="6" t="n" r="R32">
+      <c t="n" s="6" r="R32">
         <v>93.7</v>
       </c>
-      <c s="8" t="n" r="S32">
+      <c t="n" s="8" r="S32">
         <v>864</v>
       </c>
-      <c s="6" t="n" r="T32">
+      <c t="n" s="6" r="T32">
         <v>79.90000000000001</v>
       </c>
-      <c s="5" t="n" r="U32">
+      <c t="n" s="5" r="U32">
         <v>846</v>
       </c>
-      <c s="6" t="n" r="V32">
+      <c t="n" s="6" r="V32">
         <v>83.40000000000001</v>
       </c>
-      <c s="10" t="n" r="W32">
+      <c t="n" s="10" r="W32">
         <v>1291</v>
       </c>
-      <c s="6" t="n" r="X32">
+      <c t="n" s="6" r="X32">
         <v>70</v>
       </c>
-      <c s="7" t="n" r="Z32">
+      <c t="n" s="7" r="Z32">
         <v>81.7</v>
       </c>
     </row>
     <row spans="1:26" r="33">
-      <c s="1" t="n" r="A33">
+      <c t="n" s="1" r="A33">
         <v>30</v>
       </c>
-      <c s="1" t="s" r="B33">
+      <c t="s" s="1" r="B33">
         <v>31</v>
       </c>
-      <c s="11" t="n" r="C33">
+      <c t="n" s="11" r="C33">
         <v>2018</v>
       </c>
-      <c s="9" t="n" r="D33">
+      <c t="n" s="9" r="D33">
         <v>40</v>
       </c>
-      <c s="8" t="n" r="E33">
+      <c t="n" s="8" r="E33">
         <v>510</v>
       </c>
-      <c s="9" t="n" r="F33">
+      <c t="n" s="9" r="F33">
         <v>84.40000000000001</v>
       </c>
-      <c s="10" t="n" r="G33">
+      <c t="n" s="10" r="G33">
         <v>1414</v>
       </c>
-      <c s="9" t="n" r="H33">
+      <c t="n" s="9" r="H33">
         <v>60.8</v>
       </c>
-      <c s="11" t="n" r="I33">
+      <c t="n" s="11" r="I33">
         <v>1900</v>
       </c>
-      <c s="9" t="n" r="J33">
+      <c t="n" s="9" r="J33">
         <v>46.3</v>
       </c>
-      <c s="10" t="n" r="K33">
+      <c t="n" s="10" r="K33">
         <v>1877</v>
       </c>
-      <c s="9" t="n" r="L33">
+      <c t="n" s="9" r="L33">
         <v>46.9</v>
       </c>
-      <c s="11" t="n" r="M33">
+      <c t="n" s="11" r="M33">
         <v>1347</v>
       </c>
-      <c s="9" t="n" r="N33">
+      <c t="n" s="9" r="N33">
         <v>53.9</v>
       </c>
-      <c s="10" t="n" r="O33">
+      <c t="n" s="10" r="O33">
         <v>1899</v>
       </c>
-      <c s="9" t="n" r="P33">
+      <c t="n" s="9" r="P33">
         <v>53.6</v>
       </c>
-      <c s="10" t="n" r="Q33">
+      <c t="n" s="10" r="Q33">
         <v>2276</v>
       </c>
-      <c s="9" t="n" r="R33">
+      <c t="n" s="9" r="R33">
         <v>47.5</v>
       </c>
-      <c s="5" t="n" r="S33">
+      <c t="n" s="5" r="S33">
         <v>94</v>
       </c>
-      <c s="9" t="n" r="T33">
+      <c t="n" s="9" r="T33">
         <v>98.40000000000001</v>
       </c>
-      <c s="8" t="n" r="U33">
+      <c t="n" s="8" r="U33">
         <v>1549</v>
       </c>
-      <c s="9" t="n" r="V33">
+      <c t="n" s="9" r="V33">
         <v>64.59999999999999</v>
       </c>
-      <c s="10" t="n" r="W33">
+      <c t="n" s="10" r="W33">
         <v>2075</v>
       </c>
-      <c s="9" t="n" r="X33">
+      <c t="n" s="9" r="X33">
         <v>57.9</v>
       </c>
-      <c s="7" t="n" r="Z33">
+      <c t="n" s="7" r="Z33">
         <v>81.5</v>
       </c>
     </row>
     <row spans="1:26" r="34">
-      <c s="4" t="n" r="A34">
+      <c t="n" s="4" r="A34">
         <v>31</v>
       </c>
-      <c s="4" t="s" r="B34">
+      <c t="s" s="4" r="B34">
         <v>32</v>
       </c>
-      <c s="6" t="n" r="C34">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D34">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E34">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F34">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G34">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H34">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I34">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J34">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="K34">
+      <c t="n" s="6" r="C34">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D34">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E34">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F34">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G34">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H34">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I34">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J34">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="K34">
         <v>352</v>
       </c>
-      <c s="6" t="n" r="L34">
+      <c t="n" s="6" r="L34">
         <v>91.90000000000001</v>
       </c>
-      <c s="10" t="n" r="M34">
+      <c t="n" s="10" r="M34">
         <v>519</v>
       </c>
-      <c s="6" t="n" r="N34">
+      <c t="n" s="6" r="N34">
         <v>78</v>
       </c>
-      <c s="8" t="n" r="O34">
+      <c t="n" s="8" r="O34">
         <v>773</v>
       </c>
-      <c s="6" t="n" r="P34">
+      <c t="n" s="6" r="P34">
         <v>80.2</v>
       </c>
-      <c s="8" t="n" r="Q34">
+      <c t="n" s="8" r="Q34">
         <v>981</v>
       </c>
-      <c s="6" t="n" r="R34">
+      <c t="n" s="6" r="R34">
         <v>76.7</v>
       </c>
-      <c s="8" t="n" r="S34">
+      <c t="n" s="8" r="S34">
         <v>556</v>
       </c>
-      <c s="6" t="n" r="T34">
+      <c t="n" s="6" r="T34">
         <v>85.3</v>
       </c>
-      <c s="5" t="n" r="U34">
+      <c t="n" s="5" r="U34">
         <v>1211</v>
       </c>
-      <c s="6" t="n" r="V34">
+      <c t="n" s="6" r="V34">
         <v>76.2</v>
       </c>
-      <c s="10" t="n" r="W34">
+      <c t="n" s="10" r="W34">
         <v>1304</v>
       </c>
-      <c s="6" t="n" r="X34">
+      <c t="n" s="6" r="X34">
         <v>69.8</v>
       </c>
-      <c s="7" t="n" r="Z34">
+      <c t="n" s="7" r="Z34">
         <v>80.8</v>
       </c>
     </row>
     <row spans="1:26" r="35">
-      <c s="1" t="n" r="A35">
+      <c t="n" s="1" r="A35">
         <v>32</v>
       </c>
-      <c s="1" t="s" r="B35">
+      <c t="s" s="1" r="B35">
         <v>33</v>
       </c>
-      <c s="11" t="n" r="C35">
+      <c t="n" s="11" r="C35">
         <v>2014</v>
       </c>
-      <c s="9" t="n" r="D35">
+      <c t="n" s="9" r="D35">
         <v>40.1</v>
       </c>
-      <c s="10" t="n" r="E35">
+      <c t="n" s="10" r="E35">
         <v>2067</v>
       </c>
-      <c s="9" t="n" r="F35">
+      <c t="n" s="9" r="F35">
         <v>47</v>
       </c>
-      <c s="10" t="n" r="G35">
+      <c t="n" s="10" r="G35">
         <v>1309</v>
       </c>
-      <c s="9" t="n" r="H35">
+      <c t="n" s="9" r="H35">
         <v>63</v>
       </c>
-      <c s="11" t="n" r="I35">
+      <c t="n" s="11" r="I35">
         <v>1917</v>
       </c>
-      <c s="9" t="n" r="J35">
+      <c t="n" s="9" r="J35">
         <v>45.9</v>
       </c>
-      <c s="11" t="n" r="K35">
+      <c t="n" s="11" r="K35">
         <v>2267</v>
       </c>
-      <c s="9" t="n" r="L35">
+      <c t="n" s="9" r="L35">
         <v>32.9</v>
       </c>
-      <c s="10" t="n" r="M35">
+      <c t="n" s="10" r="M35">
         <v>1046</v>
       </c>
-      <c s="9" t="n" r="N35">
+      <c t="n" s="9" r="N35">
         <v>65.90000000000001</v>
       </c>
-      <c s="10" t="n" r="O35">
+      <c t="n" s="10" r="O35">
         <v>1305</v>
       </c>
-      <c s="9" t="n" r="P35">
+      <c t="n" s="9" r="P35">
         <v>65</v>
       </c>
-      <c s="9" t="n" r="Q35">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="R35">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="S35">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="T35">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="U35">
+      <c t="n" s="9" r="Q35">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="R35">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="S35">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="T35">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="U35">
         <v>1020</v>
       </c>
-      <c s="9" t="n" r="V35">
+      <c t="n" s="9" r="V35">
         <v>80</v>
       </c>
-      <c s="8" t="n" r="W35">
+      <c t="n" s="8" r="W35">
         <v>899</v>
       </c>
-      <c s="9" t="n" r="X35">
+      <c t="n" s="9" r="X35">
         <v>81.09999999999999</v>
       </c>
-      <c s="7" t="n" r="Z35">
+      <c t="n" s="7" r="Z35">
         <v>80.5</v>
       </c>
     </row>
     <row spans="1:26" r="36">
-      <c s="4" t="n" r="A36">
+      <c t="n" s="4" r="A36">
         <v>33</v>
       </c>
-      <c s="4" t="s" r="B36">
+      <c t="s" s="4" r="B36">
         <v>34</v>
       </c>
-      <c s="6" t="n" r="C36">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D36">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E36">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F36">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G36">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H36">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I36">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J36">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K36">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L36">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M36">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N36">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="O36">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="P36">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="Q36">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="R36">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="S36">
+      <c t="n" s="6" r="C36">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D36">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E36">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F36">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G36">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H36">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I36">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J36">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K36">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L36">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M36">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N36">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O36">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="P36">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="Q36">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="R36">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="S36">
         <v>1131</v>
       </c>
-      <c s="6" t="n" r="T36">
+      <c t="n" s="6" r="T36">
         <v>75.2</v>
       </c>
-      <c s="10" t="n" r="U36">
+      <c t="n" s="10" r="U36">
         <v>2405</v>
       </c>
-      <c s="6" t="n" r="V36">
+      <c t="n" s="6" r="V36">
         <v>42.7</v>
       </c>
-      <c s="8" t="n" r="W36">
+      <c t="n" s="8" r="W36">
         <v>728</v>
       </c>
-      <c s="6" t="n" r="X36">
+      <c t="n" s="6" r="X36">
         <v>83.7</v>
       </c>
-      <c s="7" t="n" r="Z36">
+      <c t="n" s="7" r="Z36">
         <v>79.5</v>
       </c>
     </row>
     <row spans="1:26" r="37">
-      <c s="1" t="n" r="A37">
+      <c t="n" s="1" r="A37">
         <v>34</v>
       </c>
-      <c s="1" t="s" r="B37">
+      <c t="s" s="1" r="B37">
         <v>35</v>
       </c>
-      <c s="10" t="n" r="C37">
+      <c t="n" s="10" r="C37">
         <v>952</v>
       </c>
-      <c s="9" t="n" r="D37">
+      <c t="n" s="9" r="D37">
         <v>68.8</v>
       </c>
-      <c s="8" t="n" r="E37">
+      <c t="n" s="8" r="E37">
         <v>886</v>
       </c>
-      <c s="9" t="n" r="F37">
+      <c t="n" s="9" r="F37">
         <v>76.59999999999999</v>
       </c>
-      <c s="10" t="n" r="G37">
+      <c t="n" s="10" r="G37">
         <v>1971</v>
       </c>
-      <c s="9" t="n" r="H37">
+      <c t="n" s="9" r="H37">
         <v>49.3</v>
       </c>
-      <c s="8" t="n" r="I37">
+      <c t="n" s="8" r="I37">
         <v>625</v>
       </c>
-      <c s="9" t="n" r="J37">
+      <c t="n" s="9" r="J37">
         <v>82.3</v>
       </c>
-      <c s="11" t="n" r="K37">
+      <c t="n" s="11" r="K37">
         <v>2045</v>
       </c>
-      <c s="9" t="n" r="L37">
+      <c t="n" s="9" r="L37">
         <v>38</v>
       </c>
-      <c s="10" t="n" r="M37">
+      <c t="n" s="10" r="M37">
         <v>555</v>
       </c>
-      <c s="9" t="n" r="N37">
+      <c t="n" s="9" r="N37">
         <v>77.2</v>
       </c>
-      <c s="11" t="n" r="O37">
+      <c t="n" s="11" r="O37">
         <v>1988</v>
       </c>
-      <c s="9" t="n" r="P37">
+      <c t="n" s="9" r="P37">
         <v>46.9</v>
       </c>
-      <c s="8" t="n" r="Q37">
+      <c t="n" s="8" r="Q37">
         <v>1215</v>
       </c>
-      <c s="9" t="n" r="R37">
+      <c t="n" s="9" r="R37">
         <v>72.3</v>
       </c>
-      <c s="8" t="n" r="S37">
+      <c t="n" s="8" r="S37">
         <v>198</v>
       </c>
-      <c s="9" t="n" r="T37">
+      <c t="n" s="9" r="T37">
         <v>91.5</v>
       </c>
-      <c s="8" t="n" r="U37">
+      <c t="n" s="8" r="U37">
         <v>1919</v>
       </c>
-      <c s="9" t="n" r="V37">
+      <c t="n" s="9" r="V37">
         <v>57.3</v>
       </c>
-      <c s="10" t="n" r="W37">
+      <c t="n" s="10" r="W37">
         <v>1511</v>
       </c>
-      <c s="9" t="n" r="X37">
+      <c t="n" s="9" r="X37">
         <v>66.59999999999999</v>
       </c>
-      <c s="7" t="n" r="Z37">
+      <c t="n" s="7" r="Z37">
         <v>79</v>
       </c>
     </row>
     <row spans="1:26" r="38">
-      <c s="4" t="n" r="A38">
+      <c t="n" s="4" r="A38">
         <v>35</v>
       </c>
-      <c s="4" t="s" r="B38">
+      <c t="s" s="4" r="B38">
         <v>36</v>
       </c>
-      <c s="10" t="n" r="C38">
+      <c t="n" s="10" r="C38">
         <v>1133</v>
       </c>
-      <c s="6" t="n" r="D38">
+      <c t="n" s="6" r="D38">
         <v>64.7</v>
       </c>
-      <c s="8" t="n" r="E38">
+      <c t="n" s="8" r="E38">
         <v>975</v>
       </c>
-      <c s="6" t="n" r="F38">
+      <c t="n" s="6" r="F38">
         <v>74.7</v>
       </c>
-      <c s="8" t="n" r="G38">
+      <c t="n" s="8" r="G38">
         <v>959</v>
       </c>
-      <c s="6" t="n" r="H38">
+      <c t="n" s="6" r="H38">
         <v>75.2</v>
       </c>
-      <c s="11" t="n" r="I38">
+      <c t="n" s="11" r="I38">
         <v>1754</v>
       </c>
-      <c s="6" t="n" r="J38">
+      <c t="n" s="6" r="J38">
         <v>49.2</v>
       </c>
-      <c s="10" t="n" r="K38">
+      <c t="n" s="10" r="K38">
         <v>1473</v>
       </c>
-      <c s="6" t="n" r="L38">
+      <c t="n" s="6" r="L38">
         <v>56.2</v>
       </c>
-      <c s="10" t="n" r="M38">
+      <c t="n" s="10" r="M38">
         <v>920</v>
       </c>
-      <c s="6" t="n" r="N38">
+      <c t="n" s="6" r="N38">
         <v>68.8</v>
       </c>
-      <c s="10" t="n" r="O38">
+      <c t="n" s="10" r="O38">
         <v>1080</v>
       </c>
-      <c s="6" t="n" r="P38">
+      <c t="n" s="6" r="P38">
         <v>69.3</v>
       </c>
-      <c s="8" t="n" r="Q38">
+      <c t="n" s="8" r="Q38">
         <v>1128</v>
       </c>
-      <c s="6" t="n" r="R38">
+      <c t="n" s="6" r="R38">
         <v>74</v>
       </c>
-      <c s="10" t="n" r="S38">
+      <c t="n" s="10" r="S38">
         <v>1821</v>
       </c>
-      <c s="6" t="n" r="T38">
+      <c t="n" s="6" r="T38">
         <v>58.1</v>
       </c>
-      <c s="5" t="n" r="U38">
+      <c t="n" s="5" r="U38">
         <v>1146</v>
       </c>
-      <c s="6" t="n" r="V38">
+      <c t="n" s="6" r="V38">
         <v>77.5</v>
       </c>
-      <c s="8" t="n" r="W38">
+      <c t="n" s="8" r="W38">
         <v>996</v>
       </c>
-      <c s="6" t="n" r="X38">
+      <c t="n" s="6" r="X38">
         <v>79.59999999999999</v>
       </c>
-      <c s="7" t="n" r="Z38">
+      <c t="n" s="7" r="Z38">
         <v>78.5</v>
       </c>
     </row>
     <row spans="1:26" r="39">
-      <c s="1" t="n" r="A39">
+      <c t="n" s="1" r="A39">
         <v>36</v>
       </c>
-      <c s="1" t="s" r="B39">
+      <c t="s" s="1" r="B39">
         <v>37</v>
       </c>
-      <c s="9" t="n" r="C39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="P39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Q39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="R39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="S39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="T39">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="U39">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="V39">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="W39">
+      <c t="n" s="9" r="C39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="O39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="P39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="Q39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="R39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="S39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="T39">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="U39">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="V39">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="W39">
         <v>1156</v>
       </c>
-      <c s="9" t="n" r="X39">
+      <c t="n" s="9" r="X39">
         <v>77.09999999999999</v>
       </c>
-      <c s="7" t="n" r="Z39">
+      <c t="n" s="7" r="Z39">
         <v>77.09999999999999</v>
       </c>
     </row>
     <row spans="1:26" r="40">
-      <c s="4" t="n" r="A40">
+      <c t="n" s="4" r="A40">
         <v>37</v>
       </c>
-      <c s="4" t="s" r="B40">
+      <c t="s" s="4" r="B40">
         <v>38</v>
       </c>
-      <c s="6" t="n" r="C40">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="D40">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="E40">
+      <c t="n" s="6" r="C40">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="D40">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="E40">
         <v>958</v>
       </c>
-      <c s="6" t="n" r="F40">
+      <c t="n" s="6" r="F40">
         <v>75.09999999999999</v>
       </c>
-      <c s="8" t="n" r="G40">
+      <c t="n" s="8" r="G40">
         <v>817</v>
       </c>
-      <c s="6" t="n" r="H40">
+      <c t="n" s="6" r="H40">
         <v>78.09999999999999</v>
       </c>
-      <c s="6" t="n" r="I40">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="J40">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="K40">
+      <c t="n" s="6" r="I40">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="J40">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="K40">
         <v>1458</v>
       </c>
-      <c s="6" t="n" r="L40">
+      <c t="n" s="6" r="L40">
         <v>56.5</v>
       </c>
-      <c s="6" t="n" r="M40">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N40">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="O40">
+      <c t="n" s="6" r="M40">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N40">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="O40">
         <v>510</v>
       </c>
-      <c s="6" t="n" r="P40">
+      <c t="n" s="6" r="P40">
         <v>85.2</v>
       </c>
-      <c s="11" t="n" r="Q40">
+      <c t="n" s="11" r="Q40">
         <v>2698</v>
       </c>
-      <c s="6" t="n" r="R40">
+      <c t="n" s="6" r="R40">
         <v>34.7</v>
       </c>
-      <c s="10" t="n" r="S40">
+      <c t="n" s="10" r="S40">
         <v>96</v>
       </c>
-      <c s="6" t="n" r="T40">
+      <c t="n" s="6" r="T40">
         <v>88.3</v>
       </c>
-      <c s="8" t="n" r="U40">
+      <c t="n" s="8" r="U40">
         <v>1486</v>
       </c>
-      <c s="6" t="n" r="V40">
+      <c t="n" s="6" r="V40">
         <v>65.8</v>
       </c>
-      <c s="10" t="n" r="W40">
+      <c t="n" s="10" r="W40">
         <v>1949</v>
       </c>
-      <c s="6" t="n" r="X40">
+      <c t="n" s="6" r="X40">
         <v>59.8</v>
       </c>
-      <c s="7" t="n" r="Z40">
+      <c t="n" s="7" r="Z40">
         <v>77</v>
       </c>
     </row>
     <row spans="1:26" r="41">
-      <c s="1" t="n" r="A41">
+      <c t="n" s="1" r="A41">
         <v>38</v>
       </c>
-      <c s="1" t="s" r="B41">
+      <c t="s" s="1" r="B41">
         <v>39</v>
       </c>
-      <c s="8" t="n" r="C41">
+      <c t="n" s="8" r="C41">
         <v>612</v>
       </c>
-      <c s="9" t="n" r="D41">
+      <c t="n" s="9" r="D41">
         <v>81.40000000000001</v>
       </c>
-      <c s="11" t="n" r="E41">
+      <c t="n" s="11" r="E41">
         <v>2384</v>
       </c>
-      <c s="9" t="n" r="F41">
+      <c t="n" s="9" r="F41">
         <v>35.4</v>
       </c>
-      <c s="5" t="n" r="G41">
+      <c t="n" s="5" r="G41">
         <v>397</v>
       </c>
-      <c s="9" t="n" r="H41">
+      <c t="n" s="9" r="H41">
         <v>91.8</v>
       </c>
-      <c s="8" t="n" r="I41">
+      <c t="n" s="8" r="I41">
         <v>561</v>
       </c>
-      <c s="9" t="n" r="J41">
+      <c t="n" s="9" r="J41">
         <v>83.59999999999999</v>
       </c>
-      <c s="5" t="n" r="K41">
+      <c t="n" s="5" r="K41">
         <v>494</v>
       </c>
-      <c s="9" t="n" r="L41">
+      <c t="n" s="9" r="L41">
         <v>88.7</v>
       </c>
-      <c s="10" t="n" r="M41">
+      <c t="n" s="10" r="M41">
         <v>1207</v>
       </c>
-      <c s="9" t="n" r="N41">
+      <c t="n" s="9" r="N41">
         <v>62.2</v>
       </c>
-      <c s="9" t="n" r="O41">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="P41">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="Q41">
+      <c t="n" s="9" r="O41">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="P41">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="Q41">
         <v>657</v>
       </c>
-      <c s="9" t="n" r="R41">
+      <c t="n" s="9" r="R41">
         <v>82.7</v>
       </c>
-      <c s="10" t="n" r="S41">
+      <c t="n" s="10" r="S41">
         <v>2313</v>
       </c>
-      <c s="9" t="n" r="T41">
+      <c t="n" s="9" r="T41">
         <v>49.5</v>
       </c>
-      <c s="8" t="n" r="U41">
+      <c t="n" s="8" r="U41">
         <v>1694</v>
       </c>
-      <c s="9" t="n" r="V41">
+      <c t="n" s="9" r="V41">
         <v>61.7</v>
       </c>
-      <c s="8" t="n" r="W41">
+      <c t="n" s="8" r="W41">
         <v>234</v>
       </c>
-      <c s="9" t="n" r="X41">
+      <c t="n" s="9" r="X41">
         <v>91.40000000000001</v>
       </c>
-      <c s="7" t="n" r="Z41">
+      <c t="n" s="7" r="Z41">
         <v>76.59999999999999</v>
       </c>
     </row>
     <row spans="1:26" r="42">
-      <c s="4" t="n" r="A42">
+      <c t="n" s="4" r="A42">
         <v>39</v>
       </c>
-      <c s="4" t="s" r="B42">
+      <c t="s" s="4" r="B42">
         <v>40</v>
       </c>
-      <c s="11" t="n" r="C42">
+      <c t="n" s="11" r="C42">
         <v>2157</v>
       </c>
-      <c s="6" t="n" r="D42">
+      <c t="n" s="6" r="D42">
         <v>36.9</v>
       </c>
-      <c s="10" t="n" r="E42">
+      <c t="n" s="10" r="E42">
         <v>1642</v>
       </c>
-      <c s="6" t="n" r="F42">
+      <c t="n" s="6" r="F42">
         <v>55.9</v>
       </c>
-      <c s="6" t="n" r="G42">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="H42">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="I42">
+      <c t="n" s="6" r="G42">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="H42">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="I42">
         <v>789</v>
       </c>
-      <c s="6" t="n" r="J42">
+      <c t="n" s="6" r="J42">
         <v>73.90000000000001</v>
       </c>
-      <c s="5" t="n" r="K42">
+      <c t="n" s="5" r="K42">
         <v>794</v>
       </c>
-      <c s="6" t="n" r="L42">
+      <c t="n" s="6" r="L42">
         <v>81.8</v>
       </c>
-      <c s="11" t="n" r="M42">
+      <c t="n" s="11" r="M42">
         <v>1903</v>
       </c>
-      <c s="6" t="n" r="N42">
+      <c t="n" s="6" r="N42">
         <v>41.1</v>
       </c>
-      <c s="6" t="n" r="O42">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="P42">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="Q42">
+      <c t="n" s="6" r="O42">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="P42">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="Q42">
         <v>1319</v>
       </c>
-      <c s="6" t="n" r="R42">
+      <c t="n" s="6" r="R42">
         <v>70.40000000000001</v>
       </c>
-      <c s="8" t="n" r="S42">
+      <c t="n" s="8" r="S42">
         <v>182</v>
       </c>
-      <c s="6" t="n" r="T42">
+      <c t="n" s="6" r="T42">
         <v>91.8</v>
       </c>
-      <c s="6" t="n" r="U42">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="V42">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="W42">
+      <c t="n" s="6" r="U42">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="V42">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="W42">
         <v>1916</v>
       </c>
-      <c s="6" t="n" r="X42">
+      <c t="n" s="6" r="X42">
         <v>60.3</v>
       </c>
-      <c s="7" t="n" r="Z42">
+      <c t="n" s="7" r="Z42">
         <v>76</v>
       </c>
     </row>
     <row spans="1:26" r="43">
-      <c s="1" t="n" r="A43">
+      <c t="n" s="1" r="A43">
         <v>40</v>
       </c>
-      <c s="1" t="s" r="B43">
+      <c t="s" s="1" r="B43">
         <v>41</v>
       </c>
-      <c s="10" t="n" r="C43">
+      <c t="n" s="10" r="C43">
         <v>1210</v>
       </c>
-      <c s="9" t="n" r="D43">
+      <c t="n" s="9" r="D43">
         <v>63</v>
       </c>
-      <c s="8" t="n" r="E43">
+      <c t="n" s="8" r="E43">
         <v>648</v>
       </c>
-      <c s="9" t="n" r="F43">
+      <c t="n" s="9" r="F43">
         <v>81.5</v>
       </c>
-      <c s="8" t="n" r="G43">
+      <c t="n" s="8" r="G43">
         <v>985</v>
       </c>
-      <c s="9" t="n" r="H43">
+      <c t="n" s="9" r="H43">
         <v>74.7</v>
       </c>
-      <c s="11" t="n" r="I43">
+      <c t="n" s="11" r="I43">
         <v>1860</v>
       </c>
-      <c s="9" t="n" r="J43">
+      <c t="n" s="9" r="J43">
         <v>47.1</v>
       </c>
-      <c s="10" t="n" r="K43">
+      <c t="n" s="10" r="K43">
         <v>1644</v>
       </c>
-      <c s="9" t="n" r="L43">
+      <c t="n" s="9" r="L43">
         <v>52.2</v>
       </c>
-      <c s="10" t="n" r="M43">
+      <c t="n" s="10" r="M43">
         <v>736</v>
       </c>
-      <c s="9" t="n" r="N43">
+      <c t="n" s="9" r="N43">
         <v>73</v>
       </c>
-      <c s="10" t="n" r="O43">
+      <c t="n" s="10" r="O43">
         <v>978</v>
       </c>
-      <c s="9" t="n" r="P43">
+      <c t="n" s="9" r="P43">
         <v>71.3</v>
       </c>
-      <c s="8" t="n" r="Q43">
+      <c t="n" s="8" r="Q43">
         <v>1614</v>
       </c>
-      <c s="9" t="n" r="R43">
+      <c t="n" s="9" r="R43">
         <v>64.90000000000001</v>
       </c>
-      <c s="10" t="n" r="S43">
+      <c t="n" s="10" r="S43">
         <v>1479</v>
       </c>
-      <c s="9" t="n" r="T43">
+      <c t="n" s="9" r="T43">
         <v>64.09999999999999</v>
       </c>
-      <c s="5" t="n" r="U43">
+      <c t="n" s="5" r="U43">
         <v>976</v>
       </c>
-      <c s="9" t="n" r="V43">
+      <c t="n" s="9" r="V43">
         <v>80.8</v>
       </c>
-      <c s="10" t="n" r="W43">
+      <c t="n" s="10" r="W43">
         <v>1513</v>
       </c>
-      <c s="9" t="n" r="X43">
+      <c t="n" s="9" r="X43">
         <v>66.59999999999999</v>
       </c>
-      <c s="7" t="n" r="Z43">
+      <c t="n" s="7" r="Z43">
         <v>73.7</v>
       </c>
     </row>
     <row spans="1:26" r="44">
-      <c s="4" t="n" r="A44">
+      <c t="n" s="4" r="A44">
         <v>41</v>
       </c>
-      <c s="4" t="s" r="B44">
+      <c t="s" s="4" r="B44">
         <v>42</v>
       </c>
-      <c s="6" t="n" r="C44">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D44">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E44">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F44">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G44">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H44">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I44">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J44">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K44">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L44">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="M44">
+      <c t="n" s="6" r="C44">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D44">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E44">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F44">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G44">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H44">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I44">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J44">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K44">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L44">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="M44">
         <v>2215</v>
       </c>
-      <c s="6" t="n" r="N44">
+      <c t="n" s="6" r="N44">
         <v>33.9</v>
       </c>
-      <c s="10" t="n" r="O44">
+      <c t="n" s="10" r="O44">
         <v>1896</v>
       </c>
-      <c s="6" t="n" r="P44">
+      <c t="n" s="6" r="P44">
         <v>53.7</v>
       </c>
-      <c s="10" t="n" r="Q44">
+      <c t="n" s="10" r="Q44">
         <v>2013</v>
       </c>
-      <c s="6" t="n" r="R44">
+      <c t="n" s="6" r="R44">
         <v>52.4</v>
       </c>
-      <c s="10" t="n" r="S44">
+      <c t="n" s="10" r="S44">
         <v>2091</v>
       </c>
-      <c s="6" t="n" r="T44">
+      <c t="n" s="6" r="T44">
         <v>53.3</v>
       </c>
-      <c s="5" t="n" r="U44">
+      <c t="n" s="5" r="U44">
         <v>672</v>
       </c>
-      <c s="6" t="n" r="V44">
+      <c t="n" s="6" r="V44">
         <v>86.8</v>
       </c>
-      <c s="10" t="n" r="W44">
+      <c t="n" s="10" r="W44">
         <v>2061</v>
       </c>
-      <c s="6" t="n" r="X44">
+      <c t="n" s="6" r="X44">
         <v>58.1</v>
       </c>
-      <c s="7" t="n" r="Z44">
+      <c t="n" s="7" r="Z44">
         <v>72.40000000000001</v>
       </c>
     </row>
     <row spans="1:26" r="45">
-      <c s="1" t="n" r="A45">
+      <c t="n" s="1" r="A45">
         <v>42</v>
       </c>
-      <c s="1" t="s" r="B45">
+      <c t="s" s="1" r="B45">
         <v>43</v>
       </c>
-      <c s="10" t="n" r="C45">
+      <c t="n" s="10" r="C45">
         <v>858</v>
       </c>
-      <c s="9" t="n" r="D45">
+      <c t="n" s="9" r="D45">
         <v>70.90000000000001</v>
       </c>
-      <c s="8" t="n" r="E45">
+      <c t="n" s="8" r="E45">
         <v>458</v>
       </c>
-      <c s="9" t="n" r="F45">
+      <c t="n" s="9" r="F45">
         <v>85.5</v>
       </c>
-      <c s="9" t="n" r="G45">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="H45">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="I45">
+      <c t="n" s="9" r="G45">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="H45">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="I45">
         <v>1463</v>
       </c>
-      <c s="9" t="n" r="J45">
+      <c t="n" s="9" r="J45">
         <v>55.2</v>
       </c>
-      <c s="10" t="n" r="K45">
+      <c t="n" s="10" r="K45">
         <v>1673</v>
       </c>
-      <c s="9" t="n" r="L45">
+      <c t="n" s="9" r="L45">
         <v>51.6</v>
       </c>
-      <c s="8" t="n" r="M45">
+      <c t="n" s="8" r="M45">
         <v>228</v>
       </c>
-      <c s="9" t="n" r="N45">
+      <c t="n" s="9" r="N45">
         <v>89.7</v>
       </c>
-      <c s="10" t="n" r="O45">
+      <c t="n" s="10" r="O45">
         <v>1144</v>
       </c>
-      <c s="9" t="n" r="P45">
+      <c t="n" s="9" r="P45">
         <v>68.09999999999999</v>
       </c>
-      <c s="8" t="n" r="Q45">
+      <c t="n" s="8" r="Q45">
         <v>1530</v>
       </c>
-      <c s="9" t="n" r="R45">
+      <c t="n" s="9" r="R45">
         <v>66.5</v>
       </c>
-      <c s="10" t="n" r="S45">
+      <c t="n" s="10" r="S45">
         <v>1634</v>
       </c>
-      <c s="9" t="n" r="T45">
+      <c t="n" s="9" r="T45">
         <v>61.4</v>
       </c>
-      <c s="9" t="n" r="U45">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="V45">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="W45">
+      <c t="n" s="9" r="U45">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="V45">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="W45">
         <v>774</v>
       </c>
-      <c s="9" t="n" r="X45">
+      <c t="n" s="9" r="X45">
         <v>83</v>
       </c>
-      <c s="7" t="n" r="Z45">
+      <c t="n" s="7" r="Z45">
         <v>72.2</v>
       </c>
     </row>
     <row spans="1:26" r="46">
-      <c s="4" t="n" r="A46">
+      <c t="n" s="4" r="A46">
         <v>43</v>
       </c>
-      <c s="4" t="s" r="B46">
+      <c t="s" s="4" r="B46">
         <v>44</v>
       </c>
-      <c s="6" t="n" r="C46">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D46">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E46">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F46">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G46">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H46">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I46">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J46">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="K46">
+      <c t="n" s="6" r="C46">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D46">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E46">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F46">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G46">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H46">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I46">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J46">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="K46">
         <v>1038</v>
       </c>
-      <c s="6" t="n" r="L46">
+      <c t="n" s="6" r="L46">
         <v>71.2</v>
       </c>
-      <c s="11" t="n" r="M46">
+      <c t="n" s="11" r="M46">
         <v>1235</v>
       </c>
-      <c s="6" t="n" r="N46">
+      <c t="n" s="6" r="N46">
         <v>56.5</v>
       </c>
-      <c s="11" t="n" r="O46">
+      <c t="n" s="11" r="O46">
         <v>2171</v>
       </c>
-      <c s="6" t="n" r="P46">
+      <c t="n" s="6" r="P46">
         <v>43.4</v>
       </c>
-      <c s="8" t="n" r="Q46">
+      <c t="n" s="8" r="Q46">
         <v>1017</v>
       </c>
-      <c s="6" t="n" r="R46">
+      <c t="n" s="6" r="R46">
         <v>76</v>
       </c>
-      <c s="8" t="n" r="S46">
+      <c t="n" s="8" r="S46">
         <v>810</v>
       </c>
-      <c s="6" t="n" r="T46">
+      <c t="n" s="6" r="T46">
         <v>80.8</v>
       </c>
-      <c s="6" t="n" r="U46">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="V46">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="W46">
+      <c t="n" s="6" r="U46">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="V46">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="W46">
         <v>1863</v>
       </c>
-      <c s="6" t="n" r="X46">
+      <c t="n" s="6" r="X46">
         <v>61.1</v>
       </c>
-      <c s="7" t="n" r="Z46">
+      <c t="n" s="7" r="Z46">
         <v>71</v>
       </c>
     </row>
     <row spans="1:26" r="47">
-      <c s="1" t="n" r="A47">
+      <c t="n" s="1" r="A47">
         <v>44</v>
       </c>
-      <c s="1" t="s" r="B47">
+      <c t="s" s="1" r="B47">
         <v>45</v>
       </c>
-      <c s="10" t="n" r="C47">
+      <c t="n" s="10" r="C47">
         <v>1136</v>
       </c>
-      <c s="9" t="n" r="D47">
+      <c t="n" s="9" r="D47">
         <v>64.7</v>
       </c>
-      <c s="10" t="n" r="E47">
+      <c t="n" s="10" r="E47">
         <v>1238</v>
       </c>
-      <c s="9" t="n" r="F47">
+      <c t="n" s="9" r="F47">
         <v>64.3</v>
       </c>
-      <c s="10" t="n" r="G47">
+      <c t="n" s="10" r="G47">
         <v>1178</v>
       </c>
-      <c s="9" t="n" r="H47">
+      <c t="n" s="9" r="H47">
         <v>65.7</v>
       </c>
-      <c s="8" t="n" r="I47">
+      <c t="n" s="8" r="I47">
         <v>268</v>
       </c>
-      <c s="9" t="n" r="J47">
+      <c t="n" s="9" r="J47">
         <v>89.5</v>
       </c>
-      <c s="8" t="n" r="K47">
+      <c t="n" s="8" r="K47">
         <v>1079</v>
       </c>
-      <c s="9" t="n" r="L47">
+      <c t="n" s="9" r="L47">
         <v>70.2</v>
       </c>
-      <c s="11" t="n" r="M47">
+      <c t="n" s="11" r="M47">
         <v>1378</v>
       </c>
-      <c s="9" t="n" r="N47">
+      <c t="n" s="9" r="N47">
         <v>53.2</v>
       </c>
-      <c s="10" t="n" r="O47">
+      <c t="n" s="10" r="O47">
         <v>1880</v>
       </c>
-      <c s="9" t="n" r="P47">
+      <c t="n" s="9" r="P47">
         <v>54</v>
       </c>
-      <c s="8" t="n" r="Q47">
+      <c t="n" s="8" r="Q47">
         <v>1366</v>
       </c>
-      <c s="9" t="n" r="R47">
+      <c t="n" s="9" r="R47">
         <v>69.5</v>
       </c>
-      <c s="10" t="n" r="S47">
+      <c t="n" s="10" r="S47">
         <v>1482</v>
       </c>
-      <c s="9" t="n" r="T47">
+      <c t="n" s="9" r="T47">
         <v>64</v>
       </c>
-      <c s="5" t="n" r="U47">
+      <c t="n" s="5" r="U47">
         <v>1157</v>
       </c>
-      <c s="9" t="n" r="V47">
+      <c t="n" s="9" r="V47">
         <v>77.3</v>
       </c>
-      <c s="10" t="n" r="W47">
+      <c t="n" s="10" r="W47">
         <v>2362</v>
       </c>
-      <c s="9" t="n" r="X47">
+      <c t="n" s="9" r="X47">
         <v>53.4</v>
       </c>
-      <c s="7" t="n" r="Z47">
+      <c t="n" s="7" r="Z47">
         <v>70.59999999999999</v>
       </c>
     </row>
     <row spans="1:26" r="48">
-      <c s="4" t="n" r="A48">
+      <c t="n" s="4" r="A48">
         <v>45</v>
       </c>
-      <c s="4" t="s" r="B48">
+      <c t="s" s="4" r="B48">
         <v>46</v>
       </c>
-      <c s="10" t="n" r="C48">
+      <c t="n" s="10" r="C48">
         <v>1025</v>
       </c>
-      <c s="6" t="n" r="D48">
+      <c t="n" s="6" r="D48">
         <v>67.09999999999999</v>
       </c>
-      <c s="11" t="n" r="E48">
+      <c t="n" s="11" r="E48">
         <v>2546</v>
       </c>
-      <c s="6" t="n" r="F48">
+      <c t="n" s="6" r="F48">
         <v>32.1</v>
       </c>
-      <c s="10" t="n" r="G48">
+      <c t="n" s="10" r="G48">
         <v>1136</v>
       </c>
-      <c s="6" t="n" r="H48">
+      <c t="n" s="6" r="H48">
         <v>66.59999999999999</v>
       </c>
-      <c s="8" t="n" r="I48">
+      <c t="n" s="8" r="I48">
         <v>579</v>
       </c>
-      <c s="6" t="n" r="J48">
+      <c t="n" s="6" r="J48">
         <v>83.2</v>
       </c>
-      <c s="10" t="n" r="K48">
+      <c t="n" s="10" r="K48">
         <v>1350</v>
       </c>
-      <c s="6" t="n" r="L48">
+      <c t="n" s="6" r="L48">
         <v>59</v>
       </c>
-      <c s="11" t="n" r="M48">
+      <c t="n" s="11" r="M48">
         <v>1744</v>
       </c>
-      <c s="6" t="n" r="N48">
+      <c t="n" s="6" r="N48">
         <v>44.8</v>
       </c>
-      <c s="11" t="n" r="O48">
+      <c t="n" s="11" r="O48">
         <v>2137</v>
       </c>
-      <c s="6" t="n" r="P48">
+      <c t="n" s="6" r="P48">
         <v>44</v>
       </c>
-      <c s="10" t="n" r="Q48">
+      <c t="n" s="10" r="Q48">
         <v>2542</v>
       </c>
-      <c s="6" t="n" r="R48">
+      <c t="n" s="6" r="R48">
         <v>42.6</v>
       </c>
-      <c s="8" t="n" r="S48">
+      <c t="n" s="8" r="S48">
         <v>476</v>
       </c>
-      <c s="6" t="n" r="T48">
+      <c t="n" s="6" r="T48">
         <v>86.7</v>
       </c>
-      <c s="11" t="n" r="U48">
+      <c t="n" s="11" r="U48">
         <v>2790</v>
       </c>
-      <c s="6" t="n" r="V48">
+      <c t="n" s="6" r="V48">
         <v>30.2</v>
       </c>
-      <c s="10" t="n" r="W48">
+      <c t="n" s="10" r="W48">
         <v>2356</v>
       </c>
-      <c s="6" t="n" r="X48">
+      <c t="n" s="6" r="X48">
         <v>53.5</v>
       </c>
-      <c s="7" t="n" r="Z48">
+      <c t="n" s="7" r="Z48">
         <v>70.09999999999999</v>
       </c>
     </row>
     <row spans="1:26" r="49">
-      <c s="1" t="n" r="A49">
+      <c t="n" s="1" r="A49">
         <v>46</v>
       </c>
-      <c s="1" t="s" r="B49">
+      <c t="s" s="1" r="B49">
         <v>47</v>
       </c>
-      <c s="10" t="n" r="C49">
+      <c t="n" s="10" r="C49">
         <v>1191</v>
       </c>
-      <c s="9" t="n" r="D49">
+      <c t="n" s="9" r="D49">
         <v>63.4</v>
       </c>
-      <c s="8" t="n" r="E49">
+      <c t="n" s="8" r="E49">
         <v>638</v>
       </c>
-      <c s="9" t="n" r="F49">
+      <c t="n" s="9" r="F49">
         <v>81.7</v>
       </c>
-      <c s="8" t="n" r="G49">
+      <c t="n" s="8" r="G49">
         <v>645</v>
       </c>
-      <c s="9" t="n" r="H49">
+      <c t="n" s="9" r="H49">
         <v>81.7</v>
       </c>
-      <c s="8" t="n" r="I49">
+      <c t="n" s="8" r="I49">
         <v>271</v>
       </c>
-      <c s="9" t="n" r="J49">
+      <c t="n" s="9" r="J49">
         <v>89.5</v>
       </c>
-      <c s="5" t="n" r="K49">
+      <c t="n" s="5" r="K49">
         <v>760</v>
       </c>
-      <c s="9" t="n" r="L49">
+      <c t="n" s="9" r="L49">
         <v>82.5</v>
       </c>
-      <c s="5" t="n" r="M49">
+      <c t="n" s="5" r="M49">
         <v>95</v>
       </c>
-      <c s="9" t="n" r="N49">
+      <c t="n" s="9" r="N49">
         <v>97.8</v>
       </c>
-      <c s="10" t="n" r="O49">
+      <c t="n" s="10" r="O49">
         <v>1218</v>
       </c>
-      <c s="9" t="n" r="P49">
+      <c t="n" s="9" r="P49">
         <v>66.7</v>
       </c>
-      <c s="10" t="n" r="Q49">
+      <c t="n" s="10" r="Q49">
         <v>1795</v>
       </c>
-      <c s="9" t="n" r="R49">
+      <c t="n" s="9" r="R49">
         <v>56.5</v>
       </c>
-      <c s="8" t="n" r="S49">
+      <c t="n" s="8" r="S49">
         <v>963</v>
       </c>
-      <c s="9" t="n" r="T49">
+      <c t="n" s="9" r="T49">
         <v>78.09999999999999</v>
       </c>
-      <c s="9" t="n" r="U49">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="V49">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="W49">
+      <c t="n" s="9" r="U49">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="V49">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="W49">
         <v>2019</v>
       </c>
-      <c s="9" t="n" r="X49">
+      <c t="n" s="9" r="X49">
         <v>58.7</v>
       </c>
-      <c s="7" t="n" r="Z49">
+      <c t="n" s="7" r="Z49">
         <v>68.40000000000001</v>
       </c>
     </row>
     <row spans="1:26" r="50">
-      <c s="4" t="n" r="A50">
+      <c t="n" s="4" r="A50">
         <v>47</v>
       </c>
-      <c s="4" t="s" r="B50">
+      <c t="s" s="4" r="B50">
         <v>48</v>
       </c>
-      <c s="6" t="n" r="C50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D50">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F50">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H50">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J50">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L50">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N50">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="O50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="P50">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="Q50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="R50">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="S50">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="T50">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="U50">
+      <c t="n" s="6" r="C50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D50">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F50">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H50">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J50">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L50">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N50">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="P50">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="Q50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="R50">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="S50">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="T50">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="U50">
         <v>2105</v>
       </c>
-      <c s="6" t="n" r="V50">
+      <c t="n" s="6" r="V50">
         <v>48.6</v>
       </c>
-      <c s="8" t="n" r="W50">
+      <c t="n" s="8" r="W50">
         <v>791</v>
       </c>
-      <c s="6" t="n" r="X50">
+      <c t="n" s="6" r="X50">
         <v>82.7</v>
       </c>
-      <c s="7" t="n" r="Z50">
+      <c t="n" s="7" r="Z50">
         <v>65.7</v>
       </c>
     </row>
     <row spans="1:26" r="51">
-      <c s="1" t="n" r="A51">
+      <c t="n" s="1" r="A51">
         <v>48</v>
       </c>
-      <c s="1" t="s" r="B51">
+      <c t="s" s="1" r="B51">
         <v>49</v>
       </c>
-      <c s="9" t="n" r="C51">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="D51">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="E51">
+      <c t="n" s="9" r="C51">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="D51">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="E51">
         <v>2027</v>
       </c>
-      <c s="9" t="n" r="F51">
+      <c t="n" s="9" r="F51">
         <v>47.8</v>
       </c>
-      <c s="10" t="n" r="G51">
+      <c t="n" s="10" r="G51">
         <v>2079</v>
       </c>
-      <c s="9" t="n" r="H51">
+      <c t="n" s="9" r="H51">
         <v>47.1</v>
       </c>
-      <c s="11" t="n" r="I51">
+      <c t="n" s="11" r="I51">
         <v>1762</v>
       </c>
-      <c s="9" t="n" r="J51">
+      <c t="n" s="9" r="J51">
         <v>49.1</v>
       </c>
-      <c s="8" t="n" r="K51">
+      <c t="n" s="8" r="K51">
         <v>931</v>
       </c>
-      <c s="9" t="n" r="L51">
+      <c t="n" s="9" r="L51">
         <v>73.59999999999999</v>
       </c>
-      <c s="11" t="n" r="M51">
+      <c t="n" s="11" r="M51">
         <v>1913</v>
       </c>
-      <c s="9" t="n" r="N51">
+      <c t="n" s="9" r="N51">
         <v>40.9</v>
       </c>
-      <c s="10" t="n" r="O51">
+      <c t="n" s="10" r="O51">
         <v>1686</v>
       </c>
-      <c s="9" t="n" r="P51">
+      <c t="n" s="9" r="P51">
         <v>57.7</v>
       </c>
-      <c s="8" t="n" r="Q51">
+      <c t="n" s="8" r="Q51">
         <v>1461</v>
       </c>
-      <c s="9" t="n" r="R51">
+      <c t="n" s="9" r="R51">
         <v>67.7</v>
       </c>
-      <c s="11" t="n" r="S51">
+      <c t="n" s="11" r="S51">
         <v>2634</v>
       </c>
-      <c s="9" t="n" r="T51">
+      <c t="n" s="9" r="T51">
         <v>38.8</v>
       </c>
-      <c s="5" t="n" r="U51">
+      <c t="n" s="5" r="U51">
         <v>845</v>
       </c>
-      <c s="9" t="n" r="V51">
+      <c t="n" s="9" r="V51">
         <v>83.40000000000001</v>
       </c>
-      <c s="11" t="n" r="W51">
+      <c t="n" s="11" r="W51">
         <v>3161</v>
       </c>
-      <c s="9" t="n" r="X51">
+      <c t="n" s="9" r="X51">
         <v>36</v>
       </c>
-      <c s="7" t="n" r="Z51">
+      <c t="n" s="7" r="Z51">
         <v>61.1</v>
       </c>
     </row>
     <row spans="1:26" r="52">
-      <c s="4" t="n" r="A52">
+      <c t="n" s="4" r="A52">
         <v>49</v>
       </c>
-      <c s="4" t="s" r="B52">
+      <c t="s" s="4" r="B52">
         <v>50</v>
       </c>
-      <c s="10" t="n" r="C52">
+      <c t="n" s="10" r="C52">
         <v>736</v>
       </c>
-      <c s="6" t="n" r="D52">
+      <c t="n" s="6" r="D52">
         <v>73.59999999999999</v>
       </c>
-      <c s="10" t="n" r="E52">
+      <c t="n" s="10" r="E52">
         <v>1283</v>
       </c>
-      <c s="6" t="n" r="F52">
+      <c t="n" s="6" r="F52">
         <v>63.3</v>
       </c>
-      <c s="11" t="n" r="G52">
+      <c t="n" s="11" r="G52">
         <v>2615</v>
       </c>
-      <c s="6" t="n" r="H52">
+      <c t="n" s="6" r="H52">
         <v>31</v>
       </c>
-      <c s="10" t="n" r="I52">
+      <c t="n" s="10" r="I52">
         <v>792</v>
       </c>
-      <c s="6" t="n" r="J52">
+      <c t="n" s="6" r="J52">
         <v>73.90000000000001</v>
       </c>
-      <c s="8" t="n" r="K52">
+      <c t="n" s="8" r="K52">
         <v>1095</v>
       </c>
-      <c s="6" t="n" r="L52">
+      <c t="n" s="6" r="L52">
         <v>69.8</v>
       </c>
-      <c s="10" t="n" r="M52">
+      <c t="n" s="10" r="M52">
         <v>894</v>
       </c>
-      <c s="6" t="n" r="N52">
+      <c t="n" s="6" r="N52">
         <v>69.40000000000001</v>
       </c>
-      <c s="8" t="n" r="O52">
+      <c t="n" s="8" r="O52">
         <v>736</v>
       </c>
-      <c s="6" t="n" r="P52">
+      <c t="n" s="6" r="P52">
         <v>80.90000000000001</v>
       </c>
-      <c s="8" t="n" r="Q52">
+      <c t="n" s="8" r="Q52">
         <v>1281</v>
       </c>
-      <c s="6" t="n" r="R52">
+      <c t="n" s="6" r="R52">
         <v>71.09999999999999</v>
       </c>
-      <c s="8" t="n" r="S52">
+      <c t="n" s="8" r="S52">
         <v>804</v>
       </c>
-      <c s="6" t="n" r="T52">
+      <c t="n" s="6" r="T52">
         <v>80.90000000000001</v>
       </c>
-      <c s="6" t="n" r="U52">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="V52">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="W52">
+      <c t="n" s="6" r="U52">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="V52">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="W52">
         <v>2911</v>
       </c>
-      <c s="6" t="n" r="X52">
+      <c t="n" s="6" r="X52">
         <v>39.9</v>
       </c>
-      <c s="7" t="n" r="Z52">
+      <c t="n" s="7" r="Z52">
         <v>60.4</v>
       </c>
     </row>
     <row spans="1:26" r="53">
-      <c s="1" t="n" r="A53">
+      <c t="n" s="1" r="A53">
         <v>50</v>
       </c>
-      <c s="1" t="s" r="B53">
+      <c t="s" s="1" r="B53">
         <v>51</v>
       </c>
-      <c s="10" t="n" r="C53">
+      <c t="n" s="10" r="C53">
         <v>1242</v>
       </c>
-      <c s="9" t="n" r="D53">
+      <c t="n" s="9" r="D53">
         <v>62.3</v>
       </c>
-      <c s="8" t="n" r="E53">
+      <c t="n" s="8" r="E53">
         <v>903</v>
       </c>
-      <c s="9" t="n" r="F53">
+      <c t="n" s="9" r="F53">
         <v>76.2</v>
       </c>
-      <c s="10" t="n" r="G53">
+      <c t="n" s="10" r="G53">
         <v>1582</v>
       </c>
-      <c s="9" t="n" r="H53">
+      <c t="n" s="9" r="H53">
         <v>57.3</v>
       </c>
-      <c s="8" t="n" r="I53">
+      <c t="n" s="8" r="I53">
         <v>621</v>
       </c>
-      <c s="9" t="n" r="J53">
+      <c t="n" s="9" r="J53">
         <v>82.3</v>
       </c>
-      <c s="10" t="n" r="K53">
+      <c t="n" s="10" r="K53">
         <v>1717</v>
       </c>
-      <c s="9" t="n" r="L53">
+      <c t="n" s="9" r="L53">
         <v>50.6</v>
       </c>
-      <c s="8" t="n" r="M53">
+      <c t="n" s="8" r="M53">
         <v>447</v>
       </c>
-      <c s="9" t="n" r="N53">
+      <c t="n" s="9" r="N53">
         <v>84.7</v>
       </c>
-      <c s="10" t="n" r="O53">
+      <c t="n" s="10" r="O53">
         <v>1195</v>
       </c>
-      <c s="9" t="n" r="P53">
+      <c t="n" s="9" r="P53">
         <v>67.09999999999999</v>
       </c>
-      <c s="8" t="n" r="Q53">
+      <c t="n" s="8" r="Q53">
         <v>1125</v>
       </c>
-      <c s="9" t="n" r="R53">
+      <c t="n" s="9" r="R53">
         <v>74</v>
       </c>
-      <c s="10" t="n" r="S53">
+      <c t="n" s="10" r="S53">
         <v>1692</v>
       </c>
-      <c s="9" t="n" r="T53">
+      <c t="n" s="9" r="T53">
         <v>60.3</v>
       </c>
-      <c s="10" t="n" r="U53">
+      <c t="n" s="10" r="U53">
         <v>2231</v>
       </c>
-      <c s="9" t="n" r="V53">
+      <c t="n" s="9" r="V53">
         <v>46.2</v>
       </c>
-      <c s="10" t="n" r="W53">
+      <c t="n" s="10" r="W53">
         <v>1945</v>
       </c>
-      <c s="9" t="n" r="X53">
+      <c t="n" s="9" r="X53">
         <v>59.9</v>
       </c>
-      <c s="7" t="n" r="Z53">
+      <c t="n" s="7" r="Z53">
         <v>60.1</v>
       </c>
     </row>
     <row spans="1:26" r="54">
-      <c s="4" t="n" r="A54">
+      <c t="n" s="4" r="A54">
         <v>51</v>
       </c>
-      <c s="4" t="s" r="B54">
+      <c t="s" s="4" r="B54">
         <v>52</v>
       </c>
-      <c s="6" t="n" r="C54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D54">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F54">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H54">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J54">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L54">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N54">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="O54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="P54">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="Q54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="R54">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="S54">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="T54">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="U54">
+      <c t="n" s="6" r="C54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D54">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F54">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H54">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J54">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L54">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N54">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="P54">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="Q54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="R54">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="S54">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="T54">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="U54">
         <v>2517</v>
       </c>
-      <c s="6" t="n" r="V54">
+      <c t="n" s="6" r="V54">
         <v>40.5</v>
       </c>
-      <c s="8" t="n" r="W54">
+      <c t="n" s="8" r="W54">
         <v>1016</v>
       </c>
-      <c s="6" t="n" r="X54">
+      <c t="n" s="6" r="X54">
         <v>79.3</v>
       </c>
-      <c s="7" t="n" r="Z54">
+      <c t="n" s="7" r="Z54">
         <v>59.9</v>
       </c>
     </row>
     <row spans="1:26" r="55">
-      <c s="1" t="n" r="A55">
+      <c t="n" s="1" r="A55">
         <v>52</v>
       </c>
-      <c s="1" t="s" r="B55">
+      <c t="s" s="1" r="B55">
         <v>53</v>
       </c>
-      <c s="11" t="n" r="C55">
+      <c t="n" s="11" r="C55">
         <v>2011</v>
       </c>
-      <c s="9" t="n" r="D55">
+      <c t="n" s="9" r="D55">
         <v>40.1</v>
       </c>
-      <c s="10" t="n" r="E55">
+      <c t="n" s="10" r="E55">
         <v>1398</v>
       </c>
-      <c s="9" t="n" r="F55">
+      <c t="n" s="9" r="F55">
         <v>60.9</v>
       </c>
-      <c s="10" t="n" r="G55">
+      <c t="n" s="10" r="G55">
         <v>2099</v>
       </c>
-      <c s="9" t="n" r="H55">
+      <c t="n" s="9" r="H55">
         <v>46.7</v>
       </c>
-      <c s="11" t="n" r="I55">
+      <c t="n" s="11" r="I55">
         <v>1665</v>
       </c>
-      <c s="9" t="n" r="J55">
+      <c t="n" s="9" r="J55">
         <v>51.1</v>
       </c>
-      <c s="10" t="n" r="K55">
+      <c t="n" s="10" r="K55">
         <v>1479</v>
       </c>
-      <c s="9" t="n" r="L55">
+      <c t="n" s="9" r="L55">
         <v>56</v>
       </c>
-      <c s="11" t="n" r="M55">
+      <c t="n" s="11" r="M55">
         <v>1625</v>
       </c>
-      <c s="9" t="n" r="N55">
+      <c t="n" s="9" r="N55">
         <v>47.5</v>
       </c>
-      <c s="10" t="n" r="O55">
+      <c t="n" s="10" r="O55">
         <v>1651</v>
       </c>
-      <c s="9" t="n" r="P55">
+      <c t="n" s="9" r="P55">
         <v>58.4</v>
       </c>
-      <c s="8" t="n" r="Q55">
+      <c t="n" s="8" r="Q55">
         <v>1640</v>
       </c>
-      <c s="9" t="n" r="R55">
+      <c t="n" s="9" r="R55">
         <v>64.40000000000001</v>
       </c>
-      <c s="11" t="n" r="S55">
+      <c t="n" s="11" r="S55">
         <v>2611</v>
       </c>
-      <c s="9" t="n" r="T55">
+      <c t="n" s="9" r="T55">
         <v>39.2</v>
       </c>
-      <c s="5" t="n" r="U55">
+      <c t="n" s="5" r="U55">
         <v>1047</v>
       </c>
-      <c s="9" t="n" r="V55">
+      <c t="n" s="9" r="V55">
         <v>79.40000000000001</v>
       </c>
-      <c s="11" t="n" r="W55">
+      <c t="n" s="11" r="W55">
         <v>3087</v>
       </c>
-      <c s="9" t="n" r="X55">
+      <c t="n" s="9" r="X55">
         <v>37.2</v>
       </c>
-      <c s="7" t="n" r="Z55">
+      <c t="n" s="7" r="Z55">
         <v>59.3</v>
       </c>
     </row>
     <row spans="1:26" r="56">
-      <c s="4" t="n" r="A56">
+      <c t="n" s="4" r="A56">
         <v>53</v>
       </c>
-      <c s="4" t="s" r="B56">
+      <c t="s" s="4" r="B56">
         <v>54</v>
       </c>
-      <c s="11" t="n" r="C56">
+      <c t="n" s="11" r="C56">
         <v>1537</v>
       </c>
-      <c s="6" t="n" r="D56">
+      <c t="n" s="6" r="D56">
         <v>50.7</v>
       </c>
-      <c s="6" t="n" r="E56">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="F56">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="G56">
+      <c t="n" s="6" r="E56">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="F56">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="G56">
         <v>986</v>
       </c>
-      <c s="6" t="n" r="H56">
+      <c t="n" s="6" r="H56">
         <v>74.59999999999999</v>
       </c>
-      <c s="11" t="n" r="I56">
+      <c t="n" s="11" r="I56">
         <v>1778</v>
       </c>
-      <c s="6" t="n" r="J56">
+      <c t="n" s="6" r="J56">
         <v>48.8</v>
       </c>
-      <c s="11" t="n" r="K56">
+      <c t="n" s="11" r="K56">
         <v>2316</v>
       </c>
-      <c s="6" t="n" r="L56">
+      <c t="n" s="6" r="L56">
         <v>31.8</v>
       </c>
-      <c s="6" t="n" r="M56">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N56">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="O56">
+      <c t="n" s="6" r="M56">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N56">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="O56">
         <v>2338</v>
       </c>
-      <c s="6" t="n" r="P56">
+      <c t="n" s="6" r="P56">
         <v>40.2</v>
       </c>
-      <c s="10" t="n" r="Q56">
+      <c t="n" s="10" r="Q56">
         <v>2266</v>
       </c>
-      <c s="6" t="n" r="R56">
+      <c t="n" s="6" r="R56">
         <v>47.7</v>
       </c>
-      <c s="8" t="n" r="S56">
+      <c t="n" s="8" r="S56">
         <v>1128</v>
       </c>
-      <c s="6" t="n" r="T56">
+      <c t="n" s="6" r="T56">
         <v>75.2</v>
       </c>
-      <c s="10" t="n" r="U56">
+      <c t="n" s="10" r="U56">
         <v>2495</v>
       </c>
-      <c s="6" t="n" r="V56">
+      <c t="n" s="6" r="V56">
         <v>41</v>
       </c>
-      <c s="11" t="n" r="W56">
+      <c t="n" s="11" r="W56">
         <v>3004</v>
       </c>
-      <c s="6" t="n" r="X56">
+      <c t="n" s="6" r="X56">
         <v>38.5</v>
       </c>
-      <c s="7" t="n" r="Z56">
+      <c t="n" s="7" r="Z56">
         <v>58.1</v>
       </c>
     </row>
     <row spans="1:26" r="57">
-      <c s="1" t="n" r="A57">
+      <c t="n" s="1" r="A57">
         <v>54</v>
       </c>
-      <c s="1" t="s" r="B57">
+      <c t="s" s="1" r="B57">
         <v>55</v>
       </c>
-      <c s="9" t="n" r="C57">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="D57">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="E57">
+      <c t="n" s="9" r="C57">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="D57">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="E57">
         <v>1144</v>
       </c>
-      <c s="9" t="n" r="F57">
+      <c t="n" s="9" r="F57">
         <v>66.2</v>
       </c>
-      <c s="8" t="n" r="G57">
+      <c t="n" s="8" r="G57">
         <v>598</v>
       </c>
-      <c s="9" t="n" r="H57">
+      <c t="n" s="9" r="H57">
         <v>82.7</v>
       </c>
-      <c s="10" t="n" r="I57">
+      <c t="n" s="10" r="I57">
         <v>798</v>
       </c>
-      <c s="9" t="n" r="J57">
+      <c t="n" s="9" r="J57">
         <v>73.7</v>
       </c>
-      <c s="9" t="n" r="K57">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="L57">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="M57">
+      <c t="n" s="9" r="K57">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="L57">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="M57">
         <v>2138</v>
       </c>
-      <c s="9" t="n" r="N57">
+      <c t="n" s="9" r="N57">
         <v>35.7</v>
       </c>
-      <c s="10" t="n" r="O57">
+      <c t="n" s="10" r="O57">
         <v>1632</v>
       </c>
-      <c s="9" t="n" r="P57">
+      <c t="n" s="9" r="P57">
         <v>58.7</v>
       </c>
-      <c s="10" t="n" r="Q57">
+      <c t="n" s="10" r="Q57">
         <v>2001</v>
       </c>
-      <c s="9" t="n" r="R57">
+      <c t="n" s="9" r="R57">
         <v>52.7</v>
       </c>
-      <c s="10" t="n" r="S57">
+      <c t="n" s="10" r="S57">
         <v>1767</v>
       </c>
-      <c s="9" t="n" r="T57">
+      <c t="n" s="9" r="T57">
         <v>59</v>
       </c>
-      <c s="9" t="n" r="U57">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="V57">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="W57">
+      <c t="n" s="9" r="U57">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="V57">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="W57">
         <v>2283</v>
       </c>
-      <c s="9" t="n" r="X57">
+      <c t="n" s="9" r="X57">
         <v>54.6</v>
       </c>
-      <c s="7" t="n" r="Z57">
+      <c t="n" s="7" r="Z57">
         <v>56.8</v>
       </c>
     </row>
     <row spans="1:26" r="58">
-      <c s="4" t="n" r="A58">
+      <c t="n" s="4" r="A58">
         <v>55</v>
       </c>
-      <c s="4" t="s" r="B58">
+      <c t="s" s="4" r="B58">
         <v>56</v>
       </c>
-      <c s="6" t="n" r="C58">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D58">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E58">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F58">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="G58">
+      <c t="n" s="6" r="C58">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D58">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E58">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F58">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="G58">
         <v>1761</v>
       </c>
-      <c s="6" t="n" r="H58">
+      <c t="n" s="6" r="H58">
         <v>53.7</v>
       </c>
-      <c s="11" t="n" r="I58">
+      <c t="n" s="11" r="I58">
         <v>1838</v>
       </c>
-      <c s="6" t="n" r="J58">
+      <c t="n" s="6" r="J58">
         <v>47.5</v>
       </c>
-      <c s="8" t="n" r="K58">
+      <c t="n" s="8" r="K58">
         <v>1271</v>
       </c>
-      <c s="6" t="n" r="L58">
+      <c t="n" s="6" r="L58">
         <v>65.8</v>
       </c>
-      <c s="10" t="n" r="M58">
+      <c t="n" s="10" r="M58">
         <v>708</v>
       </c>
-      <c s="6" t="n" r="N58">
+      <c t="n" s="6" r="N58">
         <v>73.7</v>
       </c>
-      <c s="10" t="n" r="O58">
+      <c t="n" s="10" r="O58">
         <v>1169</v>
       </c>
-      <c s="6" t="n" r="P58">
+      <c t="n" s="6" r="P58">
         <v>67.59999999999999</v>
       </c>
-      <c s="8" t="n" r="Q58">
+      <c t="n" s="8" r="Q58">
         <v>1293</v>
       </c>
-      <c s="6" t="n" r="R58">
+      <c t="n" s="6" r="R58">
         <v>70.90000000000001</v>
       </c>
-      <c s="6" t="n" r="S58">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="T58">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="U58">
+      <c t="n" s="6" r="S58">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="T58">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="U58">
         <v>2090</v>
       </c>
-      <c s="6" t="n" r="V58">
+      <c t="n" s="6" r="V58">
         <v>48.9</v>
       </c>
-      <c s="10" t="n" r="W58">
+      <c t="n" s="10" r="W58">
         <v>1636</v>
       </c>
-      <c s="6" t="n" r="X58">
+      <c t="n" s="6" r="X58">
         <v>64.7</v>
       </c>
-      <c s="7" t="n" r="Z58">
+      <c t="n" s="7" r="Z58">
         <v>56.8</v>
       </c>
     </row>
     <row spans="1:26" r="59">
-      <c s="1" t="n" r="A59">
+      <c t="n" s="1" r="A59">
         <v>56</v>
       </c>
-      <c s="1" t="s" r="B59">
+      <c t="s" s="1" r="B59">
         <v>57</v>
       </c>
-      <c s="10" t="n" r="C59">
+      <c t="n" s="10" r="C59">
         <v>867</v>
       </c>
-      <c s="9" t="n" r="D59">
+      <c t="n" s="9" r="D59">
         <v>70.7</v>
       </c>
-      <c s="10" t="n" r="E59">
+      <c t="n" s="10" r="E59">
         <v>1421</v>
       </c>
-      <c s="9" t="n" r="F59">
+      <c t="n" s="9" r="F59">
         <v>60.4</v>
       </c>
-      <c s="11" t="n" r="G59">
+      <c t="n" s="11" r="G59">
         <v>2124</v>
       </c>
-      <c s="9" t="n" r="H59">
+      <c t="n" s="9" r="H59">
         <v>41.2</v>
       </c>
-      <c s="10" t="n" r="I59">
+      <c t="n" s="10" r="I59">
         <v>1153</v>
       </c>
-      <c s="9" t="n" r="J59">
+      <c t="n" s="9" r="J59">
         <v>66.5</v>
       </c>
-      <c s="10" t="n" r="K59">
+      <c t="n" s="10" r="K59">
         <v>1352</v>
       </c>
-      <c s="9" t="n" r="L59">
+      <c t="n" s="9" r="L59">
         <v>58.9</v>
       </c>
-      <c s="10" t="n" r="M59">
+      <c t="n" s="10" r="M59">
         <v>672</v>
       </c>
-      <c s="9" t="n" r="N59">
+      <c t="n" s="9" r="N59">
         <v>74.5</v>
       </c>
-      <c s="9" t="n" r="O59">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="P59">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="Q59">
+      <c t="n" s="9" r="O59">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="P59">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="Q59">
         <v>1016</v>
       </c>
-      <c s="9" t="n" r="R59">
+      <c t="n" s="9" r="R59">
         <v>76</v>
       </c>
-      <c s="11" t="n" r="S59">
+      <c t="n" s="11" r="S59">
         <v>2473</v>
       </c>
-      <c s="9" t="n" r="T59">
+      <c t="n" s="9" r="T59">
         <v>41.7</v>
       </c>
-      <c s="10" t="n" r="U59">
+      <c t="n" s="10" r="U59">
         <v>2296</v>
       </c>
-      <c s="9" t="n" r="V59">
+      <c t="n" s="9" r="V59">
         <v>44.9</v>
       </c>
-      <c s="10" t="n" r="W59">
+      <c t="n" s="10" r="W59">
         <v>1449</v>
       </c>
-      <c s="9" t="n" r="X59">
+      <c t="n" s="9" r="X59">
         <v>67.59999999999999</v>
       </c>
-      <c s="7" t="n" r="Z59">
+      <c t="n" s="7" r="Z59">
         <v>56.2</v>
       </c>
     </row>
     <row spans="1:26" r="60">
-      <c s="4" t="n" r="A60">
+      <c t="n" s="4" r="A60">
         <v>57</v>
       </c>
-      <c s="4" t="s" r="B60">
+      <c t="s" s="4" r="B60">
         <v>58</v>
       </c>
-      <c s="6" t="n" r="C60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="O60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="P60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="Q60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="R60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="S60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="T60">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="U60">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="V60">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="W60">
+      <c t="n" s="6" r="C60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="P60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="Q60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="R60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="S60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="T60">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="U60">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="V60">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="W60">
         <v>2181</v>
       </c>
-      <c s="6" t="n" r="X60">
+      <c t="n" s="6" r="X60">
         <v>56.2</v>
       </c>
-      <c s="7" t="n" r="Z60">
+      <c t="n" s="7" r="Z60">
         <v>56.2</v>
       </c>
     </row>
     <row spans="1:26" r="61">
-      <c s="1" t="n" r="A61">
+      <c t="n" s="1" r="A61">
         <v>58</v>
       </c>
-      <c s="1" t="s" r="B61">
+      <c t="s" s="1" r="B61">
         <v>59</v>
       </c>
-      <c s="9" t="n" r="C61">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D61">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E61">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F61">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G61">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H61">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I61">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J61">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K61">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L61">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M61">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N61">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O61">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="P61">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Q61">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="R61">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="S61">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="T61">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="U61">
+      <c t="n" s="9" r="C61">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D61">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E61">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F61">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G61">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H61">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I61">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J61">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K61">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L61">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M61">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N61">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="O61">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="P61">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="Q61">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="R61">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="S61">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="T61">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="U61">
         <v>3209</v>
       </c>
-      <c s="9" t="n" r="V61">
+      <c t="n" s="9" r="V61">
         <v>21.9</v>
       </c>
-      <c s="8" t="n" r="W61">
+      <c t="n" s="8" r="W61">
         <v>422</v>
       </c>
-      <c s="9" t="n" r="X61">
+      <c t="n" s="9" r="X61">
         <v>88.5</v>
       </c>
-      <c s="7" t="n" r="Z61">
+      <c t="n" s="7" r="Z61">
         <v>55.2</v>
       </c>
     </row>
     <row spans="1:26" r="62">
-      <c s="4" t="n" r="A62">
+      <c t="n" s="4" r="A62">
         <v>59</v>
       </c>
-      <c s="4" t="s" r="B62">
+      <c t="s" s="4" r="B62">
         <v>60</v>
       </c>
-      <c s="6" t="n" r="C62">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D62">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E62">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F62">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G62">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H62">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I62">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J62">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K62">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L62">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M62">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N62">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="O62">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="P62">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="Q62">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="R62">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="S62">
+      <c t="n" s="6" r="C62">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D62">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E62">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F62">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G62">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H62">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I62">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J62">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K62">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L62">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M62">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N62">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O62">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="P62">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="Q62">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="R62">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="S62">
         <v>2218</v>
       </c>
-      <c s="6" t="n" r="T62">
+      <c t="n" s="6" r="T62">
         <v>51.1</v>
       </c>
-      <c s="10" t="n" r="U62">
+      <c t="n" s="10" r="U62">
         <v>2619</v>
       </c>
-      <c s="6" t="n" r="V62">
+      <c t="n" s="6" r="V62">
         <v>38.5</v>
       </c>
-      <c s="10" t="n" r="W62">
+      <c t="n" s="10" r="W62">
         <v>2158</v>
       </c>
-      <c s="6" t="n" r="X62">
+      <c t="n" s="6" r="X62">
         <v>56.6</v>
       </c>
-      <c s="7" t="n" r="Z62">
+      <c t="n" s="7" r="Z62">
         <v>53.8</v>
       </c>
     </row>
     <row spans="1:26" r="63">
-      <c s="1" t="n" r="A63">
+      <c t="n" s="1" r="A63">
         <v>60</v>
       </c>
-      <c s="1" t="s" r="B63">
+      <c t="s" s="1" r="B63">
         <v>61</v>
       </c>
-      <c s="9" t="n" r="C63">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E63">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G63">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I63">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K63">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M63">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O63">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="P63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Q63">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="R63">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="S63">
+      <c t="n" s="9" r="C63">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D63">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E63">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F63">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G63">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H63">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I63">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J63">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K63">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L63">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M63">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N63">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="O63">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="P63">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="Q63">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="R63">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="S63">
         <v>2234</v>
       </c>
-      <c s="9" t="n" r="T63">
+      <c t="n" s="9" r="T63">
         <v>50.8</v>
       </c>
-      <c s="10" t="n" r="U63">
+      <c t="n" s="10" r="U63">
         <v>2402</v>
       </c>
-      <c s="9" t="n" r="V63">
+      <c t="n" s="9" r="V63">
         <v>42.8</v>
       </c>
-      <c s="10" t="n" r="W63">
+      <c t="n" s="10" r="W63">
         <v>2506</v>
       </c>
-      <c s="9" t="n" r="X63">
+      <c t="n" s="9" r="X63">
         <v>51.2</v>
       </c>
-      <c s="7" t="n" r="Z63">
+      <c t="n" s="7" r="Z63">
         <v>51</v>
       </c>
     </row>
     <row spans="1:26" r="64">
-      <c s="4" t="n" r="A64">
+      <c t="n" s="4" r="A64">
         <v>61</v>
       </c>
-      <c s="4" t="s" r="B64">
+      <c t="s" s="4" r="B64">
         <v>62</v>
       </c>
-      <c s="6" t="n" r="C64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D64">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F64">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H64">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J64">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L64">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N64">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="O64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="P64">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="Q64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="R64">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="S64">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="T64">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="U64">
+      <c t="n" s="6" r="C64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D64">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F64">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H64">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J64">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L64">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N64">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="P64">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="Q64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="R64">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="S64">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="T64">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="U64">
         <v>2017</v>
       </c>
-      <c s="6" t="n" r="V64">
+      <c t="n" s="6" r="V64">
         <v>50.4</v>
       </c>
-      <c s="10" t="n" r="W64">
+      <c t="n" s="10" r="W64">
         <v>2522</v>
       </c>
-      <c s="6" t="n" r="X64">
+      <c t="n" s="6" r="X64">
         <v>50.9</v>
       </c>
-      <c s="7" t="n" r="Z64">
+      <c t="n" s="7" r="Z64">
         <v>50.6</v>
       </c>
     </row>
     <row spans="1:26" r="65">
-      <c s="1" t="n" r="A65">
+      <c t="n" s="1" r="A65">
         <v>62</v>
       </c>
-      <c s="1" t="s" r="B65">
+      <c t="s" s="1" r="B65">
         <v>63</v>
       </c>
-      <c s="8" t="n" r="C65">
+      <c t="n" s="8" r="C65">
         <v>315</v>
       </c>
-      <c s="9" t="n" r="D65">
+      <c t="n" s="9" r="D65">
         <v>88</v>
       </c>
-      <c s="10" t="n" r="E65">
+      <c t="n" s="10" r="E65">
         <v>2123</v>
       </c>
-      <c s="9" t="n" r="F65">
+      <c t="n" s="9" r="F65">
         <v>45.9</v>
       </c>
-      <c s="8" t="n" r="G65">
+      <c t="n" s="8" r="G65">
         <v>757</v>
       </c>
-      <c s="9" t="n" r="H65">
+      <c t="n" s="9" r="H65">
         <v>79.40000000000001</v>
       </c>
-      <c s="11" t="n" r="I65">
+      <c t="n" s="11" r="I65">
         <v>1642</v>
       </c>
-      <c s="9" t="n" r="J65">
+      <c t="n" s="9" r="J65">
         <v>51.5</v>
       </c>
-      <c s="10" t="n" r="K65">
+      <c t="n" s="10" r="K65">
         <v>1411</v>
       </c>
-      <c s="9" t="n" r="L65">
+      <c t="n" s="9" r="L65">
         <v>57.6</v>
       </c>
-      <c s="10" t="n" r="M65">
+      <c t="n" s="10" r="M65">
         <v>1132</v>
       </c>
-      <c s="9" t="n" r="N65">
+      <c t="n" s="9" r="N65">
         <v>63.9</v>
       </c>
-      <c s="10" t="n" r="O65">
+      <c t="n" s="10" r="O65">
         <v>1319</v>
       </c>
-      <c s="9" t="n" r="P65">
+      <c t="n" s="9" r="P65">
         <v>64.7</v>
       </c>
-      <c s="8" t="n" r="Q65">
+      <c t="n" s="8" r="Q65">
         <v>734</v>
       </c>
-      <c s="9" t="n" r="R65">
+      <c t="n" s="9" r="R65">
         <v>81.3</v>
       </c>
-      <c s="9" t="n" r="S65">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="T65">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="U65">
+      <c t="n" s="9" r="S65">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="T65">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="U65">
         <v>2798</v>
       </c>
-      <c s="9" t="n" r="V65">
+      <c t="n" s="9" r="V65">
         <v>30</v>
       </c>
-      <c s="10" t="n" r="W65">
+      <c t="n" s="10" r="W65">
         <v>1462</v>
       </c>
-      <c s="9" t="n" r="X65">
+      <c t="n" s="9" r="X65">
         <v>67.40000000000001</v>
       </c>
-      <c s="7" t="n" r="Z65">
+      <c t="n" s="7" r="Z65">
         <v>48.7</v>
       </c>
     </row>
     <row spans="1:26" r="66">
-      <c s="4" t="n" r="A66">
+      <c t="n" s="4" r="A66">
         <v>63</v>
       </c>
-      <c s="4" t="s" r="B66">
+      <c t="s" s="4" r="B66">
         <v>64</v>
       </c>
-      <c s="6" t="n" r="C66">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="D66">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="E66">
+      <c t="n" s="6" r="C66">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="D66">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="E66">
         <v>1657</v>
       </c>
-      <c s="6" t="n" r="F66">
+      <c t="n" s="6" r="F66">
         <v>55.5</v>
       </c>
-      <c s="10" t="n" r="G66">
+      <c t="n" s="10" r="G66">
         <v>1955</v>
       </c>
-      <c s="6" t="n" r="H66">
+      <c t="n" s="6" r="H66">
         <v>49.6</v>
       </c>
-      <c s="6" t="n" r="I66">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="J66">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="K66">
+      <c t="n" s="6" r="I66">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="J66">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="K66">
         <v>2034</v>
       </c>
-      <c s="6" t="n" r="L66">
+      <c t="n" s="6" r="L66">
         <v>38.3</v>
       </c>
-      <c s="6" t="n" r="M66">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N66">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="O66">
+      <c t="n" s="6" r="M66">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N66">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="O66">
         <v>2397</v>
       </c>
-      <c s="6" t="n" r="P66">
+      <c t="n" s="6" r="P66">
         <v>39.1</v>
       </c>
-      <c s="11" t="n" r="Q66">
+      <c t="n" s="11" r="Q66">
         <v>2838</v>
       </c>
-      <c s="6" t="n" r="R66">
+      <c t="n" s="6" r="R66">
         <v>32.1</v>
       </c>
-      <c s="10" t="n" r="S66">
+      <c t="n" s="10" r="S66">
         <v>2055</v>
       </c>
-      <c s="6" t="n" r="T66">
+      <c t="n" s="6" r="T66">
         <v>54</v>
       </c>
-      <c s="6" t="n" r="U66">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="V66">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="W66">
+      <c t="n" s="6" r="U66">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="V66">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="W66">
         <v>2902</v>
       </c>
-      <c s="6" t="n" r="X66">
+      <c t="n" s="6" r="X66">
         <v>40</v>
       </c>
-      <c s="7" t="n" r="Z66">
+      <c t="n" s="7" r="Z66">
         <v>47</v>
       </c>
     </row>
     <row spans="1:26" r="67">
-      <c s="1" t="n" r="A67">
+      <c t="n" s="1" r="A67">
         <v>64</v>
       </c>
-      <c s="1" t="s" r="B67">
+      <c t="s" s="1" r="B67">
         <v>65</v>
       </c>
-      <c s="10" t="n" r="C67">
+      <c t="n" s="10" r="C67">
         <v>760</v>
       </c>
-      <c s="9" t="n" r="D67">
+      <c t="n" s="9" r="D67">
         <v>73</v>
       </c>
-      <c s="9" t="n" r="E67">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="F67">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="G67">
+      <c t="n" s="9" r="E67">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="F67">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="G67">
         <v>221</v>
       </c>
-      <c s="9" t="n" r="H67">
+      <c t="n" s="9" r="H67">
         <v>95.40000000000001</v>
       </c>
-      <c s="10" t="n" r="I67">
+      <c t="n" s="10" r="I67">
         <v>1114</v>
       </c>
-      <c s="9" t="n" r="J67">
+      <c t="n" s="9" r="J67">
         <v>67.3</v>
       </c>
-      <c s="8" t="n" r="K67">
+      <c t="n" s="8" r="K67">
         <v>1243</v>
       </c>
-      <c s="9" t="n" r="L67">
+      <c t="n" s="9" r="L67">
         <v>66.40000000000001</v>
       </c>
-      <c s="9" t="n" r="M67">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="N67">
-        <v>0</v>
-      </c>
-      <c s="8" t="n" r="O67">
+      <c t="n" s="9" r="M67">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="N67">
+        <v>0</v>
+      </c>
+      <c t="n" s="8" r="O67">
         <v>644</v>
       </c>
-      <c s="9" t="n" r="P67">
+      <c t="n" s="9" r="P67">
         <v>82.7</v>
       </c>
-      <c s="8" t="n" r="Q67">
+      <c t="n" s="8" r="Q67">
         <v>735</v>
       </c>
-      <c s="9" t="n" r="R67">
+      <c t="n" s="9" r="R67">
         <v>81.3</v>
       </c>
-      <c s="9" t="n" r="S67">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="T67">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="U67">
+      <c t="n" s="9" r="S67">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="T67">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="U67">
         <v>380</v>
       </c>
-      <c s="9" t="n" r="V67">
+      <c t="n" s="9" r="V67">
         <v>92.5</v>
       </c>
-      <c s="9" t="n" r="W67">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="X67">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Z67">
+      <c t="n" s="9" r="W67">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="X67">
+        <v>0</v>
+      </c>
+      <c t="n" s="7" r="Z67">
         <v>46.2</v>
       </c>
     </row>
     <row spans="1:26" r="68">
-      <c s="4" t="n" r="A68">
+      <c t="n" s="4" r="A68">
         <v>65</v>
       </c>
-      <c s="4" t="s" r="B68">
+      <c t="s" s="4" r="B68">
         <v>66</v>
       </c>
-      <c s="6" t="n" r="C68">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D68">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E68">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F68">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G68">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H68">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I68">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="J68">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K68">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="L68">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M68">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="N68">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="O68">
+      <c t="n" s="6" r="C68">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D68">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E68">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F68">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G68">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H68">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I68">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J68">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K68">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L68">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M68">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N68">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O68">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="P68">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="Q68">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="R68">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="S68">
+        <v>1816</v>
+      </c>
+      <c t="n" s="6" r="T68">
+        <v>58.2</v>
+      </c>
+      <c t="n" s="6" r="U68">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="V68">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="W68">
+        <v>3274</v>
+      </c>
+      <c t="n" s="6" r="X68">
+        <v>34.3</v>
+      </c>
+      <c t="n" s="7" r="Z68">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row spans="1:26" r="69">
+      <c t="n" s="1" r="A69">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="B69">
+        <v>67</v>
+      </c>
+      <c t="n" s="9" r="C69">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D69">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E69">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F69">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G69">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H69">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I69">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="J69">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K69">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="L69">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M69">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="N69">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="O69">
         <v>2526</v>
       </c>
-      <c s="6" t="n" r="P68">
+      <c t="n" s="9" r="P69">
         <v>36.6</v>
       </c>
-      <c s="6" t="n" r="Q68">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="R68">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="S68">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="T68">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="U68">
+      <c t="n" s="9" r="Q69">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="R69">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="S69">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="T69">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="U69">
         <v>2029</v>
       </c>
-      <c s="6" t="n" r="V68">
+      <c t="n" s="9" r="V69">
         <v>50.1</v>
       </c>
-      <c s="11" t="n" r="W68">
+      <c t="n" s="11" r="W69">
         <v>2815</v>
       </c>
-      <c s="6" t="n" r="X68">
+      <c t="n" s="9" r="X69">
         <v>41.4</v>
       </c>
-      <c s="7" t="n" r="Z68">
+      <c t="n" s="7" r="Z69">
         <v>45.8</v>
       </c>
     </row>
-    <row spans="1:26" r="69">
-      <c s="1" t="n" r="A69">
-        <v>66</v>
-      </c>
-      <c s="1" t="s" r="B69">
+    <row spans="1:26" r="70">
+      <c t="n" s="4" r="A70">
         <v>67</v>
       </c>
-      <c s="9" t="n" r="C69">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D69">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E69">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F69">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G69">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H69">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I69">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J69">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K69">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L69">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M69">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N69">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O69">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="P69">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="Q69">
+      <c t="s" s="4" r="B70">
+        <v>68</v>
+      </c>
+      <c t="n" s="6" r="C70">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="D70">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="E70">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="F70">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="G70">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="H70">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="I70">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="J70">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="K70">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="L70">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M70">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="N70">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O70">
+        <v>-2</v>
+      </c>
+      <c t="n" s="6" r="P70">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="Q70">
         <v>2068</v>
       </c>
-      <c s="9" t="n" r="R69">
+      <c t="n" s="6" r="R70">
         <v>51.4</v>
       </c>
-      <c s="11" t="n" r="S69">
+      <c t="n" s="11" r="S70">
         <v>2944</v>
       </c>
-      <c s="9" t="n" r="T69">
+      <c t="n" s="6" r="T70">
         <v>33.4</v>
       </c>
-      <c s="11" t="n" r="U69">
+      <c t="n" s="11" r="U70">
         <v>2702</v>
       </c>
-      <c s="9" t="n" r="V69">
+      <c t="n" s="6" r="V70">
         <v>31.9</v>
       </c>
-      <c s="10" t="n" r="W69">
+      <c t="n" s="10" r="W70">
         <v>2502</v>
       </c>
-      <c s="9" t="n" r="X69">
+      <c t="n" s="6" r="X70">
         <v>51.2</v>
       </c>
-      <c s="7" t="n" r="Z69">
+      <c t="n" s="7" r="Z70">
         <v>42.3</v>
       </c>
     </row>
-    <row spans="1:26" r="70">
-      <c s="4" t="n" r="A70">
-        <v>67</v>
-      </c>
-      <c s="4" t="s" r="B70">
+    <row spans="1:26" r="71">
+      <c t="n" s="1" r="A71">
         <v>68</v>
       </c>
-      <c s="6" t="n" r="C70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D70">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F70">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H70">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J70">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L70">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N70">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="O70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="P70">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="Q70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="R70">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="S70">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="T70">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="U70">
+      <c t="s" s="1" r="B71">
+        <v>69</v>
+      </c>
+      <c t="n" s="9" r="C71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D71">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F71">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H71">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J71">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L71">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N71">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="O71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="P71">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="Q71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="R71">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="S71">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="T71">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="U71">
         <v>3055</v>
       </c>
-      <c s="6" t="n" r="V70">
+      <c t="n" s="9" r="V71">
         <v>25</v>
       </c>
-      <c s="10" t="n" r="W70">
+      <c t="n" s="10" r="W71">
         <v>2236</v>
       </c>
-      <c s="6" t="n" r="X70">
+      <c t="n" s="9" r="X71">
         <v>55.4</v>
       </c>
-      <c s="7" t="n" r="Z70">
+      <c t="n" s="7" r="Z71">
         <v>40.2</v>
       </c>
     </row>
-    <row spans="1:26" r="71">
-      <c s="1" t="n" r="A71">
-        <v>68</v>
-      </c>
-      <c s="1" t="s" r="B71">
+    <row spans="1:26" r="72">
+      <c t="n" s="4" r="A72">
         <v>69</v>
       </c>
-      <c s="9" t="n" r="C71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="P71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Q71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="R71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="S71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="T71">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="U71">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="V71">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="W71">
+      <c t="s" s="4" r="B72">
+        <v>70</v>
+      </c>
+      <c t="n" s="11" r="C72">
+        <v>2119</v>
+      </c>
+      <c t="n" s="6" r="D72">
+        <v>37.7</v>
+      </c>
+      <c t="n" s="10" r="E72">
+        <v>1412</v>
+      </c>
+      <c t="n" s="6" r="F72">
+        <v>60.6</v>
+      </c>
+      <c t="n" s="10" r="G72">
+        <v>1876</v>
+      </c>
+      <c t="n" s="6" r="H72">
+        <v>51.3</v>
+      </c>
+      <c t="n" s="11" r="I72">
+        <v>1373</v>
+      </c>
+      <c t="n" s="6" r="J72">
+        <v>57</v>
+      </c>
+      <c t="n" s="11" r="K72">
+        <v>1951</v>
+      </c>
+      <c t="n" s="6" r="L72">
+        <v>40.2</v>
+      </c>
+      <c t="n" s="11" r="M72">
+        <v>2230</v>
+      </c>
+      <c t="n" s="6" r="N72">
+        <v>33.6</v>
+      </c>
+      <c t="n" s="11" r="O72">
+        <v>2574</v>
+      </c>
+      <c t="n" s="6" r="P72">
+        <v>35.7</v>
+      </c>
+      <c t="n" s="10" r="Q72">
+        <v>1830</v>
+      </c>
+      <c t="n" s="6" r="R72">
+        <v>55.9</v>
+      </c>
+      <c t="n" s="6" r="S72">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="T72">
+        <v>0</v>
+      </c>
+      <c t="n" s="10" r="U72">
+        <v>2223</v>
+      </c>
+      <c t="n" s="6" r="V72">
+        <v>46.3</v>
+      </c>
+      <c t="n" s="11" r="W72">
+        <v>3302</v>
+      </c>
+      <c t="n" s="6" r="X72">
+        <v>33.8</v>
+      </c>
+      <c t="n" s="7" r="Z72">
+        <v>40</v>
+      </c>
+    </row>
+    <row spans="1:26" r="73">
+      <c t="n" s="1" r="A73">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="B73">
+        <v>71</v>
+      </c>
+      <c t="n" s="9" r="C73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="O73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="P73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="Q73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="R73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="S73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="T73">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="U73">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="V73">
+        <v>0</v>
+      </c>
+      <c t="n" s="11" r="W73">
         <v>3124</v>
       </c>
-      <c s="9" t="n" r="X71">
+      <c t="n" s="9" r="X73">
         <v>36.6</v>
       </c>
-      <c s="7" t="n" r="Z71">
+      <c t="n" s="7" r="Z73">
         <v>36.6</v>
       </c>
     </row>
-    <row spans="1:26" r="72">
-      <c s="4" t="n" r="A72">
-        <v>69</v>
-      </c>
-      <c s="4" t="s" r="B72">
-        <v>70</v>
-      </c>
-      <c s="6" t="n" r="C72">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="D72">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="E72">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="F72">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="G72">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="H72">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="I72">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="J72">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="K72">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="L72">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="M72">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="N72">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="O72">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="P72">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="Q72">
-        <v>-2</v>
-      </c>
-      <c s="6" t="n" r="R72">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="S72">
-        <v>1816</v>
-      </c>
-      <c s="6" t="n" r="T72">
-        <v>58.2</v>
-      </c>
-      <c s="6" t="n" r="U72">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="V72">
-        <v>0</v>
-      </c>
-      <c s="6" t="n" r="W72">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="X72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Z72">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row spans="1:26" r="73">
-      <c s="1" t="n" r="A73">
-        <v>70</v>
-      </c>
-      <c s="1" t="s" r="B73">
+    <row spans="1:26" r="74">
+      <c t="n" s="4" r="A74">
         <v>71</v>
       </c>
-      <c s="11" t="n" r="C73">
+      <c t="s" s="4" r="B74">
+        <v>72</v>
+      </c>
+      <c t="n" s="11" r="C74">
         <v>1855</v>
       </c>
-      <c s="9" t="n" r="D73">
+      <c t="n" s="6" r="D74">
         <v>43.6</v>
       </c>
-      <c s="8" t="n" r="E73">
+      <c t="n" s="8" r="E74">
         <v>892</v>
       </c>
-      <c s="9" t="n" r="F73">
+      <c t="n" s="6" r="F74">
         <v>76.5</v>
       </c>
-      <c s="10" t="n" r="G73">
+      <c t="n" s="10" r="G74">
         <v>1429</v>
       </c>
-      <c s="9" t="n" r="H73">
+      <c t="n" s="6" r="H74">
         <v>60.5</v>
       </c>
-      <c s="10" t="n" r="I73">
+      <c t="n" s="10" r="I74">
         <v>811</v>
       </c>
-      <c s="9" t="n" r="J73">
+      <c t="n" s="6" r="J74">
         <v>73.5</v>
       </c>
-      <c s="9" t="n" r="K73">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="L73">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M73">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="N73">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O73">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="P73">
-        <v>0</v>
-      </c>
-      <c s="5" t="n" r="Q73">
+      <c t="n" s="6" r="K74">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="L74">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="M74">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="N74">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="O74">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="P74">
+        <v>0</v>
+      </c>
+      <c t="n" s="5" r="Q74">
         <v>507</v>
       </c>
-      <c s="9" t="n" r="R73">
+      <c t="n" s="6" r="R74">
         <v>90.5</v>
       </c>
-      <c s="10" t="n" r="S73">
+      <c t="n" s="10" r="S74">
         <v>1874</v>
       </c>
-      <c s="9" t="n" r="T73">
+      <c t="n" s="6" r="T74">
         <v>57.2</v>
       </c>
-      <c s="9" t="n" r="U73">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="V73">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="W73">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="X73">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Z73">
+      <c t="n" s="6" r="U74">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="V74">
+        <v>0</v>
+      </c>
+      <c t="n" s="6" r="W74">
+        <v>-1</v>
+      </c>
+      <c t="n" s="6" r="X74">
+        <v>0</v>
+      </c>
+      <c t="n" s="7" r="Z74">
         <v>28.6</v>
       </c>
     </row>
-    <row spans="1:26" r="74">
-      <c s="4" t="n" r="A74">
-        <v>71</v>
-      </c>
-      <c s="4" t="s" r="B74">
+    <row spans="1:26" r="75">
+      <c t="n" s="1" r="A75">
         <v>72</v>
       </c>
-      <c s="11" t="n" r="C74">
-        <v>2119</v>
-      </c>
-      <c s="6" t="n" r="D74">
-        <v>37.7</v>
-      </c>
-      <c s="10" t="n" r="E74">
-        <v>1412</v>
-      </c>
-      <c s="6" t="n" r="F74">
-        <v>60.6</v>
-      </c>
-      <c s="10" t="n" r="G74">
-        <v>1876</v>
-      </c>
-      <c s="6" t="n" r="H74">
-        <v>51.3</v>
-      </c>
-      <c s="11" t="n" r="I74">
-        <v>1373</v>
-      </c>
-      <c s="6" t="n" r="J74">
-        <v>57</v>
-      </c>
-      <c s="11" t="n" r="K74">
-        <v>1951</v>
-      </c>
-      <c s="6" t="n" r="L74">
-        <v>40.2</v>
-      </c>
-      <c s="11" t="n" r="M74">
-        <v>2230</v>
-      </c>
-      <c s="6" t="n" r="N74">
-        <v>33.6</v>
-      </c>
-      <c s="11" t="n" r="O74">
-        <v>2574</v>
-      </c>
-      <c s="6" t="n" r="P74">
-        <v>35.7</v>
-      </c>
-      <c s="10" t="n" r="Q74">
-        <v>1830</v>
-      </c>
-      <c s="6" t="n" r="R74">
-        <v>55.9</v>
-      </c>
-      <c s="6" t="n" r="S74">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="T74">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="U74">
-        <v>2223</v>
-      </c>
-      <c s="6" t="n" r="V74">
-        <v>46.3</v>
-      </c>
-      <c s="6" t="n" r="W74">
-        <v>-1</v>
-      </c>
-      <c s="6" t="n" r="X74">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Z74">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row spans="1:26" r="75">
-      <c s="1" t="n" r="A75">
-        <v>72</v>
-      </c>
-      <c s="1" t="s" r="B75">
+      <c t="s" s="1" r="B75">
         <v>73</v>
       </c>
-      <c s="9" t="n" r="C75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="D75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="E75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="F75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="G75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="H75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="J75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="L75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="N75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="P75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Q75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="R75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="S75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="T75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="U75">
-        <v>-2</v>
-      </c>
-      <c s="9" t="n" r="V75">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="W75">
-        <v>-1</v>
-      </c>
-      <c s="9" t="n" r="X75">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Z75">
+      <c t="n" s="9" r="C75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="D75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="E75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="F75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="G75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="H75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="I75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="J75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="K75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="L75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="M75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="N75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="O75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="P75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="Q75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="R75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="S75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="T75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="U75">
+        <v>-2</v>
+      </c>
+      <c t="n" s="9" r="V75">
+        <v>0</v>
+      </c>
+      <c t="n" s="9" r="W75">
+        <v>-1</v>
+      </c>
+      <c t="n" s="9" r="X75">
+        <v>0</v>
+      </c>
+      <c t="n" s="7" r="Z75">
         <v>0</v>
       </c>
     </row>
     <row spans="1:26" r="78">
-      <c s="12" t="s" r="B78">
+      <c t="s" s="12" r="B78">
         <v>74</v>
       </c>
     </row>
     <row spans="1:26" r="79">
-      <c s="12" t="s" r="B79">
+      <c t="s" s="12" r="B79">
         <v>75</v>
       </c>
     </row>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -88,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -124,6 +124,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -421,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z79"/>
+  <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6201,22 +6202,2706 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="B78" s="12" t="inlineStr">
-        <is>
-          <t>-2:     Not joined group yet</t>
-        </is>
-      </c>
-    </row>
     <row r="79">
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>-1:     Absent or zero score</t>
-        </is>
+          <t>-1:     absent/zero</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>-2:     not joined</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="12" t="inlineStr">
+        <is>
+          <t>-3:     left/quited</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="13" t="inlineStr">
+        <is>
+          <t>More about the Rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="13" t="inlineStr">
+        <is>
+          <t>See the full list of daily problems</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="13" t="inlineStr">
+        <is>
+          <t>Graduated or laidoff members in 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>Brooky</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E90" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="8" t="n">
+        <v>1048</v>
+      </c>
+      <c r="J90" s="7" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="K90" s="6" t="n">
+        <v>371</v>
+      </c>
+      <c r="L90" s="7" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="M90" s="10" t="n">
+        <v>1244</v>
+      </c>
+      <c r="N90" s="7" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="O90" s="10" t="n">
+        <v>597</v>
+      </c>
+      <c r="P90" s="7" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="Q90" s="6" t="n">
+        <v>179</v>
+      </c>
+      <c r="R90" s="7" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="S90" s="6" t="n">
+        <v>169</v>
+      </c>
+      <c r="T90" s="7" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="U90" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z90" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>DorisGe</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E91" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10" t="n">
+        <v>1705</v>
+      </c>
+      <c r="J91" s="9" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="K91" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="10" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N91" s="9" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="O91" s="10" t="n">
+        <v>935</v>
+      </c>
+      <c r="P91" s="9" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="Q91" s="6" t="n">
+        <v>667</v>
+      </c>
+      <c r="R91" s="9" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="S91" s="11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="T91" s="9" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="U91" s="8" t="n">
+        <v>608</v>
+      </c>
+      <c r="V91" s="9" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="W91" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z91" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>Lisanaaa</t>
+        </is>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E92" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="11" t="n">
+        <v>1328</v>
+      </c>
+      <c r="P92" s="7" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="Q92" s="6" t="n">
+        <v>618</v>
+      </c>
+      <c r="R92" s="7" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="S92" s="10" t="n">
+        <v>883</v>
+      </c>
+      <c r="T92" s="7" t="n">
+        <v>72</v>
+      </c>
+      <c r="U92" s="10" t="n">
+        <v>1754</v>
+      </c>
+      <c r="V92" s="7" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="W92" s="10" t="n">
+        <v>1648</v>
+      </c>
+      <c r="X92" s="7" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="Y92" s="10" t="n">
+        <v>1215</v>
+      </c>
+      <c r="Z92" s="7" t="n">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>LittleBaldHead</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E93" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" s="10" t="n">
+        <v>1475</v>
+      </c>
+      <c r="J93" s="9" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>1350</v>
+      </c>
+      <c r="L93" s="9" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="M93" s="10" t="n">
+        <v>1313</v>
+      </c>
+      <c r="N93" s="9" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="O93" s="10" t="n">
+        <v>939</v>
+      </c>
+      <c r="P93" s="9" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="Q93" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" s="10" t="n">
+        <v>806</v>
+      </c>
+      <c r="T93" s="9" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="U93" s="6" t="n">
+        <v>474</v>
+      </c>
+      <c r="V93" s="9" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="W93" s="8" t="n">
+        <v>711</v>
+      </c>
+      <c r="X93" s="9" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="Y93" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z93" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>QAMichaelPeng</t>
+        </is>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E94" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="J94" s="7" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K94" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="L94" s="7" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="M94" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="N94" s="7" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="O94" s="8" t="n">
+        <v>178</v>
+      </c>
+      <c r="P94" s="7" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="Q94" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="R94" s="7" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="S94" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="T94" s="7" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="U94" s="8" t="n">
+        <v>675</v>
+      </c>
+      <c r="V94" s="7" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="W94" s="6" t="n">
+        <v>163</v>
+      </c>
+      <c r="X94" s="7" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="Y94" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="Z94" s="7" t="n">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Suhe</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E95" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J95" s="9" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="K95" s="8" t="n">
+        <v>1469</v>
+      </c>
+      <c r="L95" s="9" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="M95" s="10" t="n">
+        <v>1546</v>
+      </c>
+      <c r="N95" s="9" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="O95" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="10" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R95" s="9" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="S95" s="10" t="n">
+        <v>1275</v>
+      </c>
+      <c r="T95" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="U95" s="11" t="n">
+        <v>2217</v>
+      </c>
+      <c r="V95" s="9" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="W95" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="11" t="n">
+        <v>1637</v>
+      </c>
+      <c r="Z95" s="9" t="n">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>Vicky_Owen</t>
+        </is>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E96" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" s="8" t="n">
+        <v>560</v>
+      </c>
+      <c r="T96" s="7" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="U96" s="6" t="n">
+        <v>240</v>
+      </c>
+      <c r="V96" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="W96" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="10" t="n">
+        <v>1302</v>
+      </c>
+      <c r="Z96" s="7" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>XRS</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E97" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="11" t="n">
+        <v>2394</v>
+      </c>
+      <c r="R97" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="S97" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z97" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>XYang93</t>
+        </is>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E98" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" s="11" t="n">
+        <v>1585</v>
+      </c>
+      <c r="P98" s="7" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="Q98" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" s="11" t="n">
+        <v>2382</v>
+      </c>
+      <c r="V98" s="7" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="W98" s="8" t="n">
+        <v>942</v>
+      </c>
+      <c r="X98" s="7" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="Y98" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z98" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>ZOEGREEN</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E99" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H99" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J99" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L99" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="8" t="n">
+        <v>674</v>
+      </c>
+      <c r="N99" s="9" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="O99" s="8" t="n">
+        <v>411</v>
+      </c>
+      <c r="P99" s="9" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="Q99" s="10" t="n">
+        <v>1348</v>
+      </c>
+      <c r="R99" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="S99" s="10" t="n">
+        <v>1280</v>
+      </c>
+      <c r="T99" s="9" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="U99" s="8" t="n">
+        <v>967</v>
+      </c>
+      <c r="V99" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="W99" s="8" t="n">
+        <v>460</v>
+      </c>
+      <c r="X99" s="9" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="Y99" s="11" t="n">
+        <v>2181</v>
+      </c>
+      <c r="Z99" s="9" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>ZhuYamei</t>
+        </is>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E100" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" s="11" t="n">
+        <v>1771</v>
+      </c>
+      <c r="P100" s="7" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="Q100" s="6" t="n">
+        <v>664</v>
+      </c>
+      <c r="R100" s="7" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="S100" s="8" t="n">
+        <v>506</v>
+      </c>
+      <c r="T100" s="7" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="U100" s="10" t="n">
+        <v>1717</v>
+      </c>
+      <c r="V100" s="7" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="W100" s="8" t="n">
+        <v>865</v>
+      </c>
+      <c r="X100" s="7" t="n">
+        <v>77</v>
+      </c>
+      <c r="Y100" s="8" t="n">
+        <v>567</v>
+      </c>
+      <c r="Z100" s="7" t="n">
+        <v>82.40000000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>banrenmasanxing</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E101" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="8" t="n">
+        <v>1852</v>
+      </c>
+      <c r="H101" s="9" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="I101" s="10" t="n">
+        <v>2042</v>
+      </c>
+      <c r="J101" s="9" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K101" s="10" t="n">
+        <v>2579</v>
+      </c>
+      <c r="L101" s="9" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="M101" s="11" t="n">
+        <v>2502</v>
+      </c>
+      <c r="N101" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="O101" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z101" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>bellumpara</t>
+        </is>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E102" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" s="8" t="n">
+        <v>379</v>
+      </c>
+      <c r="P102" s="7" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="Q102" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" s="10" t="n">
+        <v>913</v>
+      </c>
+      <c r="T102" s="7" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="U102" s="10" t="n">
+        <v>1223</v>
+      </c>
+      <c r="V102" s="7" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="W102" s="10" t="n">
+        <v>1181</v>
+      </c>
+      <c r="X102" s="7" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="Y102" s="10" t="n">
+        <v>1109</v>
+      </c>
+      <c r="Z102" s="7" t="n">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>crossbowman</t>
+        </is>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E103" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z103" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>deerstalker</t>
+        </is>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E104" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>1675</v>
+      </c>
+      <c r="L104" s="7" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="M104" s="10" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N104" s="7" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="O104" s="11" t="n">
+        <v>1958</v>
+      </c>
+      <c r="P104" s="7" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="Q104" s="10" t="n">
+        <v>1832</v>
+      </c>
+      <c r="R104" s="7" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="S104" s="10" t="n">
+        <v>908</v>
+      </c>
+      <c r="T104" s="7" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="U104" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="10" t="n">
+        <v>1361</v>
+      </c>
+      <c r="Z104" s="7" t="n">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>dhf13</t>
+        </is>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E105" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="10" t="n">
+        <v>925</v>
+      </c>
+      <c r="N105" s="9" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="O105" s="11" t="n">
+        <v>1462</v>
+      </c>
+      <c r="P105" s="9" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="Q105" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" s="8" t="n">
+        <v>430</v>
+      </c>
+      <c r="T105" s="9" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="U105" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" s="6" t="n">
+        <v>225</v>
+      </c>
+      <c r="X105" s="9" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="Y105" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Z105" s="9" t="n">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>fuxuemingzhu</t>
+        </is>
+      </c>
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E106" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="H106" s="7" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I106" s="8" t="n">
+        <v>364</v>
+      </c>
+      <c r="J106" s="7" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>859</v>
+      </c>
+      <c r="L106" s="7" t="n">
+        <v>79</v>
+      </c>
+      <c r="M106" s="10" t="n">
+        <v>1338</v>
+      </c>
+      <c r="N106" s="7" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="O106" s="10" t="n">
+        <v>885</v>
+      </c>
+      <c r="P106" s="7" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="Q106" s="10" t="n">
+        <v>1573</v>
+      </c>
+      <c r="R106" s="7" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="S106" s="10" t="n">
+        <v>828</v>
+      </c>
+      <c r="T106" s="7" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="U106" s="8" t="n">
+        <v>846</v>
+      </c>
+      <c r="V106" s="7" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="W106" s="8" t="n">
+        <v>459</v>
+      </c>
+      <c r="X106" s="7" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="Y106" s="10" t="n">
+        <v>1117</v>
+      </c>
+      <c r="Z106" s="7" t="n">
+        <v>65.09999999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>fyang618</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E107" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F107" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H107" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="10" t="n">
+        <v>1285</v>
+      </c>
+      <c r="J107" s="9" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K107" s="8" t="n">
+        <v>1737</v>
+      </c>
+      <c r="L107" s="9" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="M107" s="11" t="n">
+        <v>2064</v>
+      </c>
+      <c r="N107" s="9" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="O107" s="11" t="n">
+        <v>1848</v>
+      </c>
+      <c r="P107" s="9" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="Q107" s="8" t="n">
+        <v>997</v>
+      </c>
+      <c r="R107" s="9" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="S107" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T107" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" s="8" t="n">
+        <v>872</v>
+      </c>
+      <c r="V107" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="W107" s="8" t="n">
+        <v>484</v>
+      </c>
+      <c r="X107" s="9" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="Y107" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z107" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>gzh47</t>
+        </is>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E108" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="11" t="n">
+        <v>2884</v>
+      </c>
+      <c r="J108" s="7" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K108" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="8" t="n">
+        <v>714</v>
+      </c>
+      <c r="N108" s="7" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="O108" s="10" t="n">
+        <v>888</v>
+      </c>
+      <c r="P108" s="7" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="Q108" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" s="11" t="n">
+        <v>1641</v>
+      </c>
+      <c r="T108" s="7" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="U108" s="6" t="n">
+        <v>502</v>
+      </c>
+      <c r="V108" s="7" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="W108" s="6" t="n">
+        <v>233</v>
+      </c>
+      <c r="X108" s="7" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="Y108" s="8" t="n">
+        <v>578</v>
+      </c>
+      <c r="Z108" s="7" t="n">
+        <v>82.09999999999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>hgzry812</t>
+        </is>
+      </c>
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E109" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z109" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>jiancheng2</t>
+        </is>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E110" s="11" t="n">
+        <v>3089</v>
+      </c>
+      <c r="F110" s="7" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="G110" s="8" t="n">
+        <v>1457</v>
+      </c>
+      <c r="H110" s="7" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="I110" s="8" t="n">
+        <v>819</v>
+      </c>
+      <c r="J110" s="7" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="K110" s="6" t="n">
+        <v>514</v>
+      </c>
+      <c r="L110" s="7" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="M110" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z110" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>jiang718</t>
+        </is>
+      </c>
+      <c r="C111" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E111" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" s="8" t="n">
+        <v>544</v>
+      </c>
+      <c r="V111" s="9" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="W111" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="8" t="n">
+        <v>461</v>
+      </c>
+      <c r="Z111" s="9" t="n">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>jianzhun</t>
+        </is>
+      </c>
+      <c r="C112" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E112" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" s="8" t="n">
+        <v>448</v>
+      </c>
+      <c r="N112" s="7" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="O112" s="11" t="n">
+        <v>1841</v>
+      </c>
+      <c r="P112" s="7" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="Q112" s="6" t="n">
+        <v>813</v>
+      </c>
+      <c r="R112" s="7" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="S112" s="6" t="n">
+        <v>205</v>
+      </c>
+      <c r="T112" s="7" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="U112" s="6" t="n">
+        <v>518</v>
+      </c>
+      <c r="V112" s="7" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="W112" s="8" t="n">
+        <v>672</v>
+      </c>
+      <c r="X112" s="7" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y112" s="8" t="n">
+        <v>642</v>
+      </c>
+      <c r="Z112" s="7" t="n">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>kaihaohust</t>
+        </is>
+      </c>
+      <c r="C113" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E113" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" s="8" t="n">
+        <v>838</v>
+      </c>
+      <c r="L113" s="9" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="M113" s="10" t="n">
+        <v>917</v>
+      </c>
+      <c r="N113" s="9" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="O113" s="8" t="n">
+        <v>195</v>
+      </c>
+      <c r="P113" s="9" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="Q113" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="R113" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="S113" s="8" t="n">
+        <v>497</v>
+      </c>
+      <c r="T113" s="9" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="U113" s="6" t="n">
+        <v>336</v>
+      </c>
+      <c r="V113" s="9" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="W113" s="8" t="n">
+        <v>443</v>
+      </c>
+      <c r="X113" s="9" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="Y113" s="8" t="n">
+        <v>290</v>
+      </c>
+      <c r="Z113" s="9" t="n">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>krain033</t>
+        </is>
+      </c>
+      <c r="C114" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E114" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="8" t="n">
+        <v>641</v>
+      </c>
+      <c r="Z114" s="7" t="n">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>pjincz</t>
+        </is>
+      </c>
+      <c r="C115" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E115" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F115" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H115" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J115" s="9" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L115" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="N115" s="9" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="O115" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P115" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R115" s="9" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="S115" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="T115" s="9" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="U115" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="V115" s="9" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="W115" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="X115" s="9" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="Y115" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z115" s="9" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>sissishiny</t>
+        </is>
+      </c>
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E116" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" s="10" t="n">
+        <v>1727</v>
+      </c>
+      <c r="V116" s="7" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="W116" s="8" t="n">
+        <v>385</v>
+      </c>
+      <c r="X116" s="7" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y116" s="10" t="n">
+        <v>870</v>
+      </c>
+      <c r="Z116" s="7" t="n">
+        <v>70.59999999999999</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>softair</t>
+        </is>
+      </c>
+      <c r="C117" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E117" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" s="10" t="n">
+        <v>781</v>
+      </c>
+      <c r="P117" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q117" s="8" t="n">
+        <v>1262</v>
+      </c>
+      <c r="R117" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="S117" s="8" t="n">
+        <v>617</v>
+      </c>
+      <c r="T117" s="9" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="U117" s="8" t="n">
+        <v>948</v>
+      </c>
+      <c r="V117" s="9" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="W117" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="10" t="n">
+        <v>1332</v>
+      </c>
+      <c r="Z117" s="9" t="n">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>wendyimayday</t>
+        </is>
+      </c>
+      <c r="C118" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E118" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="10" t="n">
+        <v>1089</v>
+      </c>
+      <c r="N118" s="7" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="O118" s="10" t="n">
+        <v>1074</v>
+      </c>
+      <c r="P118" s="7" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="Q118" s="8" t="n">
+        <v>1228</v>
+      </c>
+      <c r="R118" s="7" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="S118" s="10" t="n">
+        <v>721</v>
+      </c>
+      <c r="T118" s="7" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="U118" s="6" t="n">
+        <v>420</v>
+      </c>
+      <c r="V118" s="7" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="W118" s="8" t="n">
+        <v>793</v>
+      </c>
+      <c r="X118" s="7" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="Y118" s="11" t="n">
+        <v>1904</v>
+      </c>
+      <c r="Z118" s="7" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>xfzhao</t>
+        </is>
+      </c>
+      <c r="C119" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E119" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F119" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H119" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="11" t="n">
+        <v>2477</v>
+      </c>
+      <c r="J119" s="9" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="K119" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L119" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="N119" s="9" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="O119" s="10" t="n">
+        <v>587</v>
+      </c>
+      <c r="P119" s="9" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="Q119" s="6" t="n">
+        <v>654</v>
+      </c>
+      <c r="R119" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="S119" s="10" t="n">
+        <v>1297</v>
+      </c>
+      <c r="T119" s="9" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="U119" s="10" t="n">
+        <v>1181</v>
+      </c>
+      <c r="V119" s="9" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="W119" s="10" t="n">
+        <v>1234</v>
+      </c>
+      <c r="X119" s="9" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="Y119" s="11" t="n">
+        <v>2048</v>
+      </c>
+      <c r="Z119" s="9" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>xxnzym</t>
+        </is>
+      </c>
+      <c r="C120" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E120" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="11" t="n">
+        <v>1799</v>
+      </c>
+      <c r="P120" s="7" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="Q120" s="6" t="n">
+        <v>404</v>
+      </c>
+      <c r="R120" s="7" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="S120" s="8" t="n">
+        <v>629</v>
+      </c>
+      <c r="T120" s="7" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="U120" s="10" t="n">
+        <v>1612</v>
+      </c>
+      <c r="V120" s="7" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="W120" s="8" t="n">
+        <v>477</v>
+      </c>
+      <c r="X120" s="7" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="Y120" s="10" t="n">
+        <v>1153</v>
+      </c>
+      <c r="Z120" s="7" t="n">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>yykfight</t>
+        </is>
+      </c>
+      <c r="C121" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E121" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F121" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H121" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="11" t="n">
+        <v>2517</v>
+      </c>
+      <c r="J121" s="9" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K121" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L121" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="10" t="n">
+        <v>1315</v>
+      </c>
+      <c r="N121" s="9" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="O121" s="10" t="n">
+        <v>957</v>
+      </c>
+      <c r="P121" s="9" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="Q121" s="6" t="n">
+        <v>741</v>
+      </c>
+      <c r="R121" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="S121" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T121" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" s="10" t="n">
+        <v>2034</v>
+      </c>
+      <c r="V121" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="W121" s="8" t="n">
+        <v>914</v>
+      </c>
+      <c r="X121" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="Y121" s="10" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z121" s="9" t="n">
+        <v>67.8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G1:H1"/>
@@ -6239,6 +8924,9 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B88:J88"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -6313,6 +9001,40 @@
     <hyperlink ref="B73" r:id="rId70"/>
     <hyperlink ref="B74" r:id="rId71"/>
     <hyperlink ref="B75" r:id="rId72"/>
+    <hyperlink ref="B83" r:id="rId73"/>
+    <hyperlink ref="B84" r:id="rId74"/>
+    <hyperlink ref="B90" r:id="rId75"/>
+    <hyperlink ref="B91" r:id="rId76"/>
+    <hyperlink ref="B92" r:id="rId77"/>
+    <hyperlink ref="B93" r:id="rId78"/>
+    <hyperlink ref="B94" r:id="rId79"/>
+    <hyperlink ref="B95" r:id="rId80"/>
+    <hyperlink ref="B96" r:id="rId81"/>
+    <hyperlink ref="B97" r:id="rId82"/>
+    <hyperlink ref="B98" r:id="rId83"/>
+    <hyperlink ref="B99" r:id="rId84"/>
+    <hyperlink ref="B100" r:id="rId85"/>
+    <hyperlink ref="B101" r:id="rId86"/>
+    <hyperlink ref="B102" r:id="rId87"/>
+    <hyperlink ref="B103" r:id="rId88"/>
+    <hyperlink ref="B104" r:id="rId89"/>
+    <hyperlink ref="B105" r:id="rId90"/>
+    <hyperlink ref="B106" r:id="rId91"/>
+    <hyperlink ref="B107" r:id="rId92"/>
+    <hyperlink ref="B108" r:id="rId93"/>
+    <hyperlink ref="B109" r:id="rId94"/>
+    <hyperlink ref="B110" r:id="rId95"/>
+    <hyperlink ref="B111" r:id="rId96"/>
+    <hyperlink ref="B112" r:id="rId97"/>
+    <hyperlink ref="B113" r:id="rId98"/>
+    <hyperlink ref="B114" r:id="rId99"/>
+    <hyperlink ref="B115" r:id="rId100"/>
+    <hyperlink ref="B116" r:id="rId101"/>
+    <hyperlink ref="B117" r:id="rId102"/>
+    <hyperlink ref="B118" r:id="rId103"/>
+    <hyperlink ref="B119" r:id="rId104"/>
+    <hyperlink ref="B120" r:id="rId105"/>
+    <hyperlink ref="B121" r:id="rId106"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +31,11 @@
     </font>
     <font>
       <sz val="15"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF00FF"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="9">
@@ -88,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -123,6 +128,7 @@
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -422,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z121"/>
+  <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5569,6 +5575,11 @@
       <c r="Z67" s="9" t="n">
         <v>73</v>
       </c>
+      <c r="AA67" s="12" t="inlineStr">
+        <is>
+          <t>单身！</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="n">
@@ -6203,42 +6214,42 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="12" t="inlineStr">
+      <c r="B79" s="13" t="inlineStr">
         <is>
           <t>-1:     absent/zero</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="12" t="inlineStr">
+      <c r="B80" s="13" t="inlineStr">
         <is>
           <t>-2:     not joined</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="12" t="inlineStr">
+      <c r="B81" s="13" t="inlineStr">
         <is>
           <t>-3:     left/quited</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="13" t="inlineStr">
+      <c r="B83" s="14" t="inlineStr">
         <is>
           <t>More about the Rules</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="13" t="inlineStr">
+      <c r="B84" s="14" t="inlineStr">
         <is>
           <t>See the full list of daily problems</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="13" t="inlineStr">
+      <c r="B88" s="14" t="inlineStr">
         <is>
           <t>Graduated or laidoff members in 2019</t>
         </is>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -93,24 +93,53 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -119,18 +148,18 @@
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -600,10 +629,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>wisdompeak</t>
         </is>
@@ -611,70 +640,70 @@
       <c r="C5" s="5" t="n">
         <v>97.8</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>274</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="10" t="n">
         <v>90.8</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>155</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="10" t="n">
         <v>97</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="10" t="n">
         <v>98.7</v>
       </c>
       <c r="K5" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="10" t="n">
         <v>98</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>311</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="10" t="n">
         <v>94</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="9" t="n">
         <v>269</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="P5" s="10" t="n">
         <v>88.8</v>
       </c>
       <c r="Q5" s="6" t="n">
         <v>335</v>
       </c>
-      <c r="R5" s="9" t="n">
+      <c r="R5" s="10" t="n">
         <v>92.3</v>
       </c>
-      <c r="S5" s="8" t="n">
+      <c r="S5" s="9" t="n">
         <v>492</v>
       </c>
-      <c r="T5" s="9" t="n">
+      <c r="T5" s="10" t="n">
         <v>85</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>322</v>
       </c>
-      <c r="V5" s="9" t="n">
+      <c r="V5" s="10" t="n">
         <v>93.40000000000001</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>174</v>
       </c>
-      <c r="X5" s="9" t="n">
+      <c r="X5" s="10" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="Y5" s="8" t="n">
+      <c r="Y5" s="9" t="n">
         <v>429</v>
       </c>
-      <c r="Z5" s="9" t="n">
+      <c r="Z5" s="10" t="n">
         <v>85.40000000000001</v>
       </c>
     </row>
@@ -690,7 +719,7 @@
       <c r="C6" s="5" t="n">
         <v>95.8</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="9" t="n">
         <v>333</v>
       </c>
       <c r="F6" s="7" t="n">
@@ -720,7 +749,7 @@
       <c r="N6" s="7" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="9" t="n">
         <v>239</v>
       </c>
       <c r="P6" s="7" t="n">
@@ -744,7 +773,7 @@
       <c r="V6" s="7" t="n">
         <v>91.2</v>
       </c>
-      <c r="W6" s="8" t="n">
+      <c r="W6" s="9" t="n">
         <v>454</v>
       </c>
       <c r="X6" s="7" t="n">
@@ -758,10 +787,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>yueb95</t>
         </is>
@@ -769,70 +798,70 @@
       <c r="C7" s="5" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="11" t="n">
         <v>1470</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="10" t="n">
         <v>67.2</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="10" t="n">
         <v>98.7</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="9" t="n">
         <v>281</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="10" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="K7" s="6" t="n">
         <v>648</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="10" t="n">
         <v>87.90000000000001</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N7" s="10" t="n">
         <v>99</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="10" t="n">
         <v>97.7</v>
       </c>
       <c r="Q7" s="6" t="n">
         <v>711</v>
       </c>
-      <c r="R7" s="9" t="n">
+      <c r="R7" s="10" t="n">
         <v>83.7</v>
       </c>
-      <c r="S7" s="8" t="n">
+      <c r="S7" s="9" t="n">
         <v>419</v>
       </c>
-      <c r="T7" s="9" t="n">
+      <c r="T7" s="10" t="n">
         <v>86.5</v>
       </c>
-      <c r="U7" s="8" t="n">
+      <c r="U7" s="9" t="n">
         <v>845</v>
       </c>
-      <c r="V7" s="9" t="n">
+      <c r="V7" s="10" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="W7" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8" t="n">
+      <c r="W7" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9" t="n">
         <v>565</v>
       </c>
-      <c r="Z7" s="9" t="n">
+      <c r="Z7" s="10" t="n">
         <v>82.40000000000001</v>
       </c>
     </row>
@@ -848,7 +877,7 @@
       <c r="C8" s="5" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9" t="n">
         <v>196</v>
       </c>
       <c r="F8" s="7" t="n">
@@ -860,7 +889,7 @@
       <c r="H8" s="7" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="9" t="n">
         <v>499</v>
       </c>
       <c r="J8" s="7" t="n">
@@ -872,13 +901,13 @@
       <c r="L8" s="7" t="n">
         <v>88.2</v>
       </c>
-      <c r="M8" s="10" t="n">
+      <c r="M8" s="11" t="n">
         <v>902</v>
       </c>
       <c r="N8" s="7" t="n">
         <v>72.7</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="9" t="n">
         <v>183</v>
       </c>
       <c r="P8" s="7" t="n">
@@ -908,7 +937,7 @@
       <c r="X8" s="7" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="Y8" s="8" t="n">
+      <c r="Y8" s="9" t="n">
         <v>324</v>
       </c>
       <c r="Z8" s="7" t="n">
@@ -916,10 +945,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>IrisGuo</t>
         </is>
@@ -927,70 +956,70 @@
       <c r="C9" s="5" t="n">
         <v>92.5</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9" t="n">
         <v>613</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="10" t="n">
         <v>85.5</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>758</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="10" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="10" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="K9" s="6" t="n">
         <v>269</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="10" t="n">
         <v>95</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="9" t="n">
         <v>418</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="10" t="n">
         <v>87</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="9" t="n">
         <v>149</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="P9" s="10" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="Q9" s="6" t="n">
         <v>142</v>
       </c>
-      <c r="R9" s="9" t="n">
+      <c r="R9" s="10" t="n">
         <v>96.7</v>
       </c>
-      <c r="S9" s="8" t="n">
+      <c r="S9" s="9" t="n">
         <v>637</v>
       </c>
-      <c r="T9" s="9" t="n">
+      <c r="T9" s="10" t="n">
         <v>82</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>154</v>
       </c>
-      <c r="V9" s="9" t="n">
+      <c r="V9" s="10" t="n">
         <v>96.8</v>
       </c>
       <c r="W9" s="6" t="n">
         <v>164</v>
       </c>
-      <c r="X9" s="9" t="n">
+      <c r="X9" s="10" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="Y9" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="Z9" s="9" t="n">
+      <c r="Z9" s="10" t="n">
         <v>97.5</v>
       </c>
     </row>
@@ -1006,7 +1035,7 @@
       <c r="C10" s="5" t="n">
         <v>92.3</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="9" t="n">
         <v>201</v>
       </c>
       <c r="F10" s="7" t="n">
@@ -1018,7 +1047,7 @@
       <c r="H10" s="7" t="n">
         <v>92.7</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="9" t="n">
         <v>1019</v>
       </c>
       <c r="J10" s="7" t="n">
@@ -1030,13 +1059,13 @@
       <c r="L10" s="7" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="M10" s="10" t="n">
+      <c r="M10" s="11" t="n">
         <v>918</v>
       </c>
       <c r="N10" s="7" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="9" t="n">
         <v>437</v>
       </c>
       <c r="P10" s="7" t="n">
@@ -1060,13 +1089,13 @@
       <c r="V10" s="7" t="n">
         <v>95.2</v>
       </c>
-      <c r="W10" s="8" t="n">
+      <c r="W10" s="9" t="n">
         <v>344</v>
       </c>
       <c r="X10" s="7" t="n">
         <v>87.8</v>
       </c>
-      <c r="Y10" s="8" t="n">
+      <c r="Y10" s="9" t="n">
         <v>301</v>
       </c>
       <c r="Z10" s="7" t="n">
@@ -1074,10 +1103,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>zhounaiding</t>
         </is>
@@ -1085,70 +1114,70 @@
       <c r="C11" s="5" t="n">
         <v>92.2</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="9" t="n">
         <v>572</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="10" t="n">
         <v>86.09999999999999</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="10" t="n">
         <v>98.3</v>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="11" t="n">
         <v>1268</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="10" t="n">
         <v>67.8</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>379</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="10" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>321</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="N11" s="10" t="n">
         <v>93.8</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="12" t="n">
         <v>1800</v>
       </c>
-      <c r="P11" s="9" t="n">
+      <c r="P11" s="10" t="n">
         <v>43.5</v>
       </c>
-      <c r="Q11" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z11" s="9" t="n">
+      <c r="Q11" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z11" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1164,7 +1193,7 @@
       <c r="C12" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="9" t="n">
         <v>262</v>
       </c>
       <c r="F12" s="7" t="n">
@@ -1176,7 +1205,7 @@
       <c r="H12" s="7" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="9" t="n">
         <v>104</v>
       </c>
       <c r="J12" s="7" t="n">
@@ -1218,13 +1247,13 @@
       <c r="V12" s="7" t="n">
         <v>96.3</v>
       </c>
-      <c r="W12" s="10" t="n">
+      <c r="W12" s="11" t="n">
         <v>2069</v>
       </c>
       <c r="X12" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="Y12" s="8" t="n">
+      <c r="Y12" s="9" t="n">
         <v>233</v>
       </c>
       <c r="Z12" s="7" t="n">
@@ -1232,10 +1261,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>venico19</t>
         </is>
@@ -1243,70 +1272,70 @@
       <c r="C13" s="5" t="n">
         <v>91.5</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="11" t="n">
         <v>1275</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="10" t="n">
         <v>70.2</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>447</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="10" t="n">
         <v>91.2</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="9" t="n">
         <v>185</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="10" t="n">
         <v>91.8</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>229</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="10" t="n">
         <v>95.7</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="9" t="n">
         <v>637</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="N13" s="10" t="n">
         <v>82.8</v>
       </c>
-      <c r="O13" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z13" s="9" t="n">
+      <c r="O13" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z13" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1322,7 +1351,7 @@
       <c r="C14" s="5" t="n">
         <v>91.2</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="9" t="n">
         <v>1133</v>
       </c>
       <c r="F14" s="7" t="n">
@@ -1334,25 +1363,25 @@
       <c r="H14" s="7" t="n">
         <v>91.2</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="9" t="n">
         <v>219</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>91.2</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="9" t="n">
         <v>1200</v>
       </c>
       <c r="L14" s="7" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="M14" s="10" t="n">
+      <c r="M14" s="11" t="n">
         <v>1232</v>
       </c>
       <c r="N14" s="7" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="9" t="n">
         <v>338</v>
       </c>
       <c r="P14" s="7" t="n">
@@ -1364,19 +1393,19 @@
       <c r="R14" s="7" t="n">
         <v>95.8</v>
       </c>
-      <c r="S14" s="10" t="n">
+      <c r="S14" s="11" t="n">
         <v>740</v>
       </c>
       <c r="T14" s="7" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="U14" s="10" t="n">
+      <c r="U14" s="11" t="n">
         <v>1340</v>
       </c>
       <c r="V14" s="7" t="n">
         <v>62.3</v>
       </c>
-      <c r="W14" s="10" t="n">
+      <c r="W14" s="11" t="n">
         <v>1223</v>
       </c>
       <c r="X14" s="7" t="n">
@@ -1390,10 +1419,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>galiniunan</t>
         </is>
@@ -1401,70 +1430,70 @@
       <c r="C15" s="5" t="n">
         <v>90.59999999999999</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="9" t="n">
         <v>504</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="10" t="n">
         <v>87.2</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>305</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="10" t="n">
         <v>94</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="9" t="n">
         <v>1102</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="10" t="n">
         <v>75.7</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>540</v>
       </c>
-      <c r="L15" s="9" t="n">
+      <c r="L15" s="10" t="n">
         <v>89.90000000000001</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="N15" s="9" t="n">
+      <c r="N15" s="10" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="P15" s="9" t="n">
+      <c r="P15" s="10" t="n">
         <v>97.8</v>
       </c>
       <c r="Q15" s="6" t="n">
         <v>170</v>
       </c>
-      <c r="R15" s="9" t="n">
+      <c r="R15" s="10" t="n">
         <v>96.09999999999999</v>
       </c>
       <c r="S15" s="6" t="n">
         <v>184</v>
       </c>
-      <c r="T15" s="9" t="n">
+      <c r="T15" s="10" t="n">
         <v>96.2</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>345</v>
       </c>
-      <c r="V15" s="9" t="n">
+      <c r="V15" s="10" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="W15" s="8" t="n">
+      <c r="W15" s="9" t="n">
         <v>1023</v>
       </c>
-      <c r="X15" s="9" t="n">
+      <c r="X15" s="10" t="n">
         <v>73.7</v>
       </c>
-      <c r="Y15" s="11" t="n">
+      <c r="Y15" s="12" t="n">
         <v>1455</v>
       </c>
-      <c r="Z15" s="9" t="n">
+      <c r="Z15" s="10" t="n">
         <v>52.5</v>
       </c>
     </row>
@@ -1480,7 +1509,7 @@
       <c r="C16" s="5" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="9" t="n">
         <v>619</v>
       </c>
       <c r="F16" s="7" t="n">
@@ -1492,19 +1521,19 @@
       <c r="H16" s="7" t="n">
         <v>90.59999999999999</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="9" t="n">
         <v>333</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>89.2</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="9" t="n">
         <v>1008</v>
       </c>
       <c r="L16" s="7" t="n">
         <v>76.2</v>
       </c>
-      <c r="M16" s="10" t="n">
+      <c r="M16" s="11" t="n">
         <v>988</v>
       </c>
       <c r="N16" s="7" t="n">
@@ -1522,25 +1551,25 @@
       <c r="R16" s="7" t="n">
         <v>87.8</v>
       </c>
-      <c r="S16" s="10" t="n">
+      <c r="S16" s="11" t="n">
         <v>1092</v>
       </c>
       <c r="T16" s="7" t="n">
         <v>67.7</v>
       </c>
-      <c r="U16" s="8" t="n">
+      <c r="U16" s="9" t="n">
         <v>557</v>
       </c>
       <c r="V16" s="7" t="n">
         <v>83.5</v>
       </c>
-      <c r="W16" s="8" t="n">
+      <c r="W16" s="9" t="n">
         <v>1024</v>
       </c>
       <c r="X16" s="7" t="n">
         <v>73.7</v>
       </c>
-      <c r="Y16" s="10" t="n">
+      <c r="Y16" s="11" t="n">
         <v>730</v>
       </c>
       <c r="Z16" s="7" t="n">
@@ -1548,10 +1577,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>icodingg</t>
         </is>
@@ -1559,70 +1588,70 @@
       <c r="C17" s="5" t="n">
         <v>89.8</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="9" t="n">
         <v>468</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="10" t="n">
         <v>87.7</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>409</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="10" t="n">
         <v>92</v>
       </c>
-      <c r="I17" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8" t="n">
+      <c r="I17" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
         <v>1521</v>
       </c>
-      <c r="L17" s="9" t="n">
+      <c r="L17" s="10" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="9" t="n">
         <v>672</v>
       </c>
-      <c r="N17" s="9" t="n">
+      <c r="N17" s="10" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c r="O17" s="10" t="n">
+      <c r="O17" s="11" t="n">
         <v>944</v>
       </c>
-      <c r="P17" s="9" t="n">
+      <c r="P17" s="10" t="n">
         <v>68.2</v>
       </c>
-      <c r="Q17" s="10" t="n">
+      <c r="Q17" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="R17" s="9" t="n">
+      <c r="R17" s="10" t="n">
         <v>53.2</v>
       </c>
-      <c r="S17" s="10" t="n">
+      <c r="S17" s="11" t="n">
         <v>897</v>
       </c>
-      <c r="T17" s="9" t="n">
+      <c r="T17" s="10" t="n">
         <v>71.7</v>
       </c>
-      <c r="U17" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8" t="n">
+      <c r="U17" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9" t="n">
         <v>451</v>
       </c>
-      <c r="X17" s="9" t="n">
+      <c r="X17" s="10" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="Y17" s="10" t="n">
+      <c r="Y17" s="11" t="n">
         <v>1272</v>
       </c>
-      <c r="Z17" s="9" t="n">
+      <c r="Z17" s="10" t="n">
         <v>61.6</v>
       </c>
     </row>
@@ -1650,7 +1679,7 @@
       <c r="H18" s="7" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="9" t="n">
         <v>112</v>
       </c>
       <c r="J18" s="7" t="n">
@@ -1680,7 +1709,7 @@
       <c r="R18" s="7" t="n">
         <v>95.5</v>
       </c>
-      <c r="S18" s="8" t="n">
+      <c r="S18" s="9" t="n">
         <v>250</v>
       </c>
       <c r="T18" s="7" t="n">
@@ -1698,7 +1727,7 @@
       <c r="X18" s="7" t="n">
         <v>97.3</v>
       </c>
-      <c r="Y18" s="8" t="n">
+      <c r="Y18" s="9" t="n">
         <v>514</v>
       </c>
       <c r="Z18" s="7" t="n">
@@ -1706,10 +1735,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>Coder35</t>
         </is>
@@ -1717,70 +1746,70 @@
       <c r="C19" s="5" t="n">
         <v>89.2</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="9" t="n">
         <v>371</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="10" t="n">
         <v>89.3</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>549</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="10" t="n">
         <v>89.2</v>
       </c>
-      <c r="I19" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J19" s="9" t="n">
+      <c r="I19" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="6" t="n">
         <v>180</v>
       </c>
-      <c r="L19" s="9" t="n">
+      <c r="L19" s="10" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="M19" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10" t="n">
+      <c r="M19" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11" t="n">
         <v>540</v>
       </c>
-      <c r="P19" s="9" t="n">
+      <c r="P19" s="10" t="n">
         <v>77.5</v>
       </c>
-      <c r="Q19" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R19" s="9" t="n">
+      <c r="Q19" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="10" t="n">
         <v>0</v>
       </c>
       <c r="S19" s="6" t="n">
         <v>218</v>
       </c>
-      <c r="T19" s="9" t="n">
+      <c r="T19" s="10" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="U19" s="8" t="n">
+      <c r="U19" s="9" t="n">
         <v>581</v>
       </c>
-      <c r="V19" s="9" t="n">
+      <c r="V19" s="10" t="n">
         <v>83</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>127</v>
       </c>
-      <c r="X19" s="9" t="n">
+      <c r="X19" s="10" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="Y19" s="8" t="n">
+      <c r="Y19" s="9" t="n">
         <v>251</v>
       </c>
-      <c r="Z19" s="9" t="n">
+      <c r="Z19" s="10" t="n">
         <v>89.40000000000001</v>
       </c>
     </row>
@@ -1796,7 +1825,7 @@
       <c r="C20" s="5" t="n">
         <v>88.5</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="11" t="n">
         <v>1494</v>
       </c>
       <c r="F20" s="7" t="n">
@@ -1808,19 +1837,19 @@
       <c r="H20" s="7" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="9" t="n">
         <v>310</v>
       </c>
       <c r="J20" s="7" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="K20" s="8" t="n">
+      <c r="K20" s="9" t="n">
         <v>1480</v>
       </c>
       <c r="L20" s="7" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="M20" s="8" t="n">
+      <c r="M20" s="9" t="n">
         <v>649</v>
       </c>
       <c r="N20" s="7" t="n">
@@ -1838,7 +1867,7 @@
       <c r="R20" s="7" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="S20" s="8" t="n">
+      <c r="S20" s="9" t="n">
         <v>488</v>
       </c>
       <c r="T20" s="7" t="n">
@@ -1850,13 +1879,13 @@
       <c r="V20" s="7" t="n">
         <v>93</v>
       </c>
-      <c r="W20" s="8" t="n">
+      <c r="W20" s="9" t="n">
         <v>345</v>
       </c>
       <c r="X20" s="7" t="n">
         <v>87.8</v>
       </c>
-      <c r="Y20" s="10" t="n">
+      <c r="Y20" s="11" t="n">
         <v>1266</v>
       </c>
       <c r="Z20" s="7" t="n">
@@ -1864,10 +1893,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Spencial</t>
         </is>
@@ -1875,70 +1904,70 @@
       <c r="C21" s="5" t="n">
         <v>87.8</v>
       </c>
-      <c r="E21" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="9" t="n">
+      <c r="E21" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="10" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>708</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="10" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="9" t="n">
         <v>320</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="10" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="K21" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10" t="n">
+      <c r="K21" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11" t="n">
         <v>1473</v>
       </c>
-      <c r="N21" s="9" t="n">
+      <c r="N21" s="10" t="n">
         <v>61.8</v>
       </c>
-      <c r="O21" s="10" t="n">
+      <c r="O21" s="11" t="n">
         <v>804</v>
       </c>
-      <c r="P21" s="9" t="n">
+      <c r="P21" s="10" t="n">
         <v>71.5</v>
       </c>
-      <c r="Q21" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z21" s="9" t="n">
+      <c r="Q21" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z21" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,7 +1983,7 @@
       <c r="C22" s="5" t="n">
         <v>87.2</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="9" t="n">
         <v>623</v>
       </c>
       <c r="F22" s="7" t="n">
@@ -1966,19 +1995,19 @@
       <c r="H22" s="7" t="n">
         <v>89</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="11" t="n">
         <v>1383</v>
       </c>
       <c r="J22" s="7" t="n">
         <v>65.8</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="9" t="n">
         <v>1057</v>
       </c>
       <c r="L22" s="7" t="n">
         <v>75.3</v>
       </c>
-      <c r="M22" s="10" t="n">
+      <c r="M22" s="11" t="n">
         <v>1132</v>
       </c>
       <c r="N22" s="7" t="n">
@@ -1996,25 +2025,25 @@
       <c r="R22" s="7" t="n">
         <v>85.5</v>
       </c>
-      <c r="S22" s="8" t="n">
+      <c r="S22" s="9" t="n">
         <v>276</v>
       </c>
       <c r="T22" s="7" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="U22" s="11" t="n">
+      <c r="U22" s="12" t="n">
         <v>2350</v>
       </c>
       <c r="V22" s="7" t="n">
         <v>36.5</v>
       </c>
-      <c r="W22" s="8" t="n">
+      <c r="W22" s="9" t="n">
         <v>509</v>
       </c>
       <c r="X22" s="7" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="Y22" s="8" t="n">
+      <c r="Y22" s="9" t="n">
         <v>394</v>
       </c>
       <c r="Z22" s="7" t="n">
@@ -2022,10 +2051,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>ws1255</t>
         </is>
@@ -2033,70 +2062,70 @@
       <c r="C23" s="5" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="9" t="n">
         <v>748</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="10" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>467</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="10" t="n">
         <v>90.8</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="9" t="n">
         <v>869</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="10" t="n">
         <v>79.8</v>
       </c>
-      <c r="K23" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10" t="n">
+      <c r="K23" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11" t="n">
         <v>1238</v>
       </c>
-      <c r="N23" s="9" t="n">
+      <c r="N23" s="10" t="n">
         <v>66.3</v>
       </c>
-      <c r="O23" s="10" t="n">
+      <c r="O23" s="11" t="n">
         <v>983</v>
       </c>
-      <c r="P23" s="9" t="n">
+      <c r="P23" s="10" t="n">
         <v>67.3</v>
       </c>
-      <c r="Q23" s="10" t="n">
+      <c r="Q23" s="11" t="n">
         <v>1713</v>
       </c>
-      <c r="R23" s="9" t="n">
+      <c r="R23" s="10" t="n">
         <v>50.6</v>
       </c>
-      <c r="S23" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8" t="n">
+      <c r="S23" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9" t="n">
         <v>935</v>
       </c>
-      <c r="V23" s="9" t="n">
+      <c r="V23" s="10" t="n">
         <v>75.7</v>
       </c>
-      <c r="W23" s="8" t="n">
+      <c r="W23" s="9" t="n">
         <v>410</v>
       </c>
-      <c r="X23" s="9" t="n">
+      <c r="X23" s="10" t="n">
         <v>86.5</v>
       </c>
-      <c r="Y23" s="11" t="n">
+      <c r="Y23" s="12" t="n">
         <v>1421</v>
       </c>
-      <c r="Z23" s="9" t="n">
+      <c r="Z23" s="10" t="n">
         <v>53.3</v>
       </c>
     </row>
@@ -2124,7 +2153,7 @@
       <c r="H24" s="7" t="n">
         <v>91.3</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="9" t="n">
         <v>773</v>
       </c>
       <c r="J24" s="7" t="n">
@@ -2136,7 +2165,7 @@
       <c r="L24" s="7" t="n">
         <v>95.8</v>
       </c>
-      <c r="M24" s="10" t="n">
+      <c r="M24" s="11" t="n">
         <v>1256</v>
       </c>
       <c r="N24" s="7" t="n">
@@ -2148,13 +2177,13 @@
       <c r="P24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" s="10" t="n">
+      <c r="Q24" s="11" t="n">
         <v>1344</v>
       </c>
       <c r="R24" s="7" t="n">
         <v>59.1</v>
       </c>
-      <c r="S24" s="8" t="n">
+      <c r="S24" s="9" t="n">
         <v>541</v>
       </c>
       <c r="T24" s="7" t="n">
@@ -2180,10 +2209,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>dennanisny</t>
         </is>
@@ -2191,70 +2220,70 @@
       <c r="C25" s="5" t="n">
         <v>86.2</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="9" t="n">
         <v>577</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="10" t="n">
         <v>86.09999999999999</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>695</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="10" t="n">
         <v>86.3</v>
       </c>
-      <c r="I25" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J25" s="9" t="n">
+      <c r="I25" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K25" s="6" t="n">
         <v>614</v>
       </c>
-      <c r="L25" s="9" t="n">
+      <c r="L25" s="10" t="n">
         <v>88.5</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>324</v>
       </c>
-      <c r="N25" s="9" t="n">
+      <c r="N25" s="10" t="n">
         <v>93.8</v>
       </c>
-      <c r="O25" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8" t="n">
+      <c r="O25" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9" t="n">
         <v>1060</v>
       </c>
-      <c r="R25" s="9" t="n">
+      <c r="R25" s="10" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="S25" s="10" t="n">
+      <c r="S25" s="11" t="n">
         <v>790</v>
       </c>
-      <c r="T25" s="9" t="n">
+      <c r="T25" s="10" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="U25" s="10" t="n">
+      <c r="U25" s="11" t="n">
         <v>2069</v>
       </c>
-      <c r="V25" s="9" t="n">
+      <c r="V25" s="10" t="n">
         <v>47.3</v>
       </c>
-      <c r="W25" s="8" t="n">
+      <c r="W25" s="9" t="n">
         <v>1043</v>
       </c>
-      <c r="X25" s="9" t="n">
+      <c r="X25" s="10" t="n">
         <v>73.3</v>
       </c>
-      <c r="Y25" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z25" s="9" t="n">
+      <c r="Y25" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z25" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2270,7 +2299,7 @@
       <c r="C26" s="5" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="9" t="n">
         <v>919</v>
       </c>
       <c r="F26" s="7" t="n">
@@ -2282,7 +2311,7 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="9" t="n">
         <v>204</v>
       </c>
       <c r="J26" s="7" t="n">
@@ -2294,13 +2323,13 @@
       <c r="L26" s="7" t="n">
         <v>88</v>
       </c>
-      <c r="M26" s="10" t="n">
+      <c r="M26" s="11" t="n">
         <v>927</v>
       </c>
       <c r="N26" s="7" t="n">
         <v>72.2</v>
       </c>
-      <c r="O26" s="11" t="n">
+      <c r="O26" s="12" t="n">
         <v>1623</v>
       </c>
       <c r="P26" s="7" t="n">
@@ -2330,7 +2359,7 @@
       <c r="X26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Y26" s="8" t="n">
+      <c r="Y26" s="9" t="n">
         <v>641</v>
       </c>
       <c r="Z26" s="7" t="n">
@@ -2338,10 +2367,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>Dengxj</t>
         </is>
@@ -2349,70 +2378,70 @@
       <c r="C27" s="5" t="n">
         <v>85.8</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="9" t="n">
         <v>642</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="10" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>754</v>
       </c>
-      <c r="H27" s="9" t="n">
+      <c r="H27" s="10" t="n">
         <v>85.2</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="9" t="n">
         <v>498</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="10" t="n">
         <v>86.3</v>
       </c>
-      <c r="K27" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z27" s="9" t="n">
+      <c r="K27" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z27" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2428,7 +2457,7 @@
       <c r="C28" s="5" t="n">
         <v>84.2</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="9" t="n">
         <v>1053</v>
       </c>
       <c r="F28" s="7" t="n">
@@ -2452,43 +2481,43 @@
       <c r="L28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="8" t="n">
+      <c r="M28" s="9" t="n">
         <v>426</v>
       </c>
       <c r="N28" s="7" t="n">
         <v>86.8</v>
       </c>
-      <c r="O28" s="8" t="n">
+      <c r="O28" s="9" t="n">
         <v>170</v>
       </c>
       <c r="P28" s="7" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="Q28" s="10" t="n">
+      <c r="Q28" s="11" t="n">
         <v>1525</v>
       </c>
       <c r="R28" s="7" t="n">
         <v>55</v>
       </c>
-      <c r="S28" s="11" t="n">
+      <c r="S28" s="12" t="n">
         <v>1573</v>
       </c>
       <c r="T28" s="7" t="n">
         <v>52.9</v>
       </c>
-      <c r="U28" s="10" t="n">
+      <c r="U28" s="11" t="n">
         <v>1127</v>
       </c>
       <c r="V28" s="7" t="n">
         <v>66.7</v>
       </c>
-      <c r="W28" s="8" t="n">
+      <c r="W28" s="9" t="n">
         <v>350</v>
       </c>
       <c r="X28" s="7" t="n">
         <v>87.7</v>
       </c>
-      <c r="Y28" s="10" t="n">
+      <c r="Y28" s="11" t="n">
         <v>901</v>
       </c>
       <c r="Z28" s="7" t="n">
@@ -2496,10 +2525,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>FrankYao</t>
         </is>
@@ -2507,70 +2536,70 @@
       <c r="C29" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="9" t="n">
         <v>366</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="10" t="n">
         <v>89.3</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>1081</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="10" t="n">
         <v>78.8</v>
       </c>
-      <c r="I29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z29" s="9" t="n">
+      <c r="I29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z29" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2586,7 +2615,7 @@
       <c r="C30" s="5" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="E30" s="11" t="n">
         <v>1599</v>
       </c>
       <c r="F30" s="7" t="n">
@@ -2598,7 +2627,7 @@
       <c r="H30" s="7" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30" s="9" t="n">
         <v>1041</v>
       </c>
       <c r="J30" s="7" t="n">
@@ -2610,7 +2639,7 @@
       <c r="L30" s="7" t="n">
         <v>92.5</v>
       </c>
-      <c r="M30" s="10" t="n">
+      <c r="M30" s="11" t="n">
         <v>1124</v>
       </c>
       <c r="N30" s="7" t="n">
@@ -2654,10 +2683,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Ansonluo1</t>
         </is>
@@ -2665,70 +2694,70 @@
       <c r="C31" s="5" t="n">
         <v>83.2</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="9" t="n">
         <v>858</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="10" t="n">
         <v>81.7</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="9" t="n">
         <v>1928</v>
       </c>
-      <c r="H31" s="9" t="n">
+      <c r="H31" s="10" t="n">
         <v>57.1</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="9" t="n">
         <v>596</v>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J31" s="10" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="K31" s="8" t="n">
+      <c r="K31" s="9" t="n">
         <v>1778</v>
       </c>
-      <c r="L31" s="9" t="n">
+      <c r="L31" s="10" t="n">
         <v>61.8</v>
       </c>
-      <c r="M31" s="10" t="n">
+      <c r="M31" s="11" t="n">
         <v>1133</v>
       </c>
-      <c r="N31" s="9" t="n">
+      <c r="N31" s="10" t="n">
         <v>68.3</v>
       </c>
-      <c r="O31" s="11" t="n">
+      <c r="O31" s="12" t="n">
         <v>1353</v>
       </c>
-      <c r="P31" s="9" t="n">
+      <c r="P31" s="10" t="n">
         <v>53.8</v>
       </c>
-      <c r="Q31" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="10" t="n">
+      <c r="Q31" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="11" t="n">
         <v>769</v>
       </c>
-      <c r="T31" s="9" t="n">
+      <c r="T31" s="10" t="n">
         <v>74.3</v>
       </c>
-      <c r="U31" s="10" t="n">
+      <c r="U31" s="11" t="n">
         <v>1622</v>
       </c>
-      <c r="V31" s="9" t="n">
+      <c r="V31" s="10" t="n">
         <v>56.5</v>
       </c>
-      <c r="W31" s="8" t="n">
+      <c r="W31" s="9" t="n">
         <v>556</v>
       </c>
-      <c r="X31" s="9" t="n">
+      <c r="X31" s="10" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="Y31" s="11" t="n">
+      <c r="Y31" s="12" t="n">
         <v>1799</v>
       </c>
-      <c r="Z31" s="9" t="n">
+      <c r="Z31" s="10" t="n">
         <v>44.9</v>
       </c>
     </row>
@@ -2744,7 +2773,7 @@
       <c r="C32" s="5" t="n">
         <v>81.7</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="11" t="n">
         <v>1291</v>
       </c>
       <c r="F32" s="7" t="n">
@@ -2756,7 +2785,7 @@
       <c r="H32" s="7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="I32" s="8" t="n">
+      <c r="I32" s="9" t="n">
         <v>864</v>
       </c>
       <c r="J32" s="7" t="n">
@@ -2768,7 +2797,7 @@
       <c r="L32" s="7" t="n">
         <v>93.7</v>
       </c>
-      <c r="M32" s="8" t="n">
+      <c r="M32" s="9" t="n">
         <v>742</v>
       </c>
       <c r="N32" s="7" t="n">
@@ -2812,10 +2841,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>keyupeter</t>
         </is>
@@ -2823,70 +2852,70 @@
       <c r="C33" s="5" t="n">
         <v>81.5</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="11" t="n">
         <v>2075</v>
       </c>
-      <c r="F33" s="9" t="n">
+      <c r="F33" s="10" t="n">
         <v>57.9</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33" s="9" t="n">
         <v>1549</v>
       </c>
-      <c r="H33" s="9" t="n">
+      <c r="H33" s="10" t="n">
         <v>64.59999999999999</v>
       </c>
       <c r="I33" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="J33" s="9" t="n">
+      <c r="J33" s="10" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="K33" s="10" t="n">
+      <c r="K33" s="11" t="n">
         <v>2276</v>
       </c>
-      <c r="L33" s="9" t="n">
+      <c r="L33" s="10" t="n">
         <v>47.5</v>
       </c>
-      <c r="M33" s="10" t="n">
+      <c r="M33" s="11" t="n">
         <v>1899</v>
       </c>
-      <c r="N33" s="9" t="n">
+      <c r="N33" s="10" t="n">
         <v>53.6</v>
       </c>
-      <c r="O33" s="11" t="n">
+      <c r="O33" s="12" t="n">
         <v>1347</v>
       </c>
-      <c r="P33" s="9" t="n">
+      <c r="P33" s="10" t="n">
         <v>53.9</v>
       </c>
-      <c r="Q33" s="10" t="n">
+      <c r="Q33" s="11" t="n">
         <v>1877</v>
       </c>
-      <c r="R33" s="9" t="n">
+      <c r="R33" s="10" t="n">
         <v>46.9</v>
       </c>
-      <c r="S33" s="11" t="n">
+      <c r="S33" s="12" t="n">
         <v>1900</v>
       </c>
-      <c r="T33" s="9" t="n">
+      <c r="T33" s="10" t="n">
         <v>46.3</v>
       </c>
-      <c r="U33" s="10" t="n">
+      <c r="U33" s="11" t="n">
         <v>1414</v>
       </c>
-      <c r="V33" s="9" t="n">
+      <c r="V33" s="10" t="n">
         <v>60.8</v>
       </c>
-      <c r="W33" s="8" t="n">
+      <c r="W33" s="9" t="n">
         <v>510</v>
       </c>
-      <c r="X33" s="9" t="n">
+      <c r="X33" s="10" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="Y33" s="11" t="n">
+      <c r="Y33" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="Z33" s="9" t="n">
+      <c r="Z33" s="10" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2902,7 +2931,7 @@
       <c r="C34" s="5" t="n">
         <v>80.8</v>
       </c>
-      <c r="E34" s="10" t="n">
+      <c r="E34" s="11" t="n">
         <v>1304</v>
       </c>
       <c r="F34" s="7" t="n">
@@ -2914,25 +2943,25 @@
       <c r="H34" s="7" t="n">
         <v>76.2</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="9" t="n">
         <v>556</v>
       </c>
       <c r="J34" s="7" t="n">
         <v>85.3</v>
       </c>
-      <c r="K34" s="8" t="n">
+      <c r="K34" s="9" t="n">
         <v>981</v>
       </c>
       <c r="L34" s="7" t="n">
         <v>76.7</v>
       </c>
-      <c r="M34" s="8" t="n">
+      <c r="M34" s="9" t="n">
         <v>773</v>
       </c>
       <c r="N34" s="7" t="n">
         <v>80.2</v>
       </c>
-      <c r="O34" s="10" t="n">
+      <c r="O34" s="11" t="n">
         <v>519</v>
       </c>
       <c r="P34" s="7" t="n">
@@ -2970,10 +2999,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>lulinzhang1124</t>
         </is>
@@ -2981,70 +3010,70 @@
       <c r="C35" s="5" t="n">
         <v>80.5</v>
       </c>
-      <c r="E35" s="8" t="n">
+      <c r="E35" s="9" t="n">
         <v>899</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="10" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>1020</v>
       </c>
-      <c r="H35" s="9" t="n">
+      <c r="H35" s="10" t="n">
         <v>80</v>
       </c>
-      <c r="I35" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10" t="n">
+      <c r="I35" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11" t="n">
         <v>1305</v>
       </c>
-      <c r="N35" s="9" t="n">
+      <c r="N35" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="O35" s="10" t="n">
+      <c r="O35" s="11" t="n">
         <v>1046</v>
       </c>
-      <c r="P35" s="9" t="n">
+      <c r="P35" s="10" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="Q35" s="11" t="n">
+      <c r="Q35" s="12" t="n">
         <v>2267</v>
       </c>
-      <c r="R35" s="9" t="n">
+      <c r="R35" s="10" t="n">
         <v>32.9</v>
       </c>
-      <c r="S35" s="11" t="n">
+      <c r="S35" s="12" t="n">
         <v>1917</v>
       </c>
-      <c r="T35" s="9" t="n">
+      <c r="T35" s="10" t="n">
         <v>45.9</v>
       </c>
-      <c r="U35" s="10" t="n">
+      <c r="U35" s="11" t="n">
         <v>1309</v>
       </c>
-      <c r="V35" s="9" t="n">
+      <c r="V35" s="10" t="n">
         <v>63</v>
       </c>
-      <c r="W35" s="10" t="n">
+      <c r="W35" s="11" t="n">
         <v>2067</v>
       </c>
-      <c r="X35" s="9" t="n">
+      <c r="X35" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="Y35" s="11" t="n">
+      <c r="Y35" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="Z35" s="9" t="n">
+      <c r="Z35" s="10" t="n">
         <v>40.1</v>
       </c>
     </row>
@@ -3060,19 +3089,19 @@
       <c r="C36" s="5" t="n">
         <v>79.5</v>
       </c>
-      <c r="E36" s="8" t="n">
+      <c r="E36" s="9" t="n">
         <v>728</v>
       </c>
       <c r="F36" s="7" t="n">
         <v>83.7</v>
       </c>
-      <c r="G36" s="10" t="n">
+      <c r="G36" s="11" t="n">
         <v>2405</v>
       </c>
       <c r="H36" s="7" t="n">
         <v>42.7</v>
       </c>
-      <c r="I36" s="8" t="n">
+      <c r="I36" s="9" t="n">
         <v>1131</v>
       </c>
       <c r="J36" s="7" t="n">
@@ -3128,10 +3157,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>whe_bupt</t>
         </is>
@@ -3139,70 +3168,70 @@
       <c r="C37" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="E37" s="10" t="n">
+      <c r="E37" s="11" t="n">
         <v>1511</v>
       </c>
-      <c r="F37" s="9" t="n">
+      <c r="F37" s="10" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="9" t="n">
         <v>1919</v>
       </c>
-      <c r="H37" s="9" t="n">
+      <c r="H37" s="10" t="n">
         <v>57.3</v>
       </c>
-      <c r="I37" s="8" t="n">
+      <c r="I37" s="9" t="n">
         <v>198</v>
       </c>
-      <c r="J37" s="9" t="n">
+      <c r="J37" s="10" t="n">
         <v>91.5</v>
       </c>
-      <c r="K37" s="8" t="n">
+      <c r="K37" s="9" t="n">
         <v>1215</v>
       </c>
-      <c r="L37" s="9" t="n">
+      <c r="L37" s="10" t="n">
         <v>72.3</v>
       </c>
-      <c r="M37" s="11" t="n">
+      <c r="M37" s="12" t="n">
         <v>1988</v>
       </c>
-      <c r="N37" s="9" t="n">
+      <c r="N37" s="10" t="n">
         <v>46.9</v>
       </c>
-      <c r="O37" s="10" t="n">
+      <c r="O37" s="11" t="n">
         <v>555</v>
       </c>
-      <c r="P37" s="9" t="n">
+      <c r="P37" s="10" t="n">
         <v>77.2</v>
       </c>
-      <c r="Q37" s="11" t="n">
+      <c r="Q37" s="12" t="n">
         <v>2045</v>
       </c>
-      <c r="R37" s="9" t="n">
+      <c r="R37" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="S37" s="8" t="n">
+      <c r="S37" s="9" t="n">
         <v>625</v>
       </c>
-      <c r="T37" s="9" t="n">
+      <c r="T37" s="10" t="n">
         <v>82.3</v>
       </c>
-      <c r="U37" s="10" t="n">
+      <c r="U37" s="11" t="n">
         <v>1971</v>
       </c>
-      <c r="V37" s="9" t="n">
+      <c r="V37" s="10" t="n">
         <v>49.3</v>
       </c>
-      <c r="W37" s="8" t="n">
+      <c r="W37" s="9" t="n">
         <v>886</v>
       </c>
-      <c r="X37" s="9" t="n">
+      <c r="X37" s="10" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="Y37" s="10" t="n">
+      <c r="Y37" s="11" t="n">
         <v>952</v>
       </c>
-      <c r="Z37" s="9" t="n">
+      <c r="Z37" s="10" t="n">
         <v>68.8</v>
       </c>
     </row>
@@ -3218,7 +3247,7 @@
       <c r="C38" s="5" t="n">
         <v>78.5</v>
       </c>
-      <c r="E38" s="8" t="n">
+      <c r="E38" s="9" t="n">
         <v>996</v>
       </c>
       <c r="F38" s="7" t="n">
@@ -3230,55 +3259,55 @@
       <c r="H38" s="7" t="n">
         <v>77.5</v>
       </c>
-      <c r="I38" s="10" t="n">
+      <c r="I38" s="11" t="n">
         <v>1821</v>
       </c>
       <c r="J38" s="7" t="n">
         <v>58.1</v>
       </c>
-      <c r="K38" s="8" t="n">
+      <c r="K38" s="9" t="n">
         <v>1128</v>
       </c>
       <c r="L38" s="7" t="n">
         <v>74</v>
       </c>
-      <c r="M38" s="10" t="n">
+      <c r="M38" s="11" t="n">
         <v>1080</v>
       </c>
       <c r="N38" s="7" t="n">
         <v>69.3</v>
       </c>
-      <c r="O38" s="10" t="n">
+      <c r="O38" s="11" t="n">
         <v>920</v>
       </c>
       <c r="P38" s="7" t="n">
         <v>68.8</v>
       </c>
-      <c r="Q38" s="10" t="n">
+      <c r="Q38" s="11" t="n">
         <v>1473</v>
       </c>
       <c r="R38" s="7" t="n">
         <v>56.2</v>
       </c>
-      <c r="S38" s="11" t="n">
+      <c r="S38" s="12" t="n">
         <v>1754</v>
       </c>
       <c r="T38" s="7" t="n">
         <v>49.2</v>
       </c>
-      <c r="U38" s="8" t="n">
+      <c r="U38" s="9" t="n">
         <v>959</v>
       </c>
       <c r="V38" s="7" t="n">
         <v>75.2</v>
       </c>
-      <c r="W38" s="8" t="n">
+      <c r="W38" s="9" t="n">
         <v>975</v>
       </c>
       <c r="X38" s="7" t="n">
         <v>74.7</v>
       </c>
-      <c r="Y38" s="10" t="n">
+      <c r="Y38" s="11" t="n">
         <v>1133</v>
       </c>
       <c r="Z38" s="7" t="n">
@@ -3286,10 +3315,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>sukeyzhou</t>
         </is>
@@ -3297,70 +3326,70 @@
       <c r="C39" s="5" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="E39" s="8" t="n">
+      <c r="E39" s="9" t="n">
         <v>1156</v>
       </c>
-      <c r="F39" s="9" t="n">
+      <c r="F39" s="10" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="G39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z39" s="9" t="n">
+      <c r="G39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z39" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3376,31 +3405,31 @@
       <c r="C40" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="11" t="n">
         <v>1949</v>
       </c>
       <c r="F40" s="7" t="n">
         <v>59.8</v>
       </c>
-      <c r="G40" s="8" t="n">
+      <c r="G40" s="9" t="n">
         <v>1486</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>65.8</v>
       </c>
-      <c r="I40" s="10" t="n">
+      <c r="I40" s="11" t="n">
         <v>96</v>
       </c>
       <c r="J40" s="7" t="n">
         <v>88.3</v>
       </c>
-      <c r="K40" s="11" t="n">
+      <c r="K40" s="12" t="n">
         <v>2698</v>
       </c>
       <c r="L40" s="7" t="n">
         <v>34.7</v>
       </c>
-      <c r="M40" s="8" t="n">
+      <c r="M40" s="9" t="n">
         <v>510</v>
       </c>
       <c r="N40" s="7" t="n">
@@ -3412,7 +3441,7 @@
       <c r="P40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q40" s="10" t="n">
+      <c r="Q40" s="11" t="n">
         <v>1458</v>
       </c>
       <c r="R40" s="7" t="n">
@@ -3424,13 +3453,13 @@
       <c r="T40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U40" s="8" t="n">
+      <c r="U40" s="9" t="n">
         <v>817</v>
       </c>
       <c r="V40" s="7" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="W40" s="8" t="n">
+      <c r="W40" s="9" t="n">
         <v>958</v>
       </c>
       <c r="X40" s="7" t="n">
@@ -3444,10 +3473,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>XingxingHuang</t>
         </is>
@@ -3455,70 +3484,70 @@
       <c r="C41" s="5" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="E41" s="8" t="n">
+      <c r="E41" s="9" t="n">
         <v>234</v>
       </c>
-      <c r="F41" s="9" t="n">
+      <c r="F41" s="10" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="G41" s="8" t="n">
+      <c r="G41" s="9" t="n">
         <v>1694</v>
       </c>
-      <c r="H41" s="9" t="n">
+      <c r="H41" s="10" t="n">
         <v>61.7</v>
       </c>
-      <c r="I41" s="10" t="n">
+      <c r="I41" s="11" t="n">
         <v>2313</v>
       </c>
-      <c r="J41" s="9" t="n">
+      <c r="J41" s="10" t="n">
         <v>49.5</v>
       </c>
-      <c r="K41" s="8" t="n">
+      <c r="K41" s="9" t="n">
         <v>657</v>
       </c>
-      <c r="L41" s="9" t="n">
+      <c r="L41" s="10" t="n">
         <v>82.7</v>
       </c>
-      <c r="M41" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="10" t="n">
+      <c r="M41" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="11" t="n">
         <v>1207</v>
       </c>
-      <c r="P41" s="9" t="n">
+      <c r="P41" s="10" t="n">
         <v>62.2</v>
       </c>
       <c r="Q41" s="6" t="n">
         <v>494</v>
       </c>
-      <c r="R41" s="9" t="n">
+      <c r="R41" s="10" t="n">
         <v>88.7</v>
       </c>
-      <c r="S41" s="8" t="n">
+      <c r="S41" s="9" t="n">
         <v>561</v>
       </c>
-      <c r="T41" s="9" t="n">
+      <c r="T41" s="10" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>397</v>
       </c>
-      <c r="V41" s="9" t="n">
+      <c r="V41" s="10" t="n">
         <v>91.8</v>
       </c>
-      <c r="W41" s="11" t="n">
+      <c r="W41" s="12" t="n">
         <v>2384</v>
       </c>
-      <c r="X41" s="9" t="n">
+      <c r="X41" s="10" t="n">
         <v>35.4</v>
       </c>
-      <c r="Y41" s="8" t="n">
+      <c r="Y41" s="9" t="n">
         <v>612</v>
       </c>
-      <c r="Z41" s="9" t="n">
+      <c r="Z41" s="10" t="n">
         <v>81.40000000000001</v>
       </c>
     </row>
@@ -3534,7 +3563,7 @@
       <c r="C42" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="E42" s="10" t="n">
+      <c r="E42" s="11" t="n">
         <v>1916</v>
       </c>
       <c r="F42" s="7" t="n">
@@ -3546,13 +3575,13 @@
       <c r="H42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="8" t="n">
+      <c r="I42" s="9" t="n">
         <v>182</v>
       </c>
       <c r="J42" s="7" t="n">
         <v>91.8</v>
       </c>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="9" t="n">
         <v>1319</v>
       </c>
       <c r="L42" s="7" t="n">
@@ -3564,7 +3593,7 @@
       <c r="N42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O42" s="11" t="n">
+      <c r="O42" s="12" t="n">
         <v>1903</v>
       </c>
       <c r="P42" s="7" t="n">
@@ -3576,7 +3605,7 @@
       <c r="R42" s="7" t="n">
         <v>81.8</v>
       </c>
-      <c r="S42" s="10" t="n">
+      <c r="S42" s="11" t="n">
         <v>789</v>
       </c>
       <c r="T42" s="7" t="n">
@@ -3588,13 +3617,13 @@
       <c r="V42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W42" s="10" t="n">
+      <c r="W42" s="11" t="n">
         <v>1642</v>
       </c>
       <c r="X42" s="7" t="n">
         <v>55.9</v>
       </c>
-      <c r="Y42" s="11" t="n">
+      <c r="Y42" s="12" t="n">
         <v>2157</v>
       </c>
       <c r="Z42" s="7" t="n">
@@ -3602,10 +3631,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>zchen9523</t>
         </is>
@@ -3613,70 +3642,70 @@
       <c r="C43" s="5" t="n">
         <v>73.7</v>
       </c>
-      <c r="E43" s="10" t="n">
+      <c r="E43" s="11" t="n">
         <v>1513</v>
       </c>
-      <c r="F43" s="9" t="n">
+      <c r="F43" s="10" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>976</v>
       </c>
-      <c r="H43" s="9" t="n">
+      <c r="H43" s="10" t="n">
         <v>80.8</v>
       </c>
-      <c r="I43" s="10" t="n">
+      <c r="I43" s="11" t="n">
         <v>1479</v>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J43" s="10" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="K43" s="8" t="n">
+      <c r="K43" s="9" t="n">
         <v>1614</v>
       </c>
-      <c r="L43" s="9" t="n">
+      <c r="L43" s="10" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="M43" s="10" t="n">
+      <c r="M43" s="11" t="n">
         <v>978</v>
       </c>
-      <c r="N43" s="9" t="n">
+      <c r="N43" s="10" t="n">
         <v>71.3</v>
       </c>
-      <c r="O43" s="10" t="n">
+      <c r="O43" s="11" t="n">
         <v>736</v>
       </c>
-      <c r="P43" s="9" t="n">
+      <c r="P43" s="10" t="n">
         <v>73</v>
       </c>
-      <c r="Q43" s="10" t="n">
+      <c r="Q43" s="11" t="n">
         <v>1644</v>
       </c>
-      <c r="R43" s="9" t="n">
+      <c r="R43" s="10" t="n">
         <v>52.2</v>
       </c>
-      <c r="S43" s="11" t="n">
+      <c r="S43" s="12" t="n">
         <v>1860</v>
       </c>
-      <c r="T43" s="9" t="n">
+      <c r="T43" s="10" t="n">
         <v>47.1</v>
       </c>
-      <c r="U43" s="8" t="n">
+      <c r="U43" s="9" t="n">
         <v>985</v>
       </c>
-      <c r="V43" s="9" t="n">
+      <c r="V43" s="10" t="n">
         <v>74.7</v>
       </c>
-      <c r="W43" s="8" t="n">
+      <c r="W43" s="9" t="n">
         <v>648</v>
       </c>
-      <c r="X43" s="9" t="n">
+      <c r="X43" s="10" t="n">
         <v>81.5</v>
       </c>
-      <c r="Y43" s="10" t="n">
+      <c r="Y43" s="11" t="n">
         <v>1210</v>
       </c>
-      <c r="Z43" s="9" t="n">
+      <c r="Z43" s="10" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3692,7 +3721,7 @@
       <c r="C44" s="5" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="E44" s="10" t="n">
+      <c r="E44" s="11" t="n">
         <v>2061</v>
       </c>
       <c r="F44" s="7" t="n">
@@ -3704,25 +3733,25 @@
       <c r="H44" s="7" t="n">
         <v>86.8</v>
       </c>
-      <c r="I44" s="10" t="n">
+      <c r="I44" s="11" t="n">
         <v>2091</v>
       </c>
       <c r="J44" s="7" t="n">
         <v>53.3</v>
       </c>
-      <c r="K44" s="10" t="n">
+      <c r="K44" s="11" t="n">
         <v>2013</v>
       </c>
       <c r="L44" s="7" t="n">
         <v>52.4</v>
       </c>
-      <c r="M44" s="10" t="n">
+      <c r="M44" s="11" t="n">
         <v>1896</v>
       </c>
       <c r="N44" s="7" t="n">
         <v>53.7</v>
       </c>
-      <c r="O44" s="11" t="n">
+      <c r="O44" s="12" t="n">
         <v>2215</v>
       </c>
       <c r="P44" s="7" t="n">
@@ -3760,10 +3789,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>sdliuyuzhi</t>
         </is>
@@ -3771,70 +3800,70 @@
       <c r="C45" s="5" t="n">
         <v>72.2</v>
       </c>
-      <c r="E45" s="8" t="n">
+      <c r="E45" s="9" t="n">
         <v>774</v>
       </c>
-      <c r="F45" s="9" t="n">
+      <c r="F45" s="10" t="n">
         <v>83</v>
       </c>
-      <c r="G45" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="n">
+      <c r="G45" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11" t="n">
         <v>1634</v>
       </c>
-      <c r="J45" s="9" t="n">
+      <c r="J45" s="10" t="n">
         <v>61.4</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="9" t="n">
         <v>1530</v>
       </c>
-      <c r="L45" s="9" t="n">
+      <c r="L45" s="10" t="n">
         <v>66.5</v>
       </c>
-      <c r="M45" s="10" t="n">
+      <c r="M45" s="11" t="n">
         <v>1144</v>
       </c>
-      <c r="N45" s="9" t="n">
+      <c r="N45" s="10" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="O45" s="8" t="n">
+      <c r="O45" s="9" t="n">
         <v>228</v>
       </c>
-      <c r="P45" s="9" t="n">
+      <c r="P45" s="10" t="n">
         <v>89.7</v>
       </c>
-      <c r="Q45" s="10" t="n">
+      <c r="Q45" s="11" t="n">
         <v>1673</v>
       </c>
-      <c r="R45" s="9" t="n">
+      <c r="R45" s="10" t="n">
         <v>51.6</v>
       </c>
-      <c r="S45" s="11" t="n">
+      <c r="S45" s="12" t="n">
         <v>1463</v>
       </c>
-      <c r="T45" s="9" t="n">
+      <c r="T45" s="10" t="n">
         <v>55.2</v>
       </c>
-      <c r="U45" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="8" t="n">
+      <c r="U45" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V45" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="9" t="n">
         <v>458</v>
       </c>
-      <c r="X45" s="9" t="n">
+      <c r="X45" s="10" t="n">
         <v>85.5</v>
       </c>
-      <c r="Y45" s="10" t="n">
+      <c r="Y45" s="11" t="n">
         <v>858</v>
       </c>
-      <c r="Z45" s="9" t="n">
+      <c r="Z45" s="10" t="n">
         <v>70.90000000000001</v>
       </c>
     </row>
@@ -3850,7 +3879,7 @@
       <c r="C46" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="E46" s="10" t="n">
+      <c r="E46" s="11" t="n">
         <v>1863</v>
       </c>
       <c r="F46" s="7" t="n">
@@ -3862,31 +3891,31 @@
       <c r="H46" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="8" t="n">
+      <c r="I46" s="9" t="n">
         <v>810</v>
       </c>
       <c r="J46" s="7" t="n">
         <v>80.8</v>
       </c>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="9" t="n">
         <v>1017</v>
       </c>
       <c r="L46" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="M46" s="11" t="n">
+      <c r="M46" s="12" t="n">
         <v>2171</v>
       </c>
       <c r="N46" s="7" t="n">
         <v>43.4</v>
       </c>
-      <c r="O46" s="11" t="n">
+      <c r="O46" s="12" t="n">
         <v>1235</v>
       </c>
       <c r="P46" s="7" t="n">
         <v>56.5</v>
       </c>
-      <c r="Q46" s="8" t="n">
+      <c r="Q46" s="9" t="n">
         <v>1038</v>
       </c>
       <c r="R46" s="7" t="n">
@@ -3918,10 +3947,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>hfuwu5</t>
         </is>
@@ -3929,70 +3958,70 @@
       <c r="C47" s="5" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="E47" s="10" t="n">
+      <c r="E47" s="11" t="n">
         <v>2362</v>
       </c>
-      <c r="F47" s="9" t="n">
+      <c r="F47" s="10" t="n">
         <v>53.4</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1157</v>
       </c>
-      <c r="H47" s="9" t="n">
+      <c r="H47" s="10" t="n">
         <v>77.3</v>
       </c>
-      <c r="I47" s="10" t="n">
+      <c r="I47" s="11" t="n">
         <v>1482</v>
       </c>
-      <c r="J47" s="9" t="n">
+      <c r="J47" s="10" t="n">
         <v>64</v>
       </c>
-      <c r="K47" s="8" t="n">
+      <c r="K47" s="9" t="n">
         <v>1366</v>
       </c>
-      <c r="L47" s="9" t="n">
+      <c r="L47" s="10" t="n">
         <v>69.5</v>
       </c>
-      <c r="M47" s="10" t="n">
+      <c r="M47" s="11" t="n">
         <v>1880</v>
       </c>
-      <c r="N47" s="9" t="n">
+      <c r="N47" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="O47" s="11" t="n">
+      <c r="O47" s="12" t="n">
         <v>1378</v>
       </c>
-      <c r="P47" s="9" t="n">
+      <c r="P47" s="10" t="n">
         <v>53.2</v>
       </c>
-      <c r="Q47" s="8" t="n">
+      <c r="Q47" s="9" t="n">
         <v>1079</v>
       </c>
-      <c r="R47" s="9" t="n">
+      <c r="R47" s="10" t="n">
         <v>70.2</v>
       </c>
-      <c r="S47" s="8" t="n">
+      <c r="S47" s="9" t="n">
         <v>268</v>
       </c>
-      <c r="T47" s="9" t="n">
+      <c r="T47" s="10" t="n">
         <v>89.5</v>
       </c>
-      <c r="U47" s="10" t="n">
+      <c r="U47" s="11" t="n">
         <v>1178</v>
       </c>
-      <c r="V47" s="9" t="n">
+      <c r="V47" s="10" t="n">
         <v>65.7</v>
       </c>
-      <c r="W47" s="10" t="n">
+      <c r="W47" s="11" t="n">
         <v>1238</v>
       </c>
-      <c r="X47" s="9" t="n">
+      <c r="X47" s="10" t="n">
         <v>64.3</v>
       </c>
-      <c r="Y47" s="10" t="n">
+      <c r="Y47" s="11" t="n">
         <v>1136</v>
       </c>
-      <c r="Z47" s="9" t="n">
+      <c r="Z47" s="10" t="n">
         <v>64.7</v>
       </c>
     </row>
@@ -4008,67 +4037,67 @@
       <c r="C48" s="5" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="E48" s="10" t="n">
+      <c r="E48" s="11" t="n">
         <v>2356</v>
       </c>
       <c r="F48" s="7" t="n">
         <v>53.5</v>
       </c>
-      <c r="G48" s="11" t="n">
+      <c r="G48" s="12" t="n">
         <v>2790</v>
       </c>
       <c r="H48" s="7" t="n">
         <v>30.2</v>
       </c>
-      <c r="I48" s="8" t="n">
+      <c r="I48" s="9" t="n">
         <v>476</v>
       </c>
       <c r="J48" s="7" t="n">
         <v>86.7</v>
       </c>
-      <c r="K48" s="10" t="n">
+      <c r="K48" s="11" t="n">
         <v>2542</v>
       </c>
       <c r="L48" s="7" t="n">
         <v>42.6</v>
       </c>
-      <c r="M48" s="11" t="n">
+      <c r="M48" s="12" t="n">
         <v>2137</v>
       </c>
       <c r="N48" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="O48" s="11" t="n">
+      <c r="O48" s="12" t="n">
         <v>1744</v>
       </c>
       <c r="P48" s="7" t="n">
         <v>44.8</v>
       </c>
-      <c r="Q48" s="10" t="n">
+      <c r="Q48" s="11" t="n">
         <v>1350</v>
       </c>
       <c r="R48" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="S48" s="8" t="n">
+      <c r="S48" s="9" t="n">
         <v>579</v>
       </c>
       <c r="T48" s="7" t="n">
         <v>83.2</v>
       </c>
-      <c r="U48" s="10" t="n">
+      <c r="U48" s="11" t="n">
         <v>1136</v>
       </c>
       <c r="V48" s="7" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="W48" s="11" t="n">
+      <c r="W48" s="12" t="n">
         <v>2546</v>
       </c>
       <c r="X48" s="7" t="n">
         <v>32.1</v>
       </c>
-      <c r="Y48" s="10" t="n">
+      <c r="Y48" s="11" t="n">
         <v>1025</v>
       </c>
       <c r="Z48" s="7" t="n">
@@ -4076,10 +4105,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Charles000</t>
         </is>
@@ -4087,70 +4116,70 @@
       <c r="C49" s="5" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="11" t="n">
         <v>2019</v>
       </c>
-      <c r="F49" s="9" t="n">
+      <c r="F49" s="10" t="n">
         <v>58.7</v>
       </c>
-      <c r="G49" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="8" t="n">
+      <c r="G49" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9" t="n">
         <v>963</v>
       </c>
-      <c r="J49" s="9" t="n">
+      <c r="J49" s="10" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="K49" s="10" t="n">
+      <c r="K49" s="11" t="n">
         <v>1795</v>
       </c>
-      <c r="L49" s="9" t="n">
+      <c r="L49" s="10" t="n">
         <v>56.5</v>
       </c>
-      <c r="M49" s="10" t="n">
+      <c r="M49" s="11" t="n">
         <v>1218</v>
       </c>
-      <c r="N49" s="9" t="n">
+      <c r="N49" s="10" t="n">
         <v>66.7</v>
       </c>
       <c r="O49" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="P49" s="9" t="n">
+      <c r="P49" s="10" t="n">
         <v>97.8</v>
       </c>
       <c r="Q49" s="6" t="n">
         <v>760</v>
       </c>
-      <c r="R49" s="9" t="n">
+      <c r="R49" s="10" t="n">
         <v>82.5</v>
       </c>
-      <c r="S49" s="8" t="n">
+      <c r="S49" s="9" t="n">
         <v>271</v>
       </c>
-      <c r="T49" s="9" t="n">
+      <c r="T49" s="10" t="n">
         <v>89.5</v>
       </c>
-      <c r="U49" s="8" t="n">
+      <c r="U49" s="9" t="n">
         <v>645</v>
       </c>
-      <c r="V49" s="9" t="n">
+      <c r="V49" s="10" t="n">
         <v>81.7</v>
       </c>
-      <c r="W49" s="8" t="n">
+      <c r="W49" s="9" t="n">
         <v>638</v>
       </c>
-      <c r="X49" s="9" t="n">
+      <c r="X49" s="10" t="n">
         <v>81.7</v>
       </c>
-      <c r="Y49" s="10" t="n">
+      <c r="Y49" s="11" t="n">
         <v>1191</v>
       </c>
-      <c r="Z49" s="9" t="n">
+      <c r="Z49" s="10" t="n">
         <v>63.4</v>
       </c>
     </row>
@@ -4166,13 +4195,13 @@
       <c r="C50" s="5" t="n">
         <v>65.7</v>
       </c>
-      <c r="E50" s="8" t="n">
+      <c r="E50" s="9" t="n">
         <v>791</v>
       </c>
       <c r="F50" s="7" t="n">
         <v>82.7</v>
       </c>
-      <c r="G50" s="10" t="n">
+      <c r="G50" s="11" t="n">
         <v>2105</v>
       </c>
       <c r="H50" s="7" t="n">
@@ -4234,10 +4263,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>memoryfraction</t>
         </is>
@@ -4245,70 +4274,70 @@
       <c r="C51" s="5" t="n">
         <v>61.1</v>
       </c>
-      <c r="E51" s="11" t="n">
+      <c r="E51" s="12" t="n">
         <v>3161</v>
       </c>
-      <c r="F51" s="9" t="n">
+      <c r="F51" s="10" t="n">
         <v>36</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>845</v>
       </c>
-      <c r="H51" s="9" t="n">
+      <c r="H51" s="10" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="I51" s="12" t="n">
         <v>2634</v>
       </c>
-      <c r="J51" s="9" t="n">
+      <c r="J51" s="10" t="n">
         <v>38.8</v>
       </c>
-      <c r="K51" s="8" t="n">
+      <c r="K51" s="9" t="n">
         <v>1461</v>
       </c>
-      <c r="L51" s="9" t="n">
+      <c r="L51" s="10" t="n">
         <v>67.7</v>
       </c>
-      <c r="M51" s="10" t="n">
+      <c r="M51" s="11" t="n">
         <v>1686</v>
       </c>
-      <c r="N51" s="9" t="n">
+      <c r="N51" s="10" t="n">
         <v>57.7</v>
       </c>
-      <c r="O51" s="11" t="n">
+      <c r="O51" s="12" t="n">
         <v>1913</v>
       </c>
-      <c r="P51" s="9" t="n">
+      <c r="P51" s="10" t="n">
         <v>40.9</v>
       </c>
-      <c r="Q51" s="8" t="n">
+      <c r="Q51" s="9" t="n">
         <v>931</v>
       </c>
-      <c r="R51" s="9" t="n">
+      <c r="R51" s="10" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="S51" s="11" t="n">
+      <c r="S51" s="12" t="n">
         <v>1762</v>
       </c>
-      <c r="T51" s="9" t="n">
+      <c r="T51" s="10" t="n">
         <v>49.1</v>
       </c>
-      <c r="U51" s="10" t="n">
+      <c r="U51" s="11" t="n">
         <v>2079</v>
       </c>
-      <c r="V51" s="9" t="n">
+      <c r="V51" s="10" t="n">
         <v>47.1</v>
       </c>
-      <c r="W51" s="10" t="n">
+      <c r="W51" s="11" t="n">
         <v>2027</v>
       </c>
-      <c r="X51" s="9" t="n">
+      <c r="X51" s="10" t="n">
         <v>47.8</v>
       </c>
-      <c r="Y51" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z51" s="9" t="n">
+      <c r="Y51" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z51" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4324,7 +4353,7 @@
       <c r="C52" s="5" t="n">
         <v>60.4</v>
       </c>
-      <c r="E52" s="11" t="n">
+      <c r="E52" s="12" t="n">
         <v>2911</v>
       </c>
       <c r="F52" s="7" t="n">
@@ -4336,55 +4365,55 @@
       <c r="H52" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="8" t="n">
+      <c r="I52" s="9" t="n">
         <v>804</v>
       </c>
       <c r="J52" s="7" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K52" s="9" t="n">
         <v>1281</v>
       </c>
       <c r="L52" s="7" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="M52" s="8" t="n">
+      <c r="M52" s="9" t="n">
         <v>736</v>
       </c>
       <c r="N52" s="7" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="O52" s="10" t="n">
+      <c r="O52" s="11" t="n">
         <v>894</v>
       </c>
       <c r="P52" s="7" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="Q52" s="8" t="n">
+      <c r="Q52" s="9" t="n">
         <v>1095</v>
       </c>
       <c r="R52" s="7" t="n">
         <v>69.8</v>
       </c>
-      <c r="S52" s="10" t="n">
+      <c r="S52" s="11" t="n">
         <v>792</v>
       </c>
       <c r="T52" s="7" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="U52" s="11" t="n">
+      <c r="U52" s="12" t="n">
         <v>2615</v>
       </c>
       <c r="V52" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="W52" s="10" t="n">
+      <c r="W52" s="11" t="n">
         <v>1283</v>
       </c>
       <c r="X52" s="7" t="n">
         <v>63.3</v>
       </c>
-      <c r="Y52" s="10" t="n">
+      <c r="Y52" s="11" t="n">
         <v>736</v>
       </c>
       <c r="Z52" s="7" t="n">
@@ -4392,10 +4421,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>bifeitang</t>
         </is>
@@ -4403,70 +4432,70 @@
       <c r="C53" s="5" t="n">
         <v>60.1</v>
       </c>
-      <c r="E53" s="10" t="n">
+      <c r="E53" s="11" t="n">
         <v>1945</v>
       </c>
-      <c r="F53" s="9" t="n">
+      <c r="F53" s="10" t="n">
         <v>59.9</v>
       </c>
-      <c r="G53" s="10" t="n">
+      <c r="G53" s="11" t="n">
         <v>2231</v>
       </c>
-      <c r="H53" s="9" t="n">
+      <c r="H53" s="10" t="n">
         <v>46.2</v>
       </c>
-      <c r="I53" s="10" t="n">
+      <c r="I53" s="11" t="n">
         <v>1692</v>
       </c>
-      <c r="J53" s="9" t="n">
+      <c r="J53" s="10" t="n">
         <v>60.3</v>
       </c>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="9" t="n">
         <v>1125</v>
       </c>
-      <c r="L53" s="9" t="n">
+      <c r="L53" s="10" t="n">
         <v>74</v>
       </c>
-      <c r="M53" s="10" t="n">
+      <c r="M53" s="11" t="n">
         <v>1195</v>
       </c>
-      <c r="N53" s="9" t="n">
+      <c r="N53" s="10" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="O53" s="8" t="n">
+      <c r="O53" s="9" t="n">
         <v>447</v>
       </c>
-      <c r="P53" s="9" t="n">
+      <c r="P53" s="10" t="n">
         <v>84.7</v>
       </c>
-      <c r="Q53" s="10" t="n">
+      <c r="Q53" s="11" t="n">
         <v>1717</v>
       </c>
-      <c r="R53" s="9" t="n">
+      <c r="R53" s="10" t="n">
         <v>50.6</v>
       </c>
-      <c r="S53" s="8" t="n">
+      <c r="S53" s="9" t="n">
         <v>621</v>
       </c>
-      <c r="T53" s="9" t="n">
+      <c r="T53" s="10" t="n">
         <v>82.3</v>
       </c>
-      <c r="U53" s="10" t="n">
+      <c r="U53" s="11" t="n">
         <v>1582</v>
       </c>
-      <c r="V53" s="9" t="n">
+      <c r="V53" s="10" t="n">
         <v>57.3</v>
       </c>
-      <c r="W53" s="8" t="n">
+      <c r="W53" s="9" t="n">
         <v>903</v>
       </c>
-      <c r="X53" s="9" t="n">
+      <c r="X53" s="10" t="n">
         <v>76.2</v>
       </c>
-      <c r="Y53" s="10" t="n">
+      <c r="Y53" s="11" t="n">
         <v>1242</v>
       </c>
-      <c r="Z53" s="9" t="n">
+      <c r="Z53" s="10" t="n">
         <v>62.3</v>
       </c>
     </row>
@@ -4482,13 +4511,13 @@
       <c r="C54" s="5" t="n">
         <v>59.9</v>
       </c>
-      <c r="E54" s="8" t="n">
+      <c r="E54" s="9" t="n">
         <v>1016</v>
       </c>
       <c r="F54" s="7" t="n">
         <v>79.3</v>
       </c>
-      <c r="G54" s="10" t="n">
+      <c r="G54" s="11" t="n">
         <v>2517</v>
       </c>
       <c r="H54" s="7" t="n">
@@ -4550,10 +4579,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="B55" s="1" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>yuliangjin</t>
         </is>
@@ -4561,70 +4590,70 @@
       <c r="C55" s="5" t="n">
         <v>59.3</v>
       </c>
-      <c r="E55" s="11" t="n">
+      <c r="E55" s="12" t="n">
         <v>3087</v>
       </c>
-      <c r="F55" s="9" t="n">
+      <c r="F55" s="10" t="n">
         <v>37.2</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>1047</v>
       </c>
-      <c r="H55" s="9" t="n">
+      <c r="H55" s="10" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="I55" s="11" t="n">
+      <c r="I55" s="12" t="n">
         <v>2611</v>
       </c>
-      <c r="J55" s="9" t="n">
+      <c r="J55" s="10" t="n">
         <v>39.2</v>
       </c>
-      <c r="K55" s="8" t="n">
+      <c r="K55" s="9" t="n">
         <v>1640</v>
       </c>
-      <c r="L55" s="9" t="n">
+      <c r="L55" s="10" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="M55" s="10" t="n">
+      <c r="M55" s="11" t="n">
         <v>1651</v>
       </c>
-      <c r="N55" s="9" t="n">
+      <c r="N55" s="10" t="n">
         <v>58.4</v>
       </c>
-      <c r="O55" s="11" t="n">
+      <c r="O55" s="12" t="n">
         <v>1625</v>
       </c>
-      <c r="P55" s="9" t="n">
+      <c r="P55" s="10" t="n">
         <v>47.5</v>
       </c>
-      <c r="Q55" s="10" t="n">
+      <c r="Q55" s="11" t="n">
         <v>1479</v>
       </c>
-      <c r="R55" s="9" t="n">
+      <c r="R55" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="S55" s="11" t="n">
+      <c r="S55" s="12" t="n">
         <v>1665</v>
       </c>
-      <c r="T55" s="9" t="n">
+      <c r="T55" s="10" t="n">
         <v>51.1</v>
       </c>
-      <c r="U55" s="10" t="n">
+      <c r="U55" s="11" t="n">
         <v>2099</v>
       </c>
-      <c r="V55" s="9" t="n">
+      <c r="V55" s="10" t="n">
         <v>46.7</v>
       </c>
-      <c r="W55" s="10" t="n">
+      <c r="W55" s="11" t="n">
         <v>1398</v>
       </c>
-      <c r="X55" s="9" t="n">
+      <c r="X55" s="10" t="n">
         <v>60.9</v>
       </c>
-      <c r="Y55" s="11" t="n">
+      <c r="Y55" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="Z55" s="9" t="n">
+      <c r="Z55" s="10" t="n">
         <v>40.1</v>
       </c>
     </row>
@@ -4640,31 +4669,31 @@
       <c r="C56" s="5" t="n">
         <v>58.1</v>
       </c>
-      <c r="E56" s="11" t="n">
+      <c r="E56" s="12" t="n">
         <v>3004</v>
       </c>
       <c r="F56" s="7" t="n">
         <v>38.5</v>
       </c>
-      <c r="G56" s="10" t="n">
+      <c r="G56" s="11" t="n">
         <v>2495</v>
       </c>
       <c r="H56" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="I56" s="8" t="n">
+      <c r="I56" s="9" t="n">
         <v>1128</v>
       </c>
       <c r="J56" s="7" t="n">
         <v>75.2</v>
       </c>
-      <c r="K56" s="10" t="n">
+      <c r="K56" s="11" t="n">
         <v>2266</v>
       </c>
       <c r="L56" s="7" t="n">
         <v>47.7</v>
       </c>
-      <c r="M56" s="11" t="n">
+      <c r="M56" s="12" t="n">
         <v>2338</v>
       </c>
       <c r="N56" s="7" t="n">
@@ -4676,19 +4705,19 @@
       <c r="P56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q56" s="11" t="n">
+      <c r="Q56" s="12" t="n">
         <v>2316</v>
       </c>
       <c r="R56" s="7" t="n">
         <v>31.8</v>
       </c>
-      <c r="S56" s="11" t="n">
+      <c r="S56" s="12" t="n">
         <v>1778</v>
       </c>
       <c r="T56" s="7" t="n">
         <v>48.8</v>
       </c>
-      <c r="U56" s="8" t="n">
+      <c r="U56" s="9" t="n">
         <v>986</v>
       </c>
       <c r="V56" s="7" t="n">
@@ -4700,7 +4729,7 @@
       <c r="X56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Y56" s="11" t="n">
+      <c r="Y56" s="12" t="n">
         <v>1537</v>
       </c>
       <c r="Z56" s="7" t="n">
@@ -4708,10 +4737,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="1" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>Shaotong</t>
         </is>
@@ -4719,70 +4748,70 @@
       <c r="C57" s="5" t="n">
         <v>56.8</v>
       </c>
-      <c r="E57" s="10" t="n">
+      <c r="E57" s="11" t="n">
         <v>2283</v>
       </c>
-      <c r="F57" s="9" t="n">
+      <c r="F57" s="10" t="n">
         <v>54.6</v>
       </c>
-      <c r="G57" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="10" t="n">
+      <c r="G57" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11" t="n">
         <v>1767</v>
       </c>
-      <c r="J57" s="9" t="n">
+      <c r="J57" s="10" t="n">
         <v>59</v>
       </c>
-      <c r="K57" s="10" t="n">
+      <c r="K57" s="11" t="n">
         <v>2001</v>
       </c>
-      <c r="L57" s="9" t="n">
+      <c r="L57" s="10" t="n">
         <v>52.7</v>
       </c>
-      <c r="M57" s="10" t="n">
+      <c r="M57" s="11" t="n">
         <v>1632</v>
       </c>
-      <c r="N57" s="9" t="n">
+      <c r="N57" s="10" t="n">
         <v>58.7</v>
       </c>
-      <c r="O57" s="11" t="n">
+      <c r="O57" s="12" t="n">
         <v>2138</v>
       </c>
-      <c r="P57" s="9" t="n">
+      <c r="P57" s="10" t="n">
         <v>35.7</v>
       </c>
-      <c r="Q57" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R57" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" s="10" t="n">
+      <c r="Q57" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="11" t="n">
         <v>798</v>
       </c>
-      <c r="T57" s="9" t="n">
+      <c r="T57" s="10" t="n">
         <v>73.7</v>
       </c>
-      <c r="U57" s="8" t="n">
+      <c r="U57" s="9" t="n">
         <v>598</v>
       </c>
-      <c r="V57" s="9" t="n">
+      <c r="V57" s="10" t="n">
         <v>82.7</v>
       </c>
-      <c r="W57" s="10" t="n">
+      <c r="W57" s="11" t="n">
         <v>1144</v>
       </c>
-      <c r="X57" s="9" t="n">
+      <c r="X57" s="10" t="n">
         <v>66.2</v>
       </c>
-      <c r="Y57" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z57" s="9" t="n">
+      <c r="Y57" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z57" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4798,13 +4827,13 @@
       <c r="C58" s="5" t="n">
         <v>56.8</v>
       </c>
-      <c r="E58" s="10" t="n">
+      <c r="E58" s="11" t="n">
         <v>1636</v>
       </c>
       <c r="F58" s="7" t="n">
         <v>64.7</v>
       </c>
-      <c r="G58" s="10" t="n">
+      <c r="G58" s="11" t="n">
         <v>2090</v>
       </c>
       <c r="H58" s="7" t="n">
@@ -4816,37 +4845,37 @@
       <c r="J58" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K58" s="8" t="n">
+      <c r="K58" s="9" t="n">
         <v>1293</v>
       </c>
       <c r="L58" s="7" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="M58" s="10" t="n">
+      <c r="M58" s="11" t="n">
         <v>1169</v>
       </c>
       <c r="N58" s="7" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="O58" s="10" t="n">
+      <c r="O58" s="11" t="n">
         <v>708</v>
       </c>
       <c r="P58" s="7" t="n">
         <v>73.7</v>
       </c>
-      <c r="Q58" s="8" t="n">
+      <c r="Q58" s="9" t="n">
         <v>1271</v>
       </c>
       <c r="R58" s="7" t="n">
         <v>65.8</v>
       </c>
-      <c r="S58" s="11" t="n">
+      <c r="S58" s="12" t="n">
         <v>1838</v>
       </c>
       <c r="T58" s="7" t="n">
         <v>47.5</v>
       </c>
-      <c r="U58" s="10" t="n">
+      <c r="U58" s="11" t="n">
         <v>1761</v>
       </c>
       <c r="V58" s="7" t="n">
@@ -4866,10 +4895,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="B59" s="1" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>liulaoye135</t>
         </is>
@@ -4877,70 +4906,70 @@
       <c r="C59" s="5" t="n">
         <v>56.2</v>
       </c>
-      <c r="E59" s="10" t="n">
+      <c r="E59" s="11" t="n">
         <v>1449</v>
       </c>
-      <c r="F59" s="9" t="n">
+      <c r="F59" s="10" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="G59" s="10" t="n">
+      <c r="G59" s="11" t="n">
         <v>2296</v>
       </c>
-      <c r="H59" s="9" t="n">
+      <c r="H59" s="10" t="n">
         <v>44.9</v>
       </c>
-      <c r="I59" s="11" t="n">
+      <c r="I59" s="12" t="n">
         <v>2473</v>
       </c>
-      <c r="J59" s="9" t="n">
+      <c r="J59" s="10" t="n">
         <v>41.7</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="9" t="n">
         <v>1016</v>
       </c>
-      <c r="L59" s="9" t="n">
+      <c r="L59" s="10" t="n">
         <v>76</v>
       </c>
-      <c r="M59" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N59" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" s="10" t="n">
+      <c r="M59" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N59" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="11" t="n">
         <v>672</v>
       </c>
-      <c r="P59" s="9" t="n">
+      <c r="P59" s="10" t="n">
         <v>74.5</v>
       </c>
-      <c r="Q59" s="10" t="n">
+      <c r="Q59" s="11" t="n">
         <v>1352</v>
       </c>
-      <c r="R59" s="9" t="n">
+      <c r="R59" s="10" t="n">
         <v>58.9</v>
       </c>
-      <c r="S59" s="10" t="n">
+      <c r="S59" s="11" t="n">
         <v>1153</v>
       </c>
-      <c r="T59" s="9" t="n">
+      <c r="T59" s="10" t="n">
         <v>66.5</v>
       </c>
-      <c r="U59" s="11" t="n">
+      <c r="U59" s="12" t="n">
         <v>2124</v>
       </c>
-      <c r="V59" s="9" t="n">
+      <c r="V59" s="10" t="n">
         <v>41.2</v>
       </c>
-      <c r="W59" s="10" t="n">
+      <c r="W59" s="11" t="n">
         <v>1421</v>
       </c>
-      <c r="X59" s="9" t="n">
+      <c r="X59" s="10" t="n">
         <v>60.4</v>
       </c>
-      <c r="Y59" s="10" t="n">
+      <c r="Y59" s="11" t="n">
         <v>867</v>
       </c>
-      <c r="Z59" s="9" t="n">
+      <c r="Z59" s="10" t="n">
         <v>70.7</v>
       </c>
     </row>
@@ -4956,7 +4985,7 @@
       <c r="C60" s="5" t="n">
         <v>56.2</v>
       </c>
-      <c r="E60" s="10" t="n">
+      <c r="E60" s="11" t="n">
         <v>2181</v>
       </c>
       <c r="F60" s="7" t="n">
@@ -5024,10 +5053,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="B61" s="1" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>huange</t>
         </is>
@@ -5035,70 +5064,70 @@
       <c r="C61" s="5" t="n">
         <v>55.2</v>
       </c>
-      <c r="E61" s="8" t="n">
+      <c r="E61" s="9" t="n">
         <v>422</v>
       </c>
-      <c r="F61" s="9" t="n">
+      <c r="F61" s="10" t="n">
         <v>88.5</v>
       </c>
-      <c r="G61" s="11" t="n">
+      <c r="G61" s="12" t="n">
         <v>3209</v>
       </c>
-      <c r="H61" s="9" t="n">
+      <c r="H61" s="10" t="n">
         <v>21.9</v>
       </c>
-      <c r="I61" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z61" s="9" t="n">
+      <c r="I61" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z61" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,19 +5143,19 @@
       <c r="C62" s="5" t="n">
         <v>53.8</v>
       </c>
-      <c r="E62" s="10" t="n">
+      <c r="E62" s="11" t="n">
         <v>2158</v>
       </c>
       <c r="F62" s="7" t="n">
         <v>56.6</v>
       </c>
-      <c r="G62" s="10" t="n">
+      <c r="G62" s="11" t="n">
         <v>2619</v>
       </c>
       <c r="H62" s="7" t="n">
         <v>38.5</v>
       </c>
-      <c r="I62" s="10" t="n">
+      <c r="I62" s="11" t="n">
         <v>2218</v>
       </c>
       <c r="J62" s="7" t="n">
@@ -5182,10 +5211,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="B63" s="1" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>Mengqian</t>
         </is>
@@ -5193,70 +5222,70 @@
       <c r="C63" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="E63" s="10" t="n">
+      <c r="E63" s="11" t="n">
         <v>2506</v>
       </c>
-      <c r="F63" s="9" t="n">
+      <c r="F63" s="10" t="n">
         <v>51.2</v>
       </c>
-      <c r="G63" s="10" t="n">
+      <c r="G63" s="11" t="n">
         <v>2402</v>
       </c>
-      <c r="H63" s="9" t="n">
+      <c r="H63" s="10" t="n">
         <v>42.8</v>
       </c>
-      <c r="I63" s="10" t="n">
+      <c r="I63" s="11" t="n">
         <v>2234</v>
       </c>
-      <c r="J63" s="9" t="n">
+      <c r="J63" s="10" t="n">
         <v>50.8</v>
       </c>
-      <c r="K63" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z63" s="9" t="n">
+      <c r="K63" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L63" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N63" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P63" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R63" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T63" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V63" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X63" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z63" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5272,13 +5301,13 @@
       <c r="C64" s="5" t="n">
         <v>50.6</v>
       </c>
-      <c r="E64" s="10" t="n">
+      <c r="E64" s="11" t="n">
         <v>2522</v>
       </c>
       <c r="F64" s="7" t="n">
         <v>50.9</v>
       </c>
-      <c r="G64" s="10" t="n">
+      <c r="G64" s="11" t="n">
         <v>2017</v>
       </c>
       <c r="H64" s="7" t="n">
@@ -5340,10 +5369,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="B65" s="1" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>davidqing1991</t>
         </is>
@@ -5351,70 +5380,70 @@
       <c r="C65" s="5" t="n">
         <v>48.7</v>
       </c>
-      <c r="E65" s="10" t="n">
+      <c r="E65" s="11" t="n">
         <v>1462</v>
       </c>
-      <c r="F65" s="9" t="n">
+      <c r="F65" s="10" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="G65" s="11" t="n">
+      <c r="G65" s="12" t="n">
         <v>2798</v>
       </c>
-      <c r="H65" s="9" t="n">
+      <c r="H65" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="I65" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="8" t="n">
+      <c r="I65" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J65" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9" t="n">
         <v>734</v>
       </c>
-      <c r="L65" s="9" t="n">
+      <c r="L65" s="10" t="n">
         <v>81.3</v>
       </c>
-      <c r="M65" s="10" t="n">
+      <c r="M65" s="11" t="n">
         <v>1319</v>
       </c>
-      <c r="N65" s="9" t="n">
+      <c r="N65" s="10" t="n">
         <v>64.7</v>
       </c>
-      <c r="O65" s="10" t="n">
+      <c r="O65" s="11" t="n">
         <v>1132</v>
       </c>
-      <c r="P65" s="9" t="n">
+      <c r="P65" s="10" t="n">
         <v>63.9</v>
       </c>
-      <c r="Q65" s="10" t="n">
+      <c r="Q65" s="11" t="n">
         <v>1411</v>
       </c>
-      <c r="R65" s="9" t="n">
+      <c r="R65" s="10" t="n">
         <v>57.6</v>
       </c>
-      <c r="S65" s="11" t="n">
+      <c r="S65" s="12" t="n">
         <v>1642</v>
       </c>
-      <c r="T65" s="9" t="n">
+      <c r="T65" s="10" t="n">
         <v>51.5</v>
       </c>
-      <c r="U65" s="8" t="n">
+      <c r="U65" s="9" t="n">
         <v>757</v>
       </c>
-      <c r="V65" s="9" t="n">
+      <c r="V65" s="10" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="W65" s="10" t="n">
+      <c r="W65" s="11" t="n">
         <v>2123</v>
       </c>
-      <c r="X65" s="9" t="n">
+      <c r="X65" s="10" t="n">
         <v>45.9</v>
       </c>
-      <c r="Y65" s="8" t="n">
+      <c r="Y65" s="9" t="n">
         <v>315</v>
       </c>
-      <c r="Z65" s="9" t="n">
+      <c r="Z65" s="10" t="n">
         <v>88</v>
       </c>
     </row>
@@ -5430,7 +5459,7 @@
       <c r="C66" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="E66" s="11" t="n">
+      <c r="E66" s="12" t="n">
         <v>2902</v>
       </c>
       <c r="F66" s="7" t="n">
@@ -5442,19 +5471,19 @@
       <c r="H66" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I66" s="10" t="n">
+      <c r="I66" s="11" t="n">
         <v>2055</v>
       </c>
       <c r="J66" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="K66" s="11" t="n">
+      <c r="K66" s="12" t="n">
         <v>2838</v>
       </c>
       <c r="L66" s="7" t="n">
         <v>32.1</v>
       </c>
-      <c r="M66" s="11" t="n">
+      <c r="M66" s="12" t="n">
         <v>2397</v>
       </c>
       <c r="N66" s="7" t="n">
@@ -5466,7 +5495,7 @@
       <c r="P66" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q66" s="11" t="n">
+      <c r="Q66" s="12" t="n">
         <v>2034</v>
       </c>
       <c r="R66" s="7" t="n">
@@ -5478,13 +5507,13 @@
       <c r="T66" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U66" s="10" t="n">
+      <c r="U66" s="11" t="n">
         <v>1955</v>
       </c>
       <c r="V66" s="7" t="n">
         <v>49.6</v>
       </c>
-      <c r="W66" s="10" t="n">
+      <c r="W66" s="11" t="n">
         <v>1657</v>
       </c>
       <c r="X66" s="7" t="n">
@@ -5498,10 +5527,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="B67" s="1" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>SeymourLee</t>
         </is>
@@ -5509,73 +5538,73 @@
       <c r="C67" s="5" t="n">
         <v>46.2</v>
       </c>
-      <c r="E67" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F67" s="9" t="n">
+      <c r="E67" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F67" s="10" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>380</v>
       </c>
-      <c r="H67" s="9" t="n">
+      <c r="H67" s="10" t="n">
         <v>92.5</v>
       </c>
-      <c r="I67" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="8" t="n">
+      <c r="I67" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9" t="n">
         <v>735</v>
       </c>
-      <c r="L67" s="9" t="n">
+      <c r="L67" s="10" t="n">
         <v>81.3</v>
       </c>
-      <c r="M67" s="8" t="n">
+      <c r="M67" s="9" t="n">
         <v>644</v>
       </c>
-      <c r="N67" s="9" t="n">
+      <c r="N67" s="10" t="n">
         <v>82.7</v>
       </c>
-      <c r="O67" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="8" t="n">
+      <c r="O67" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="9" t="n">
         <v>1243</v>
       </c>
-      <c r="R67" s="9" t="n">
+      <c r="R67" s="10" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="S67" s="10" t="n">
+      <c r="S67" s="11" t="n">
         <v>1114</v>
       </c>
-      <c r="T67" s="9" t="n">
+      <c r="T67" s="10" t="n">
         <v>67.3</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>221</v>
       </c>
-      <c r="V67" s="9" t="n">
+      <c r="V67" s="10" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="W67" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="10" t="n">
+      <c r="W67" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X67" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="11" t="n">
         <v>760</v>
       </c>
-      <c r="Z67" s="9" t="n">
+      <c r="Z67" s="10" t="n">
         <v>73</v>
       </c>
-      <c r="AA67" s="12" t="inlineStr">
+      <c r="AA67" s="13" t="inlineStr">
         <is>
           <t>单身！</t>
         </is>
@@ -5593,7 +5622,7 @@
       <c r="C68" s="5" t="n">
         <v>46.2</v>
       </c>
-      <c r="E68" s="11" t="n">
+      <c r="E68" s="12" t="n">
         <v>3274</v>
       </c>
       <c r="F68" s="7" t="n">
@@ -5605,7 +5634,7 @@
       <c r="H68" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I68" s="10" t="n">
+      <c r="I68" s="11" t="n">
         <v>1816</v>
       </c>
       <c r="J68" s="7" t="n">
@@ -5661,10 +5690,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="B69" s="1" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>user4286</t>
         </is>
@@ -5672,70 +5701,70 @@
       <c r="C69" s="5" t="n">
         <v>45.8</v>
       </c>
-      <c r="E69" s="11" t="n">
+      <c r="E69" s="12" t="n">
         <v>2815</v>
       </c>
-      <c r="F69" s="9" t="n">
+      <c r="F69" s="10" t="n">
         <v>41.4</v>
       </c>
-      <c r="G69" s="10" t="n">
+      <c r="G69" s="11" t="n">
         <v>2029</v>
       </c>
-      <c r="H69" s="9" t="n">
+      <c r="H69" s="10" t="n">
         <v>50.1</v>
       </c>
-      <c r="I69" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="11" t="n">
+      <c r="I69" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J69" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L69" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="12" t="n">
         <v>2526</v>
       </c>
-      <c r="N69" s="9" t="n">
+      <c r="N69" s="10" t="n">
         <v>36.6</v>
       </c>
-      <c r="O69" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z69" s="9" t="n">
+      <c r="O69" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P69" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R69" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T69" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V69" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X69" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z69" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5751,25 +5780,25 @@
       <c r="C70" s="5" t="n">
         <v>42.3</v>
       </c>
-      <c r="E70" s="10" t="n">
+      <c r="E70" s="11" t="n">
         <v>2502</v>
       </c>
       <c r="F70" s="7" t="n">
         <v>51.2</v>
       </c>
-      <c r="G70" s="11" t="n">
+      <c r="G70" s="12" t="n">
         <v>2702</v>
       </c>
       <c r="H70" s="7" t="n">
         <v>31.9</v>
       </c>
-      <c r="I70" s="11" t="n">
+      <c r="I70" s="12" t="n">
         <v>2944</v>
       </c>
       <c r="J70" s="7" t="n">
         <v>33.4</v>
       </c>
-      <c r="K70" s="10" t="n">
+      <c r="K70" s="11" t="n">
         <v>2068</v>
       </c>
       <c r="L70" s="7" t="n">
@@ -5819,10 +5848,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="B71" s="1" t="inlineStr">
+      <c r="B71" s="8" t="inlineStr">
         <is>
           <t>cookiecookie</t>
         </is>
@@ -5830,70 +5859,70 @@
       <c r="C71" s="5" t="n">
         <v>40.2</v>
       </c>
-      <c r="E71" s="10" t="n">
+      <c r="E71" s="11" t="n">
         <v>2236</v>
       </c>
-      <c r="F71" s="9" t="n">
+      <c r="F71" s="10" t="n">
         <v>55.4</v>
       </c>
-      <c r="G71" s="11" t="n">
+      <c r="G71" s="12" t="n">
         <v>3055</v>
       </c>
-      <c r="H71" s="9" t="n">
+      <c r="H71" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="I71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z71" s="9" t="n">
+      <c r="I71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J71" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L71" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N71" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P71" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R71" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T71" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V71" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X71" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z71" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5909,13 +5938,13 @@
       <c r="C72" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="E72" s="11" t="n">
+      <c r="E72" s="12" t="n">
         <v>3302</v>
       </c>
       <c r="F72" s="7" t="n">
         <v>33.8</v>
       </c>
-      <c r="G72" s="10" t="n">
+      <c r="G72" s="11" t="n">
         <v>2223</v>
       </c>
       <c r="H72" s="7" t="n">
@@ -5927,49 +5956,49 @@
       <c r="J72" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K72" s="10" t="n">
+      <c r="K72" s="11" t="n">
         <v>1830</v>
       </c>
       <c r="L72" s="7" t="n">
         <v>55.9</v>
       </c>
-      <c r="M72" s="11" t="n">
+      <c r="M72" s="12" t="n">
         <v>2574</v>
       </c>
       <c r="N72" s="7" t="n">
         <v>35.7</v>
       </c>
-      <c r="O72" s="11" t="n">
+      <c r="O72" s="12" t="n">
         <v>2230</v>
       </c>
       <c r="P72" s="7" t="n">
         <v>33.6</v>
       </c>
-      <c r="Q72" s="11" t="n">
+      <c r="Q72" s="12" t="n">
         <v>1951</v>
       </c>
       <c r="R72" s="7" t="n">
         <v>40.2</v>
       </c>
-      <c r="S72" s="11" t="n">
+      <c r="S72" s="12" t="n">
         <v>1373</v>
       </c>
       <c r="T72" s="7" t="n">
         <v>57</v>
       </c>
-      <c r="U72" s="10" t="n">
+      <c r="U72" s="11" t="n">
         <v>1876</v>
       </c>
       <c r="V72" s="7" t="n">
         <v>51.3</v>
       </c>
-      <c r="W72" s="10" t="n">
+      <c r="W72" s="11" t="n">
         <v>1412</v>
       </c>
       <c r="X72" s="7" t="n">
         <v>60.6</v>
       </c>
-      <c r="Y72" s="11" t="n">
+      <c r="Y72" s="12" t="n">
         <v>2119</v>
       </c>
       <c r="Z72" s="7" t="n">
@@ -5977,10 +6006,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="8" t="n">
         <v>70</v>
       </c>
-      <c r="B73" s="1" t="inlineStr">
+      <c r="B73" s="8" t="inlineStr">
         <is>
           <t>zexingfa</t>
         </is>
@@ -5988,70 +6017,70 @@
       <c r="C73" s="5" t="n">
         <v>36.6</v>
       </c>
-      <c r="E73" s="11" t="n">
+      <c r="E73" s="12" t="n">
         <v>3124</v>
       </c>
-      <c r="F73" s="9" t="n">
+      <c r="F73" s="10" t="n">
         <v>36.6</v>
       </c>
-      <c r="G73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z73" s="9" t="n">
+      <c r="G73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X73" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z73" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6079,7 +6108,7 @@
       <c r="H74" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I74" s="10" t="n">
+      <c r="I74" s="11" t="n">
         <v>1874</v>
       </c>
       <c r="J74" s="7" t="n">
@@ -6109,25 +6138,25 @@
       <c r="R74" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S74" s="10" t="n">
+      <c r="S74" s="11" t="n">
         <v>811</v>
       </c>
       <c r="T74" s="7" t="n">
         <v>73.5</v>
       </c>
-      <c r="U74" s="10" t="n">
+      <c r="U74" s="11" t="n">
         <v>1429</v>
       </c>
       <c r="V74" s="7" t="n">
         <v>60.5</v>
       </c>
-      <c r="W74" s="8" t="n">
+      <c r="W74" s="9" t="n">
         <v>892</v>
       </c>
       <c r="X74" s="7" t="n">
         <v>76.5</v>
       </c>
-      <c r="Y74" s="11" t="n">
+      <c r="Y74" s="12" t="n">
         <v>1855</v>
       </c>
       <c r="Z74" s="7" t="n">
@@ -6135,10 +6164,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="B75" s="1" t="inlineStr">
+      <c r="B75" s="8" t="inlineStr">
         <is>
           <t>shuizhouwang</t>
         </is>
@@ -6146,195 +6175,195 @@
       <c r="C75" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E75" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z75" s="9" t="n">
+      <c r="E75" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X75" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z75" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="13" t="inlineStr">
+      <c r="B79" s="14" t="inlineStr">
         <is>
           <t>-1:     absent/zero</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="13" t="inlineStr">
+      <c r="B80" s="14" t="inlineStr">
         <is>
           <t>-2:     not joined</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="13" t="inlineStr">
+      <c r="B81" s="14" t="inlineStr">
         <is>
           <t>-3:     left/quited</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="14" t="inlineStr">
+      <c r="B83" s="15" t="inlineStr">
         <is>
           <t>More about the Rules</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="14" t="inlineStr">
+      <c r="B84" s="15" t="inlineStr">
         <is>
           <t>See the full list of daily problems</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="14" t="inlineStr">
+      <c r="B88" s="15" t="inlineStr">
         <is>
           <t>Graduated or laidoff members in 2019</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="inlineStr">
+      <c r="A90" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="B90" s="16" t="inlineStr">
         <is>
           <t>Brooky</t>
         </is>
       </c>
-      <c r="C90" s="5" t="inlineStr">
+      <c r="C90" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E90" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F90" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H90" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" s="8" t="n">
+      <c r="E90" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F90" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H90" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="19" t="n">
         <v>1048</v>
       </c>
-      <c r="J90" s="7" t="n">
+      <c r="J90" s="18" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="K90" s="6" t="n">
+      <c r="K90" s="20" t="n">
         <v>371</v>
       </c>
-      <c r="L90" s="7" t="n">
+      <c r="L90" s="18" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="M90" s="10" t="n">
+      <c r="M90" s="21" t="n">
         <v>1244</v>
       </c>
-      <c r="N90" s="7" t="n">
+      <c r="N90" s="18" t="n">
         <v>66.2</v>
       </c>
-      <c r="O90" s="10" t="n">
+      <c r="O90" s="21" t="n">
         <v>597</v>
       </c>
-      <c r="P90" s="7" t="n">
+      <c r="P90" s="18" t="n">
         <v>76.2</v>
       </c>
-      <c r="Q90" s="6" t="n">
+      <c r="Q90" s="20" t="n">
         <v>179</v>
       </c>
-      <c r="R90" s="7" t="n">
+      <c r="R90" s="18" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="S90" s="6" t="n">
+      <c r="S90" s="20" t="n">
         <v>169</v>
       </c>
-      <c r="T90" s="7" t="n">
+      <c r="T90" s="18" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="U90" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V90" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W90" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X90" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z90" s="7" t="n">
+      <c r="U90" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V90" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X90" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z90" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6349,158 +6378,158 @@
           <t>DorisGe</t>
         </is>
       </c>
-      <c r="C91" s="5" t="inlineStr">
+      <c r="C91" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E91" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="10" t="n">
+      <c r="E91" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="21" t="n">
         <v>1705</v>
       </c>
-      <c r="J91" s="9" t="n">
+      <c r="J91" s="22" t="n">
         <v>60.1</v>
       </c>
-      <c r="K91" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" s="10" t="n">
+      <c r="K91" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="21" t="n">
         <v>1060</v>
       </c>
-      <c r="N91" s="9" t="n">
+      <c r="N91" s="22" t="n">
         <v>69.7</v>
       </c>
-      <c r="O91" s="10" t="n">
+      <c r="O91" s="21" t="n">
         <v>935</v>
       </c>
-      <c r="P91" s="9" t="n">
+      <c r="P91" s="22" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="Q91" s="6" t="n">
+      <c r="Q91" s="20" t="n">
         <v>667</v>
       </c>
-      <c r="R91" s="9" t="n">
+      <c r="R91" s="22" t="n">
         <v>84.7</v>
       </c>
-      <c r="S91" s="11" t="n">
+      <c r="S91" s="23" t="n">
         <v>1959</v>
       </c>
-      <c r="T91" s="9" t="n">
+      <c r="T91" s="22" t="n">
         <v>45.1</v>
       </c>
-      <c r="U91" s="8" t="n">
+      <c r="U91" s="19" t="n">
         <v>608</v>
       </c>
-      <c r="V91" s="9" t="n">
+      <c r="V91" s="22" t="n">
         <v>82.5</v>
       </c>
-      <c r="W91" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z91" s="9" t="n">
+      <c r="W91" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X91" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z91" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="inlineStr">
+      <c r="A92" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B92" s="4" t="inlineStr">
+      <c r="B92" s="16" t="inlineStr">
         <is>
           <t>Lisanaaa</t>
         </is>
       </c>
-      <c r="C92" s="5" t="inlineStr">
+      <c r="C92" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E92" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F92" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H92" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J92" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L92" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N92" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" s="11" t="n">
+      <c r="E92" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="23" t="n">
         <v>1328</v>
       </c>
-      <c r="P92" s="7" t="n">
+      <c r="P92" s="18" t="n">
         <v>54.4</v>
       </c>
-      <c r="Q92" s="6" t="n">
+      <c r="Q92" s="20" t="n">
         <v>618</v>
       </c>
-      <c r="R92" s="7" t="n">
+      <c r="R92" s="18" t="n">
         <v>85.8</v>
       </c>
-      <c r="S92" s="10" t="n">
+      <c r="S92" s="21" t="n">
         <v>883</v>
       </c>
-      <c r="T92" s="7" t="n">
+      <c r="T92" s="18" t="n">
         <v>72</v>
       </c>
-      <c r="U92" s="10" t="n">
+      <c r="U92" s="21" t="n">
         <v>1754</v>
       </c>
-      <c r="V92" s="7" t="n">
+      <c r="V92" s="18" t="n">
         <v>53.8</v>
       </c>
-      <c r="W92" s="10" t="n">
+      <c r="W92" s="21" t="n">
         <v>1648</v>
       </c>
-      <c r="X92" s="7" t="n">
+      <c r="X92" s="18" t="n">
         <v>55.7</v>
       </c>
-      <c r="Y92" s="10" t="n">
+      <c r="Y92" s="21" t="n">
         <v>1215</v>
       </c>
-      <c r="Z92" s="7" t="n">
+      <c r="Z92" s="18" t="n">
         <v>62.9</v>
       </c>
     </row>
@@ -6515,158 +6544,158 @@
           <t>LittleBaldHead</t>
         </is>
       </c>
-      <c r="C93" s="5" t="inlineStr">
+      <c r="C93" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E93" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" s="10" t="n">
+      <c r="E93" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F93" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H93" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" s="21" t="n">
         <v>1475</v>
       </c>
-      <c r="J93" s="9" t="n">
+      <c r="J93" s="22" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="K93" s="8" t="n">
+      <c r="K93" s="19" t="n">
         <v>1350</v>
       </c>
-      <c r="L93" s="9" t="n">
+      <c r="L93" s="22" t="n">
         <v>69.8</v>
       </c>
-      <c r="M93" s="10" t="n">
+      <c r="M93" s="21" t="n">
         <v>1313</v>
       </c>
-      <c r="N93" s="9" t="n">
+      <c r="N93" s="22" t="n">
         <v>64.8</v>
       </c>
-      <c r="O93" s="10" t="n">
+      <c r="O93" s="21" t="n">
         <v>939</v>
       </c>
-      <c r="P93" s="9" t="n">
+      <c r="P93" s="22" t="n">
         <v>68.3</v>
       </c>
-      <c r="Q93" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S93" s="10" t="n">
+      <c r="Q93" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R93" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" s="21" t="n">
         <v>806</v>
       </c>
-      <c r="T93" s="9" t="n">
+      <c r="T93" s="22" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="U93" s="6" t="n">
+      <c r="U93" s="20" t="n">
         <v>474</v>
       </c>
-      <c r="V93" s="9" t="n">
+      <c r="V93" s="22" t="n">
         <v>90.2</v>
       </c>
-      <c r="W93" s="8" t="n">
+      <c r="W93" s="19" t="n">
         <v>711</v>
       </c>
-      <c r="X93" s="9" t="n">
+      <c r="X93" s="22" t="n">
         <v>80.2</v>
       </c>
-      <c r="Y93" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z93" s="9" t="n">
+      <c r="Y93" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z93" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="inlineStr">
+      <c r="A94" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B94" s="4" t="inlineStr">
+      <c r="B94" s="16" t="inlineStr">
         <is>
           <t>QAMichaelPeng</t>
         </is>
       </c>
-      <c r="C94" s="5" t="inlineStr">
+      <c r="C94" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E94" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F94" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H94" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" s="6" t="n">
+      <c r="E94" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F94" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H94" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" s="20" t="n">
         <v>91</v>
       </c>
-      <c r="J94" s="7" t="n">
+      <c r="J94" s="18" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="K94" s="6" t="n">
+      <c r="K94" s="20" t="n">
         <v>58</v>
       </c>
-      <c r="L94" s="7" t="n">
+      <c r="L94" s="18" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="M94" s="6" t="n">
+      <c r="M94" s="20" t="n">
         <v>255</v>
       </c>
-      <c r="N94" s="7" t="n">
+      <c r="N94" s="18" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="O94" s="8" t="n">
+      <c r="O94" s="19" t="n">
         <v>178</v>
       </c>
-      <c r="P94" s="7" t="n">
+      <c r="P94" s="18" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="Q94" s="6" t="n">
+      <c r="Q94" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="R94" s="7" t="n">
+      <c r="R94" s="18" t="n">
         <v>99.7</v>
       </c>
-      <c r="S94" s="6" t="n">
+      <c r="S94" s="20" t="n">
         <v>109</v>
       </c>
-      <c r="T94" s="7" t="n">
+      <c r="T94" s="18" t="n">
         <v>97.8</v>
       </c>
-      <c r="U94" s="8" t="n">
+      <c r="U94" s="19" t="n">
         <v>675</v>
       </c>
-      <c r="V94" s="7" t="n">
+      <c r="V94" s="18" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="W94" s="6" t="n">
+      <c r="W94" s="20" t="n">
         <v>163</v>
       </c>
-      <c r="X94" s="7" t="n">
+      <c r="X94" s="18" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="Y94" s="6" t="n">
+      <c r="Y94" s="20" t="n">
         <v>117</v>
       </c>
-      <c r="Z94" s="7" t="n">
+      <c r="Z94" s="18" t="n">
         <v>97.40000000000001</v>
       </c>
     </row>
@@ -6681,158 +6710,158 @@
           <t>Suhe</t>
         </is>
       </c>
-      <c r="C95" s="5" t="inlineStr">
+      <c r="C95" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E95" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F95" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H95" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11" t="n">
+      <c r="E95" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F95" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H95" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="23" t="n">
         <v>2546</v>
       </c>
-      <c r="J95" s="9" t="n">
+      <c r="J95" s="22" t="n">
         <v>40.4</v>
       </c>
-      <c r="K95" s="8" t="n">
+      <c r="K95" s="19" t="n">
         <v>1469</v>
       </c>
-      <c r="L95" s="9" t="n">
+      <c r="L95" s="22" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="M95" s="10" t="n">
+      <c r="M95" s="21" t="n">
         <v>1546</v>
       </c>
-      <c r="N95" s="9" t="n">
+      <c r="N95" s="22" t="n">
         <v>60.4</v>
       </c>
-      <c r="O95" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P95" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="10" t="n">
+      <c r="O95" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P95" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="21" t="n">
         <v>1838</v>
       </c>
-      <c r="R95" s="9" t="n">
+      <c r="R95" s="22" t="n">
         <v>47.8</v>
       </c>
-      <c r="S95" s="10" t="n">
+      <c r="S95" s="21" t="n">
         <v>1275</v>
       </c>
-      <c r="T95" s="9" t="n">
+      <c r="T95" s="22" t="n">
         <v>64</v>
       </c>
-      <c r="U95" s="11" t="n">
+      <c r="U95" s="23" t="n">
         <v>2217</v>
       </c>
-      <c r="V95" s="9" t="n">
+      <c r="V95" s="22" t="n">
         <v>39.2</v>
       </c>
-      <c r="W95" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X95" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="11" t="n">
+      <c r="W95" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X95" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="23" t="n">
         <v>1637</v>
       </c>
-      <c r="Z95" s="9" t="n">
+      <c r="Z95" s="22" t="n">
         <v>48.5</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="inlineStr">
+      <c r="A96" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B96" s="4" t="inlineStr">
+      <c r="B96" s="16" t="inlineStr">
         <is>
           <t>Vicky_Owen</t>
         </is>
       </c>
-      <c r="C96" s="5" t="inlineStr">
+      <c r="C96" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E96" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S96" s="8" t="n">
+      <c r="E96" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F96" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H96" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J96" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L96" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N96" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P96" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R96" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" s="19" t="n">
         <v>560</v>
       </c>
-      <c r="T96" s="7" t="n">
+      <c r="T96" s="18" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="U96" s="6" t="n">
+      <c r="U96" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="V96" s="7" t="n">
+      <c r="V96" s="18" t="n">
         <v>95</v>
       </c>
-      <c r="W96" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="10" t="n">
+      <c r="W96" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X96" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="21" t="n">
         <v>1302</v>
       </c>
-      <c r="Z96" s="7" t="n">
+      <c r="Z96" s="18" t="n">
         <v>61</v>
       </c>
     </row>
@@ -6847,158 +6876,158 @@
           <t>XRS</t>
         </is>
       </c>
-      <c r="C97" s="5" t="inlineStr">
+      <c r="C97" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E97" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="11" t="n">
+      <c r="E97" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="23" t="n">
         <v>2394</v>
       </c>
-      <c r="R97" s="9" t="n">
+      <c r="R97" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="S97" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U97" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W97" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z97" s="9" t="n">
+      <c r="S97" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X97" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z97" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="inlineStr">
+      <c r="A98" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B98" s="4" t="inlineStr">
+      <c r="B98" s="16" t="inlineStr">
         <is>
           <t>XYang93</t>
         </is>
       </c>
-      <c r="C98" s="5" t="inlineStr">
+      <c r="C98" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E98" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" s="11" t="n">
+      <c r="E98" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F98" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H98" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J98" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L98" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N98" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" s="23" t="n">
         <v>1585</v>
       </c>
-      <c r="P98" s="7" t="n">
+      <c r="P98" s="18" t="n">
         <v>48.4</v>
       </c>
-      <c r="Q98" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S98" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U98" s="11" t="n">
+      <c r="Q98" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R98" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T98" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" s="23" t="n">
         <v>2382</v>
       </c>
-      <c r="V98" s="7" t="n">
+      <c r="V98" s="18" t="n">
         <v>35.8</v>
       </c>
-      <c r="W98" s="8" t="n">
+      <c r="W98" s="19" t="n">
         <v>942</v>
       </c>
-      <c r="X98" s="7" t="n">
+      <c r="X98" s="18" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="Y98" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z98" s="7" t="n">
+      <c r="Y98" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z98" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7013,158 +7042,158 @@
           <t>ZOEGREEN</t>
         </is>
       </c>
-      <c r="C99" s="5" t="inlineStr">
+      <c r="C99" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E99" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F99" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H99" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J99" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L99" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" s="8" t="n">
+      <c r="E99" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F99" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H99" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J99" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L99" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="19" t="n">
         <v>674</v>
       </c>
-      <c r="N99" s="9" t="n">
+      <c r="N99" s="22" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c r="O99" s="8" t="n">
+      <c r="O99" s="19" t="n">
         <v>411</v>
       </c>
-      <c r="P99" s="9" t="n">
+      <c r="P99" s="22" t="n">
         <v>85.5</v>
       </c>
-      <c r="Q99" s="10" t="n">
+      <c r="Q99" s="21" t="n">
         <v>1348</v>
       </c>
-      <c r="R99" s="9" t="n">
+      <c r="R99" s="22" t="n">
         <v>59</v>
       </c>
-      <c r="S99" s="10" t="n">
+      <c r="S99" s="21" t="n">
         <v>1280</v>
       </c>
-      <c r="T99" s="9" t="n">
+      <c r="T99" s="22" t="n">
         <v>63.9</v>
       </c>
-      <c r="U99" s="8" t="n">
+      <c r="U99" s="19" t="n">
         <v>967</v>
       </c>
-      <c r="V99" s="9" t="n">
+      <c r="V99" s="22" t="n">
         <v>75</v>
       </c>
-      <c r="W99" s="8" t="n">
+      <c r="W99" s="19" t="n">
         <v>460</v>
       </c>
-      <c r="X99" s="9" t="n">
+      <c r="X99" s="22" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="Y99" s="11" t="n">
+      <c r="Y99" s="23" t="n">
         <v>2181</v>
       </c>
-      <c r="Z99" s="9" t="n">
+      <c r="Z99" s="22" t="n">
         <v>36.4</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="inlineStr">
+      <c r="A100" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B100" s="4" t="inlineStr">
+      <c r="B100" s="16" t="inlineStr">
         <is>
           <t>ZhuYamei</t>
         </is>
       </c>
-      <c r="C100" s="5" t="inlineStr">
+      <c r="C100" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E100" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F100" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H100" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J100" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L100" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N100" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" s="11" t="n">
+      <c r="E100" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F100" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H100" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J100" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L100" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N100" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" s="23" t="n">
         <v>1771</v>
       </c>
-      <c r="P100" s="7" t="n">
+      <c r="P100" s="18" t="n">
         <v>44.1</v>
       </c>
-      <c r="Q100" s="6" t="n">
+      <c r="Q100" s="20" t="n">
         <v>664</v>
       </c>
-      <c r="R100" s="7" t="n">
+      <c r="R100" s="18" t="n">
         <v>84.7</v>
       </c>
-      <c r="S100" s="8" t="n">
+      <c r="S100" s="19" t="n">
         <v>506</v>
       </c>
-      <c r="T100" s="7" t="n">
+      <c r="T100" s="18" t="n">
         <v>84.7</v>
       </c>
-      <c r="U100" s="10" t="n">
+      <c r="U100" s="21" t="n">
         <v>1717</v>
       </c>
-      <c r="V100" s="7" t="n">
+      <c r="V100" s="18" t="n">
         <v>54.6</v>
       </c>
-      <c r="W100" s="8" t="n">
+      <c r="W100" s="19" t="n">
         <v>865</v>
       </c>
-      <c r="X100" s="7" t="n">
+      <c r="X100" s="18" t="n">
         <v>77</v>
       </c>
-      <c r="Y100" s="8" t="n">
+      <c r="Y100" s="19" t="n">
         <v>567</v>
       </c>
-      <c r="Z100" s="7" t="n">
+      <c r="Z100" s="18" t="n">
         <v>82.40000000000001</v>
       </c>
     </row>
@@ -7179,158 +7208,158 @@
           <t>banrenmasanxing</t>
         </is>
       </c>
-      <c r="C101" s="5" t="inlineStr">
+      <c r="C101" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E101" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F101" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" s="8" t="n">
+      <c r="E101" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="19" t="n">
         <v>1852</v>
       </c>
-      <c r="H101" s="9" t="n">
+      <c r="H101" s="22" t="n">
         <v>58.6</v>
       </c>
-      <c r="I101" s="10" t="n">
+      <c r="I101" s="21" t="n">
         <v>2042</v>
       </c>
-      <c r="J101" s="9" t="n">
+      <c r="J101" s="22" t="n">
         <v>54.2</v>
       </c>
-      <c r="K101" s="10" t="n">
+      <c r="K101" s="21" t="n">
         <v>2579</v>
       </c>
-      <c r="L101" s="9" t="n">
+      <c r="L101" s="22" t="n">
         <v>41.9</v>
       </c>
-      <c r="M101" s="11" t="n">
+      <c r="M101" s="23" t="n">
         <v>2502</v>
       </c>
-      <c r="N101" s="9" t="n">
+      <c r="N101" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="O101" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P101" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R101" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S101" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T101" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U101" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V101" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W101" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X101" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z101" s="9" t="n">
+      <c r="O101" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z101" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="inlineStr">
+      <c r="A102" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B102" s="4" t="inlineStr">
+      <c r="B102" s="16" t="inlineStr">
         <is>
           <t>bellumpara</t>
         </is>
       </c>
-      <c r="C102" s="5" t="inlineStr">
+      <c r="C102" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E102" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" s="8" t="n">
+      <c r="E102" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F102" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H102" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J102" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L102" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N102" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" s="19" t="n">
         <v>379</v>
       </c>
-      <c r="P102" s="7" t="n">
+      <c r="P102" s="18" t="n">
         <v>86.3</v>
       </c>
-      <c r="Q102" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S102" s="10" t="n">
+      <c r="Q102" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R102" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" s="21" t="n">
         <v>913</v>
       </c>
-      <c r="T102" s="7" t="n">
+      <c r="T102" s="18" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="U102" s="10" t="n">
+      <c r="U102" s="21" t="n">
         <v>1223</v>
       </c>
-      <c r="V102" s="7" t="n">
+      <c r="V102" s="18" t="n">
         <v>64.8</v>
       </c>
-      <c r="W102" s="10" t="n">
+      <c r="W102" s="21" t="n">
         <v>1181</v>
       </c>
-      <c r="X102" s="7" t="n">
+      <c r="X102" s="18" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="Y102" s="10" t="n">
+      <c r="Y102" s="21" t="n">
         <v>1109</v>
       </c>
-      <c r="Z102" s="7" t="n">
+      <c r="Z102" s="18" t="n">
         <v>65.3</v>
       </c>
     </row>
@@ -7345,158 +7374,158 @@
           <t>crossbowman</t>
         </is>
       </c>
-      <c r="C103" s="5" t="inlineStr">
+      <c r="C103" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E103" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S103" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U103" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W103" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z103" s="9" t="n">
+      <c r="E103" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z103" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="inlineStr">
+      <c r="A104" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B104" s="4" t="inlineStr">
+      <c r="B104" s="16" t="inlineStr">
         <is>
           <t>deerstalker</t>
         </is>
       </c>
-      <c r="C104" s="5" t="inlineStr">
+      <c r="C104" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E104" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F104" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H104" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J104" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" s="8" t="n">
+      <c r="E104" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F104" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H104" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J104" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" s="19" t="n">
         <v>1675</v>
       </c>
-      <c r="L104" s="7" t="n">
+      <c r="L104" s="18" t="n">
         <v>63.8</v>
       </c>
-      <c r="M104" s="10" t="n">
+      <c r="M104" s="21" t="n">
         <v>1870</v>
       </c>
-      <c r="N104" s="7" t="n">
+      <c r="N104" s="18" t="n">
         <v>54.2</v>
       </c>
-      <c r="O104" s="11" t="n">
+      <c r="O104" s="23" t="n">
         <v>1958</v>
       </c>
-      <c r="P104" s="7" t="n">
+      <c r="P104" s="18" t="n">
         <v>39.8</v>
       </c>
-      <c r="Q104" s="10" t="n">
+      <c r="Q104" s="21" t="n">
         <v>1832</v>
       </c>
-      <c r="R104" s="7" t="n">
+      <c r="R104" s="18" t="n">
         <v>47.9</v>
       </c>
-      <c r="S104" s="10" t="n">
+      <c r="S104" s="21" t="n">
         <v>908</v>
       </c>
-      <c r="T104" s="7" t="n">
+      <c r="T104" s="18" t="n">
         <v>71.5</v>
       </c>
-      <c r="U104" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V104" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W104" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X104" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="10" t="n">
+      <c r="U104" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V104" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X104" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="21" t="n">
         <v>1361</v>
       </c>
-      <c r="Z104" s="7" t="n">
+      <c r="Z104" s="18" t="n">
         <v>59.6</v>
       </c>
     </row>
@@ -7511,158 +7540,158 @@
           <t>dhf13</t>
         </is>
       </c>
-      <c r="C105" s="5" t="inlineStr">
+      <c r="C105" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E105" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F105" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H105" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J105" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L105" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" s="10" t="n">
+      <c r="E105" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F105" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H105" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J105" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L105" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="21" t="n">
         <v>925</v>
       </c>
-      <c r="N105" s="9" t="n">
+      <c r="N105" s="22" t="n">
         <v>72.3</v>
       </c>
-      <c r="O105" s="11" t="n">
+      <c r="O105" s="23" t="n">
         <v>1462</v>
       </c>
-      <c r="P105" s="9" t="n">
+      <c r="P105" s="22" t="n">
         <v>51.3</v>
       </c>
-      <c r="Q105" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R105" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S105" s="8" t="n">
+      <c r="Q105" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R105" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" s="19" t="n">
         <v>430</v>
       </c>
-      <c r="T105" s="9" t="n">
+      <c r="T105" s="22" t="n">
         <v>86.2</v>
       </c>
-      <c r="U105" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V105" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W105" s="6" t="n">
+      <c r="U105" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V105" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" s="20" t="n">
         <v>225</v>
       </c>
-      <c r="X105" s="9" t="n">
+      <c r="X105" s="22" t="n">
         <v>95.3</v>
       </c>
-      <c r="Y105" s="8" t="n">
+      <c r="Y105" s="19" t="n">
         <v>500</v>
       </c>
-      <c r="Z105" s="9" t="n">
+      <c r="Z105" s="22" t="n">
         <v>83.8</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="4" t="inlineStr">
+      <c r="A106" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B106" s="4" t="inlineStr">
+      <c r="B106" s="16" t="inlineStr">
         <is>
           <t>fuxuemingzhu</t>
         </is>
       </c>
-      <c r="C106" s="5" t="inlineStr">
+      <c r="C106" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E106" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F106" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" s="6" t="n">
+      <c r="E106" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F106" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="20" t="n">
         <v>28</v>
       </c>
-      <c r="H106" s="7" t="n">
+      <c r="H106" s="18" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="I106" s="8" t="n">
+      <c r="I106" s="19" t="n">
         <v>364</v>
       </c>
-      <c r="J106" s="7" t="n">
+      <c r="J106" s="18" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="K106" s="8" t="n">
+      <c r="K106" s="19" t="n">
         <v>859</v>
       </c>
-      <c r="L106" s="7" t="n">
+      <c r="L106" s="18" t="n">
         <v>79</v>
       </c>
-      <c r="M106" s="10" t="n">
+      <c r="M106" s="21" t="n">
         <v>1338</v>
       </c>
-      <c r="N106" s="7" t="n">
+      <c r="N106" s="18" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="O106" s="10" t="n">
+      <c r="O106" s="21" t="n">
         <v>885</v>
       </c>
-      <c r="P106" s="7" t="n">
+      <c r="P106" s="18" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Q106" s="10" t="n">
+      <c r="Q106" s="21" t="n">
         <v>1573</v>
       </c>
-      <c r="R106" s="7" t="n">
+      <c r="R106" s="18" t="n">
         <v>53.9</v>
       </c>
-      <c r="S106" s="10" t="n">
+      <c r="S106" s="21" t="n">
         <v>828</v>
       </c>
-      <c r="T106" s="7" t="n">
+      <c r="T106" s="18" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="U106" s="8" t="n">
+      <c r="U106" s="19" t="n">
         <v>846</v>
       </c>
-      <c r="V106" s="7" t="n">
+      <c r="V106" s="18" t="n">
         <v>77.5</v>
       </c>
-      <c r="W106" s="8" t="n">
+      <c r="W106" s="19" t="n">
         <v>459</v>
       </c>
-      <c r="X106" s="7" t="n">
+      <c r="X106" s="18" t="n">
         <v>85.5</v>
       </c>
-      <c r="Y106" s="10" t="n">
+      <c r="Y106" s="21" t="n">
         <v>1117</v>
       </c>
-      <c r="Z106" s="7" t="n">
+      <c r="Z106" s="18" t="n">
         <v>65.09999999999999</v>
       </c>
     </row>
@@ -7677,158 +7706,158 @@
           <t>fyang618</t>
         </is>
       </c>
-      <c r="C107" s="5" t="inlineStr">
+      <c r="C107" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E107" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F107" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H107" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" s="10" t="n">
+      <c r="E107" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="21" t="n">
         <v>1285</v>
       </c>
-      <c r="J107" s="9" t="n">
+      <c r="J107" s="22" t="n">
         <v>67.5</v>
       </c>
-      <c r="K107" s="8" t="n">
+      <c r="K107" s="19" t="n">
         <v>1737</v>
       </c>
-      <c r="L107" s="9" t="n">
+      <c r="L107" s="22" t="n">
         <v>62.6</v>
       </c>
-      <c r="M107" s="11" t="n">
+      <c r="M107" s="23" t="n">
         <v>2064</v>
       </c>
-      <c r="N107" s="9" t="n">
+      <c r="N107" s="22" t="n">
         <v>45.4</v>
       </c>
-      <c r="O107" s="11" t="n">
+      <c r="O107" s="23" t="n">
         <v>1848</v>
       </c>
-      <c r="P107" s="9" t="n">
+      <c r="P107" s="22" t="n">
         <v>42.4</v>
       </c>
-      <c r="Q107" s="8" t="n">
+      <c r="Q107" s="19" t="n">
         <v>997</v>
       </c>
-      <c r="R107" s="9" t="n">
+      <c r="R107" s="22" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="S107" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T107" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U107" s="8" t="n">
+      <c r="S107" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" s="19" t="n">
         <v>872</v>
       </c>
-      <c r="V107" s="9" t="n">
+      <c r="V107" s="22" t="n">
         <v>77</v>
       </c>
-      <c r="W107" s="8" t="n">
+      <c r="W107" s="19" t="n">
         <v>484</v>
       </c>
-      <c r="X107" s="9" t="n">
+      <c r="X107" s="22" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="Y107" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z107" s="9" t="n">
+      <c r="Y107" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z107" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="inlineStr">
+      <c r="A108" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B108" s="4" t="inlineStr">
+      <c r="B108" s="16" t="inlineStr">
         <is>
           <t>gzh47</t>
         </is>
       </c>
-      <c r="C108" s="5" t="inlineStr">
+      <c r="C108" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E108" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F108" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H108" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" s="11" t="n">
+      <c r="E108" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F108" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H108" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="23" t="n">
         <v>2884</v>
       </c>
-      <c r="J108" s="7" t="n">
+      <c r="J108" s="18" t="n">
         <v>34.4</v>
       </c>
-      <c r="K108" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L108" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" s="8" t="n">
+      <c r="K108" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L108" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="19" t="n">
         <v>714</v>
       </c>
-      <c r="N108" s="7" t="n">
+      <c r="N108" s="18" t="n">
         <v>81.3</v>
       </c>
-      <c r="O108" s="10" t="n">
+      <c r="O108" s="21" t="n">
         <v>888</v>
       </c>
-      <c r="P108" s="7" t="n">
+      <c r="P108" s="18" t="n">
         <v>69.5</v>
       </c>
-      <c r="Q108" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R108" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S108" s="11" t="n">
+      <c r="Q108" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R108" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" s="23" t="n">
         <v>1641</v>
       </c>
-      <c r="T108" s="7" t="n">
+      <c r="T108" s="18" t="n">
         <v>51.5</v>
       </c>
-      <c r="U108" s="6" t="n">
+      <c r="U108" s="20" t="n">
         <v>502</v>
       </c>
-      <c r="V108" s="7" t="n">
+      <c r="V108" s="18" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="W108" s="6" t="n">
+      <c r="W108" s="20" t="n">
         <v>233</v>
       </c>
-      <c r="X108" s="7" t="n">
+      <c r="X108" s="18" t="n">
         <v>95.2</v>
       </c>
-      <c r="Y108" s="8" t="n">
+      <c r="Y108" s="19" t="n">
         <v>578</v>
       </c>
-      <c r="Z108" s="7" t="n">
+      <c r="Z108" s="18" t="n">
         <v>82.09999999999999</v>
       </c>
     </row>
@@ -7843,158 +7872,158 @@
           <t>hgzry812</t>
         </is>
       </c>
-      <c r="C109" s="5" t="inlineStr">
+      <c r="C109" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E109" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S109" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U109" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W109" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z109" s="9" t="n">
+      <c r="E109" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z109" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="inlineStr">
+      <c r="A110" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B110" s="4" t="inlineStr">
+      <c r="B110" s="16" t="inlineStr">
         <is>
           <t>jiancheng2</t>
         </is>
       </c>
-      <c r="C110" s="5" t="inlineStr">
+      <c r="C110" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E110" s="11" t="n">
+      <c r="E110" s="23" t="n">
         <v>3089</v>
       </c>
-      <c r="F110" s="7" t="n">
+      <c r="F110" s="18" t="n">
         <v>37.1</v>
       </c>
-      <c r="G110" s="8" t="n">
+      <c r="G110" s="19" t="n">
         <v>1457</v>
       </c>
-      <c r="H110" s="7" t="n">
+      <c r="H110" s="18" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="I110" s="8" t="n">
+      <c r="I110" s="19" t="n">
         <v>819</v>
       </c>
-      <c r="J110" s="7" t="n">
+      <c r="J110" s="18" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="K110" s="6" t="n">
+      <c r="K110" s="20" t="n">
         <v>514</v>
       </c>
-      <c r="L110" s="7" t="n">
+      <c r="L110" s="18" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="M110" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N110" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P110" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R110" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S110" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T110" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U110" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V110" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W110" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X110" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z110" s="7" t="n">
+      <c r="M110" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N110" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P110" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R110" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T110" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V110" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X110" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z110" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8009,158 +8038,158 @@
           <t>jiang718</t>
         </is>
       </c>
-      <c r="C111" s="5" t="inlineStr">
+      <c r="C111" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E111" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S111" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U111" s="8" t="n">
+      <c r="E111" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" s="19" t="n">
         <v>544</v>
       </c>
-      <c r="V111" s="9" t="n">
+      <c r="V111" s="22" t="n">
         <v>83.8</v>
       </c>
-      <c r="W111" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="8" t="n">
+      <c r="W111" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="19" t="n">
         <v>461</v>
       </c>
-      <c r="Z111" s="9" t="n">
+      <c r="Z111" s="22" t="n">
         <v>84.7</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="4" t="inlineStr">
+      <c r="A112" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B112" s="4" t="inlineStr">
+      <c r="B112" s="16" t="inlineStr">
         <is>
           <t>jianzhun</t>
         </is>
       </c>
-      <c r="C112" s="5" t="inlineStr">
+      <c r="C112" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E112" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F112" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H112" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J112" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L112" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" s="8" t="n">
+      <c r="E112" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F112" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H112" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J112" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L112" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" s="19" t="n">
         <v>448</v>
       </c>
-      <c r="N112" s="7" t="n">
+      <c r="N112" s="18" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="O112" s="11" t="n">
+      <c r="O112" s="23" t="n">
         <v>1841</v>
       </c>
-      <c r="P112" s="7" t="n">
+      <c r="P112" s="18" t="n">
         <v>42.5</v>
       </c>
-      <c r="Q112" s="6" t="n">
+      <c r="Q112" s="20" t="n">
         <v>813</v>
       </c>
-      <c r="R112" s="7" t="n">
+      <c r="R112" s="18" t="n">
         <v>81.3</v>
       </c>
-      <c r="S112" s="6" t="n">
+      <c r="S112" s="20" t="n">
         <v>205</v>
       </c>
-      <c r="T112" s="7" t="n">
+      <c r="T112" s="18" t="n">
         <v>95.8</v>
       </c>
-      <c r="U112" s="6" t="n">
+      <c r="U112" s="20" t="n">
         <v>518</v>
       </c>
-      <c r="V112" s="7" t="n">
+      <c r="V112" s="18" t="n">
         <v>89.3</v>
       </c>
-      <c r="W112" s="8" t="n">
+      <c r="W112" s="19" t="n">
         <v>672</v>
       </c>
-      <c r="X112" s="7" t="n">
+      <c r="X112" s="18" t="n">
         <v>81</v>
       </c>
-      <c r="Y112" s="8" t="n">
+      <c r="Y112" s="19" t="n">
         <v>642</v>
       </c>
-      <c r="Z112" s="7" t="n">
+      <c r="Z112" s="18" t="n">
         <v>80.7</v>
       </c>
     </row>
@@ -8175,158 +8204,158 @@
           <t>kaihaohust</t>
         </is>
       </c>
-      <c r="C113" s="5" t="inlineStr">
+      <c r="C113" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E113" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F113" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H113" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J113" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" s="8" t="n">
+      <c r="E113" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" s="19" t="n">
         <v>838</v>
       </c>
-      <c r="L113" s="9" t="n">
+      <c r="L113" s="22" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="M113" s="10" t="n">
+      <c r="M113" s="21" t="n">
         <v>917</v>
       </c>
-      <c r="N113" s="9" t="n">
+      <c r="N113" s="22" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="O113" s="8" t="n">
+      <c r="O113" s="19" t="n">
         <v>195</v>
       </c>
-      <c r="P113" s="9" t="n">
+      <c r="P113" s="22" t="n">
         <v>90.5</v>
       </c>
-      <c r="Q113" s="6" t="n">
+      <c r="Q113" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="R113" s="9" t="n">
+      <c r="R113" s="22" t="n">
         <v>99</v>
       </c>
-      <c r="S113" s="8" t="n">
+      <c r="S113" s="19" t="n">
         <v>497</v>
       </c>
-      <c r="T113" s="9" t="n">
+      <c r="T113" s="22" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="U113" s="6" t="n">
+      <c r="U113" s="20" t="n">
         <v>336</v>
       </c>
-      <c r="V113" s="9" t="n">
+      <c r="V113" s="22" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="W113" s="8" t="n">
+      <c r="W113" s="19" t="n">
         <v>443</v>
       </c>
-      <c r="X113" s="9" t="n">
+      <c r="X113" s="22" t="n">
         <v>85.8</v>
       </c>
-      <c r="Y113" s="8" t="n">
+      <c r="Y113" s="19" t="n">
         <v>290</v>
       </c>
-      <c r="Z113" s="9" t="n">
+      <c r="Z113" s="22" t="n">
         <v>88.5</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="inlineStr">
+      <c r="A114" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B114" s="4" t="inlineStr">
+      <c r="B114" s="16" t="inlineStr">
         <is>
           <t>krain033</t>
         </is>
       </c>
-      <c r="C114" s="5" t="inlineStr">
+      <c r="C114" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E114" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S114" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U114" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W114" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="8" t="n">
+      <c r="E114" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="19" t="n">
         <v>641</v>
       </c>
-      <c r="Z114" s="7" t="n">
+      <c r="Z114" s="18" t="n">
         <v>80.7</v>
       </c>
     </row>
@@ -8341,158 +8370,158 @@
           <t>pjincz</t>
         </is>
       </c>
-      <c r="C115" s="5" t="inlineStr">
+      <c r="C115" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E115" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F115" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H115" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" s="6" t="n">
+      <c r="E115" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F115" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H115" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="20" t="n">
         <v>35</v>
       </c>
-      <c r="J115" s="9" t="n">
+      <c r="J115" s="22" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="K115" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L115" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" s="6" t="n">
+      <c r="K115" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L115" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="20" t="n">
         <v>48</v>
       </c>
-      <c r="N115" s="9" t="n">
+      <c r="N115" s="22" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="O115" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P115" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="6" t="n">
+      <c r="O115" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P115" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="R115" s="9" t="n">
+      <c r="R115" s="22" t="n">
         <v>99.3</v>
       </c>
-      <c r="S115" s="6" t="n">
+      <c r="S115" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="T115" s="9" t="n">
+      <c r="T115" s="22" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="U115" s="6" t="n">
+      <c r="U115" s="20" t="n">
         <v>93</v>
       </c>
-      <c r="V115" s="9" t="n">
+      <c r="V115" s="22" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="W115" s="6" t="n">
+      <c r="W115" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="X115" s="9" t="n">
+      <c r="X115" s="22" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="Y115" s="6" t="n">
+      <c r="Y115" s="20" t="n">
         <v>39</v>
       </c>
-      <c r="Z115" s="9" t="n">
+      <c r="Z115" s="22" t="n">
         <v>99.09999999999999</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="inlineStr">
+      <c r="A116" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B116" s="4" t="inlineStr">
+      <c r="B116" s="16" t="inlineStr">
         <is>
           <t>sissishiny</t>
         </is>
       </c>
-      <c r="C116" s="5" t="inlineStr">
+      <c r="C116" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E116" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S116" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U116" s="10" t="n">
+      <c r="E116" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" s="21" t="n">
         <v>1727</v>
       </c>
-      <c r="V116" s="7" t="n">
+      <c r="V116" s="18" t="n">
         <v>54.4</v>
       </c>
-      <c r="W116" s="8" t="n">
+      <c r="W116" s="19" t="n">
         <v>385</v>
       </c>
-      <c r="X116" s="7" t="n">
+      <c r="X116" s="18" t="n">
         <v>87</v>
       </c>
-      <c r="Y116" s="10" t="n">
+      <c r="Y116" s="21" t="n">
         <v>870</v>
       </c>
-      <c r="Z116" s="7" t="n">
+      <c r="Z116" s="18" t="n">
         <v>70.59999999999999</v>
       </c>
     </row>
@@ -8507,158 +8536,158 @@
           <t>softair</t>
         </is>
       </c>
-      <c r="C117" s="5" t="inlineStr">
+      <c r="C117" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E117" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F117" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H117" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J117" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L117" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N117" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" s="10" t="n">
+      <c r="E117" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" s="21" t="n">
         <v>781</v>
       </c>
-      <c r="P117" s="9" t="n">
+      <c r="P117" s="22" t="n">
         <v>72</v>
       </c>
-      <c r="Q117" s="8" t="n">
+      <c r="Q117" s="19" t="n">
         <v>1262</v>
       </c>
-      <c r="R117" s="9" t="n">
+      <c r="R117" s="22" t="n">
         <v>66</v>
       </c>
-      <c r="S117" s="8" t="n">
+      <c r="S117" s="19" t="n">
         <v>617</v>
       </c>
-      <c r="T117" s="9" t="n">
+      <c r="T117" s="22" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="U117" s="8" t="n">
+      <c r="U117" s="19" t="n">
         <v>948</v>
       </c>
-      <c r="V117" s="9" t="n">
+      <c r="V117" s="22" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="W117" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X117" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y117" s="10" t="n">
+      <c r="W117" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X117" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="21" t="n">
         <v>1332</v>
       </c>
-      <c r="Z117" s="9" t="n">
+      <c r="Z117" s="22" t="n">
         <v>60.3</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="inlineStr">
+      <c r="A118" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B118" s="4" t="inlineStr">
+      <c r="B118" s="16" t="inlineStr">
         <is>
           <t>wendyimayday</t>
         </is>
       </c>
-      <c r="C118" s="5" t="inlineStr">
+      <c r="C118" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E118" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F118" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H118" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J118" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L118" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" s="10" t="n">
+      <c r="E118" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F118" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H118" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J118" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L118" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="21" t="n">
         <v>1089</v>
       </c>
-      <c r="N118" s="7" t="n">
+      <c r="N118" s="18" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="O118" s="10" t="n">
+      <c r="O118" s="21" t="n">
         <v>1074</v>
       </c>
-      <c r="P118" s="7" t="n">
+      <c r="P118" s="18" t="n">
         <v>65.2</v>
       </c>
-      <c r="Q118" s="8" t="n">
+      <c r="Q118" s="19" t="n">
         <v>1228</v>
       </c>
-      <c r="R118" s="7" t="n">
+      <c r="R118" s="18" t="n">
         <v>66.8</v>
       </c>
-      <c r="S118" s="10" t="n">
+      <c r="S118" s="21" t="n">
         <v>721</v>
       </c>
-      <c r="T118" s="7" t="n">
+      <c r="T118" s="18" t="n">
         <v>75.3</v>
       </c>
-      <c r="U118" s="6" t="n">
+      <c r="U118" s="20" t="n">
         <v>420</v>
       </c>
-      <c r="V118" s="7" t="n">
+      <c r="V118" s="18" t="n">
         <v>91.3</v>
       </c>
-      <c r="W118" s="8" t="n">
+      <c r="W118" s="19" t="n">
         <v>793</v>
       </c>
-      <c r="X118" s="7" t="n">
+      <c r="X118" s="18" t="n">
         <v>78.5</v>
       </c>
-      <c r="Y118" s="11" t="n">
+      <c r="Y118" s="23" t="n">
         <v>1904</v>
       </c>
-      <c r="Z118" s="7" t="n">
+      <c r="Z118" s="18" t="n">
         <v>42.5</v>
       </c>
     </row>
@@ -8673,158 +8702,158 @@
           <t>xfzhao</t>
         </is>
       </c>
-      <c r="C119" s="5" t="inlineStr">
+      <c r="C119" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E119" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F119" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H119" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" s="11" t="n">
+      <c r="E119" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="23" t="n">
         <v>2477</v>
       </c>
-      <c r="J119" s="9" t="n">
+      <c r="J119" s="22" t="n">
         <v>41.6</v>
       </c>
-      <c r="K119" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L119" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" s="11" t="n">
+      <c r="K119" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="N119" s="9" t="n">
+      <c r="N119" s="22" t="n">
         <v>46.2</v>
       </c>
-      <c r="O119" s="10" t="n">
+      <c r="O119" s="21" t="n">
         <v>587</v>
       </c>
-      <c r="P119" s="9" t="n">
+      <c r="P119" s="22" t="n">
         <v>76.5</v>
       </c>
-      <c r="Q119" s="6" t="n">
+      <c r="Q119" s="20" t="n">
         <v>654</v>
       </c>
-      <c r="R119" s="9" t="n">
+      <c r="R119" s="22" t="n">
         <v>85</v>
       </c>
-      <c r="S119" s="10" t="n">
+      <c r="S119" s="21" t="n">
         <v>1297</v>
       </c>
-      <c r="T119" s="9" t="n">
+      <c r="T119" s="22" t="n">
         <v>63.6</v>
       </c>
-      <c r="U119" s="10" t="n">
+      <c r="U119" s="21" t="n">
         <v>1181</v>
       </c>
-      <c r="V119" s="9" t="n">
+      <c r="V119" s="22" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="W119" s="10" t="n">
+      <c r="W119" s="21" t="n">
         <v>1234</v>
       </c>
-      <c r="X119" s="9" t="n">
+      <c r="X119" s="22" t="n">
         <v>64.3</v>
       </c>
-      <c r="Y119" s="11" t="n">
+      <c r="Y119" s="23" t="n">
         <v>2048</v>
       </c>
-      <c r="Z119" s="9" t="n">
+      <c r="Z119" s="22" t="n">
         <v>39.3</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr">
+      <c r="A120" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="B120" s="16" t="inlineStr">
         <is>
           <t>xxnzym</t>
         </is>
       </c>
-      <c r="C120" s="5" t="inlineStr">
+      <c r="C120" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E120" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F120" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H120" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J120" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L120" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" s="7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N120" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" s="11" t="n">
+      <c r="E120" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F120" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H120" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J120" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L120" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N120" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="23" t="n">
         <v>1799</v>
       </c>
-      <c r="P120" s="7" t="n">
+      <c r="P120" s="18" t="n">
         <v>43.5</v>
       </c>
-      <c r="Q120" s="6" t="n">
+      <c r="Q120" s="20" t="n">
         <v>404</v>
       </c>
-      <c r="R120" s="7" t="n">
+      <c r="R120" s="18" t="n">
         <v>90.7</v>
       </c>
-      <c r="S120" s="8" t="n">
+      <c r="S120" s="19" t="n">
         <v>629</v>
       </c>
-      <c r="T120" s="7" t="n">
+      <c r="T120" s="18" t="n">
         <v>82.2</v>
       </c>
-      <c r="U120" s="10" t="n">
+      <c r="U120" s="21" t="n">
         <v>1612</v>
       </c>
-      <c r="V120" s="7" t="n">
+      <c r="V120" s="18" t="n">
         <v>56.7</v>
       </c>
-      <c r="W120" s="8" t="n">
+      <c r="W120" s="19" t="n">
         <v>477</v>
       </c>
-      <c r="X120" s="7" t="n">
+      <c r="X120" s="18" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="Y120" s="10" t="n">
+      <c r="Y120" s="21" t="n">
         <v>1153</v>
       </c>
-      <c r="Z120" s="7" t="n">
+      <c r="Z120" s="18" t="n">
         <v>64.3</v>
       </c>
     </row>
@@ -8839,75 +8868,75 @@
           <t>yykfight</t>
         </is>
       </c>
-      <c r="C121" s="5" t="inlineStr">
+      <c r="C121" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E121" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F121" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" s="9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H121" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" s="11" t="n">
+      <c r="E121" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="23" t="n">
         <v>2517</v>
       </c>
-      <c r="J121" s="9" t="n">
+      <c r="J121" s="22" t="n">
         <v>40.9</v>
       </c>
-      <c r="K121" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L121" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" s="10" t="n">
+      <c r="K121" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="21" t="n">
         <v>1315</v>
       </c>
-      <c r="N121" s="9" t="n">
+      <c r="N121" s="22" t="n">
         <v>64.8</v>
       </c>
-      <c r="O121" s="10" t="n">
+      <c r="O121" s="21" t="n">
         <v>957</v>
       </c>
-      <c r="P121" s="9" t="n">
+      <c r="P121" s="22" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="Q121" s="6" t="n">
+      <c r="Q121" s="20" t="n">
         <v>741</v>
       </c>
-      <c r="R121" s="9" t="n">
+      <c r="R121" s="22" t="n">
         <v>83</v>
       </c>
-      <c r="S121" s="9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T121" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U121" s="10" t="n">
+      <c r="S121" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" s="21" t="n">
         <v>2034</v>
       </c>
-      <c r="V121" s="9" t="n">
+      <c r="V121" s="22" t="n">
         <v>48</v>
       </c>
-      <c r="W121" s="8" t="n">
+      <c r="W121" s="19" t="n">
         <v>914</v>
       </c>
-      <c r="X121" s="9" t="n">
+      <c r="X121" s="22" t="n">
         <v>76</v>
       </c>
-      <c r="Y121" s="10" t="n">
+      <c r="Y121" s="21" t="n">
         <v>995</v>
       </c>
-      <c r="Z121" s="9" t="n">
+      <c r="Z121" s="22" t="n">
         <v>67.8</v>
       </c>
     </row>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -128,10 +128,10 @@
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1022,6 +1022,11 @@
       <c r="Z9" s="10" t="n">
         <v>97.5</v>
       </c>
+      <c r="AA9" s="12" t="inlineStr">
+        <is>
+          <t>单身</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
@@ -1144,7 +1149,7 @@
       <c r="N11" s="10" t="n">
         <v>93.8</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="13" t="n">
         <v>1800</v>
       </c>
       <c r="P11" s="10" t="n">
@@ -1490,7 +1495,7 @@
       <c r="X15" s="10" t="n">
         <v>73.7</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="13" t="n">
         <v>1455</v>
       </c>
       <c r="Z15" s="10" t="n">
@@ -2031,7 +2036,7 @@
       <c r="T22" s="7" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="U22" s="12" t="n">
+      <c r="U22" s="13" t="n">
         <v>2350</v>
       </c>
       <c r="V22" s="7" t="n">
@@ -2122,7 +2127,7 @@
       <c r="X23" s="10" t="n">
         <v>86.5</v>
       </c>
-      <c r="Y23" s="12" t="n">
+      <c r="Y23" s="13" t="n">
         <v>1421</v>
       </c>
       <c r="Z23" s="10" t="n">
@@ -2329,7 +2334,7 @@
       <c r="N26" s="7" t="n">
         <v>72.2</v>
       </c>
-      <c r="O26" s="12" t="n">
+      <c r="O26" s="13" t="n">
         <v>1623</v>
       </c>
       <c r="P26" s="7" t="n">
@@ -2499,7 +2504,7 @@
       <c r="R28" s="7" t="n">
         <v>55</v>
       </c>
-      <c r="S28" s="12" t="n">
+      <c r="S28" s="13" t="n">
         <v>1573</v>
       </c>
       <c r="T28" s="7" t="n">
@@ -2724,7 +2729,7 @@
       <c r="N31" s="10" t="n">
         <v>68.3</v>
       </c>
-      <c r="O31" s="12" t="n">
+      <c r="O31" s="13" t="n">
         <v>1353</v>
       </c>
       <c r="P31" s="10" t="n">
@@ -2754,7 +2759,7 @@
       <c r="X31" s="10" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="Y31" s="12" t="n">
+      <c r="Y31" s="13" t="n">
         <v>1799</v>
       </c>
       <c r="Z31" s="10" t="n">
@@ -2882,7 +2887,7 @@
       <c r="N33" s="10" t="n">
         <v>53.6</v>
       </c>
-      <c r="O33" s="12" t="n">
+      <c r="O33" s="13" t="n">
         <v>1347</v>
       </c>
       <c r="P33" s="10" t="n">
@@ -2894,7 +2899,7 @@
       <c r="R33" s="10" t="n">
         <v>46.9</v>
       </c>
-      <c r="S33" s="12" t="n">
+      <c r="S33" s="13" t="n">
         <v>1900</v>
       </c>
       <c r="T33" s="10" t="n">
@@ -2912,7 +2917,7 @@
       <c r="X33" s="10" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="Y33" s="12" t="n">
+      <c r="Y33" s="13" t="n">
         <v>2018</v>
       </c>
       <c r="Z33" s="10" t="n">
@@ -3046,13 +3051,13 @@
       <c r="P35" s="10" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="Q35" s="12" t="n">
+      <c r="Q35" s="13" t="n">
         <v>2267</v>
       </c>
       <c r="R35" s="10" t="n">
         <v>32.9</v>
       </c>
-      <c r="S35" s="12" t="n">
+      <c r="S35" s="13" t="n">
         <v>1917</v>
       </c>
       <c r="T35" s="10" t="n">
@@ -3070,7 +3075,7 @@
       <c r="X35" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="Y35" s="12" t="n">
+      <c r="Y35" s="13" t="n">
         <v>2014</v>
       </c>
       <c r="Z35" s="10" t="n">
@@ -3192,7 +3197,7 @@
       <c r="L37" s="10" t="n">
         <v>72.3</v>
       </c>
-      <c r="M37" s="12" t="n">
+      <c r="M37" s="13" t="n">
         <v>1988</v>
       </c>
       <c r="N37" s="10" t="n">
@@ -3204,7 +3209,7 @@
       <c r="P37" s="10" t="n">
         <v>77.2</v>
       </c>
-      <c r="Q37" s="12" t="n">
+      <c r="Q37" s="13" t="n">
         <v>2045</v>
       </c>
       <c r="R37" s="10" t="n">
@@ -3289,7 +3294,7 @@
       <c r="R38" s="7" t="n">
         <v>56.2</v>
       </c>
-      <c r="S38" s="12" t="n">
+      <c r="S38" s="13" t="n">
         <v>1754</v>
       </c>
       <c r="T38" s="7" t="n">
@@ -3423,7 +3428,7 @@
       <c r="J40" s="7" t="n">
         <v>88.3</v>
       </c>
-      <c r="K40" s="12" t="n">
+      <c r="K40" s="13" t="n">
         <v>2698</v>
       </c>
       <c r="L40" s="7" t="n">
@@ -3538,7 +3543,7 @@
       <c r="V41" s="10" t="n">
         <v>91.8</v>
       </c>
-      <c r="W41" s="12" t="n">
+      <c r="W41" s="13" t="n">
         <v>2384</v>
       </c>
       <c r="X41" s="10" t="n">
@@ -3593,7 +3598,7 @@
       <c r="N42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O42" s="12" t="n">
+      <c r="O42" s="13" t="n">
         <v>1903</v>
       </c>
       <c r="P42" s="7" t="n">
@@ -3623,7 +3628,7 @@
       <c r="X42" s="7" t="n">
         <v>55.9</v>
       </c>
-      <c r="Y42" s="12" t="n">
+      <c r="Y42" s="13" t="n">
         <v>2157</v>
       </c>
       <c r="Z42" s="7" t="n">
@@ -3684,7 +3689,7 @@
       <c r="R43" s="10" t="n">
         <v>52.2</v>
       </c>
-      <c r="S43" s="12" t="n">
+      <c r="S43" s="13" t="n">
         <v>1860</v>
       </c>
       <c r="T43" s="10" t="n">
@@ -3751,7 +3756,7 @@
       <c r="N44" s="7" t="n">
         <v>53.7</v>
       </c>
-      <c r="O44" s="12" t="n">
+      <c r="O44" s="13" t="n">
         <v>2215</v>
       </c>
       <c r="P44" s="7" t="n">
@@ -3842,7 +3847,7 @@
       <c r="R45" s="10" t="n">
         <v>51.6</v>
       </c>
-      <c r="S45" s="12" t="n">
+      <c r="S45" s="13" t="n">
         <v>1463</v>
       </c>
       <c r="T45" s="10" t="n">
@@ -3903,13 +3908,13 @@
       <c r="L46" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="M46" s="12" t="n">
+      <c r="M46" s="13" t="n">
         <v>2171</v>
       </c>
       <c r="N46" s="7" t="n">
         <v>43.4</v>
       </c>
-      <c r="O46" s="12" t="n">
+      <c r="O46" s="13" t="n">
         <v>1235</v>
       </c>
       <c r="P46" s="7" t="n">
@@ -3988,7 +3993,7 @@
       <c r="N47" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="O47" s="12" t="n">
+      <c r="O47" s="13" t="n">
         <v>1378</v>
       </c>
       <c r="P47" s="10" t="n">
@@ -4043,7 +4048,7 @@
       <c r="F48" s="7" t="n">
         <v>53.5</v>
       </c>
-      <c r="G48" s="12" t="n">
+      <c r="G48" s="13" t="n">
         <v>2790</v>
       </c>
       <c r="H48" s="7" t="n">
@@ -4061,13 +4066,13 @@
       <c r="L48" s="7" t="n">
         <v>42.6</v>
       </c>
-      <c r="M48" s="12" t="n">
+      <c r="M48" s="13" t="n">
         <v>2137</v>
       </c>
       <c r="N48" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="O48" s="12" t="n">
+      <c r="O48" s="13" t="n">
         <v>1744</v>
       </c>
       <c r="P48" s="7" t="n">
@@ -4091,7 +4096,7 @@
       <c r="V48" s="7" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="W48" s="12" t="n">
+      <c r="W48" s="13" t="n">
         <v>2546</v>
       </c>
       <c r="X48" s="7" t="n">
@@ -4274,7 +4279,7 @@
       <c r="C51" s="5" t="n">
         <v>61.1</v>
       </c>
-      <c r="E51" s="12" t="n">
+      <c r="E51" s="13" t="n">
         <v>3161</v>
       </c>
       <c r="F51" s="10" t="n">
@@ -4286,7 +4291,7 @@
       <c r="H51" s="10" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="I51" s="12" t="n">
+      <c r="I51" s="13" t="n">
         <v>2634</v>
       </c>
       <c r="J51" s="10" t="n">
@@ -4304,7 +4309,7 @@
       <c r="N51" s="10" t="n">
         <v>57.7</v>
       </c>
-      <c r="O51" s="12" t="n">
+      <c r="O51" s="13" t="n">
         <v>1913</v>
       </c>
       <c r="P51" s="10" t="n">
@@ -4316,7 +4321,7 @@
       <c r="R51" s="10" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="S51" s="12" t="n">
+      <c r="S51" s="13" t="n">
         <v>1762</v>
       </c>
       <c r="T51" s="10" t="n">
@@ -4353,7 +4358,7 @@
       <c r="C52" s="5" t="n">
         <v>60.4</v>
       </c>
-      <c r="E52" s="12" t="n">
+      <c r="E52" s="13" t="n">
         <v>2911</v>
       </c>
       <c r="F52" s="7" t="n">
@@ -4401,7 +4406,7 @@
       <c r="T52" s="7" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="U52" s="12" t="n">
+      <c r="U52" s="13" t="n">
         <v>2615</v>
       </c>
       <c r="V52" s="7" t="n">
@@ -4590,7 +4595,7 @@
       <c r="C55" s="5" t="n">
         <v>59.3</v>
       </c>
-      <c r="E55" s="12" t="n">
+      <c r="E55" s="13" t="n">
         <v>3087</v>
       </c>
       <c r="F55" s="10" t="n">
@@ -4602,7 +4607,7 @@
       <c r="H55" s="10" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="I55" s="12" t="n">
+      <c r="I55" s="13" t="n">
         <v>2611</v>
       </c>
       <c r="J55" s="10" t="n">
@@ -4620,7 +4625,7 @@
       <c r="N55" s="10" t="n">
         <v>58.4</v>
       </c>
-      <c r="O55" s="12" t="n">
+      <c r="O55" s="13" t="n">
         <v>1625</v>
       </c>
       <c r="P55" s="10" t="n">
@@ -4632,7 +4637,7 @@
       <c r="R55" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="S55" s="12" t="n">
+      <c r="S55" s="13" t="n">
         <v>1665</v>
       </c>
       <c r="T55" s="10" t="n">
@@ -4650,7 +4655,7 @@
       <c r="X55" s="10" t="n">
         <v>60.9</v>
       </c>
-      <c r="Y55" s="12" t="n">
+      <c r="Y55" s="13" t="n">
         <v>2011</v>
       </c>
       <c r="Z55" s="10" t="n">
@@ -4669,7 +4674,7 @@
       <c r="C56" s="5" t="n">
         <v>58.1</v>
       </c>
-      <c r="E56" s="12" t="n">
+      <c r="E56" s="13" t="n">
         <v>3004</v>
       </c>
       <c r="F56" s="7" t="n">
@@ -4693,7 +4698,7 @@
       <c r="L56" s="7" t="n">
         <v>47.7</v>
       </c>
-      <c r="M56" s="12" t="n">
+      <c r="M56" s="13" t="n">
         <v>2338</v>
       </c>
       <c r="N56" s="7" t="n">
@@ -4705,13 +4710,13 @@
       <c r="P56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q56" s="12" t="n">
+      <c r="Q56" s="13" t="n">
         <v>2316</v>
       </c>
       <c r="R56" s="7" t="n">
         <v>31.8</v>
       </c>
-      <c r="S56" s="12" t="n">
+      <c r="S56" s="13" t="n">
         <v>1778</v>
       </c>
       <c r="T56" s="7" t="n">
@@ -4729,7 +4734,7 @@
       <c r="X56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Y56" s="12" t="n">
+      <c r="Y56" s="13" t="n">
         <v>1537</v>
       </c>
       <c r="Z56" s="7" t="n">
@@ -4778,7 +4783,7 @@
       <c r="N57" s="10" t="n">
         <v>58.7</v>
       </c>
-      <c r="O57" s="12" t="n">
+      <c r="O57" s="13" t="n">
         <v>2138</v>
       </c>
       <c r="P57" s="10" t="n">
@@ -4869,7 +4874,7 @@
       <c r="R58" s="7" t="n">
         <v>65.8</v>
       </c>
-      <c r="S58" s="12" t="n">
+      <c r="S58" s="13" t="n">
         <v>1838</v>
       </c>
       <c r="T58" s="7" t="n">
@@ -4918,7 +4923,7 @@
       <c r="H59" s="10" t="n">
         <v>44.9</v>
       </c>
-      <c r="I59" s="12" t="n">
+      <c r="I59" s="13" t="n">
         <v>2473</v>
       </c>
       <c r="J59" s="10" t="n">
@@ -4954,7 +4959,7 @@
       <c r="T59" s="10" t="n">
         <v>66.5</v>
       </c>
-      <c r="U59" s="12" t="n">
+      <c r="U59" s="13" t="n">
         <v>2124</v>
       </c>
       <c r="V59" s="10" t="n">
@@ -5070,7 +5075,7 @@
       <c r="F61" s="10" t="n">
         <v>88.5</v>
       </c>
-      <c r="G61" s="12" t="n">
+      <c r="G61" s="13" t="n">
         <v>3209</v>
       </c>
       <c r="H61" s="10" t="n">
@@ -5386,7 +5391,7 @@
       <c r="F65" s="10" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="G65" s="12" t="n">
+      <c r="G65" s="13" t="n">
         <v>2798</v>
       </c>
       <c r="H65" s="10" t="n">
@@ -5422,7 +5427,7 @@
       <c r="R65" s="10" t="n">
         <v>57.6</v>
       </c>
-      <c r="S65" s="12" t="n">
+      <c r="S65" s="13" t="n">
         <v>1642</v>
       </c>
       <c r="T65" s="10" t="n">
@@ -5459,7 +5464,7 @@
       <c r="C66" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="E66" s="12" t="n">
+      <c r="E66" s="13" t="n">
         <v>2902</v>
       </c>
       <c r="F66" s="7" t="n">
@@ -5477,13 +5482,13 @@
       <c r="J66" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="K66" s="12" t="n">
+      <c r="K66" s="13" t="n">
         <v>2838</v>
       </c>
       <c r="L66" s="7" t="n">
         <v>32.1</v>
       </c>
-      <c r="M66" s="12" t="n">
+      <c r="M66" s="13" t="n">
         <v>2397</v>
       </c>
       <c r="N66" s="7" t="n">
@@ -5495,7 +5500,7 @@
       <c r="P66" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q66" s="12" t="n">
+      <c r="Q66" s="13" t="n">
         <v>2034</v>
       </c>
       <c r="R66" s="7" t="n">
@@ -5604,9 +5609,9 @@
       <c r="Z67" s="10" t="n">
         <v>73</v>
       </c>
-      <c r="AA67" s="13" t="inlineStr">
-        <is>
-          <t>单身！</t>
+      <c r="AA67" s="12" t="inlineStr">
+        <is>
+          <t>单身</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5627,7 @@
       <c r="C68" s="5" t="n">
         <v>46.2</v>
       </c>
-      <c r="E68" s="12" t="n">
+      <c r="E68" s="13" t="n">
         <v>3274</v>
       </c>
       <c r="F68" s="7" t="n">
@@ -5701,7 +5706,7 @@
       <c r="C69" s="5" t="n">
         <v>45.8</v>
       </c>
-      <c r="E69" s="12" t="n">
+      <c r="E69" s="13" t="n">
         <v>2815</v>
       </c>
       <c r="F69" s="10" t="n">
@@ -5725,7 +5730,7 @@
       <c r="L69" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="M69" s="12" t="n">
+      <c r="M69" s="13" t="n">
         <v>2526</v>
       </c>
       <c r="N69" s="10" t="n">
@@ -5786,13 +5791,13 @@
       <c r="F70" s="7" t="n">
         <v>51.2</v>
       </c>
-      <c r="G70" s="12" t="n">
+      <c r="G70" s="13" t="n">
         <v>2702</v>
       </c>
       <c r="H70" s="7" t="n">
         <v>31.9</v>
       </c>
-      <c r="I70" s="12" t="n">
+      <c r="I70" s="13" t="n">
         <v>2944</v>
       </c>
       <c r="J70" s="7" t="n">
@@ -5865,7 +5870,7 @@
       <c r="F71" s="10" t="n">
         <v>55.4</v>
       </c>
-      <c r="G71" s="12" t="n">
+      <c r="G71" s="13" t="n">
         <v>3055</v>
       </c>
       <c r="H71" s="10" t="n">
@@ -5938,7 +5943,7 @@
       <c r="C72" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="E72" s="12" t="n">
+      <c r="E72" s="13" t="n">
         <v>3302</v>
       </c>
       <c r="F72" s="7" t="n">
@@ -5962,25 +5967,25 @@
       <c r="L72" s="7" t="n">
         <v>55.9</v>
       </c>
-      <c r="M72" s="12" t="n">
+      <c r="M72" s="13" t="n">
         <v>2574</v>
       </c>
       <c r="N72" s="7" t="n">
         <v>35.7</v>
       </c>
-      <c r="O72" s="12" t="n">
+      <c r="O72" s="13" t="n">
         <v>2230</v>
       </c>
       <c r="P72" s="7" t="n">
         <v>33.6</v>
       </c>
-      <c r="Q72" s="12" t="n">
+      <c r="Q72" s="13" t="n">
         <v>1951</v>
       </c>
       <c r="R72" s="7" t="n">
         <v>40.2</v>
       </c>
-      <c r="S72" s="12" t="n">
+      <c r="S72" s="13" t="n">
         <v>1373</v>
       </c>
       <c r="T72" s="7" t="n">
@@ -5998,7 +6003,7 @@
       <c r="X72" s="7" t="n">
         <v>60.6</v>
       </c>
-      <c r="Y72" s="12" t="n">
+      <c r="Y72" s="13" t="n">
         <v>2119</v>
       </c>
       <c r="Z72" s="7" t="n">
@@ -6017,7 +6022,7 @@
       <c r="C73" s="5" t="n">
         <v>36.6</v>
       </c>
-      <c r="E73" s="12" t="n">
+      <c r="E73" s="13" t="n">
         <v>3124</v>
       </c>
       <c r="F73" s="10" t="n">
@@ -6156,7 +6161,7 @@
       <c r="X74" s="7" t="n">
         <v>76.5</v>
       </c>
-      <c r="Y74" s="12" t="n">
+      <c r="Y74" s="13" t="n">
         <v>1855</v>
       </c>
       <c r="Z74" s="7" t="n">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>Contest</t>
   </si>
@@ -155,6 +155,9 @@
     <t>user760</t>
   </si>
   <si>
+    <t>SummerYang19</t>
+  </si>
+  <si>
     <t>zhengfu23</t>
   </si>
   <si>
@@ -290,133 +293,133 @@
     <t>liuguanhuaLouie</t>
   </si>
   <si>
+    <t>user6745</t>
+  </si>
+  <si>
+    <t>bingyy</t>
+  </si>
+  <si>
+    <t>wolf940509</t>
+  </si>
+  <si>
+    <t>-1:     absent/zero</t>
+  </si>
+  <si>
+    <t>-2:     not joined</t>
+  </si>
+  <si>
+    <t>-3:     left/quited</t>
+  </si>
+  <si>
+    <t>More about the Rules</t>
+  </si>
+  <si>
+    <t>See the full list of daily problems</t>
+  </si>
+  <si>
+    <t>Graduated or laidoff members in 2019</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Brooky</t>
+  </si>
+  <si>
+    <t>DorisGe</t>
+  </si>
+  <si>
+    <t>Lisanaaa</t>
+  </si>
+  <si>
+    <t>LittleBaldHead</t>
+  </si>
+  <si>
+    <t>QAMichaelPeng</t>
+  </si>
+  <si>
+    <t>Spencial</t>
+  </si>
+  <si>
+    <t>Suhe</t>
+  </si>
+  <si>
+    <t>Vicky_Owen</t>
+  </si>
+  <si>
+    <t>XRS</t>
+  </si>
+  <si>
+    <t>XYang93</t>
+  </si>
+  <si>
+    <t>ZOEGREEN</t>
+  </si>
+  <si>
+    <t>ZhuYamei</t>
+  </si>
+  <si>
+    <t>banrenmasanxing</t>
+  </si>
+  <si>
+    <t>bellumpara</t>
+  </si>
+  <si>
+    <t>cookiecookie</t>
+  </si>
+  <si>
+    <t>crossbowman</t>
+  </si>
+  <si>
+    <t>deerstalker</t>
+  </si>
+  <si>
+    <t>dhf13</t>
+  </si>
+  <si>
+    <t>fuxuemingzhu</t>
+  </si>
+  <si>
+    <t>fyang618</t>
+  </si>
+  <si>
+    <t>hgzry812</t>
+  </si>
+  <si>
+    <t>jiancheng2</t>
+  </si>
+  <si>
+    <t>jiang718</t>
+  </si>
+  <si>
+    <t>jianzhun</t>
+  </si>
+  <si>
+    <t>kaihaohust</t>
+  </si>
+  <si>
+    <t>krain033</t>
+  </si>
+  <si>
+    <t>memoryfraction</t>
+  </si>
+  <si>
+    <t>onodahiro</t>
+  </si>
+  <si>
+    <t>phoenixPan</t>
+  </si>
+  <si>
+    <t>pjincz</t>
+  </si>
+  <si>
+    <t>sissishiny</t>
+  </si>
+  <si>
+    <t>softair</t>
+  </si>
+  <si>
     <t>summeryang19</t>
-  </si>
-  <si>
-    <t>user6745</t>
-  </si>
-  <si>
-    <t>bingyy</t>
-  </si>
-  <si>
-    <t>wolf940509</t>
-  </si>
-  <si>
-    <t>-1:     absent/zero</t>
-  </si>
-  <si>
-    <t>-2:     not joined</t>
-  </si>
-  <si>
-    <t>-3:     left/quited</t>
-  </si>
-  <si>
-    <t>More about the Rules</t>
-  </si>
-  <si>
-    <t>See the full list of daily problems</t>
-  </si>
-  <si>
-    <t>Graduated or laidoff members in 2019</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Brooky</t>
-  </si>
-  <si>
-    <t>DorisGe</t>
-  </si>
-  <si>
-    <t>Lisanaaa</t>
-  </si>
-  <si>
-    <t>LittleBaldHead</t>
-  </si>
-  <si>
-    <t>QAMichaelPeng</t>
-  </si>
-  <si>
-    <t>Spencial</t>
-  </si>
-  <si>
-    <t>Suhe</t>
-  </si>
-  <si>
-    <t>Vicky_Owen</t>
-  </si>
-  <si>
-    <t>XRS</t>
-  </si>
-  <si>
-    <t>XYang93</t>
-  </si>
-  <si>
-    <t>ZOEGREEN</t>
-  </si>
-  <si>
-    <t>ZhuYamei</t>
-  </si>
-  <si>
-    <t>banrenmasanxing</t>
-  </si>
-  <si>
-    <t>bellumpara</t>
-  </si>
-  <si>
-    <t>cookiecookie</t>
-  </si>
-  <si>
-    <t>crossbowman</t>
-  </si>
-  <si>
-    <t>deerstalker</t>
-  </si>
-  <si>
-    <t>dhf13</t>
-  </si>
-  <si>
-    <t>fuxuemingzhu</t>
-  </si>
-  <si>
-    <t>fyang618</t>
-  </si>
-  <si>
-    <t>hgzry812</t>
-  </si>
-  <si>
-    <t>jiancheng2</t>
-  </si>
-  <si>
-    <t>jiang718</t>
-  </si>
-  <si>
-    <t>jianzhun</t>
-  </si>
-  <si>
-    <t>kaihaohust</t>
-  </si>
-  <si>
-    <t>krain033</t>
-  </si>
-  <si>
-    <t>memoryfraction</t>
-  </si>
-  <si>
-    <t>onodahiro</t>
-  </si>
-  <si>
-    <t>phoenixPan</t>
-  </si>
-  <si>
-    <t>pjincz</t>
-  </si>
-  <si>
-    <t>sissishiny</t>
-  </si>
-  <si>
-    <t>softair</t>
   </si>
   <si>
     <t>wendyimayday</t>
@@ -882,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC147"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4562,7 +4565,7 @@
         <v>79.90000000000001</v>
       </c>
       <c s="11" t="n" r="E47">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c s="9" t="n" r="F47">
         <v>79.90000000000001</v>
@@ -4642,79 +4645,79 @@
         <v>47</v>
       </c>
       <c s="5" t="n" r="C48">
-        <v>78.5</v>
-      </c>
-      <c s="12" t="n" r="E48">
-        <v>1697</v>
+        <v>79.90000000000001</v>
+      </c>
+      <c s="11" t="n" r="E48">
+        <v>816</v>
       </c>
       <c s="7" t="n" r="F48">
-        <v>53.6</v>
-      </c>
-      <c s="11" t="n" r="G48">
-        <v>996</v>
+        <v>79.90000000000001</v>
+      </c>
+      <c s="7" t="n" r="G48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="H48">
-        <v>79.59999999999999</v>
-      </c>
-      <c s="6" t="n" r="I48">
-        <v>1146</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="I48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="J48">
-        <v>77.5</v>
-      </c>
-      <c s="10" t="n" r="K48">
-        <v>1821</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="K48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="L48">
-        <v>58.1</v>
-      </c>
-      <c s="11" t="n" r="M48">
-        <v>1128</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="M48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="N48">
-        <v>74</v>
-      </c>
-      <c s="10" t="n" r="O48">
-        <v>1080</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="O48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="P48">
-        <v>69.3</v>
-      </c>
-      <c s="10" t="n" r="Q48">
-        <v>920</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="Q48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="R48">
-        <v>68.8</v>
-      </c>
-      <c s="10" t="n" r="S48">
-        <v>1473</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="S48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="T48">
-        <v>56.2</v>
-      </c>
-      <c s="12" t="n" r="U48">
-        <v>1754</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="U48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="V48">
-        <v>49.2</v>
-      </c>
-      <c s="11" t="n" r="W48">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="W48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="X48">
-        <v>75.2</v>
-      </c>
-      <c s="11" t="n" r="Y48">
-        <v>975</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="Y48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="Z48">
-        <v>74.7</v>
-      </c>
-      <c s="10" t="n" r="AA48">
-        <v>1133</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="AA48">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="AB48">
-        <v>64.7</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="49">
@@ -4725,79 +4728,79 @@
         <v>48</v>
       </c>
       <c s="5" t="n" r="C49">
-        <v>78.09999999999999</v>
-      </c>
-      <c s="9" t="n" r="E49">
-        <v>-1</v>
+        <v>78.5</v>
+      </c>
+      <c s="12" t="n" r="E49">
+        <v>1697</v>
       </c>
       <c s="9" t="n" r="F49">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="G49">
-        <v>1599</v>
+        <v>53.6</v>
+      </c>
+      <c s="11" t="n" r="G49">
+        <v>996</v>
       </c>
       <c s="9" t="n" r="H49">
-        <v>65.2</v>
+        <v>79.59999999999999</v>
       </c>
       <c s="6" t="n" r="I49">
-        <v>461</v>
+        <v>1146</v>
       </c>
       <c s="9" t="n" r="J49">
-        <v>90.90000000000001</v>
-      </c>
-      <c s="11" t="n" r="K49">
-        <v>1041</v>
+        <v>77.5</v>
+      </c>
+      <c s="10" t="n" r="K49">
+        <v>1821</v>
       </c>
       <c s="9" t="n" r="L49">
-        <v>76.8</v>
-      </c>
-      <c s="6" t="n" r="M49">
-        <v>402</v>
+        <v>58.1</v>
+      </c>
+      <c s="11" t="n" r="M49">
+        <v>1128</v>
       </c>
       <c s="9" t="n" r="N49">
-        <v>92.5</v>
+        <v>74</v>
       </c>
       <c s="10" t="n" r="O49">
-        <v>1124</v>
+        <v>1080</v>
       </c>
       <c s="9" t="n" r="P49">
-        <v>68.5</v>
-      </c>
-      <c s="9" t="n" r="Q49">
-        <v>-2</v>
+        <v>69.3</v>
+      </c>
+      <c s="10" t="n" r="Q49">
+        <v>920</v>
       </c>
       <c s="9" t="n" r="R49">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="S49">
-        <v>-2</v>
+        <v>68.8</v>
+      </c>
+      <c s="10" t="n" r="S49">
+        <v>1473</v>
       </c>
       <c s="9" t="n" r="T49">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="U49">
-        <v>-2</v>
+        <v>56.2</v>
+      </c>
+      <c s="12" t="n" r="U49">
+        <v>1754</v>
       </c>
       <c s="9" t="n" r="V49">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="W49">
-        <v>-2</v>
+        <v>49.2</v>
+      </c>
+      <c s="11" t="n" r="W49">
+        <v>959</v>
       </c>
       <c s="9" t="n" r="X49">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Y49">
-        <v>-2</v>
+        <v>75.2</v>
+      </c>
+      <c s="11" t="n" r="Y49">
+        <v>975</v>
       </c>
       <c s="9" t="n" r="Z49">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="AA49">
-        <v>-2</v>
+        <v>74.7</v>
+      </c>
+      <c s="10" t="n" r="AA49">
+        <v>1133</v>
       </c>
       <c s="9" t="n" r="AB49">
-        <v>0</v>
+        <v>64.7</v>
       </c>
     </row>
     <row spans="1:29" r="50">
@@ -4808,79 +4811,79 @@
         <v>49</v>
       </c>
       <c s="5" t="n" r="C50">
-        <v>77.3</v>
-      </c>
-      <c s="10" t="n" r="E50">
-        <v>924</v>
+        <v>78.09999999999999</v>
+      </c>
+      <c s="7" t="n" r="E50">
+        <v>-1</v>
       </c>
       <c s="7" t="n" r="F50">
-        <v>72.90000000000001</v>
-      </c>
-      <c s="11" t="n" r="G50">
-        <v>858</v>
+        <v>0</v>
+      </c>
+      <c s="10" t="n" r="G50">
+        <v>1599</v>
       </c>
       <c s="7" t="n" r="H50">
-        <v>81.7</v>
-      </c>
-      <c s="11" t="n" r="I50">
-        <v>1928</v>
+        <v>65.2</v>
+      </c>
+      <c s="6" t="n" r="I50">
+        <v>461</v>
       </c>
       <c s="7" t="n" r="J50">
-        <v>57.1</v>
+        <v>90.90000000000001</v>
       </c>
       <c s="11" t="n" r="K50">
-        <v>596</v>
+        <v>1041</v>
       </c>
       <c s="7" t="n" r="L50">
-        <v>84.59999999999999</v>
-      </c>
-      <c s="11" t="n" r="M50">
-        <v>1778</v>
+        <v>76.8</v>
+      </c>
+      <c s="6" t="n" r="M50">
+        <v>402</v>
       </c>
       <c s="7" t="n" r="N50">
-        <v>61.8</v>
+        <v>92.5</v>
       </c>
       <c s="10" t="n" r="O50">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c s="7" t="n" r="P50">
-        <v>68.3</v>
-      </c>
-      <c s="12" t="n" r="Q50">
-        <v>1353</v>
+        <v>68.5</v>
+      </c>
+      <c s="7" t="n" r="Q50">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="R50">
-        <v>53.8</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="S50">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="T50">
         <v>0</v>
       </c>
-      <c s="10" t="n" r="U50">
-        <v>769</v>
+      <c s="7" t="n" r="U50">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="V50">
-        <v>74.3</v>
-      </c>
-      <c s="10" t="n" r="W50">
-        <v>1622</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="W50">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="X50">
-        <v>56.5</v>
-      </c>
-      <c s="11" t="n" r="Y50">
-        <v>556</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="Y50">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="Z50">
-        <v>83.40000000000001</v>
-      </c>
-      <c s="12" t="n" r="AA50">
-        <v>1799</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="AA50">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="AB50">
-        <v>44.9</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="51">
@@ -4891,79 +4894,79 @@
         <v>50</v>
       </c>
       <c s="5" t="n" r="C51">
-        <v>76.7</v>
+        <v>77.3</v>
       </c>
       <c s="10" t="n" r="E51">
-        <v>863</v>
+        <v>924</v>
       </c>
       <c s="9" t="n" r="F51">
-        <v>74</v>
-      </c>
-      <c s="12" t="n" r="G51">
-        <v>3087</v>
+        <v>72.90000000000001</v>
+      </c>
+      <c s="11" t="n" r="G51">
+        <v>858</v>
       </c>
       <c s="9" t="n" r="H51">
-        <v>37.2</v>
-      </c>
-      <c s="6" t="n" r="I51">
-        <v>1047</v>
+        <v>81.7</v>
+      </c>
+      <c s="11" t="n" r="I51">
+        <v>1928</v>
       </c>
       <c s="9" t="n" r="J51">
-        <v>79.40000000000001</v>
-      </c>
-      <c s="12" t="n" r="K51">
-        <v>2611</v>
+        <v>57.1</v>
+      </c>
+      <c s="11" t="n" r="K51">
+        <v>596</v>
       </c>
       <c s="9" t="n" r="L51">
-        <v>39.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c s="11" t="n" r="M51">
-        <v>1640</v>
+        <v>1778</v>
       </c>
       <c s="9" t="n" r="N51">
-        <v>64.40000000000001</v>
+        <v>61.8</v>
       </c>
       <c s="10" t="n" r="O51">
-        <v>1651</v>
+        <v>1133</v>
       </c>
       <c s="9" t="n" r="P51">
-        <v>58.4</v>
+        <v>68.3</v>
       </c>
       <c s="12" t="n" r="Q51">
-        <v>1625</v>
+        <v>1353</v>
       </c>
       <c s="9" t="n" r="R51">
-        <v>47.5</v>
-      </c>
-      <c s="10" t="n" r="S51">
-        <v>1479</v>
+        <v>53.8</v>
+      </c>
+      <c s="9" t="n" r="S51">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="T51">
-        <v>56</v>
-      </c>
-      <c s="12" t="n" r="U51">
-        <v>1665</v>
+        <v>0</v>
+      </c>
+      <c s="10" t="n" r="U51">
+        <v>769</v>
       </c>
       <c s="9" t="n" r="V51">
-        <v>51.1</v>
+        <v>74.3</v>
       </c>
       <c s="10" t="n" r="W51">
-        <v>2099</v>
+        <v>1622</v>
       </c>
       <c s="9" t="n" r="X51">
-        <v>46.7</v>
-      </c>
-      <c s="10" t="n" r="Y51">
-        <v>1398</v>
+        <v>56.5</v>
+      </c>
+      <c s="11" t="n" r="Y51">
+        <v>556</v>
       </c>
       <c s="9" t="n" r="Z51">
-        <v>60.9</v>
+        <v>83.40000000000001</v>
       </c>
       <c s="12" t="n" r="AA51">
-        <v>2011</v>
+        <v>1799</v>
       </c>
       <c s="9" t="n" r="AB51">
-        <v>40.1</v>
+        <v>44.9</v>
       </c>
     </row>
     <row spans="1:29" r="52">
@@ -4974,79 +4977,79 @@
         <v>51</v>
       </c>
       <c s="5" t="n" r="C52">
-        <v>74.7</v>
-      </c>
-      <c s="11" t="n" r="E52">
-        <v>667</v>
+        <v>76.7</v>
+      </c>
+      <c s="10" t="n" r="E52">
+        <v>863</v>
       </c>
       <c s="7" t="n" r="F52">
-        <v>82.7</v>
-      </c>
-      <c s="10" t="n" r="G52">
-        <v>1511</v>
+        <v>74</v>
+      </c>
+      <c s="12" t="n" r="G52">
+        <v>3087</v>
       </c>
       <c s="7" t="n" r="H52">
-        <v>66.59999999999999</v>
-      </c>
-      <c s="11" t="n" r="I52">
-        <v>1919</v>
+        <v>37.2</v>
+      </c>
+      <c s="6" t="n" r="I52">
+        <v>1047</v>
       </c>
       <c s="7" t="n" r="J52">
-        <v>57.3</v>
-      </c>
-      <c s="11" t="n" r="K52">
-        <v>198</v>
+        <v>79.40000000000001</v>
+      </c>
+      <c s="12" t="n" r="K52">
+        <v>2611</v>
       </c>
       <c s="7" t="n" r="L52">
-        <v>91.5</v>
+        <v>39.2</v>
       </c>
       <c s="11" t="n" r="M52">
-        <v>1215</v>
+        <v>1640</v>
       </c>
       <c s="7" t="n" r="N52">
-        <v>72.3</v>
-      </c>
-      <c s="12" t="n" r="O52">
-        <v>1988</v>
+        <v>64.40000000000001</v>
+      </c>
+      <c s="10" t="n" r="O52">
+        <v>1651</v>
       </c>
       <c s="7" t="n" r="P52">
-        <v>46.9</v>
-      </c>
-      <c s="10" t="n" r="Q52">
-        <v>555</v>
+        <v>58.4</v>
+      </c>
+      <c s="12" t="n" r="Q52">
+        <v>1625</v>
       </c>
       <c s="7" t="n" r="R52">
-        <v>77.2</v>
-      </c>
-      <c s="12" t="n" r="S52">
-        <v>2045</v>
+        <v>47.5</v>
+      </c>
+      <c s="10" t="n" r="S52">
+        <v>1479</v>
       </c>
       <c s="7" t="n" r="T52">
-        <v>38</v>
-      </c>
-      <c s="11" t="n" r="U52">
-        <v>625</v>
+        <v>56</v>
+      </c>
+      <c s="12" t="n" r="U52">
+        <v>1665</v>
       </c>
       <c s="7" t="n" r="V52">
-        <v>82.3</v>
+        <v>51.1</v>
       </c>
       <c s="10" t="n" r="W52">
-        <v>1971</v>
+        <v>2099</v>
       </c>
       <c s="7" t="n" r="X52">
-        <v>49.3</v>
-      </c>
-      <c s="11" t="n" r="Y52">
-        <v>886</v>
+        <v>46.7</v>
+      </c>
+      <c s="10" t="n" r="Y52">
+        <v>1398</v>
       </c>
       <c s="7" t="n" r="Z52">
-        <v>76.59999999999999</v>
-      </c>
-      <c s="10" t="n" r="AA52">
-        <v>952</v>
+        <v>60.9</v>
+      </c>
+      <c s="12" t="n" r="AA52">
+        <v>2011</v>
       </c>
       <c s="7" t="n" r="AB52">
-        <v>68.8</v>
+        <v>40.1</v>
       </c>
     </row>
     <row spans="1:29" r="53">
@@ -5057,79 +5060,79 @@
         <v>52</v>
       </c>
       <c s="5" t="n" r="C53">
-        <v>74.40000000000001</v>
-      </c>
-      <c s="10" t="n" r="E53">
-        <v>1192</v>
+        <v>74.7</v>
+      </c>
+      <c s="11" t="n" r="E53">
+        <v>667</v>
       </c>
       <c s="9" t="n" r="F53">
-        <v>68</v>
+        <v>82.7</v>
       </c>
       <c s="10" t="n" r="G53">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c s="9" t="n" r="H53">
         <v>66.59999999999999</v>
       </c>
-      <c s="6" t="n" r="I53">
-        <v>976</v>
+      <c s="11" t="n" r="I53">
+        <v>1919</v>
       </c>
       <c s="9" t="n" r="J53">
-        <v>80.8</v>
-      </c>
-      <c s="10" t="n" r="K53">
-        <v>1479</v>
+        <v>57.3</v>
+      </c>
+      <c s="11" t="n" r="K53">
+        <v>198</v>
       </c>
       <c s="9" t="n" r="L53">
-        <v>64.09999999999999</v>
+        <v>91.5</v>
       </c>
       <c s="11" t="n" r="M53">
-        <v>1614</v>
+        <v>1215</v>
       </c>
       <c s="9" t="n" r="N53">
-        <v>64.90000000000001</v>
-      </c>
-      <c s="10" t="n" r="O53">
-        <v>978</v>
+        <v>72.3</v>
+      </c>
+      <c s="12" t="n" r="O53">
+        <v>1988</v>
       </c>
       <c s="9" t="n" r="P53">
-        <v>71.3</v>
+        <v>46.9</v>
       </c>
       <c s="10" t="n" r="Q53">
-        <v>736</v>
+        <v>555</v>
       </c>
       <c s="9" t="n" r="R53">
-        <v>73</v>
-      </c>
-      <c s="10" t="n" r="S53">
-        <v>1644</v>
+        <v>77.2</v>
+      </c>
+      <c s="12" t="n" r="S53">
+        <v>2045</v>
       </c>
       <c s="9" t="n" r="T53">
-        <v>52.2</v>
-      </c>
-      <c s="12" t="n" r="U53">
-        <v>1860</v>
+        <v>38</v>
+      </c>
+      <c s="11" t="n" r="U53">
+        <v>625</v>
       </c>
       <c s="9" t="n" r="V53">
-        <v>47.1</v>
-      </c>
-      <c s="11" t="n" r="W53">
-        <v>985</v>
+        <v>82.3</v>
+      </c>
+      <c s="10" t="n" r="W53">
+        <v>1971</v>
       </c>
       <c s="9" t="n" r="X53">
-        <v>74.7</v>
+        <v>49.3</v>
       </c>
       <c s="11" t="n" r="Y53">
-        <v>648</v>
+        <v>886</v>
       </c>
       <c s="9" t="n" r="Z53">
-        <v>81.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c s="10" t="n" r="AA53">
-        <v>1210</v>
+        <v>952</v>
       </c>
       <c s="9" t="n" r="AB53">
-        <v>63</v>
+        <v>68.8</v>
       </c>
     </row>
     <row spans="1:29" r="54">
@@ -5140,79 +5143,79 @@
         <v>53</v>
       </c>
       <c s="5" t="n" r="C54">
-        <v>74.09999999999999</v>
-      </c>
-      <c s="6" t="n" r="E54">
-        <v>434</v>
+        <v>74.40000000000001</v>
+      </c>
+      <c s="10" t="n" r="E54">
+        <v>1192</v>
       </c>
       <c s="7" t="n" r="F54">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c s="10" t="n" r="G54">
-        <v>2181</v>
+        <v>1513</v>
       </c>
       <c s="7" t="n" r="H54">
-        <v>56.2</v>
-      </c>
-      <c s="7" t="n" r="I54">
-        <v>-2</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c s="6" t="n" r="I54">
+        <v>976</v>
       </c>
       <c s="7" t="n" r="J54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="K54">
-        <v>-2</v>
+        <v>80.8</v>
+      </c>
+      <c s="10" t="n" r="K54">
+        <v>1479</v>
       </c>
       <c s="7" t="n" r="L54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="M54">
-        <v>-2</v>
+        <v>64.09999999999999</v>
+      </c>
+      <c s="11" t="n" r="M54">
+        <v>1614</v>
       </c>
       <c s="7" t="n" r="N54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="O54">
-        <v>-2</v>
+        <v>64.90000000000001</v>
+      </c>
+      <c s="10" t="n" r="O54">
+        <v>978</v>
       </c>
       <c s="7" t="n" r="P54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Q54">
-        <v>-2</v>
+        <v>71.3</v>
+      </c>
+      <c s="10" t="n" r="Q54">
+        <v>736</v>
       </c>
       <c s="7" t="n" r="R54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="S54">
-        <v>-2</v>
+        <v>73</v>
+      </c>
+      <c s="10" t="n" r="S54">
+        <v>1644</v>
       </c>
       <c s="7" t="n" r="T54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="U54">
-        <v>-2</v>
+        <v>52.2</v>
+      </c>
+      <c s="12" t="n" r="U54">
+        <v>1860</v>
       </c>
       <c s="7" t="n" r="V54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="W54">
-        <v>-2</v>
+        <v>47.1</v>
+      </c>
+      <c s="11" t="n" r="W54">
+        <v>985</v>
       </c>
       <c s="7" t="n" r="X54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Y54">
-        <v>-2</v>
+        <v>74.7</v>
+      </c>
+      <c s="11" t="n" r="Y54">
+        <v>648</v>
       </c>
       <c s="7" t="n" r="Z54">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="AA54">
-        <v>-2</v>
+        <v>81.5</v>
+      </c>
+      <c s="10" t="n" r="AA54">
+        <v>1210</v>
       </c>
       <c s="7" t="n" r="AB54">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row spans="1:29" r="55">
@@ -5223,79 +5226,79 @@
         <v>54</v>
       </c>
       <c s="5" t="n" r="C55">
-        <v>72.90000000000001</v>
-      </c>
-      <c s="11" t="n" r="E55">
-        <v>738</v>
+        <v>74.09999999999999</v>
+      </c>
+      <c s="6" t="n" r="E55">
+        <v>434</v>
       </c>
       <c s="9" t="n" r="F55">
-        <v>81.3</v>
+        <v>92</v>
       </c>
       <c s="10" t="n" r="G55">
-        <v>2075</v>
+        <v>2181</v>
       </c>
       <c s="9" t="n" r="H55">
-        <v>57.9</v>
-      </c>
-      <c s="11" t="n" r="I55">
-        <v>1549</v>
+        <v>56.2</v>
+      </c>
+      <c s="9" t="n" r="I55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="J55">
-        <v>64.59999999999999</v>
-      </c>
-      <c s="6" t="n" r="K55">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="K55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="L55">
-        <v>98.40000000000001</v>
-      </c>
-      <c s="10" t="n" r="M55">
-        <v>2276</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="M55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="N55">
-        <v>47.5</v>
-      </c>
-      <c s="10" t="n" r="O55">
-        <v>1899</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="O55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="P55">
-        <v>53.6</v>
-      </c>
-      <c s="12" t="n" r="Q55">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="Q55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="R55">
-        <v>53.9</v>
-      </c>
-      <c s="10" t="n" r="S55">
-        <v>1877</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="S55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="T55">
-        <v>46.9</v>
-      </c>
-      <c s="12" t="n" r="U55">
-        <v>1900</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="U55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="V55">
-        <v>46.3</v>
-      </c>
-      <c s="10" t="n" r="W55">
-        <v>1414</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="W55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="X55">
-        <v>60.8</v>
-      </c>
-      <c s="11" t="n" r="Y55">
-        <v>510</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="Y55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="Z55">
-        <v>84.40000000000001</v>
-      </c>
-      <c s="12" t="n" r="AA55">
-        <v>2018</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="AA55">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="AB55">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="56">
@@ -5306,79 +5309,79 @@
         <v>55</v>
       </c>
       <c s="5" t="n" r="C56">
-        <v>72.7</v>
-      </c>
-      <c s="6" t="n" r="E56">
-        <v>304</v>
+        <v>72.90000000000001</v>
+      </c>
+      <c s="11" t="n" r="E56">
+        <v>738</v>
       </c>
       <c s="7" t="n" r="F56">
-        <v>94.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c s="10" t="n" r="G56">
-        <v>2522</v>
+        <v>2075</v>
       </c>
       <c s="7" t="n" r="H56">
-        <v>50.9</v>
-      </c>
-      <c s="10" t="n" r="I56">
-        <v>2017</v>
+        <v>57.9</v>
+      </c>
+      <c s="11" t="n" r="I56">
+        <v>1549</v>
       </c>
       <c s="7" t="n" r="J56">
-        <v>50.4</v>
-      </c>
-      <c s="7" t="n" r="K56">
-        <v>-2</v>
+        <v>64.59999999999999</v>
+      </c>
+      <c s="6" t="n" r="K56">
+        <v>94</v>
       </c>
       <c s="7" t="n" r="L56">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="M56">
-        <v>-2</v>
+        <v>98.40000000000001</v>
+      </c>
+      <c s="10" t="n" r="M56">
+        <v>2276</v>
       </c>
       <c s="7" t="n" r="N56">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="O56">
-        <v>-2</v>
+        <v>47.5</v>
+      </c>
+      <c s="10" t="n" r="O56">
+        <v>1899</v>
       </c>
       <c s="7" t="n" r="P56">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Q56">
-        <v>-2</v>
+        <v>53.6</v>
+      </c>
+      <c s="12" t="n" r="Q56">
+        <v>1347</v>
       </c>
       <c s="7" t="n" r="R56">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="S56">
-        <v>-2</v>
+        <v>53.9</v>
+      </c>
+      <c s="10" t="n" r="S56">
+        <v>1877</v>
       </c>
       <c s="7" t="n" r="T56">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="U56">
-        <v>-2</v>
+        <v>46.9</v>
+      </c>
+      <c s="12" t="n" r="U56">
+        <v>1900</v>
       </c>
       <c s="7" t="n" r="V56">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="W56">
-        <v>-2</v>
+        <v>46.3</v>
+      </c>
+      <c s="10" t="n" r="W56">
+        <v>1414</v>
       </c>
       <c s="7" t="n" r="X56">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Y56">
-        <v>-2</v>
+        <v>60.8</v>
+      </c>
+      <c s="11" t="n" r="Y56">
+        <v>510</v>
       </c>
       <c s="7" t="n" r="Z56">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="AA56">
-        <v>-2</v>
+        <v>84.40000000000001</v>
+      </c>
+      <c s="12" t="n" r="AA56">
+        <v>2018</v>
       </c>
       <c s="7" t="n" r="AB56">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row spans="1:29" r="57">
@@ -5389,25 +5392,25 @@
         <v>56</v>
       </c>
       <c s="5" t="n" r="C57">
-        <v>70.5</v>
-      </c>
-      <c s="10" t="n" r="E57">
-        <v>1053</v>
+        <v>72.7</v>
+      </c>
+      <c s="6" t="n" r="E57">
+        <v>304</v>
       </c>
       <c s="9" t="n" r="F57">
-        <v>70.5</v>
-      </c>
-      <c s="9" t="n" r="G57">
-        <v>-2</v>
+        <v>94.40000000000001</v>
+      </c>
+      <c s="10" t="n" r="G57">
+        <v>2522</v>
       </c>
       <c s="9" t="n" r="H57">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I57">
-        <v>-2</v>
+        <v>50.9</v>
+      </c>
+      <c s="10" t="n" r="I57">
+        <v>2017</v>
       </c>
       <c s="9" t="n" r="J57">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c s="9" t="n" r="K57">
         <v>-2</v>
@@ -5472,19 +5475,19 @@
         <v>57</v>
       </c>
       <c s="5" t="n" r="C58">
-        <v>69</v>
-      </c>
-      <c s="11" t="n" r="E58">
-        <v>651</v>
+        <v>70.5</v>
+      </c>
+      <c s="10" t="n" r="E58">
+        <v>1053</v>
       </c>
       <c s="7" t="n" r="F58">
-        <v>83</v>
-      </c>
-      <c s="10" t="n" r="G58">
-        <v>2257</v>
+        <v>70.5</v>
+      </c>
+      <c s="7" t="n" r="G58">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="H58">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="I58">
         <v>-2</v>
@@ -5555,19 +5558,19 @@
         <v>58</v>
       </c>
       <c s="5" t="n" r="C59">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c s="11" t="n" r="E59">
-        <v>514</v>
+        <v>651</v>
       </c>
       <c s="9" t="n" r="F59">
-        <v>85.5</v>
+        <v>83</v>
       </c>
       <c s="10" t="n" r="G59">
-        <v>2441</v>
+        <v>2257</v>
       </c>
       <c s="9" t="n" r="H59">
-        <v>52.2</v>
+        <v>55</v>
       </c>
       <c s="9" t="n" r="I59">
         <v>-2</v>
@@ -5638,19 +5641,19 @@
         <v>59</v>
       </c>
       <c s="5" t="n" r="C60">
-        <v>67.3</v>
-      </c>
-      <c s="12" t="n" r="E60">
-        <v>1486</v>
+        <v>68.8</v>
+      </c>
+      <c s="11" t="n" r="E60">
+        <v>514</v>
       </c>
       <c s="7" t="n" r="F60">
-        <v>57.5</v>
-      </c>
-      <c s="11" t="n" r="G60">
-        <v>1156</v>
+        <v>85.5</v>
+      </c>
+      <c s="10" t="n" r="G60">
+        <v>2441</v>
       </c>
       <c s="7" t="n" r="H60">
-        <v>77.09999999999999</v>
+        <v>52.2</v>
       </c>
       <c s="7" t="n" r="I60">
         <v>-2</v>
@@ -5721,19 +5724,19 @@
         <v>60</v>
       </c>
       <c s="5" t="n" r="C61">
-        <v>67.09999999999999</v>
-      </c>
-      <c s="10" t="n" r="E61">
-        <v>1237</v>
+        <v>67.3</v>
+      </c>
+      <c s="12" t="n" r="E61">
+        <v>1486</v>
       </c>
       <c s="9" t="n" r="F61">
-        <v>67.09999999999999</v>
-      </c>
-      <c s="9" t="n" r="G61">
-        <v>-2</v>
+        <v>57.5</v>
+      </c>
+      <c s="11" t="n" r="G61">
+        <v>1156</v>
       </c>
       <c s="9" t="n" r="H61">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c s="9" t="n" r="I61">
         <v>-2</v>
@@ -5804,79 +5807,79 @@
         <v>61</v>
       </c>
       <c s="5" t="n" r="C62">
-        <v>66</v>
+        <v>67.09999999999999</v>
       </c>
       <c s="10" t="n" r="E62">
-        <v>1376</v>
+        <v>1237</v>
       </c>
       <c s="7" t="n" r="F62">
-        <v>64.5</v>
-      </c>
-      <c s="10" t="n" r="G62">
-        <v>1449</v>
+        <v>67.09999999999999</v>
+      </c>
+      <c s="7" t="n" r="G62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="H62">
-        <v>67.59999999999999</v>
-      </c>
-      <c s="10" t="n" r="I62">
-        <v>2296</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="I62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="J62">
-        <v>44.9</v>
-      </c>
-      <c s="12" t="n" r="K62">
-        <v>2473</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="K62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="L62">
-        <v>41.7</v>
-      </c>
-      <c s="11" t="n" r="M62">
-        <v>1016</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="M62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="N62">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="O62">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="P62">
         <v>0</v>
       </c>
-      <c s="10" t="n" r="Q62">
-        <v>672</v>
+      <c s="7" t="n" r="Q62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="R62">
-        <v>74.5</v>
-      </c>
-      <c s="10" t="n" r="S62">
-        <v>1352</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="S62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="T62">
-        <v>58.9</v>
-      </c>
-      <c s="10" t="n" r="U62">
-        <v>1153</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="U62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="V62">
-        <v>66.5</v>
-      </c>
-      <c s="12" t="n" r="W62">
-        <v>2124</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="W62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="X62">
-        <v>41.2</v>
-      </c>
-      <c s="10" t="n" r="Y62">
-        <v>1421</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="Y62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="Z62">
-        <v>60.4</v>
-      </c>
-      <c s="10" t="n" r="AA62">
-        <v>867</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="AA62">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="AB62">
-        <v>70.7</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="63">
@@ -5890,76 +5893,76 @@
         <v>66</v>
       </c>
       <c s="10" t="n" r="E63">
-        <v>1296</v>
+        <v>1376</v>
       </c>
       <c s="9" t="n" r="F63">
-        <v>66</v>
-      </c>
-      <c s="9" t="n" r="G63">
-        <v>-2</v>
+        <v>64.5</v>
+      </c>
+      <c s="10" t="n" r="G63">
+        <v>1449</v>
       </c>
       <c s="9" t="n" r="H63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="I63">
-        <v>-2</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c s="10" t="n" r="I63">
+        <v>2296</v>
       </c>
       <c s="9" t="n" r="J63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="K63">
-        <v>-2</v>
+        <v>44.9</v>
+      </c>
+      <c s="12" t="n" r="K63">
+        <v>2473</v>
       </c>
       <c s="9" t="n" r="L63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="M63">
-        <v>-2</v>
+        <v>41.7</v>
+      </c>
+      <c s="11" t="n" r="M63">
+        <v>1016</v>
       </c>
       <c s="9" t="n" r="N63">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c s="9" t="n" r="O63">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="P63">
         <v>0</v>
       </c>
-      <c s="9" t="n" r="Q63">
-        <v>-2</v>
+      <c s="10" t="n" r="Q63">
+        <v>672</v>
       </c>
       <c s="9" t="n" r="R63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="S63">
-        <v>-2</v>
+        <v>74.5</v>
+      </c>
+      <c s="10" t="n" r="S63">
+        <v>1352</v>
       </c>
       <c s="9" t="n" r="T63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="U63">
-        <v>-2</v>
+        <v>58.9</v>
+      </c>
+      <c s="10" t="n" r="U63">
+        <v>1153</v>
       </c>
       <c s="9" t="n" r="V63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="W63">
-        <v>-2</v>
+        <v>66.5</v>
+      </c>
+      <c s="12" t="n" r="W63">
+        <v>2124</v>
       </c>
       <c s="9" t="n" r="X63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Y63">
-        <v>-2</v>
+        <v>41.2</v>
+      </c>
+      <c s="10" t="n" r="Y63">
+        <v>1421</v>
       </c>
       <c s="9" t="n" r="Z63">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="AA63">
-        <v>-2</v>
+        <v>60.4</v>
+      </c>
+      <c s="10" t="n" r="AA63">
+        <v>867</v>
       </c>
       <c s="9" t="n" r="AB63">
-        <v>0</v>
+        <v>70.7</v>
       </c>
     </row>
     <row spans="1:29" r="64">
@@ -5970,13 +5973,13 @@
         <v>63</v>
       </c>
       <c s="5" t="n" r="C64">
-        <v>65.09999999999999</v>
+        <v>66</v>
       </c>
       <c s="10" t="n" r="E64">
-        <v>1347</v>
+        <v>1296</v>
       </c>
       <c s="7" t="n" r="F64">
-        <v>65.09999999999999</v>
+        <v>66</v>
       </c>
       <c s="7" t="n" r="G64">
         <v>-2</v>
@@ -6053,25 +6056,25 @@
         <v>64</v>
       </c>
       <c s="5" t="n" r="C65">
-        <v>64</v>
-      </c>
-      <c s="12" t="n" r="E65">
-        <v>1969</v>
+        <v>65.09999999999999</v>
+      </c>
+      <c s="10" t="n" r="E65">
+        <v>1347</v>
       </c>
       <c s="9" t="n" r="F65">
-        <v>48.6</v>
-      </c>
-      <c s="11" t="n" r="G65">
-        <v>1016</v>
+        <v>65.09999999999999</v>
+      </c>
+      <c s="9" t="n" r="G65">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="H65">
-        <v>79.3</v>
-      </c>
-      <c s="10" t="n" r="I65">
-        <v>2517</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="I65">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="J65">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c s="9" t="n" r="K65">
         <v>-2</v>
@@ -6136,76 +6139,76 @@
         <v>65</v>
       </c>
       <c s="5" t="n" r="C66">
-        <v>62.8</v>
-      </c>
-      <c s="7" t="n" r="E66">
-        <v>-1</v>
+        <v>64</v>
+      </c>
+      <c s="12" t="n" r="E66">
+        <v>1969</v>
       </c>
       <c s="7" t="n" r="F66">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="G66">
-        <v>1949</v>
+        <v>48.6</v>
+      </c>
+      <c s="11" t="n" r="G66">
+        <v>1016</v>
       </c>
       <c s="7" t="n" r="H66">
-        <v>59.8</v>
-      </c>
-      <c s="11" t="n" r="I66">
-        <v>1486</v>
+        <v>79.3</v>
+      </c>
+      <c s="10" t="n" r="I66">
+        <v>2517</v>
       </c>
       <c s="7" t="n" r="J66">
-        <v>65.8</v>
-      </c>
-      <c s="10" t="n" r="K66">
-        <v>96</v>
+        <v>40.5</v>
+      </c>
+      <c s="7" t="n" r="K66">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="L66">
-        <v>88.3</v>
-      </c>
-      <c s="12" t="n" r="M66">
-        <v>2698</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="M66">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="N66">
-        <v>34.7</v>
-      </c>
-      <c s="11" t="n" r="O66">
-        <v>510</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="O66">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="P66">
-        <v>85.2</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="Q66">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="R66">
         <v>0</v>
       </c>
-      <c s="10" t="n" r="S66">
-        <v>1458</v>
+      <c s="7" t="n" r="S66">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="T66">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="U66">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="V66">
         <v>0</v>
       </c>
-      <c s="11" t="n" r="W66">
-        <v>817</v>
+      <c s="7" t="n" r="W66">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="X66">
-        <v>78.09999999999999</v>
-      </c>
-      <c s="11" t="n" r="Y66">
-        <v>958</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="Y66">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="Z66">
-        <v>75.09999999999999</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="AA66">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="AB66">
         <v>0</v>
@@ -6219,79 +6222,79 @@
         <v>66</v>
       </c>
       <c s="5" t="n" r="C67">
-        <v>62.3</v>
-      </c>
-      <c s="10" t="n" r="E67">
-        <v>1020</v>
+        <v>62.8</v>
+      </c>
+      <c s="9" t="n" r="E67">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="F67">
-        <v>71.09999999999999</v>
+        <v>0</v>
       </c>
       <c s="10" t="n" r="G67">
-        <v>2356</v>
+        <v>1949</v>
       </c>
       <c s="9" t="n" r="H67">
-        <v>53.5</v>
-      </c>
-      <c s="12" t="n" r="I67">
-        <v>2790</v>
+        <v>59.8</v>
+      </c>
+      <c s="11" t="n" r="I67">
+        <v>1486</v>
       </c>
       <c s="9" t="n" r="J67">
-        <v>30.2</v>
-      </c>
-      <c s="11" t="n" r="K67">
-        <v>476</v>
+        <v>65.8</v>
+      </c>
+      <c s="10" t="n" r="K67">
+        <v>96</v>
       </c>
       <c s="9" t="n" r="L67">
-        <v>86.7</v>
-      </c>
-      <c s="10" t="n" r="M67">
-        <v>2542</v>
+        <v>88.3</v>
+      </c>
+      <c s="12" t="n" r="M67">
+        <v>2698</v>
       </c>
       <c s="9" t="n" r="N67">
-        <v>42.6</v>
-      </c>
-      <c s="12" t="n" r="O67">
-        <v>2137</v>
+        <v>34.7</v>
+      </c>
+      <c s="11" t="n" r="O67">
+        <v>510</v>
       </c>
       <c s="9" t="n" r="P67">
-        <v>44</v>
-      </c>
-      <c s="12" t="n" r="Q67">
-        <v>1744</v>
+        <v>85.2</v>
+      </c>
+      <c s="9" t="n" r="Q67">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="R67">
-        <v>44.8</v>
+        <v>0</v>
       </c>
       <c s="10" t="n" r="S67">
-        <v>1350</v>
+        <v>1458</v>
       </c>
       <c s="9" t="n" r="T67">
-        <v>59</v>
-      </c>
-      <c s="11" t="n" r="U67">
-        <v>579</v>
+        <v>56.5</v>
+      </c>
+      <c s="9" t="n" r="U67">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="V67">
-        <v>83.2</v>
-      </c>
-      <c s="10" t="n" r="W67">
-        <v>1136</v>
+        <v>0</v>
+      </c>
+      <c s="11" t="n" r="W67">
+        <v>817</v>
       </c>
       <c s="9" t="n" r="X67">
-        <v>66.59999999999999</v>
-      </c>
-      <c s="12" t="n" r="Y67">
-        <v>2546</v>
+        <v>78.09999999999999</v>
+      </c>
+      <c s="11" t="n" r="Y67">
+        <v>958</v>
       </c>
       <c s="9" t="n" r="Z67">
-        <v>32.1</v>
-      </c>
-      <c s="10" t="n" r="AA67">
-        <v>1025</v>
+        <v>75.09999999999999</v>
+      </c>
+      <c s="9" t="n" r="AA67">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="AB67">
-        <v>67.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="68">
@@ -6302,79 +6305,79 @@
         <v>67</v>
       </c>
       <c s="5" t="n" r="C68">
-        <v>61.2</v>
+        <v>62.3</v>
       </c>
       <c s="10" t="n" r="E68">
-        <v>1193</v>
+        <v>1020</v>
       </c>
       <c s="7" t="n" r="F68">
-        <v>67.90000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c s="10" t="n" r="G68">
-        <v>2283</v>
+        <v>2356</v>
       </c>
       <c s="7" t="n" r="H68">
-        <v>54.6</v>
-      </c>
-      <c s="7" t="n" r="I68">
-        <v>-1</v>
+        <v>53.5</v>
+      </c>
+      <c s="12" t="n" r="I68">
+        <v>2790</v>
       </c>
       <c s="7" t="n" r="J68">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="K68">
-        <v>1767</v>
+        <v>30.2</v>
+      </c>
+      <c s="11" t="n" r="K68">
+        <v>476</v>
       </c>
       <c s="7" t="n" r="L68">
+        <v>86.7</v>
+      </c>
+      <c s="10" t="n" r="M68">
+        <v>2542</v>
+      </c>
+      <c s="7" t="n" r="N68">
+        <v>42.6</v>
+      </c>
+      <c s="12" t="n" r="O68">
+        <v>2137</v>
+      </c>
+      <c s="7" t="n" r="P68">
+        <v>44</v>
+      </c>
+      <c s="12" t="n" r="Q68">
+        <v>1744</v>
+      </c>
+      <c s="7" t="n" r="R68">
+        <v>44.8</v>
+      </c>
+      <c s="10" t="n" r="S68">
+        <v>1350</v>
+      </c>
+      <c s="7" t="n" r="T68">
         <v>59</v>
       </c>
-      <c s="10" t="n" r="M68">
-        <v>2001</v>
-      </c>
-      <c s="7" t="n" r="N68">
-        <v>52.7</v>
-      </c>
-      <c s="10" t="n" r="O68">
-        <v>1632</v>
-      </c>
-      <c s="7" t="n" r="P68">
-        <v>58.7</v>
-      </c>
-      <c s="12" t="n" r="Q68">
-        <v>2138</v>
-      </c>
-      <c s="7" t="n" r="R68">
-        <v>35.7</v>
-      </c>
-      <c s="7" t="n" r="S68">
-        <v>-1</v>
-      </c>
-      <c s="7" t="n" r="T68">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="U68">
-        <v>798</v>
+      <c s="11" t="n" r="U68">
+        <v>579</v>
       </c>
       <c s="7" t="n" r="V68">
-        <v>73.7</v>
-      </c>
-      <c s="11" t="n" r="W68">
-        <v>598</v>
+        <v>83.2</v>
+      </c>
+      <c s="10" t="n" r="W68">
+        <v>1136</v>
       </c>
       <c s="7" t="n" r="X68">
-        <v>82.7</v>
-      </c>
-      <c s="10" t="n" r="Y68">
-        <v>1144</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c s="12" t="n" r="Y68">
+        <v>2546</v>
       </c>
       <c s="7" t="n" r="Z68">
-        <v>66.2</v>
-      </c>
-      <c s="7" t="n" r="AA68">
-        <v>-1</v>
+        <v>32.1</v>
+      </c>
+      <c s="10" t="n" r="AA68">
+        <v>1025</v>
       </c>
       <c s="7" t="n" r="AB68">
-        <v>0</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row spans="1:29" r="69">
@@ -6385,79 +6388,79 @@
         <v>68</v>
       </c>
       <c s="5" t="n" r="C69">
-        <v>58.8</v>
+        <v>61.2</v>
       </c>
       <c s="10" t="n" r="E69">
-        <v>1016</v>
+        <v>1193</v>
       </c>
       <c s="9" t="n" r="F69">
-        <v>71.2</v>
-      </c>
-      <c s="12" t="n" r="G69">
-        <v>3302</v>
+        <v>67.90000000000001</v>
+      </c>
+      <c s="10" t="n" r="G69">
+        <v>2283</v>
       </c>
       <c s="9" t="n" r="H69">
-        <v>33.8</v>
-      </c>
-      <c s="10" t="n" r="I69">
-        <v>2223</v>
+        <v>54.6</v>
+      </c>
+      <c s="9" t="n" r="I69">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="J69">
-        <v>46.3</v>
-      </c>
-      <c s="9" t="n" r="K69">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c s="10" t="n" r="K69">
+        <v>1767</v>
       </c>
       <c s="9" t="n" r="L69">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c s="10" t="n" r="M69">
-        <v>1830</v>
+        <v>2001</v>
       </c>
       <c s="9" t="n" r="N69">
-        <v>55.9</v>
-      </c>
-      <c s="12" t="n" r="O69">
-        <v>2574</v>
+        <v>52.7</v>
+      </c>
+      <c s="10" t="n" r="O69">
+        <v>1632</v>
       </c>
       <c s="9" t="n" r="P69">
+        <v>58.7</v>
+      </c>
+      <c s="12" t="n" r="Q69">
+        <v>2138</v>
+      </c>
+      <c s="9" t="n" r="R69">
         <v>35.7</v>
       </c>
-      <c s="12" t="n" r="Q69">
-        <v>2230</v>
-      </c>
-      <c s="9" t="n" r="R69">
-        <v>33.6</v>
-      </c>
-      <c s="12" t="n" r="S69">
-        <v>1951</v>
+      <c s="9" t="n" r="S69">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="T69">
-        <v>40.2</v>
-      </c>
-      <c s="12" t="n" r="U69">
-        <v>1373</v>
+        <v>0</v>
+      </c>
+      <c s="10" t="n" r="U69">
+        <v>798</v>
       </c>
       <c s="9" t="n" r="V69">
-        <v>57</v>
-      </c>
-      <c s="10" t="n" r="W69">
-        <v>1876</v>
+        <v>73.7</v>
+      </c>
+      <c s="11" t="n" r="W69">
+        <v>598</v>
       </c>
       <c s="9" t="n" r="X69">
-        <v>51.3</v>
+        <v>82.7</v>
       </c>
       <c s="10" t="n" r="Y69">
-        <v>1412</v>
+        <v>1144</v>
       </c>
       <c s="9" t="n" r="Z69">
-        <v>60.6</v>
-      </c>
-      <c s="12" t="n" r="AA69">
-        <v>2119</v>
+        <v>66.2</v>
+      </c>
+      <c s="9" t="n" r="AA69">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="AB69">
-        <v>37.7</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="70">
@@ -6468,25 +6471,25 @@
         <v>69</v>
       </c>
       <c s="5" t="n" r="C70">
-        <v>56.8</v>
-      </c>
-      <c s="7" t="n" r="E70">
-        <v>-1</v>
+        <v>58.8</v>
+      </c>
+      <c s="10" t="n" r="E70">
+        <v>1016</v>
       </c>
       <c s="7" t="n" r="F70">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="G70">
-        <v>1636</v>
+        <v>71.2</v>
+      </c>
+      <c s="12" t="n" r="G70">
+        <v>3302</v>
       </c>
       <c s="7" t="n" r="H70">
-        <v>64.7</v>
+        <v>33.8</v>
       </c>
       <c s="10" t="n" r="I70">
-        <v>2090</v>
+        <v>2223</v>
       </c>
       <c s="7" t="n" r="J70">
-        <v>48.9</v>
+        <v>46.3</v>
       </c>
       <c s="7" t="n" r="K70">
         <v>-1</v>
@@ -6494,53 +6497,53 @@
       <c s="7" t="n" r="L70">
         <v>0</v>
       </c>
-      <c s="11" t="n" r="M70">
-        <v>1293</v>
+      <c s="10" t="n" r="M70">
+        <v>1830</v>
       </c>
       <c s="7" t="n" r="N70">
-        <v>70.90000000000001</v>
-      </c>
-      <c s="10" t="n" r="O70">
-        <v>1169</v>
+        <v>55.9</v>
+      </c>
+      <c s="12" t="n" r="O70">
+        <v>2574</v>
       </c>
       <c s="7" t="n" r="P70">
-        <v>67.59999999999999</v>
-      </c>
-      <c s="10" t="n" r="Q70">
-        <v>708</v>
+        <v>35.7</v>
+      </c>
+      <c s="12" t="n" r="Q70">
+        <v>2230</v>
       </c>
       <c s="7" t="n" r="R70">
-        <v>73.7</v>
-      </c>
-      <c s="11" t="n" r="S70">
-        <v>1271</v>
+        <v>33.6</v>
+      </c>
+      <c s="12" t="n" r="S70">
+        <v>1951</v>
       </c>
       <c s="7" t="n" r="T70">
-        <v>65.8</v>
+        <v>40.2</v>
       </c>
       <c s="12" t="n" r="U70">
-        <v>1838</v>
+        <v>1373</v>
       </c>
       <c s="7" t="n" r="V70">
-        <v>47.5</v>
+        <v>57</v>
       </c>
       <c s="10" t="n" r="W70">
-        <v>1761</v>
+        <v>1876</v>
       </c>
       <c s="7" t="n" r="X70">
-        <v>53.7</v>
-      </c>
-      <c s="7" t="n" r="Y70">
-        <v>-2</v>
+        <v>51.3</v>
+      </c>
+      <c s="10" t="n" r="Y70">
+        <v>1412</v>
       </c>
       <c s="7" t="n" r="Z70">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="AA70">
-        <v>-2</v>
+        <v>60.6</v>
+      </c>
+      <c s="12" t="n" r="AA70">
+        <v>2119</v>
       </c>
       <c s="7" t="n" r="AB70">
-        <v>0</v>
+        <v>37.7</v>
       </c>
     </row>
     <row spans="1:29" r="71">
@@ -6551,79 +6554,79 @@
         <v>70</v>
       </c>
       <c s="5" t="n" r="C71">
-        <v>55.5</v>
-      </c>
-      <c s="12" t="n" r="E71">
-        <v>1771</v>
+        <v>56.8</v>
+      </c>
+      <c s="9" t="n" r="E71">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="F71">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c s="10" t="n" r="G71">
-        <v>2019</v>
+        <v>1636</v>
       </c>
       <c s="9" t="n" r="H71">
-        <v>58.7</v>
-      </c>
-      <c s="9" t="n" r="I71">
-        <v>-1</v>
+        <v>64.7</v>
+      </c>
+      <c s="10" t="n" r="I71">
+        <v>2090</v>
       </c>
       <c s="9" t="n" r="J71">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="K71">
-        <v>963</v>
+        <v>48.9</v>
+      </c>
+      <c s="9" t="n" r="K71">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="L71">
-        <v>78.09999999999999</v>
-      </c>
-      <c s="10" t="n" r="M71">
-        <v>1795</v>
+        <v>0</v>
+      </c>
+      <c s="11" t="n" r="M71">
+        <v>1293</v>
       </c>
       <c s="9" t="n" r="N71">
-        <v>56.5</v>
+        <v>70.90000000000001</v>
       </c>
       <c s="10" t="n" r="O71">
-        <v>1218</v>
+        <v>1169</v>
       </c>
       <c s="9" t="n" r="P71">
-        <v>66.7</v>
-      </c>
-      <c s="6" t="n" r="Q71">
-        <v>95</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c s="10" t="n" r="Q71">
+        <v>708</v>
       </c>
       <c s="9" t="n" r="R71">
-        <v>97.8</v>
-      </c>
-      <c s="6" t="n" r="S71">
-        <v>760</v>
+        <v>73.7</v>
+      </c>
+      <c s="11" t="n" r="S71">
+        <v>1271</v>
       </c>
       <c s="9" t="n" r="T71">
-        <v>82.5</v>
-      </c>
-      <c s="11" t="n" r="U71">
-        <v>271</v>
+        <v>65.8</v>
+      </c>
+      <c s="12" t="n" r="U71">
+        <v>1838</v>
       </c>
       <c s="9" t="n" r="V71">
-        <v>89.5</v>
-      </c>
-      <c s="11" t="n" r="W71">
-        <v>645</v>
+        <v>47.5</v>
+      </c>
+      <c s="10" t="n" r="W71">
+        <v>1761</v>
       </c>
       <c s="9" t="n" r="X71">
-        <v>81.7</v>
-      </c>
-      <c s="11" t="n" r="Y71">
-        <v>638</v>
+        <v>53.7</v>
+      </c>
+      <c s="9" t="n" r="Y71">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="Z71">
-        <v>81.7</v>
-      </c>
-      <c s="10" t="n" r="AA71">
-        <v>1191</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="AA71">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="AB71">
-        <v>63.4</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="72">
@@ -6637,76 +6640,76 @@
         <v>55.5</v>
       </c>
       <c s="12" t="n" r="E72">
-        <v>1596</v>
+        <v>1771</v>
       </c>
       <c s="7" t="n" r="F72">
-        <v>55.5</v>
-      </c>
-      <c s="7" t="n" r="G72">
-        <v>-2</v>
+        <v>52.2</v>
+      </c>
+      <c s="10" t="n" r="G72">
+        <v>2019</v>
       </c>
       <c s="7" t="n" r="H72">
-        <v>0</v>
+        <v>58.7</v>
       </c>
       <c s="7" t="n" r="I72">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="7" t="n" r="J72">
         <v>0</v>
       </c>
-      <c s="7" t="n" r="K72">
-        <v>-2</v>
+      <c s="11" t="n" r="K72">
+        <v>963</v>
       </c>
       <c s="7" t="n" r="L72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="M72">
-        <v>-2</v>
+        <v>78.09999999999999</v>
+      </c>
+      <c s="10" t="n" r="M72">
+        <v>1795</v>
       </c>
       <c s="7" t="n" r="N72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="O72">
-        <v>-2</v>
+        <v>56.5</v>
+      </c>
+      <c s="10" t="n" r="O72">
+        <v>1218</v>
       </c>
       <c s="7" t="n" r="P72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Q72">
-        <v>-2</v>
+        <v>66.7</v>
+      </c>
+      <c s="6" t="n" r="Q72">
+        <v>95</v>
       </c>
       <c s="7" t="n" r="R72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="S72">
-        <v>-2</v>
+        <v>97.8</v>
+      </c>
+      <c s="6" t="n" r="S72">
+        <v>760</v>
       </c>
       <c s="7" t="n" r="T72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="U72">
-        <v>-2</v>
+        <v>82.5</v>
+      </c>
+      <c s="11" t="n" r="U72">
+        <v>271</v>
       </c>
       <c s="7" t="n" r="V72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="W72">
-        <v>-2</v>
+        <v>89.5</v>
+      </c>
+      <c s="11" t="n" r="W72">
+        <v>645</v>
       </c>
       <c s="7" t="n" r="X72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Y72">
-        <v>-2</v>
+        <v>81.7</v>
+      </c>
+      <c s="11" t="n" r="Y72">
+        <v>638</v>
       </c>
       <c s="7" t="n" r="Z72">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="AA72">
-        <v>-2</v>
+        <v>81.7</v>
+      </c>
+      <c s="10" t="n" r="AA72">
+        <v>1191</v>
       </c>
       <c s="7" t="n" r="AB72">
-        <v>0</v>
+        <v>63.4</v>
       </c>
     </row>
     <row spans="1:29" r="73">
@@ -6717,79 +6720,79 @@
         <v>72</v>
       </c>
       <c s="5" t="n" r="C73">
-        <v>53</v>
-      </c>
-      <c s="9" t="n" r="E73">
-        <v>-1</v>
+        <v>55.5</v>
+      </c>
+      <c s="12" t="n" r="E73">
+        <v>1596</v>
       </c>
       <c s="9" t="n" r="F73">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="G73">
-        <v>1945</v>
+        <v>55.5</v>
+      </c>
+      <c s="9" t="n" r="G73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="H73">
-        <v>59.9</v>
-      </c>
-      <c s="10" t="n" r="I73">
-        <v>2231</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="I73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="J73">
-        <v>46.2</v>
-      </c>
-      <c s="10" t="n" r="K73">
-        <v>1692</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="K73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="L73">
-        <v>60.3</v>
-      </c>
-      <c s="11" t="n" r="M73">
-        <v>1125</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="M73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="N73">
-        <v>74</v>
-      </c>
-      <c s="10" t="n" r="O73">
-        <v>1195</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="O73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="P73">
-        <v>67.09999999999999</v>
-      </c>
-      <c s="11" t="n" r="Q73">
-        <v>447</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="Q73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="R73">
-        <v>84.7</v>
-      </c>
-      <c s="10" t="n" r="S73">
-        <v>1717</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="S73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="T73">
-        <v>50.6</v>
-      </c>
-      <c s="11" t="n" r="U73">
-        <v>621</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="U73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="V73">
-        <v>82.3</v>
-      </c>
-      <c s="10" t="n" r="W73">
-        <v>1582</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="W73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="X73">
-        <v>57.3</v>
-      </c>
-      <c s="11" t="n" r="Y73">
-        <v>903</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="Y73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="Z73">
-        <v>76.2</v>
-      </c>
-      <c s="10" t="n" r="AA73">
-        <v>1242</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="AA73">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="AB73">
-        <v>62.3</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="74">
@@ -6800,79 +6803,79 @@
         <v>73</v>
       </c>
       <c s="5" t="n" r="C74">
-        <v>49.8</v>
-      </c>
-      <c s="12" t="n" r="E74">
-        <v>1921</v>
+        <v>53</v>
+      </c>
+      <c s="7" t="n" r="E74">
+        <v>-1</v>
       </c>
       <c s="7" t="n" r="F74">
-        <v>49.5</v>
-      </c>
-      <c s="12" t="n" r="G74">
-        <v>2815</v>
+        <v>0</v>
+      </c>
+      <c s="10" t="n" r="G74">
+        <v>1945</v>
       </c>
       <c s="7" t="n" r="H74">
-        <v>41.4</v>
+        <v>59.9</v>
       </c>
       <c s="10" t="n" r="I74">
-        <v>2029</v>
+        <v>2231</v>
       </c>
       <c s="7" t="n" r="J74">
-        <v>50.1</v>
-      </c>
-      <c s="7" t="n" r="K74">
-        <v>-1</v>
+        <v>46.2</v>
+      </c>
+      <c s="10" t="n" r="K74">
+        <v>1692</v>
       </c>
       <c s="7" t="n" r="L74">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="M74">
-        <v>-1</v>
+        <v>60.3</v>
+      </c>
+      <c s="11" t="n" r="M74">
+        <v>1125</v>
       </c>
       <c s="7" t="n" r="N74">
-        <v>0</v>
-      </c>
-      <c s="12" t="n" r="O74">
-        <v>2526</v>
+        <v>74</v>
+      </c>
+      <c s="10" t="n" r="O74">
+        <v>1195</v>
       </c>
       <c s="7" t="n" r="P74">
-        <v>36.6</v>
-      </c>
-      <c s="7" t="n" r="Q74">
-        <v>-1</v>
+        <v>67.09999999999999</v>
+      </c>
+      <c s="11" t="n" r="Q74">
+        <v>447</v>
       </c>
       <c s="7" t="n" r="R74">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="S74">
-        <v>-1</v>
+        <v>84.7</v>
+      </c>
+      <c s="10" t="n" r="S74">
+        <v>1717</v>
       </c>
       <c s="7" t="n" r="T74">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="U74">
-        <v>-1</v>
+        <v>50.6</v>
+      </c>
+      <c s="11" t="n" r="U74">
+        <v>621</v>
       </c>
       <c s="7" t="n" r="V74">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="W74">
-        <v>-2</v>
+        <v>82.3</v>
+      </c>
+      <c s="10" t="n" r="W74">
+        <v>1582</v>
       </c>
       <c s="7" t="n" r="X74">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Y74">
-        <v>-2</v>
+        <v>57.3</v>
+      </c>
+      <c s="11" t="n" r="Y74">
+        <v>903</v>
       </c>
       <c s="7" t="n" r="Z74">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="AA74">
-        <v>-2</v>
+        <v>76.2</v>
+      </c>
+      <c s="10" t="n" r="AA74">
+        <v>1242</v>
       </c>
       <c s="7" t="n" r="AB74">
-        <v>0</v>
+        <v>62.3</v>
       </c>
     </row>
     <row spans="1:29" r="75">
@@ -6883,58 +6886,58 @@
         <v>74</v>
       </c>
       <c s="5" t="n" r="C75">
-        <v>47.5</v>
+        <v>49.8</v>
       </c>
       <c s="12" t="n" r="E75">
-        <v>2572</v>
+        <v>1921</v>
       </c>
       <c s="9" t="n" r="F75">
-        <v>37.4</v>
-      </c>
-      <c s="10" t="n" r="G75">
-        <v>2158</v>
+        <v>49.5</v>
+      </c>
+      <c s="12" t="n" r="G75">
+        <v>2815</v>
       </c>
       <c s="9" t="n" r="H75">
-        <v>56.6</v>
+        <v>41.4</v>
       </c>
       <c s="10" t="n" r="I75">
-        <v>2619</v>
+        <v>2029</v>
       </c>
       <c s="9" t="n" r="J75">
-        <v>38.5</v>
-      </c>
-      <c s="10" t="n" r="K75">
-        <v>2218</v>
+        <v>50.1</v>
+      </c>
+      <c s="9" t="n" r="K75">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="L75">
-        <v>51.1</v>
+        <v>0</v>
       </c>
       <c s="9" t="n" r="M75">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="N75">
         <v>0</v>
       </c>
-      <c s="9" t="n" r="O75">
-        <v>-2</v>
+      <c s="12" t="n" r="O75">
+        <v>2526</v>
       </c>
       <c s="9" t="n" r="P75">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c s="9" t="n" r="Q75">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="R75">
         <v>0</v>
       </c>
       <c s="9" t="n" r="S75">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="T75">
         <v>0</v>
       </c>
       <c s="9" t="n" r="U75">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="V75">
         <v>0</v>
@@ -6966,31 +6969,31 @@
         <v>75</v>
       </c>
       <c s="5" t="n" r="C76">
-        <v>47</v>
-      </c>
-      <c s="7" t="n" r="E76">
-        <v>-1</v>
+        <v>47.5</v>
+      </c>
+      <c s="12" t="n" r="E76">
+        <v>2572</v>
       </c>
       <c s="7" t="n" r="F76">
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c s="10" t="n" r="G76">
-        <v>2506</v>
+        <v>2158</v>
       </c>
       <c s="7" t="n" r="H76">
-        <v>51.2</v>
+        <v>56.6</v>
       </c>
       <c s="10" t="n" r="I76">
-        <v>2402</v>
+        <v>2619</v>
       </c>
       <c s="7" t="n" r="J76">
-        <v>42.8</v>
+        <v>38.5</v>
       </c>
       <c s="10" t="n" r="K76">
-        <v>2234</v>
+        <v>2218</v>
       </c>
       <c s="7" t="n" r="L76">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c s="7" t="n" r="M76">
         <v>-2</v>
@@ -7049,79 +7052,79 @@
         <v>76</v>
       </c>
       <c s="5" t="n" r="C77">
-        <v>45.6</v>
-      </c>
-      <c s="12" t="n" r="E77">
-        <v>1819</v>
+        <v>47</v>
+      </c>
+      <c s="9" t="n" r="E77">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="F77">
-        <v>51.4</v>
-      </c>
-      <c s="12" t="n" r="G77">
-        <v>2911</v>
+        <v>0</v>
+      </c>
+      <c s="10" t="n" r="G77">
+        <v>2506</v>
       </c>
       <c s="9" t="n" r="H77">
-        <v>39.9</v>
-      </c>
-      <c s="9" t="n" r="I77">
-        <v>-1</v>
+        <v>51.2</v>
+      </c>
+      <c s="10" t="n" r="I77">
+        <v>2402</v>
       </c>
       <c s="9" t="n" r="J77">
-        <v>0</v>
-      </c>
-      <c s="11" t="n" r="K77">
-        <v>804</v>
+        <v>42.8</v>
+      </c>
+      <c s="10" t="n" r="K77">
+        <v>2234</v>
       </c>
       <c s="9" t="n" r="L77">
-        <v>80.90000000000001</v>
-      </c>
-      <c s="11" t="n" r="M77">
-        <v>1281</v>
+        <v>50.8</v>
+      </c>
+      <c s="9" t="n" r="M77">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="N77">
-        <v>71.09999999999999</v>
-      </c>
-      <c s="11" t="n" r="O77">
-        <v>736</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="O77">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="P77">
-        <v>80.90000000000001</v>
-      </c>
-      <c s="10" t="n" r="Q77">
-        <v>894</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="Q77">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="R77">
-        <v>69.40000000000001</v>
-      </c>
-      <c s="11" t="n" r="S77">
-        <v>1095</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="S77">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="T77">
-        <v>69.8</v>
-      </c>
-      <c s="10" t="n" r="U77">
-        <v>792</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="U77">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="V77">
-        <v>73.90000000000001</v>
-      </c>
-      <c s="12" t="n" r="W77">
-        <v>2615</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="W77">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="X77">
-        <v>31</v>
-      </c>
-      <c s="10" t="n" r="Y77">
-        <v>1283</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="Y77">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="Z77">
-        <v>63.3</v>
-      </c>
-      <c s="10" t="n" r="AA77">
-        <v>736</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="AA77">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="AB77">
-        <v>73.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="78">
@@ -7132,79 +7135,79 @@
         <v>77</v>
       </c>
       <c s="5" t="n" r="C78">
-        <v>44.3</v>
+        <v>45.6</v>
       </c>
       <c s="12" t="n" r="E78">
-        <v>2202</v>
+        <v>1819</v>
       </c>
       <c s="7" t="n" r="F78">
-        <v>44.3</v>
-      </c>
-      <c s="7" t="n" r="G78">
-        <v>-2</v>
+        <v>51.4</v>
+      </c>
+      <c s="12" t="n" r="G78">
+        <v>2911</v>
       </c>
       <c s="7" t="n" r="H78">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c s="7" t="n" r="I78">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="7" t="n" r="J78">
         <v>0</v>
       </c>
-      <c s="12" t="n" r="K78">
-        <v>2884</v>
+      <c s="11" t="n" r="K78">
+        <v>804</v>
       </c>
       <c s="7" t="n" r="L78">
-        <v>34.4</v>
-      </c>
-      <c s="7" t="n" r="M78">
-        <v>-1</v>
+        <v>80.90000000000001</v>
+      </c>
+      <c s="11" t="n" r="M78">
+        <v>1281</v>
       </c>
       <c s="7" t="n" r="N78">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c s="11" t="n" r="O78">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c s="7" t="n" r="P78">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c s="10" t="n" r="Q78">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c s="7" t="n" r="R78">
-        <v>69.5</v>
-      </c>
-      <c s="7" t="n" r="S78">
-        <v>-1</v>
+        <v>69.40000000000001</v>
+      </c>
+      <c s="11" t="n" r="S78">
+        <v>1095</v>
       </c>
       <c s="7" t="n" r="T78">
-        <v>0</v>
-      </c>
-      <c s="12" t="n" r="U78">
-        <v>1641</v>
+        <v>69.8</v>
+      </c>
+      <c s="10" t="n" r="U78">
+        <v>792</v>
       </c>
       <c s="7" t="n" r="V78">
-        <v>51.5</v>
-      </c>
-      <c s="6" t="n" r="W78">
-        <v>502</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c s="12" t="n" r="W78">
+        <v>2615</v>
       </c>
       <c s="7" t="n" r="X78">
-        <v>89.59999999999999</v>
-      </c>
-      <c s="6" t="n" r="Y78">
-        <v>233</v>
+        <v>31</v>
+      </c>
+      <c s="10" t="n" r="Y78">
+        <v>1283</v>
       </c>
       <c s="7" t="n" r="Z78">
-        <v>95.2</v>
-      </c>
-      <c s="11" t="n" r="AA78">
-        <v>578</v>
+        <v>63.3</v>
+      </c>
+      <c s="10" t="n" r="AA78">
+        <v>736</v>
       </c>
       <c s="7" t="n" r="AB78">
-        <v>82.09999999999999</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row spans="1:29" r="79">
@@ -7218,7 +7221,7 @@
         <v>44.3</v>
       </c>
       <c s="12" t="n" r="E79">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c s="9" t="n" r="F79">
         <v>44.3</v>
@@ -7235,59 +7238,59 @@
       <c s="9" t="n" r="J79">
         <v>0</v>
       </c>
-      <c s="9" t="n" r="K79">
-        <v>-2</v>
+      <c s="12" t="n" r="K79">
+        <v>2884</v>
       </c>
       <c s="9" t="n" r="L79">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c s="9" t="n" r="M79">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="N79">
         <v>0</v>
       </c>
-      <c s="9" t="n" r="O79">
-        <v>-2</v>
+      <c s="11" t="n" r="O79">
+        <v>714</v>
       </c>
       <c s="9" t="n" r="P79">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Q79">
-        <v>-2</v>
+        <v>81.3</v>
+      </c>
+      <c s="10" t="n" r="Q79">
+        <v>888</v>
       </c>
       <c s="9" t="n" r="R79">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c s="9" t="n" r="S79">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="T79">
         <v>0</v>
       </c>
-      <c s="9" t="n" r="U79">
-        <v>-2</v>
+      <c s="12" t="n" r="U79">
+        <v>1641</v>
       </c>
       <c s="9" t="n" r="V79">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="W79">
-        <v>-2</v>
+        <v>51.5</v>
+      </c>
+      <c s="6" t="n" r="W79">
+        <v>502</v>
       </c>
       <c s="9" t="n" r="X79">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Y79">
-        <v>-2</v>
+        <v>89.59999999999999</v>
+      </c>
+      <c s="6" t="n" r="Y79">
+        <v>233</v>
       </c>
       <c s="9" t="n" r="Z79">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="AA79">
-        <v>-2</v>
+        <v>95.2</v>
+      </c>
+      <c s="11" t="n" r="AA79">
+        <v>578</v>
       </c>
       <c s="9" t="n" r="AB79">
-        <v>0</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row spans="1:29" r="80">
@@ -7298,19 +7301,19 @@
         <v>79</v>
       </c>
       <c s="5" t="n" r="C80">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c s="12" t="n" r="E80">
-        <v>1804</v>
+        <v>2198</v>
       </c>
       <c s="7" t="n" r="F80">
-        <v>51.6</v>
-      </c>
-      <c s="12" t="n" r="G80">
-        <v>3124</v>
+        <v>44.3</v>
+      </c>
+      <c s="7" t="n" r="G80">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="H80">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="I80">
         <v>-2</v>
@@ -7381,37 +7384,37 @@
         <v>80</v>
       </c>
       <c s="5" t="n" r="C81">
-        <v>41.5</v>
-      </c>
-      <c s="9" t="n" r="E81">
-        <v>-1</v>
+        <v>44.1</v>
+      </c>
+      <c s="12" t="n" r="E81">
+        <v>1804</v>
       </c>
       <c s="9" t="n" r="F81">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="G81">
-        <v>2502</v>
+        <v>51.6</v>
+      </c>
+      <c s="12" t="n" r="G81">
+        <v>3124</v>
       </c>
       <c s="9" t="n" r="H81">
-        <v>51.2</v>
-      </c>
-      <c s="12" t="n" r="I81">
-        <v>2702</v>
+        <v>36.6</v>
+      </c>
+      <c s="9" t="n" r="I81">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="J81">
-        <v>31.9</v>
-      </c>
-      <c s="12" t="n" r="K81">
-        <v>2944</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="K81">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="L81">
-        <v>33.4</v>
-      </c>
-      <c s="10" t="n" r="M81">
-        <v>2068</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="M81">
+        <v>-2</v>
       </c>
       <c s="9" t="n" r="N81">
-        <v>51.4</v>
+        <v>0</v>
       </c>
       <c s="9" t="n" r="O81">
         <v>-2</v>
@@ -7464,7 +7467,7 @@
         <v>81</v>
       </c>
       <c s="5" t="n" r="C82">
-        <v>39.8</v>
+        <v>41.5</v>
       </c>
       <c s="7" t="n" r="E82">
         <v>-1</v>
@@ -7472,71 +7475,71 @@
       <c s="7" t="n" r="F82">
         <v>0</v>
       </c>
-      <c s="12" t="n" r="G82">
-        <v>3004</v>
+      <c s="10" t="n" r="G82">
+        <v>2502</v>
       </c>
       <c s="7" t="n" r="H82">
-        <v>38.5</v>
-      </c>
-      <c s="10" t="n" r="I82">
-        <v>2495</v>
+        <v>51.2</v>
+      </c>
+      <c s="12" t="n" r="I82">
+        <v>2702</v>
       </c>
       <c s="7" t="n" r="J82">
-        <v>41</v>
-      </c>
-      <c s="11" t="n" r="K82">
-        <v>1128</v>
+        <v>31.9</v>
+      </c>
+      <c s="12" t="n" r="K82">
+        <v>2944</v>
       </c>
       <c s="7" t="n" r="L82">
-        <v>75.2</v>
+        <v>33.4</v>
       </c>
       <c s="10" t="n" r="M82">
-        <v>2266</v>
+        <v>2068</v>
       </c>
       <c s="7" t="n" r="N82">
-        <v>47.7</v>
-      </c>
-      <c s="12" t="n" r="O82">
-        <v>2338</v>
+        <v>51.4</v>
+      </c>
+      <c s="7" t="n" r="O82">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="P82">
-        <v>40.2</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="Q82">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="R82">
         <v>0</v>
       </c>
-      <c s="12" t="n" r="S82">
-        <v>2316</v>
+      <c s="7" t="n" r="S82">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="T82">
-        <v>31.8</v>
-      </c>
-      <c s="12" t="n" r="U82">
-        <v>1778</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="U82">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="V82">
-        <v>48.8</v>
-      </c>
-      <c s="11" t="n" r="W82">
-        <v>986</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="W82">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="X82">
-        <v>74.59999999999999</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="Y82">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="Z82">
         <v>0</v>
       </c>
-      <c s="12" t="n" r="AA82">
-        <v>1537</v>
+      <c s="7" t="n" r="AA82">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="AB82">
-        <v>50.7</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="83">
@@ -7547,79 +7550,79 @@
         <v>82</v>
       </c>
       <c s="5" t="n" r="C83">
-        <v>36.2</v>
-      </c>
-      <c s="12" t="n" r="E83">
-        <v>2537</v>
+        <v>39.8</v>
+      </c>
+      <c s="9" t="n" r="E83">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="F83">
-        <v>38.1</v>
+        <v>0</v>
       </c>
       <c s="12" t="n" r="G83">
-        <v>3274</v>
+        <v>3004</v>
       </c>
       <c s="9" t="n" r="H83">
-        <v>34.3</v>
-      </c>
-      <c s="9" t="n" r="I83">
-        <v>-1</v>
+        <v>38.5</v>
+      </c>
+      <c s="10" t="n" r="I83">
+        <v>2495</v>
       </c>
       <c s="9" t="n" r="J83">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="K83">
-        <v>1816</v>
+        <v>41</v>
+      </c>
+      <c s="11" t="n" r="K83">
+        <v>1128</v>
       </c>
       <c s="9" t="n" r="L83">
-        <v>58.2</v>
-      </c>
-      <c s="9" t="n" r="M83">
-        <v>-2</v>
+        <v>75.2</v>
+      </c>
+      <c s="10" t="n" r="M83">
+        <v>2266</v>
       </c>
       <c s="9" t="n" r="N83">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="O83">
-        <v>-2</v>
+        <v>47.7</v>
+      </c>
+      <c s="12" t="n" r="O83">
+        <v>2338</v>
       </c>
       <c s="9" t="n" r="P83">
-        <v>0</v>
+        <v>40.2</v>
       </c>
       <c s="9" t="n" r="Q83">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="R83">
         <v>0</v>
       </c>
-      <c s="9" t="n" r="S83">
-        <v>-2</v>
+      <c s="12" t="n" r="S83">
+        <v>2316</v>
       </c>
       <c s="9" t="n" r="T83">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="U83">
-        <v>-2</v>
+        <v>31.8</v>
+      </c>
+      <c s="12" t="n" r="U83">
+        <v>1778</v>
       </c>
       <c s="9" t="n" r="V83">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="W83">
-        <v>-2</v>
+        <v>48.8</v>
+      </c>
+      <c s="11" t="n" r="W83">
+        <v>986</v>
       </c>
       <c s="9" t="n" r="X83">
-        <v>0</v>
+        <v>74.59999999999999</v>
       </c>
       <c s="9" t="n" r="Y83">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="Z83">
         <v>0</v>
       </c>
-      <c s="9" t="n" r="AA83">
-        <v>-2</v>
+      <c s="12" t="n" r="AA83">
+        <v>1537</v>
       </c>
       <c s="9" t="n" r="AB83">
-        <v>0</v>
+        <v>50.7</v>
       </c>
     </row>
     <row spans="1:29" r="84">
@@ -7630,19 +7633,19 @@
         <v>83</v>
       </c>
       <c s="5" t="n" r="C84">
-        <v>32.3</v>
-      </c>
-      <c s="10" t="n" r="E84">
-        <v>1374</v>
+        <v>36.2</v>
+      </c>
+      <c s="12" t="n" r="E84">
+        <v>2537</v>
       </c>
       <c s="7" t="n" r="F84">
-        <v>64.59999999999999</v>
-      </c>
-      <c s="7" t="n" r="G84">
-        <v>-1</v>
+        <v>38.1</v>
+      </c>
+      <c s="12" t="n" r="G84">
+        <v>3274</v>
       </c>
       <c s="7" t="n" r="H84">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c s="7" t="n" r="I84">
         <v>-1</v>
@@ -7651,58 +7654,58 @@
         <v>0</v>
       </c>
       <c s="10" t="n" r="K84">
-        <v>1874</v>
+        <v>1816</v>
       </c>
       <c s="7" t="n" r="L84">
-        <v>57.2</v>
-      </c>
-      <c s="6" t="n" r="M84">
-        <v>507</v>
+        <v>58.2</v>
+      </c>
+      <c s="7" t="n" r="M84">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="N84">
-        <v>90.5</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="O84">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="P84">
         <v>0</v>
       </c>
       <c s="7" t="n" r="Q84">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="R84">
         <v>0</v>
       </c>
       <c s="7" t="n" r="S84">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="T84">
         <v>0</v>
       </c>
-      <c s="10" t="n" r="U84">
-        <v>811</v>
+      <c s="7" t="n" r="U84">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="V84">
-        <v>73.5</v>
-      </c>
-      <c s="10" t="n" r="W84">
-        <v>1429</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="W84">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="X84">
-        <v>60.5</v>
-      </c>
-      <c s="11" t="n" r="Y84">
-        <v>892</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="Y84">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="Z84">
-        <v>76.5</v>
-      </c>
-      <c s="12" t="n" r="AA84">
-        <v>1855</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="AA84">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="AB84">
-        <v>43.6</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="85">
@@ -7713,19 +7716,19 @@
         <v>84</v>
       </c>
       <c s="5" t="n" r="C85">
-        <v>30.6</v>
-      </c>
-      <c s="9" t="n" r="E85">
-        <v>-1</v>
+        <v>32.3</v>
+      </c>
+      <c s="10" t="n" r="E85">
+        <v>1374</v>
       </c>
       <c s="9" t="n" r="F85">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="G85">
-        <v>1863</v>
+        <v>64.59999999999999</v>
+      </c>
+      <c s="9" t="n" r="G85">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="H85">
-        <v>61.1</v>
+        <v>0</v>
       </c>
       <c s="9" t="n" r="I85">
         <v>-1</v>
@@ -7733,59 +7736,59 @@
       <c s="9" t="n" r="J85">
         <v>0</v>
       </c>
-      <c s="11" t="n" r="K85">
-        <v>810</v>
+      <c s="10" t="n" r="K85">
+        <v>1874</v>
       </c>
       <c s="9" t="n" r="L85">
-        <v>80.8</v>
-      </c>
-      <c s="11" t="n" r="M85">
-        <v>1017</v>
+        <v>57.2</v>
+      </c>
+      <c s="6" t="n" r="M85">
+        <v>507</v>
       </c>
       <c s="9" t="n" r="N85">
-        <v>76</v>
-      </c>
-      <c s="12" t="n" r="O85">
-        <v>2171</v>
+        <v>90.5</v>
+      </c>
+      <c s="9" t="n" r="O85">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="P85">
-        <v>43.4</v>
-      </c>
-      <c s="12" t="n" r="Q85">
-        <v>1235</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="Q85">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="R85">
-        <v>56.5</v>
-      </c>
-      <c s="11" t="n" r="S85">
-        <v>1038</v>
+        <v>0</v>
+      </c>
+      <c s="9" t="n" r="S85">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="T85">
-        <v>71.2</v>
-      </c>
-      <c s="9" t="n" r="U85">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c s="10" t="n" r="U85">
+        <v>811</v>
       </c>
       <c s="9" t="n" r="V85">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="W85">
-        <v>-2</v>
+        <v>73.5</v>
+      </c>
+      <c s="10" t="n" r="W85">
+        <v>1429</v>
       </c>
       <c s="9" t="n" r="X85">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="Y85">
-        <v>-2</v>
+        <v>60.5</v>
+      </c>
+      <c s="11" t="n" r="Y85">
+        <v>892</v>
       </c>
       <c s="9" t="n" r="Z85">
-        <v>0</v>
-      </c>
-      <c s="9" t="n" r="AA85">
-        <v>-2</v>
+        <v>76.5</v>
+      </c>
+      <c s="12" t="n" r="AA85">
+        <v>1855</v>
       </c>
       <c s="9" t="n" r="AB85">
-        <v>0</v>
+        <v>43.6</v>
       </c>
     </row>
     <row spans="1:29" r="86">
@@ -7796,7 +7799,7 @@
         <v>85</v>
       </c>
       <c s="5" t="n" r="C86">
-        <v>30.1</v>
+        <v>30.6</v>
       </c>
       <c s="7" t="n" r="E86">
         <v>-1</v>
@@ -7805,10 +7808,10 @@
         <v>0</v>
       </c>
       <c s="10" t="n" r="G86">
-        <v>1916</v>
+        <v>1863</v>
       </c>
       <c s="7" t="n" r="H86">
-        <v>60.3</v>
+        <v>61.1</v>
       </c>
       <c s="7" t="n" r="I86">
         <v>-1</v>
@@ -7817,58 +7820,58 @@
         <v>0</v>
       </c>
       <c s="11" t="n" r="K86">
-        <v>182</v>
+        <v>810</v>
       </c>
       <c s="7" t="n" r="L86">
-        <v>91.8</v>
+        <v>80.8</v>
       </c>
       <c s="11" t="n" r="M86">
-        <v>1319</v>
+        <v>1017</v>
       </c>
       <c s="7" t="n" r="N86">
-        <v>70.40000000000001</v>
-      </c>
-      <c s="7" t="n" r="O86">
-        <v>-1</v>
+        <v>76</v>
+      </c>
+      <c s="12" t="n" r="O86">
+        <v>2171</v>
       </c>
       <c s="7" t="n" r="P86">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c s="12" t="n" r="Q86">
-        <v>1903</v>
+        <v>1235</v>
       </c>
       <c s="7" t="n" r="R86">
-        <v>41.1</v>
-      </c>
-      <c s="6" t="n" r="S86">
-        <v>794</v>
+        <v>56.5</v>
+      </c>
+      <c s="11" t="n" r="S86">
+        <v>1038</v>
       </c>
       <c s="7" t="n" r="T86">
-        <v>81.8</v>
-      </c>
-      <c s="10" t="n" r="U86">
-        <v>789</v>
+        <v>71.2</v>
+      </c>
+      <c s="7" t="n" r="U86">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="V86">
-        <v>73.90000000000001</v>
+        <v>0</v>
       </c>
       <c s="7" t="n" r="W86">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="X86">
         <v>0</v>
       </c>
-      <c s="10" t="n" r="Y86">
-        <v>1642</v>
+      <c s="7" t="n" r="Y86">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="Z86">
-        <v>55.9</v>
-      </c>
-      <c s="12" t="n" r="AA86">
-        <v>2157</v>
+        <v>0</v>
+      </c>
+      <c s="7" t="n" r="AA86">
+        <v>-2</v>
       </c>
       <c s="7" t="n" r="AB86">
-        <v>36.9</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="87">
@@ -7879,7 +7882,7 @@
         <v>86</v>
       </c>
       <c s="5" t="n" r="C87">
-        <v>20</v>
+        <v>30.1</v>
       </c>
       <c s="9" t="n" r="E87">
         <v>-1</v>
@@ -7887,11 +7890,11 @@
       <c s="9" t="n" r="F87">
         <v>0</v>
       </c>
-      <c s="12" t="n" r="G87">
-        <v>2902</v>
+      <c s="10" t="n" r="G87">
+        <v>1916</v>
       </c>
       <c s="9" t="n" r="H87">
-        <v>40</v>
+        <v>60.3</v>
       </c>
       <c s="9" t="n" r="I87">
         <v>-1</v>
@@ -7899,59 +7902,59 @@
       <c s="9" t="n" r="J87">
         <v>0</v>
       </c>
-      <c s="10" t="n" r="K87">
-        <v>2055</v>
+      <c s="11" t="n" r="K87">
+        <v>182</v>
       </c>
       <c s="9" t="n" r="L87">
-        <v>54</v>
-      </c>
-      <c s="12" t="n" r="M87">
-        <v>2838</v>
+        <v>91.8</v>
+      </c>
+      <c s="11" t="n" r="M87">
+        <v>1319</v>
       </c>
       <c s="9" t="n" r="N87">
-        <v>32.1</v>
-      </c>
-      <c s="12" t="n" r="O87">
-        <v>2397</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c s="9" t="n" r="O87">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="P87">
-        <v>39.1</v>
-      </c>
-      <c s="9" t="n" r="Q87">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c s="12" t="n" r="Q87">
+        <v>1903</v>
       </c>
       <c s="9" t="n" r="R87">
-        <v>0</v>
-      </c>
-      <c s="12" t="n" r="S87">
-        <v>2034</v>
+        <v>41.1</v>
+      </c>
+      <c s="6" t="n" r="S87">
+        <v>794</v>
       </c>
       <c s="9" t="n" r="T87">
-        <v>38.3</v>
-      </c>
-      <c s="9" t="n" r="U87">
-        <v>-1</v>
+        <v>81.8</v>
+      </c>
+      <c s="10" t="n" r="U87">
+        <v>789</v>
       </c>
       <c s="9" t="n" r="V87">
-        <v>0</v>
-      </c>
-      <c s="10" t="n" r="W87">
-        <v>1955</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c s="9" t="n" r="W87">
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="X87">
-        <v>49.6</v>
+        <v>0</v>
       </c>
       <c s="10" t="n" r="Y87">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c s="9" t="n" r="Z87">
-        <v>55.5</v>
-      </c>
-      <c s="9" t="n" r="AA87">
-        <v>-1</v>
+        <v>55.9</v>
+      </c>
+      <c s="12" t="n" r="AA87">
+        <v>2157</v>
       </c>
       <c s="9" t="n" r="AB87">
-        <v>0</v>
+        <v>36.9</v>
       </c>
     </row>
     <row spans="1:29" r="88">
@@ -7962,7 +7965,7 @@
         <v>87</v>
       </c>
       <c s="5" t="n" r="C88">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c s="7" t="n" r="E88">
         <v>-1</v>
@@ -7970,68 +7973,68 @@
       <c s="7" t="n" r="F88">
         <v>0</v>
       </c>
-      <c s="7" t="n" r="G88">
-        <v>-1</v>
+      <c s="12" t="n" r="G88">
+        <v>2902</v>
       </c>
       <c s="7" t="n" r="H88">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c s="7" t="n" r="I88">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="7" t="n" r="J88">
         <v>0</v>
       </c>
-      <c s="7" t="n" r="K88">
-        <v>-2</v>
+      <c s="10" t="n" r="K88">
+        <v>2055</v>
       </c>
       <c s="7" t="n" r="L88">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="M88">
-        <v>-2</v>
+        <v>54</v>
+      </c>
+      <c s="12" t="n" r="M88">
+        <v>2838</v>
       </c>
       <c s="7" t="n" r="N88">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="O88">
-        <v>-2</v>
+        <v>32.1</v>
+      </c>
+      <c s="12" t="n" r="O88">
+        <v>2397</v>
       </c>
       <c s="7" t="n" r="P88">
-        <v>0</v>
+        <v>39.1</v>
       </c>
       <c s="7" t="n" r="Q88">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="7" t="n" r="R88">
         <v>0</v>
       </c>
-      <c s="7" t="n" r="S88">
-        <v>-2</v>
+      <c s="12" t="n" r="S88">
+        <v>2034</v>
       </c>
       <c s="7" t="n" r="T88">
-        <v>0</v>
+        <v>38.3</v>
       </c>
       <c s="7" t="n" r="U88">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="7" t="n" r="V88">
         <v>0</v>
       </c>
-      <c s="7" t="n" r="W88">
-        <v>-2</v>
+      <c s="10" t="n" r="W88">
+        <v>1955</v>
       </c>
       <c s="7" t="n" r="X88">
-        <v>0</v>
-      </c>
-      <c s="7" t="n" r="Y88">
-        <v>-2</v>
+        <v>49.6</v>
+      </c>
+      <c s="10" t="n" r="Y88">
+        <v>1657</v>
       </c>
       <c s="7" t="n" r="Z88">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c s="7" t="n" r="AA88">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="7" t="n" r="AB88">
         <v>0</v>
@@ -8054,7 +8057,7 @@
         <v>0</v>
       </c>
       <c s="9" t="n" r="G89">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="9" t="n" r="H89">
         <v>0</v>
@@ -11315,76 +11318,76 @@
         <v>101</v>
       </c>
       <c s="18" t="n" r="E142">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c s="18" t="n" r="F142">
         <v>0</v>
       </c>
       <c s="18" t="n" r="G142">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="H142">
         <v>0</v>
       </c>
       <c s="18" t="n" r="I142">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="J142">
         <v>0</v>
       </c>
       <c s="18" t="n" r="K142">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="L142">
         <v>0</v>
       </c>
       <c s="18" t="n" r="M142">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="N142">
         <v>0</v>
       </c>
-      <c s="21" t="n" r="O142">
-        <v>1089</v>
+      <c s="18" t="n" r="O142">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="P142">
-        <v>69.09999999999999</v>
-      </c>
-      <c s="21" t="n" r="Q142">
-        <v>1074</v>
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="Q142">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="R142">
-        <v>65.2</v>
-      </c>
-      <c s="19" t="n" r="S142">
-        <v>1228</v>
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="S142">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="T142">
-        <v>66.8</v>
-      </c>
-      <c s="21" t="n" r="U142">
-        <v>721</v>
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="U142">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="V142">
-        <v>75.3</v>
-      </c>
-      <c s="20" t="n" r="W142">
-        <v>420</v>
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="W142">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="X142">
-        <v>91.3</v>
-      </c>
-      <c s="19" t="n" r="Y142">
-        <v>793</v>
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="Y142">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="Z142">
-        <v>78.5</v>
-      </c>
-      <c s="23" t="n" r="AA142">
-        <v>1904</v>
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="AA142">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="AB142">
-        <v>42.5</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="143">
@@ -11415,59 +11418,59 @@
       <c s="22" t="n" r="J143">
         <v>0</v>
       </c>
-      <c s="23" t="n" r="K143">
-        <v>2477</v>
+      <c s="22" t="n" r="K143">
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="L143">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c s="22" t="n" r="M143">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="N143">
         <v>0</v>
       </c>
-      <c s="23" t="n" r="O143">
-        <v>2022</v>
+      <c s="21" t="n" r="O143">
+        <v>1089</v>
       </c>
       <c s="22" t="n" r="P143">
-        <v>46.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c s="21" t="n" r="Q143">
-        <v>587</v>
+        <v>1074</v>
       </c>
       <c s="22" t="n" r="R143">
-        <v>76.5</v>
-      </c>
-      <c s="20" t="n" r="S143">
-        <v>654</v>
+        <v>65.2</v>
+      </c>
+      <c s="19" t="n" r="S143">
+        <v>1228</v>
       </c>
       <c s="22" t="n" r="T143">
-        <v>85</v>
+        <v>66.8</v>
       </c>
       <c s="21" t="n" r="U143">
-        <v>1297</v>
+        <v>721</v>
       </c>
       <c s="22" t="n" r="V143">
-        <v>63.6</v>
-      </c>
-      <c s="21" t="n" r="W143">
-        <v>1181</v>
+        <v>75.3</v>
+      </c>
+      <c s="20" t="n" r="W143">
+        <v>420</v>
       </c>
       <c s="22" t="n" r="X143">
-        <v>65.59999999999999</v>
-      </c>
-      <c s="21" t="n" r="Y143">
-        <v>1234</v>
+        <v>91.3</v>
+      </c>
+      <c s="19" t="n" r="Y143">
+        <v>793</v>
       </c>
       <c s="22" t="n" r="Z143">
-        <v>64.3</v>
+        <v>78.5</v>
       </c>
       <c s="23" t="n" r="AA143">
-        <v>2048</v>
+        <v>1904</v>
       </c>
       <c s="22" t="n" r="AB143">
-        <v>39.3</v>
+        <v>42.5</v>
       </c>
     </row>
     <row spans="1:29" r="144">
@@ -11498,59 +11501,59 @@
       <c s="18" t="n" r="J144">
         <v>0</v>
       </c>
-      <c s="18" t="n" r="K144">
-        <v>-3</v>
+      <c s="23" t="n" r="K144">
+        <v>2477</v>
       </c>
       <c s="18" t="n" r="L144">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c s="18" t="n" r="M144">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c s="18" t="n" r="N144">
         <v>0</v>
       </c>
-      <c s="18" t="n" r="O144">
-        <v>-3</v>
+      <c s="23" t="n" r="O144">
+        <v>2022</v>
       </c>
       <c s="18" t="n" r="P144">
-        <v>0</v>
-      </c>
-      <c s="23" t="n" r="Q144">
-        <v>1799</v>
+        <v>46.2</v>
+      </c>
+      <c s="21" t="n" r="Q144">
+        <v>587</v>
       </c>
       <c s="18" t="n" r="R144">
-        <v>43.5</v>
+        <v>76.5</v>
       </c>
       <c s="20" t="n" r="S144">
-        <v>404</v>
+        <v>654</v>
       </c>
       <c s="18" t="n" r="T144">
-        <v>90.7</v>
-      </c>
-      <c s="19" t="n" r="U144">
-        <v>629</v>
+        <v>85</v>
+      </c>
+      <c s="21" t="n" r="U144">
+        <v>1297</v>
       </c>
       <c s="18" t="n" r="V144">
-        <v>82.2</v>
+        <v>63.6</v>
       </c>
       <c s="21" t="n" r="W144">
-        <v>1612</v>
+        <v>1181</v>
       </c>
       <c s="18" t="n" r="X144">
-        <v>56.7</v>
-      </c>
-      <c s="19" t="n" r="Y144">
-        <v>477</v>
+        <v>65.59999999999999</v>
+      </c>
+      <c s="21" t="n" r="Y144">
+        <v>1234</v>
       </c>
       <c s="18" t="n" r="Z144">
-        <v>85.09999999999999</v>
-      </c>
-      <c s="21" t="n" r="AA144">
-        <v>1153</v>
+        <v>64.3</v>
+      </c>
+      <c s="23" t="n" r="AA144">
+        <v>2048</v>
       </c>
       <c s="18" t="n" r="AB144">
-        <v>64.3</v>
+        <v>39.3</v>
       </c>
     </row>
     <row spans="1:29" r="145">
@@ -11570,70 +11573,70 @@
         <v>0</v>
       </c>
       <c s="22" t="n" r="G145">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="H145">
         <v>0</v>
       </c>
-      <c s="20" t="n" r="I145">
-        <v>441</v>
+      <c s="22" t="n" r="I145">
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="J145">
-        <v>91.3</v>
-      </c>
-      <c s="19" t="n" r="K145">
-        <v>773</v>
+        <v>0</v>
+      </c>
+      <c s="22" t="n" r="K145">
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="L145">
-        <v>81.5</v>
-      </c>
-      <c s="20" t="n" r="M145">
-        <v>225</v>
+        <v>0</v>
+      </c>
+      <c s="22" t="n" r="M145">
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="N145">
-        <v>95.8</v>
-      </c>
-      <c s="21" t="n" r="O145">
-        <v>1256</v>
+        <v>0</v>
+      </c>
+      <c s="22" t="n" r="O145">
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="P145">
-        <v>65.90000000000001</v>
-      </c>
-      <c s="22" t="n" r="Q145">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c s="23" t="n" r="Q145">
+        <v>1799</v>
       </c>
       <c s="22" t="n" r="R145">
-        <v>0</v>
-      </c>
-      <c s="21" t="n" r="S145">
-        <v>1344</v>
+        <v>43.5</v>
+      </c>
+      <c s="20" t="n" r="S145">
+        <v>404</v>
       </c>
       <c s="22" t="n" r="T145">
-        <v>59.1</v>
+        <v>90.7</v>
       </c>
       <c s="19" t="n" r="U145">
-        <v>541</v>
+        <v>629</v>
       </c>
       <c s="22" t="n" r="V145">
-        <v>84</v>
-      </c>
-      <c s="22" t="n" r="W145">
-        <v>-2</v>
+        <v>82.2</v>
+      </c>
+      <c s="21" t="n" r="W145">
+        <v>1612</v>
       </c>
       <c s="22" t="n" r="X145">
-        <v>0</v>
-      </c>
-      <c s="22" t="n" r="Y145">
-        <v>-2</v>
+        <v>56.7</v>
+      </c>
+      <c s="19" t="n" r="Y145">
+        <v>477</v>
       </c>
       <c s="22" t="n" r="Z145">
-        <v>0</v>
-      </c>
-      <c s="22" t="n" r="AA145">
-        <v>-2</v>
+        <v>85.09999999999999</v>
+      </c>
+      <c s="21" t="n" r="AA145">
+        <v>1153</v>
       </c>
       <c s="22" t="n" r="AB145">
-        <v>0</v>
+        <v>64.3</v>
       </c>
     </row>
     <row spans="1:29" r="146">
@@ -11653,70 +11656,70 @@
         <v>0</v>
       </c>
       <c s="18" t="n" r="G146">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c s="18" t="n" r="H146">
         <v>0</v>
       </c>
-      <c s="18" t="n" r="I146">
-        <v>-3</v>
+      <c s="20" t="n" r="I146">
+        <v>441</v>
       </c>
       <c s="18" t="n" r="J146">
-        <v>0</v>
-      </c>
-      <c s="23" t="n" r="K146">
-        <v>2517</v>
+        <v>91.3</v>
+      </c>
+      <c s="19" t="n" r="K146">
+        <v>773</v>
       </c>
       <c s="18" t="n" r="L146">
-        <v>40.9</v>
-      </c>
-      <c s="18" t="n" r="M146">
-        <v>-1</v>
+        <v>81.5</v>
+      </c>
+      <c s="20" t="n" r="M146">
+        <v>225</v>
       </c>
       <c s="18" t="n" r="N146">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c s="21" t="n" r="O146">
-        <v>1315</v>
+        <v>1256</v>
       </c>
       <c s="18" t="n" r="P146">
-        <v>64.8</v>
-      </c>
-      <c s="21" t="n" r="Q146">
-        <v>957</v>
+        <v>65.90000000000001</v>
+      </c>
+      <c s="18" t="n" r="Q146">
+        <v>-1</v>
       </c>
       <c s="18" t="n" r="R146">
-        <v>67.90000000000001</v>
-      </c>
-      <c s="20" t="n" r="S146">
-        <v>741</v>
+        <v>0</v>
+      </c>
+      <c s="21" t="n" r="S146">
+        <v>1344</v>
       </c>
       <c s="18" t="n" r="T146">
-        <v>83</v>
-      </c>
-      <c s="18" t="n" r="U146">
-        <v>-1</v>
+        <v>59.1</v>
+      </c>
+      <c s="19" t="n" r="U146">
+        <v>541</v>
       </c>
       <c s="18" t="n" r="V146">
-        <v>0</v>
-      </c>
-      <c s="21" t="n" r="W146">
-        <v>2034</v>
+        <v>84</v>
+      </c>
+      <c s="18" t="n" r="W146">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="X146">
-        <v>48</v>
-      </c>
-      <c s="19" t="n" r="Y146">
-        <v>914</v>
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="Y146">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="Z146">
-        <v>76</v>
-      </c>
-      <c s="21" t="n" r="AA146">
-        <v>995</v>
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="AA146">
+        <v>-2</v>
       </c>
       <c s="18" t="n" r="AB146">
-        <v>67.8</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:29" r="147">
@@ -11730,75 +11733,158 @@
         <v>101</v>
       </c>
       <c s="22" t="n" r="E147">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="F147">
         <v>0</v>
       </c>
       <c s="22" t="n" r="G147">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="H147">
         <v>0</v>
       </c>
       <c s="22" t="n" r="I147">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c s="22" t="n" r="J147">
         <v>0</v>
       </c>
-      <c s="22" t="n" r="K147">
-        <v>-2</v>
+      <c s="23" t="n" r="K147">
+        <v>2517</v>
       </c>
       <c s="22" t="n" r="L147">
-        <v>0</v>
+        <v>40.9</v>
       </c>
       <c s="22" t="n" r="M147">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="22" t="n" r="N147">
         <v>0</v>
       </c>
-      <c s="22" t="n" r="O147">
-        <v>-2</v>
+      <c s="21" t="n" r="O147">
+        <v>1315</v>
       </c>
       <c s="22" t="n" r="P147">
-        <v>0</v>
-      </c>
-      <c s="22" t="n" r="Q147">
-        <v>-2</v>
+        <v>64.8</v>
+      </c>
+      <c s="21" t="n" r="Q147">
+        <v>957</v>
       </c>
       <c s="22" t="n" r="R147">
-        <v>0</v>
-      </c>
-      <c s="22" t="n" r="S147">
-        <v>-2</v>
+        <v>67.90000000000001</v>
+      </c>
+      <c s="20" t="n" r="S147">
+        <v>741</v>
       </c>
       <c s="22" t="n" r="T147">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c s="22" t="n" r="U147">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="22" t="n" r="V147">
         <v>0</v>
       </c>
-      <c s="22" t="n" r="W147">
-        <v>-2</v>
+      <c s="21" t="n" r="W147">
+        <v>2034</v>
       </c>
       <c s="22" t="n" r="X147">
-        <v>0</v>
-      </c>
-      <c s="22" t="n" r="Y147">
-        <v>-2</v>
+        <v>48</v>
+      </c>
+      <c s="19" t="n" r="Y147">
+        <v>914</v>
       </c>
       <c s="22" t="n" r="Z147">
-        <v>0</v>
-      </c>
-      <c s="22" t="n" r="AA147">
-        <v>-2</v>
+        <v>76</v>
+      </c>
+      <c s="21" t="n" r="AA147">
+        <v>995</v>
       </c>
       <c s="22" t="n" r="AB147">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row spans="1:29" r="148">
+      <c s="16" t="s" r="A148">
+        <v>101</v>
+      </c>
+      <c s="16" t="s" r="B148">
+        <v>140</v>
+      </c>
+      <c s="17" t="s" r="C148">
+        <v>101</v>
+      </c>
+      <c s="18" t="n" r="E148">
+        <v>-1</v>
+      </c>
+      <c s="18" t="n" r="F148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="G148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="H148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="I148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="J148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="K148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="L148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="M148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="N148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="O148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="P148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="Q148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="R148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="S148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="T148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="U148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="V148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="W148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="X148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="Y148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="Z148">
+        <v>0</v>
+      </c>
+      <c s="18" t="n" r="AA148">
+        <v>-2</v>
+      </c>
+      <c s="18" t="n" r="AB148">
         <v>0</v>
       </c>
     </row>
@@ -11965,6 +12051,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" r:id="rId130"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId131"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" r:id="rId133"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>Contest</t>
   </si>
@@ -110,9 +110,15 @@
     <t>wangyxwyx</t>
   </si>
   <si>
+    <t>Bingyy</t>
+  </si>
+  <si>
     <t>wanyoyo</t>
   </si>
   <si>
+    <t>ZhengkaiWei</t>
+  </si>
+  <si>
     <t>please_AC</t>
   </si>
   <si>
@@ -290,15 +296,15 @@
     <t>IrisGuo</t>
   </si>
   <si>
+    <t>KyleAC</t>
+  </si>
+  <si>
     <t>Zifengmolan</t>
   </si>
   <si>
     <t>Kaiyu-Wang</t>
   </si>
   <si>
-    <t>KyleAC</t>
-  </si>
-  <si>
     <t>shuizhouwang</t>
   </si>
   <si>
@@ -308,148 +314,145 @@
     <t>user6745</t>
   </si>
   <si>
-    <t>bingyy</t>
+    <t>-1:     absent/zero</t>
+  </si>
+  <si>
+    <t>-2:     not joined</t>
+  </si>
+  <si>
+    <t>-3:     left/quited</t>
+  </si>
+  <si>
+    <t>More about the Rules</t>
+  </si>
+  <si>
+    <t>See the full list of daily problems</t>
+  </si>
+  <si>
+    <t>Graduated or laidoff members in 2019</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Brooky</t>
+  </si>
+  <si>
+    <t>DorisGe</t>
+  </si>
+  <si>
+    <t>LindaLyu</t>
+  </si>
+  <si>
+    <t>Lisanaaa</t>
+  </si>
+  <si>
+    <t>LittleBaldHead</t>
+  </si>
+  <si>
+    <t>QAMichaelPeng</t>
+  </si>
+  <si>
+    <t>Spencial</t>
+  </si>
+  <si>
+    <t>Suhe</t>
+  </si>
+  <si>
+    <t>Vicky_Owen</t>
+  </si>
+  <si>
+    <t>XRS</t>
+  </si>
+  <si>
+    <t>XYang93</t>
+  </si>
+  <si>
+    <t>Yizhao_Han</t>
+  </si>
+  <si>
+    <t>ZOEGREEN</t>
+  </si>
+  <si>
+    <t>ZhuYamei</t>
+  </si>
+  <si>
+    <t>banrenmasanxing</t>
+  </si>
+  <si>
+    <t>bellumpara</t>
+  </si>
+  <si>
+    <t>cookiecookie</t>
+  </si>
+  <si>
+    <t>crossbowman</t>
+  </si>
+  <si>
+    <t>deerstalker</t>
+  </si>
+  <si>
+    <t>dhf13</t>
+  </si>
+  <si>
+    <t>fuxuemingzhu</t>
+  </si>
+  <si>
+    <t>fyang618</t>
+  </si>
+  <si>
+    <t>hgzry812</t>
+  </si>
+  <si>
+    <t>jiancheng2</t>
+  </si>
+  <si>
+    <t>jiang718</t>
+  </si>
+  <si>
+    <t>jianzhun</t>
+  </si>
+  <si>
+    <t>kaihaohust</t>
+  </si>
+  <si>
+    <t>krain033</t>
+  </si>
+  <si>
+    <t>memoryfraction</t>
+  </si>
+  <si>
+    <t>pjincz</t>
+  </si>
+  <si>
+    <t>sissishiny</t>
+  </si>
+  <si>
+    <t>softair</t>
+  </si>
+  <si>
+    <t>wendyimayday</t>
+  </si>
+  <si>
+    <t>wolf940509</t>
+  </si>
+  <si>
+    <t>xfzhao</t>
+  </si>
+  <si>
+    <t>xxnzym</t>
+  </si>
+  <si>
+    <t>yexiaoxiao2102</t>
+  </si>
+  <si>
+    <t>yykfight</t>
+  </si>
+  <si>
+    <t>zhangsikai123</t>
   </si>
   <si>
     <t>zhengkaiwei</t>
-  </si>
-  <si>
-    <t>-1:     absent/zero</t>
-  </si>
-  <si>
-    <t>-2:     not joined</t>
-  </si>
-  <si>
-    <t>-3:     left/quited</t>
-  </si>
-  <si>
-    <t>More about the Rules</t>
-  </si>
-  <si>
-    <t>See the full list of daily problems</t>
-  </si>
-  <si>
-    <t>Graduated or laidoff members in 2019</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Brooky</t>
-  </si>
-  <si>
-    <t>DorisGe</t>
-  </si>
-  <si>
-    <t>LindaLyu</t>
-  </si>
-  <si>
-    <t>Lisanaaa</t>
-  </si>
-  <si>
-    <t>LittleBaldHead</t>
-  </si>
-  <si>
-    <t>QAMichaelPeng</t>
-  </si>
-  <si>
-    <t>Spencial</t>
-  </si>
-  <si>
-    <t>Suhe</t>
-  </si>
-  <si>
-    <t>Vicky_Owen</t>
-  </si>
-  <si>
-    <t>XRS</t>
-  </si>
-  <si>
-    <t>XYang93</t>
-  </si>
-  <si>
-    <t>Yizhao_Han</t>
-  </si>
-  <si>
-    <t>ZOEGREEN</t>
-  </si>
-  <si>
-    <t>ZhuYamei</t>
-  </si>
-  <si>
-    <t>banrenmasanxing</t>
-  </si>
-  <si>
-    <t>bellumpara</t>
-  </si>
-  <si>
-    <t>cookiecookie</t>
-  </si>
-  <si>
-    <t>crossbowman</t>
-  </si>
-  <si>
-    <t>deerstalker</t>
-  </si>
-  <si>
-    <t>dhf13</t>
-  </si>
-  <si>
-    <t>fuxuemingzhu</t>
-  </si>
-  <si>
-    <t>fyang618</t>
-  </si>
-  <si>
-    <t>hgzry812</t>
-  </si>
-  <si>
-    <t>jiancheng2</t>
-  </si>
-  <si>
-    <t>jiang718</t>
-  </si>
-  <si>
-    <t>jianzhun</t>
-  </si>
-  <si>
-    <t>kaihaohust</t>
-  </si>
-  <si>
-    <t>krain033</t>
-  </si>
-  <si>
-    <t>memoryfraction</t>
-  </si>
-  <si>
-    <t>pjincz</t>
-  </si>
-  <si>
-    <t>sissishiny</t>
-  </si>
-  <si>
-    <t>softair</t>
-  </si>
-  <si>
-    <t>wendyimayday</t>
-  </si>
-  <si>
-    <t>wolf940509</t>
-  </si>
-  <si>
-    <t>xfzhao</t>
-  </si>
-  <si>
-    <t>xxnzym</t>
-  </si>
-  <si>
-    <t>yexiaoxiao2102</t>
-  </si>
-  <si>
-    <t>yykfight</t>
-  </si>
-  <si>
-    <t>zhangsikai123</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE152"/>
+  <dimension ref="A1:AE153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3500,25 +3503,25 @@
         <v>31</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>89.2</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>90</v>
-      </c>
-      <c r="G32" s="11" t="n">
-        <v>942</v>
+        <v>89.90000000000001</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="H32" s="7" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="I32" s="10" t="n">
-        <v>417</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>88.5</v>
+        <v>0</v>
       </c>
       <c r="K32" s="7" t="n">
         <v>-2</v>
@@ -3589,49 +3592,49 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>656</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>942</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="I33" s="10" t="n">
+        <v>417</v>
+      </c>
+      <c r="J33" s="9" t="n">
         <v>88.5</v>
       </c>
-      <c r="E33" s="6" t="n">
-        <v>556</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="G33" s="10" t="n">
-        <v>528</v>
-      </c>
-      <c r="H33" s="9" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="I33" s="11" t="n">
-        <v>1291</v>
-      </c>
-      <c r="J33" s="9" t="n">
-        <v>70</v>
-      </c>
-      <c r="K33" s="6" t="n">
-        <v>846</v>
+      <c r="K33" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L33" s="9" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="M33" s="10" t="n">
-        <v>864</v>
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N33" s="9" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="O33" s="6" t="n">
-        <v>336</v>
+        <v>0</v>
+      </c>
+      <c r="O33" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P33" s="9" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="Q33" s="10" t="n">
-        <v>742</v>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R33" s="9" t="n">
-        <v>80.8</v>
+        <v>0</v>
       </c>
       <c r="S33" s="9" t="n">
         <v>-2</v>
@@ -3678,85 +3681,85 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>87.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>264</v>
+        <v>726</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>96</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H34" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="10" t="n">
-        <v>1053</v>
+      <c r="I34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J34" s="7" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="K34" s="6" t="n">
-        <v>521</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>89.8</v>
+        <v>0</v>
       </c>
       <c r="M34" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N34" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O34" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P34" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" s="10" t="n">
-        <v>426</v>
+      <c r="Q34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R34" s="7" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="S34" s="10" t="n">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T34" s="7" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="U34" s="11" t="n">
-        <v>1525</v>
+        <v>0</v>
+      </c>
+      <c r="U34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V34" s="7" t="n">
-        <v>55</v>
-      </c>
-      <c r="W34" s="12" t="n">
-        <v>1573</v>
+        <v>0</v>
+      </c>
+      <c r="W34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X34" s="7" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="Y34" s="11" t="n">
-        <v>1127</v>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z34" s="7" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="AA34" s="10" t="n">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AB34" s="7" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="AC34" s="11" t="n">
-        <v>901</v>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD34" s="7" t="n">
-        <v>69.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -3767,82 +3770,82 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>178</v>
+        <v>556</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>-1</v>
+        <v>91.5</v>
+      </c>
+      <c r="G35" s="10" t="n">
+        <v>528</v>
       </c>
       <c r="H35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="n">
-        <v>1133</v>
+        <v>85.5</v>
+      </c>
+      <c r="I35" s="11" t="n">
+        <v>1291</v>
       </c>
       <c r="J35" s="9" t="n">
-        <v>77.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>449</v>
+        <v>846</v>
       </c>
       <c r="L35" s="9" t="n">
-        <v>91.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="M35" s="10" t="n">
-        <v>219</v>
+        <v>864</v>
       </c>
       <c r="N35" s="9" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="O35" s="10" t="n">
-        <v>1200</v>
+        <v>79.90000000000001</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>336</v>
       </c>
       <c r="P35" s="9" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="Q35" s="11" t="n">
-        <v>1232</v>
+        <v>93.7</v>
+      </c>
+      <c r="Q35" s="10" t="n">
+        <v>742</v>
       </c>
       <c r="R35" s="9" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="S35" s="10" t="n">
-        <v>338</v>
+        <v>80.8</v>
+      </c>
+      <c r="S35" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T35" s="9" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="U35" s="6" t="n">
-        <v>182</v>
+        <v>0</v>
+      </c>
+      <c r="U35" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V35" s="9" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="W35" s="11" t="n">
-        <v>740</v>
+        <v>0</v>
+      </c>
+      <c r="W35" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X35" s="9" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="Y35" s="11" t="n">
-        <v>1340</v>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z35" s="9" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="AA35" s="11" t="n">
-        <v>1223</v>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB35" s="9" t="n">
-        <v>64.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD35" s="9" t="n">
         <v>0</v>
@@ -3856,85 +3859,85 @@
         <v>35</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>86.3</v>
+        <v>87.3</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>719</v>
+        <v>264</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>89</v>
-      </c>
-      <c r="G36" s="10" t="n">
-        <v>633</v>
+        <v>96</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="H36" s="7" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I36" s="7" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="n">
+        <v>1053</v>
       </c>
       <c r="J36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7" t="n">
-        <v>-2</v>
+        <v>78.7</v>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>521</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="M36" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N36" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O36" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q36" s="7" t="n">
-        <v>-2</v>
+      <c r="Q36" s="10" t="n">
+        <v>426</v>
       </c>
       <c r="R36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7" t="n">
-        <v>-2</v>
+        <v>86.8</v>
+      </c>
+      <c r="S36" s="10" t="n">
+        <v>170</v>
       </c>
       <c r="T36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="7" t="n">
-        <v>-2</v>
+        <v>91.09999999999999</v>
+      </c>
+      <c r="U36" s="11" t="n">
+        <v>1525</v>
       </c>
       <c r="V36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="7" t="n">
-        <v>-2</v>
+        <v>55</v>
+      </c>
+      <c r="W36" s="12" t="n">
+        <v>1573</v>
       </c>
       <c r="X36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="7" t="n">
-        <v>-2</v>
+        <v>52.9</v>
+      </c>
+      <c r="Y36" s="11" t="n">
+        <v>1127</v>
       </c>
       <c r="Z36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="7" t="n">
-        <v>-2</v>
+        <v>66.7</v>
+      </c>
+      <c r="AA36" s="10" t="n">
+        <v>350</v>
       </c>
       <c r="AB36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="7" t="n">
-        <v>-2</v>
+        <v>87.7</v>
+      </c>
+      <c r="AC36" s="11" t="n">
+        <v>901</v>
       </c>
       <c r="AD36" s="7" t="n">
-        <v>0</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -3945,82 +3948,82 @@
         <v>36</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="E37" s="10" t="n">
-        <v>874</v>
+        <v>87.3</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>178</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="G37" s="10" t="n">
-        <v>529</v>
+        <v>97.3</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H37" s="9" t="n">
-        <v>85.5</v>
+        <v>0</v>
       </c>
       <c r="I37" s="10" t="n">
-        <v>593</v>
+        <v>1133</v>
       </c>
       <c r="J37" s="9" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>-2</v>
+        <v>77.40000000000001</v>
+      </c>
+      <c r="K37" s="6" t="n">
+        <v>449</v>
       </c>
       <c r="L37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9" t="n">
-        <v>-2</v>
+        <v>91.2</v>
+      </c>
+      <c r="M37" s="10" t="n">
+        <v>219</v>
       </c>
       <c r="N37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9" t="n">
-        <v>-2</v>
+        <v>91.2</v>
+      </c>
+      <c r="O37" s="10" t="n">
+        <v>1200</v>
       </c>
       <c r="P37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9" t="n">
-        <v>-2</v>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="Q37" s="11" t="n">
+        <v>1232</v>
       </c>
       <c r="R37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="9" t="n">
-        <v>-2</v>
+        <v>66.40000000000001</v>
+      </c>
+      <c r="S37" s="10" t="n">
+        <v>338</v>
       </c>
       <c r="T37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="9" t="n">
-        <v>-2</v>
+        <v>87.2</v>
+      </c>
+      <c r="U37" s="6" t="n">
+        <v>182</v>
       </c>
       <c r="V37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="9" t="n">
-        <v>-2</v>
+        <v>95.8</v>
+      </c>
+      <c r="W37" s="11" t="n">
+        <v>740</v>
       </c>
       <c r="X37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="9" t="n">
-        <v>-2</v>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="Y37" s="11" t="n">
+        <v>1340</v>
       </c>
       <c r="Z37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="9" t="n">
-        <v>-2</v>
+        <v>62.3</v>
+      </c>
+      <c r="AA37" s="11" t="n">
+        <v>1223</v>
       </c>
       <c r="AB37" s="9" t="n">
-        <v>0</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="AC37" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD37" s="9" t="n">
         <v>0</v>
@@ -4034,37 +4037,37 @@
         <v>37</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="E38" s="11" t="n">
-        <v>1658</v>
+        <v>86.3</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>719</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>64.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="G38" s="10" t="n">
-        <v>471</v>
+        <v>633</v>
       </c>
       <c r="H38" s="7" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="I38" s="10" t="n">
-        <v>728</v>
+        <v>83.59999999999999</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J38" s="7" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="K38" s="11" t="n">
-        <v>2405</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L38" s="7" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="M38" s="10" t="n">
-        <v>1131</v>
+        <v>0</v>
+      </c>
+      <c r="M38" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N38" s="7" t="n">
-        <v>75.2</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="n">
         <v>-2</v>
@@ -4123,85 +4126,85 @@
         <v>38</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>641</v>
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>874</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="G39" s="12" t="n">
-        <v>1697</v>
+        <v>81.59999999999999</v>
+      </c>
+      <c r="G39" s="10" t="n">
+        <v>529</v>
       </c>
       <c r="H39" s="9" t="n">
-        <v>54.5</v>
+        <v>85.5</v>
       </c>
       <c r="I39" s="10" t="n">
-        <v>996</v>
+        <v>593</v>
       </c>
       <c r="J39" s="9" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="K39" s="6" t="n">
-        <v>1146</v>
+        <v>85.8</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L39" s="9" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="M39" s="11" t="n">
-        <v>1821</v>
+        <v>0</v>
+      </c>
+      <c r="M39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N39" s="9" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="O39" s="10" t="n">
-        <v>1128</v>
+        <v>0</v>
+      </c>
+      <c r="O39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P39" s="9" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q39" s="11" t="n">
-        <v>1080</v>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R39" s="9" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="S39" s="11" t="n">
-        <v>920</v>
+        <v>0</v>
+      </c>
+      <c r="S39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T39" s="9" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="U39" s="11" t="n">
-        <v>1473</v>
+        <v>0</v>
+      </c>
+      <c r="U39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V39" s="9" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="W39" s="12" t="n">
-        <v>1754</v>
+        <v>0</v>
+      </c>
+      <c r="W39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X39" s="9" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="Y39" s="10" t="n">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z39" s="9" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="AA39" s="10" t="n">
-        <v>975</v>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB39" s="9" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="AC39" s="11" t="n">
-        <v>1133</v>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD39" s="9" t="n">
-        <v>64.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4212,37 +4215,37 @@
         <v>39</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="E40" s="6" t="n">
-        <v>816</v>
+        <v>85.09999999999999</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>1658</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>87.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G40" s="10" t="n">
-        <v>816</v>
+        <v>471</v>
       </c>
       <c r="H40" s="7" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v>-2</v>
+        <v>86.5</v>
+      </c>
+      <c r="I40" s="10" t="n">
+        <v>728</v>
       </c>
       <c r="J40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>-2</v>
+        <v>83.7</v>
+      </c>
+      <c r="K40" s="11" t="n">
+        <v>2405</v>
       </c>
       <c r="L40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7" t="n">
-        <v>-2</v>
+        <v>42.7</v>
+      </c>
+      <c r="M40" s="10" t="n">
+        <v>1131</v>
       </c>
       <c r="N40" s="7" t="n">
-        <v>0</v>
+        <v>75.2</v>
       </c>
       <c r="O40" s="7" t="n">
         <v>-2</v>
@@ -4301,85 +4304,85 @@
         <v>40</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="E41" s="10" t="n">
-        <v>982</v>
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>641</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>80</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>-1</v>
+        <v>90.2</v>
+      </c>
+      <c r="G41" s="12" t="n">
+        <v>1697</v>
       </c>
       <c r="H41" s="9" t="n">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="I41" s="10" t="n">
-        <v>468</v>
+        <v>996</v>
       </c>
       <c r="J41" s="9" t="n">
-        <v>87.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K41" s="6" t="n">
-        <v>409</v>
+        <v>1146</v>
       </c>
       <c r="L41" s="9" t="n">
-        <v>92</v>
-      </c>
-      <c r="M41" s="9" t="n">
-        <v>-1</v>
+        <v>77.5</v>
+      </c>
+      <c r="M41" s="11" t="n">
+        <v>1821</v>
       </c>
       <c r="N41" s="9" t="n">
-        <v>0</v>
+        <v>58.1</v>
       </c>
       <c r="O41" s="10" t="n">
-        <v>1521</v>
+        <v>1128</v>
       </c>
       <c r="P41" s="9" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="Q41" s="10" t="n">
-        <v>672</v>
+        <v>74</v>
+      </c>
+      <c r="Q41" s="11" t="n">
+        <v>1080</v>
       </c>
       <c r="R41" s="9" t="n">
-        <v>82.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="S41" s="11" t="n">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="T41" s="9" t="n">
-        <v>68.2</v>
+        <v>68.8</v>
       </c>
       <c r="U41" s="11" t="n">
-        <v>1600</v>
+        <v>1473</v>
       </c>
       <c r="V41" s="9" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="W41" s="11" t="n">
-        <v>897</v>
+        <v>56.2</v>
+      </c>
+      <c r="W41" s="12" t="n">
+        <v>1754</v>
       </c>
       <c r="X41" s="9" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="Y41" s="9" t="n">
-        <v>-1</v>
+        <v>49.2</v>
+      </c>
+      <c r="Y41" s="10" t="n">
+        <v>959</v>
       </c>
       <c r="Z41" s="9" t="n">
-        <v>0</v>
+        <v>75.2</v>
       </c>
       <c r="AA41" s="10" t="n">
-        <v>451</v>
+        <v>975</v>
       </c>
       <c r="AB41" s="9" t="n">
-        <v>85.59999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="AC41" s="11" t="n">
-        <v>1272</v>
+        <v>1133</v>
       </c>
       <c r="AD41" s="9" t="n">
-        <v>61.6</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4390,85 +4393,85 @@
         <v>41</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="E42" s="11" t="n">
-        <v>1756</v>
+        <v>84</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>816</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="G42" s="6" t="n">
-        <v>111</v>
+        <v>87.5</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>816</v>
       </c>
       <c r="H42" s="7" t="n">
-        <v>98</v>
-      </c>
-      <c r="I42" s="11" t="n">
-        <v>1470</v>
+        <v>80.40000000000001</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J42" s="7" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="K42" s="6" t="n">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L42" s="7" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="M42" s="10" t="n">
-        <v>281</v>
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N42" s="7" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="O42" s="6" t="n">
-        <v>648</v>
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P42" s="7" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="Q42" s="6" t="n">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R42" s="7" t="n">
-        <v>99</v>
-      </c>
-      <c r="S42" s="6" t="n">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="S42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T42" s="7" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="U42" s="6" t="n">
-        <v>711</v>
+        <v>0</v>
+      </c>
+      <c r="U42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V42" s="7" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="W42" s="10" t="n">
-        <v>419</v>
+        <v>0</v>
+      </c>
+      <c r="W42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X42" s="7" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="Y42" s="10" t="n">
-        <v>845</v>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z42" s="7" t="n">
-        <v>77.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AC42" s="10" t="n">
-        <v>565</v>
+      <c r="AC42" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD42" s="7" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4479,85 +4482,85 @@
         <v>42</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="E43" s="6" t="n">
-        <v>403</v>
+        <v>83.8</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>982</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="G43" s="11" t="n">
-        <v>1053</v>
+        <v>80</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H43" s="9" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="I43" s="9" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="I43" s="10" t="n">
+        <v>468</v>
       </c>
       <c r="J43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9" t="n">
-        <v>-2</v>
+        <v>87.7</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>409</v>
       </c>
       <c r="L43" s="9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M43" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N43" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O43" s="9" t="n">
-        <v>-2</v>
+      <c r="O43" s="10" t="n">
+        <v>1521</v>
       </c>
       <c r="P43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="9" t="n">
-        <v>-2</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="Q43" s="10" t="n">
+        <v>672</v>
       </c>
       <c r="R43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="9" t="n">
-        <v>-2</v>
+        <v>82.09999999999999</v>
+      </c>
+      <c r="S43" s="11" t="n">
+        <v>944</v>
       </c>
       <c r="T43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="9" t="n">
-        <v>-2</v>
+        <v>68.2</v>
+      </c>
+      <c r="U43" s="11" t="n">
+        <v>1600</v>
       </c>
       <c r="V43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="9" t="n">
-        <v>-2</v>
+        <v>53.2</v>
+      </c>
+      <c r="W43" s="11" t="n">
+        <v>897</v>
       </c>
       <c r="X43" s="9" t="n">
-        <v>0</v>
+        <v>71.7</v>
       </c>
       <c r="Y43" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z43" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="AA43" s="9" t="n">
-        <v>-2</v>
+      <c r="AA43" s="10" t="n">
+        <v>451</v>
       </c>
       <c r="AB43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="9" t="n">
-        <v>-2</v>
+        <v>85.59999999999999</v>
+      </c>
+      <c r="AC43" s="11" t="n">
+        <v>1272</v>
       </c>
       <c r="AD43" s="9" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -4568,85 +4571,85 @@
         <v>43</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="E44" s="10" t="n">
-        <v>885</v>
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>1756</v>
       </c>
       <c r="F44" s="7" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="G44" s="10" t="n">
-        <v>667</v>
+        <v>63.1</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>111</v>
       </c>
       <c r="H44" s="7" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I44" s="11" t="n">
-        <v>1511</v>
+        <v>1470</v>
       </c>
       <c r="J44" s="7" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K44" s="10" t="n">
-        <v>1919</v>
+        <v>67.2</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>64</v>
       </c>
       <c r="L44" s="7" t="n">
-        <v>57.3</v>
+        <v>98.7</v>
       </c>
       <c r="M44" s="10" t="n">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="N44" s="7" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="O44" s="10" t="n">
-        <v>1215</v>
+        <v>90.09999999999999</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>648</v>
       </c>
       <c r="P44" s="7" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="Q44" s="12" t="n">
-        <v>1988</v>
+        <v>87.90000000000001</v>
+      </c>
+      <c r="Q44" s="6" t="n">
+        <v>53</v>
       </c>
       <c r="R44" s="7" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="S44" s="11" t="n">
-        <v>555</v>
+        <v>99</v>
+      </c>
+      <c r="S44" s="6" t="n">
+        <v>100</v>
       </c>
       <c r="T44" s="7" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="U44" s="12" t="n">
-        <v>2045</v>
+        <v>97.7</v>
+      </c>
+      <c r="U44" s="6" t="n">
+        <v>711</v>
       </c>
       <c r="V44" s="7" t="n">
-        <v>38</v>
+        <v>83.7</v>
       </c>
       <c r="W44" s="10" t="n">
-        <v>625</v>
+        <v>419</v>
       </c>
       <c r="X44" s="7" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="Y44" s="11" t="n">
-        <v>1971</v>
+        <v>86.5</v>
+      </c>
+      <c r="Y44" s="10" t="n">
+        <v>845</v>
       </c>
       <c r="Z44" s="7" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="AA44" s="10" t="n">
-        <v>886</v>
+        <v>77.59999999999999</v>
+      </c>
+      <c r="AA44" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="AB44" s="7" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="AC44" s="11" t="n">
-        <v>952</v>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="10" t="n">
+        <v>565</v>
       </c>
       <c r="AD44" s="7" t="n">
-        <v>68.8</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -4657,85 +4660,85 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <v>1414</v>
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>403</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="G45" s="10" t="n">
-        <v>652</v>
+        <v>93.8</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <v>1053</v>
       </c>
       <c r="H45" s="9" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="I45" s="10" t="n">
-        <v>919</v>
+        <v>71.09999999999999</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J45" s="9" t="n">
-        <v>80.8</v>
+        <v>0</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M45" s="10" t="n">
-        <v>204</v>
+      <c r="M45" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N45" s="9" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="O45" s="6" t="n">
-        <v>642</v>
+        <v>0</v>
+      </c>
+      <c r="O45" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P45" s="9" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q45" s="11" t="n">
-        <v>927</v>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R45" s="9" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="S45" s="12" t="n">
-        <v>1623</v>
+        <v>0</v>
+      </c>
+      <c r="S45" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T45" s="9" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="U45" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="W45" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Y45" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA45" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="AC45" s="10" t="n">
-        <v>641</v>
+      <c r="AC45" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD45" s="9" t="n">
-        <v>80.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -4746,85 +4749,85 @@
         <v>45</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="F46" s="7" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="G46" s="7" t="n">
-        <v>-2</v>
+        <v>81.5</v>
+      </c>
+      <c r="G46" s="10" t="n">
+        <v>667</v>
       </c>
       <c r="H46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7" t="n">
-        <v>-2</v>
+        <v>83</v>
+      </c>
+      <c r="I46" s="11" t="n">
+        <v>1511</v>
       </c>
       <c r="J46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7" t="n">
-        <v>-2</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K46" s="10" t="n">
+        <v>1919</v>
       </c>
       <c r="L46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="n">
-        <v>-2</v>
+        <v>57.3</v>
+      </c>
+      <c r="M46" s="10" t="n">
+        <v>198</v>
       </c>
       <c r="N46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7" t="n">
-        <v>-2</v>
+        <v>91.5</v>
+      </c>
+      <c r="O46" s="10" t="n">
+        <v>1215</v>
       </c>
       <c r="P46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="7" t="n">
-        <v>-2</v>
+        <v>72.3</v>
+      </c>
+      <c r="Q46" s="12" t="n">
+        <v>1988</v>
       </c>
       <c r="R46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="7" t="n">
-        <v>-2</v>
+        <v>46.9</v>
+      </c>
+      <c r="S46" s="11" t="n">
+        <v>555</v>
       </c>
       <c r="T46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="7" t="n">
-        <v>-2</v>
+        <v>77.2</v>
+      </c>
+      <c r="U46" s="12" t="n">
+        <v>2045</v>
       </c>
       <c r="V46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="7" t="n">
-        <v>-2</v>
+        <v>38</v>
+      </c>
+      <c r="W46" s="10" t="n">
+        <v>625</v>
       </c>
       <c r="X46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="7" t="n">
-        <v>-2</v>
+        <v>82.3</v>
+      </c>
+      <c r="Y46" s="11" t="n">
+        <v>1971</v>
       </c>
       <c r="Z46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="7" t="n">
-        <v>-2</v>
+        <v>49.3</v>
+      </c>
+      <c r="AA46" s="10" t="n">
+        <v>886</v>
       </c>
       <c r="AB46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="7" t="n">
-        <v>-2</v>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="AC46" s="11" t="n">
+        <v>952</v>
       </c>
       <c r="AD46" s="7" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -4835,85 +4838,85 @@
         <v>46</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="E47" s="9" t="n">
-        <v>-1</v>
+        <v>82</v>
+      </c>
+      <c r="E47" s="11" t="n">
+        <v>1414</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>0</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G47" s="10" t="n">
-        <v>769</v>
+        <v>652</v>
       </c>
       <c r="H47" s="9" t="n">
-        <v>81.2</v>
+        <v>83.3</v>
       </c>
       <c r="I47" s="10" t="n">
-        <v>809</v>
+        <v>919</v>
       </c>
       <c r="J47" s="9" t="n">
-        <v>82.5</v>
+        <v>80.8</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L47" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M47" s="9" t="n">
-        <v>-2</v>
+      <c r="M47" s="10" t="n">
+        <v>204</v>
       </c>
       <c r="N47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="9" t="n">
-        <v>-2</v>
+        <v>91.40000000000001</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>642</v>
       </c>
       <c r="P47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="9" t="n">
-        <v>-2</v>
+        <v>88</v>
+      </c>
+      <c r="Q47" s="11" t="n">
+        <v>927</v>
       </c>
       <c r="R47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="9" t="n">
-        <v>-2</v>
+        <v>72.2</v>
+      </c>
+      <c r="S47" s="12" t="n">
+        <v>1623</v>
       </c>
       <c r="T47" s="9" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="U47" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="W47" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Y47" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA47" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB47" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="AC47" s="9" t="n">
-        <v>-2</v>
+      <c r="AC47" s="10" t="n">
+        <v>641</v>
       </c>
       <c r="AD47" s="9" t="n">
-        <v>0</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -4924,82 +4927,82 @@
         <v>47</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>81.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>1231</v>
+        <v>857</v>
       </c>
       <c r="F48" s="7" t="n">
-        <v>76.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G48" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I48" s="10" t="n">
-        <v>577</v>
+      <c r="I48" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J48" s="7" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="K48" s="6" t="n">
-        <v>695</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L48" s="7" t="n">
-        <v>86.3</v>
+        <v>0</v>
       </c>
       <c r="M48" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O48" s="6" t="n">
-        <v>614</v>
+      <c r="O48" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P48" s="7" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="Q48" s="6" t="n">
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R48" s="7" t="n">
-        <v>93.8</v>
+        <v>0</v>
       </c>
       <c r="S48" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U48" s="10" t="n">
-        <v>1060</v>
+      <c r="U48" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V48" s="7" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="W48" s="11" t="n">
-        <v>790</v>
+        <v>0</v>
+      </c>
+      <c r="W48" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X48" s="7" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="Y48" s="11" t="n">
-        <v>2069</v>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z48" s="7" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="AA48" s="10" t="n">
-        <v>1043</v>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AB48" s="7" t="n">
-        <v>73.3</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD48" s="7" t="n">
         <v>0</v>
@@ -5013,7 +5016,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>80.7</v>
+        <v>81.8</v>
       </c>
       <c r="E49" s="9" t="n">
         <v>-1</v>
@@ -5021,77 +5024,77 @@
       <c r="F49" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="6" t="n">
-        <v>340</v>
+      <c r="G49" s="10" t="n">
+        <v>769</v>
       </c>
       <c r="H49" s="9" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="I49" s="11" t="n">
-        <v>1462</v>
+        <v>81.2</v>
+      </c>
+      <c r="I49" s="10" t="n">
+        <v>809</v>
       </c>
       <c r="J49" s="9" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="K49" s="12" t="n">
-        <v>2798</v>
+        <v>82.5</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L49" s="9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M49" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N49" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O49" s="10" t="n">
-        <v>734</v>
+      <c r="O49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P49" s="9" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="Q49" s="11" t="n">
-        <v>1319</v>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R49" s="9" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="S49" s="11" t="n">
-        <v>1132</v>
+        <v>0</v>
+      </c>
+      <c r="S49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T49" s="9" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="U49" s="11" t="n">
-        <v>1411</v>
+        <v>0</v>
+      </c>
+      <c r="U49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V49" s="9" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="W49" s="12" t="n">
-        <v>1642</v>
+        <v>0</v>
+      </c>
+      <c r="W49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X49" s="9" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="Y49" s="10" t="n">
-        <v>757</v>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z49" s="9" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="AA49" s="11" t="n">
-        <v>2123</v>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB49" s="9" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="AC49" s="10" t="n">
-        <v>315</v>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD49" s="9" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -5102,85 +5105,85 @@
         <v>49</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="E50" s="6" t="n">
-        <v>452</v>
+        <v>81.2</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>1231</v>
       </c>
       <c r="F50" s="7" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="G50" s="11" t="n">
-        <v>1376</v>
+        <v>76.2</v>
+      </c>
+      <c r="G50" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="H50" s="7" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="I50" s="11" t="n">
-        <v>1449</v>
+        <v>0</v>
+      </c>
+      <c r="I50" s="10" t="n">
+        <v>577</v>
       </c>
       <c r="J50" s="7" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K50" s="11" t="n">
-        <v>2296</v>
+        <v>86.09999999999999</v>
+      </c>
+      <c r="K50" s="6" t="n">
+        <v>695</v>
       </c>
       <c r="L50" s="7" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="M50" s="12" t="n">
-        <v>2473</v>
+        <v>86.3</v>
+      </c>
+      <c r="M50" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="N50" s="7" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="O50" s="10" t="n">
-        <v>1016</v>
+        <v>0</v>
+      </c>
+      <c r="O50" s="6" t="n">
+        <v>614</v>
       </c>
       <c r="P50" s="7" t="n">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="7" t="n">
-        <v>-1</v>
+        <v>88.5</v>
+      </c>
+      <c r="Q50" s="6" t="n">
+        <v>324</v>
       </c>
       <c r="R50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" s="11" t="n">
-        <v>672</v>
+        <v>93.8</v>
+      </c>
+      <c r="S50" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="T50" s="7" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="U50" s="11" t="n">
-        <v>1352</v>
+        <v>0</v>
+      </c>
+      <c r="U50" s="10" t="n">
+        <v>1060</v>
       </c>
       <c r="V50" s="7" t="n">
-        <v>58.9</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="W50" s="11" t="n">
-        <v>1153</v>
+        <v>790</v>
       </c>
       <c r="X50" s="7" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="Y50" s="12" t="n">
-        <v>2124</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Y50" s="11" t="n">
+        <v>2069</v>
       </c>
       <c r="Z50" s="7" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="AA50" s="11" t="n">
-        <v>1421</v>
+        <v>47.3</v>
+      </c>
+      <c r="AA50" s="10" t="n">
+        <v>1043</v>
       </c>
       <c r="AB50" s="7" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="AC50" s="11" t="n">
-        <v>867</v>
+        <v>73.3</v>
+      </c>
+      <c r="AC50" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="AD50" s="7" t="n">
-        <v>70.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -5191,85 +5194,85 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="E51" s="11" t="n">
-        <v>1644</v>
+        <v>80.7</v>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="H51" s="9" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I51" s="11" t="n">
-        <v>2522</v>
+        <v>1462</v>
       </c>
       <c r="J51" s="9" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="K51" s="11" t="n">
-        <v>2017</v>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K51" s="12" t="n">
+        <v>2798</v>
       </c>
       <c r="L51" s="9" t="n">
-        <v>50.4</v>
+        <v>30</v>
       </c>
       <c r="M51" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N51" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O51" s="9" t="n">
-        <v>-2</v>
+      <c r="O51" s="10" t="n">
+        <v>734</v>
       </c>
       <c r="P51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9" t="n">
-        <v>-2</v>
+        <v>81.3</v>
+      </c>
+      <c r="Q51" s="11" t="n">
+        <v>1319</v>
       </c>
       <c r="R51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="9" t="n">
-        <v>-2</v>
+        <v>64.7</v>
+      </c>
+      <c r="S51" s="11" t="n">
+        <v>1132</v>
       </c>
       <c r="T51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="9" t="n">
-        <v>-2</v>
+        <v>63.9</v>
+      </c>
+      <c r="U51" s="11" t="n">
+        <v>1411</v>
       </c>
       <c r="V51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" s="9" t="n">
-        <v>-2</v>
+        <v>57.6</v>
+      </c>
+      <c r="W51" s="12" t="n">
+        <v>1642</v>
       </c>
       <c r="X51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="9" t="n">
-        <v>-2</v>
+        <v>51.5</v>
+      </c>
+      <c r="Y51" s="10" t="n">
+        <v>757</v>
       </c>
       <c r="Z51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="9" t="n">
-        <v>-2</v>
+        <v>79.40000000000001</v>
+      </c>
+      <c r="AA51" s="11" t="n">
+        <v>2123</v>
       </c>
       <c r="AB51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="9" t="n">
-        <v>-2</v>
+        <v>45.9</v>
+      </c>
+      <c r="AC51" s="10" t="n">
+        <v>315</v>
       </c>
       <c r="AD51" s="9" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -5280,85 +5283,85 @@
         <v>51</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>79.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>92.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G52" s="11" t="n">
-        <v>1347</v>
+        <v>1376</v>
       </c>
       <c r="H52" s="7" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="I52" s="7" t="n">
-        <v>-2</v>
+        <v>65.3</v>
+      </c>
+      <c r="I52" s="11" t="n">
+        <v>1449</v>
       </c>
       <c r="J52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="7" t="n">
-        <v>-2</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K52" s="11" t="n">
+        <v>2296</v>
       </c>
       <c r="L52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7" t="n">
-        <v>-2</v>
+        <v>44.9</v>
+      </c>
+      <c r="M52" s="12" t="n">
+        <v>2473</v>
       </c>
       <c r="N52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="n">
-        <v>-2</v>
+        <v>41.7</v>
+      </c>
+      <c r="O52" s="10" t="n">
+        <v>1016</v>
       </c>
       <c r="P52" s="7" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Q52" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R52" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S52" s="7" t="n">
-        <v>-2</v>
+      <c r="S52" s="11" t="n">
+        <v>672</v>
       </c>
       <c r="T52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" s="7" t="n">
-        <v>-2</v>
+        <v>74.5</v>
+      </c>
+      <c r="U52" s="11" t="n">
+        <v>1352</v>
       </c>
       <c r="V52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" s="7" t="n">
-        <v>-2</v>
+        <v>58.9</v>
+      </c>
+      <c r="W52" s="11" t="n">
+        <v>1153</v>
       </c>
       <c r="X52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="7" t="n">
-        <v>-2</v>
+        <v>66.5</v>
+      </c>
+      <c r="Y52" s="12" t="n">
+        <v>2124</v>
       </c>
       <c r="Z52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="7" t="n">
-        <v>-2</v>
+        <v>41.2</v>
+      </c>
+      <c r="AA52" s="11" t="n">
+        <v>1421</v>
       </c>
       <c r="AB52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="7" t="n">
-        <v>-2</v>
+        <v>60.4</v>
+      </c>
+      <c r="AC52" s="11" t="n">
+        <v>867</v>
       </c>
       <c r="AD52" s="7" t="n">
-        <v>0</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -5369,31 +5372,31 @@
         <v>52</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E53" s="10" t="n">
-        <v>1139</v>
+        <v>79.7</v>
+      </c>
+      <c r="E53" s="11" t="n">
+        <v>1644</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="G53" s="10" t="n">
-        <v>818</v>
+        <v>64.8</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>304</v>
       </c>
       <c r="H53" s="9" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="I53" s="9" t="n">
-        <v>-2</v>
+        <v>94.5</v>
+      </c>
+      <c r="I53" s="11" t="n">
+        <v>2522</v>
       </c>
       <c r="J53" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="9" t="n">
-        <v>-2</v>
+        <v>50.9</v>
+      </c>
+      <c r="K53" s="11" t="n">
+        <v>2017</v>
       </c>
       <c r="L53" s="9" t="n">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="M53" s="9" t="n">
         <v>-2</v>
@@ -5458,85 +5461,85 @@
         <v>53</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>78</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>604</v>
+        <v>495</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>90.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G54" s="11" t="n">
-        <v>1374</v>
+        <v>1347</v>
       </c>
       <c r="H54" s="7" t="n">
-        <v>65.3</v>
+        <v>65.8</v>
       </c>
       <c r="I54" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J54" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L54" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M54" s="11" t="n">
-        <v>1874</v>
+      <c r="M54" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N54" s="7" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="O54" s="6" t="n">
-        <v>507</v>
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P54" s="7" t="n">
-        <v>90.5</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R54" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S54" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T54" s="7" t="n">
         <v>0</v>
       </c>
       <c r="U54" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V54" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W54" s="11" t="n">
-        <v>811</v>
+      <c r="W54" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X54" s="7" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="Y54" s="11" t="n">
-        <v>1429</v>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z54" s="7" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="AA54" s="10" t="n">
-        <v>892</v>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AB54" s="7" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="AC54" s="12" t="n">
-        <v>1855</v>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD54" s="7" t="n">
-        <v>43.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -5547,85 +5550,85 @@
         <v>54</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E55" s="12" t="n">
-        <v>2574</v>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E55" s="10" t="n">
+        <v>1139</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="G55" s="11" t="n">
-        <v>924</v>
+        <v>77.59999999999999</v>
+      </c>
+      <c r="G55" s="10" t="n">
+        <v>818</v>
       </c>
       <c r="H55" s="9" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="I55" s="10" t="n">
-        <v>858</v>
+        <v>80.3</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J55" s="9" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="K55" s="10" t="n">
-        <v>1928</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L55" s="9" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="M55" s="10" t="n">
-        <v>596</v>
+        <v>0</v>
+      </c>
+      <c r="M55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N55" s="9" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="O55" s="10" t="n">
-        <v>1778</v>
+        <v>0</v>
+      </c>
+      <c r="O55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P55" s="9" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="Q55" s="11" t="n">
-        <v>1133</v>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R55" s="9" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="S55" s="12" t="n">
-        <v>1353</v>
+        <v>0</v>
+      </c>
+      <c r="S55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T55" s="9" t="n">
-        <v>53.8</v>
+        <v>0</v>
       </c>
       <c r="U55" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V55" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W55" s="11" t="n">
-        <v>769</v>
+      <c r="W55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X55" s="9" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="Y55" s="11" t="n">
-        <v>1622</v>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z55" s="9" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="AA55" s="10" t="n">
-        <v>556</v>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB55" s="9" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="AC55" s="12" t="n">
-        <v>1799</v>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD55" s="9" t="n">
-        <v>44.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -5636,85 +5639,85 @@
         <v>55</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E56" s="11" t="n">
-        <v>1857</v>
+        <v>78</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>604</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="G56" s="10" t="n">
-        <v>576</v>
+        <v>90.8</v>
+      </c>
+      <c r="G56" s="11" t="n">
+        <v>1374</v>
       </c>
       <c r="H56" s="7" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="I56" s="11" t="n">
-        <v>1304</v>
+        <v>65.3</v>
+      </c>
+      <c r="I56" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="J56" s="7" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="K56" s="6" t="n">
-        <v>1211</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="L56" s="7" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="M56" s="10" t="n">
-        <v>556</v>
+        <v>0</v>
+      </c>
+      <c r="M56" s="11" t="n">
+        <v>1874</v>
       </c>
       <c r="N56" s="7" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="O56" s="10" t="n">
-        <v>981</v>
+        <v>57.2</v>
+      </c>
+      <c r="O56" s="6" t="n">
+        <v>507</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="Q56" s="10" t="n">
-        <v>773</v>
+        <v>90.5</v>
+      </c>
+      <c r="Q56" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="R56" s="7" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="S56" s="11" t="n">
-        <v>519</v>
+        <v>0</v>
+      </c>
+      <c r="S56" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="T56" s="7" t="n">
-        <v>78</v>
-      </c>
-      <c r="U56" s="6" t="n">
-        <v>352</v>
+        <v>0</v>
+      </c>
+      <c r="U56" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="V56" s="7" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="W56" s="7" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="W56" s="11" t="n">
+        <v>811</v>
       </c>
       <c r="X56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="7" t="n">
-        <v>-2</v>
+        <v>73.5</v>
+      </c>
+      <c r="Y56" s="11" t="n">
+        <v>1429</v>
       </c>
       <c r="Z56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="7" t="n">
-        <v>-2</v>
+        <v>60.5</v>
+      </c>
+      <c r="AA56" s="10" t="n">
+        <v>892</v>
       </c>
       <c r="AB56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="7" t="n">
-        <v>-2</v>
+        <v>76.5</v>
+      </c>
+      <c r="AC56" s="12" t="n">
+        <v>1855</v>
       </c>
       <c r="AD56" s="7" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -5725,85 +5728,85 @@
         <v>56</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="E57" s="10" t="n">
-        <v>837</v>
+        <v>77.5</v>
+      </c>
+      <c r="E57" s="12" t="n">
+        <v>2574</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>82.2</v>
+        <v>45.6</v>
       </c>
       <c r="G57" s="11" t="n">
-        <v>1020</v>
+        <v>924</v>
       </c>
       <c r="H57" s="9" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="I57" s="11" t="n">
-        <v>2356</v>
+        <v>73.40000000000001</v>
+      </c>
+      <c r="I57" s="10" t="n">
+        <v>858</v>
       </c>
       <c r="J57" s="9" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="K57" s="12" t="n">
-        <v>2790</v>
+        <v>81.7</v>
+      </c>
+      <c r="K57" s="10" t="n">
+        <v>1928</v>
       </c>
       <c r="L57" s="9" t="n">
-        <v>30.2</v>
+        <v>57.1</v>
       </c>
       <c r="M57" s="10" t="n">
-        <v>476</v>
+        <v>596</v>
       </c>
       <c r="N57" s="9" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="O57" s="11" t="n">
-        <v>2542</v>
+        <v>84.59999999999999</v>
+      </c>
+      <c r="O57" s="10" t="n">
+        <v>1778</v>
       </c>
       <c r="P57" s="9" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="Q57" s="12" t="n">
-        <v>2137</v>
+        <v>61.8</v>
+      </c>
+      <c r="Q57" s="11" t="n">
+        <v>1133</v>
       </c>
       <c r="R57" s="9" t="n">
-        <v>44</v>
+        <v>68.3</v>
       </c>
       <c r="S57" s="12" t="n">
-        <v>1744</v>
+        <v>1353</v>
       </c>
       <c r="T57" s="9" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="U57" s="11" t="n">
-        <v>1350</v>
+        <v>53.8</v>
+      </c>
+      <c r="U57" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="V57" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="W57" s="10" t="n">
-        <v>579</v>
+        <v>0</v>
+      </c>
+      <c r="W57" s="11" t="n">
+        <v>769</v>
       </c>
       <c r="X57" s="9" t="n">
-        <v>83.2</v>
+        <v>74.3</v>
       </c>
       <c r="Y57" s="11" t="n">
-        <v>1136</v>
+        <v>1622</v>
       </c>
       <c r="Z57" s="9" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="AA57" s="12" t="n">
-        <v>2546</v>
+        <v>56.5</v>
+      </c>
+      <c r="AA57" s="10" t="n">
+        <v>556</v>
       </c>
       <c r="AB57" s="9" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="AC57" s="11" t="n">
-        <v>1025</v>
+        <v>83.40000000000001</v>
+      </c>
+      <c r="AC57" s="12" t="n">
+        <v>1799</v>
       </c>
       <c r="AD57" s="9" t="n">
-        <v>67.09999999999999</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -5814,61 +5817,61 @@
         <v>57</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E58" s="10" t="n">
-        <v>1388</v>
+        <v>77.3</v>
+      </c>
+      <c r="E58" s="11" t="n">
+        <v>1857</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="G58" s="12" t="n">
-        <v>1969</v>
+        <v>61.6</v>
+      </c>
+      <c r="G58" s="10" t="n">
+        <v>576</v>
       </c>
       <c r="H58" s="7" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="I58" s="10" t="n">
-        <v>1016</v>
+        <v>84.7</v>
+      </c>
+      <c r="I58" s="11" t="n">
+        <v>1304</v>
       </c>
       <c r="J58" s="7" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="K58" s="11" t="n">
-        <v>2517</v>
+        <v>69.8</v>
+      </c>
+      <c r="K58" s="6" t="n">
+        <v>1211</v>
       </c>
       <c r="L58" s="7" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="M58" s="7" t="n">
-        <v>-2</v>
+        <v>76.2</v>
+      </c>
+      <c r="M58" s="10" t="n">
+        <v>556</v>
       </c>
       <c r="N58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7" t="n">
-        <v>-2</v>
+        <v>85.3</v>
+      </c>
+      <c r="O58" s="10" t="n">
+        <v>981</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="7" t="n">
-        <v>-2</v>
+        <v>76.7</v>
+      </c>
+      <c r="Q58" s="10" t="n">
+        <v>773</v>
       </c>
       <c r="R58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" s="7" t="n">
-        <v>-2</v>
+        <v>80.2</v>
+      </c>
+      <c r="S58" s="11" t="n">
+        <v>519</v>
       </c>
       <c r="T58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" s="7" t="n">
-        <v>-2</v>
+        <v>78</v>
+      </c>
+      <c r="U58" s="6" t="n">
+        <v>352</v>
       </c>
       <c r="V58" s="7" t="n">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="W58" s="7" t="n">
         <v>-2</v>
@@ -5903,85 +5906,85 @@
         <v>58</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="E59" s="11" t="n">
-        <v>1403</v>
+        <v>77</v>
+      </c>
+      <c r="E59" s="10" t="n">
+        <v>837</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="G59" s="9" t="n">
-        <v>-1</v>
+        <v>82.2</v>
+      </c>
+      <c r="G59" s="11" t="n">
+        <v>1020</v>
       </c>
       <c r="H59" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="10" t="n">
-        <v>748</v>
+        <v>71.7</v>
+      </c>
+      <c r="I59" s="11" t="n">
+        <v>2356</v>
       </c>
       <c r="J59" s="9" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="K59" s="6" t="n">
-        <v>467</v>
+        <v>53.5</v>
+      </c>
+      <c r="K59" s="12" t="n">
+        <v>2790</v>
       </c>
       <c r="L59" s="9" t="n">
-        <v>90.8</v>
+        <v>30.2</v>
       </c>
       <c r="M59" s="10" t="n">
-        <v>869</v>
+        <v>476</v>
       </c>
       <c r="N59" s="9" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="O59" s="9" t="n">
-        <v>-1</v>
+        <v>86.7</v>
+      </c>
+      <c r="O59" s="11" t="n">
+        <v>2542</v>
       </c>
       <c r="P59" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="11" t="n">
-        <v>1238</v>
+        <v>42.6</v>
+      </c>
+      <c r="Q59" s="12" t="n">
+        <v>2137</v>
       </c>
       <c r="R59" s="9" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="S59" s="11" t="n">
-        <v>983</v>
+        <v>44</v>
+      </c>
+      <c r="S59" s="12" t="n">
+        <v>1744</v>
       </c>
       <c r="T59" s="9" t="n">
-        <v>67.3</v>
+        <v>44.8</v>
       </c>
       <c r="U59" s="11" t="n">
-        <v>1713</v>
+        <v>1350</v>
       </c>
       <c r="V59" s="9" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="W59" s="9" t="n">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="W59" s="10" t="n">
+        <v>579</v>
       </c>
       <c r="X59" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="10" t="n">
-        <v>935</v>
+        <v>83.2</v>
+      </c>
+      <c r="Y59" s="11" t="n">
+        <v>1136</v>
       </c>
       <c r="Z59" s="9" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="AA59" s="10" t="n">
-        <v>410</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="AA59" s="12" t="n">
+        <v>2546</v>
       </c>
       <c r="AB59" s="9" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="AC59" s="12" t="n">
-        <v>1421</v>
+        <v>32.1</v>
+      </c>
+      <c r="AC59" s="11" t="n">
+        <v>1025</v>
       </c>
       <c r="AD59" s="9" t="n">
-        <v>53.3</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -5992,55 +5995,55 @@
         <v>59</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E60" s="11" t="n">
-        <v>1603</v>
+        <v>76.5</v>
+      </c>
+      <c r="E60" s="10" t="n">
+        <v>1388</v>
       </c>
       <c r="F60" s="7" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="G60" s="10" t="n">
-        <v>490</v>
+        <v>73.8</v>
+      </c>
+      <c r="G60" s="12" t="n">
+        <v>1969</v>
       </c>
       <c r="H60" s="7" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="I60" s="11" t="n">
-        <v>2061</v>
+        <v>49.6</v>
+      </c>
+      <c r="I60" s="10" t="n">
+        <v>1016</v>
       </c>
       <c r="J60" s="7" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="K60" s="6" t="n">
-        <v>672</v>
+        <v>79.3</v>
+      </c>
+      <c r="K60" s="11" t="n">
+        <v>2517</v>
       </c>
       <c r="L60" s="7" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="M60" s="11" t="n">
-        <v>2091</v>
+        <v>40.5</v>
+      </c>
+      <c r="M60" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N60" s="7" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="O60" s="11" t="n">
-        <v>2013</v>
+        <v>0</v>
+      </c>
+      <c r="O60" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P60" s="7" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="Q60" s="11" t="n">
-        <v>1896</v>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R60" s="7" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="S60" s="12" t="n">
-        <v>2215</v>
+        <v>0</v>
+      </c>
+      <c r="S60" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T60" s="7" t="n">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="U60" s="7" t="n">
         <v>-2</v>
@@ -6081,85 +6084,85 @@
         <v>60</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="E61" s="10" t="n">
-        <v>1265</v>
+        <v>76</v>
+      </c>
+      <c r="E61" s="11" t="n">
+        <v>1403</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>75.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="G61" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H61" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="I61" s="9" t="n">
-        <v>-2</v>
+      <c r="I61" s="10" t="n">
+        <v>748</v>
       </c>
       <c r="J61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>-2</v>
+        <v>83.40000000000001</v>
+      </c>
+      <c r="K61" s="6" t="n">
+        <v>467</v>
       </c>
       <c r="L61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="9" t="n">
-        <v>-2</v>
+        <v>90.8</v>
+      </c>
+      <c r="M61" s="10" t="n">
+        <v>869</v>
       </c>
       <c r="N61" s="9" t="n">
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="O61" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P61" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q61" s="9" t="n">
-        <v>-2</v>
+      <c r="Q61" s="11" t="n">
+        <v>1238</v>
       </c>
       <c r="R61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" s="9" t="n">
-        <v>-2</v>
+        <v>66.3</v>
+      </c>
+      <c r="S61" s="11" t="n">
+        <v>983</v>
       </c>
       <c r="T61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" s="9" t="n">
-        <v>-2</v>
+        <v>67.3</v>
+      </c>
+      <c r="U61" s="11" t="n">
+        <v>1713</v>
       </c>
       <c r="V61" s="9" t="n">
-        <v>0</v>
+        <v>50.6</v>
       </c>
       <c r="W61" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X61" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Y61" s="9" t="n">
-        <v>-2</v>
+      <c r="Y61" s="10" t="n">
+        <v>935</v>
       </c>
       <c r="Z61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="9" t="n">
-        <v>-2</v>
+        <v>75.7</v>
+      </c>
+      <c r="AA61" s="10" t="n">
+        <v>410</v>
       </c>
       <c r="AB61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="9" t="n">
-        <v>-2</v>
+        <v>86.5</v>
+      </c>
+      <c r="AC61" s="12" t="n">
+        <v>1421</v>
       </c>
       <c r="AD61" s="9" t="n">
-        <v>0</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6170,85 +6173,85 @@
         <v>61</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="E62" s="6" t="n">
-        <v>525</v>
+        <v>75.8</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>1603</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>92</v>
-      </c>
-      <c r="G62" s="12" t="n">
-        <v>1771</v>
+        <v>65.5</v>
+      </c>
+      <c r="G62" s="10" t="n">
+        <v>490</v>
       </c>
       <c r="H62" s="7" t="n">
-        <v>53.2</v>
+        <v>86.2</v>
       </c>
       <c r="I62" s="11" t="n">
-        <v>2019</v>
+        <v>2061</v>
       </c>
       <c r="J62" s="7" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="K62" s="7" t="n">
-        <v>-1</v>
+        <v>58.1</v>
+      </c>
+      <c r="K62" s="6" t="n">
+        <v>672</v>
       </c>
       <c r="L62" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" s="10" t="n">
-        <v>963</v>
+        <v>86.8</v>
+      </c>
+      <c r="M62" s="11" t="n">
+        <v>2091</v>
       </c>
       <c r="N62" s="7" t="n">
-        <v>78.09999999999999</v>
+        <v>53.3</v>
       </c>
       <c r="O62" s="11" t="n">
-        <v>1795</v>
+        <v>2013</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>56.5</v>
+        <v>52.4</v>
       </c>
       <c r="Q62" s="11" t="n">
-        <v>1218</v>
+        <v>1896</v>
       </c>
       <c r="R62" s="7" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="S62" s="6" t="n">
-        <v>95</v>
+        <v>53.7</v>
+      </c>
+      <c r="S62" s="12" t="n">
+        <v>2215</v>
       </c>
       <c r="T62" s="7" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="U62" s="6" t="n">
-        <v>760</v>
+        <v>33.9</v>
+      </c>
+      <c r="U62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V62" s="7" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="W62" s="10" t="n">
-        <v>271</v>
+        <v>0</v>
+      </c>
+      <c r="W62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X62" s="7" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="Y62" s="10" t="n">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z62" s="7" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="AA62" s="10" t="n">
-        <v>638</v>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AB62" s="7" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="AC62" s="11" t="n">
-        <v>1191</v>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD62" s="7" t="n">
-        <v>63.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6259,85 +6262,85 @@
         <v>62</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>74.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E63" s="10" t="n">
-        <v>1366</v>
+        <v>1265</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="G63" s="11" t="n">
-        <v>863</v>
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="H63" s="9" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="I63" s="12" t="n">
-        <v>3087</v>
+        <v>0</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J63" s="9" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="K63" s="6" t="n">
-        <v>1047</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L63" s="9" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="M63" s="12" t="n">
-        <v>2611</v>
+        <v>0</v>
+      </c>
+      <c r="M63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N63" s="9" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="O63" s="10" t="n">
-        <v>1640</v>
+        <v>0</v>
+      </c>
+      <c r="O63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P63" s="9" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="Q63" s="11" t="n">
-        <v>1651</v>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R63" s="9" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="S63" s="12" t="n">
-        <v>1625</v>
+        <v>0</v>
+      </c>
+      <c r="S63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T63" s="9" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="U63" s="11" t="n">
-        <v>1479</v>
+        <v>0</v>
+      </c>
+      <c r="U63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V63" s="9" t="n">
-        <v>56</v>
-      </c>
-      <c r="W63" s="12" t="n">
-        <v>1665</v>
+        <v>0</v>
+      </c>
+      <c r="W63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X63" s="9" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="Y63" s="11" t="n">
-        <v>2099</v>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z63" s="9" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="AA63" s="11" t="n">
-        <v>1398</v>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB63" s="9" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="AC63" s="12" t="n">
-        <v>2011</v>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD63" s="9" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6348,85 +6351,85 @@
         <v>63</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="E64" s="11" t="n">
-        <v>1601</v>
+        <v>75.3</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>525</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="G64" s="10" t="n">
-        <v>738</v>
+        <v>92</v>
+      </c>
+      <c r="G64" s="12" t="n">
+        <v>1771</v>
       </c>
       <c r="H64" s="7" t="n">
-        <v>81.8</v>
+        <v>53.2</v>
       </c>
       <c r="I64" s="11" t="n">
-        <v>2075</v>
+        <v>2019</v>
       </c>
       <c r="J64" s="7" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="K64" s="10" t="n">
-        <v>1549</v>
+        <v>58.7</v>
+      </c>
+      <c r="K64" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="L64" s="7" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="M64" s="6" t="n">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="M64" s="10" t="n">
+        <v>963</v>
       </c>
       <c r="N64" s="7" t="n">
-        <v>98.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="O64" s="11" t="n">
-        <v>2276</v>
+        <v>1795</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>47.5</v>
+        <v>56.5</v>
       </c>
       <c r="Q64" s="11" t="n">
-        <v>1899</v>
+        <v>1218</v>
       </c>
       <c r="R64" s="7" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="S64" s="12" t="n">
-        <v>1347</v>
+        <v>66.7</v>
+      </c>
+      <c r="S64" s="6" t="n">
+        <v>95</v>
       </c>
       <c r="T64" s="7" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="U64" s="11" t="n">
-        <v>1877</v>
+        <v>97.8</v>
+      </c>
+      <c r="U64" s="6" t="n">
+        <v>760</v>
       </c>
       <c r="V64" s="7" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="W64" s="12" t="n">
-        <v>1900</v>
+        <v>82.5</v>
+      </c>
+      <c r="W64" s="10" t="n">
+        <v>271</v>
       </c>
       <c r="X64" s="7" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="Y64" s="11" t="n">
-        <v>1414</v>
+        <v>89.5</v>
+      </c>
+      <c r="Y64" s="10" t="n">
+        <v>645</v>
       </c>
       <c r="Z64" s="7" t="n">
-        <v>60.8</v>
+        <v>81.7</v>
       </c>
       <c r="AA64" s="10" t="n">
-        <v>510</v>
+        <v>638</v>
       </c>
       <c r="AB64" s="7" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="AC64" s="12" t="n">
-        <v>2018</v>
+        <v>81.7</v>
+      </c>
+      <c r="AC64" s="11" t="n">
+        <v>1191</v>
       </c>
       <c r="AD64" s="7" t="n">
-        <v>40</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6437,85 +6440,85 @@
         <v>64</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E65" s="11" t="n">
-        <v>1833</v>
+        <v>74.3</v>
+      </c>
+      <c r="E65" s="10" t="n">
+        <v>1366</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="G65" s="10" t="n">
-        <v>651</v>
+        <v>74.09999999999999</v>
+      </c>
+      <c r="G65" s="11" t="n">
+        <v>863</v>
       </c>
       <c r="H65" s="9" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="I65" s="11" t="n">
-        <v>2257</v>
+        <v>74.5</v>
+      </c>
+      <c r="I65" s="12" t="n">
+        <v>3087</v>
       </c>
       <c r="J65" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="K65" s="9" t="n">
-        <v>-2</v>
+        <v>37.2</v>
+      </c>
+      <c r="K65" s="6" t="n">
+        <v>1047</v>
       </c>
       <c r="L65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9" t="n">
-        <v>-2</v>
+        <v>79.40000000000001</v>
+      </c>
+      <c r="M65" s="12" t="n">
+        <v>2611</v>
       </c>
       <c r="N65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="9" t="n">
-        <v>-2</v>
+        <v>39.2</v>
+      </c>
+      <c r="O65" s="10" t="n">
+        <v>1640</v>
       </c>
       <c r="P65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="9" t="n">
-        <v>-2</v>
+        <v>64.40000000000001</v>
+      </c>
+      <c r="Q65" s="11" t="n">
+        <v>1651</v>
       </c>
       <c r="R65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" s="9" t="n">
-        <v>-2</v>
+        <v>58.4</v>
+      </c>
+      <c r="S65" s="12" t="n">
+        <v>1625</v>
       </c>
       <c r="T65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" s="9" t="n">
-        <v>-2</v>
+        <v>47.5</v>
+      </c>
+      <c r="U65" s="11" t="n">
+        <v>1479</v>
       </c>
       <c r="V65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" s="9" t="n">
-        <v>-2</v>
+        <v>56</v>
+      </c>
+      <c r="W65" s="12" t="n">
+        <v>1665</v>
       </c>
       <c r="X65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="9" t="n">
-        <v>-2</v>
+        <v>51.1</v>
+      </c>
+      <c r="Y65" s="11" t="n">
+        <v>2099</v>
       </c>
       <c r="Z65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="9" t="n">
-        <v>-2</v>
+        <v>46.7</v>
+      </c>
+      <c r="AA65" s="11" t="n">
+        <v>1398</v>
       </c>
       <c r="AB65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="9" t="n">
-        <v>-2</v>
+        <v>60.9</v>
+      </c>
+      <c r="AC65" s="12" t="n">
+        <v>2011</v>
       </c>
       <c r="AD65" s="9" t="n">
-        <v>0</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6526,85 +6529,85 @@
         <v>65</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="E66" s="10" t="n">
-        <v>1172</v>
+        <v>73.7</v>
+      </c>
+      <c r="E66" s="11" t="n">
+        <v>1601</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="G66" s="7" t="n">
-        <v>-1</v>
+        <v>65.5</v>
+      </c>
+      <c r="G66" s="10" t="n">
+        <v>738</v>
       </c>
       <c r="H66" s="7" t="n">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="I66" s="11" t="n">
-        <v>1636</v>
+        <v>2075</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="K66" s="11" t="n">
-        <v>2090</v>
+        <v>57.9</v>
+      </c>
+      <c r="K66" s="10" t="n">
+        <v>1549</v>
       </c>
       <c r="L66" s="7" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="M66" s="7" t="n">
-        <v>-1</v>
+        <v>64.59999999999999</v>
+      </c>
+      <c r="M66" s="6" t="n">
+        <v>94</v>
       </c>
       <c r="N66" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="10" t="n">
-        <v>1293</v>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="O66" s="11" t="n">
+        <v>2276</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>70.90000000000001</v>
+        <v>47.5</v>
       </c>
       <c r="Q66" s="11" t="n">
-        <v>1169</v>
+        <v>1899</v>
       </c>
       <c r="R66" s="7" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="S66" s="11" t="n">
-        <v>708</v>
+        <v>53.6</v>
+      </c>
+      <c r="S66" s="12" t="n">
+        <v>1347</v>
       </c>
       <c r="T66" s="7" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="U66" s="10" t="n">
-        <v>1271</v>
+        <v>53.9</v>
+      </c>
+      <c r="U66" s="11" t="n">
+        <v>1877</v>
       </c>
       <c r="V66" s="7" t="n">
-        <v>65.8</v>
+        <v>46.9</v>
       </c>
       <c r="W66" s="12" t="n">
-        <v>1838</v>
+        <v>1900</v>
       </c>
       <c r="X66" s="7" t="n">
-        <v>47.5</v>
+        <v>46.3</v>
       </c>
       <c r="Y66" s="11" t="n">
-        <v>1761</v>
+        <v>1414</v>
       </c>
       <c r="Z66" s="7" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="AA66" s="7" t="n">
-        <v>-2</v>
+        <v>60.8</v>
+      </c>
+      <c r="AA66" s="10" t="n">
+        <v>510</v>
       </c>
       <c r="AB66" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="7" t="n">
-        <v>-2</v>
+        <v>84.40000000000001</v>
+      </c>
+      <c r="AC66" s="12" t="n">
+        <v>2018</v>
       </c>
       <c r="AD66" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -6615,85 +6618,85 @@
         <v>66</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="E67" s="6" t="n">
-        <v>751</v>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E67" s="11" t="n">
+        <v>1833</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="G67" s="12" t="n">
-        <v>1819</v>
+        <v>61.9</v>
+      </c>
+      <c r="G67" s="10" t="n">
+        <v>651</v>
       </c>
       <c r="H67" s="9" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="I67" s="12" t="n">
-        <v>2911</v>
+        <v>83.3</v>
+      </c>
+      <c r="I67" s="11" t="n">
+        <v>2257</v>
       </c>
       <c r="J67" s="9" t="n">
-        <v>39.9</v>
+        <v>55</v>
       </c>
       <c r="K67" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L67" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M67" s="10" t="n">
-        <v>804</v>
+      <c r="M67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N67" s="9" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="O67" s="10" t="n">
-        <v>1281</v>
+        <v>0</v>
+      </c>
+      <c r="O67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P67" s="9" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="Q67" s="10" t="n">
-        <v>736</v>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R67" s="9" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="S67" s="11" t="n">
-        <v>894</v>
+        <v>0</v>
+      </c>
+      <c r="S67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T67" s="9" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="U67" s="10" t="n">
-        <v>1095</v>
+        <v>0</v>
+      </c>
+      <c r="U67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V67" s="9" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="W67" s="11" t="n">
-        <v>792</v>
+        <v>0</v>
+      </c>
+      <c r="W67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X67" s="9" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="Y67" s="12" t="n">
-        <v>2615</v>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z67" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA67" s="11" t="n">
-        <v>1283</v>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB67" s="9" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="AC67" s="11" t="n">
-        <v>736</v>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD67" s="9" t="n">
-        <v>73.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -6704,13 +6707,13 @@
         <v>67</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>69.7</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E68" s="10" t="n">
-        <v>1020</v>
+        <v>1172</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>79.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G68" s="7" t="n">
         <v>-1</v>
@@ -6719,70 +6722,70 @@
         <v>0</v>
       </c>
       <c r="I68" s="11" t="n">
-        <v>1945</v>
+        <v>1636</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>59.9</v>
+        <v>64.7</v>
       </c>
       <c r="K68" s="11" t="n">
-        <v>2231</v>
+        <v>2090</v>
       </c>
       <c r="L68" s="7" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="M68" s="11" t="n">
-        <v>1692</v>
+        <v>48.9</v>
+      </c>
+      <c r="M68" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="N68" s="7" t="n">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="O68" s="10" t="n">
-        <v>1125</v>
+        <v>1293</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>74</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Q68" s="11" t="n">
-        <v>1195</v>
+        <v>1169</v>
       </c>
       <c r="R68" s="7" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="S68" s="10" t="n">
-        <v>447</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c r="S68" s="11" t="n">
+        <v>708</v>
       </c>
       <c r="T68" s="7" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="U68" s="11" t="n">
-        <v>1717</v>
+        <v>73.7</v>
+      </c>
+      <c r="U68" s="10" t="n">
+        <v>1271</v>
       </c>
       <c r="V68" s="7" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="W68" s="10" t="n">
-        <v>621</v>
+        <v>65.8</v>
+      </c>
+      <c r="W68" s="12" t="n">
+        <v>1838</v>
       </c>
       <c r="X68" s="7" t="n">
-        <v>82.3</v>
+        <v>47.5</v>
       </c>
       <c r="Y68" s="11" t="n">
-        <v>1582</v>
+        <v>1761</v>
       </c>
       <c r="Z68" s="7" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="AA68" s="10" t="n">
-        <v>903</v>
+        <v>53.7</v>
+      </c>
+      <c r="AA68" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AB68" s="7" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="AC68" s="11" t="n">
-        <v>1242</v>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD68" s="7" t="n">
-        <v>62.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -6793,25 +6796,25 @@
         <v>68</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="E69" s="10" t="n">
-        <v>1054</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>751</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="G69" s="9" t="n">
-        <v>-1</v>
+        <v>88.5</v>
+      </c>
+      <c r="G69" s="12" t="n">
+        <v>1819</v>
       </c>
       <c r="H69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11" t="n">
-        <v>1916</v>
+        <v>52.3</v>
+      </c>
+      <c r="I69" s="12" t="n">
+        <v>2911</v>
       </c>
       <c r="J69" s="9" t="n">
-        <v>60.3</v>
+        <v>39.9</v>
       </c>
       <c r="K69" s="9" t="n">
         <v>-1</v>
@@ -6820,58 +6823,58 @@
         <v>0</v>
       </c>
       <c r="M69" s="10" t="n">
-        <v>182</v>
+        <v>804</v>
       </c>
       <c r="N69" s="9" t="n">
-        <v>91.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="O69" s="10" t="n">
-        <v>1319</v>
+        <v>1281</v>
       </c>
       <c r="P69" s="9" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="Q69" s="9" t="n">
-        <v>-1</v>
+        <v>71.09999999999999</v>
+      </c>
+      <c r="Q69" s="10" t="n">
+        <v>736</v>
       </c>
       <c r="R69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="12" t="n">
-        <v>1903</v>
+        <v>80.90000000000001</v>
+      </c>
+      <c r="S69" s="11" t="n">
+        <v>894</v>
       </c>
       <c r="T69" s="9" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="U69" s="6" t="n">
-        <v>794</v>
+        <v>69.40000000000001</v>
+      </c>
+      <c r="U69" s="10" t="n">
+        <v>1095</v>
       </c>
       <c r="V69" s="9" t="n">
-        <v>81.8</v>
+        <v>69.8</v>
       </c>
       <c r="W69" s="11" t="n">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="X69" s="9" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="Y69" s="9" t="n">
-        <v>-1</v>
+      <c r="Y69" s="12" t="n">
+        <v>2615</v>
       </c>
       <c r="Z69" s="9" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA69" s="11" t="n">
-        <v>1642</v>
+        <v>1283</v>
       </c>
       <c r="AB69" s="9" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="AC69" s="12" t="n">
-        <v>2157</v>
+        <v>63.3</v>
+      </c>
+      <c r="AC69" s="11" t="n">
+        <v>736</v>
       </c>
       <c r="AD69" s="9" t="n">
-        <v>36.9</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -6882,85 +6885,85 @@
         <v>69</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="E70" s="12" t="n">
-        <v>2125</v>
+        <v>69.7</v>
+      </c>
+      <c r="E70" s="10" t="n">
+        <v>1020</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="G70" s="10" t="n">
-        <v>466</v>
+        <v>79.40000000000001</v>
+      </c>
+      <c r="G70" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="H70" s="7" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="I70" s="7" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="I70" s="11" t="n">
+        <v>1945</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" s="7" t="n">
-        <v>-2</v>
+        <v>59.9</v>
+      </c>
+      <c r="K70" s="11" t="n">
+        <v>2231</v>
       </c>
       <c r="L70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" s="7" t="n">
-        <v>-2</v>
+        <v>46.2</v>
+      </c>
+      <c r="M70" s="11" t="n">
+        <v>1692</v>
       </c>
       <c r="N70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" s="7" t="n">
-        <v>-2</v>
+        <v>60.3</v>
+      </c>
+      <c r="O70" s="10" t="n">
+        <v>1125</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="7" t="n">
-        <v>-2</v>
+        <v>74</v>
+      </c>
+      <c r="Q70" s="11" t="n">
+        <v>1195</v>
       </c>
       <c r="R70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" s="7" t="n">
-        <v>-2</v>
+        <v>67.09999999999999</v>
+      </c>
+      <c r="S70" s="10" t="n">
+        <v>447</v>
       </c>
       <c r="T70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" s="7" t="n">
-        <v>-2</v>
+        <v>84.7</v>
+      </c>
+      <c r="U70" s="11" t="n">
+        <v>1717</v>
       </c>
       <c r="V70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" s="7" t="n">
-        <v>-2</v>
+        <v>50.6</v>
+      </c>
+      <c r="W70" s="10" t="n">
+        <v>621</v>
       </c>
       <c r="X70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="7" t="n">
-        <v>-2</v>
+        <v>82.3</v>
+      </c>
+      <c r="Y70" s="11" t="n">
+        <v>1582</v>
       </c>
       <c r="Z70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="7" t="n">
-        <v>-2</v>
+        <v>57.3</v>
+      </c>
+      <c r="AA70" s="10" t="n">
+        <v>903</v>
       </c>
       <c r="AB70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="7" t="n">
-        <v>-2</v>
+        <v>76.2</v>
+      </c>
+      <c r="AC70" s="11" t="n">
+        <v>1242</v>
       </c>
       <c r="AD70" s="7" t="n">
-        <v>0</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -6971,85 +6974,85 @@
         <v>70</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="E71" s="9" t="n">
-        <v>-1</v>
+        <v>69.59999999999999</v>
+      </c>
+      <c r="E71" s="10" t="n">
+        <v>1054</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="10" t="n">
-        <v>546</v>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H71" s="9" t="n">
-        <v>85.2</v>
+        <v>0</v>
       </c>
       <c r="I71" s="11" t="n">
-        <v>2362</v>
+        <v>1916</v>
       </c>
       <c r="J71" s="9" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="K71" s="6" t="n">
-        <v>1157</v>
+        <v>60.3</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="L71" s="9" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="M71" s="11" t="n">
-        <v>1482</v>
+        <v>0</v>
+      </c>
+      <c r="M71" s="10" t="n">
+        <v>182</v>
       </c>
       <c r="N71" s="9" t="n">
-        <v>64</v>
+        <v>91.8</v>
       </c>
       <c r="O71" s="10" t="n">
-        <v>1366</v>
+        <v>1319</v>
       </c>
       <c r="P71" s="9" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="Q71" s="11" t="n">
-        <v>1880</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="Q71" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="R71" s="9" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="S71" s="12" t="n">
-        <v>1378</v>
+        <v>1903</v>
       </c>
       <c r="T71" s="9" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="U71" s="10" t="n">
-        <v>1079</v>
+        <v>41.1</v>
+      </c>
+      <c r="U71" s="6" t="n">
+        <v>794</v>
       </c>
       <c r="V71" s="9" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="W71" s="10" t="n">
-        <v>268</v>
+        <v>81.8</v>
+      </c>
+      <c r="W71" s="11" t="n">
+        <v>789</v>
       </c>
       <c r="X71" s="9" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="Y71" s="11" t="n">
-        <v>1178</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Y71" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="Z71" s="9" t="n">
-        <v>65.7</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="11" t="n">
-        <v>1238</v>
+        <v>1642</v>
       </c>
       <c r="AB71" s="9" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="AC71" s="11" t="n">
-        <v>1136</v>
+        <v>55.9</v>
+      </c>
+      <c r="AC71" s="12" t="n">
+        <v>2157</v>
       </c>
       <c r="AD71" s="9" t="n">
-        <v>64.7</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7060,19 +7063,19 @@
         <v>71</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="E72" s="6" t="n">
-        <v>486</v>
+        <v>69.5</v>
+      </c>
+      <c r="E72" s="12" t="n">
+        <v>2125</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="G72" s="12" t="n">
-        <v>2202</v>
+        <v>52.5</v>
+      </c>
+      <c r="G72" s="10" t="n">
+        <v>466</v>
       </c>
       <c r="H72" s="7" t="n">
-        <v>45.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="I72" s="7" t="n">
         <v>-2</v>
@@ -7086,59 +7089,59 @@
       <c r="L72" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M72" s="12" t="n">
-        <v>2884</v>
+      <c r="M72" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N72" s="7" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
       <c r="O72" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P72" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q72" s="10" t="n">
-        <v>714</v>
+      <c r="Q72" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R72" s="7" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="S72" s="11" t="n">
-        <v>888</v>
+        <v>0</v>
+      </c>
+      <c r="S72" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T72" s="7" t="n">
-        <v>69.5</v>
+        <v>0</v>
       </c>
       <c r="U72" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V72" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W72" s="12" t="n">
-        <v>1641</v>
+      <c r="W72" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X72" s="7" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="Y72" s="6" t="n">
-        <v>502</v>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z72" s="7" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="AA72" s="6" t="n">
-        <v>233</v>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AB72" s="7" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="AC72" s="10" t="n">
-        <v>578</v>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD72" s="7" t="n">
-        <v>82.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7149,85 +7152,85 @@
         <v>72</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E73" s="11" t="n">
-        <v>1612</v>
+        <v>69.3</v>
+      </c>
+      <c r="E73" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="F73" s="9" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="G73" s="11" t="n">
-        <v>1016</v>
+        <v>0</v>
+      </c>
+      <c r="G73" s="10" t="n">
+        <v>546</v>
       </c>
       <c r="H73" s="9" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="I73" s="12" t="n">
-        <v>3302</v>
+        <v>85.2</v>
+      </c>
+      <c r="I73" s="11" t="n">
+        <v>2362</v>
       </c>
       <c r="J73" s="9" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K73" s="11" t="n">
-        <v>2223</v>
+        <v>53.4</v>
+      </c>
+      <c r="K73" s="6" t="n">
+        <v>1157</v>
       </c>
       <c r="L73" s="9" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="M73" s="9" t="n">
-        <v>-1</v>
+        <v>77.3</v>
+      </c>
+      <c r="M73" s="11" t="n">
+        <v>1482</v>
       </c>
       <c r="N73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" s="11" t="n">
-        <v>1830</v>
+        <v>64</v>
+      </c>
+      <c r="O73" s="10" t="n">
+        <v>1366</v>
       </c>
       <c r="P73" s="9" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="Q73" s="12" t="n">
-        <v>2574</v>
+        <v>69.5</v>
+      </c>
+      <c r="Q73" s="11" t="n">
+        <v>1880</v>
       </c>
       <c r="R73" s="9" t="n">
-        <v>35.7</v>
+        <v>54</v>
       </c>
       <c r="S73" s="12" t="n">
-        <v>2230</v>
+        <v>1378</v>
       </c>
       <c r="T73" s="9" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="U73" s="12" t="n">
-        <v>1951</v>
+        <v>53.2</v>
+      </c>
+      <c r="U73" s="10" t="n">
+        <v>1079</v>
       </c>
       <c r="V73" s="9" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="W73" s="12" t="n">
-        <v>1373</v>
+        <v>70.2</v>
+      </c>
+      <c r="W73" s="10" t="n">
+        <v>268</v>
       </c>
       <c r="X73" s="9" t="n">
-        <v>57</v>
+        <v>89.5</v>
       </c>
       <c r="Y73" s="11" t="n">
-        <v>1876</v>
+        <v>1178</v>
       </c>
       <c r="Z73" s="9" t="n">
-        <v>51.3</v>
+        <v>65.7</v>
       </c>
       <c r="AA73" s="11" t="n">
-        <v>1412</v>
+        <v>1238</v>
       </c>
       <c r="AB73" s="9" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="AC73" s="12" t="n">
-        <v>2119</v>
+        <v>64.3</v>
+      </c>
+      <c r="AC73" s="11" t="n">
+        <v>1136</v>
       </c>
       <c r="AD73" s="9" t="n">
-        <v>37.7</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7238,25 +7241,25 @@
         <v>73</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E74" s="12" t="n">
-        <v>2368</v>
+        <v>69</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>486</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>48.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G74" s="12" t="n">
-        <v>1486</v>
+        <v>2202</v>
       </c>
       <c r="H74" s="7" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="I74" s="10" t="n">
-        <v>1156</v>
+        <v>45.5</v>
+      </c>
+      <c r="I74" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>77.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="K74" s="7" t="n">
         <v>-2</v>
@@ -7264,59 +7267,59 @@
       <c r="L74" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M74" s="7" t="n">
-        <v>-2</v>
+      <c r="M74" s="12" t="n">
+        <v>2884</v>
       </c>
       <c r="N74" s="7" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="O74" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P74" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q74" s="7" t="n">
-        <v>-2</v>
+      <c r="Q74" s="10" t="n">
+        <v>714</v>
       </c>
       <c r="R74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" s="7" t="n">
-        <v>-2</v>
+        <v>81.3</v>
+      </c>
+      <c r="S74" s="11" t="n">
+        <v>888</v>
       </c>
       <c r="T74" s="7" t="n">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="U74" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V74" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W74" s="7" t="n">
-        <v>-2</v>
+      <c r="W74" s="12" t="n">
+        <v>1641</v>
       </c>
       <c r="X74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="7" t="n">
-        <v>-2</v>
+        <v>51.5</v>
+      </c>
+      <c r="Y74" s="6" t="n">
+        <v>502</v>
       </c>
       <c r="Z74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="7" t="n">
-        <v>-2</v>
+        <v>89.59999999999999</v>
+      </c>
+      <c r="AA74" s="6" t="n">
+        <v>233</v>
       </c>
       <c r="AB74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="7" t="n">
-        <v>-2</v>
+        <v>95.2</v>
+      </c>
+      <c r="AC74" s="10" t="n">
+        <v>578</v>
       </c>
       <c r="AD74" s="7" t="n">
-        <v>0</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7327,85 +7330,85 @@
         <v>74</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E75" s="11" t="n">
-        <v>2036</v>
+        <v>1612</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>58.8</v>
+        <v>65.3</v>
       </c>
       <c r="G75" s="11" t="n">
-        <v>1192</v>
+        <v>1016</v>
       </c>
       <c r="H75" s="9" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="I75" s="11" t="n">
-        <v>1513</v>
+        <v>71.8</v>
+      </c>
+      <c r="I75" s="12" t="n">
+        <v>3302</v>
       </c>
       <c r="J75" s="9" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K75" s="6" t="n">
-        <v>976</v>
+        <v>33.8</v>
+      </c>
+      <c r="K75" s="11" t="n">
+        <v>2223</v>
       </c>
       <c r="L75" s="9" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="M75" s="11" t="n">
-        <v>1479</v>
+        <v>46.3</v>
+      </c>
+      <c r="M75" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="N75" s="9" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="O75" s="10" t="n">
-        <v>1614</v>
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n">
+        <v>1830</v>
       </c>
       <c r="P75" s="9" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="Q75" s="11" t="n">
-        <v>978</v>
+        <v>55.9</v>
+      </c>
+      <c r="Q75" s="12" t="n">
+        <v>2574</v>
       </c>
       <c r="R75" s="9" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="S75" s="11" t="n">
-        <v>736</v>
+        <v>35.7</v>
+      </c>
+      <c r="S75" s="12" t="n">
+        <v>2230</v>
       </c>
       <c r="T75" s="9" t="n">
-        <v>73</v>
-      </c>
-      <c r="U75" s="11" t="n">
-        <v>1644</v>
+        <v>33.6</v>
+      </c>
+      <c r="U75" s="12" t="n">
+        <v>1951</v>
       </c>
       <c r="V75" s="9" t="n">
-        <v>52.2</v>
+        <v>40.2</v>
       </c>
       <c r="W75" s="12" t="n">
-        <v>1860</v>
+        <v>1373</v>
       </c>
       <c r="X75" s="9" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="Y75" s="10" t="n">
-        <v>985</v>
+        <v>57</v>
+      </c>
+      <c r="Y75" s="11" t="n">
+        <v>1876</v>
       </c>
       <c r="Z75" s="9" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="AA75" s="10" t="n">
-        <v>648</v>
+        <v>51.3</v>
+      </c>
+      <c r="AA75" s="11" t="n">
+        <v>1412</v>
       </c>
       <c r="AB75" s="9" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="AC75" s="11" t="n">
-        <v>1210</v>
+        <v>60.6</v>
+      </c>
+      <c r="AC75" s="12" t="n">
+        <v>2119</v>
       </c>
       <c r="AD75" s="9" t="n">
-        <v>63</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -7416,25 +7419,25 @@
         <v>75</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E76" s="11" t="n">
-        <v>1484</v>
+        <v>67.7</v>
+      </c>
+      <c r="E76" s="12" t="n">
+        <v>2368</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="G76" s="11" t="n">
-        <v>1237</v>
+        <v>48.8</v>
+      </c>
+      <c r="G76" s="12" t="n">
+        <v>1486</v>
       </c>
       <c r="H76" s="7" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="I76" s="7" t="n">
-        <v>-2</v>
+        <v>58.3</v>
+      </c>
+      <c r="I76" s="10" t="n">
+        <v>1156</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K76" s="7" t="n">
         <v>-2</v>
@@ -7505,85 +7508,85 @@
         <v>76</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>67</v>
-      </c>
-      <c r="E77" s="10" t="n">
-        <v>1357</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E77" s="11" t="n">
+        <v>2036</v>
       </c>
       <c r="F77" s="9" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="G77" s="9" t="n">
-        <v>-1</v>
+        <v>58.8</v>
+      </c>
+      <c r="G77" s="11" t="n">
+        <v>1192</v>
       </c>
       <c r="H77" s="9" t="n">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I77" s="11" t="n">
-        <v>1949</v>
+        <v>1513</v>
       </c>
       <c r="J77" s="9" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="K77" s="10" t="n">
-        <v>1486</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K77" s="6" t="n">
+        <v>976</v>
       </c>
       <c r="L77" s="9" t="n">
-        <v>65.8</v>
+        <v>80.8</v>
       </c>
       <c r="M77" s="11" t="n">
-        <v>96</v>
+        <v>1479</v>
       </c>
       <c r="N77" s="9" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="O77" s="12" t="n">
-        <v>2698</v>
+        <v>64.09999999999999</v>
+      </c>
+      <c r="O77" s="10" t="n">
+        <v>1614</v>
       </c>
       <c r="P77" s="9" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="Q77" s="10" t="n">
-        <v>510</v>
+        <v>64.90000000000001</v>
+      </c>
+      <c r="Q77" s="11" t="n">
+        <v>978</v>
       </c>
       <c r="R77" s="9" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="S77" s="9" t="n">
-        <v>-1</v>
+        <v>71.3</v>
+      </c>
+      <c r="S77" s="11" t="n">
+        <v>736</v>
       </c>
       <c r="T77" s="9" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="U77" s="11" t="n">
-        <v>1458</v>
+        <v>1644</v>
       </c>
       <c r="V77" s="9" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="W77" s="9" t="n">
-        <v>-1</v>
+        <v>52.2</v>
+      </c>
+      <c r="W77" s="12" t="n">
+        <v>1860</v>
       </c>
       <c r="X77" s="9" t="n">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="Y77" s="10" t="n">
-        <v>817</v>
+        <v>985</v>
       </c>
       <c r="Z77" s="9" t="n">
-        <v>78.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="AA77" s="10" t="n">
-        <v>958</v>
+        <v>648</v>
       </c>
       <c r="AB77" s="9" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="AC77" s="9" t="n">
-        <v>-1</v>
+        <v>81.5</v>
+      </c>
+      <c r="AC77" s="11" t="n">
+        <v>1210</v>
       </c>
       <c r="AD77" s="9" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -7594,19 +7597,19 @@
         <v>77</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>66</v>
+        <v>67.5</v>
       </c>
       <c r="E78" s="11" t="n">
-        <v>1569</v>
+        <v>1484</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>66</v>
-      </c>
-      <c r="G78" s="7" t="n">
-        <v>-2</v>
+        <v>67.3</v>
+      </c>
+      <c r="G78" s="11" t="n">
+        <v>1237</v>
       </c>
       <c r="H78" s="7" t="n">
-        <v>0</v>
+        <v>67.8</v>
       </c>
       <c r="I78" s="7" t="n">
         <v>-2</v>
@@ -7683,82 +7686,82 @@
         <v>78</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E79" s="11" t="n">
-        <v>1667</v>
+        <v>67</v>
+      </c>
+      <c r="E79" s="10" t="n">
+        <v>1357</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>64.5</v>
+        <v>74.2</v>
       </c>
       <c r="G79" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H79" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="I79" s="9" t="n">
-        <v>-2</v>
+      <c r="I79" s="11" t="n">
+        <v>1949</v>
       </c>
       <c r="J79" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>-2</v>
+        <v>59.8</v>
+      </c>
+      <c r="K79" s="10" t="n">
+        <v>1486</v>
       </c>
       <c r="L79" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" s="9" t="n">
-        <v>-2</v>
+        <v>65.8</v>
+      </c>
+      <c r="M79" s="11" t="n">
+        <v>96</v>
       </c>
       <c r="N79" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" s="9" t="n">
-        <v>-2</v>
+        <v>88.3</v>
+      </c>
+      <c r="O79" s="12" t="n">
+        <v>2698</v>
       </c>
       <c r="P79" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="9" t="n">
-        <v>-2</v>
+        <v>34.7</v>
+      </c>
+      <c r="Q79" s="10" t="n">
+        <v>510</v>
       </c>
       <c r="R79" s="9" t="n">
-        <v>0</v>
+        <v>85.2</v>
       </c>
       <c r="S79" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T79" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="U79" s="9" t="n">
-        <v>-2</v>
+      <c r="U79" s="11" t="n">
+        <v>1458</v>
       </c>
       <c r="V79" s="9" t="n">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="W79" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X79" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Y79" s="9" t="n">
-        <v>-2</v>
+      <c r="Y79" s="10" t="n">
+        <v>817</v>
       </c>
       <c r="Z79" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="9" t="n">
-        <v>-2</v>
+        <v>78.09999999999999</v>
+      </c>
+      <c r="AA79" s="10" t="n">
+        <v>958</v>
       </c>
       <c r="AB79" s="9" t="n">
-        <v>0</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="AC79" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD79" s="9" t="n">
         <v>0</v>
@@ -7772,37 +7775,37 @@
         <v>79</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="E80" s="10" t="n">
-        <v>1295</v>
+        <v>66</v>
+      </c>
+      <c r="E80" s="11" t="n">
+        <v>1569</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>75.2</v>
+        <v>66</v>
       </c>
       <c r="G80" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H80" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I80" s="11" t="n">
-        <v>2506</v>
+      <c r="I80" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="K80" s="11" t="n">
-        <v>2402</v>
+        <v>0</v>
+      </c>
+      <c r="K80" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L80" s="7" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="M80" s="11" t="n">
-        <v>2234</v>
+        <v>0</v>
+      </c>
+      <c r="M80" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N80" s="7" t="n">
-        <v>50.8</v>
+        <v>0</v>
       </c>
       <c r="O80" s="7" t="n">
         <v>-2</v>
@@ -7861,82 +7864,82 @@
         <v>80</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="E81" s="9" t="n">
-        <v>-1</v>
+        <v>64.5</v>
+      </c>
+      <c r="E81" s="11" t="n">
+        <v>1667</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="11" t="n">
-        <v>1193</v>
+        <v>64.5</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="H81" s="9" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="I81" s="11" t="n">
-        <v>2283</v>
+        <v>0</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J81" s="9" t="n">
-        <v>54.6</v>
+        <v>0</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L81" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M81" s="11" t="n">
-        <v>1767</v>
+      <c r="M81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N81" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="O81" s="11" t="n">
-        <v>2001</v>
+        <v>0</v>
+      </c>
+      <c r="O81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P81" s="9" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="Q81" s="11" t="n">
-        <v>1632</v>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R81" s="9" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="S81" s="12" t="n">
-        <v>2138</v>
+        <v>0</v>
+      </c>
+      <c r="S81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T81" s="9" t="n">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="U81" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V81" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W81" s="11" t="n">
-        <v>798</v>
+      <c r="W81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X81" s="9" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="Y81" s="10" t="n">
-        <v>598</v>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z81" s="9" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="AA81" s="11" t="n">
-        <v>1144</v>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB81" s="9" t="n">
-        <v>66.2</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD81" s="9" t="n">
         <v>0</v>
@@ -7950,13 +7953,13 @@
         <v>81</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="E82" s="11" t="n">
-        <v>2047</v>
+        <v>63.2</v>
+      </c>
+      <c r="E82" s="10" t="n">
+        <v>1295</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>58.7</v>
+        <v>75.2</v>
       </c>
       <c r="G82" s="7" t="n">
         <v>-1</v>
@@ -7965,46 +7968,46 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="n">
-        <v>1863</v>
+        <v>2506</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="K82" s="7" t="n">
-        <v>-1</v>
+        <v>51.2</v>
+      </c>
+      <c r="K82" s="11" t="n">
+        <v>2402</v>
       </c>
       <c r="L82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" s="10" t="n">
-        <v>810</v>
+        <v>42.8</v>
+      </c>
+      <c r="M82" s="11" t="n">
+        <v>2234</v>
       </c>
       <c r="N82" s="7" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="O82" s="10" t="n">
-        <v>1017</v>
+        <v>50.8</v>
+      </c>
+      <c r="O82" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>76</v>
-      </c>
-      <c r="Q82" s="12" t="n">
-        <v>2171</v>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R82" s="7" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="S82" s="12" t="n">
-        <v>1235</v>
+        <v>0</v>
+      </c>
+      <c r="S82" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T82" s="7" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="U82" s="10" t="n">
-        <v>1038</v>
+        <v>0</v>
+      </c>
+      <c r="U82" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V82" s="7" t="n">
-        <v>71.2</v>
+        <v>0</v>
       </c>
       <c r="W82" s="7" t="n">
         <v>-2</v>
@@ -8039,82 +8042,82 @@
         <v>82</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="E83" s="12" t="n">
-        <v>2177</v>
+        <v>61.6</v>
+      </c>
+      <c r="E83" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>51.7</v>
+        <v>0</v>
       </c>
       <c r="G83" s="11" t="n">
-        <v>1296</v>
+        <v>1193</v>
       </c>
       <c r="H83" s="9" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="I83" s="9" t="n">
-        <v>-2</v>
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I83" s="11" t="n">
+        <v>2283</v>
       </c>
       <c r="J83" s="9" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="K83" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L83" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M83" s="9" t="n">
-        <v>-2</v>
+      <c r="M83" s="11" t="n">
+        <v>1767</v>
       </c>
       <c r="N83" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" s="9" t="n">
-        <v>-2</v>
+        <v>59</v>
+      </c>
+      <c r="O83" s="11" t="n">
+        <v>2001</v>
       </c>
       <c r="P83" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="9" t="n">
-        <v>-2</v>
+        <v>52.7</v>
+      </c>
+      <c r="Q83" s="11" t="n">
+        <v>1632</v>
       </c>
       <c r="R83" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" s="9" t="n">
-        <v>-2</v>
+        <v>58.7</v>
+      </c>
+      <c r="S83" s="12" t="n">
+        <v>2138</v>
       </c>
       <c r="T83" s="9" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="U83" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V83" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W83" s="9" t="n">
-        <v>-2</v>
+      <c r="W83" s="11" t="n">
+        <v>798</v>
       </c>
       <c r="X83" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="9" t="n">
-        <v>-2</v>
+        <v>73.7</v>
+      </c>
+      <c r="Y83" s="10" t="n">
+        <v>598</v>
       </c>
       <c r="Z83" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="9" t="n">
-        <v>-2</v>
+        <v>82.7</v>
+      </c>
+      <c r="AA83" s="11" t="n">
+        <v>1144</v>
       </c>
       <c r="AB83" s="9" t="n">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="AC83" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD83" s="9" t="n">
         <v>0</v>
@@ -8128,61 +8131,61 @@
         <v>83</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>58.1</v>
+        <v>59.9</v>
       </c>
       <c r="E84" s="11" t="n">
-        <v>2083</v>
+        <v>2047</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>58.1</v>
+        <v>58.7</v>
       </c>
       <c r="G84" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H84" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I84" s="7" t="n">
-        <v>-2</v>
+      <c r="I84" s="11" t="n">
+        <v>1863</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="K84" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L84" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M84" s="7" t="n">
-        <v>-2</v>
+      <c r="M84" s="10" t="n">
+        <v>810</v>
       </c>
       <c r="N84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" s="7" t="n">
-        <v>-2</v>
+        <v>80.8</v>
+      </c>
+      <c r="O84" s="10" t="n">
+        <v>1017</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="7" t="n">
-        <v>-2</v>
+        <v>76</v>
+      </c>
+      <c r="Q84" s="12" t="n">
+        <v>2171</v>
       </c>
       <c r="R84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" s="7" t="n">
-        <v>-2</v>
+        <v>43.4</v>
+      </c>
+      <c r="S84" s="12" t="n">
+        <v>1235</v>
       </c>
       <c r="T84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U84" s="7" t="n">
-        <v>-2</v>
+        <v>56.5</v>
+      </c>
+      <c r="U84" s="10" t="n">
+        <v>1038</v>
       </c>
       <c r="V84" s="7" t="n">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="W84" s="7" t="n">
         <v>-2</v>
@@ -8217,43 +8220,43 @@
         <v>84</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>51.9</v>
+        <v>59.2</v>
       </c>
       <c r="E85" s="12" t="n">
-        <v>2123</v>
+        <v>2177</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="G85" s="9" t="n">
-        <v>-1</v>
+        <v>51.7</v>
+      </c>
+      <c r="G85" s="11" t="n">
+        <v>1296</v>
       </c>
       <c r="H85" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11" t="n">
-        <v>2502</v>
+        <v>66.7</v>
+      </c>
+      <c r="I85" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J85" s="9" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="K85" s="12" t="n">
-        <v>2702</v>
+        <v>0</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L85" s="9" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="M85" s="12" t="n">
-        <v>2944</v>
+        <v>0</v>
+      </c>
+      <c r="M85" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N85" s="9" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="O85" s="11" t="n">
-        <v>2068</v>
+        <v>0</v>
+      </c>
+      <c r="O85" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P85" s="9" t="n">
-        <v>51.4</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="9" t="n">
         <v>-2</v>
@@ -8306,25 +8309,25 @@
         <v>85</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E86" s="12" t="n">
-        <v>2223</v>
+        <v>58.1</v>
+      </c>
+      <c r="E86" s="11" t="n">
+        <v>2083</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="G86" s="12" t="n">
-        <v>1804</v>
+        <v>58.1</v>
+      </c>
+      <c r="G86" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="H86" s="7" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="I86" s="12" t="n">
-        <v>3124</v>
+        <v>0</v>
+      </c>
+      <c r="I86" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="K86" s="7" t="n">
         <v>-2</v>
@@ -8395,43 +8398,43 @@
         <v>86</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>51.6</v>
+        <v>51.9</v>
       </c>
       <c r="E87" s="12" t="n">
-        <v>2501</v>
+        <v>2123</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="G87" s="12" t="n">
-        <v>2572</v>
+        <v>52.5</v>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H87" s="9" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="I87" s="11" t="n">
-        <v>2158</v>
+        <v>2502</v>
       </c>
       <c r="J87" s="9" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="K87" s="11" t="n">
-        <v>2619</v>
+        <v>51.2</v>
+      </c>
+      <c r="K87" s="12" t="n">
+        <v>2702</v>
       </c>
       <c r="L87" s="9" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="M87" s="11" t="n">
-        <v>2218</v>
+        <v>31.9</v>
+      </c>
+      <c r="M87" s="12" t="n">
+        <v>2944</v>
       </c>
       <c r="N87" s="9" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="O87" s="9" t="n">
-        <v>-2</v>
+        <v>33.4</v>
+      </c>
+      <c r="O87" s="11" t="n">
+        <v>2068</v>
       </c>
       <c r="P87" s="9" t="n">
-        <v>0</v>
+        <v>51.4</v>
       </c>
       <c r="Q87" s="9" t="n">
         <v>-2</v>
@@ -8484,37 +8487,37 @@
         <v>87</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="E88" s="11" t="n">
-        <v>1766</v>
+        <v>51.8</v>
+      </c>
+      <c r="E88" s="12" t="n">
+        <v>2223</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G88" s="12" t="n">
-        <v>2537</v>
+        <v>1804</v>
       </c>
       <c r="H88" s="7" t="n">
-        <v>39.5</v>
+        <v>52.6</v>
       </c>
       <c r="I88" s="12" t="n">
-        <v>3274</v>
+        <v>3124</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>34.3</v>
+        <v>36.6</v>
       </c>
       <c r="K88" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L88" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M88" s="11" t="n">
-        <v>1816</v>
+      <c r="M88" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N88" s="7" t="n">
-        <v>58.2</v>
+        <v>0</v>
       </c>
       <c r="O88" s="7" t="n">
         <v>-2</v>
@@ -8573,37 +8576,37 @@
         <v>88</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>48.4</v>
+        <v>51.6</v>
       </c>
       <c r="E89" s="12" t="n">
-        <v>2209</v>
+        <v>2501</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>51.2</v>
+        <v>46.7</v>
       </c>
       <c r="G89" s="12" t="n">
-        <v>2198</v>
+        <v>2572</v>
       </c>
       <c r="H89" s="9" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="I89" s="9" t="n">
-        <v>-2</v>
+        <v>38.8</v>
+      </c>
+      <c r="I89" s="11" t="n">
+        <v>2158</v>
       </c>
       <c r="J89" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>-2</v>
+        <v>56.6</v>
+      </c>
+      <c r="K89" s="11" t="n">
+        <v>2619</v>
       </c>
       <c r="L89" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" s="9" t="n">
-        <v>-2</v>
+        <v>38.5</v>
+      </c>
+      <c r="M89" s="11" t="n">
+        <v>2218</v>
       </c>
       <c r="N89" s="9" t="n">
-        <v>0</v>
+        <v>51.1</v>
       </c>
       <c r="O89" s="9" t="n">
         <v>-2</v>
@@ -8662,64 +8665,64 @@
         <v>89</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E90" s="7" t="n">
-        <v>-1</v>
+        <v>51.3</v>
+      </c>
+      <c r="E90" s="11" t="n">
+        <v>1766</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G90" s="12" t="n">
-        <v>1921</v>
+        <v>2537</v>
       </c>
       <c r="H90" s="7" t="n">
-        <v>50.5</v>
+        <v>39.5</v>
       </c>
       <c r="I90" s="12" t="n">
-        <v>2815</v>
+        <v>3274</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K90" s="11" t="n">
-        <v>2029</v>
+        <v>34.3</v>
+      </c>
+      <c r="K90" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="L90" s="7" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="M90" s="7" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="M90" s="11" t="n">
+        <v>1816</v>
       </c>
       <c r="N90" s="7" t="n">
-        <v>0</v>
+        <v>58.2</v>
       </c>
       <c r="O90" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P90" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q90" s="12" t="n">
-        <v>2526</v>
+      <c r="Q90" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R90" s="7" t="n">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="S90" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T90" s="7" t="n">
         <v>0</v>
       </c>
       <c r="U90" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V90" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W90" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X90" s="7" t="n">
         <v>0</v>
@@ -8751,88 +8754,85 @@
         <v>90</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="E91" s="9" t="n">
-        <v>-1</v>
+        <v>48.4</v>
+      </c>
+      <c r="E91" s="12" t="n">
+        <v>2209</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="9" t="n">
-        <v>-1</v>
+        <v>51.2</v>
+      </c>
+      <c r="G91" s="12" t="n">
+        <v>2198</v>
       </c>
       <c r="H91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="10" t="n">
-        <v>613</v>
+        <v>45.5</v>
+      </c>
+      <c r="I91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J91" s="9" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="K91" s="6" t="n">
-        <v>758</v>
+        <v>0</v>
+      </c>
+      <c r="K91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L91" s="9" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="M91" s="6" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="M91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N91" s="9" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="O91" s="6" t="n">
-        <v>269</v>
+        <v>0</v>
+      </c>
+      <c r="O91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P91" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q91" s="10" t="n">
-        <v>418</v>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R91" s="9" t="n">
-        <v>87</v>
-      </c>
-      <c r="S91" s="10" t="n">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="S91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T91" s="9" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="U91" s="6" t="n">
-        <v>142</v>
+        <v>0</v>
+      </c>
+      <c r="U91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V91" s="9" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="W91" s="10" t="n">
-        <v>637</v>
+        <v>0</v>
+      </c>
+      <c r="W91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X91" s="9" t="n">
-        <v>82</v>
-      </c>
-      <c r="Y91" s="6" t="n">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="Y91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z91" s="9" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="AA91" s="6" t="n">
-        <v>164</v>
+        <v>0</v>
+      </c>
+      <c r="AA91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB91" s="9" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="AC91" s="6" t="n">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="AC91" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD91" s="9" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="AE91" s="13" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -8843,64 +8843,64 @@
         <v>91</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E92" s="7" t="n">
-        <v>-1</v>
+        <v>46.2</v>
+      </c>
+      <c r="E92" s="12" t="n">
+        <v>2818</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="G92" s="12" t="n">
-        <v>1596</v>
+        <v>1921</v>
       </c>
       <c r="H92" s="7" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="I92" s="7" t="n">
-        <v>-2</v>
+        <v>50.5</v>
+      </c>
+      <c r="I92" s="12" t="n">
+        <v>2815</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" s="7" t="n">
-        <v>-2</v>
+        <v>41.4</v>
+      </c>
+      <c r="K92" s="11" t="n">
+        <v>2029</v>
       </c>
       <c r="L92" s="7" t="n">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="M92" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N92" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O92" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P92" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q92" s="7" t="n">
-        <v>-2</v>
+      <c r="Q92" s="12" t="n">
+        <v>2526</v>
       </c>
       <c r="R92" s="7" t="n">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="S92" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T92" s="7" t="n">
         <v>0</v>
       </c>
       <c r="U92" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V92" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W92" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X92" s="7" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>92</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E93" s="12" t="n">
-        <v>2134</v>
+        <v>42.8</v>
+      </c>
+      <c r="E93" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>52.3</v>
+        <v>0</v>
       </c>
       <c r="G93" s="9" t="n">
         <v>-1</v>
@@ -8946,71 +8946,74 @@
       <c r="H93" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="I93" s="9" t="n">
-        <v>-2</v>
+      <c r="I93" s="10" t="n">
+        <v>613</v>
       </c>
       <c r="J93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>-2</v>
+        <v>85.5</v>
+      </c>
+      <c r="K93" s="6" t="n">
+        <v>758</v>
       </c>
       <c r="L93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" s="9" t="n">
-        <v>-2</v>
+        <v>85.09999999999999</v>
+      </c>
+      <c r="M93" s="6" t="n">
+        <v>20</v>
       </c>
       <c r="N93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" s="9" t="n">
-        <v>-2</v>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O93" s="6" t="n">
+        <v>269</v>
       </c>
       <c r="P93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="9" t="n">
-        <v>-2</v>
+        <v>95</v>
+      </c>
+      <c r="Q93" s="10" t="n">
+        <v>418</v>
       </c>
       <c r="R93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S93" s="9" t="n">
-        <v>-2</v>
+        <v>87</v>
+      </c>
+      <c r="S93" s="10" t="n">
+        <v>149</v>
       </c>
       <c r="T93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U93" s="9" t="n">
-        <v>-2</v>
+        <v>91.59999999999999</v>
+      </c>
+      <c r="U93" s="6" t="n">
+        <v>142</v>
       </c>
       <c r="V93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W93" s="9" t="n">
-        <v>-2</v>
+        <v>96.7</v>
+      </c>
+      <c r="W93" s="10" t="n">
+        <v>637</v>
       </c>
       <c r="X93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="9" t="n">
-        <v>-2</v>
+        <v>82</v>
+      </c>
+      <c r="Y93" s="6" t="n">
+        <v>154</v>
       </c>
       <c r="Z93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="9" t="n">
-        <v>-2</v>
+        <v>96.8</v>
+      </c>
+      <c r="AA93" s="6" t="n">
+        <v>164</v>
       </c>
       <c r="AB93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC93" s="9" t="n">
-        <v>-2</v>
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AC93" s="6" t="n">
+        <v>112</v>
       </c>
       <c r="AD93" s="9" t="n">
-        <v>0</v>
+        <v>97.5</v>
+      </c>
+      <c r="AE93" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -9021,13 +9024,13 @@
         <v>93</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E94" s="7" t="n">
-        <v>-1</v>
+        <v>40.6</v>
+      </c>
+      <c r="E94" s="12" t="n">
+        <v>2864</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="G94" s="7" t="n">
         <v>-1</v>
@@ -9110,7 +9113,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>0</v>
+        <v>28.1</v>
       </c>
       <c r="E95" s="9" t="n">
         <v>-1</v>
@@ -9118,14 +9121,14 @@
       <c r="F95" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G95" s="9" t="n">
-        <v>-1</v>
+      <c r="G95" s="12" t="n">
+        <v>1596</v>
       </c>
       <c r="H95" s="9" t="n">
-        <v>0</v>
+        <v>56.3</v>
       </c>
       <c r="I95" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J95" s="9" t="n">
         <v>0</v>
@@ -9199,13 +9202,13 @@
         <v>95</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="7" t="n">
-        <v>-1</v>
+        <v>26.1</v>
+      </c>
+      <c r="E96" s="12" t="n">
+        <v>2134</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>0</v>
+        <v>52.3</v>
       </c>
       <c r="G96" s="7" t="n">
         <v>-1</v>
@@ -9303,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J97" s="9" t="n">
         <v>0</v>
@@ -9475,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H99" s="9" t="n">
         <v>0</v>
@@ -13046,6 +13049,95 @@
       </c>
       <c r="AD152" s="18" t="n">
         <v>50.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31">
+      <c r="A153" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E153" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB153" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD153" s="22" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13218,6 +13310,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId135"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId136"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B153" r:id="rId138"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -110,187 +110,187 @@
     <t>wangyxwyx</t>
   </si>
   <si>
+    <t>wanyoyo</t>
+  </si>
+  <si>
+    <t>ZhengkaiWei</t>
+  </si>
+  <si>
+    <t>please_AC</t>
+  </si>
+  <si>
+    <t>TOYAMA_NAO</t>
+  </si>
+  <si>
+    <t>wobuxihuannile</t>
+  </si>
+  <si>
+    <t>WhateverYouSay</t>
+  </si>
+  <si>
+    <t>xguo-Will</t>
+  </si>
+  <si>
+    <t>vonxq</t>
+  </si>
+  <si>
+    <t>TianSkyer</t>
+  </si>
+  <si>
+    <t>zhengfu23</t>
+  </si>
+  <si>
+    <t>icodingg</t>
+  </si>
+  <si>
+    <t>yueb95</t>
+  </si>
+  <si>
+    <t>whyer</t>
+  </si>
+  <si>
+    <t>whe_bupt</t>
+  </si>
+  <si>
+    <t>kaizer87</t>
+  </si>
+  <si>
+    <t>richarddia</t>
+  </si>
+  <si>
+    <t>weiyang95</t>
+  </si>
+  <si>
+    <t>dennanisny</t>
+  </si>
+  <si>
+    <t>davidqing1991</t>
+  </si>
+  <si>
+    <t>liulaoye135</t>
+  </si>
+  <si>
+    <t>1373757850</t>
+  </si>
+  <si>
+    <t>user504</t>
+  </si>
+  <si>
+    <t>SummerYang19</t>
+  </si>
+  <si>
+    <t>jmzhang18</t>
+  </si>
+  <si>
+    <t>Ansonluo1</t>
+  </si>
+  <si>
+    <t>user760</t>
+  </si>
+  <si>
+    <t>jliang</t>
+  </si>
+  <si>
+    <t>Uneed</t>
+  </si>
+  <si>
+    <t>ws1255</t>
+  </si>
+  <si>
+    <t>fish444556</t>
+  </si>
+  <si>
+    <t>FrankZC</t>
+  </si>
+  <si>
+    <t>Charles000</t>
+  </si>
+  <si>
+    <t>yuliangjin</t>
+  </si>
+  <si>
+    <t>keyupeter</t>
+  </si>
+  <si>
+    <t>thu_winfield</t>
+  </si>
+  <si>
+    <t>zihao</t>
+  </si>
+  <si>
+    <t>supersam331</t>
+  </si>
+  <si>
+    <t>bifeitang</t>
+  </si>
+  <si>
+    <t>Aaron_S</t>
+  </si>
+  <si>
+    <t>phoenixpan</t>
+  </si>
+  <si>
+    <t>hfuwu5</t>
+  </si>
+  <si>
+    <t>gzh47</t>
+  </si>
+  <si>
+    <t>got7amy</t>
+  </si>
+  <si>
+    <t>sukeyzhou</t>
+  </si>
+  <si>
+    <t>zchen9523</t>
+  </si>
+  <si>
+    <t>sijin</t>
+  </si>
+  <si>
+    <t>Clary</t>
+  </si>
+  <si>
+    <t>cc189</t>
+  </si>
+  <si>
+    <t>ellaliu</t>
+  </si>
+  <si>
+    <t>Mengqian</t>
+  </si>
+  <si>
+    <t>Shaotong</t>
+  </si>
+  <si>
+    <t>Vanggie</t>
+  </si>
+  <si>
+    <t>abyebye</t>
+  </si>
+  <si>
+    <t>leetcodeyu1990</t>
+  </si>
+  <si>
+    <t>huyouhyw</t>
+  </si>
+  <si>
+    <t>zexingfa</t>
+  </si>
+  <si>
+    <t>JackTheBest</t>
+  </si>
+  <si>
+    <t>MaggieZhao95</t>
+  </si>
+  <si>
+    <t>gyf6434</t>
+  </si>
+  <si>
+    <t>user4286</t>
+  </si>
+  <si>
     <t>Bingyy</t>
-  </si>
-  <si>
-    <t>wanyoyo</t>
-  </si>
-  <si>
-    <t>ZhengkaiWei</t>
-  </si>
-  <si>
-    <t>please_AC</t>
-  </si>
-  <si>
-    <t>TOYAMA_NAO</t>
-  </si>
-  <si>
-    <t>wobuxihuannile</t>
-  </si>
-  <si>
-    <t>WhateverYouSay</t>
-  </si>
-  <si>
-    <t>xguo-Will</t>
-  </si>
-  <si>
-    <t>vonxq</t>
-  </si>
-  <si>
-    <t>TianSkyer</t>
-  </si>
-  <si>
-    <t>zhengfu23</t>
-  </si>
-  <si>
-    <t>icodingg</t>
-  </si>
-  <si>
-    <t>yueb95</t>
-  </si>
-  <si>
-    <t>whyer</t>
-  </si>
-  <si>
-    <t>whe_bupt</t>
-  </si>
-  <si>
-    <t>kaizer87</t>
-  </si>
-  <si>
-    <t>richarddia</t>
-  </si>
-  <si>
-    <t>weiyang95</t>
-  </si>
-  <si>
-    <t>dennanisny</t>
-  </si>
-  <si>
-    <t>davidqing1991</t>
-  </si>
-  <si>
-    <t>liulaoye135</t>
-  </si>
-  <si>
-    <t>1373757850</t>
-  </si>
-  <si>
-    <t>user504</t>
-  </si>
-  <si>
-    <t>SummerYang19</t>
-  </si>
-  <si>
-    <t>jmzhang18</t>
-  </si>
-  <si>
-    <t>Ansonluo1</t>
-  </si>
-  <si>
-    <t>user760</t>
-  </si>
-  <si>
-    <t>jliang</t>
-  </si>
-  <si>
-    <t>Uneed</t>
-  </si>
-  <si>
-    <t>ws1255</t>
-  </si>
-  <si>
-    <t>fish444556</t>
-  </si>
-  <si>
-    <t>FrankZC</t>
-  </si>
-  <si>
-    <t>Charles000</t>
-  </si>
-  <si>
-    <t>yuliangjin</t>
-  </si>
-  <si>
-    <t>keyupeter</t>
-  </si>
-  <si>
-    <t>thu_winfield</t>
-  </si>
-  <si>
-    <t>zihao</t>
-  </si>
-  <si>
-    <t>supersam331</t>
-  </si>
-  <si>
-    <t>bifeitang</t>
-  </si>
-  <si>
-    <t>Aaron_S</t>
-  </si>
-  <si>
-    <t>phoenixpan</t>
-  </si>
-  <si>
-    <t>hfuwu5</t>
-  </si>
-  <si>
-    <t>gzh47</t>
-  </si>
-  <si>
-    <t>got7amy</t>
-  </si>
-  <si>
-    <t>sukeyzhou</t>
-  </si>
-  <si>
-    <t>zchen9523</t>
-  </si>
-  <si>
-    <t>sijin</t>
-  </si>
-  <si>
-    <t>Clary</t>
-  </si>
-  <si>
-    <t>cc189</t>
-  </si>
-  <si>
-    <t>ellaliu</t>
-  </si>
-  <si>
-    <t>Mengqian</t>
-  </si>
-  <si>
-    <t>Shaotong</t>
-  </si>
-  <si>
-    <t>Vanggie</t>
-  </si>
-  <si>
-    <t>abyebye</t>
-  </si>
-  <si>
-    <t>leetcodeyu1990</t>
-  </si>
-  <si>
-    <t>huyouhyw</t>
-  </si>
-  <si>
-    <t>zexingfa</t>
-  </si>
-  <si>
-    <t>JackTheBest</t>
-  </si>
-  <si>
-    <t>MaggieZhao95</t>
-  </si>
-  <si>
-    <t>gyf6434</t>
-  </si>
-  <si>
-    <t>user4286</t>
   </si>
   <si>
     <t>IrisGuo</t>
@@ -3503,25 +3503,25 @@
         <v>31</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>89.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v>-2</v>
+        <v>90</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>942</v>
       </c>
       <c r="H32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>-2</v>
+        <v>73.09999999999999</v>
+      </c>
+      <c r="I32" s="10" t="n">
+        <v>417</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="K32" s="7" t="n">
         <v>-2</v>
@@ -3592,25 +3592,25 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>89.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>656</v>
+        <v>726</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>90</v>
-      </c>
-      <c r="G33" s="11" t="n">
-        <v>942</v>
+        <v>88.90000000000001</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="H33" s="9" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="I33" s="10" t="n">
-        <v>417</v>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J33" s="9" t="n">
-        <v>88.5</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9" t="n">
         <v>-2</v>
@@ -3681,49 +3681,49 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>88.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>726</v>
+        <v>556</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="G34" s="7" t="n">
-        <v>-2</v>
+        <v>91.5</v>
+      </c>
+      <c r="G34" s="10" t="n">
+        <v>528</v>
       </c>
       <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="n">
-        <v>-2</v>
+        <v>85.5</v>
+      </c>
+      <c r="I34" s="11" t="n">
+        <v>1291</v>
       </c>
       <c r="J34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7" t="n">
-        <v>-2</v>
+        <v>70</v>
+      </c>
+      <c r="K34" s="6" t="n">
+        <v>846</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7" t="n">
-        <v>-2</v>
+        <v>83.40000000000001</v>
+      </c>
+      <c r="M34" s="10" t="n">
+        <v>864</v>
       </c>
       <c r="N34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="n">
-        <v>-2</v>
+        <v>79.90000000000001</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>336</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7" t="n">
-        <v>-2</v>
+        <v>93.7</v>
+      </c>
+      <c r="Q34" s="10" t="n">
+        <v>742</v>
       </c>
       <c r="R34" s="7" t="n">
-        <v>0</v>
+        <v>80.8</v>
       </c>
       <c r="S34" s="7" t="n">
         <v>-2</v>
@@ -3770,85 +3770,85 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>88.5</v>
+        <v>87.3</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>556</v>
+        <v>264</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="G35" s="10" t="n">
-        <v>528</v>
+        <v>96</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H35" s="9" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="I35" s="11" t="n">
-        <v>1291</v>
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="n">
+        <v>1053</v>
       </c>
       <c r="J35" s="9" t="n">
-        <v>70</v>
+        <v>78.7</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>846</v>
+        <v>521</v>
       </c>
       <c r="L35" s="9" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="M35" s="10" t="n">
-        <v>864</v>
+        <v>89.8</v>
+      </c>
+      <c r="M35" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="N35" s="9" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="O35" s="6" t="n">
-        <v>336</v>
+        <v>0</v>
+      </c>
+      <c r="O35" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="P35" s="9" t="n">
-        <v>93.7</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="10" t="n">
-        <v>742</v>
+        <v>426</v>
       </c>
       <c r="R35" s="9" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="S35" s="9" t="n">
-        <v>-2</v>
+        <v>86.8</v>
+      </c>
+      <c r="S35" s="10" t="n">
+        <v>170</v>
       </c>
       <c r="T35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="9" t="n">
-        <v>-2</v>
+        <v>91.09999999999999</v>
+      </c>
+      <c r="U35" s="11" t="n">
+        <v>1525</v>
       </c>
       <c r="V35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="9" t="n">
-        <v>-2</v>
+        <v>55</v>
+      </c>
+      <c r="W35" s="12" t="n">
+        <v>1573</v>
       </c>
       <c r="X35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="9" t="n">
-        <v>-2</v>
+        <v>52.9</v>
+      </c>
+      <c r="Y35" s="11" t="n">
+        <v>1127</v>
       </c>
       <c r="Z35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="9" t="n">
-        <v>-2</v>
+        <v>66.7</v>
+      </c>
+      <c r="AA35" s="10" t="n">
+        <v>350</v>
       </c>
       <c r="AB35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="9" t="n">
-        <v>-2</v>
+        <v>87.7</v>
+      </c>
+      <c r="AC35" s="11" t="n">
+        <v>901</v>
       </c>
       <c r="AD35" s="9" t="n">
-        <v>0</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -3862,10 +3862,10 @@
         <v>87.3</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>96</v>
+        <v>97.3</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>-1</v>
@@ -3874,70 +3874,70 @@
         <v>0</v>
       </c>
       <c r="I36" s="10" t="n">
-        <v>1053</v>
+        <v>1133</v>
       </c>
       <c r="J36" s="7" t="n">
-        <v>78.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K36" s="6" t="n">
-        <v>521</v>
+        <v>449</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="M36" s="7" t="n">
-        <v>-1</v>
+        <v>91.2</v>
+      </c>
+      <c r="M36" s="10" t="n">
+        <v>219</v>
       </c>
       <c r="N36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="n">
-        <v>-1</v>
+        <v>91.2</v>
+      </c>
+      <c r="O36" s="10" t="n">
+        <v>1200</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="10" t="n">
-        <v>426</v>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="Q36" s="11" t="n">
+        <v>1232</v>
       </c>
       <c r="R36" s="7" t="n">
-        <v>86.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="S36" s="10" t="n">
-        <v>170</v>
+        <v>338</v>
       </c>
       <c r="T36" s="7" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="U36" s="11" t="n">
-        <v>1525</v>
+        <v>87.2</v>
+      </c>
+      <c r="U36" s="6" t="n">
+        <v>182</v>
       </c>
       <c r="V36" s="7" t="n">
-        <v>55</v>
-      </c>
-      <c r="W36" s="12" t="n">
-        <v>1573</v>
+        <v>95.8</v>
+      </c>
+      <c r="W36" s="11" t="n">
+        <v>740</v>
       </c>
       <c r="X36" s="7" t="n">
-        <v>52.9</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="Y36" s="11" t="n">
-        <v>1127</v>
+        <v>1340</v>
       </c>
       <c r="Z36" s="7" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="AA36" s="10" t="n">
-        <v>350</v>
+        <v>62.3</v>
+      </c>
+      <c r="AA36" s="11" t="n">
+        <v>1223</v>
       </c>
       <c r="AB36" s="7" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="AC36" s="11" t="n">
-        <v>901</v>
+        <v>64.59999999999999</v>
+      </c>
+      <c r="AC36" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="AD36" s="7" t="n">
-        <v>69.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -3948,82 +3948,82 @@
         <v>36</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>87.3</v>
+        <v>86.3</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>178</v>
+        <v>719</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G37" s="9" t="n">
-        <v>-1</v>
+        <v>89</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <v>633</v>
       </c>
       <c r="H37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10" t="n">
-        <v>1133</v>
+        <v>83.59999999999999</v>
+      </c>
+      <c r="I37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J37" s="9" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="K37" s="6" t="n">
-        <v>449</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L37" s="9" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="M37" s="10" t="n">
-        <v>219</v>
+        <v>0</v>
+      </c>
+      <c r="M37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N37" s="9" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="O37" s="10" t="n">
-        <v>1200</v>
+        <v>0</v>
+      </c>
+      <c r="O37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P37" s="9" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="Q37" s="11" t="n">
-        <v>1232</v>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R37" s="9" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="S37" s="10" t="n">
-        <v>338</v>
+        <v>0</v>
+      </c>
+      <c r="S37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T37" s="9" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="U37" s="6" t="n">
-        <v>182</v>
+        <v>0</v>
+      </c>
+      <c r="U37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V37" s="9" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="W37" s="11" t="n">
-        <v>740</v>
+        <v>0</v>
+      </c>
+      <c r="W37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X37" s="9" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="Y37" s="11" t="n">
-        <v>1340</v>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z37" s="9" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="AA37" s="11" t="n">
-        <v>1223</v>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB37" s="9" t="n">
-        <v>64.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD37" s="9" t="n">
         <v>0</v>
@@ -4037,25 +4037,25 @@
         <v>37</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="E38" s="6" t="n">
-        <v>719</v>
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>874</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>89</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G38" s="10" t="n">
-        <v>633</v>
+        <v>529</v>
       </c>
       <c r="H38" s="7" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I38" s="7" t="n">
-        <v>-2</v>
+        <v>85.5</v>
+      </c>
+      <c r="I38" s="10" t="n">
+        <v>593</v>
       </c>
       <c r="J38" s="7" t="n">
-        <v>0</v>
+        <v>85.8</v>
       </c>
       <c r="K38" s="7" t="n">
         <v>-2</v>
@@ -4126,37 +4126,37 @@
         <v>38</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="E39" s="10" t="n">
-        <v>874</v>
+        <v>85.09999999999999</v>
+      </c>
+      <c r="E39" s="11" t="n">
+        <v>1658</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>81.59999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G39" s="10" t="n">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="H39" s="9" t="n">
-        <v>85.5</v>
+        <v>86.5</v>
       </c>
       <c r="I39" s="10" t="n">
-        <v>593</v>
+        <v>728</v>
       </c>
       <c r="J39" s="9" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>-2</v>
+        <v>83.7</v>
+      </c>
+      <c r="K39" s="11" t="n">
+        <v>2405</v>
       </c>
       <c r="L39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9" t="n">
-        <v>-2</v>
+        <v>42.7</v>
+      </c>
+      <c r="M39" s="10" t="n">
+        <v>1131</v>
       </c>
       <c r="N39" s="9" t="n">
-        <v>0</v>
+        <v>75.2</v>
       </c>
       <c r="O39" s="9" t="n">
         <v>-2</v>
@@ -4215,85 +4215,85 @@
         <v>39</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="E40" s="11" t="n">
-        <v>1658</v>
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>641</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="G40" s="10" t="n">
-        <v>471</v>
+        <v>90.2</v>
+      </c>
+      <c r="G40" s="12" t="n">
+        <v>1697</v>
       </c>
       <c r="H40" s="7" t="n">
-        <v>86.5</v>
+        <v>54.5</v>
       </c>
       <c r="I40" s="10" t="n">
-        <v>728</v>
+        <v>996</v>
       </c>
       <c r="J40" s="7" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="K40" s="11" t="n">
-        <v>2405</v>
+        <v>79.59999999999999</v>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>1146</v>
       </c>
       <c r="L40" s="7" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="M40" s="10" t="n">
-        <v>1131</v>
+        <v>77.5</v>
+      </c>
+      <c r="M40" s="11" t="n">
+        <v>1821</v>
       </c>
       <c r="N40" s="7" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="O40" s="10" t="n">
+        <v>1128</v>
+      </c>
+      <c r="P40" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q40" s="11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R40" s="7" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="S40" s="11" t="n">
+        <v>920</v>
+      </c>
+      <c r="T40" s="7" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="U40" s="11" t="n">
+        <v>1473</v>
+      </c>
+      <c r="V40" s="7" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="W40" s="12" t="n">
+        <v>1754</v>
+      </c>
+      <c r="X40" s="7" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="Y40" s="10" t="n">
+        <v>959</v>
+      </c>
+      <c r="Z40" s="7" t="n">
         <v>75.2</v>
       </c>
-      <c r="O40" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="7" t="n">
-        <v>-2</v>
+      <c r="AA40" s="10" t="n">
+        <v>975</v>
       </c>
       <c r="AB40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="7" t="n">
-        <v>-2</v>
+        <v>74.7</v>
+      </c>
+      <c r="AC40" s="11" t="n">
+        <v>1133</v>
       </c>
       <c r="AD40" s="7" t="n">
-        <v>0</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4304,85 +4304,85 @@
         <v>40</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>84.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="E41" s="6" t="n">
-        <v>641</v>
+        <v>816</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="G41" s="12" t="n">
-        <v>1697</v>
+        <v>87.5</v>
+      </c>
+      <c r="G41" s="10" t="n">
+        <v>816</v>
       </c>
       <c r="H41" s="9" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="I41" s="10" t="n">
-        <v>996</v>
+        <v>80.40000000000001</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J41" s="9" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="K41" s="6" t="n">
-        <v>1146</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L41" s="9" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="M41" s="11" t="n">
-        <v>1821</v>
+        <v>0</v>
+      </c>
+      <c r="M41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N41" s="9" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="O41" s="10" t="n">
-        <v>1128</v>
+        <v>0</v>
+      </c>
+      <c r="O41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P41" s="9" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q41" s="11" t="n">
-        <v>1080</v>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R41" s="9" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="S41" s="11" t="n">
-        <v>920</v>
+        <v>0</v>
+      </c>
+      <c r="S41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T41" s="9" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="U41" s="11" t="n">
-        <v>1473</v>
+        <v>0</v>
+      </c>
+      <c r="U41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V41" s="9" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="W41" s="12" t="n">
-        <v>1754</v>
+        <v>0</v>
+      </c>
+      <c r="W41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X41" s="9" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="Y41" s="10" t="n">
-        <v>959</v>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z41" s="9" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="AA41" s="10" t="n">
-        <v>975</v>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB41" s="9" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="AC41" s="11" t="n">
-        <v>1133</v>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD41" s="9" t="n">
-        <v>64.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4393,85 +4393,85 @@
         <v>41</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="E42" s="6" t="n">
-        <v>816</v>
+        <v>83.8</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>982</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="G42" s="10" t="n">
-        <v>816</v>
+        <v>80</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="H42" s="7" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="I42" s="7" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="I42" s="10" t="n">
+        <v>468</v>
       </c>
       <c r="J42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7" t="n">
-        <v>-2</v>
+        <v>87.7</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>409</v>
       </c>
       <c r="L42" s="7" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M42" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O42" s="7" t="n">
-        <v>-2</v>
+      <c r="O42" s="10" t="n">
+        <v>1521</v>
       </c>
       <c r="P42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7" t="n">
-        <v>-2</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="Q42" s="10" t="n">
+        <v>672</v>
       </c>
       <c r="R42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="7" t="n">
-        <v>-2</v>
+        <v>82.09999999999999</v>
+      </c>
+      <c r="S42" s="11" t="n">
+        <v>944</v>
       </c>
       <c r="T42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="7" t="n">
-        <v>-2</v>
+        <v>68.2</v>
+      </c>
+      <c r="U42" s="11" t="n">
+        <v>1600</v>
       </c>
       <c r="V42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" s="7" t="n">
-        <v>-2</v>
+        <v>53.2</v>
+      </c>
+      <c r="W42" s="11" t="n">
+        <v>897</v>
       </c>
       <c r="X42" s="7" t="n">
-        <v>0</v>
+        <v>71.7</v>
       </c>
       <c r="Y42" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AA42" s="7" t="n">
-        <v>-2</v>
+      <c r="AA42" s="10" t="n">
+        <v>451</v>
       </c>
       <c r="AB42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="7" t="n">
-        <v>-2</v>
+        <v>85.59999999999999</v>
+      </c>
+      <c r="AC42" s="11" t="n">
+        <v>1272</v>
       </c>
       <c r="AD42" s="7" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4482,85 +4482,85 @@
         <v>42</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="E43" s="10" t="n">
-        <v>982</v>
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <v>1756</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>80</v>
-      </c>
-      <c r="G43" s="9" t="n">
-        <v>-1</v>
+        <v>63.1</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>111</v>
       </c>
       <c r="H43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="n">
-        <v>468</v>
+        <v>98</v>
+      </c>
+      <c r="I43" s="11" t="n">
+        <v>1470</v>
       </c>
       <c r="J43" s="9" t="n">
-        <v>87.7</v>
+        <v>67.2</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>409</v>
+        <v>64</v>
       </c>
       <c r="L43" s="9" t="n">
-        <v>92</v>
-      </c>
-      <c r="M43" s="9" t="n">
-        <v>-1</v>
+        <v>98.7</v>
+      </c>
+      <c r="M43" s="10" t="n">
+        <v>281</v>
       </c>
       <c r="N43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="10" t="n">
-        <v>1521</v>
+        <v>90.09999999999999</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>648</v>
       </c>
       <c r="P43" s="9" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="Q43" s="10" t="n">
-        <v>672</v>
+        <v>87.90000000000001</v>
+      </c>
+      <c r="Q43" s="6" t="n">
+        <v>53</v>
       </c>
       <c r="R43" s="9" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="S43" s="11" t="n">
-        <v>944</v>
+        <v>99</v>
+      </c>
+      <c r="S43" s="6" t="n">
+        <v>100</v>
       </c>
       <c r="T43" s="9" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="U43" s="11" t="n">
-        <v>1600</v>
+        <v>97.7</v>
+      </c>
+      <c r="U43" s="6" t="n">
+        <v>711</v>
       </c>
       <c r="V43" s="9" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="W43" s="11" t="n">
-        <v>897</v>
+        <v>83.7</v>
+      </c>
+      <c r="W43" s="10" t="n">
+        <v>419</v>
       </c>
       <c r="X43" s="9" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="Y43" s="9" t="n">
-        <v>-1</v>
+        <v>86.5</v>
+      </c>
+      <c r="Y43" s="10" t="n">
+        <v>845</v>
       </c>
       <c r="Z43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="10" t="n">
-        <v>451</v>
+        <v>77.59999999999999</v>
+      </c>
+      <c r="AA43" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="AB43" s="9" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="AC43" s="11" t="n">
-        <v>1272</v>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10" t="n">
+        <v>565</v>
       </c>
       <c r="AD43" s="9" t="n">
-        <v>61.6</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -4571,85 +4571,85 @@
         <v>43</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="E44" s="11" t="n">
-        <v>1756</v>
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>403</v>
       </c>
       <c r="F44" s="7" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="G44" s="6" t="n">
-        <v>111</v>
+        <v>93.8</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>1053</v>
       </c>
       <c r="H44" s="7" t="n">
-        <v>98</v>
-      </c>
-      <c r="I44" s="11" t="n">
-        <v>1470</v>
+        <v>71.09999999999999</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J44" s="7" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="K44" s="6" t="n">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L44" s="7" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="M44" s="10" t="n">
-        <v>281</v>
+        <v>0</v>
+      </c>
+      <c r="M44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N44" s="7" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="O44" s="6" t="n">
-        <v>648</v>
+        <v>0</v>
+      </c>
+      <c r="O44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P44" s="7" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="Q44" s="6" t="n">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R44" s="7" t="n">
-        <v>99</v>
-      </c>
-      <c r="S44" s="6" t="n">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="S44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T44" s="7" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="U44" s="6" t="n">
-        <v>711</v>
+        <v>0</v>
+      </c>
+      <c r="U44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V44" s="7" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="W44" s="10" t="n">
-        <v>419</v>
+        <v>0</v>
+      </c>
+      <c r="W44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X44" s="7" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="Y44" s="10" t="n">
-        <v>845</v>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z44" s="7" t="n">
-        <v>77.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB44" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AC44" s="10" t="n">
-        <v>565</v>
+      <c r="AC44" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD44" s="7" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -4660,85 +4660,85 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="E45" s="6" t="n">
-        <v>403</v>
+        <v>82.2</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>885</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="G45" s="11" t="n">
-        <v>1053</v>
+        <v>81.5</v>
+      </c>
+      <c r="G45" s="10" t="n">
+        <v>667</v>
       </c>
       <c r="H45" s="9" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="I45" s="9" t="n">
-        <v>-2</v>
+        <v>83</v>
+      </c>
+      <c r="I45" s="11" t="n">
+        <v>1511</v>
       </c>
       <c r="J45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>-2</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K45" s="10" t="n">
+        <v>1919</v>
       </c>
       <c r="L45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9" t="n">
-        <v>-2</v>
+        <v>57.3</v>
+      </c>
+      <c r="M45" s="10" t="n">
+        <v>198</v>
       </c>
       <c r="N45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="9" t="n">
-        <v>-2</v>
+        <v>91.5</v>
+      </c>
+      <c r="O45" s="10" t="n">
+        <v>1215</v>
       </c>
       <c r="P45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="9" t="n">
-        <v>-2</v>
+        <v>72.3</v>
+      </c>
+      <c r="Q45" s="12" t="n">
+        <v>1988</v>
       </c>
       <c r="R45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="9" t="n">
-        <v>-2</v>
+        <v>46.9</v>
+      </c>
+      <c r="S45" s="11" t="n">
+        <v>555</v>
       </c>
       <c r="T45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="9" t="n">
-        <v>-2</v>
+        <v>77.2</v>
+      </c>
+      <c r="U45" s="12" t="n">
+        <v>2045</v>
       </c>
       <c r="V45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="9" t="n">
-        <v>-2</v>
+        <v>38</v>
+      </c>
+      <c r="W45" s="10" t="n">
+        <v>625</v>
       </c>
       <c r="X45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="9" t="n">
-        <v>-2</v>
+        <v>82.3</v>
+      </c>
+      <c r="Y45" s="11" t="n">
+        <v>1971</v>
       </c>
       <c r="Z45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="9" t="n">
-        <v>-2</v>
+        <v>49.3</v>
+      </c>
+      <c r="AA45" s="10" t="n">
+        <v>886</v>
       </c>
       <c r="AB45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="9" t="n">
-        <v>-2</v>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="AC45" s="11" t="n">
+        <v>952</v>
       </c>
       <c r="AD45" s="9" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -4749,85 +4749,85 @@
         <v>45</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="E46" s="10" t="n">
-        <v>885</v>
+        <v>82</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>1414</v>
       </c>
       <c r="F46" s="7" t="n">
-        <v>81.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G46" s="10" t="n">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="H46" s="7" t="n">
-        <v>83</v>
-      </c>
-      <c r="I46" s="11" t="n">
-        <v>1511</v>
+        <v>83.3</v>
+      </c>
+      <c r="I46" s="10" t="n">
+        <v>919</v>
       </c>
       <c r="J46" s="7" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K46" s="10" t="n">
-        <v>1919</v>
+        <v>80.8</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="L46" s="7" t="n">
-        <v>57.3</v>
+        <v>0</v>
       </c>
       <c r="M46" s="10" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N46" s="7" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="O46" s="10" t="n">
-        <v>1215</v>
+        <v>91.40000000000001</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>642</v>
       </c>
       <c r="P46" s="7" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="Q46" s="12" t="n">
-        <v>1988</v>
+        <v>88</v>
+      </c>
+      <c r="Q46" s="11" t="n">
+        <v>927</v>
       </c>
       <c r="R46" s="7" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="S46" s="11" t="n">
-        <v>555</v>
+        <v>72.2</v>
+      </c>
+      <c r="S46" s="12" t="n">
+        <v>1623</v>
       </c>
       <c r="T46" s="7" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="U46" s="12" t="n">
-        <v>2045</v>
+        <v>47.6</v>
+      </c>
+      <c r="U46" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="V46" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="W46" s="10" t="n">
-        <v>625</v>
+        <v>0</v>
+      </c>
+      <c r="W46" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="X46" s="7" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="Y46" s="11" t="n">
-        <v>1971</v>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="Z46" s="7" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="AA46" s="10" t="n">
-        <v>886</v>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="AB46" s="7" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="AC46" s="11" t="n">
-        <v>952</v>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="10" t="n">
+        <v>641</v>
       </c>
       <c r="AD46" s="7" t="n">
-        <v>68.8</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -4838,85 +4838,85 @@
         <v>46</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <v>1414</v>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>857</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="G47" s="10" t="n">
-        <v>652</v>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="H47" s="9" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="I47" s="10" t="n">
-        <v>919</v>
+        <v>0</v>
+      </c>
+      <c r="I47" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J47" s="9" t="n">
-        <v>80.8</v>
+        <v>0</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L47" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M47" s="10" t="n">
-        <v>204</v>
+      <c r="M47" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N47" s="9" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="O47" s="6" t="n">
-        <v>642</v>
+        <v>0</v>
+      </c>
+      <c r="O47" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P47" s="9" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q47" s="11" t="n">
-        <v>927</v>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R47" s="9" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="S47" s="12" t="n">
-        <v>1623</v>
+        <v>0</v>
+      </c>
+      <c r="S47" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T47" s="9" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="U47" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="W47" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Y47" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z47" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA47" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB47" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="AC47" s="10" t="n">
-        <v>641</v>
+      <c r="AC47" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD47" s="9" t="n">
-        <v>80.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -4927,25 +4927,25 @@
         <v>47</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E48" s="10" t="n">
-        <v>857</v>
+        <v>81.8</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="F48" s="7" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="G48" s="7" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="G48" s="10" t="n">
+        <v>769</v>
       </c>
       <c r="H48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7" t="n">
-        <v>-2</v>
+        <v>81.2</v>
+      </c>
+      <c r="I48" s="10" t="n">
+        <v>809</v>
       </c>
       <c r="J48" s="7" t="n">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="K48" s="7" t="n">
         <v>-2</v>
@@ -5016,82 +5016,82 @@
         <v>48</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="E49" s="9" t="n">
-        <v>-1</v>
+        <v>81.2</v>
+      </c>
+      <c r="E49" s="10" t="n">
+        <v>1231</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="10" t="n">
-        <v>769</v>
+        <v>76.2</v>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H49" s="9" t="n">
-        <v>81.2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="10" t="n">
-        <v>809</v>
+        <v>577</v>
       </c>
       <c r="J49" s="9" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>-2</v>
+        <v>86.09999999999999</v>
+      </c>
+      <c r="K49" s="6" t="n">
+        <v>695</v>
       </c>
       <c r="L49" s="9" t="n">
-        <v>0</v>
+        <v>86.3</v>
       </c>
       <c r="M49" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N49" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O49" s="9" t="n">
-        <v>-2</v>
+      <c r="O49" s="6" t="n">
+        <v>614</v>
       </c>
       <c r="P49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9" t="n">
-        <v>-2</v>
+        <v>88.5</v>
+      </c>
+      <c r="Q49" s="6" t="n">
+        <v>324</v>
       </c>
       <c r="R49" s="9" t="n">
-        <v>0</v>
+        <v>93.8</v>
       </c>
       <c r="S49" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T49" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="U49" s="9" t="n">
-        <v>-2</v>
+      <c r="U49" s="10" t="n">
+        <v>1060</v>
       </c>
       <c r="V49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="9" t="n">
-        <v>-2</v>
+        <v>70.59999999999999</v>
+      </c>
+      <c r="W49" s="11" t="n">
+        <v>790</v>
       </c>
       <c r="X49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="9" t="n">
-        <v>-2</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Y49" s="11" t="n">
+        <v>2069</v>
       </c>
       <c r="Z49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="9" t="n">
-        <v>-2</v>
+        <v>47.3</v>
+      </c>
+      <c r="AA49" s="10" t="n">
+        <v>1043</v>
       </c>
       <c r="AB49" s="9" t="n">
-        <v>0</v>
+        <v>73.3</v>
       </c>
       <c r="AC49" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD49" s="9" t="n">
         <v>0</v>
@@ -5105,31 +5105,31 @@
         <v>49</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="E50" s="10" t="n">
-        <v>1231</v>
+        <v>80.7</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="F50" s="7" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="G50" s="7" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>340</v>
       </c>
       <c r="H50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="10" t="n">
-        <v>577</v>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I50" s="11" t="n">
+        <v>1462</v>
       </c>
       <c r="J50" s="7" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="K50" s="6" t="n">
-        <v>695</v>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K50" s="12" t="n">
+        <v>2798</v>
       </c>
       <c r="L50" s="7" t="n">
-        <v>86.3</v>
+        <v>30</v>
       </c>
       <c r="M50" s="7" t="n">
         <v>-1</v>
@@ -5137,53 +5137,53 @@
       <c r="N50" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O50" s="6" t="n">
-        <v>614</v>
+      <c r="O50" s="10" t="n">
+        <v>734</v>
       </c>
       <c r="P50" s="7" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="Q50" s="6" t="n">
-        <v>324</v>
+        <v>81.3</v>
+      </c>
+      <c r="Q50" s="11" t="n">
+        <v>1319</v>
       </c>
       <c r="R50" s="7" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="S50" s="7" t="n">
-        <v>-1</v>
+        <v>64.7</v>
+      </c>
+      <c r="S50" s="11" t="n">
+        <v>1132</v>
       </c>
       <c r="T50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="10" t="n">
-        <v>1060</v>
+        <v>63.9</v>
+      </c>
+      <c r="U50" s="11" t="n">
+        <v>1411</v>
       </c>
       <c r="V50" s="7" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="W50" s="11" t="n">
-        <v>790</v>
+        <v>57.6</v>
+      </c>
+      <c r="W50" s="12" t="n">
+        <v>1642</v>
       </c>
       <c r="X50" s="7" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="Y50" s="11" t="n">
-        <v>2069</v>
+        <v>51.5</v>
+      </c>
+      <c r="Y50" s="10" t="n">
+        <v>757</v>
       </c>
       <c r="Z50" s="7" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="AA50" s="10" t="n">
-        <v>1043</v>
+        <v>79.40000000000001</v>
+      </c>
+      <c r="AA50" s="11" t="n">
+        <v>2123</v>
       </c>
       <c r="AB50" s="7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="AC50" s="7" t="n">
-        <v>-1</v>
+        <v>45.9</v>
+      </c>
+      <c r="AC50" s="10" t="n">
+        <v>315</v>
       </c>
       <c r="AD50" s="7" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -5194,85 +5194,85 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="E51" s="9" t="n">
-        <v>-1</v>
+        <v>80.3</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>452</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6" t="n">
-        <v>340</v>
+        <v>93.09999999999999</v>
+      </c>
+      <c r="G51" s="11" t="n">
+        <v>1376</v>
       </c>
       <c r="H51" s="9" t="n">
-        <v>93.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="I51" s="11" t="n">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="J51" s="9" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="K51" s="12" t="n">
-        <v>2798</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K51" s="11" t="n">
+        <v>2296</v>
       </c>
       <c r="L51" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="M51" s="9" t="n">
-        <v>-1</v>
+        <v>44.9</v>
+      </c>
+      <c r="M51" s="12" t="n">
+        <v>2473</v>
       </c>
       <c r="N51" s="9" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="O51" s="10" t="n">
-        <v>734</v>
+        <v>1016</v>
       </c>
       <c r="P51" s="9" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="Q51" s="11" t="n">
-        <v>1319</v>
+        <v>76</v>
+      </c>
+      <c r="Q51" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="R51" s="9" t="n">
-        <v>64.7</v>
+        <v>0</v>
       </c>
       <c r="S51" s="11" t="n">
-        <v>1132</v>
+        <v>672</v>
       </c>
       <c r="T51" s="9" t="n">
-        <v>63.9</v>
+        <v>74.5</v>
       </c>
       <c r="U51" s="11" t="n">
-        <v>1411</v>
+        <v>1352</v>
       </c>
       <c r="V51" s="9" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="W51" s="12" t="n">
-        <v>1642</v>
+        <v>58.9</v>
+      </c>
+      <c r="W51" s="11" t="n">
+        <v>1153</v>
       </c>
       <c r="X51" s="9" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="Y51" s="10" t="n">
-        <v>757</v>
+        <v>66.5</v>
+      </c>
+      <c r="Y51" s="12" t="n">
+        <v>2124</v>
       </c>
       <c r="Z51" s="9" t="n">
-        <v>79.40000000000001</v>
+        <v>41.2</v>
       </c>
       <c r="AA51" s="11" t="n">
-        <v>2123</v>
+        <v>1421</v>
       </c>
       <c r="AB51" s="9" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="AC51" s="10" t="n">
-        <v>315</v>
+        <v>60.4</v>
+      </c>
+      <c r="AC51" s="11" t="n">
+        <v>867</v>
       </c>
       <c r="AD51" s="9" t="n">
-        <v>88</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -5283,85 +5283,85 @@
         <v>51</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="E52" s="6" t="n">
-        <v>452</v>
+        <v>79.7</v>
+      </c>
+      <c r="E52" s="11" t="n">
+        <v>1644</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="G52" s="11" t="n">
-        <v>1376</v>
+        <v>64.8</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>304</v>
       </c>
       <c r="H52" s="7" t="n">
-        <v>65.3</v>
+        <v>94.5</v>
       </c>
       <c r="I52" s="11" t="n">
-        <v>1449</v>
+        <v>2522</v>
       </c>
       <c r="J52" s="7" t="n">
-        <v>67.59999999999999</v>
+        <v>50.9</v>
       </c>
       <c r="K52" s="11" t="n">
-        <v>2296</v>
+        <v>2017</v>
       </c>
       <c r="L52" s="7" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="M52" s="12" t="n">
-        <v>2473</v>
+        <v>50.4</v>
+      </c>
+      <c r="M52" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N52" s="7" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="O52" s="10" t="n">
-        <v>1016</v>
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P52" s="7" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R52" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S52" s="11" t="n">
-        <v>672</v>
+      <c r="S52" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T52" s="7" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="U52" s="11" t="n">
-        <v>1352</v>
+        <v>0</v>
+      </c>
+      <c r="U52" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V52" s="7" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="W52" s="11" t="n">
-        <v>1153</v>
+        <v>0</v>
+      </c>
+      <c r="W52" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X52" s="7" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="Y52" s="12" t="n">
-        <v>2124</v>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z52" s="7" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="AA52" s="11" t="n">
-        <v>1421</v>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AB52" s="7" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="AC52" s="11" t="n">
-        <v>867</v>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD52" s="7" t="n">
-        <v>70.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -5372,31 +5372,31 @@
         <v>52</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="E53" s="11" t="n">
-        <v>1644</v>
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>495</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="G53" s="6" t="n">
-        <v>304</v>
+        <v>92.40000000000001</v>
+      </c>
+      <c r="G53" s="11" t="n">
+        <v>1347</v>
       </c>
       <c r="H53" s="9" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="I53" s="11" t="n">
-        <v>2522</v>
+        <v>65.8</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J53" s="9" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="K53" s="11" t="n">
-        <v>2017</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L53" s="9" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="M53" s="9" t="n">
         <v>-2</v>
@@ -5461,19 +5461,19 @@
         <v>53</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="E54" s="6" t="n">
-        <v>495</v>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>1139</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="G54" s="11" t="n">
-        <v>1347</v>
+        <v>77.59999999999999</v>
+      </c>
+      <c r="G54" s="10" t="n">
+        <v>818</v>
       </c>
       <c r="H54" s="7" t="n">
-        <v>65.8</v>
+        <v>80.3</v>
       </c>
       <c r="I54" s="7" t="n">
         <v>-2</v>
@@ -5550,85 +5550,85 @@
         <v>54</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E55" s="10" t="n">
-        <v>1139</v>
+        <v>78</v>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>604</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="G55" s="10" t="n">
-        <v>818</v>
+        <v>90.8</v>
+      </c>
+      <c r="G55" s="11" t="n">
+        <v>1374</v>
       </c>
       <c r="H55" s="9" t="n">
-        <v>80.3</v>
+        <v>65.3</v>
       </c>
       <c r="I55" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J55" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L55" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M55" s="9" t="n">
-        <v>-2</v>
+      <c r="M55" s="11" t="n">
+        <v>1874</v>
       </c>
       <c r="N55" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="9" t="n">
-        <v>-2</v>
+        <v>57.2</v>
+      </c>
+      <c r="O55" s="6" t="n">
+        <v>507</v>
       </c>
       <c r="P55" s="9" t="n">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="Q55" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R55" s="9" t="n">
         <v>0</v>
       </c>
       <c r="S55" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T55" s="9" t="n">
         <v>0</v>
       </c>
       <c r="U55" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V55" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W55" s="9" t="n">
-        <v>-2</v>
+      <c r="W55" s="11" t="n">
+        <v>811</v>
       </c>
       <c r="X55" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="9" t="n">
-        <v>-2</v>
+        <v>73.5</v>
+      </c>
+      <c r="Y55" s="11" t="n">
+        <v>1429</v>
       </c>
       <c r="Z55" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="9" t="n">
-        <v>-2</v>
+        <v>60.5</v>
+      </c>
+      <c r="AA55" s="10" t="n">
+        <v>892</v>
       </c>
       <c r="AB55" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="9" t="n">
-        <v>-2</v>
+        <v>76.5</v>
+      </c>
+      <c r="AC55" s="12" t="n">
+        <v>1855</v>
       </c>
       <c r="AD55" s="9" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -5639,55 +5639,55 @@
         <v>55</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="E56" s="6" t="n">
-        <v>604</v>
+        <v>77.5</v>
+      </c>
+      <c r="E56" s="12" t="n">
+        <v>2574</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>90.8</v>
+        <v>45.6</v>
       </c>
       <c r="G56" s="11" t="n">
-        <v>1374</v>
+        <v>924</v>
       </c>
       <c r="H56" s="7" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="I56" s="7" t="n">
-        <v>-1</v>
+        <v>73.40000000000001</v>
+      </c>
+      <c r="I56" s="10" t="n">
+        <v>858</v>
       </c>
       <c r="J56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="7" t="n">
-        <v>-1</v>
+        <v>81.7</v>
+      </c>
+      <c r="K56" s="10" t="n">
+        <v>1928</v>
       </c>
       <c r="L56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11" t="n">
-        <v>1874</v>
+        <v>57.1</v>
+      </c>
+      <c r="M56" s="10" t="n">
+        <v>596</v>
       </c>
       <c r="N56" s="7" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="O56" s="6" t="n">
-        <v>507</v>
+        <v>84.59999999999999</v>
+      </c>
+      <c r="O56" s="10" t="n">
+        <v>1778</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="Q56" s="7" t="n">
-        <v>-1</v>
+        <v>61.8</v>
+      </c>
+      <c r="Q56" s="11" t="n">
+        <v>1133</v>
       </c>
       <c r="R56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" s="7" t="n">
-        <v>-1</v>
+        <v>68.3</v>
+      </c>
+      <c r="S56" s="12" t="n">
+        <v>1353</v>
       </c>
       <c r="T56" s="7" t="n">
-        <v>0</v>
+        <v>53.8</v>
       </c>
       <c r="U56" s="7" t="n">
         <v>-1</v>
@@ -5696,28 +5696,28 @@
         <v>0</v>
       </c>
       <c r="W56" s="11" t="n">
-        <v>811</v>
+        <v>769</v>
       </c>
       <c r="X56" s="7" t="n">
-        <v>73.5</v>
+        <v>74.3</v>
       </c>
       <c r="Y56" s="11" t="n">
-        <v>1429</v>
+        <v>1622</v>
       </c>
       <c r="Z56" s="7" t="n">
-        <v>60.5</v>
+        <v>56.5</v>
       </c>
       <c r="AA56" s="10" t="n">
-        <v>892</v>
+        <v>556</v>
       </c>
       <c r="AB56" s="7" t="n">
-        <v>76.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="AC56" s="12" t="n">
-        <v>1855</v>
+        <v>1799</v>
       </c>
       <c r="AD56" s="7" t="n">
-        <v>43.6</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -5728,85 +5728,85 @@
         <v>56</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E57" s="12" t="n">
-        <v>2574</v>
+        <v>77.3</v>
+      </c>
+      <c r="E57" s="11" t="n">
+        <v>1857</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="G57" s="11" t="n">
-        <v>924</v>
+        <v>61.6</v>
+      </c>
+      <c r="G57" s="10" t="n">
+        <v>576</v>
       </c>
       <c r="H57" s="9" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="I57" s="10" t="n">
-        <v>858</v>
+        <v>84.7</v>
+      </c>
+      <c r="I57" s="11" t="n">
+        <v>1304</v>
       </c>
       <c r="J57" s="9" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="K57" s="10" t="n">
-        <v>1928</v>
+        <v>69.8</v>
+      </c>
+      <c r="K57" s="6" t="n">
+        <v>1211</v>
       </c>
       <c r="L57" s="9" t="n">
-        <v>57.1</v>
+        <v>76.2</v>
       </c>
       <c r="M57" s="10" t="n">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="N57" s="9" t="n">
-        <v>84.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="O57" s="10" t="n">
-        <v>1778</v>
+        <v>981</v>
       </c>
       <c r="P57" s="9" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="Q57" s="11" t="n">
-        <v>1133</v>
+        <v>76.7</v>
+      </c>
+      <c r="Q57" s="10" t="n">
+        <v>773</v>
       </c>
       <c r="R57" s="9" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="S57" s="12" t="n">
-        <v>1353</v>
+        <v>80.2</v>
+      </c>
+      <c r="S57" s="11" t="n">
+        <v>519</v>
       </c>
       <c r="T57" s="9" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="U57" s="9" t="n">
-        <v>-1</v>
+        <v>78</v>
+      </c>
+      <c r="U57" s="6" t="n">
+        <v>352</v>
       </c>
       <c r="V57" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" s="11" t="n">
-        <v>769</v>
+        <v>91.90000000000001</v>
+      </c>
+      <c r="W57" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X57" s="9" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="Y57" s="11" t="n">
-        <v>1622</v>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z57" s="9" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="AA57" s="10" t="n">
-        <v>556</v>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB57" s="9" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="AC57" s="12" t="n">
-        <v>1799</v>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD57" s="9" t="n">
-        <v>44.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -5817,85 +5817,85 @@
         <v>57</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E58" s="11" t="n">
-        <v>1857</v>
+        <v>77</v>
+      </c>
+      <c r="E58" s="10" t="n">
+        <v>837</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="G58" s="10" t="n">
-        <v>576</v>
+        <v>82.2</v>
+      </c>
+      <c r="G58" s="11" t="n">
+        <v>1020</v>
       </c>
       <c r="H58" s="7" t="n">
-        <v>84.7</v>
+        <v>71.7</v>
       </c>
       <c r="I58" s="11" t="n">
-        <v>1304</v>
+        <v>2356</v>
       </c>
       <c r="J58" s="7" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="K58" s="6" t="n">
-        <v>1211</v>
+        <v>53.5</v>
+      </c>
+      <c r="K58" s="12" t="n">
+        <v>2790</v>
       </c>
       <c r="L58" s="7" t="n">
-        <v>76.2</v>
+        <v>30.2</v>
       </c>
       <c r="M58" s="10" t="n">
-        <v>556</v>
+        <v>476</v>
       </c>
       <c r="N58" s="7" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="O58" s="10" t="n">
-        <v>981</v>
+        <v>86.7</v>
+      </c>
+      <c r="O58" s="11" t="n">
+        <v>2542</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="Q58" s="10" t="n">
-        <v>773</v>
+        <v>42.6</v>
+      </c>
+      <c r="Q58" s="12" t="n">
+        <v>2137</v>
       </c>
       <c r="R58" s="7" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="S58" s="11" t="n">
-        <v>519</v>
+        <v>44</v>
+      </c>
+      <c r="S58" s="12" t="n">
+        <v>1744</v>
       </c>
       <c r="T58" s="7" t="n">
-        <v>78</v>
-      </c>
-      <c r="U58" s="6" t="n">
-        <v>352</v>
+        <v>44.8</v>
+      </c>
+      <c r="U58" s="11" t="n">
+        <v>1350</v>
       </c>
       <c r="V58" s="7" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="W58" s="7" t="n">
-        <v>-2</v>
+        <v>59</v>
+      </c>
+      <c r="W58" s="10" t="n">
+        <v>579</v>
       </c>
       <c r="X58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="7" t="n">
-        <v>-2</v>
+        <v>83.2</v>
+      </c>
+      <c r="Y58" s="11" t="n">
+        <v>1136</v>
       </c>
       <c r="Z58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="7" t="n">
-        <v>-2</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="AA58" s="12" t="n">
+        <v>2546</v>
       </c>
       <c r="AB58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="7" t="n">
-        <v>-2</v>
+        <v>32.1</v>
+      </c>
+      <c r="AC58" s="11" t="n">
+        <v>1025</v>
       </c>
       <c r="AD58" s="7" t="n">
-        <v>0</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -5906,85 +5906,85 @@
         <v>58</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="E59" s="10" t="n">
-        <v>837</v>
+        <v>1388</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="G59" s="11" t="n">
-        <v>1020</v>
+        <v>73.8</v>
+      </c>
+      <c r="G59" s="12" t="n">
+        <v>1969</v>
       </c>
       <c r="H59" s="9" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="I59" s="11" t="n">
-        <v>2356</v>
+        <v>49.6</v>
+      </c>
+      <c r="I59" s="10" t="n">
+        <v>1016</v>
       </c>
       <c r="J59" s="9" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="K59" s="12" t="n">
-        <v>2790</v>
+        <v>79.3</v>
+      </c>
+      <c r="K59" s="11" t="n">
+        <v>2517</v>
       </c>
       <c r="L59" s="9" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="M59" s="10" t="n">
-        <v>476</v>
+        <v>40.5</v>
+      </c>
+      <c r="M59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N59" s="9" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="O59" s="11" t="n">
-        <v>2542</v>
+        <v>0</v>
+      </c>
+      <c r="O59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P59" s="9" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="Q59" s="12" t="n">
-        <v>2137</v>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R59" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="S59" s="12" t="n">
-        <v>1744</v>
+        <v>0</v>
+      </c>
+      <c r="S59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T59" s="9" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="U59" s="11" t="n">
-        <v>1350</v>
+        <v>0</v>
+      </c>
+      <c r="U59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V59" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="W59" s="10" t="n">
-        <v>579</v>
+        <v>0</v>
+      </c>
+      <c r="W59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X59" s="9" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="Y59" s="11" t="n">
-        <v>1136</v>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z59" s="9" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="AA59" s="12" t="n">
-        <v>2546</v>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB59" s="9" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="AC59" s="11" t="n">
-        <v>1025</v>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD59" s="9" t="n">
-        <v>67.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -5995,85 +5995,85 @@
         <v>59</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E60" s="10" t="n">
-        <v>1388</v>
+        <v>76</v>
+      </c>
+      <c r="E60" s="11" t="n">
+        <v>1403</v>
       </c>
       <c r="F60" s="7" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="G60" s="12" t="n">
-        <v>1969</v>
+        <v>68.5</v>
+      </c>
+      <c r="G60" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="H60" s="7" t="n">
-        <v>49.6</v>
+        <v>0</v>
       </c>
       <c r="I60" s="10" t="n">
-        <v>1016</v>
+        <v>748</v>
       </c>
       <c r="J60" s="7" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="K60" s="11" t="n">
-        <v>2517</v>
+        <v>83.40000000000001</v>
+      </c>
+      <c r="K60" s="6" t="n">
+        <v>467</v>
       </c>
       <c r="L60" s="7" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="M60" s="7" t="n">
-        <v>-2</v>
+        <v>90.8</v>
+      </c>
+      <c r="M60" s="10" t="n">
+        <v>869</v>
       </c>
       <c r="N60" s="7" t="n">
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="O60" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P60" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q60" s="7" t="n">
-        <v>-2</v>
+      <c r="Q60" s="11" t="n">
+        <v>1238</v>
       </c>
       <c r="R60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" s="7" t="n">
-        <v>-2</v>
+        <v>66.3</v>
+      </c>
+      <c r="S60" s="11" t="n">
+        <v>983</v>
       </c>
       <c r="T60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" s="7" t="n">
-        <v>-2</v>
+        <v>67.3</v>
+      </c>
+      <c r="U60" s="11" t="n">
+        <v>1713</v>
       </c>
       <c r="V60" s="7" t="n">
-        <v>0</v>
+        <v>50.6</v>
       </c>
       <c r="W60" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X60" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Y60" s="7" t="n">
-        <v>-2</v>
+      <c r="Y60" s="10" t="n">
+        <v>935</v>
       </c>
       <c r="Z60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="7" t="n">
-        <v>-2</v>
+        <v>75.7</v>
+      </c>
+      <c r="AA60" s="10" t="n">
+        <v>410</v>
       </c>
       <c r="AB60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="7" t="n">
-        <v>-2</v>
+        <v>86.5</v>
+      </c>
+      <c r="AC60" s="12" t="n">
+        <v>1421</v>
       </c>
       <c r="AD60" s="7" t="n">
-        <v>0</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6084,85 +6084,85 @@
         <v>60</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>1403</v>
+        <v>1603</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="G61" s="9" t="n">
-        <v>-1</v>
+        <v>65.5</v>
+      </c>
+      <c r="G61" s="10" t="n">
+        <v>490</v>
       </c>
       <c r="H61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="10" t="n">
-        <v>748</v>
+        <v>86.2</v>
+      </c>
+      <c r="I61" s="11" t="n">
+        <v>2061</v>
       </c>
       <c r="J61" s="9" t="n">
-        <v>83.40000000000001</v>
+        <v>58.1</v>
       </c>
       <c r="K61" s="6" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="L61" s="9" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="M61" s="10" t="n">
-        <v>869</v>
+        <v>86.8</v>
+      </c>
+      <c r="M61" s="11" t="n">
+        <v>2091</v>
       </c>
       <c r="N61" s="9" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="O61" s="9" t="n">
-        <v>-1</v>
+        <v>53.3</v>
+      </c>
+      <c r="O61" s="11" t="n">
+        <v>2013</v>
       </c>
       <c r="P61" s="9" t="n">
-        <v>0</v>
+        <v>52.4</v>
       </c>
       <c r="Q61" s="11" t="n">
-        <v>1238</v>
+        <v>1896</v>
       </c>
       <c r="R61" s="9" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="S61" s="11" t="n">
-        <v>983</v>
+        <v>53.7</v>
+      </c>
+      <c r="S61" s="12" t="n">
+        <v>2215</v>
       </c>
       <c r="T61" s="9" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="U61" s="11" t="n">
-        <v>1713</v>
+        <v>33.9</v>
+      </c>
+      <c r="U61" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V61" s="9" t="n">
-        <v>50.6</v>
+        <v>0</v>
       </c>
       <c r="W61" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X61" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Y61" s="10" t="n">
-        <v>935</v>
+      <c r="Y61" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z61" s="9" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="AA61" s="10" t="n">
-        <v>410</v>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB61" s="9" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="AC61" s="12" t="n">
-        <v>1421</v>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD61" s="9" t="n">
-        <v>53.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6173,55 +6173,55 @@
         <v>61</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E62" s="11" t="n">
-        <v>1603</v>
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E62" s="10" t="n">
+        <v>1265</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="G62" s="10" t="n">
-        <v>490</v>
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="H62" s="7" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="I62" s="11" t="n">
-        <v>2061</v>
+        <v>0</v>
+      </c>
+      <c r="I62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J62" s="7" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="K62" s="6" t="n">
-        <v>672</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L62" s="7" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="M62" s="11" t="n">
-        <v>2091</v>
+        <v>0</v>
+      </c>
+      <c r="M62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N62" s="7" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="O62" s="11" t="n">
-        <v>2013</v>
+        <v>0</v>
+      </c>
+      <c r="O62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="Q62" s="11" t="n">
-        <v>1896</v>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R62" s="7" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="S62" s="12" t="n">
-        <v>2215</v>
+        <v>0</v>
+      </c>
+      <c r="S62" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T62" s="7" t="n">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="U62" s="7" t="n">
         <v>-2</v>
@@ -6262,85 +6262,85 @@
         <v>62</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="E63" s="10" t="n">
-        <v>1265</v>
+        <v>75.3</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>525</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="G63" s="9" t="n">
-        <v>-2</v>
+        <v>92</v>
+      </c>
+      <c r="G63" s="12" t="n">
+        <v>1771</v>
       </c>
       <c r="H63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9" t="n">
-        <v>-2</v>
+        <v>53.2</v>
+      </c>
+      <c r="I63" s="11" t="n">
+        <v>2019</v>
       </c>
       <c r="J63" s="9" t="n">
-        <v>0</v>
+        <v>58.7</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L63" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M63" s="9" t="n">
-        <v>-2</v>
+      <c r="M63" s="10" t="n">
+        <v>963</v>
       </c>
       <c r="N63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" s="9" t="n">
-        <v>-2</v>
+        <v>78.09999999999999</v>
+      </c>
+      <c r="O63" s="11" t="n">
+        <v>1795</v>
       </c>
       <c r="P63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="9" t="n">
-        <v>-2</v>
+        <v>56.5</v>
+      </c>
+      <c r="Q63" s="11" t="n">
+        <v>1218</v>
       </c>
       <c r="R63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" s="9" t="n">
-        <v>-2</v>
+        <v>66.7</v>
+      </c>
+      <c r="S63" s="6" t="n">
+        <v>95</v>
       </c>
       <c r="T63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" s="9" t="n">
-        <v>-2</v>
+        <v>97.8</v>
+      </c>
+      <c r="U63" s="6" t="n">
+        <v>760</v>
       </c>
       <c r="V63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" s="9" t="n">
-        <v>-2</v>
+        <v>82.5</v>
+      </c>
+      <c r="W63" s="10" t="n">
+        <v>271</v>
       </c>
       <c r="X63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="9" t="n">
-        <v>-2</v>
+        <v>89.5</v>
+      </c>
+      <c r="Y63" s="10" t="n">
+        <v>645</v>
       </c>
       <c r="Z63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="9" t="n">
-        <v>-2</v>
+        <v>81.7</v>
+      </c>
+      <c r="AA63" s="10" t="n">
+        <v>638</v>
       </c>
       <c r="AB63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="9" t="n">
-        <v>-2</v>
+        <v>81.7</v>
+      </c>
+      <c r="AC63" s="11" t="n">
+        <v>1191</v>
       </c>
       <c r="AD63" s="9" t="n">
-        <v>0</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6351,85 +6351,85 @@
         <v>63</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="E64" s="6" t="n">
-        <v>525</v>
+        <v>74.3</v>
+      </c>
+      <c r="E64" s="10" t="n">
+        <v>1366</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>92</v>
-      </c>
-      <c r="G64" s="12" t="n">
-        <v>1771</v>
+        <v>74.09999999999999</v>
+      </c>
+      <c r="G64" s="11" t="n">
+        <v>863</v>
       </c>
       <c r="H64" s="7" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="I64" s="11" t="n">
-        <v>2019</v>
+        <v>74.5</v>
+      </c>
+      <c r="I64" s="12" t="n">
+        <v>3087</v>
       </c>
       <c r="J64" s="7" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="K64" s="7" t="n">
-        <v>-1</v>
+        <v>37.2</v>
+      </c>
+      <c r="K64" s="6" t="n">
+        <v>1047</v>
       </c>
       <c r="L64" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" s="10" t="n">
-        <v>963</v>
+        <v>79.40000000000001</v>
+      </c>
+      <c r="M64" s="12" t="n">
+        <v>2611</v>
       </c>
       <c r="N64" s="7" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="O64" s="11" t="n">
-        <v>1795</v>
+        <v>39.2</v>
+      </c>
+      <c r="O64" s="10" t="n">
+        <v>1640</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>56.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="Q64" s="11" t="n">
-        <v>1218</v>
+        <v>1651</v>
       </c>
       <c r="R64" s="7" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="S64" s="6" t="n">
-        <v>95</v>
+        <v>58.4</v>
+      </c>
+      <c r="S64" s="12" t="n">
+        <v>1625</v>
       </c>
       <c r="T64" s="7" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="U64" s="6" t="n">
-        <v>760</v>
+        <v>47.5</v>
+      </c>
+      <c r="U64" s="11" t="n">
+        <v>1479</v>
       </c>
       <c r="V64" s="7" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="W64" s="10" t="n">
-        <v>271</v>
+        <v>56</v>
+      </c>
+      <c r="W64" s="12" t="n">
+        <v>1665</v>
       </c>
       <c r="X64" s="7" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="Y64" s="10" t="n">
-        <v>645</v>
+        <v>51.1</v>
+      </c>
+      <c r="Y64" s="11" t="n">
+        <v>2099</v>
       </c>
       <c r="Z64" s="7" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="AA64" s="10" t="n">
-        <v>638</v>
+        <v>46.7</v>
+      </c>
+      <c r="AA64" s="11" t="n">
+        <v>1398</v>
       </c>
       <c r="AB64" s="7" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="AC64" s="11" t="n">
-        <v>1191</v>
+        <v>60.9</v>
+      </c>
+      <c r="AC64" s="12" t="n">
+        <v>2011</v>
       </c>
       <c r="AD64" s="7" t="n">
-        <v>63.4</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6440,85 +6440,85 @@
         <v>64</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E65" s="10" t="n">
-        <v>1366</v>
+        <v>73.7</v>
+      </c>
+      <c r="E65" s="11" t="n">
+        <v>1601</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="G65" s="11" t="n">
-        <v>863</v>
+        <v>65.5</v>
+      </c>
+      <c r="G65" s="10" t="n">
+        <v>738</v>
       </c>
       <c r="H65" s="9" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="I65" s="12" t="n">
-        <v>3087</v>
+        <v>81.8</v>
+      </c>
+      <c r="I65" s="11" t="n">
+        <v>2075</v>
       </c>
       <c r="J65" s="9" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="K65" s="6" t="n">
-        <v>1047</v>
+        <v>57.9</v>
+      </c>
+      <c r="K65" s="10" t="n">
+        <v>1549</v>
       </c>
       <c r="L65" s="9" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="M65" s="12" t="n">
-        <v>2611</v>
+        <v>64.59999999999999</v>
+      </c>
+      <c r="M65" s="6" t="n">
+        <v>94</v>
       </c>
       <c r="N65" s="9" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="O65" s="10" t="n">
-        <v>1640</v>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="O65" s="11" t="n">
+        <v>2276</v>
       </c>
       <c r="P65" s="9" t="n">
-        <v>64.40000000000001</v>
+        <v>47.5</v>
       </c>
       <c r="Q65" s="11" t="n">
-        <v>1651</v>
+        <v>1899</v>
       </c>
       <c r="R65" s="9" t="n">
-        <v>58.4</v>
+        <v>53.6</v>
       </c>
       <c r="S65" s="12" t="n">
-        <v>1625</v>
+        <v>1347</v>
       </c>
       <c r="T65" s="9" t="n">
-        <v>47.5</v>
+        <v>53.9</v>
       </c>
       <c r="U65" s="11" t="n">
-        <v>1479</v>
+        <v>1877</v>
       </c>
       <c r="V65" s="9" t="n">
-        <v>56</v>
+        <v>46.9</v>
       </c>
       <c r="W65" s="12" t="n">
-        <v>1665</v>
+        <v>1900</v>
       </c>
       <c r="X65" s="9" t="n">
-        <v>51.1</v>
+        <v>46.3</v>
       </c>
       <c r="Y65" s="11" t="n">
-        <v>2099</v>
+        <v>1414</v>
       </c>
       <c r="Z65" s="9" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="AA65" s="11" t="n">
-        <v>1398</v>
+        <v>60.8</v>
+      </c>
+      <c r="AA65" s="10" t="n">
+        <v>510</v>
       </c>
       <c r="AB65" s="9" t="n">
-        <v>60.9</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AC65" s="12" t="n">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="AD65" s="9" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6529,85 +6529,85 @@
         <v>65</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>73.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E66" s="11" t="n">
-        <v>1601</v>
+        <v>1833</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>65.5</v>
+        <v>61.9</v>
       </c>
       <c r="G66" s="10" t="n">
-        <v>738</v>
+        <v>651</v>
       </c>
       <c r="H66" s="7" t="n">
-        <v>81.8</v>
+        <v>83.3</v>
       </c>
       <c r="I66" s="11" t="n">
-        <v>2075</v>
+        <v>2257</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="K66" s="10" t="n">
-        <v>1549</v>
+        <v>55</v>
+      </c>
+      <c r="K66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L66" s="7" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="M66" s="6" t="n">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="M66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N66" s="7" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="O66" s="11" t="n">
-        <v>2276</v>
+        <v>0</v>
+      </c>
+      <c r="O66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="Q66" s="11" t="n">
-        <v>1899</v>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R66" s="7" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="S66" s="12" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="S66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T66" s="7" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="U66" s="11" t="n">
-        <v>1877</v>
+        <v>0</v>
+      </c>
+      <c r="U66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V66" s="7" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="W66" s="12" t="n">
-        <v>1900</v>
+        <v>0</v>
+      </c>
+      <c r="W66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="X66" s="7" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="Y66" s="11" t="n">
-        <v>1414</v>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="Z66" s="7" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="AA66" s="10" t="n">
-        <v>510</v>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AB66" s="7" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="AC66" s="12" t="n">
-        <v>2018</v>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="AD66" s="7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -6618,73 +6618,73 @@
         <v>66</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E67" s="11" t="n">
-        <v>1833</v>
+        <v>70.90000000000001</v>
+      </c>
+      <c r="E67" s="10" t="n">
+        <v>1172</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="G67" s="10" t="n">
-        <v>651</v>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H67" s="9" t="n">
-        <v>83.3</v>
+        <v>0</v>
       </c>
       <c r="I67" s="11" t="n">
-        <v>2257</v>
+        <v>1636</v>
       </c>
       <c r="J67" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>-2</v>
+        <v>64.7</v>
+      </c>
+      <c r="K67" s="11" t="n">
+        <v>2090</v>
       </c>
       <c r="L67" s="9" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="M67" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N67" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O67" s="9" t="n">
-        <v>-2</v>
+      <c r="O67" s="10" t="n">
+        <v>1293</v>
       </c>
       <c r="P67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="9" t="n">
-        <v>-2</v>
+        <v>70.90000000000001</v>
+      </c>
+      <c r="Q67" s="11" t="n">
+        <v>1169</v>
       </c>
       <c r="R67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" s="9" t="n">
-        <v>-2</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c r="S67" s="11" t="n">
+        <v>708</v>
       </c>
       <c r="T67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" s="9" t="n">
-        <v>-2</v>
+        <v>73.7</v>
+      </c>
+      <c r="U67" s="10" t="n">
+        <v>1271</v>
       </c>
       <c r="V67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" s="9" t="n">
-        <v>-2</v>
+        <v>65.8</v>
+      </c>
+      <c r="W67" s="12" t="n">
+        <v>1838</v>
       </c>
       <c r="X67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="9" t="n">
-        <v>-2</v>
+        <v>47.5</v>
+      </c>
+      <c r="Y67" s="11" t="n">
+        <v>1761</v>
       </c>
       <c r="Z67" s="9" t="n">
-        <v>0</v>
+        <v>53.7</v>
       </c>
       <c r="AA67" s="9" t="n">
         <v>-2</v>
@@ -6707,85 +6707,85 @@
         <v>67</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="E68" s="10" t="n">
-        <v>1172</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>751</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="G68" s="7" t="n">
-        <v>-1</v>
+        <v>88.5</v>
+      </c>
+      <c r="G68" s="12" t="n">
+        <v>1819</v>
       </c>
       <c r="H68" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11" t="n">
-        <v>1636</v>
+        <v>52.3</v>
+      </c>
+      <c r="I68" s="12" t="n">
+        <v>2911</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="K68" s="11" t="n">
-        <v>2090</v>
+        <v>39.9</v>
+      </c>
+      <c r="K68" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="L68" s="7" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="M68" s="7" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="M68" s="10" t="n">
+        <v>804</v>
       </c>
       <c r="N68" s="7" t="n">
-        <v>0</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="O68" s="10" t="n">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="Q68" s="11" t="n">
-        <v>1169</v>
+        <v>71.09999999999999</v>
+      </c>
+      <c r="Q68" s="10" t="n">
+        <v>736</v>
       </c>
       <c r="R68" s="7" t="n">
-        <v>67.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="S68" s="11" t="n">
-        <v>708</v>
+        <v>894</v>
       </c>
       <c r="T68" s="7" t="n">
-        <v>73.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="U68" s="10" t="n">
-        <v>1271</v>
+        <v>1095</v>
       </c>
       <c r="V68" s="7" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="W68" s="12" t="n">
-        <v>1838</v>
+        <v>69.8</v>
+      </c>
+      <c r="W68" s="11" t="n">
+        <v>792</v>
       </c>
       <c r="X68" s="7" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="Y68" s="11" t="n">
-        <v>1761</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Y68" s="12" t="n">
+        <v>2615</v>
       </c>
       <c r="Z68" s="7" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="AA68" s="7" t="n">
-        <v>-2</v>
+        <v>31</v>
+      </c>
+      <c r="AA68" s="11" t="n">
+        <v>1283</v>
       </c>
       <c r="AB68" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="7" t="n">
-        <v>-2</v>
+        <v>63.3</v>
+      </c>
+      <c r="AC68" s="11" t="n">
+        <v>736</v>
       </c>
       <c r="AD68" s="7" t="n">
-        <v>0</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -6796,85 +6796,85 @@
         <v>68</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="E69" s="6" t="n">
-        <v>751</v>
+        <v>69.7</v>
+      </c>
+      <c r="E69" s="10" t="n">
+        <v>1020</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="G69" s="12" t="n">
-        <v>1819</v>
+        <v>79.40000000000001</v>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H69" s="9" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="I69" s="12" t="n">
-        <v>2911</v>
+        <v>0</v>
+      </c>
+      <c r="I69" s="11" t="n">
+        <v>1945</v>
       </c>
       <c r="J69" s="9" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="K69" s="9" t="n">
-        <v>-1</v>
+        <v>59.9</v>
+      </c>
+      <c r="K69" s="11" t="n">
+        <v>2231</v>
       </c>
       <c r="L69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="10" t="n">
-        <v>804</v>
+        <v>46.2</v>
+      </c>
+      <c r="M69" s="11" t="n">
+        <v>1692</v>
       </c>
       <c r="N69" s="9" t="n">
-        <v>80.90000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="O69" s="10" t="n">
-        <v>1281</v>
+        <v>1125</v>
       </c>
       <c r="P69" s="9" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="Q69" s="10" t="n">
-        <v>736</v>
+        <v>74</v>
+      </c>
+      <c r="Q69" s="11" t="n">
+        <v>1195</v>
       </c>
       <c r="R69" s="9" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="S69" s="11" t="n">
-        <v>894</v>
+        <v>67.09999999999999</v>
+      </c>
+      <c r="S69" s="10" t="n">
+        <v>447</v>
       </c>
       <c r="T69" s="9" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="U69" s="10" t="n">
-        <v>1095</v>
+        <v>84.7</v>
+      </c>
+      <c r="U69" s="11" t="n">
+        <v>1717</v>
       </c>
       <c r="V69" s="9" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="W69" s="11" t="n">
-        <v>792</v>
+        <v>50.6</v>
+      </c>
+      <c r="W69" s="10" t="n">
+        <v>621</v>
       </c>
       <c r="X69" s="9" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="Y69" s="12" t="n">
-        <v>2615</v>
+        <v>82.3</v>
+      </c>
+      <c r="Y69" s="11" t="n">
+        <v>1582</v>
       </c>
       <c r="Z69" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA69" s="11" t="n">
-        <v>1283</v>
+        <v>57.3</v>
+      </c>
+      <c r="AA69" s="10" t="n">
+        <v>903</v>
       </c>
       <c r="AB69" s="9" t="n">
-        <v>63.3</v>
+        <v>76.2</v>
       </c>
       <c r="AC69" s="11" t="n">
-        <v>736</v>
+        <v>1242</v>
       </c>
       <c r="AD69" s="9" t="n">
-        <v>73.59999999999999</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -6885,13 +6885,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>69.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E70" s="10" t="n">
-        <v>1020</v>
+        <v>1054</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>79.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G70" s="7" t="n">
         <v>-1</v>
@@ -6900,70 +6900,70 @@
         <v>0</v>
       </c>
       <c r="I70" s="11" t="n">
-        <v>1945</v>
+        <v>1916</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="K70" s="11" t="n">
-        <v>2231</v>
+        <v>60.3</v>
+      </c>
+      <c r="K70" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="L70" s="7" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="M70" s="11" t="n">
-        <v>1692</v>
+        <v>0</v>
+      </c>
+      <c r="M70" s="10" t="n">
+        <v>182</v>
       </c>
       <c r="N70" s="7" t="n">
-        <v>60.3</v>
+        <v>91.8</v>
       </c>
       <c r="O70" s="10" t="n">
-        <v>1125</v>
+        <v>1319</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q70" s="11" t="n">
-        <v>1195</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="Q70" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="R70" s="7" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="S70" s="10" t="n">
-        <v>447</v>
+        <v>0</v>
+      </c>
+      <c r="S70" s="12" t="n">
+        <v>1903</v>
       </c>
       <c r="T70" s="7" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="U70" s="11" t="n">
-        <v>1717</v>
+        <v>41.1</v>
+      </c>
+      <c r="U70" s="6" t="n">
+        <v>794</v>
       </c>
       <c r="V70" s="7" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="W70" s="10" t="n">
-        <v>621</v>
+        <v>81.8</v>
+      </c>
+      <c r="W70" s="11" t="n">
+        <v>789</v>
       </c>
       <c r="X70" s="7" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="Y70" s="11" t="n">
-        <v>1582</v>
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Y70" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="Z70" s="7" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="AA70" s="10" t="n">
-        <v>903</v>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="11" t="n">
+        <v>1642</v>
       </c>
       <c r="AB70" s="7" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="AC70" s="11" t="n">
-        <v>1242</v>
+        <v>55.9</v>
+      </c>
+      <c r="AC70" s="12" t="n">
+        <v>2157</v>
       </c>
       <c r="AD70" s="7" t="n">
-        <v>62.3</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -6974,85 +6974,85 @@
         <v>70</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="E71" s="10" t="n">
-        <v>1054</v>
+        <v>69.5</v>
+      </c>
+      <c r="E71" s="12" t="n">
+        <v>2125</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="G71" s="9" t="n">
-        <v>-1</v>
+        <v>52.5</v>
+      </c>
+      <c r="G71" s="10" t="n">
+        <v>466</v>
       </c>
       <c r="H71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11" t="n">
-        <v>1916</v>
+        <v>86.59999999999999</v>
+      </c>
+      <c r="I71" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J71" s="9" t="n">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L71" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M71" s="10" t="n">
-        <v>182</v>
+      <c r="M71" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N71" s="9" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="O71" s="10" t="n">
-        <v>1319</v>
+        <v>0</v>
+      </c>
+      <c r="O71" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P71" s="9" t="n">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R71" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="S71" s="12" t="n">
-        <v>1903</v>
+      <c r="S71" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T71" s="9" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="U71" s="6" t="n">
-        <v>794</v>
+        <v>0</v>
+      </c>
+      <c r="U71" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V71" s="9" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="W71" s="11" t="n">
-        <v>789</v>
+        <v>0</v>
+      </c>
+      <c r="W71" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X71" s="9" t="n">
-        <v>73.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z71" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="AA71" s="11" t="n">
-        <v>1642</v>
+      <c r="AA71" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB71" s="9" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="AC71" s="12" t="n">
-        <v>2157</v>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD71" s="9" t="n">
-        <v>36.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7063,85 +7063,85 @@
         <v>71</v>
       </c>
       <c r="C72" s="5" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="E72" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="10" t="n">
+        <v>546</v>
+      </c>
+      <c r="H72" s="7" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="I72" s="11" t="n">
+        <v>2362</v>
+      </c>
+      <c r="J72" s="7" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="K72" s="6" t="n">
+        <v>1157</v>
+      </c>
+      <c r="L72" s="7" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="M72" s="11" t="n">
+        <v>1482</v>
+      </c>
+      <c r="N72" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="O72" s="10" t="n">
+        <v>1366</v>
+      </c>
+      <c r="P72" s="7" t="n">
         <v>69.5</v>
       </c>
-      <c r="E72" s="12" t="n">
-        <v>2125</v>
-      </c>
-      <c r="F72" s="7" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="G72" s="10" t="n">
-        <v>466</v>
-      </c>
-      <c r="H72" s="7" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="I72" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" s="7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="7" t="n">
-        <v>-2</v>
+      <c r="Q72" s="11" t="n">
+        <v>1880</v>
       </c>
       <c r="R72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" s="7" t="n">
-        <v>-2</v>
+        <v>54</v>
+      </c>
+      <c r="S72" s="12" t="n">
+        <v>1378</v>
       </c>
       <c r="T72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" s="7" t="n">
-        <v>-2</v>
+        <v>53.2</v>
+      </c>
+      <c r="U72" s="10" t="n">
+        <v>1079</v>
       </c>
       <c r="V72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" s="7" t="n">
-        <v>-2</v>
+        <v>70.2</v>
+      </c>
+      <c r="W72" s="10" t="n">
+        <v>268</v>
       </c>
       <c r="X72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="7" t="n">
-        <v>-2</v>
+        <v>89.5</v>
+      </c>
+      <c r="Y72" s="11" t="n">
+        <v>1178</v>
       </c>
       <c r="Z72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="7" t="n">
-        <v>-2</v>
+        <v>65.7</v>
+      </c>
+      <c r="AA72" s="11" t="n">
+        <v>1238</v>
       </c>
       <c r="AB72" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="7" t="n">
-        <v>-2</v>
+        <v>64.3</v>
+      </c>
+      <c r="AC72" s="11" t="n">
+        <v>1136</v>
       </c>
       <c r="AD72" s="7" t="n">
-        <v>0</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7152,85 +7152,85 @@
         <v>72</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="E73" s="9" t="n">
-        <v>-1</v>
+        <v>69</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>486</v>
       </c>
       <c r="F73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="10" t="n">
-        <v>546</v>
+        <v>92.59999999999999</v>
+      </c>
+      <c r="G73" s="12" t="n">
+        <v>2202</v>
       </c>
       <c r="H73" s="9" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="I73" s="11" t="n">
-        <v>2362</v>
+        <v>45.5</v>
+      </c>
+      <c r="I73" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J73" s="9" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="K73" s="6" t="n">
-        <v>1157</v>
+        <v>0</v>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L73" s="9" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="M73" s="11" t="n">
-        <v>1482</v>
+        <v>0</v>
+      </c>
+      <c r="M73" s="12" t="n">
+        <v>2884</v>
       </c>
       <c r="N73" s="9" t="n">
-        <v>64</v>
-      </c>
-      <c r="O73" s="10" t="n">
-        <v>1366</v>
+        <v>34.4</v>
+      </c>
+      <c r="O73" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="P73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="10" t="n">
+        <v>714</v>
+      </c>
+      <c r="R73" s="9" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="S73" s="11" t="n">
+        <v>888</v>
+      </c>
+      <c r="T73" s="9" t="n">
         <v>69.5</v>
       </c>
-      <c r="Q73" s="11" t="n">
-        <v>1880</v>
-      </c>
-      <c r="R73" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="S73" s="12" t="n">
-        <v>1378</v>
-      </c>
-      <c r="T73" s="9" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="U73" s="10" t="n">
-        <v>1079</v>
+      <c r="U73" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="V73" s="9" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="W73" s="10" t="n">
-        <v>268</v>
+        <v>0</v>
+      </c>
+      <c r="W73" s="12" t="n">
+        <v>1641</v>
       </c>
       <c r="X73" s="9" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="Y73" s="11" t="n">
-        <v>1178</v>
+        <v>51.5</v>
+      </c>
+      <c r="Y73" s="6" t="n">
+        <v>502</v>
       </c>
       <c r="Z73" s="9" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="AA73" s="11" t="n">
-        <v>1238</v>
+        <v>89.59999999999999</v>
+      </c>
+      <c r="AA73" s="6" t="n">
+        <v>233</v>
       </c>
       <c r="AB73" s="9" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="AC73" s="11" t="n">
-        <v>1136</v>
+        <v>95.2</v>
+      </c>
+      <c r="AC73" s="10" t="n">
+        <v>578</v>
       </c>
       <c r="AD73" s="9" t="n">
-        <v>64.7</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7241,85 +7241,85 @@
         <v>73</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="E74" s="6" t="n">
-        <v>486</v>
+        <v>68.5</v>
+      </c>
+      <c r="E74" s="11" t="n">
+        <v>1612</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="G74" s="12" t="n">
-        <v>2202</v>
+        <v>65.3</v>
+      </c>
+      <c r="G74" s="11" t="n">
+        <v>1016</v>
       </c>
       <c r="H74" s="7" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="I74" s="7" t="n">
-        <v>-2</v>
+        <v>71.8</v>
+      </c>
+      <c r="I74" s="12" t="n">
+        <v>3302</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" s="7" t="n">
-        <v>-2</v>
+        <v>33.8</v>
+      </c>
+      <c r="K74" s="11" t="n">
+        <v>2223</v>
       </c>
       <c r="L74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" s="12" t="n">
-        <v>2884</v>
+        <v>46.3</v>
+      </c>
+      <c r="M74" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="N74" s="7" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="O74" s="7" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="O74" s="11" t="n">
+        <v>1830</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="10" t="n">
-        <v>714</v>
+        <v>55.9</v>
+      </c>
+      <c r="Q74" s="12" t="n">
+        <v>2574</v>
       </c>
       <c r="R74" s="7" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="S74" s="11" t="n">
-        <v>888</v>
+        <v>35.7</v>
+      </c>
+      <c r="S74" s="12" t="n">
+        <v>2230</v>
       </c>
       <c r="T74" s="7" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="U74" s="7" t="n">
-        <v>-1</v>
+        <v>33.6</v>
+      </c>
+      <c r="U74" s="12" t="n">
+        <v>1951</v>
       </c>
       <c r="V74" s="7" t="n">
-        <v>0</v>
+        <v>40.2</v>
       </c>
       <c r="W74" s="12" t="n">
-        <v>1641</v>
+        <v>1373</v>
       </c>
       <c r="X74" s="7" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="Y74" s="6" t="n">
-        <v>502</v>
+        <v>57</v>
+      </c>
+      <c r="Y74" s="11" t="n">
+        <v>1876</v>
       </c>
       <c r="Z74" s="7" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="AA74" s="6" t="n">
-        <v>233</v>
+        <v>51.3</v>
+      </c>
+      <c r="AA74" s="11" t="n">
+        <v>1412</v>
       </c>
       <c r="AB74" s="7" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="AC74" s="10" t="n">
-        <v>578</v>
+        <v>60.6</v>
+      </c>
+      <c r="AC74" s="12" t="n">
+        <v>2119</v>
       </c>
       <c r="AD74" s="7" t="n">
-        <v>82.09999999999999</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7330,85 +7330,85 @@
         <v>74</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E75" s="11" t="n">
-        <v>1612</v>
+        <v>67.7</v>
+      </c>
+      <c r="E75" s="12" t="n">
+        <v>2368</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="G75" s="11" t="n">
-        <v>1016</v>
+        <v>48.8</v>
+      </c>
+      <c r="G75" s="12" t="n">
+        <v>1486</v>
       </c>
       <c r="H75" s="9" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="I75" s="12" t="n">
-        <v>3302</v>
+        <v>58.3</v>
+      </c>
+      <c r="I75" s="10" t="n">
+        <v>1156</v>
       </c>
       <c r="J75" s="9" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K75" s="11" t="n">
-        <v>2223</v>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L75" s="9" t="n">
-        <v>46.3</v>
+        <v>0</v>
       </c>
       <c r="M75" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N75" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O75" s="11" t="n">
-        <v>1830</v>
+      <c r="O75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P75" s="9" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="Q75" s="12" t="n">
-        <v>2574</v>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R75" s="9" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="S75" s="12" t="n">
-        <v>2230</v>
+        <v>0</v>
+      </c>
+      <c r="S75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T75" s="9" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="U75" s="12" t="n">
-        <v>1951</v>
+        <v>0</v>
+      </c>
+      <c r="U75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V75" s="9" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="W75" s="12" t="n">
-        <v>1373</v>
+        <v>0</v>
+      </c>
+      <c r="W75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X75" s="9" t="n">
-        <v>57</v>
-      </c>
-      <c r="Y75" s="11" t="n">
-        <v>1876</v>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z75" s="9" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="AA75" s="11" t="n">
-        <v>1412</v>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB75" s="9" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="AC75" s="12" t="n">
-        <v>2119</v>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD75" s="9" t="n">
-        <v>37.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -7419,85 +7419,85 @@
         <v>75</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E76" s="12" t="n">
-        <v>2368</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <v>2036</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="G76" s="12" t="n">
-        <v>1486</v>
+        <v>58.8</v>
+      </c>
+      <c r="G76" s="11" t="n">
+        <v>1192</v>
       </c>
       <c r="H76" s="7" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="I76" s="10" t="n">
-        <v>1156</v>
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I76" s="11" t="n">
+        <v>1513</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K76" s="7" t="n">
-        <v>-2</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K76" s="6" t="n">
+        <v>976</v>
       </c>
       <c r="L76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" s="7" t="n">
-        <v>-2</v>
+        <v>80.8</v>
+      </c>
+      <c r="M76" s="11" t="n">
+        <v>1479</v>
       </c>
       <c r="N76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" s="7" t="n">
-        <v>-2</v>
+        <v>64.09999999999999</v>
+      </c>
+      <c r="O76" s="10" t="n">
+        <v>1614</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="7" t="n">
-        <v>-2</v>
+        <v>64.90000000000001</v>
+      </c>
+      <c r="Q76" s="11" t="n">
+        <v>978</v>
       </c>
       <c r="R76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" s="7" t="n">
-        <v>-2</v>
+        <v>71.3</v>
+      </c>
+      <c r="S76" s="11" t="n">
+        <v>736</v>
       </c>
       <c r="T76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" s="7" t="n">
-        <v>-2</v>
+        <v>73</v>
+      </c>
+      <c r="U76" s="11" t="n">
+        <v>1644</v>
       </c>
       <c r="V76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" s="7" t="n">
-        <v>-2</v>
+        <v>52.2</v>
+      </c>
+      <c r="W76" s="12" t="n">
+        <v>1860</v>
       </c>
       <c r="X76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="7" t="n">
-        <v>-2</v>
+        <v>47.1</v>
+      </c>
+      <c r="Y76" s="10" t="n">
+        <v>985</v>
       </c>
       <c r="Z76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="7" t="n">
-        <v>-2</v>
+        <v>74.7</v>
+      </c>
+      <c r="AA76" s="10" t="n">
+        <v>648</v>
       </c>
       <c r="AB76" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="7" t="n">
-        <v>-2</v>
+        <v>81.5</v>
+      </c>
+      <c r="AC76" s="11" t="n">
+        <v>1210</v>
       </c>
       <c r="AD76" s="7" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -7508,85 +7508,85 @@
         <v>76</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E77" s="11" t="n">
-        <v>2036</v>
+        <v>1484</v>
       </c>
       <c r="F77" s="9" t="n">
-        <v>58.8</v>
+        <v>67.3</v>
       </c>
       <c r="G77" s="11" t="n">
-        <v>1192</v>
+        <v>1237</v>
       </c>
       <c r="H77" s="9" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="I77" s="11" t="n">
-        <v>1513</v>
+        <v>67.8</v>
+      </c>
+      <c r="I77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J77" s="9" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K77" s="6" t="n">
-        <v>976</v>
+        <v>0</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L77" s="9" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="M77" s="11" t="n">
-        <v>1479</v>
+        <v>0</v>
+      </c>
+      <c r="M77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N77" s="9" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="O77" s="10" t="n">
-        <v>1614</v>
+        <v>0</v>
+      </c>
+      <c r="O77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P77" s="9" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="Q77" s="11" t="n">
-        <v>978</v>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R77" s="9" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="S77" s="11" t="n">
-        <v>736</v>
+        <v>0</v>
+      </c>
+      <c r="S77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="T77" s="9" t="n">
-        <v>73</v>
-      </c>
-      <c r="U77" s="11" t="n">
-        <v>1644</v>
+        <v>0</v>
+      </c>
+      <c r="U77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V77" s="9" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="W77" s="12" t="n">
-        <v>1860</v>
+        <v>0</v>
+      </c>
+      <c r="W77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X77" s="9" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="Y77" s="10" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z77" s="9" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="AA77" s="10" t="n">
-        <v>648</v>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB77" s="9" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="AC77" s="11" t="n">
-        <v>1210</v>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AD77" s="9" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -7597,82 +7597,82 @@
         <v>77</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E78" s="11" t="n">
-        <v>1484</v>
+        <v>67</v>
+      </c>
+      <c r="E78" s="10" t="n">
+        <v>1357</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="G78" s="11" t="n">
-        <v>1237</v>
+        <v>74.2</v>
+      </c>
+      <c r="G78" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="H78" s="7" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="I78" s="7" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="I78" s="11" t="n">
+        <v>1949</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" s="7" t="n">
-        <v>-2</v>
+        <v>59.8</v>
+      </c>
+      <c r="K78" s="10" t="n">
+        <v>1486</v>
       </c>
       <c r="L78" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" s="7" t="n">
-        <v>-2</v>
+        <v>65.8</v>
+      </c>
+      <c r="M78" s="11" t="n">
+        <v>96</v>
       </c>
       <c r="N78" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" s="7" t="n">
-        <v>-2</v>
+        <v>88.3</v>
+      </c>
+      <c r="O78" s="12" t="n">
+        <v>2698</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="7" t="n">
-        <v>-2</v>
+        <v>34.7</v>
+      </c>
+      <c r="Q78" s="10" t="n">
+        <v>510</v>
       </c>
       <c r="R78" s="7" t="n">
-        <v>0</v>
+        <v>85.2</v>
       </c>
       <c r="S78" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T78" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U78" s="7" t="n">
-        <v>-2</v>
+      <c r="U78" s="11" t="n">
+        <v>1458</v>
       </c>
       <c r="V78" s="7" t="n">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="W78" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X78" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Y78" s="7" t="n">
-        <v>-2</v>
+      <c r="Y78" s="10" t="n">
+        <v>817</v>
       </c>
       <c r="Z78" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="7" t="n">
-        <v>-2</v>
+        <v>78.09999999999999</v>
+      </c>
+      <c r="AA78" s="10" t="n">
+        <v>958</v>
       </c>
       <c r="AB78" s="7" t="n">
-        <v>0</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="AC78" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD78" s="7" t="n">
         <v>0</v>
@@ -7686,82 +7686,82 @@
         <v>78</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>67</v>
-      </c>
-      <c r="E79" s="10" t="n">
-        <v>1357</v>
+        <v>66</v>
+      </c>
+      <c r="E79" s="11" t="n">
+        <v>1569</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>74.2</v>
+        <v>66</v>
       </c>
       <c r="G79" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H79" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="I79" s="11" t="n">
-        <v>1949</v>
+      <c r="I79" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="J79" s="9" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="K79" s="10" t="n">
-        <v>1486</v>
+        <v>0</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L79" s="9" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="M79" s="11" t="n">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="M79" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N79" s="9" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="O79" s="12" t="n">
-        <v>2698</v>
+        <v>0</v>
+      </c>
+      <c r="O79" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P79" s="9" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="Q79" s="10" t="n">
-        <v>510</v>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="R79" s="9" t="n">
-        <v>85.2</v>
+        <v>0</v>
       </c>
       <c r="S79" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T79" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="U79" s="11" t="n">
-        <v>1458</v>
+      <c r="U79" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="V79" s="9" t="n">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="W79" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X79" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Y79" s="10" t="n">
-        <v>817</v>
+      <c r="Y79" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z79" s="9" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="AA79" s="10" t="n">
-        <v>958</v>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB79" s="9" t="n">
-        <v>75.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC79" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD79" s="9" t="n">
         <v>0</v>
@@ -7775,13 +7775,13 @@
         <v>79</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>66</v>
+        <v>64.5</v>
       </c>
       <c r="E80" s="11" t="n">
-        <v>1569</v>
+        <v>1667</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>66</v>
+        <v>64.5</v>
       </c>
       <c r="G80" s="7" t="n">
         <v>-2</v>
@@ -7864,37 +7864,37 @@
         <v>80</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E81" s="11" t="n">
-        <v>1667</v>
+        <v>63.2</v>
+      </c>
+      <c r="E81" s="10" t="n">
+        <v>1295</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>64.5</v>
+        <v>75.2</v>
       </c>
       <c r="G81" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H81" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="I81" s="9" t="n">
-        <v>-2</v>
+      <c r="I81" s="11" t="n">
+        <v>2506</v>
       </c>
       <c r="J81" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>-2</v>
+        <v>51.2</v>
+      </c>
+      <c r="K81" s="11" t="n">
+        <v>2402</v>
       </c>
       <c r="L81" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" s="9" t="n">
-        <v>-2</v>
+        <v>42.8</v>
+      </c>
+      <c r="M81" s="11" t="n">
+        <v>2234</v>
       </c>
       <c r="N81" s="9" t="n">
-        <v>0</v>
+        <v>50.8</v>
       </c>
       <c r="O81" s="9" t="n">
         <v>-2</v>
@@ -7953,82 +7953,82 @@
         <v>81</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="E82" s="10" t="n">
-        <v>1295</v>
+        <v>61.6</v>
+      </c>
+      <c r="E82" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="G82" s="7" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="G82" s="11" t="n">
+        <v>1193</v>
       </c>
       <c r="H82" s="7" t="n">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I82" s="11" t="n">
-        <v>2506</v>
+        <v>2283</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="K82" s="11" t="n">
-        <v>2402</v>
+        <v>54.6</v>
+      </c>
+      <c r="K82" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="L82" s="7" t="n">
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="M82" s="11" t="n">
-        <v>2234</v>
+        <v>1767</v>
       </c>
       <c r="N82" s="7" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="O82" s="7" t="n">
-        <v>-2</v>
+        <v>59</v>
+      </c>
+      <c r="O82" s="11" t="n">
+        <v>2001</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="7" t="n">
-        <v>-2</v>
+        <v>52.7</v>
+      </c>
+      <c r="Q82" s="11" t="n">
+        <v>1632</v>
       </c>
       <c r="R82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" s="7" t="n">
-        <v>-2</v>
+        <v>58.7</v>
+      </c>
+      <c r="S82" s="12" t="n">
+        <v>2138</v>
       </c>
       <c r="T82" s="7" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="U82" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V82" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="W82" s="7" t="n">
-        <v>-2</v>
+      <c r="W82" s="11" t="n">
+        <v>798</v>
       </c>
       <c r="X82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="7" t="n">
-        <v>-2</v>
+        <v>73.7</v>
+      </c>
+      <c r="Y82" s="10" t="n">
+        <v>598</v>
       </c>
       <c r="Z82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="7" t="n">
-        <v>-2</v>
+        <v>82.7</v>
+      </c>
+      <c r="AA82" s="11" t="n">
+        <v>1144</v>
       </c>
       <c r="AB82" s="7" t="n">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="AC82" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD82" s="7" t="n">
         <v>0</v>
@@ -8042,25 +8042,25 @@
         <v>82</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="E83" s="9" t="n">
-        <v>-1</v>
+        <v>59.9</v>
+      </c>
+      <c r="E83" s="11" t="n">
+        <v>2047</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="11" t="n">
-        <v>1193</v>
+        <v>58.7</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="H83" s="9" t="n">
-        <v>68.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="I83" s="11" t="n">
-        <v>2283</v>
+        <v>1863</v>
       </c>
       <c r="J83" s="9" t="n">
-        <v>54.6</v>
+        <v>61.1</v>
       </c>
       <c r="K83" s="9" t="n">
         <v>-1</v>
@@ -8068,56 +8068,56 @@
       <c r="L83" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M83" s="11" t="n">
-        <v>1767</v>
+      <c r="M83" s="10" t="n">
+        <v>810</v>
       </c>
       <c r="N83" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="O83" s="11" t="n">
-        <v>2001</v>
+        <v>80.8</v>
+      </c>
+      <c r="O83" s="10" t="n">
+        <v>1017</v>
       </c>
       <c r="P83" s="9" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="Q83" s="11" t="n">
-        <v>1632</v>
+        <v>76</v>
+      </c>
+      <c r="Q83" s="12" t="n">
+        <v>2171</v>
       </c>
       <c r="R83" s="9" t="n">
-        <v>58.7</v>
+        <v>43.4</v>
       </c>
       <c r="S83" s="12" t="n">
-        <v>2138</v>
+        <v>1235</v>
       </c>
       <c r="T83" s="9" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="U83" s="9" t="n">
-        <v>-1</v>
+        <v>56.5</v>
+      </c>
+      <c r="U83" s="10" t="n">
+        <v>1038</v>
       </c>
       <c r="V83" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W83" s="11" t="n">
-        <v>798</v>
+        <v>71.2</v>
+      </c>
+      <c r="W83" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="X83" s="9" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="Y83" s="10" t="n">
-        <v>598</v>
+        <v>0</v>
+      </c>
+      <c r="Y83" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="Z83" s="9" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="AA83" s="11" t="n">
-        <v>1144</v>
+        <v>0</v>
+      </c>
+      <c r="AA83" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="AB83" s="9" t="n">
-        <v>66.2</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD83" s="9" t="n">
         <v>0</v>
@@ -8131,61 +8131,61 @@
         <v>83</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="E84" s="11" t="n">
-        <v>2047</v>
+        <v>59.2</v>
+      </c>
+      <c r="E84" s="12" t="n">
+        <v>2177</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="G84" s="7" t="n">
-        <v>-1</v>
+        <v>51.7</v>
+      </c>
+      <c r="G84" s="11" t="n">
+        <v>1296</v>
       </c>
       <c r="H84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11" t="n">
-        <v>1863</v>
+        <v>66.7</v>
+      </c>
+      <c r="I84" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>61.1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L84" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M84" s="10" t="n">
-        <v>810</v>
+      <c r="M84" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N84" s="7" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="O84" s="10" t="n">
-        <v>1017</v>
+        <v>0</v>
+      </c>
+      <c r="O84" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>76</v>
-      </c>
-      <c r="Q84" s="12" t="n">
-        <v>2171</v>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R84" s="7" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="S84" s="12" t="n">
-        <v>1235</v>
+        <v>0</v>
+      </c>
+      <c r="S84" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="T84" s="7" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="U84" s="10" t="n">
-        <v>1038</v>
+        <v>0</v>
+      </c>
+      <c r="U84" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="V84" s="7" t="n">
-        <v>71.2</v>
+        <v>0</v>
       </c>
       <c r="W84" s="7" t="n">
         <v>-2</v>
@@ -8220,19 +8220,19 @@
         <v>84</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="E85" s="12" t="n">
-        <v>2177</v>
+        <v>58.1</v>
+      </c>
+      <c r="E85" s="11" t="n">
+        <v>2083</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="G85" s="11" t="n">
-        <v>1296</v>
+        <v>58.1</v>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="H85" s="9" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="I85" s="9" t="n">
         <v>-2</v>
@@ -8309,43 +8309,43 @@
         <v>85</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="E86" s="11" t="n">
-        <v>2083</v>
+        <v>51.9</v>
+      </c>
+      <c r="E86" s="12" t="n">
+        <v>2123</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>58.1</v>
+        <v>52.5</v>
       </c>
       <c r="G86" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H86" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I86" s="7" t="n">
-        <v>-2</v>
+      <c r="I86" s="11" t="n">
+        <v>2502</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" s="7" t="n">
-        <v>-2</v>
+        <v>51.2</v>
+      </c>
+      <c r="K86" s="12" t="n">
+        <v>2702</v>
       </c>
       <c r="L86" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" s="7" t="n">
-        <v>-2</v>
+        <v>31.9</v>
+      </c>
+      <c r="M86" s="12" t="n">
+        <v>2944</v>
       </c>
       <c r="N86" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" s="7" t="n">
-        <v>-2</v>
+        <v>33.4</v>
+      </c>
+      <c r="O86" s="11" t="n">
+        <v>2068</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>0</v>
+        <v>51.4</v>
       </c>
       <c r="Q86" s="7" t="n">
         <v>-2</v>
@@ -8398,43 +8398,43 @@
         <v>86</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="E87" s="12" t="n">
-        <v>2123</v>
+        <v>2223</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="G87" s="9" t="n">
-        <v>-1</v>
+        <v>51</v>
+      </c>
+      <c r="G87" s="12" t="n">
+        <v>1804</v>
       </c>
       <c r="H87" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="11" t="n">
-        <v>2502</v>
+        <v>52.6</v>
+      </c>
+      <c r="I87" s="12" t="n">
+        <v>3124</v>
       </c>
       <c r="J87" s="9" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="K87" s="12" t="n">
-        <v>2702</v>
+        <v>36.6</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="L87" s="9" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="M87" s="12" t="n">
-        <v>2944</v>
+        <v>0</v>
+      </c>
+      <c r="M87" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="N87" s="9" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="O87" s="11" t="n">
-        <v>2068</v>
+        <v>0</v>
+      </c>
+      <c r="O87" s="9" t="n">
+        <v>-2</v>
       </c>
       <c r="P87" s="9" t="n">
-        <v>51.4</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="9" t="n">
         <v>-2</v>
@@ -8487,37 +8487,37 @@
         <v>87</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>51.8</v>
+        <v>51.6</v>
       </c>
       <c r="E88" s="12" t="n">
-        <v>2223</v>
+        <v>2501</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>51</v>
+        <v>46.7</v>
       </c>
       <c r="G88" s="12" t="n">
-        <v>1804</v>
+        <v>2572</v>
       </c>
       <c r="H88" s="7" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="I88" s="12" t="n">
-        <v>3124</v>
+        <v>38.8</v>
+      </c>
+      <c r="I88" s="11" t="n">
+        <v>2158</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K88" s="7" t="n">
-        <v>-2</v>
+        <v>56.6</v>
+      </c>
+      <c r="K88" s="11" t="n">
+        <v>2619</v>
       </c>
       <c r="L88" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" s="7" t="n">
-        <v>-2</v>
+        <v>38.5</v>
+      </c>
+      <c r="M88" s="11" t="n">
+        <v>2218</v>
       </c>
       <c r="N88" s="7" t="n">
-        <v>0</v>
+        <v>51.1</v>
       </c>
       <c r="O88" s="7" t="n">
         <v>-2</v>
@@ -8576,37 +8576,37 @@
         <v>88</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="E89" s="12" t="n">
-        <v>2501</v>
+        <v>51.3</v>
+      </c>
+      <c r="E89" s="11" t="n">
+        <v>1766</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>46.7</v>
+        <v>63</v>
       </c>
       <c r="G89" s="12" t="n">
-        <v>2572</v>
+        <v>2537</v>
       </c>
       <c r="H89" s="9" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="I89" s="11" t="n">
-        <v>2158</v>
+        <v>39.5</v>
+      </c>
+      <c r="I89" s="12" t="n">
+        <v>3274</v>
       </c>
       <c r="J89" s="9" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="K89" s="11" t="n">
-        <v>2619</v>
+        <v>34.3</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>-1</v>
       </c>
       <c r="L89" s="9" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="M89" s="11" t="n">
-        <v>2218</v>
+        <v>1816</v>
       </c>
       <c r="N89" s="9" t="n">
-        <v>51.1</v>
+        <v>58.2</v>
       </c>
       <c r="O89" s="9" t="n">
         <v>-2</v>
@@ -8665,37 +8665,37 @@
         <v>89</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="E90" s="11" t="n">
-        <v>1766</v>
+        <v>48.4</v>
+      </c>
+      <c r="E90" s="12" t="n">
+        <v>2209</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>63</v>
+        <v>51.2</v>
       </c>
       <c r="G90" s="12" t="n">
-        <v>2537</v>
+        <v>2198</v>
       </c>
       <c r="H90" s="7" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="I90" s="12" t="n">
-        <v>3274</v>
+        <v>45.5</v>
+      </c>
+      <c r="I90" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="K90" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L90" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M90" s="11" t="n">
-        <v>1816</v>
+      <c r="M90" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="N90" s="7" t="n">
-        <v>58.2</v>
+        <v>0</v>
       </c>
       <c r="O90" s="7" t="n">
         <v>-2</v>
@@ -8754,64 +8754,64 @@
         <v>90</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>48.4</v>
+        <v>46.2</v>
       </c>
       <c r="E91" s="12" t="n">
-        <v>2209</v>
+        <v>2818</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>51.2</v>
+        <v>41.9</v>
       </c>
       <c r="G91" s="12" t="n">
-        <v>2198</v>
+        <v>1921</v>
       </c>
       <c r="H91" s="9" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="I91" s="9" t="n">
-        <v>-2</v>
+        <v>50.5</v>
+      </c>
+      <c r="I91" s="12" t="n">
+        <v>2815</v>
       </c>
       <c r="J91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" s="9" t="n">
-        <v>-2</v>
+        <v>41.4</v>
+      </c>
+      <c r="K91" s="11" t="n">
+        <v>2029</v>
       </c>
       <c r="L91" s="9" t="n">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="M91" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N91" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O91" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P91" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q91" s="9" t="n">
-        <v>-2</v>
+      <c r="Q91" s="12" t="n">
+        <v>2526</v>
       </c>
       <c r="R91" s="9" t="n">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="S91" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T91" s="9" t="n">
         <v>0</v>
       </c>
       <c r="U91" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V91" s="9" t="n">
         <v>0</v>
       </c>
       <c r="W91" s="9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X91" s="9" t="n">
         <v>0</v>
@@ -8843,64 +8843,64 @@
         <v>91</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="E92" s="12" t="n">
-        <v>2818</v>
+        <v>45</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>659</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="G92" s="12" t="n">
-        <v>1921</v>
+        <v>89.90000000000001</v>
+      </c>
+      <c r="G92" s="7" t="n">
+        <v>-1</v>
       </c>
       <c r="H92" s="7" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="I92" s="12" t="n">
-        <v>2815</v>
+        <v>0</v>
+      </c>
+      <c r="I92" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K92" s="11" t="n">
-        <v>2029</v>
+        <v>0</v>
+      </c>
+      <c r="K92" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="L92" s="7" t="n">
-        <v>50.1</v>
+        <v>0</v>
       </c>
       <c r="M92" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N92" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O92" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P92" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q92" s="12" t="n">
-        <v>2526</v>
+      <c r="Q92" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="R92" s="7" t="n">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="S92" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T92" s="7" t="n">
         <v>0</v>
       </c>
       <c r="U92" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V92" s="7" t="n">
         <v>0</v>
       </c>
       <c r="W92" s="7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X92" s="7" t="n">
         <v>0</v>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>Contest</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>zhangsikai123</t>
-  </si>
-  <si>
-    <t>zhengkaiwei</t>
   </si>
 </sst>
 </file>
@@ -900,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE153"/>
+  <dimension ref="A1:AE152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13049,95 +13046,6 @@
       </c>
       <c r="AD152" s="18" t="n">
         <v>50.7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31">
-      <c r="A153" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E153" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB153" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC153" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD153" s="22" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13310,7 +13218,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId135"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId136"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B153" r:id="rId138"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>Contest</t>
   </si>
@@ -326,7 +326,10 @@
     <t>More about the Rules</t>
   </si>
   <si>
-    <t>See the full list of daily problems</t>
+    <t>Full list of daily problems</t>
+  </si>
+  <si>
+    <t>Recommended resources</t>
   </si>
   <si>
     <t>Graduated or laidoff members in 2019</t>
@@ -9572,20 +9575,25 @@
         <v>103</v>
       </c>
     </row>
+    <row r="109" spans="1:31">
+      <c r="B109" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="112" spans="1:31">
       <c r="B112" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:31">
       <c r="A114" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B114" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="E114" s="18" t="n">
         <v>-3</v>
@@ -9668,13 +9676,13 @@
     </row>
     <row r="115" spans="1:31">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>-3</v>
@@ -9757,13 +9765,13 @@
     </row>
     <row r="116" spans="1:31">
       <c r="A116" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E116" s="18" t="n">
         <v>-3</v>
@@ -9846,13 +9854,13 @@
     </row>
     <row r="117" spans="1:31">
       <c r="A117" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E117" s="22" t="n">
         <v>-3</v>
@@ -9935,13 +9943,13 @@
     </row>
     <row r="118" spans="1:31">
       <c r="A118" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E118" s="18" t="n">
         <v>-3</v>
@@ -10024,13 +10032,13 @@
     </row>
     <row r="119" spans="1:31">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E119" s="22" t="n">
         <v>-3</v>
@@ -10113,13 +10121,13 @@
     </row>
     <row r="120" spans="1:31">
       <c r="A120" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E120" s="18" t="n">
         <v>-3</v>
@@ -10202,13 +10210,13 @@
     </row>
     <row r="121" spans="1:31">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E121" s="22" t="n">
         <v>-3</v>
@@ -10291,13 +10299,13 @@
     </row>
     <row r="122" spans="1:31">
       <c r="A122" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E122" s="18" t="n">
         <v>-3</v>
@@ -10380,13 +10388,13 @@
     </row>
     <row r="123" spans="1:31">
       <c r="A123" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E123" s="22" t="n">
         <v>-3</v>
@@ -10469,13 +10477,13 @@
     </row>
     <row r="124" spans="1:31">
       <c r="A124" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E124" s="18" t="n">
         <v>-3</v>
@@ -10558,13 +10566,13 @@
     </row>
     <row r="125" spans="1:31">
       <c r="A125" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E125" s="22" t="n">
         <v>-3</v>
@@ -10647,13 +10655,13 @@
     </row>
     <row r="126" spans="1:31">
       <c r="A126" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E126" s="18" t="n">
         <v>-3</v>
@@ -10736,13 +10744,13 @@
     </row>
     <row r="127" spans="1:31">
       <c r="A127" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E127" s="22" t="n">
         <v>-3</v>
@@ -10825,13 +10833,13 @@
     </row>
     <row r="128" spans="1:31">
       <c r="A128" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E128" s="18" t="n">
         <v>-3</v>
@@ -10914,13 +10922,13 @@
     </row>
     <row r="129" spans="1:31">
       <c r="A129" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E129" s="22" t="n">
         <v>-3</v>
@@ -11003,13 +11011,13 @@
     </row>
     <row r="130" spans="1:31">
       <c r="A130" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E130" s="18" t="n">
         <v>-3</v>
@@ -11092,13 +11100,13 @@
     </row>
     <row r="131" spans="1:31">
       <c r="A131" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E131" s="22" t="n">
         <v>-3</v>
@@ -11181,13 +11189,13 @@
     </row>
     <row r="132" spans="1:31">
       <c r="A132" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E132" s="18" t="n">
         <v>-3</v>
@@ -11270,13 +11278,13 @@
     </row>
     <row r="133" spans="1:31">
       <c r="A133" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E133" s="22" t="n">
         <v>-3</v>
@@ -11359,13 +11367,13 @@
     </row>
     <row r="134" spans="1:31">
       <c r="A134" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E134" s="18" t="n">
         <v>-3</v>
@@ -11448,13 +11456,13 @@
     </row>
     <row r="135" spans="1:31">
       <c r="A135" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E135" s="22" t="n">
         <v>-3</v>
@@ -11537,13 +11545,13 @@
     </row>
     <row r="136" spans="1:31">
       <c r="A136" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E136" s="18" t="n">
         <v>-3</v>
@@ -11626,13 +11634,13 @@
     </row>
     <row r="137" spans="1:31">
       <c r="A137" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E137" s="22" t="n">
         <v>-3</v>
@@ -11715,13 +11723,13 @@
     </row>
     <row r="138" spans="1:31">
       <c r="A138" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E138" s="18" t="n">
         <v>-3</v>
@@ -11804,13 +11812,13 @@
     </row>
     <row r="139" spans="1:31">
       <c r="A139" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E139" s="22" t="n">
         <v>-3</v>
@@ -11893,13 +11901,13 @@
     </row>
     <row r="140" spans="1:31">
       <c r="A140" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E140" s="18" t="n">
         <v>-3</v>
@@ -11982,13 +11990,13 @@
     </row>
     <row r="141" spans="1:31">
       <c r="A141" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E141" s="22" t="n">
         <v>-3</v>
@@ -12071,13 +12079,13 @@
     </row>
     <row r="142" spans="1:31">
       <c r="A142" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E142" s="18" t="n">
         <v>-3</v>
@@ -12160,13 +12168,13 @@
     </row>
     <row r="143" spans="1:31">
       <c r="A143" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E143" s="22" t="n">
         <v>-3</v>
@@ -12249,13 +12257,13 @@
     </row>
     <row r="144" spans="1:31">
       <c r="A144" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E144" s="18" t="n">
         <v>-3</v>
@@ -12338,13 +12346,13 @@
     </row>
     <row r="145" spans="1:31">
       <c r="A145" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E145" s="22" t="n">
         <v>-3</v>
@@ -12427,13 +12435,13 @@
     </row>
     <row r="146" spans="1:31">
       <c r="A146" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E146" s="18" t="n">
         <v>-3</v>
@@ -12516,13 +12524,13 @@
     </row>
     <row r="147" spans="1:31">
       <c r="A147" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E147" s="22" t="n">
         <v>-3</v>
@@ -12605,13 +12613,13 @@
     </row>
     <row r="148" spans="1:31">
       <c r="A148" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E148" s="18" t="n">
         <v>-3</v>
@@ -12694,13 +12702,13 @@
     </row>
     <row r="149" spans="1:31">
       <c r="A149" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E149" s="22" t="n">
         <v>-3</v>
@@ -12783,13 +12791,13 @@
     </row>
     <row r="150" spans="1:31">
       <c r="A150" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E150" s="18" t="n">
         <v>-3</v>
@@ -12872,13 +12880,13 @@
     </row>
     <row r="151" spans="1:31">
       <c r="A151" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E151" s="22" t="n">
         <v>-3</v>
@@ -12961,13 +12969,13 @@
     </row>
     <row r="152" spans="1:31">
       <c r="A152" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E152" s="18" t="n">
         <v>-3</v>
@@ -13049,7 +13057,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G1:H1"/>
@@ -13078,6 +13086,7 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="B107:G107"/>
     <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
     <mergeCell ref="B112:J112"/>
   </mergeCells>
   <hyperlinks>
@@ -13179,45 +13188,46 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B99" r:id="rId96"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B107" r:id="rId97"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B108" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B114" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B115" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B116" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B117" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B120" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B121" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B122" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B123" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B124" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B128" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B129" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B130" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B131" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B132" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B133" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B135" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B137" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B140" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B141" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B142" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B143" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B144" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B149" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B109" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B114" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B115" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B116" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B117" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B120" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B121" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B122" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B123" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B124" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B128" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B129" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B130" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B131" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B132" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B133" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B135" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B137" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B140" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B141" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B142" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B143" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B144" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B149" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" r:id="rId138"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -9807,6 +9807,11 @@
       <c r="AD117" s="21" t="n">
         <v>62.9</v>
       </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>Grab-Logo</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="15" t="inlineStr">
@@ -10672,6 +10677,11 @@
       <c r="AD126" s="17" t="n">
         <v>36.4</v>
       </c>
+      <c r="AE126" t="inlineStr">
+        <is>
+          <t>Microsoft-Logo</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -12011,6 +12021,11 @@
       </c>
       <c r="AD140" s="17" t="n">
         <v>88.5</v>
+      </c>
+      <c r="AE140" t="inlineStr">
+        <is>
+          <t>Walmart-Logo</t>
+        </is>
       </c>
     </row>
     <row r="141">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -3138,6 +3138,11 @@
       <c r="AD31" s="10" t="n">
         <v>0</v>
       </c>
+      <c r="AE31" s="8" t="inlineStr">
+        <is>
+          <t>Twilio-Logo</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -5175,6 +5175,11 @@
       <c r="AD53" s="10" t="n">
         <v>0</v>
       </c>
+      <c r="AE53" s="8" t="inlineStr">
+        <is>
+          <t>Arista-Logo</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -10310,6 +10310,11 @@
       <c r="AD122" s="18" t="n">
         <v>61</v>
       </c>
+      <c r="AE122" s="8" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -11460,6 +11465,11 @@
       <c r="AD134" s="18" t="n">
         <v>65.09999999999999</v>
       </c>
+      <c r="AE134" s="8" t="inlineStr">
+        <is>
+          <t>ByteDance-Logo</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -11939,6 +11949,11 @@
       </c>
       <c r="AD139" s="22" t="n">
         <v>80.7</v>
+      </c>
+      <c r="AE139" s="8" t="inlineStr">
+        <is>
+          <t>SnowFlake-Logo</t>
+        </is>
       </c>
     </row>
     <row r="140">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -13210,6 +13210,11 @@
       <c r="AD152" s="18" t="n">
         <v>50.7</v>
       </c>
+      <c r="AE152" s="8" t="inlineStr">
+        <is>
+          <t>RedBook-Logo</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -9694,17 +9694,17 @@
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>shuizhouwang</t>
+          <t>liuguanhualouie</t>
         </is>
       </c>
       <c r="C97" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="10" t="n">
-        <v>-1</v>
+        <v>21.2</v>
+      </c>
+      <c r="E97" s="13" t="n">
+        <v>2605</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="G97" s="10" t="n">
         <v>-1</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L97" s="10" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>liuguanhuaLouie</t>
+          <t>shuizhouwang</t>
         </is>
       </c>
       <c r="C98" s="5" t="n">
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L98" s="7" t="n">
         <v>0</v>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -33,7 +33,7 @@
       <sz val="15"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="9">
@@ -105,10 +105,10 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -530,12 +530,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>Score</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Days</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
+        <v>171</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>171</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>3</v>
@@ -695,11 +695,11 @@
           <t>suzyzhang</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>99.2</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>20</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>70</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>98.40000000000001</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>96</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>108</v>
@@ -900,11 +900,11 @@
           <t>wisdompeak</t>
         </is>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="11" t="n">
+        <v>221</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>98.2</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>221</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>404</v>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="n">
         <v>98.09999999999999</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>22</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>137</v>
@@ -1105,11 +1105,11 @@
           <t>shshwdr</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="11" t="n">
+        <v>186</v>
+      </c>
+      <c r="D9" s="6" t="n">
         <v>97.90000000000001</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>186</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>75</v>
@@ -1206,10 +1206,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>97.3</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>220</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>241</v>
@@ -1305,11 +1305,11 @@
           <t>Arco</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>96.8</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>23</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>358</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D12" s="6" t="n">
         <v>96.59999999999999</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>95</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>232</v>
@@ -1505,11 +1505,11 @@
           <t>yueb95</t>
         </is>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="11" t="n">
+        <v>145</v>
+      </c>
+      <c r="D13" s="6" t="n">
         <v>96.3</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>145</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>333</v>
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>96.3</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>113</v>
       </c>
       <c r="E14" s="13" t="n">
         <v>1032</v>
@@ -1715,11 +1715,11 @@
           <t>galiniunan</t>
         </is>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>96.2</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>198</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>851</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
+        <v>192</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>96</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>192</v>
       </c>
       <c r="E16" s="8" t="n">
         <v>-1</v>
@@ -1920,11 +1920,11 @@
           <t>sdliuyuzhi</t>
         </is>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="11" t="n">
+        <v>203</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>95.90000000000001</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>203</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>927</v>
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="n">
         <v>95.8</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>54</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>609</v>
@@ -2120,11 +2120,11 @@
           <t>XingxingHuang</t>
         </is>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="11" t="n">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6" t="n">
         <v>95.2</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>93</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>277</v>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
+        <v>185</v>
+      </c>
+      <c r="D20" s="6" t="n">
         <v>95.09999999999999</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>185</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>433</v>
@@ -2325,11 +2325,11 @@
           <t>TOYAMA_NAO</t>
         </is>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="11" t="n">
+        <v>204</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>94.8</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>204</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>392</v>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D22" s="6" t="n">
         <v>94.7</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>39</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>380</v>
@@ -2525,11 +2525,11 @@
           <t>venico19</t>
         </is>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="n">
         <v>93.5</v>
-      </c>
-      <c r="D23" s="11" t="n">
-        <v>42</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>606</v>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
+        <v>170</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>93.3</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>170</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>439</v>
@@ -2730,11 +2730,11 @@
           <t>OneDirection</t>
         </is>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="11" t="n">
+        <v>221</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>93.2</v>
-      </c>
-      <c r="D25" s="11" t="n">
-        <v>221</v>
       </c>
       <c r="E25" s="13" t="n">
         <v>1104</v>
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6" t="n">
         <v>93.09999999999999</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>26</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>721</v>
@@ -2940,11 +2940,11 @@
           <t>siqiaochen</t>
         </is>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="11" t="n">
+        <v>205</v>
+      </c>
+      <c r="D27" s="6" t="n">
         <v>93</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>205</v>
       </c>
       <c r="E27" s="13" t="n">
         <v>1216</v>
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="D28" s="6" t="n">
         <v>92.59999999999999</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>180</v>
       </c>
       <c r="E28" s="13" t="n">
         <v>1507</v>
@@ -3140,11 +3140,11 @@
           <t>huange</t>
         </is>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="D29" s="6" t="n">
         <v>92.3</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>44</v>
       </c>
       <c r="E29" s="7" t="n">
         <v>587</v>
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="D30" s="6" t="n">
         <v>92.2</v>
-      </c>
-      <c r="D30" s="6" t="n">
-        <v>124</v>
       </c>
       <c r="E30" s="8" t="n">
         <v>-1</v>
@@ -3345,11 +3345,11 @@
           <t>Golden_Fish</t>
         </is>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6" t="n">
         <v>92</v>
-      </c>
-      <c r="D31" s="11" t="n">
-        <v>40</v>
       </c>
       <c r="E31" s="13" t="n">
         <v>1426</v>
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="C32" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D32" s="6" t="n">
         <v>91.8</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>18</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>317</v>
@@ -3545,11 +3545,11 @@
           <t>Shanshan_Zhang</t>
         </is>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D33" s="6" t="n">
         <v>91.59999999999999</v>
-      </c>
-      <c r="D33" s="11" t="n">
-        <v>25</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>827</v>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D34" s="6" t="n">
         <v>90.2</v>
-      </c>
-      <c r="D34" s="6" t="n">
-        <v>43</v>
       </c>
       <c r="E34" s="7" t="n">
         <v>671</v>
@@ -3745,11 +3745,11 @@
           <t>wangyxwyx</t>
         </is>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6" t="n">
         <v>89.90000000000001</v>
-      </c>
-      <c r="D35" s="11" t="n">
-        <v>29</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>956</v>
@@ -3851,10 +3851,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6" t="n">
         <v>89.8</v>
-      </c>
-      <c r="D36" s="6" t="n">
-        <v>18</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>630</v>
@@ -3950,11 +3950,11 @@
           <t>richarddia</t>
         </is>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D37" s="6" t="n">
         <v>89.3</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>18</v>
       </c>
       <c r="E37" s="7" t="n">
         <v>196</v>
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6" t="n">
         <v>89.2</v>
-      </c>
-      <c r="D38" s="6" t="n">
-        <v>22</v>
       </c>
       <c r="E38" s="7" t="n">
         <v>944</v>
@@ -4150,11 +4150,11 @@
           <t>TianSkyer</t>
         </is>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="11" t="n">
+        <v>117</v>
+      </c>
+      <c r="D39" s="6" t="n">
         <v>88.8</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>117</v>
       </c>
       <c r="E39" s="7" t="n">
         <v>767</v>
@@ -4251,10 +4251,10 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
+        <v>178</v>
+      </c>
+      <c r="D40" s="6" t="n">
         <v>88.3</v>
-      </c>
-      <c r="D40" s="6" t="n">
-        <v>178</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>419</v>
@@ -4355,11 +4355,11 @@
           <t>xguo-Will</t>
         </is>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6" t="n">
         <v>88.3</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>18</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>543</v>
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D42" s="6" t="n">
         <v>86.8</v>
-      </c>
-      <c r="D42" s="6" t="n">
-        <v>53</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>766</v>
@@ -4555,11 +4555,11 @@
           <t>weiyang95</t>
         </is>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6" t="n">
         <v>86.8</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>22</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>459</v>
@@ -4656,10 +4656,10 @@
         </is>
       </c>
       <c r="C44" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D44" s="6" t="n">
         <v>86.3</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>22</v>
       </c>
       <c r="E44" s="13" t="n">
         <v>1002</v>
@@ -4755,11 +4755,11 @@
           <t>user760</t>
         </is>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="11" t="n">
+        <v>64</v>
+      </c>
+      <c r="D45" s="6" t="n">
         <v>85.8</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>64</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>799</v>
@@ -4856,10 +4856,10 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D46" s="6" t="n">
         <v>85.7</v>
-      </c>
-      <c r="D46" s="6" t="n">
-        <v>39</v>
       </c>
       <c r="E46" s="8" t="n">
         <v>-1</v>
@@ -4955,11 +4955,11 @@
           <t>ShangqiYang</t>
         </is>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6" t="n">
         <v>84.7</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>11</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>938</v>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
+        <v>214</v>
+      </c>
+      <c r="D48" s="6" t="n">
         <v>84</v>
-      </c>
-      <c r="D48" s="6" t="n">
-        <v>214</v>
       </c>
       <c r="E48" s="13" t="n">
         <v>1085</v>
@@ -5160,11 +5160,11 @@
           <t>zhengfu23</t>
         </is>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D49" s="6" t="n">
         <v>84</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>22</v>
       </c>
       <c r="E49" s="14" t="n">
         <v>2033</v>
@@ -5261,10 +5261,10 @@
         </is>
       </c>
       <c r="C50" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D50" s="6" t="n">
         <v>83.7</v>
-      </c>
-      <c r="D50" s="6" t="n">
-        <v>39</v>
       </c>
       <c r="E50" s="13" t="n">
         <v>1353</v>
@@ -5360,11 +5360,11 @@
           <t>user504</t>
         </is>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D51" s="6" t="n">
         <v>83.2</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>22</v>
       </c>
       <c r="E51" s="13" t="n">
         <v>1288</v>
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D52" s="6" t="n">
         <v>82.7</v>
-      </c>
-      <c r="D52" s="6" t="n">
-        <v>39</v>
       </c>
       <c r="E52" s="13" t="n">
         <v>982</v>
@@ -5565,11 +5565,11 @@
           <t>whe_bupt</t>
         </is>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="11" t="n">
+        <v>221</v>
+      </c>
+      <c r="D53" s="6" t="n">
         <v>82.2</v>
-      </c>
-      <c r="D53" s="11" t="n">
-        <v>221</v>
       </c>
       <c r="E53" s="14" t="n">
         <v>2289</v>
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
+        <v>204</v>
+      </c>
+      <c r="D54" s="6" t="n">
         <v>81.2</v>
-      </c>
-      <c r="D54" s="6" t="n">
-        <v>204</v>
       </c>
       <c r="E54" s="13" t="n">
         <v>1093</v>
@@ -5765,11 +5765,11 @@
           <t>FrankZC</t>
         </is>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D55" s="6" t="n">
         <v>81</v>
-      </c>
-      <c r="D55" s="11" t="n">
-        <v>16</v>
       </c>
       <c r="E55" s="7" t="n">
         <v>832</v>
@@ -5866,10 +5866,10 @@
         </is>
       </c>
       <c r="C56" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D56" s="6" t="n">
         <v>80</v>
-      </c>
-      <c r="D56" s="6" t="n">
-        <v>21</v>
       </c>
       <c r="E56" s="13" t="n">
         <v>1119</v>
@@ -5965,11 +5965,11 @@
           <t>liulaoye135</t>
         </is>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="11" t="n">
+        <v>113</v>
+      </c>
+      <c r="D57" s="6" t="n">
         <v>79.2</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>113</v>
       </c>
       <c r="E57" s="12" t="n">
         <v>-1</v>
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="C58" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D58" s="6" t="n">
         <v>79</v>
-      </c>
-      <c r="D58" s="6" t="n">
-        <v>22</v>
       </c>
       <c r="E58" s="14" t="n">
         <v>1718</v>
@@ -6165,11 +6165,11 @@
           <t>cc189</t>
         </is>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D59" s="6" t="n">
         <v>78</v>
-      </c>
-      <c r="D59" s="11" t="n">
-        <v>18</v>
       </c>
       <c r="E59" s="7" t="n">
         <v>619</v>
@@ -6266,10 +6266,10 @@
         </is>
       </c>
       <c r="C60" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="D60" s="6" t="n">
         <v>77</v>
-      </c>
-      <c r="D60" s="6" t="n">
-        <v>180</v>
       </c>
       <c r="E60" s="8" t="n">
         <v>-1</v>
@@ -6365,11 +6365,11 @@
           <t>zihao</t>
         </is>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="11" t="n">
+        <v>82</v>
+      </c>
+      <c r="D61" s="6" t="n">
         <v>76.2</v>
-      </c>
-      <c r="D61" s="11" t="n">
-        <v>82</v>
       </c>
       <c r="E61" s="13" t="n">
         <v>1197</v>
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="C62" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="D62" s="6" t="n">
         <v>75.3</v>
-      </c>
-      <c r="D62" s="6" t="n">
-        <v>103</v>
       </c>
       <c r="E62" s="13" t="n">
         <v>1488</v>
@@ -6570,11 +6570,11 @@
           <t>Aaron_S</t>
         </is>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="11" t="n">
+        <v>168</v>
+      </c>
+      <c r="D63" s="6" t="n">
         <v>75.09999999999999</v>
-      </c>
-      <c r="D63" s="11" t="n">
-        <v>168</v>
       </c>
       <c r="E63" s="13" t="n">
         <v>1450</v>
@@ -6671,10 +6671,10 @@
         </is>
       </c>
       <c r="C64" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="D64" s="6" t="n">
         <v>75.09999999999999</v>
-      </c>
-      <c r="D64" s="6" t="n">
-        <v>97</v>
       </c>
       <c r="E64" s="13" t="n">
         <v>1481</v>
@@ -6770,11 +6770,11 @@
           <t>Charles000</t>
         </is>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="11" t="n">
+        <v>168</v>
+      </c>
+      <c r="D65" s="6" t="n">
         <v>75</v>
-      </c>
-      <c r="D65" s="11" t="n">
-        <v>168</v>
       </c>
       <c r="E65" s="14" t="n">
         <v>1956</v>
@@ -6876,10 +6876,10 @@
         </is>
       </c>
       <c r="C66" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D66" s="6" t="n">
         <v>74.8</v>
-      </c>
-      <c r="D66" s="6" t="n">
-        <v>220</v>
       </c>
       <c r="E66" s="14" t="n">
         <v>1767</v>
@@ -6980,11 +6980,11 @@
           <t>gzh47</t>
         </is>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D67" s="6" t="n">
         <v>74.59999999999999</v>
-      </c>
-      <c r="D67" s="11" t="n">
-        <v>25</v>
       </c>
       <c r="E67" s="14" t="n">
         <v>2043</v>
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="C68" s="5" t="n">
+        <v>191</v>
+      </c>
+      <c r="D68" s="6" t="n">
         <v>74.3</v>
-      </c>
-      <c r="D68" s="6" t="n">
-        <v>191</v>
       </c>
       <c r="E68" s="14" t="n">
         <v>1850</v>
@@ -7185,11 +7185,11 @@
           <t>keyupeter</t>
         </is>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="11" t="n">
+        <v>78</v>
+      </c>
+      <c r="D69" s="6" t="n">
         <v>73.7</v>
-      </c>
-      <c r="D69" s="11" t="n">
-        <v>78</v>
       </c>
       <c r="E69" s="12" t="n">
         <v>-1</v>
@@ -7286,10 +7286,10 @@
         </is>
       </c>
       <c r="C70" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="D70" s="6" t="n">
         <v>73.59999999999999</v>
-      </c>
-      <c r="D70" s="6" t="n">
-        <v>212</v>
       </c>
       <c r="E70" s="13" t="n">
         <v>1468</v>
@@ -7390,11 +7390,11 @@
           <t>sukeyzhou</t>
         </is>
       </c>
-      <c r="C71" s="5" t="n">
+      <c r="C71" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D71" s="6" t="n">
         <v>72.2</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>32</v>
       </c>
       <c r="E71" s="7" t="n">
         <v>857</v>
@@ -7491,10 +7491,10 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D72" s="6" t="n">
         <v>71.2</v>
-      </c>
-      <c r="D72" s="6" t="n">
-        <v>39</v>
       </c>
       <c r="E72" s="13" t="n">
         <v>1623</v>
@@ -7590,11 +7590,11 @@
           <t>zchen9523</t>
         </is>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" s="11" t="n">
+        <v>107</v>
+      </c>
+      <c r="D73" s="6" t="n">
         <v>70.7</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>107</v>
       </c>
       <c r="E73" s="13" t="n">
         <v>1367</v>
@@ -7691,10 +7691,10 @@
         </is>
       </c>
       <c r="C74" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D74" s="6" t="n">
         <v>70.40000000000001</v>
-      </c>
-      <c r="D74" s="6" t="n">
-        <v>22</v>
       </c>
       <c r="E74" s="14" t="n">
         <v>2185</v>
@@ -7790,11 +7790,11 @@
           <t>ws1255</t>
         </is>
       </c>
-      <c r="C75" s="5" t="n">
+      <c r="C75" s="11" t="n">
+        <v>138</v>
+      </c>
+      <c r="D75" s="6" t="n">
         <v>70.3</v>
-      </c>
-      <c r="D75" s="11" t="n">
-        <v>138</v>
       </c>
       <c r="E75" s="13" t="n">
         <v>1393</v>
@@ -7891,10 +7891,10 @@
         </is>
       </c>
       <c r="C76" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="D76" s="6" t="n">
         <v>68.5</v>
-      </c>
-      <c r="D76" s="6" t="n">
-        <v>97</v>
       </c>
       <c r="E76" s="14" t="n">
         <v>1744</v>
@@ -7990,11 +7990,11 @@
           <t>sijin</t>
         </is>
       </c>
-      <c r="C77" s="5" t="n">
+      <c r="C77" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D77" s="6" t="n">
         <v>67.59999999999999</v>
-      </c>
-      <c r="D77" s="11" t="n">
-        <v>22</v>
       </c>
       <c r="E77" s="14" t="n">
         <v>1742</v>
@@ -8091,10 +8091,10 @@
         </is>
       </c>
       <c r="C78" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D78" s="6" t="n">
         <v>64.5</v>
-      </c>
-      <c r="D78" s="6" t="n">
-        <v>42</v>
       </c>
       <c r="E78" s="14" t="n">
         <v>2212</v>
@@ -8190,11 +8190,11 @@
           <t>Ansonluo1</t>
         </is>
       </c>
-      <c r="C79" s="5" t="n">
+      <c r="C79" s="11" t="n">
+        <v>221</v>
+      </c>
+      <c r="D79" s="6" t="n">
         <v>59.5</v>
-      </c>
-      <c r="D79" s="11" t="n">
-        <v>221</v>
       </c>
       <c r="E79" s="12" t="n">
         <v>-1</v>
@@ -8291,10 +8291,10 @@
         </is>
       </c>
       <c r="C80" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D80" s="6" t="n">
         <v>59.2</v>
-      </c>
-      <c r="D80" s="6" t="n">
-        <v>22</v>
       </c>
       <c r="E80" s="8" t="n">
         <v>-1</v>
@@ -8390,11 +8390,11 @@
           <t>MaggieZhao95</t>
         </is>
       </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="D81" s="6" t="n">
         <v>58.7</v>
-      </c>
-      <c r="D81" s="11" t="n">
-        <v>45</v>
       </c>
       <c r="E81" s="14" t="n">
         <v>2180</v>
@@ -8491,10 +8491,10 @@
         </is>
       </c>
       <c r="C82" s="5" t="n">
+        <v>168</v>
+      </c>
+      <c r="D82" s="6" t="n">
         <v>56.7</v>
-      </c>
-      <c r="D82" s="6" t="n">
-        <v>168</v>
       </c>
       <c r="E82" s="15" t="n">
         <v>2803</v>
@@ -8590,11 +8590,11 @@
           <t>leetcodeyu1990</t>
         </is>
       </c>
-      <c r="C83" s="5" t="n">
+      <c r="C83" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D83" s="6" t="n">
         <v>55.2</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>18</v>
       </c>
       <c r="E83" s="14" t="n">
         <v>2303</v>
@@ -8691,10 +8691,10 @@
         </is>
       </c>
       <c r="C84" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D84" s="6" t="n">
         <v>53.8</v>
-      </c>
-      <c r="D84" s="6" t="n">
-        <v>89</v>
       </c>
       <c r="E84" s="15" t="n">
         <v>2822</v>
@@ -8790,11 +8790,11 @@
           <t>zexingfa</t>
         </is>
       </c>
-      <c r="C85" s="5" t="n">
+      <c r="C85" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="D85" s="6" t="n">
         <v>51.8</v>
-      </c>
-      <c r="D85" s="11" t="n">
-        <v>27</v>
       </c>
       <c r="E85" s="12" t="n">
         <v>-1</v>
@@ -8891,10 +8891,10 @@
         </is>
       </c>
       <c r="C86" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D86" s="6" t="n">
         <v>48.4</v>
-      </c>
-      <c r="D86" s="6" t="n">
-        <v>19</v>
       </c>
       <c r="E86" s="8" t="n">
         <v>-1</v>
@@ -8990,11 +8990,11 @@
           <t>Coder35</t>
         </is>
       </c>
-      <c r="C87" s="5" t="n">
+      <c r="C87" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="D87" s="6" t="n">
         <v>47.9</v>
-      </c>
-      <c r="D87" s="11" t="n">
-        <v>150</v>
       </c>
       <c r="E87" s="12" t="n">
         <v>-1</v>
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="C88" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D88" s="6" t="n">
         <v>46.2</v>
-      </c>
-      <c r="D88" s="6" t="n">
-        <v>78</v>
       </c>
       <c r="E88" s="15" t="n">
         <v>2745</v>
@@ -9190,11 +9190,11 @@
           <t>Kaiyu-Wang</t>
         </is>
       </c>
-      <c r="C89" s="5" t="n">
+      <c r="C89" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D89" s="6" t="n">
         <v>46</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>22</v>
       </c>
       <c r="E89" s="15" t="n">
         <v>2767</v>
@@ -9291,10 +9291,10 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D90" s="6" t="n">
         <v>45.2</v>
-      </c>
-      <c r="D90" s="6" t="n">
-        <v>46</v>
       </c>
       <c r="E90" s="15" t="n">
         <v>2531</v>
@@ -9390,11 +9390,11 @@
           <t>clchenliang</t>
         </is>
       </c>
-      <c r="C91" s="5" t="n">
+      <c r="C91" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D91" s="6" t="n">
         <v>44.8</v>
-      </c>
-      <c r="D91" s="11" t="n">
-        <v>11</v>
       </c>
       <c r="E91" s="15" t="n">
         <v>2461</v>
@@ -9491,10 +9491,10 @@
         </is>
       </c>
       <c r="C92" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D92" s="6" t="n">
         <v>44.2</v>
-      </c>
-      <c r="D92" s="6" t="n">
-        <v>49</v>
       </c>
       <c r="E92" s="15" t="n">
         <v>3003</v>
@@ -9595,11 +9595,11 @@
           <t>KyleAC</t>
         </is>
       </c>
-      <c r="C93" s="5" t="n">
+      <c r="C93" s="11" t="n">
+        <v>221</v>
+      </c>
+      <c r="D93" s="6" t="n">
         <v>42.1</v>
-      </c>
-      <c r="D93" s="11" t="n">
-        <v>221</v>
       </c>
       <c r="E93" s="15" t="n">
         <v>2568</v>
@@ -9696,10 +9696,10 @@
         </is>
       </c>
       <c r="C94" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D94" s="6" t="n">
         <v>32.2</v>
-      </c>
-      <c r="D94" s="6" t="n">
-        <v>18</v>
       </c>
       <c r="E94" s="8" t="n">
         <v>-1</v>
@@ -9795,11 +9795,11 @@
           <t>Vanggie</t>
         </is>
       </c>
-      <c r="C95" s="5" t="n">
+      <c r="C95" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D95" s="6" t="n">
         <v>29.4</v>
-      </c>
-      <c r="D95" s="11" t="n">
-        <v>72</v>
       </c>
       <c r="E95" s="12" t="n">
         <v>-1</v>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="C96" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D96" s="6" t="n">
         <v>28.1</v>
-      </c>
-      <c r="D96" s="6" t="n">
-        <v>22</v>
       </c>
       <c r="E96" s="8" t="n">
         <v>-1</v>
@@ -9995,11 +9995,11 @@
           <t>liuguanhualouie</t>
         </is>
       </c>
-      <c r="C97" s="5" t="n">
+      <c r="C97" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D97" s="6" t="n">
         <v>21.2</v>
-      </c>
-      <c r="D97" s="11" t="n">
-        <v>22</v>
       </c>
       <c r="E97" s="15" t="n">
         <v>2605</v>
@@ -10096,10 +10096,10 @@
         </is>
       </c>
       <c r="C98" s="5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E98" s="8" t="n">
         <v>-1</v>
@@ -10195,11 +10195,11 @@
           <t>user6745</t>
         </is>
       </c>
-      <c r="C99" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" s="11" t="n">
+      <c r="C99" s="11" t="n">
         <v>22</v>
+      </c>
+      <c r="D99" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="E99" s="12" t="n">
         <v>-1</v>
@@ -10296,10 +10296,10 @@
         </is>
       </c>
       <c r="C100" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D100" s="6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E100" s="8" t="n">
         <v>-1</v>
@@ -10395,11 +10395,11 @@
           <t>fu_blue_turkey</t>
         </is>
       </c>
-      <c r="C101" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" s="11" t="n">
+      <c r="C101" s="11" t="n">
         <v>8</v>
+      </c>
+      <c r="D101" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="E101" s="12" t="n">
         <v>-1</v>
@@ -10553,13 +10553,13 @@
           <t>Bingyy</t>
         </is>
       </c>
-      <c r="C118" s="19" t="inlineStr">
+      <c r="C118" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D118" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D118" s="6" t="n">
-        <v>17</v>
       </c>
       <c r="E118" s="20" t="n">
         <v>-3</v>
@@ -10657,13 +10657,13 @@
           <t>Brooky</t>
         </is>
       </c>
-      <c r="C119" s="19" t="inlineStr">
+      <c r="C119" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="D119" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D119" s="11" t="n">
-        <v>46</v>
       </c>
       <c r="E119" s="22" t="n">
         <v>-3</v>
@@ -10761,13 +10761,13 @@
           <t>DorisGe</t>
         </is>
       </c>
-      <c r="C120" s="19" t="inlineStr">
+      <c r="C120" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D120" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D120" s="6" t="n">
-        <v>56</v>
       </c>
       <c r="E120" s="20" t="n">
         <v>-3</v>
@@ -10865,13 +10865,13 @@
           <t>IrisGuo</t>
         </is>
       </c>
-      <c r="C121" s="19" t="inlineStr">
+      <c r="C121" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="D121" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D121" s="11" t="n">
-        <v>115</v>
       </c>
       <c r="E121" s="22" t="n">
         <v>-3</v>
@@ -10974,13 +10974,13 @@
           <t>LindaLyu</t>
         </is>
       </c>
-      <c r="C122" s="19" t="inlineStr">
+      <c r="C122" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D122" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D122" s="6" t="n">
-        <v>4</v>
       </c>
       <c r="E122" s="20" t="n">
         <v>-3</v>
@@ -11078,13 +11078,13 @@
           <t>Lisanaaa</t>
         </is>
       </c>
-      <c r="C123" s="19" t="inlineStr">
+      <c r="C123" s="11" t="n">
+        <v>163</v>
+      </c>
+      <c r="D123" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D123" s="11" t="n">
-        <v>163</v>
       </c>
       <c r="E123" s="22" t="n">
         <v>-3</v>
@@ -11187,13 +11187,13 @@
           <t>LittleBaldHead</t>
         </is>
       </c>
-      <c r="C124" s="19" t="inlineStr">
+      <c r="C124" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D124" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D124" s="6" t="n">
-        <v>5</v>
       </c>
       <c r="E124" s="20" t="n">
         <v>-3</v>
@@ -11291,13 +11291,13 @@
           <t>QAMichaelPeng</t>
         </is>
       </c>
-      <c r="C125" s="19" t="inlineStr">
+      <c r="C125" s="11" t="n">
+        <v>78</v>
+      </c>
+      <c r="D125" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D125" s="11" t="n">
-        <v>78</v>
       </c>
       <c r="E125" s="22" t="n">
         <v>-3</v>
@@ -11400,13 +11400,13 @@
           <t>Spencial</t>
         </is>
       </c>
-      <c r="C126" s="19" t="inlineStr">
+      <c r="C126" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D126" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D126" s="6" t="n">
-        <v>52</v>
       </c>
       <c r="E126" s="20" t="n">
         <v>-3</v>
@@ -11509,13 +11509,13 @@
           <t>Suhe</t>
         </is>
       </c>
-      <c r="C127" s="19" t="inlineStr">
+      <c r="C127" s="11" t="n">
+        <v>106</v>
+      </c>
+      <c r="D127" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D127" s="11" t="n">
-        <v>106</v>
       </c>
       <c r="E127" s="22" t="n">
         <v>-3</v>
@@ -11613,13 +11613,13 @@
           <t>Vicky_Owen</t>
         </is>
       </c>
-      <c r="C128" s="19" t="inlineStr">
+      <c r="C128" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D128" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D128" s="6" t="n">
-        <v>24</v>
       </c>
       <c r="E128" s="20" t="n">
         <v>-3</v>
@@ -11722,13 +11722,13 @@
           <t>XRS</t>
         </is>
       </c>
-      <c r="C129" s="19" t="inlineStr">
+      <c r="C129" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D129" s="11" t="n">
-        <v>1</v>
       </c>
       <c r="E129" s="22" t="n">
         <v>-3</v>
@@ -11826,13 +11826,13 @@
           <t>XYang93</t>
         </is>
       </c>
-      <c r="C130" s="19" t="inlineStr">
+      <c r="C130" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="D130" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D130" s="6" t="n">
-        <v>160</v>
       </c>
       <c r="E130" s="20" t="n">
         <v>-3</v>
@@ -11930,13 +11930,13 @@
           <t>Yizhao_Han</t>
         </is>
       </c>
-      <c r="C131" s="19" t="inlineStr">
+      <c r="C131" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="D131" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D131" s="11" t="n">
-        <v>38</v>
       </c>
       <c r="E131" s="22" t="n">
         <v>-3</v>
@@ -12034,13 +12034,13 @@
           <t>ZOEGREEN</t>
         </is>
       </c>
-      <c r="C132" s="19" t="inlineStr">
+      <c r="C132" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="D132" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D132" s="6" t="n">
-        <v>112</v>
       </c>
       <c r="E132" s="20" t="n">
         <v>-3</v>
@@ -12143,13 +12143,13 @@
           <t>ZhuYamei</t>
         </is>
       </c>
-      <c r="C133" s="19" t="inlineStr">
+      <c r="C133" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="D133" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D133" s="11" t="n">
-        <v>60</v>
       </c>
       <c r="E133" s="22" t="n">
         <v>-3</v>
@@ -12247,13 +12247,13 @@
           <t>banrenmasanxing</t>
         </is>
       </c>
-      <c r="C134" s="19" t="inlineStr">
+      <c r="C134" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D134" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D134" s="6" t="n">
-        <v>26</v>
       </c>
       <c r="E134" s="20" t="n">
         <v>-3</v>
@@ -12351,13 +12351,13 @@
           <t>bellumpara</t>
         </is>
       </c>
-      <c r="C135" s="19" t="inlineStr">
+      <c r="C135" s="11" t="n">
+        <v>166</v>
+      </c>
+      <c r="D135" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D135" s="11" t="n">
-        <v>166</v>
       </c>
       <c r="E135" s="22" t="n">
         <v>-3</v>
@@ -12455,13 +12455,13 @@
           <t>cookiecookie</t>
         </is>
       </c>
-      <c r="C136" s="19" t="inlineStr">
+      <c r="C136" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D136" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D136" s="6" t="n">
-        <v>15</v>
       </c>
       <c r="E136" s="20" t="n">
         <v>-3</v>
@@ -12559,13 +12559,13 @@
           <t>crossbowman</t>
         </is>
       </c>
-      <c r="C137" s="19" t="inlineStr">
+      <c r="C137" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="D137" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D137" s="11" t="n">
-        <v>17</v>
       </c>
       <c r="E137" s="22" t="n">
         <v>-3</v>
@@ -12663,13 +12663,13 @@
           <t>deerstalker</t>
         </is>
       </c>
-      <c r="C138" s="19" t="inlineStr">
+      <c r="C138" s="5" t="n">
+        <v>177</v>
+      </c>
+      <c r="D138" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D138" s="6" t="n">
-        <v>177</v>
       </c>
       <c r="E138" s="20" t="n">
         <v>-3</v>
@@ -12772,13 +12772,13 @@
           <t>dhf13</t>
         </is>
       </c>
-      <c r="C139" s="19" t="inlineStr">
+      <c r="C139" s="11" t="n">
+        <v>176</v>
+      </c>
+      <c r="D139" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D139" s="11" t="n">
-        <v>176</v>
       </c>
       <c r="E139" s="22" t="n">
         <v>-3</v>
@@ -12876,13 +12876,13 @@
           <t>fuxuemingzhu</t>
         </is>
       </c>
-      <c r="C140" s="19" t="inlineStr">
+      <c r="C140" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D140" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D140" s="6" t="n">
-        <v>161</v>
       </c>
       <c r="E140" s="20" t="n">
         <v>-3</v>
@@ -12985,13 +12985,13 @@
           <t>fyang618</t>
         </is>
       </c>
-      <c r="C141" s="19" t="inlineStr">
+      <c r="C141" s="11" t="n">
+        <v>164</v>
+      </c>
+      <c r="D141" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D141" s="11" t="n">
-        <v>164</v>
       </c>
       <c r="E141" s="22" t="n">
         <v>-3</v>
@@ -13089,13 +13089,13 @@
           <t>hgzry812</t>
         </is>
       </c>
-      <c r="C142" s="19" t="inlineStr">
+      <c r="C142" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D142" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D142" s="6" t="n">
-        <v>15</v>
       </c>
       <c r="E142" s="20" t="n">
         <v>-3</v>
@@ -13193,13 +13193,13 @@
           <t>jiancheng2</t>
         </is>
       </c>
-      <c r="C143" s="19" t="inlineStr">
+      <c r="C143" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D143" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D143" s="11" t="n">
-        <v>14</v>
       </c>
       <c r="E143" s="22" t="n">
         <v>-3</v>
@@ -13297,13 +13297,13 @@
           <t>jiang718</t>
         </is>
       </c>
-      <c r="C144" s="19" t="inlineStr">
+      <c r="C144" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D144" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D144" s="6" t="n">
-        <v>28</v>
       </c>
       <c r="E144" s="20" t="n">
         <v>-3</v>
@@ -13406,13 +13406,13 @@
           <t>jianzhun</t>
         </is>
       </c>
-      <c r="C145" s="19" t="inlineStr">
+      <c r="C145" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="D145" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D145" s="11" t="n">
-        <v>74</v>
       </c>
       <c r="E145" s="22" t="n">
         <v>-3</v>
@@ -13515,13 +13515,13 @@
           <t>kaihaohust</t>
         </is>
       </c>
-      <c r="C146" s="19" t="inlineStr">
+      <c r="C146" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D146" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D146" s="6" t="n">
-        <v>74</v>
       </c>
       <c r="E146" s="20" t="n">
         <v>-3</v>
@@ -13624,13 +13624,13 @@
           <t>memoryfraction</t>
         </is>
       </c>
-      <c r="C147" s="19" t="inlineStr">
+      <c r="C147" s="11" t="n">
+        <v>78</v>
+      </c>
+      <c r="D147" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D147" s="11" t="n">
-        <v>78</v>
       </c>
       <c r="E147" s="22" t="n">
         <v>-3</v>
@@ -13728,13 +13728,13 @@
           <t>pjincz</t>
         </is>
       </c>
-      <c r="C148" s="19" t="inlineStr">
+      <c r="C148" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D148" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D148" s="6" t="n">
-        <v>62</v>
       </c>
       <c r="E148" s="20" t="n">
         <v>-3</v>
@@ -13832,13 +13832,13 @@
           <t>sissishiny</t>
         </is>
       </c>
-      <c r="C149" s="19" t="inlineStr">
+      <c r="C149" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="D149" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D149" s="11" t="n">
-        <v>48</v>
       </c>
       <c r="E149" s="22" t="n">
         <v>-3</v>
@@ -13936,13 +13936,13 @@
           <t>softair</t>
         </is>
       </c>
-      <c r="C150" s="19" t="inlineStr">
+      <c r="C150" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D150" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D150" s="6" t="n">
-        <v>80</v>
       </c>
       <c r="E150" s="20" t="n">
         <v>-3</v>
@@ -14045,13 +14045,13 @@
           <t>wendyimayday</t>
         </is>
       </c>
-      <c r="C151" s="19" t="inlineStr">
+      <c r="C151" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="D151" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D151" s="11" t="n">
-        <v>94</v>
       </c>
       <c r="E151" s="22" t="n">
         <v>-3</v>
@@ -14149,13 +14149,13 @@
           <t>wolf940509</t>
         </is>
       </c>
-      <c r="C152" s="19" t="inlineStr">
+      <c r="C152" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D152" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D152" s="6" t="n">
-        <v>7</v>
       </c>
       <c r="E152" s="20" t="n">
         <v>-3</v>
@@ -14253,13 +14253,13 @@
           <t>xfzhao</t>
         </is>
       </c>
-      <c r="C153" s="19" t="inlineStr">
+      <c r="C153" s="11" t="n">
+        <v>174</v>
+      </c>
+      <c r="D153" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D153" s="11" t="n">
-        <v>174</v>
       </c>
       <c r="E153" s="22" t="n">
         <v>-3</v>
@@ -14357,13 +14357,13 @@
           <t>xxnzym</t>
         </is>
       </c>
-      <c r="C154" s="19" t="inlineStr">
+      <c r="C154" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D154" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D154" s="6" t="n">
-        <v>66</v>
       </c>
       <c r="E154" s="20" t="n">
         <v>-3</v>
@@ -14466,13 +14466,13 @@
           <t>yexiaoxiao2102</t>
         </is>
       </c>
-      <c r="C155" s="19" t="inlineStr">
+      <c r="C155" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="D155" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D155" s="11" t="n">
-        <v>60</v>
       </c>
       <c r="E155" s="22" t="n">
         <v>-3</v>
@@ -14575,13 +14575,13 @@
           <t>yykfight</t>
         </is>
       </c>
-      <c r="C156" s="19" t="inlineStr">
+      <c r="C156" s="5" t="n">
+        <v>184</v>
+      </c>
+      <c r="D156" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D156" s="6" t="n">
-        <v>184</v>
       </c>
       <c r="E156" s="20" t="n">
         <v>-3</v>
@@ -14679,13 +14679,13 @@
           <t>zhangsikai123</t>
         </is>
       </c>
-      <c r="C157" s="19" t="inlineStr">
+      <c r="C157" s="11" t="n">
+        <v>165</v>
+      </c>
+      <c r="D157" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-      <c r="D157" s="11" t="n">
-        <v>165</v>
       </c>
       <c r="E157" s="22" t="n">
         <v>-3</v>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -128,6 +128,9 @@
     <t>xguo-Will</t>
   </si>
   <si>
+    <t>VMware-Logo</t>
+  </si>
+  <si>
     <t>siqiaochen</t>
   </si>
   <si>
@@ -231,9 +234,6 @@
   </si>
   <si>
     <t>dennanisny</t>
-  </si>
-  <si>
-    <t>VMware-Logo</t>
   </si>
   <si>
     <t>hfuwu5</t>
@@ -3925,13 +3925,16 @@
       <c r="AH30" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="AI30" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="10" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>207</v>
@@ -4035,7 +4038,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>216</v>
@@ -4142,7 +4145,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11" t="n">
         <v>45</v>
@@ -4246,7 +4249,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>20</v>
@@ -4350,7 +4353,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="11" t="n">
         <v>42</v>
@@ -4454,7 +4457,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>24</v>
@@ -4558,7 +4561,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="11" t="n">
         <v>119</v>
@@ -4662,7 +4665,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="5" t="n">
         <v>31</v>
@@ -4761,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4769,7 +4772,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="11" t="n">
         <v>95</v>
@@ -4873,7 +4876,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>41</v>
@@ -4977,7 +4980,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="11" t="n">
         <v>24</v>
@@ -5076,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -5084,7 +5087,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>41</v>
@@ -5188,7 +5191,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="11" t="n">
         <v>24</v>
@@ -5292,7 +5295,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5" t="n">
         <v>23</v>
@@ -5396,7 +5399,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="11" t="n">
         <v>18</v>
@@ -5500,7 +5503,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5" t="n">
         <v>223</v>
@@ -5604,7 +5607,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="11" t="n">
         <v>170</v>
@@ -5711,7 +5714,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="5" t="n">
         <v>20</v>
@@ -5815,7 +5818,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="11" t="n">
         <v>24</v>
@@ -5919,7 +5922,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="5" t="n">
         <v>55</v>
@@ -6023,7 +6026,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="11" t="n">
         <v>84</v>
@@ -6127,7 +6130,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="5" t="n">
         <v>126</v>
@@ -6234,7 +6237,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="11" t="n">
         <v>105</v>
@@ -6341,7 +6344,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="5" t="n">
         <v>170</v>
@@ -6445,7 +6448,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="11" t="n">
         <v>99</v>
@@ -6549,7 +6552,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="5" t="n">
         <v>13</v>
@@ -6653,7 +6656,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" s="11" t="n">
         <v>222</v>
@@ -6760,7 +6763,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58" s="5" t="n">
         <v>27</v>
@@ -6859,7 +6862,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="AI58" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -6867,7 +6870,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" s="11" t="n">
         <v>172</v>
@@ -6966,7 +6969,7 @@
         <v>88</v>
       </c>
       <c r="AI59" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -6974,7 +6977,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" s="5" t="n">
         <v>66</v>
@@ -7078,7 +7081,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" s="11" t="n">
         <v>214</v>
@@ -7177,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="9" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -9782,6 +9785,9 @@
       <c r="AH86" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="AI86" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="10" t="n">
@@ -14215,7 +14221,7 @@
         <v>84.7</v>
       </c>
       <c r="AI144" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:35">
@@ -14429,7 +14435,7 @@
         <v>88.5</v>
       </c>
       <c r="AI146" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:35">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -1,526 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LeetCode Score Book" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LeetCode Score Book" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
-  <si>
-    <t>Contest</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>cuiaoxiang</t>
-  </si>
-  <si>
-    <t>Google-Logo</t>
-  </si>
-  <si>
-    <t>suzyzhang</t>
-  </si>
-  <si>
-    <t>shshwdr</t>
-  </si>
-  <si>
-    <t>sshang</t>
-  </si>
-  <si>
-    <t>Microsoft-Logo</t>
-  </si>
-  <si>
-    <t>ForGive</t>
-  </si>
-  <si>
-    <t>AMD-Logo</t>
-  </si>
-  <si>
-    <t>richarddia</t>
-  </si>
-  <si>
-    <t>OnodaHiro</t>
-  </si>
-  <si>
-    <t>wisdompeak</t>
-  </si>
-  <si>
-    <t>qz267</t>
-  </si>
-  <si>
-    <t>haitao7</t>
-  </si>
-  <si>
-    <t>kaizer87</t>
-  </si>
-  <si>
-    <t>Arco</t>
-  </si>
-  <si>
-    <t>venico19</t>
-  </si>
-  <si>
-    <t>wobuxihuannile</t>
-  </si>
-  <si>
-    <t>Indeed-Logo</t>
-  </si>
-  <si>
-    <t>leoknuth</t>
-  </si>
-  <si>
-    <t>TOYAMA_NAO</t>
-  </si>
-  <si>
-    <t>Dengxj</t>
-  </si>
-  <si>
-    <t>SeymourLee</t>
-  </si>
-  <si>
-    <t>Amazon-Logo</t>
-  </si>
-  <si>
-    <t>Shanshan_Zhang</t>
-  </si>
-  <si>
-    <t>zhounaiding</t>
-  </si>
-  <si>
-    <t>wyzhang421</t>
-  </si>
-  <si>
-    <t>yueb95</t>
-  </si>
-  <si>
-    <t>huange</t>
-  </si>
-  <si>
-    <t>sdliuyuzhi</t>
-  </si>
-  <si>
-    <t>ZhengkaiWei</t>
-  </si>
-  <si>
-    <t>OneDirection</t>
-  </si>
-  <si>
-    <t>Apple-Logo</t>
-  </si>
-  <si>
-    <t>xguo-Will</t>
-  </si>
-  <si>
-    <t>VMware-Logo</t>
-  </si>
-  <si>
-    <t>siqiaochen</t>
-  </si>
-  <si>
-    <t>jmzhang18</t>
-  </si>
-  <si>
-    <t>please_AC</t>
-  </si>
-  <si>
-    <t>wanyoyo</t>
-  </si>
-  <si>
-    <t>Golden_Fish</t>
-  </si>
-  <si>
-    <t>whyer</t>
-  </si>
-  <si>
-    <t>TianSkyer</t>
-  </si>
-  <si>
-    <t>wangyxwyx</t>
-  </si>
-  <si>
-    <t>Twilio-Logo</t>
-  </si>
-  <si>
-    <t>XingxingHuang</t>
-  </si>
-  <si>
-    <t>vonxq</t>
-  </si>
-  <si>
-    <t>user504</t>
-  </si>
-  <si>
-    <t>Arista-Logo</t>
-  </si>
-  <si>
-    <t>FrankYao</t>
-  </si>
-  <si>
-    <t>WhateverYouSay</t>
-  </si>
-  <si>
-    <t>thu_winfield</t>
-  </si>
-  <si>
-    <t>FrankZC</t>
-  </si>
-  <si>
-    <t>whe_bupt</t>
-  </si>
-  <si>
-    <t>Charles000</t>
-  </si>
-  <si>
-    <t>cc189</t>
-  </si>
-  <si>
-    <t>weiyang95</t>
-  </si>
-  <si>
-    <t>fish444556</t>
-  </si>
-  <si>
-    <t>zihao</t>
-  </si>
-  <si>
-    <t>lulinzhang1124</t>
-  </si>
-  <si>
-    <t>icodingg</t>
-  </si>
-  <si>
-    <t>Aaron_S</t>
-  </si>
-  <si>
-    <t>bifeitang</t>
-  </si>
-  <si>
-    <t>ShangqiYang</t>
-  </si>
-  <si>
-    <t>supersam331</t>
-  </si>
-  <si>
-    <t>gzh47</t>
-  </si>
-  <si>
-    <t>Walmart-Logo</t>
-  </si>
-  <si>
-    <t>davidqing1991</t>
-  </si>
-  <si>
-    <t>PureStorage-Logo</t>
-  </si>
-  <si>
-    <t>user760</t>
-  </si>
-  <si>
-    <t>dennanisny</t>
-  </si>
-  <si>
-    <t>hfuwu5</t>
-  </si>
-  <si>
-    <t>zhengfu23</t>
-  </si>
-  <si>
-    <t>sukeyzhou</t>
-  </si>
-  <si>
-    <t>Clary</t>
-  </si>
-  <si>
-    <t>liulaoye135</t>
-  </si>
-  <si>
-    <t>Uneed</t>
-  </si>
-  <si>
-    <t>ws1255</t>
-  </si>
-  <si>
-    <t>SummerYang19</t>
-  </si>
-  <si>
-    <t>1373757850</t>
-  </si>
-  <si>
-    <t>yuliangjin</t>
-  </si>
-  <si>
-    <t>zchen9523</t>
-  </si>
-  <si>
-    <t>Mengqian</t>
-  </si>
-  <si>
-    <t>sijin</t>
-  </si>
-  <si>
-    <t>jliang</t>
-  </si>
-  <si>
-    <t>huyouhyw</t>
-  </si>
-  <si>
-    <t>got7amy</t>
-  </si>
-  <si>
-    <t>MaggieZhao95</t>
-  </si>
-  <si>
-    <t>LittleBaldHead</t>
-  </si>
-  <si>
-    <t>leetcodeyu1990</t>
-  </si>
-  <si>
-    <t>phoenixpan</t>
-  </si>
-  <si>
-    <t>keyupeter</t>
-  </si>
-  <si>
-    <t>ellaliu</t>
-  </si>
-  <si>
-    <t>Coder35</t>
-  </si>
-  <si>
-    <t>xuyequan</t>
-  </si>
-  <si>
-    <t>Kaiyu-Wang</t>
-  </si>
-  <si>
-    <t>KyleAC</t>
-  </si>
-  <si>
-    <t>user4286</t>
-  </si>
-  <si>
-    <t>qw123</t>
-  </si>
-  <si>
-    <t>Shaotong</t>
-  </si>
-  <si>
-    <t>Rui_Huang</t>
-  </si>
-  <si>
-    <t>zexingfa</t>
-  </si>
-  <si>
-    <t>Ansonluo1</t>
-  </si>
-  <si>
-    <t>clchenliang</t>
-  </si>
-  <si>
-    <t>fu_blue_turkey</t>
-  </si>
-  <si>
-    <t>user6745</t>
-  </si>
-  <si>
-    <t>Zifengmolan</t>
-  </si>
-  <si>
-    <t>-1:     absent/zero</t>
-  </si>
-  <si>
-    <t>-2:     not joined</t>
-  </si>
-  <si>
-    <t>-3:     left/quited</t>
-  </si>
-  <si>
-    <t>More about the Rules</t>
-  </si>
-  <si>
-    <t>Full list of daily problems</t>
-  </si>
-  <si>
-    <t>Recommended resources</t>
-  </si>
-  <si>
-    <t>curve-figure</t>
-  </si>
-  <si>
-    <t>Graduated or laidoff members in 2019</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Bingyy</t>
-  </si>
-  <si>
-    <t>Brooky</t>
-  </si>
-  <si>
-    <t>DorisGe</t>
-  </si>
-  <si>
-    <t>IrisGuo</t>
-  </si>
-  <si>
-    <t>JackTheBest</t>
-  </si>
-  <si>
-    <t>LindaLyu</t>
-  </si>
-  <si>
-    <t>Lisanaaa</t>
-  </si>
-  <si>
-    <t>Grab-Logo</t>
-  </si>
-  <si>
-    <t>QAMichaelPeng</t>
-  </si>
-  <si>
-    <t>Spencial</t>
-  </si>
-  <si>
-    <t>Suhe</t>
-  </si>
-  <si>
-    <t>Vanggie</t>
-  </si>
-  <si>
-    <t>Vicky_Owen</t>
-  </si>
-  <si>
-    <t>XRS</t>
-  </si>
-  <si>
-    <t>XYang93</t>
-  </si>
-  <si>
-    <t>Yizhao_Han</t>
-  </si>
-  <si>
-    <t>ZOEGREEN</t>
-  </si>
-  <si>
-    <t>ZhuYamei</t>
-  </si>
-  <si>
-    <t>abyebye</t>
-  </si>
-  <si>
-    <t>banrenmasanxing</t>
-  </si>
-  <si>
-    <t>bellumpara</t>
-  </si>
-  <si>
-    <t>cookiecookie</t>
-  </si>
-  <si>
-    <t>crossbowman</t>
-  </si>
-  <si>
-    <t>deerstalker</t>
-  </si>
-  <si>
-    <t>dhf13</t>
-  </si>
-  <si>
-    <t>fuxuemingzhu</t>
-  </si>
-  <si>
-    <t>ByteDance-Logo</t>
-  </si>
-  <si>
-    <t>fyang618</t>
-  </si>
-  <si>
-    <t>galiniunan</t>
-  </si>
-  <si>
-    <t>gyf6434</t>
-  </si>
-  <si>
-    <t>hgzry812</t>
-  </si>
-  <si>
-    <t>jiancheng2</t>
-  </si>
-  <si>
-    <t>jiang718</t>
-  </si>
-  <si>
-    <t>jianzhun</t>
-  </si>
-  <si>
-    <t>SnowFlake-Logo</t>
-  </si>
-  <si>
-    <t>kaihaohust</t>
-  </si>
-  <si>
-    <t>liuguanhualouie</t>
-  </si>
-  <si>
-    <t>memoryfraction</t>
-  </si>
-  <si>
-    <t>pjincz</t>
-  </si>
-  <si>
-    <t>shuizhouwang</t>
-  </si>
-  <si>
-    <t>sissishiny</t>
-  </si>
-  <si>
-    <t>softair</t>
-  </si>
-  <si>
-    <t>wendyimayday</t>
-  </si>
-  <si>
-    <t>wolf940509</t>
-  </si>
-  <si>
-    <t>xfzhao</t>
-  </si>
-  <si>
-    <t>xxnzym</t>
-  </si>
-  <si>
-    <t>yexiaoxiao2102</t>
-  </si>
-  <si>
-    <t>yykfight</t>
-  </si>
-  <si>
-    <t>zhangsikai123</t>
-  </si>
-  <si>
-    <t>RedBook-Logo</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,26 +456,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI159"/>
+  <dimension ref="A1:BJ159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="2" min="2" width="25"/>
     <col customWidth="1" max="4" min="4" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Contest</t>
+        </is>
       </c>
       <c r="E1" s="2" t="n">
         <v>132</v>
@@ -1032,15 +525,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Participants</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
       </c>
       <c r="E2" s="3" t="n">
         <v>4765</v>
@@ -1088,15 +587,17 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4">
       <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>cuiaoxiang</t>
+        </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>100</v>
@@ -1191,19 +692,23 @@
       <c r="AH4" s="8" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="AI4" s="9" t="s">
-        <v>5</v>
+      <c r="AI4" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5">
       <c r="A5" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>suzyzhang</t>
+        </is>
       </c>
       <c r="C5" s="11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>99.5</v>
@@ -1299,15 +804,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6">
       <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>shshwdr</t>
+        </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>99</v>
@@ -1402,16 +909,23 @@
       <c r="AH6" s="8" t="n">
         <v>87.8</v>
       </c>
+      <c r="AI6" s="9" t="inlineStr">
+        <is>
+          <t>PocketGems-Logo</t>
+        </is>
+      </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7">
       <c r="A7" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>sshang</t>
+        </is>
       </c>
       <c r="C7" s="11" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>98.40000000000001</v>
@@ -1506,19 +1020,23 @@
       <c r="AH7" s="12" t="n">
         <v>88.3</v>
       </c>
-      <c r="AI7" s="9" t="s">
-        <v>9</v>
+      <c r="AI7" s="9" t="inlineStr">
+        <is>
+          <t>Microsoft-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8">
       <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>ForGive</t>
+        </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>97.59999999999999</v>
@@ -1613,19 +1131,23 @@
       <c r="AH8" s="8" t="n">
         <v>89.8</v>
       </c>
-      <c r="AI8" s="9" t="s">
-        <v>11</v>
+      <c r="AI8" s="9" t="inlineStr">
+        <is>
+          <t>AMD-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9">
       <c r="A9" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>richarddia</t>
+        </is>
       </c>
       <c r="C9" s="11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>97.2</v>
@@ -1721,15 +1243,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10">
       <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>OnodaHiro</t>
+        </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>96.7</v>
@@ -1825,15 +1349,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11">
       <c r="A11" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>14</v>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>wisdompeak</t>
+        </is>
       </c>
       <c r="C11" s="11" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>96.3</v>
@@ -1928,19 +1454,23 @@
       <c r="AH11" s="12" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="AI11" s="9" t="s">
-        <v>5</v>
+      <c r="AI11" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>qz267</t>
+        </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>96.09999999999999</v>
@@ -2035,19 +1565,23 @@
       <c r="AH12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="AI12" s="9" t="s">
-        <v>5</v>
+      <c r="AI12" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13">
       <c r="A13" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>16</v>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>haitao7</t>
+        </is>
       </c>
       <c r="C13" s="11" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>95.59999999999999</v>
@@ -2143,15 +1677,17 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14">
       <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>kaizer87</t>
+        </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>95.5</v>
@@ -2246,19 +1782,23 @@
       <c r="AH14" s="8" t="n">
         <v>80.7</v>
       </c>
-      <c r="AI14" s="9" t="s">
-        <v>9</v>
+      <c r="AI14" s="9" t="inlineStr">
+        <is>
+          <t>Microsoft-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15">
       <c r="A15" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>18</v>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Arco</t>
+        </is>
       </c>
       <c r="C15" s="11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>95.40000000000001</v>
@@ -2354,15 +1894,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16">
       <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>venico19</t>
+        </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>95.2</v>
@@ -2458,15 +2000,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17">
       <c r="A17" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>wobuxihuannile</t>
+        </is>
       </c>
       <c r="C17" s="11" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>95.09999999999999</v>
@@ -2561,19 +2105,23 @@
       <c r="AH17" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AI17" s="9" t="s">
-        <v>21</v>
+      <c r="AI17" s="9" t="inlineStr">
+        <is>
+          <t>Indeed-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18">
       <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>leoknuth</t>
+        </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>95.09999999999999</v>
@@ -2669,15 +2217,17 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19">
       <c r="A19" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>23</v>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>TOYAMA_NAO</t>
+        </is>
       </c>
       <c r="C19" s="11" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>94.8</v>
@@ -2773,15 +2323,17 @@
         <v>69.90000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20">
       <c r="A20" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Dengxj</t>
+        </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>94.59999999999999</v>
@@ -2877,15 +2429,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21">
       <c r="A21" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>25</v>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>SeymourLee</t>
+        </is>
       </c>
       <c r="C21" s="11" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>94.2</v>
@@ -2980,19 +2534,23 @@
       <c r="AH21" s="12" t="n">
         <v>73</v>
       </c>
-      <c r="AI21" s="9" t="s">
-        <v>26</v>
+      <c r="AI21" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22">
       <c r="A22" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>27</v>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Shanshan_Zhang</t>
+        </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>93.90000000000001</v>
@@ -3088,15 +2646,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23">
       <c r="A23" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>28</v>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>zhounaiding</t>
+        </is>
       </c>
       <c r="C23" s="11" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>93.7</v>
@@ -3192,15 +2752,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24">
       <c r="A24" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>29</v>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>wyzhang421</t>
+        </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>93.40000000000001</v>
@@ -3296,15 +2858,17 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25">
       <c r="A25" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>30</v>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>yueb95</t>
+        </is>
       </c>
       <c r="C25" s="11" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>93.2</v>
@@ -3399,19 +2963,23 @@
       <c r="AH25" s="12" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="AI25" s="9" t="s">
-        <v>26</v>
+      <c r="AI25" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26">
       <c r="A26" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>huange</t>
+        </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>92.3</v>
@@ -3507,15 +3075,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27">
       <c r="A27" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>32</v>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>sdliuyuzhi</t>
+        </is>
       </c>
       <c r="C27" s="11" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>92</v>
@@ -3611,15 +3181,17 @@
         <v>70.90000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28">
       <c r="A28" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>33</v>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>ZhengkaiWei</t>
+        </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>91.8</v>
@@ -3715,15 +3287,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29">
       <c r="A29" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>34</v>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>OneDirection</t>
+        </is>
       </c>
       <c r="C29" s="11" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>91.40000000000001</v>
@@ -3818,19 +3392,23 @@
       <c r="AH29" s="12" t="n">
         <v>86.2</v>
       </c>
-      <c r="AI29" s="9" t="s">
-        <v>35</v>
+      <c r="AI29" s="9" t="inlineStr">
+        <is>
+          <t>Apple-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30">
       <c r="A30" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>36</v>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>xguo-Will</t>
+        </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>91.3</v>
@@ -3925,19 +3503,23 @@
       <c r="AH30" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="AI30" s="9" t="s">
-        <v>37</v>
+      <c r="AI30" s="9" t="inlineStr">
+        <is>
+          <t>VMware-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31">
       <c r="A31" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>38</v>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>siqiaochen</t>
+        </is>
       </c>
       <c r="C31" s="11" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>91.09999999999999</v>
@@ -4033,15 +3615,17 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32">
       <c r="A32" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>39</v>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>jmzhang18</t>
+        </is>
       </c>
       <c r="C32" s="5" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>91</v>
@@ -4136,19 +3720,23 @@
       <c r="AH32" s="8" t="n">
         <v>43.6</v>
       </c>
-      <c r="AI32" s="9" t="s">
-        <v>26</v>
+      <c r="AI32" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33">
       <c r="A33" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>40</v>
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t>please_AC</t>
+        </is>
       </c>
       <c r="C33" s="11" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>90.2</v>
@@ -4244,15 +3832,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34">
       <c r="A34" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>41</v>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>wanyoyo</t>
+        </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>89.8</v>
@@ -4348,15 +3938,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35">
       <c r="A35" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>42</v>
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t>Golden_Fish</t>
+        </is>
       </c>
       <c r="C35" s="11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>89.5</v>
@@ -4452,15 +4044,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36">
       <c r="A36" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>43</v>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>whyer</t>
+        </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>89.2</v>
@@ -4556,15 +4150,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37">
       <c r="A37" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>44</v>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>TianSkyer</t>
+        </is>
       </c>
       <c r="C37" s="11" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>88.8</v>
@@ -4660,15 +4256,17 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38">
       <c r="A38" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>45</v>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>wangyxwyx</t>
+        </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>88.59999999999999</v>
@@ -4763,19 +4361,23 @@
       <c r="AH38" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="AI38" s="9" t="s">
-        <v>46</v>
+      <c r="AI38" s="9" t="inlineStr">
+        <is>
+          <t>Twilio-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39">
       <c r="A39" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>47</v>
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>XingxingHuang</t>
+        </is>
       </c>
       <c r="C39" s="11" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>88.2</v>
@@ -4871,15 +4473,17 @@
         <v>81.40000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40">
       <c r="A40" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>48</v>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>vonxq</t>
+        </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>86.2</v>
@@ -4975,15 +4579,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41">
       <c r="A41" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>49</v>
+      <c r="B41" s="10" t="inlineStr">
+        <is>
+          <t>user504</t>
+        </is>
       </c>
       <c r="C41" s="11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>84.59999999999999</v>
@@ -5078,19 +4684,23 @@
       <c r="AH41" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AI41" s="9" t="s">
-        <v>50</v>
+      <c r="AI41" s="9" t="inlineStr">
+        <is>
+          <t>Arista-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42">
       <c r="A42" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>51</v>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>FrankYao</t>
+        </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D42" s="6" t="n">
         <v>84</v>
@@ -5186,15 +4796,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43">
       <c r="A43" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>52</v>
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>WhateverYouSay</t>
+        </is>
       </c>
       <c r="C43" s="11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>83.8</v>
@@ -5290,15 +4902,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44">
       <c r="A44" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>53</v>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>thu_winfield</t>
+        </is>
       </c>
       <c r="C44" s="5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>83.40000000000001</v>
@@ -5394,15 +5008,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45">
       <c r="A45" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>54</v>
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t>FrankZC</t>
+        </is>
       </c>
       <c r="C45" s="11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>81</v>
@@ -5498,15 +5114,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46">
       <c r="A46" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>55</v>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>whe_bupt</t>
+        </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>80.40000000000001</v>
@@ -5602,15 +5220,17 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47">
       <c r="A47" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>56</v>
+      <c r="B47" s="10" t="inlineStr">
+        <is>
+          <t>Charles000</t>
+        </is>
       </c>
       <c r="C47" s="11" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>80.2</v>
@@ -5705,19 +5325,23 @@
       <c r="AH47" s="12" t="n">
         <v>63.4</v>
       </c>
-      <c r="AI47" s="9" t="s">
-        <v>26</v>
+      <c r="AI47" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48">
       <c r="A48" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>57</v>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>cc189</t>
+        </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>80.2</v>
@@ -5813,15 +5437,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49">
       <c r="A49" s="10" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>58</v>
+      <c r="B49" s="10" t="inlineStr">
+        <is>
+          <t>weiyang95</t>
+        </is>
       </c>
       <c r="C49" s="11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>77.3</v>
@@ -5917,15 +5543,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50">
       <c r="A50" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>59</v>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>fish444556</t>
+        </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>76.5</v>
@@ -6021,15 +5649,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51">
       <c r="A51" s="10" t="n">
         <v>48</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>60</v>
+      <c r="B51" s="10" t="inlineStr">
+        <is>
+          <t>zihao</t>
+        </is>
       </c>
       <c r="C51" s="11" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D51" s="6" t="n">
         <v>76.2</v>
@@ -6125,15 +5755,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52">
       <c r="A52" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>61</v>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>lulinzhang1124</t>
+        </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D52" s="6" t="n">
         <v>75.5</v>
@@ -6228,19 +5860,23 @@
       <c r="AH52" s="8" t="n">
         <v>40.1</v>
       </c>
-      <c r="AI52" s="9" t="s">
-        <v>26</v>
+      <c r="AI52" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53">
       <c r="A53" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>62</v>
+      <c r="B53" s="10" t="inlineStr">
+        <is>
+          <t>icodingg</t>
+        </is>
       </c>
       <c r="C53" s="11" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D53" s="6" t="n">
         <v>75.3</v>
@@ -6335,19 +5971,23 @@
       <c r="AH53" s="12" t="n">
         <v>61.6</v>
       </c>
-      <c r="AI53" s="9" t="s">
-        <v>26</v>
+      <c r="AI53" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54">
       <c r="A54" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>63</v>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Aaron_S</t>
+        </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D54" s="6" t="n">
         <v>75.09999999999999</v>
@@ -6443,15 +6083,17 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55">
       <c r="A55" s="10" t="n">
         <v>52</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>64</v>
+      <c r="B55" s="10" t="inlineStr">
+        <is>
+          <t>bifeitang</t>
+        </is>
       </c>
       <c r="C55" s="11" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>75.09999999999999</v>
@@ -6547,15 +6189,17 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56">
       <c r="A56" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>65</v>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>ShangqiYang</t>
+        </is>
       </c>
       <c r="C56" s="5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D56" s="6" t="n">
         <v>75</v>
@@ -6651,15 +6295,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57">
       <c r="A57" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>66</v>
+      <c r="B57" s="10" t="inlineStr">
+        <is>
+          <t>supersam331</t>
+        </is>
       </c>
       <c r="C57" s="11" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D57" s="6" t="n">
         <v>74.8</v>
@@ -6754,19 +6400,23 @@
       <c r="AH57" s="12" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="AI57" s="9" t="s">
-        <v>26</v>
+      <c r="AI57" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58">
       <c r="A58" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>67</v>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>gzh47</t>
+        </is>
       </c>
       <c r="C58" s="5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="6" t="n">
         <v>74.59999999999999</v>
@@ -6861,19 +6511,23 @@
       <c r="AH58" s="8" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c r="AI58" s="9" t="s">
-        <v>68</v>
+      <c r="AI58" s="9" t="inlineStr">
+        <is>
+          <t>Walmart-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59">
       <c r="A59" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>69</v>
+      <c r="B59" s="10" t="inlineStr">
+        <is>
+          <t>davidqing1991</t>
+        </is>
       </c>
       <c r="C59" s="11" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="6" t="n">
         <v>74.5</v>
@@ -6968,19 +6622,23 @@
       <c r="AH59" s="12" t="n">
         <v>88</v>
       </c>
-      <c r="AI59" s="9" t="s">
-        <v>70</v>
+      <c r="AI59" s="9" t="inlineStr">
+        <is>
+          <t>PureStorage-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60">
       <c r="A60" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>71</v>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>user760</t>
+        </is>
       </c>
       <c r="C60" s="5" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D60" s="6" t="n">
         <v>74.2</v>
@@ -7076,15 +6734,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61">
       <c r="A61" s="10" t="n">
         <v>58</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>72</v>
+      <c r="B61" s="10" t="inlineStr">
+        <is>
+          <t>dennanisny</t>
+        </is>
       </c>
       <c r="C61" s="11" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D61" s="6" t="n">
         <v>73.59999999999999</v>
@@ -7179,19 +6839,23 @@
       <c r="AH61" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AI61" s="9" t="s">
-        <v>37</v>
+      <c r="AI61" s="9" t="inlineStr">
+        <is>
+          <t>VMware-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62">
       <c r="A62" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>73</v>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>hfuwu5</t>
+        </is>
       </c>
       <c r="C62" s="5" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D62" s="6" t="n">
         <v>72.40000000000001</v>
@@ -7287,15 +6951,17 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63">
       <c r="A63" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>74</v>
+      <c r="B63" s="10" t="inlineStr">
+        <is>
+          <t>zhengfu23</t>
+        </is>
       </c>
       <c r="C63" s="11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63" s="6" t="n">
         <v>72.09999999999999</v>
@@ -7391,15 +7057,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64">
       <c r="A64" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>75</v>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>sukeyzhou</t>
+        </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D64" s="6" t="n">
         <v>71.90000000000001</v>
@@ -7495,15 +7163,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65">
       <c r="A65" s="10" t="n">
         <v>62</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>76</v>
+      <c r="B65" s="10" t="inlineStr">
+        <is>
+          <t>Clary</t>
+        </is>
       </c>
       <c r="C65" s="11" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D65" s="6" t="n">
         <v>71.8</v>
@@ -7599,15 +7269,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66">
       <c r="A66" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>77</v>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>liulaoye135</t>
+        </is>
       </c>
       <c r="C66" s="5" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D66" s="6" t="n">
         <v>71.2</v>
@@ -7703,15 +7375,17 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67">
       <c r="A67" s="10" t="n">
         <v>64</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>78</v>
+      <c r="B67" s="10" t="inlineStr">
+        <is>
+          <t>Uneed</t>
+        </is>
       </c>
       <c r="C67" s="11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>71.2</v>
@@ -7807,15 +7481,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68">
       <c r="A68" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>79</v>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>ws1255</t>
+        </is>
       </c>
       <c r="C68" s="5" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>70.7</v>
@@ -7911,15 +7587,17 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69">
       <c r="A69" s="10" t="n">
         <v>66</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>80</v>
+      <c r="B69" s="10" t="inlineStr">
+        <is>
+          <t>SummerYang19</t>
+        </is>
       </c>
       <c r="C69" s="11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>69.8</v>
@@ -8015,15 +7693,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70">
       <c r="A70" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>81</v>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>1373757850</t>
+        </is>
       </c>
       <c r="C70" s="5" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D70" s="6" t="n">
         <v>68.90000000000001</v>
@@ -8119,15 +7799,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71">
       <c r="A71" s="10" t="n">
         <v>68</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>82</v>
+      <c r="B71" s="10" t="inlineStr">
+        <is>
+          <t>yuliangjin</t>
+        </is>
       </c>
       <c r="C71" s="11" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D71" s="6" t="n">
         <v>66.90000000000001</v>
@@ -8223,15 +7905,17 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72">
       <c r="A72" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>83</v>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>zchen9523</t>
+        </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D72" s="6" t="n">
         <v>65.7</v>
@@ -8327,15 +8011,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73">
       <c r="A73" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>84</v>
+      <c r="B73" s="10" t="inlineStr">
+        <is>
+          <t>Mengqian</t>
+        </is>
       </c>
       <c r="C73" s="11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D73" s="6" t="n">
         <v>64.5</v>
@@ -8431,15 +8117,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74">
       <c r="A74" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>85</v>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>sijin</t>
+        </is>
       </c>
       <c r="C74" s="5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D74" s="6" t="n">
         <v>64.40000000000001</v>
@@ -8535,15 +8223,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75">
       <c r="A75" s="10" t="n">
         <v>72</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>86</v>
+      <c r="B75" s="10" t="inlineStr">
+        <is>
+          <t>jliang</t>
+        </is>
       </c>
       <c r="C75" s="11" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D75" s="6" t="n">
         <v>64.3</v>
@@ -8639,15 +8329,17 @@
         <v>67.09999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76">
       <c r="A76" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>87</v>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>huyouhyw</t>
+        </is>
       </c>
       <c r="C76" s="5" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D76" s="6" t="n">
         <v>64.2</v>
@@ -8742,19 +8434,23 @@
       <c r="AH76" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="AI76" s="9" t="s">
-        <v>9</v>
+      <c r="AI76" s="9" t="inlineStr">
+        <is>
+          <t>Microsoft-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77">
       <c r="A77" s="10" t="n">
         <v>74</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>88</v>
+      <c r="B77" s="10" t="inlineStr">
+        <is>
+          <t>got7amy</t>
+        </is>
       </c>
       <c r="C77" s="11" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>63.4</v>
@@ -8850,15 +8546,17 @@
         <v>37.7</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78">
       <c r="A78" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>89</v>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>MaggieZhao95</t>
+        </is>
       </c>
       <c r="C78" s="5" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D78" s="6" t="n">
         <v>59.6</v>
@@ -8954,15 +8652,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79">
       <c r="A79" s="10" t="n">
         <v>76</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>90</v>
+      <c r="B79" s="10" t="inlineStr">
+        <is>
+          <t>LittleBaldHead</t>
+        </is>
       </c>
       <c r="C79" s="11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D79" s="6" t="n">
         <v>58.3</v>
@@ -9058,15 +8758,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80">
       <c r="A80" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>91</v>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>leetcodeyu1990</t>
+        </is>
       </c>
       <c r="C80" s="5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D80" s="6" t="n">
         <v>55.2</v>
@@ -9162,15 +8864,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81">
       <c r="A81" s="10" t="n">
         <v>78</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>92</v>
+      <c r="B81" s="10" t="inlineStr">
+        <is>
+          <t>phoenixpan</t>
+        </is>
       </c>
       <c r="C81" s="11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D81" s="6" t="n">
         <v>53.4</v>
@@ -9266,15 +8970,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82">
       <c r="A82" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>93</v>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>keyupeter</t>
+        </is>
       </c>
       <c r="C82" s="5" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D82" s="6" t="n">
         <v>50.4</v>
@@ -9370,15 +9076,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83">
       <c r="A83" s="10" t="n">
         <v>80</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>94</v>
+      <c r="B83" s="10" t="inlineStr">
+        <is>
+          <t>ellaliu</t>
+        </is>
       </c>
       <c r="C83" s="11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D83" s="6" t="n">
         <v>49.4</v>
@@ -9474,15 +9182,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84">
       <c r="A84" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>95</v>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Coder35</t>
+        </is>
       </c>
       <c r="C84" s="5" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D84" s="6" t="n">
         <v>47.9</v>
@@ -9578,15 +9288,17 @@
         <v>89.40000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85">
       <c r="A85" s="10" t="n">
         <v>82</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>96</v>
+      <c r="B85" s="10" t="inlineStr">
+        <is>
+          <t>xuyequan</t>
+        </is>
       </c>
       <c r="C85" s="11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" s="6" t="n">
         <v>47.1</v>
@@ -9682,15 +9394,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86">
       <c r="A86" s="4" t="n">
         <v>83</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>97</v>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>Kaiyu-Wang</t>
+        </is>
       </c>
       <c r="C86" s="5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D86" s="6" t="n">
         <v>46</v>
@@ -9785,19 +9499,23 @@
       <c r="AH86" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="AI86" s="9" t="s">
-        <v>9</v>
+      <c r="AI86" s="9" t="inlineStr">
+        <is>
+          <t>Microsoft-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87">
       <c r="A87" s="10" t="n">
         <v>84</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>98</v>
+      <c r="B87" s="10" t="inlineStr">
+        <is>
+          <t>KyleAC</t>
+        </is>
       </c>
       <c r="C87" s="11" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D87" s="6" t="n">
         <v>42.1</v>
@@ -9893,15 +9611,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88">
       <c r="A88" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>99</v>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>user4286</t>
+        </is>
       </c>
       <c r="C88" s="5" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D88" s="6" t="n">
         <v>41</v>
@@ -9997,15 +9717,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89">
       <c r="A89" s="10" t="n">
         <v>86</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>100</v>
+      <c r="B89" s="10" t="inlineStr">
+        <is>
+          <t>qw123</t>
+        </is>
       </c>
       <c r="C89" s="11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89" s="6" t="n">
         <v>38.7</v>
@@ -10101,15 +9823,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90">
       <c r="A90" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>101</v>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>Shaotong</t>
+        </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D90" s="6" t="n">
         <v>37.3</v>
@@ -10205,15 +9929,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91">
       <c r="A91" s="10" t="n">
         <v>88</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>102</v>
+      <c r="B91" s="10" t="inlineStr">
+        <is>
+          <t>Rui_Huang</t>
+        </is>
       </c>
       <c r="C91" s="11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D91" s="6" t="n">
         <v>30</v>
@@ -10309,15 +10035,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92">
       <c r="A92" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>103</v>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>zexingfa</t>
+        </is>
       </c>
       <c r="C92" s="5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D92" s="6" t="n">
         <v>25.5</v>
@@ -10413,15 +10141,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93">
       <c r="A93" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>104</v>
+      <c r="B93" s="10" t="inlineStr">
+        <is>
+          <t>Ansonluo1</t>
+        </is>
       </c>
       <c r="C93" s="11" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D93" s="6" t="n">
         <v>22.8</v>
@@ -10517,15 +10247,17 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94">
       <c r="A94" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>105</v>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>clchenliang</t>
+        </is>
       </c>
       <c r="C94" s="5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D94" s="6" t="n">
         <v>22.4</v>
@@ -10621,15 +10353,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95">
       <c r="A95" s="10" t="n">
         <v>92</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>106</v>
+      <c r="B95" s="10" t="inlineStr">
+        <is>
+          <t>fu_blue_turkey</t>
+        </is>
       </c>
       <c r="C95" s="11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D95" s="6" t="n">
         <v>17.4</v>
@@ -10725,15 +10459,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96">
       <c r="A96" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>107</v>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>user6745</t>
+        </is>
       </c>
       <c r="C96" s="5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D96" s="6" t="n">
         <v>0</v>
@@ -10829,15 +10565,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97">
       <c r="A97" s="10" t="n">
         <v>94</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>108</v>
+      <c r="B97" s="10" t="inlineStr">
+        <is>
+          <t>Zifengmolan</t>
+        </is>
       </c>
       <c r="C97" s="11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D97" s="6" t="n">
         <v>0</v>
@@ -10933,58 +10671,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
-      <c r="B101" s="16" t="s">
-        <v>109</v>
+    <row r="101">
+      <c r="B101" s="16" t="inlineStr">
+        <is>
+          <t>-1:     absent/zero</t>
+        </is>
       </c>
     </row>
-    <row r="102" spans="1:35">
-      <c r="B102" s="16" t="s">
-        <v>110</v>
+    <row r="102">
+      <c r="B102" s="16" t="inlineStr">
+        <is>
+          <t>-2:     not joined</t>
+        </is>
       </c>
     </row>
-    <row r="103" spans="1:35">
-      <c r="B103" s="16" t="s">
-        <v>111</v>
+    <row r="103">
+      <c r="B103" s="16" t="inlineStr">
+        <is>
+          <t>-3:     left/quited</t>
+        </is>
       </c>
     </row>
-    <row r="105" spans="1:35">
-      <c r="B105" s="17" t="s">
-        <v>112</v>
+    <row r="105">
+      <c r="B105" s="17" t="inlineStr">
+        <is>
+          <t>More about the Rules</t>
+        </is>
       </c>
     </row>
-    <row r="106" spans="1:35">
-      <c r="B106" s="17" t="s">
-        <v>113</v>
+    <row r="106">
+      <c r="B106" s="17" t="inlineStr">
+        <is>
+          <t>Full list of daily problems</t>
+        </is>
       </c>
     </row>
-    <row r="107" spans="1:35">
-      <c r="B107" s="17" t="s">
-        <v>114</v>
+    <row r="107">
+      <c r="B107" s="17" t="inlineStr">
+        <is>
+          <t>Recommended resources</t>
+        </is>
       </c>
     </row>
-    <row r="109" spans="1:35">
-      <c r="B109" t="s">
-        <v>115</v>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>curve-figure</t>
+        </is>
       </c>
     </row>
-    <row r="112" spans="1:35">
-      <c r="B112" s="17" t="s">
-        <v>116</v>
+    <row r="112">
+      <c r="B112" s="17" t="inlineStr">
+        <is>
+          <t>Graduated or laidoff members in 2019</t>
+        </is>
       </c>
     </row>
-    <row r="114" spans="1:35">
-      <c r="A114" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>118</v>
+    <row r="114">
+      <c r="A114" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B114" s="18" t="inlineStr">
+        <is>
+          <t>Bingyy</t>
+        </is>
       </c>
       <c r="C114" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D114" s="19" t="s">
-        <v>117</v>
+      <c r="D114" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E114" s="20" t="n">
         <v>-3</v>
@@ -11077,18 +10837,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:35">
-      <c r="A115" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>119</v>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>Brooky</t>
+        </is>
       </c>
       <c r="C115" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="D115" s="19" t="s">
-        <v>117</v>
+      <c r="D115" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E115" s="22" t="n">
         <v>-3</v>
@@ -11181,18 +10947,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:35">
-      <c r="A116" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>120</v>
+    <row r="116">
+      <c r="A116" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B116" s="18" t="inlineStr">
+        <is>
+          <t>DorisGe</t>
+        </is>
       </c>
       <c r="C116" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="D116" s="19" t="s">
-        <v>117</v>
+      <c r="D116" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E116" s="20" t="n">
         <v>-3</v>
@@ -11285,18 +11057,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:35">
-      <c r="A117" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>121</v>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>IrisGuo</t>
+        </is>
       </c>
       <c r="C117" s="11" t="n">
         <v>115</v>
       </c>
-      <c r="D117" s="19" t="s">
-        <v>117</v>
+      <c r="D117" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E117" s="22" t="n">
         <v>-3</v>
@@ -11388,22 +11166,30 @@
       <c r="AH117" s="22" t="n">
         <v>97.5</v>
       </c>
-      <c r="AI117" s="9" t="s">
-        <v>5</v>
+      <c r="AI117" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="118" spans="1:35">
-      <c r="A118" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>122</v>
+    <row r="118">
+      <c r="A118" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B118" s="18" t="inlineStr">
+        <is>
+          <t>JackTheBest</t>
+        </is>
       </c>
       <c r="C118" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="D118" s="19" t="s">
-        <v>117</v>
+      <c r="D118" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E118" s="20" t="n">
         <v>-3</v>
@@ -11496,18 +11282,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:35">
-      <c r="A119" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>123</v>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>LindaLyu</t>
+        </is>
       </c>
       <c r="C119" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D119" s="19" t="s">
-        <v>117</v>
+      <c r="D119" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E119" s="22" t="n">
         <v>-3</v>
@@ -11600,18 +11392,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:35">
-      <c r="A120" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>124</v>
+    <row r="120">
+      <c r="A120" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B120" s="18" t="inlineStr">
+        <is>
+          <t>Lisanaaa</t>
+        </is>
       </c>
       <c r="C120" s="5" t="n">
         <v>163</v>
       </c>
-      <c r="D120" s="19" t="s">
-        <v>117</v>
+      <c r="D120" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E120" s="20" t="n">
         <v>-3</v>
@@ -11703,22 +11501,30 @@
       <c r="AH120" s="20" t="n">
         <v>62.9</v>
       </c>
-      <c r="AI120" s="9" t="s">
-        <v>125</v>
+      <c r="AI120" s="9" t="inlineStr">
+        <is>
+          <t>Grab-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="121" spans="1:35">
-      <c r="A121" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>126</v>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>QAMichaelPeng</t>
+        </is>
       </c>
       <c r="C121" s="11" t="n">
         <v>78</v>
       </c>
-      <c r="D121" s="19" t="s">
-        <v>117</v>
+      <c r="D121" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E121" s="22" t="n">
         <v>-3</v>
@@ -11810,22 +11616,30 @@
       <c r="AH121" s="22" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="AI121" s="9" t="s">
-        <v>26</v>
+      <c r="AI121" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="122" spans="1:35">
-      <c r="A122" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>127</v>
+    <row r="122">
+      <c r="A122" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B122" s="18" t="inlineStr">
+        <is>
+          <t>Spencial</t>
+        </is>
       </c>
       <c r="C122" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="D122" s="19" t="s">
-        <v>117</v>
+      <c r="D122" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E122" s="20" t="n">
         <v>-3</v>
@@ -11917,22 +11731,30 @@
       <c r="AH122" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AI122" s="9" t="s">
-        <v>26</v>
+      <c r="AI122" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="123" spans="1:35">
-      <c r="A123" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>128</v>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>Suhe</t>
+        </is>
       </c>
       <c r="C123" s="11" t="n">
         <v>106</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>117</v>
+      <c r="D123" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E123" s="22" t="n">
         <v>-3</v>
@@ -12025,18 +11847,24 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="124" spans="1:35">
-      <c r="A124" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>129</v>
+    <row r="124">
+      <c r="A124" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B124" s="18" t="inlineStr">
+        <is>
+          <t>Vanggie</t>
+        </is>
       </c>
       <c r="C124" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="D124" s="19" t="s">
-        <v>117</v>
+      <c r="D124" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E124" s="20" t="n">
         <v>-3</v>
@@ -12129,18 +11957,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:35">
-      <c r="A125" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>130</v>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>Vicky_Owen</t>
+        </is>
       </c>
       <c r="C125" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="D125" s="19" t="s">
-        <v>117</v>
+      <c r="D125" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E125" s="22" t="n">
         <v>-3</v>
@@ -12232,22 +12066,30 @@
       <c r="AH125" s="22" t="n">
         <v>61</v>
       </c>
-      <c r="AI125" s="9" t="s">
-        <v>26</v>
+      <c r="AI125" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="126" spans="1:35">
-      <c r="A126" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>131</v>
+    <row r="126">
+      <c r="A126" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B126" s="18" t="inlineStr">
+        <is>
+          <t>XRS</t>
+        </is>
       </c>
       <c r="C126" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D126" s="19" t="s">
-        <v>117</v>
+      <c r="D126" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E126" s="20" t="n">
         <v>-3</v>
@@ -12340,18 +12182,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:35">
-      <c r="A127" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>132</v>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>XYang93</t>
+        </is>
       </c>
       <c r="C127" s="11" t="n">
         <v>160</v>
       </c>
-      <c r="D127" s="19" t="s">
-        <v>117</v>
+      <c r="D127" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E127" s="22" t="n">
         <v>-3</v>
@@ -12444,18 +12292,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:35">
-      <c r="A128" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>133</v>
+    <row r="128">
+      <c r="A128" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B128" s="18" t="inlineStr">
+        <is>
+          <t>Yizhao_Han</t>
+        </is>
       </c>
       <c r="C128" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="D128" s="19" t="s">
-        <v>117</v>
+      <c r="D128" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E128" s="20" t="n">
         <v>-3</v>
@@ -12548,18 +12402,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:35">
-      <c r="A129" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>134</v>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>ZOEGREEN</t>
+        </is>
       </c>
       <c r="C129" s="11" t="n">
         <v>112</v>
       </c>
-      <c r="D129" s="19" t="s">
-        <v>117</v>
+      <c r="D129" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E129" s="22" t="n">
         <v>-3</v>
@@ -12651,22 +12511,30 @@
       <c r="AH129" s="22" t="n">
         <v>36.4</v>
       </c>
-      <c r="AI129" s="9" t="s">
-        <v>9</v>
+      <c r="AI129" s="9" t="inlineStr">
+        <is>
+          <t>Microsoft-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="130" spans="1:35">
-      <c r="A130" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>135</v>
+    <row r="130">
+      <c r="A130" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B130" s="18" t="inlineStr">
+        <is>
+          <t>ZhuYamei</t>
+        </is>
       </c>
       <c r="C130" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="D130" s="19" t="s">
-        <v>117</v>
+      <c r="D130" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E130" s="20" t="n">
         <v>-3</v>
@@ -12759,18 +12627,24 @@
         <v>82.40000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:35">
-      <c r="A131" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>136</v>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>abyebye</t>
+        </is>
       </c>
       <c r="C131" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D131" s="19" t="s">
-        <v>117</v>
+      <c r="D131" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E131" s="22" t="n">
         <v>-3</v>
@@ -12863,18 +12737,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:35">
-      <c r="A132" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>137</v>
+    <row r="132">
+      <c r="A132" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B132" s="18" t="inlineStr">
+        <is>
+          <t>banrenmasanxing</t>
+        </is>
       </c>
       <c r="C132" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="D132" s="19" t="s">
-        <v>117</v>
+      <c r="D132" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E132" s="20" t="n">
         <v>-3</v>
@@ -12967,18 +12847,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:35">
-      <c r="A133" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>138</v>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>bellumpara</t>
+        </is>
       </c>
       <c r="C133" s="11" t="n">
         <v>166</v>
       </c>
-      <c r="D133" s="19" t="s">
-        <v>117</v>
+      <c r="D133" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E133" s="22" t="n">
         <v>-3</v>
@@ -13071,18 +12957,24 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="134" spans="1:35">
-      <c r="A134" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>139</v>
+    <row r="134">
+      <c r="A134" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B134" s="18" t="inlineStr">
+        <is>
+          <t>cookiecookie</t>
+        </is>
       </c>
       <c r="C134" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="D134" s="19" t="s">
-        <v>117</v>
+      <c r="D134" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E134" s="20" t="n">
         <v>-3</v>
@@ -13175,18 +13067,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:35">
-      <c r="A135" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>140</v>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>crossbowman</t>
+        </is>
       </c>
       <c r="C135" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="D135" s="19" t="s">
-        <v>117</v>
+      <c r="D135" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E135" s="22" t="n">
         <v>-3</v>
@@ -13279,18 +13177,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:35">
-      <c r="A136" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B136" s="18" t="s">
-        <v>141</v>
+    <row r="136">
+      <c r="A136" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B136" s="18" t="inlineStr">
+        <is>
+          <t>deerstalker</t>
+        </is>
       </c>
       <c r="C136" s="5" t="n">
         <v>177</v>
       </c>
-      <c r="D136" s="19" t="s">
-        <v>117</v>
+      <c r="D136" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E136" s="20" t="n">
         <v>-3</v>
@@ -13382,22 +13286,30 @@
       <c r="AH136" s="20" t="n">
         <v>59.6</v>
       </c>
-      <c r="AI136" s="9" t="s">
-        <v>5</v>
+      <c r="AI136" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="137" spans="1:35">
-      <c r="A137" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>142</v>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>dhf13</t>
+        </is>
       </c>
       <c r="C137" s="11" t="n">
         <v>176</v>
       </c>
-      <c r="D137" s="19" t="s">
-        <v>117</v>
+      <c r="D137" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E137" s="22" t="n">
         <v>-3</v>
@@ -13490,18 +13402,24 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="138" spans="1:35">
-      <c r="A138" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B138" s="18" t="s">
-        <v>143</v>
+    <row r="138">
+      <c r="A138" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B138" s="18" t="inlineStr">
+        <is>
+          <t>fuxuemingzhu</t>
+        </is>
       </c>
       <c r="C138" s="5" t="n">
         <v>161</v>
       </c>
-      <c r="D138" s="19" t="s">
-        <v>117</v>
+      <c r="D138" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E138" s="20" t="n">
         <v>-3</v>
@@ -13593,22 +13511,30 @@
       <c r="AH138" s="20" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="AI138" s="9" t="s">
-        <v>144</v>
+      <c r="AI138" s="9" t="inlineStr">
+        <is>
+          <t>ByteDance-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="139" spans="1:35">
-      <c r="A139" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>145</v>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>fyang618</t>
+        </is>
       </c>
       <c r="C139" s="11" t="n">
         <v>164</v>
       </c>
-      <c r="D139" s="19" t="s">
-        <v>117</v>
+      <c r="D139" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E139" s="22" t="n">
         <v>-3</v>
@@ -13701,18 +13627,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:35">
-      <c r="A140" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B140" s="18" t="s">
-        <v>146</v>
+    <row r="140">
+      <c r="A140" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B140" s="18" t="inlineStr">
+        <is>
+          <t>galiniunan</t>
+        </is>
       </c>
       <c r="C140" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="D140" s="19" t="s">
-        <v>117</v>
+      <c r="D140" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E140" s="20" t="n">
         <v>-3</v>
@@ -13805,18 +13737,24 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="141" spans="1:35">
-      <c r="A141" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>147</v>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>gyf6434</t>
+        </is>
       </c>
       <c r="C141" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="D141" s="19" t="s">
-        <v>117</v>
+      <c r="D141" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E141" s="22" t="n">
         <v>-3</v>
@@ -13909,18 +13847,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:35">
-      <c r="A142" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B142" s="18" t="s">
-        <v>148</v>
+    <row r="142">
+      <c r="A142" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B142" s="18" t="inlineStr">
+        <is>
+          <t>hgzry812</t>
+        </is>
       </c>
       <c r="C142" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="D142" s="19" t="s">
-        <v>117</v>
+      <c r="D142" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E142" s="20" t="n">
         <v>-3</v>
@@ -14013,18 +13957,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:35">
-      <c r="A143" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>149</v>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="inlineStr">
+        <is>
+          <t>jiancheng2</t>
+        </is>
       </c>
       <c r="C143" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="D143" s="19" t="s">
-        <v>117</v>
+      <c r="D143" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E143" s="22" t="n">
         <v>-3</v>
@@ -14117,18 +14067,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:35">
-      <c r="A144" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>150</v>
+    <row r="144">
+      <c r="A144" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B144" s="18" t="inlineStr">
+        <is>
+          <t>jiang718</t>
+        </is>
       </c>
       <c r="C144" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="D144" s="19" t="s">
-        <v>117</v>
+      <c r="D144" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E144" s="20" t="n">
         <v>-3</v>
@@ -14220,22 +14176,30 @@
       <c r="AH144" s="20" t="n">
         <v>84.7</v>
       </c>
-      <c r="AI144" s="9" t="s">
-        <v>70</v>
+      <c r="AI144" s="9" t="inlineStr">
+        <is>
+          <t>PureStorage-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="145" spans="1:35">
-      <c r="A145" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>151</v>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>jianzhun</t>
+        </is>
       </c>
       <c r="C145" s="11" t="n">
         <v>74</v>
       </c>
-      <c r="D145" s="19" t="s">
-        <v>117</v>
+      <c r="D145" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E145" s="22" t="n">
         <v>-3</v>
@@ -14327,22 +14291,30 @@
       <c r="AH145" s="22" t="n">
         <v>80.7</v>
       </c>
-      <c r="AI145" s="9" t="s">
-        <v>152</v>
+      <c r="AI145" s="9" t="inlineStr">
+        <is>
+          <t>SnowFlake-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="146" spans="1:35">
-      <c r="A146" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B146" s="18" t="s">
-        <v>153</v>
+    <row r="146">
+      <c r="A146" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B146" s="18" t="inlineStr">
+        <is>
+          <t>kaihaohust</t>
+        </is>
       </c>
       <c r="C146" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="D146" s="19" t="s">
-        <v>117</v>
+      <c r="D146" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E146" s="20" t="n">
         <v>-3</v>
@@ -14434,22 +14406,30 @@
       <c r="AH146" s="20" t="n">
         <v>88.5</v>
       </c>
-      <c r="AI146" s="9" t="s">
-        <v>68</v>
+      <c r="AI146" s="9" t="inlineStr">
+        <is>
+          <t>Walmart-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="147" spans="1:35">
-      <c r="A147" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>154</v>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="inlineStr">
+        <is>
+          <t>liuguanhualouie</t>
+        </is>
       </c>
       <c r="C147" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="D147" s="19" t="s">
-        <v>117</v>
+      <c r="D147" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E147" s="22" t="n">
         <v>-3</v>
@@ -14541,22 +14521,30 @@
       <c r="AH147" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="AI147" s="9" t="s">
-        <v>26</v>
+      <c r="AI147" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="148" spans="1:35">
-      <c r="A148" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>155</v>
+    <row r="148">
+      <c r="A148" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B148" s="18" t="inlineStr">
+        <is>
+          <t>memoryfraction</t>
+        </is>
       </c>
       <c r="C148" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="D148" s="19" t="s">
-        <v>117</v>
+      <c r="D148" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E148" s="20" t="n">
         <v>-3</v>
@@ -14649,18 +14637,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:35">
-      <c r="A149" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>156</v>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="inlineStr">
+        <is>
+          <t>pjincz</t>
+        </is>
       </c>
       <c r="C149" s="11" t="n">
         <v>62</v>
       </c>
-      <c r="D149" s="19" t="s">
-        <v>117</v>
+      <c r="D149" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E149" s="22" t="n">
         <v>-3</v>
@@ -14753,18 +14747,24 @@
         <v>99.09999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:35">
-      <c r="A150" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B150" s="18" t="s">
-        <v>157</v>
+    <row r="150">
+      <c r="A150" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B150" s="18" t="inlineStr">
+        <is>
+          <t>shuizhouwang</t>
+        </is>
       </c>
       <c r="C150" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="D150" s="19" t="s">
-        <v>117</v>
+      <c r="D150" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E150" s="20" t="n">
         <v>-3</v>
@@ -14857,18 +14857,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:35">
-      <c r="A151" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>158</v>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="inlineStr">
+        <is>
+          <t>sissishiny</t>
+        </is>
       </c>
       <c r="C151" s="11" t="n">
         <v>48</v>
       </c>
-      <c r="D151" s="19" t="s">
-        <v>117</v>
+      <c r="D151" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E151" s="22" t="n">
         <v>-3</v>
@@ -14961,18 +14967,24 @@
         <v>70.59999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:35">
-      <c r="A152" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>159</v>
+    <row r="152">
+      <c r="A152" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B152" s="18" t="inlineStr">
+        <is>
+          <t>softair</t>
+        </is>
       </c>
       <c r="C152" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="D152" s="19" t="s">
-        <v>117</v>
+      <c r="D152" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E152" s="20" t="n">
         <v>-3</v>
@@ -15064,22 +15076,30 @@
       <c r="AH152" s="20" t="n">
         <v>60.3</v>
       </c>
-      <c r="AI152" s="9" t="s">
-        <v>5</v>
+      <c r="AI152" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="153" spans="1:35">
-      <c r="A153" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>160</v>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>wendyimayday</t>
+        </is>
       </c>
       <c r="C153" s="11" t="n">
         <v>94</v>
       </c>
-      <c r="D153" s="19" t="s">
-        <v>117</v>
+      <c r="D153" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E153" s="22" t="n">
         <v>-3</v>
@@ -15172,18 +15192,24 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="154" spans="1:35">
-      <c r="A154" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>161</v>
+    <row r="154">
+      <c r="A154" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B154" s="18" t="inlineStr">
+        <is>
+          <t>wolf940509</t>
+        </is>
       </c>
       <c r="C154" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="D154" s="19" t="s">
-        <v>117</v>
+      <c r="D154" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E154" s="20" t="n">
         <v>-3</v>
@@ -15276,18 +15302,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:35">
-      <c r="A155" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>162</v>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>xfzhao</t>
+        </is>
       </c>
       <c r="C155" s="11" t="n">
         <v>174</v>
       </c>
-      <c r="D155" s="19" t="s">
-        <v>117</v>
+      <c r="D155" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E155" s="22" t="n">
         <v>-3</v>
@@ -15380,18 +15412,24 @@
         <v>39.3</v>
       </c>
     </row>
-    <row r="156" spans="1:35">
-      <c r="A156" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>163</v>
+    <row r="156">
+      <c r="A156" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B156" s="18" t="inlineStr">
+        <is>
+          <t>xxnzym</t>
+        </is>
       </c>
       <c r="C156" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="D156" s="19" t="s">
-        <v>117</v>
+      <c r="D156" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E156" s="20" t="n">
         <v>-3</v>
@@ -15483,22 +15521,30 @@
       <c r="AH156" s="20" t="n">
         <v>64.3</v>
       </c>
-      <c r="AI156" s="9" t="s">
-        <v>9</v>
+      <c r="AI156" s="9" t="inlineStr">
+        <is>
+          <t>Microsoft-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="157" spans="1:35">
-      <c r="A157" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>164</v>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="inlineStr">
+        <is>
+          <t>yexiaoxiao2102</t>
+        </is>
       </c>
       <c r="C157" s="11" t="n">
         <v>60</v>
       </c>
-      <c r="D157" s="19" t="s">
-        <v>117</v>
+      <c r="D157" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E157" s="22" t="n">
         <v>-3</v>
@@ -15590,22 +15636,30 @@
       <c r="AH157" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="AI157" s="9" t="s">
-        <v>5</v>
+      <c r="AI157" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
-    <row r="158" spans="1:35">
-      <c r="A158" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>165</v>
+    <row r="158">
+      <c r="A158" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B158" s="18" t="inlineStr">
+        <is>
+          <t>yykfight</t>
+        </is>
       </c>
       <c r="C158" s="5" t="n">
         <v>184</v>
       </c>
-      <c r="D158" s="19" t="s">
-        <v>117</v>
+      <c r="D158" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E158" s="20" t="n">
         <v>-3</v>
@@ -15698,18 +15752,24 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="159" spans="1:35">
-      <c r="A159" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>166</v>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>zhangsikai123</t>
+        </is>
       </c>
       <c r="C159" s="11" t="n">
         <v>165</v>
       </c>
-      <c r="D159" s="19" t="s">
-        <v>117</v>
+      <c r="D159" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E159" s="22" t="n">
         <v>-3</v>
@@ -15801,8 +15861,10 @@
       <c r="AH159" s="22" t="n">
         <v>50.7</v>
       </c>
-      <c r="AI159" s="9" t="s">
-        <v>167</v>
+      <c r="AI159" s="9" t="inlineStr">
+        <is>
+          <t>RedBook-Logo</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -15844,149 +15906,149 @@
     <mergeCell ref="B112:J112"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B66" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B68" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B69" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B70" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B71" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B72" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B73" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B74" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B75" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B76" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B77" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B78" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B79" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B80" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B81" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B82" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B83" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B84" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B85" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B86" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B87" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B88" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B89" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B90" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B91" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B92" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B93" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B94" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B95" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B96" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B97" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B105" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B106" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B107" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B114" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B115" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B116" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B117" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B120" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B121" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B122" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B123" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B124" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B128" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B129" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B130" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B131" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B132" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B133" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B135" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B137" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B140" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B141" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B142" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B143" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B144" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B149" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B153" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B154" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B155" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B156" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B157" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B158" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B159" r:id="rId143"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B37" r:id="rId34"/>
+    <hyperlink ref="B38" r:id="rId35"/>
+    <hyperlink ref="B39" r:id="rId36"/>
+    <hyperlink ref="B40" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B42" r:id="rId39"/>
+    <hyperlink ref="B43" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41"/>
+    <hyperlink ref="B45" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B48" r:id="rId45"/>
+    <hyperlink ref="B49" r:id="rId46"/>
+    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B51" r:id="rId48"/>
+    <hyperlink ref="B52" r:id="rId49"/>
+    <hyperlink ref="B53" r:id="rId50"/>
+    <hyperlink ref="B54" r:id="rId51"/>
+    <hyperlink ref="B55" r:id="rId52"/>
+    <hyperlink ref="B56" r:id="rId53"/>
+    <hyperlink ref="B57" r:id="rId54"/>
+    <hyperlink ref="B58" r:id="rId55"/>
+    <hyperlink ref="B59" r:id="rId56"/>
+    <hyperlink ref="B60" r:id="rId57"/>
+    <hyperlink ref="B61" r:id="rId58"/>
+    <hyperlink ref="B62" r:id="rId59"/>
+    <hyperlink ref="B63" r:id="rId60"/>
+    <hyperlink ref="B64" r:id="rId61"/>
+    <hyperlink ref="B65" r:id="rId62"/>
+    <hyperlink ref="B66" r:id="rId63"/>
+    <hyperlink ref="B67" r:id="rId64"/>
+    <hyperlink ref="B68" r:id="rId65"/>
+    <hyperlink ref="B69" r:id="rId66"/>
+    <hyperlink ref="B70" r:id="rId67"/>
+    <hyperlink ref="B71" r:id="rId68"/>
+    <hyperlink ref="B72" r:id="rId69"/>
+    <hyperlink ref="B73" r:id="rId70"/>
+    <hyperlink ref="B74" r:id="rId71"/>
+    <hyperlink ref="B75" r:id="rId72"/>
+    <hyperlink ref="B76" r:id="rId73"/>
+    <hyperlink ref="B77" r:id="rId74"/>
+    <hyperlink ref="B78" r:id="rId75"/>
+    <hyperlink ref="B79" r:id="rId76"/>
+    <hyperlink ref="B80" r:id="rId77"/>
+    <hyperlink ref="B81" r:id="rId78"/>
+    <hyperlink ref="B82" r:id="rId79"/>
+    <hyperlink ref="B83" r:id="rId80"/>
+    <hyperlink ref="B84" r:id="rId81"/>
+    <hyperlink ref="B85" r:id="rId82"/>
+    <hyperlink ref="B86" r:id="rId83"/>
+    <hyperlink ref="B87" r:id="rId84"/>
+    <hyperlink ref="B88" r:id="rId85"/>
+    <hyperlink ref="B89" r:id="rId86"/>
+    <hyperlink ref="B90" r:id="rId87"/>
+    <hyperlink ref="B91" r:id="rId88"/>
+    <hyperlink ref="B92" r:id="rId89"/>
+    <hyperlink ref="B93" r:id="rId90"/>
+    <hyperlink ref="B94" r:id="rId91"/>
+    <hyperlink ref="B95" r:id="rId92"/>
+    <hyperlink ref="B96" r:id="rId93"/>
+    <hyperlink ref="B97" r:id="rId94"/>
+    <hyperlink ref="B105" r:id="rId95"/>
+    <hyperlink ref="B106" r:id="rId96"/>
+    <hyperlink ref="B107" r:id="rId97"/>
+    <hyperlink ref="B114" r:id="rId98"/>
+    <hyperlink ref="B115" r:id="rId99"/>
+    <hyperlink ref="B116" r:id="rId100"/>
+    <hyperlink ref="B117" r:id="rId101"/>
+    <hyperlink ref="B118" r:id="rId102"/>
+    <hyperlink ref="B119" r:id="rId103"/>
+    <hyperlink ref="B120" r:id="rId104"/>
+    <hyperlink ref="B121" r:id="rId105"/>
+    <hyperlink ref="B122" r:id="rId106"/>
+    <hyperlink ref="B123" r:id="rId107"/>
+    <hyperlink ref="B124" r:id="rId108"/>
+    <hyperlink ref="B125" r:id="rId109"/>
+    <hyperlink ref="B126" r:id="rId110"/>
+    <hyperlink ref="B127" r:id="rId111"/>
+    <hyperlink ref="B128" r:id="rId112"/>
+    <hyperlink ref="B129" r:id="rId113"/>
+    <hyperlink ref="B130" r:id="rId114"/>
+    <hyperlink ref="B131" r:id="rId115"/>
+    <hyperlink ref="B132" r:id="rId116"/>
+    <hyperlink ref="B133" r:id="rId117"/>
+    <hyperlink ref="B134" r:id="rId118"/>
+    <hyperlink ref="B135" r:id="rId119"/>
+    <hyperlink ref="B136" r:id="rId120"/>
+    <hyperlink ref="B137" r:id="rId121"/>
+    <hyperlink ref="B138" r:id="rId122"/>
+    <hyperlink ref="B139" r:id="rId123"/>
+    <hyperlink ref="B140" r:id="rId124"/>
+    <hyperlink ref="B141" r:id="rId125"/>
+    <hyperlink ref="B142" r:id="rId126"/>
+    <hyperlink ref="B143" r:id="rId127"/>
+    <hyperlink ref="B144" r:id="rId128"/>
+    <hyperlink ref="B145" r:id="rId129"/>
+    <hyperlink ref="B146" r:id="rId130"/>
+    <hyperlink ref="B147" r:id="rId131"/>
+    <hyperlink ref="B148" r:id="rId132"/>
+    <hyperlink ref="B149" r:id="rId133"/>
+    <hyperlink ref="B150" r:id="rId134"/>
+    <hyperlink ref="B151" r:id="rId135"/>
+    <hyperlink ref="B152" r:id="rId136"/>
+    <hyperlink ref="B153" r:id="rId137"/>
+    <hyperlink ref="B154" r:id="rId138"/>
+    <hyperlink ref="B155" r:id="rId139"/>
+    <hyperlink ref="B156" r:id="rId140"/>
+    <hyperlink ref="B157" r:id="rId141"/>
+    <hyperlink ref="B158" r:id="rId142"/>
+    <hyperlink ref="B159" r:id="rId143"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>100</v>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>99.5</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>99</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C7" s="11" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>98.40000000000001</v>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>97.59999999999999</v>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="C9" s="11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>97.2</v>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>96.7</v>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C11" s="11" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>96.3</v>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>96.09999999999999</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="C13" s="11" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>95.59999999999999</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>95.5</v>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="C15" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>95.40000000000001</v>
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>95.2</v>
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="C17" s="11" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>95.09999999999999</v>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>95.09999999999999</v>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="C19" s="11" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>94.8</v>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>94.59999999999999</v>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="C21" s="11" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>94.2</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>93.90000000000001</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C23" s="11" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>93.7</v>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>93.40000000000001</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="C25" s="11" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>93.2</v>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>92.3</v>
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="C27" s="11" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>92</v>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>91.8</v>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C29" s="11" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>91.40000000000001</v>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>91.3</v>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="C31" s="11" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>91.09999999999999</v>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="C32" s="5" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>91</v>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C33" s="11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>90.2</v>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>89.8</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="C35" s="11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>89.5</v>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>89.2</v>
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="C37" s="11" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>88.8</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>88.59999999999999</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C39" s="11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>88.2</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>86.2</v>
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="C41" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>84.59999999999999</v>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" s="6" t="n">
         <v>84</v>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="C43" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>83.8</v>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>83.40000000000001</v>
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="C45" s="11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>81</v>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>80.40000000000001</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C47" s="11" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>80.2</v>
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>80.2</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C49" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>77.3</v>
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>76.5</v>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="C51" s="11" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D51" s="6" t="n">
         <v>76.2</v>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D52" s="6" t="n">
         <v>75.5</v>
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="C53" s="11" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D53" s="6" t="n">
         <v>75.3</v>
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D54" s="6" t="n">
         <v>75.09999999999999</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="C55" s="11" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>75.09999999999999</v>
@@ -6187,6 +6187,11 @@
       </c>
       <c r="AH55" s="12" t="n">
         <v>62.3</v>
+      </c>
+      <c r="AI55" s="9" t="inlineStr">
+        <is>
+          <t>Schlumberger-Logo</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -6199,7 +6204,7 @@
         </is>
       </c>
       <c r="C56" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" s="6" t="n">
         <v>75</v>
@@ -6305,7 +6310,7 @@
         </is>
       </c>
       <c r="C57" s="11" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D57" s="6" t="n">
         <v>74.8</v>
@@ -6416,7 +6421,7 @@
         </is>
       </c>
       <c r="C58" s="5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="6" t="n">
         <v>74.59999999999999</v>
@@ -6527,7 +6532,7 @@
         </is>
       </c>
       <c r="C59" s="11" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="6" t="n">
         <v>74.5</v>
@@ -6638,7 +6643,7 @@
         </is>
       </c>
       <c r="C60" s="5" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D60" s="6" t="n">
         <v>74.2</v>
@@ -6744,7 +6749,7 @@
         </is>
       </c>
       <c r="C61" s="11" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D61" s="6" t="n">
         <v>73.59999999999999</v>
@@ -6855,7 +6860,7 @@
         </is>
       </c>
       <c r="C62" s="5" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D62" s="6" t="n">
         <v>72.40000000000001</v>
@@ -6961,7 +6966,7 @@
         </is>
       </c>
       <c r="C63" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" s="6" t="n">
         <v>72.09999999999999</v>
@@ -7067,7 +7072,7 @@
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" s="6" t="n">
         <v>71.90000000000001</v>
@@ -7173,7 +7178,7 @@
         </is>
       </c>
       <c r="C65" s="11" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D65" s="6" t="n">
         <v>71.8</v>
@@ -7279,7 +7284,7 @@
         </is>
       </c>
       <c r="C66" s="5" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D66" s="6" t="n">
         <v>71.2</v>
@@ -7385,7 +7390,7 @@
         </is>
       </c>
       <c r="C67" s="11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>71.2</v>
@@ -7491,7 +7496,7 @@
         </is>
       </c>
       <c r="C68" s="5" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>70.7</v>
@@ -7597,7 +7602,7 @@
         </is>
       </c>
       <c r="C69" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>69.8</v>
@@ -7703,7 +7708,7 @@
         </is>
       </c>
       <c r="C70" s="5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D70" s="6" t="n">
         <v>68.90000000000001</v>
@@ -7809,7 +7814,7 @@
         </is>
       </c>
       <c r="C71" s="11" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D71" s="6" t="n">
         <v>66.90000000000001</v>
@@ -7915,7 +7920,7 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D72" s="6" t="n">
         <v>65.7</v>
@@ -8021,7 +8026,7 @@
         </is>
       </c>
       <c r="C73" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D73" s="6" t="n">
         <v>64.5</v>
@@ -8127,7 +8132,7 @@
         </is>
       </c>
       <c r="C74" s="5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" s="6" t="n">
         <v>64.40000000000001</v>
@@ -8233,7 +8238,7 @@
         </is>
       </c>
       <c r="C75" s="11" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D75" s="6" t="n">
         <v>64.3</v>
@@ -8339,7 +8344,7 @@
         </is>
       </c>
       <c r="C76" s="5" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D76" s="6" t="n">
         <v>64.2</v>
@@ -8450,7 +8455,7 @@
         </is>
       </c>
       <c r="C77" s="11" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>63.4</v>
@@ -8556,7 +8561,7 @@
         </is>
       </c>
       <c r="C78" s="5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D78" s="6" t="n">
         <v>59.6</v>
@@ -8662,7 +8667,7 @@
         </is>
       </c>
       <c r="C79" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" s="6" t="n">
         <v>58.3</v>
@@ -8768,7 +8773,7 @@
         </is>
       </c>
       <c r="C80" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D80" s="6" t="n">
         <v>55.2</v>
@@ -8874,7 +8879,7 @@
         </is>
       </c>
       <c r="C81" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81" s="6" t="n">
         <v>53.4</v>
@@ -8980,7 +8985,7 @@
         </is>
       </c>
       <c r="C82" s="5" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82" s="6" t="n">
         <v>50.4</v>
@@ -9086,7 +9091,7 @@
         </is>
       </c>
       <c r="C83" s="11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D83" s="6" t="n">
         <v>49.4</v>
@@ -9192,7 +9197,7 @@
         </is>
       </c>
       <c r="C84" s="5" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D84" s="6" t="n">
         <v>47.9</v>
@@ -9298,7 +9303,7 @@
         </is>
       </c>
       <c r="C85" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" s="6" t="n">
         <v>47.1</v>
@@ -9404,7 +9409,7 @@
         </is>
       </c>
       <c r="C86" s="5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" s="6" t="n">
         <v>46</v>
@@ -9515,7 +9520,7 @@
         </is>
       </c>
       <c r="C87" s="11" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D87" s="6" t="n">
         <v>42.1</v>
@@ -9621,7 +9626,7 @@
         </is>
       </c>
       <c r="C88" s="5" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D88" s="6" t="n">
         <v>41</v>
@@ -9727,7 +9732,7 @@
         </is>
       </c>
       <c r="C89" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" s="6" t="n">
         <v>38.7</v>
@@ -9833,7 +9838,7 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D90" s="6" t="n">
         <v>37.3</v>
@@ -9939,7 +9944,7 @@
         </is>
       </c>
       <c r="C91" s="11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" s="6" t="n">
         <v>30</v>
@@ -10045,7 +10050,7 @@
         </is>
       </c>
       <c r="C92" s="5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" s="6" t="n">
         <v>25.5</v>
@@ -10151,7 +10156,7 @@
         </is>
       </c>
       <c r="C93" s="11" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D93" s="6" t="n">
         <v>22.8</v>
@@ -10257,7 +10262,7 @@
         </is>
       </c>
       <c r="C94" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" s="6" t="n">
         <v>22.4</v>
@@ -10363,7 +10368,7 @@
         </is>
       </c>
       <c r="C95" s="11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="6" t="n">
         <v>17.4</v>
@@ -10469,7 +10474,7 @@
         </is>
       </c>
       <c r="C96" s="5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96" s="6" t="n">
         <v>0</v>
@@ -10575,7 +10580,7 @@
         </is>
       </c>
       <c r="C97" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97" s="6" t="n">
         <v>0</v>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -1242,6 +1242,11 @@
       <c r="AH9" s="12" t="n">
         <v>0</v>
       </c>
+      <c r="AI9" s="9" t="inlineStr">
+        <is>
+          <t>MathWorks-Logo</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>100</v>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>99.5</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>99</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C7" s="11" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>98.40000000000001</v>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>97.59999999999999</v>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="C9" s="11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>97.2</v>
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>96.7</v>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="C11" s="11" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>96.3</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>96.09999999999999</v>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C13" s="11" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>95.59999999999999</v>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>95.5</v>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="C15" s="11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>95.40000000000001</v>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>95.2</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="C17" s="11" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>95.09999999999999</v>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>95.09999999999999</v>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C19" s="11" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>94.8</v>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>94.59999999999999</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="C21" s="11" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>94.2</v>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>93.90000000000001</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="C23" s="11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>93.7</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>93.40000000000001</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="C25" s="11" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>93.2</v>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>92.3</v>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="C27" s="11" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>92</v>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>91.8</v>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="C29" s="11" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>91.40000000000001</v>
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>91.3</v>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="C31" s="11" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>91.09999999999999</v>
@@ -3630,7 +3630,7 @@
         </is>
       </c>
       <c r="C32" s="5" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>91</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C33" s="11" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>90.2</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>89.8</v>
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="C35" s="11" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>89.5</v>
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>89.2</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="C37" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>88.8</v>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>88.59999999999999</v>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="C39" s="11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>88.2</v>
@@ -4476,6 +4476,11 @@
       </c>
       <c r="AH39" s="12" t="n">
         <v>81.40000000000001</v>
+      </c>
+      <c r="AI39" s="9" t="inlineStr">
+        <is>
+          <t>LandingAI-Logo</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -4488,7 +4493,7 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>86.2</v>
@@ -4594,7 +4599,7 @@
         </is>
       </c>
       <c r="C41" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>84.59999999999999</v>
@@ -4705,7 +4710,7 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="6" t="n">
         <v>84</v>
@@ -4811,7 +4816,7 @@
         </is>
       </c>
       <c r="C43" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>83.8</v>
@@ -4917,7 +4922,7 @@
         </is>
       </c>
       <c r="C44" s="5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>83.40000000000001</v>
@@ -5023,7 +5028,7 @@
         </is>
       </c>
       <c r="C45" s="11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>81</v>
@@ -5129,7 +5134,7 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>80.40000000000001</v>
@@ -5235,7 +5240,7 @@
         </is>
       </c>
       <c r="C47" s="11" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>80.2</v>
@@ -5346,7 +5351,7 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>80.2</v>
@@ -5452,7 +5457,7 @@
         </is>
       </c>
       <c r="C49" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>77.3</v>
@@ -5558,7 +5563,7 @@
         </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>76.5</v>
@@ -5664,7 +5669,7 @@
         </is>
       </c>
       <c r="C51" s="11" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="6" t="n">
         <v>76.2</v>
@@ -5770,7 +5775,7 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D52" s="6" t="n">
         <v>75.5</v>
@@ -5881,7 +5886,7 @@
         </is>
       </c>
       <c r="C53" s="11" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D53" s="6" t="n">
         <v>75.3</v>
@@ -5992,7 +5997,7 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D54" s="6" t="n">
         <v>75.09999999999999</v>
@@ -6086,6 +6091,11 @@
       </c>
       <c r="AH54" s="8" t="n">
         <v>36.9</v>
+      </c>
+      <c r="AI54" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -6098,7 +6108,7 @@
         </is>
       </c>
       <c r="C55" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>75.09999999999999</v>
@@ -6209,7 +6219,7 @@
         </is>
       </c>
       <c r="C56" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" s="6" t="n">
         <v>75</v>
@@ -6315,7 +6325,7 @@
         </is>
       </c>
       <c r="C57" s="11" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D57" s="6" t="n">
         <v>74.8</v>
@@ -6426,7 +6436,7 @@
         </is>
       </c>
       <c r="C58" s="5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" s="6" t="n">
         <v>74.59999999999999</v>
@@ -6537,7 +6547,7 @@
         </is>
       </c>
       <c r="C59" s="11" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="6" t="n">
         <v>74.5</v>
@@ -6648,7 +6658,7 @@
         </is>
       </c>
       <c r="C60" s="5" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D60" s="6" t="n">
         <v>74.2</v>
@@ -6754,7 +6764,7 @@
         </is>
       </c>
       <c r="C61" s="11" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D61" s="6" t="n">
         <v>73.59999999999999</v>
@@ -6865,7 +6875,7 @@
         </is>
       </c>
       <c r="C62" s="5" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D62" s="6" t="n">
         <v>72.40000000000001</v>
@@ -6971,7 +6981,7 @@
         </is>
       </c>
       <c r="C63" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="6" t="n">
         <v>72.09999999999999</v>
@@ -7077,7 +7087,7 @@
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" s="6" t="n">
         <v>71.90000000000001</v>
@@ -7183,7 +7193,7 @@
         </is>
       </c>
       <c r="C65" s="11" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D65" s="6" t="n">
         <v>71.8</v>
@@ -7289,7 +7299,7 @@
         </is>
       </c>
       <c r="C66" s="5" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D66" s="6" t="n">
         <v>71.2</v>
@@ -7395,7 +7405,7 @@
         </is>
       </c>
       <c r="C67" s="11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>71.2</v>
@@ -7501,7 +7511,7 @@
         </is>
       </c>
       <c r="C68" s="5" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>70.7</v>
@@ -7607,7 +7617,7 @@
         </is>
       </c>
       <c r="C69" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>69.8</v>
@@ -7713,7 +7723,7 @@
         </is>
       </c>
       <c r="C70" s="5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70" s="6" t="n">
         <v>68.90000000000001</v>
@@ -7819,7 +7829,7 @@
         </is>
       </c>
       <c r="C71" s="11" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D71" s="6" t="n">
         <v>66.90000000000001</v>
@@ -7925,7 +7935,7 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D72" s="6" t="n">
         <v>65.7</v>
@@ -8031,7 +8041,7 @@
         </is>
       </c>
       <c r="C73" s="11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D73" s="6" t="n">
         <v>64.5</v>
@@ -8137,7 +8147,7 @@
         </is>
       </c>
       <c r="C74" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="6" t="n">
         <v>64.40000000000001</v>
@@ -8243,7 +8253,7 @@
         </is>
       </c>
       <c r="C75" s="11" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D75" s="6" t="n">
         <v>64.3</v>
@@ -8349,7 +8359,7 @@
         </is>
       </c>
       <c r="C76" s="5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D76" s="6" t="n">
         <v>64.2</v>
@@ -8460,7 +8470,7 @@
         </is>
       </c>
       <c r="C77" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>63.4</v>
@@ -8566,7 +8576,7 @@
         </is>
       </c>
       <c r="C78" s="5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" s="6" t="n">
         <v>59.6</v>
@@ -8672,7 +8682,7 @@
         </is>
       </c>
       <c r="C79" s="11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" s="6" t="n">
         <v>58.3</v>
@@ -8778,7 +8788,7 @@
         </is>
       </c>
       <c r="C80" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D80" s="6" t="n">
         <v>55.2</v>
@@ -8884,7 +8894,7 @@
         </is>
       </c>
       <c r="C81" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="6" t="n">
         <v>53.4</v>
@@ -8990,7 +9000,7 @@
         </is>
       </c>
       <c r="C82" s="5" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D82" s="6" t="n">
         <v>50.4</v>
@@ -9096,7 +9106,7 @@
         </is>
       </c>
       <c r="C83" s="11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D83" s="6" t="n">
         <v>49.4</v>
@@ -9202,7 +9212,7 @@
         </is>
       </c>
       <c r="C84" s="5" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D84" s="6" t="n">
         <v>47.9</v>
@@ -9308,7 +9318,7 @@
         </is>
       </c>
       <c r="C85" s="11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85" s="6" t="n">
         <v>47.1</v>
@@ -9414,7 +9424,7 @@
         </is>
       </c>
       <c r="C86" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="6" t="n">
         <v>46</v>
@@ -9525,7 +9535,7 @@
         </is>
       </c>
       <c r="C87" s="11" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D87" s="6" t="n">
         <v>42.1</v>
@@ -9631,7 +9641,7 @@
         </is>
       </c>
       <c r="C88" s="5" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D88" s="6" t="n">
         <v>41</v>
@@ -9737,7 +9747,7 @@
         </is>
       </c>
       <c r="C89" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" s="6" t="n">
         <v>38.7</v>
@@ -9843,7 +9853,7 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D90" s="6" t="n">
         <v>37.3</v>
@@ -9949,7 +9959,7 @@
         </is>
       </c>
       <c r="C91" s="11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91" s="6" t="n">
         <v>30</v>
@@ -10055,7 +10065,7 @@
         </is>
       </c>
       <c r="C92" s="5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" s="6" t="n">
         <v>25.5</v>
@@ -10161,7 +10171,7 @@
         </is>
       </c>
       <c r="C93" s="11" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D93" s="6" t="n">
         <v>22.8</v>
@@ -10267,7 +10277,7 @@
         </is>
       </c>
       <c r="C94" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94" s="6" t="n">
         <v>22.4</v>
@@ -10373,7 +10383,7 @@
         </is>
       </c>
       <c r="C95" s="11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" s="6" t="n">
         <v>17.4</v>
@@ -10479,7 +10489,7 @@
         </is>
       </c>
       <c r="C96" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="6" t="n">
         <v>0</v>
@@ -10585,7 +10595,7 @@
         </is>
       </c>
       <c r="C97" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="6" t="n">
         <v>0</v>

--- a/generateEXCEL/index.xlsx
+++ b/generateEXCEL/index.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ159"/>
+  <dimension ref="A1:BJ160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1681,6 +1681,11 @@
       <c r="AH13" s="12" t="n">
         <v>83.5</v>
       </c>
+      <c r="AI13" s="9" t="inlineStr">
+        <is>
+          <t>UPenn-Logo</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
@@ -10734,1022 +10739,914 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="17" t="inlineStr">
+        <is>
+          <t>If you are interested in joining this group, please contact: guan.huifeng@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
         <is>
           <t>curve-figure</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="B112" s="17" t="inlineStr">
+    <row r="113">
+      <c r="B113" s="17" t="inlineStr">
         <is>
           <t>Graduated or laidoff members in 2019</t>
         </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B114" s="18" t="inlineStr">
-        <is>
-          <t>Bingyy</t>
-        </is>
-      </c>
-      <c r="C114" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D114" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E114" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" s="21" t="n">
-        <v>659</v>
-      </c>
-      <c r="J114" s="20" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="K114" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF114" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG114" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH114" s="20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
+      <c r="A115" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B115" s="1" t="inlineStr">
-        <is>
-          <t>Brooky</t>
-        </is>
-      </c>
-      <c r="C115" s="11" t="n">
-        <v>46</v>
+      <c r="B115" s="18" t="inlineStr">
+        <is>
+          <t>Bingyy</t>
+        </is>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>17</v>
       </c>
       <c r="D115" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E115" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F115" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H115" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J115" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L115" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N115" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P115" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="23" t="n">
-        <v>1048</v>
-      </c>
-      <c r="R115" s="22" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="S115" s="21" t="n">
-        <v>371</v>
-      </c>
-      <c r="T115" s="22" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="U115" s="24" t="n">
-        <v>1244</v>
-      </c>
-      <c r="V115" s="22" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="W115" s="24" t="n">
-        <v>597</v>
-      </c>
-      <c r="X115" s="22" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="Y115" s="21" t="n">
-        <v>179</v>
-      </c>
-      <c r="Z115" s="22" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="AA115" s="21" t="n">
-        <v>169</v>
-      </c>
-      <c r="AB115" s="22" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="AC115" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD115" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE115" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF115" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG115" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH115" s="22" t="n">
+      <c r="E115" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="21" t="n">
+        <v>659</v>
+      </c>
+      <c r="J115" s="20" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="K115" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF115" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH115" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="18" t="inlineStr">
+      <c r="A116" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B116" s="18" t="inlineStr">
-        <is>
-          <t>DorisGe</t>
-        </is>
-      </c>
-      <c r="C116" s="5" t="n">
-        <v>56</v>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>Brooky</t>
+        </is>
+      </c>
+      <c r="C116" s="11" t="n">
+        <v>46</v>
       </c>
       <c r="D116" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E116" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F116" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H116" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J116" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L116" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N116" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P116" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="24" t="n">
-        <v>1705</v>
-      </c>
-      <c r="R116" s="20" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="S116" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T116" s="20" t="n">
-        <v>0</v>
+      <c r="E116" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="23" t="n">
+        <v>1048</v>
+      </c>
+      <c r="R116" s="22" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="S116" s="21" t="n">
+        <v>371</v>
+      </c>
+      <c r="T116" s="22" t="n">
+        <v>93.09999999999999</v>
       </c>
       <c r="U116" s="24" t="n">
-        <v>1060</v>
-      </c>
-      <c r="V116" s="20" t="n">
-        <v>69.7</v>
+        <v>1244</v>
+      </c>
+      <c r="V116" s="22" t="n">
+        <v>66.2</v>
       </c>
       <c r="W116" s="24" t="n">
-        <v>935</v>
-      </c>
-      <c r="X116" s="20" t="n">
-        <v>68.40000000000001</v>
+        <v>597</v>
+      </c>
+      <c r="X116" s="22" t="n">
+        <v>76.2</v>
       </c>
       <c r="Y116" s="21" t="n">
-        <v>667</v>
-      </c>
-      <c r="Z116" s="20" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="AA116" s="25" t="n">
-        <v>1959</v>
-      </c>
-      <c r="AB116" s="20" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="AC116" s="23" t="n">
-        <v>608</v>
-      </c>
-      <c r="AD116" s="20" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="AE116" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF116" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG116" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH116" s="20" t="n">
+        <v>179</v>
+      </c>
+      <c r="Z116" s="22" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="AA116" s="21" t="n">
+        <v>169</v>
+      </c>
+      <c r="AB116" s="22" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AC116" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH116" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B117" s="1" t="inlineStr">
-        <is>
-          <t>IrisGuo</t>
-        </is>
-      </c>
-      <c r="C117" s="11" t="n">
-        <v>115</v>
+      <c r="B117" s="18" t="inlineStr">
+        <is>
+          <t>DorisGe</t>
+        </is>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>56</v>
       </c>
       <c r="D117" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E117" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F117" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H117" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J117" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L117" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" s="23" t="n">
-        <v>613</v>
-      </c>
-      <c r="N117" s="22" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="O117" s="21" t="n">
-        <v>758</v>
-      </c>
-      <c r="P117" s="22" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="Q117" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="R117" s="22" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="S117" s="21" t="n">
-        <v>269</v>
-      </c>
-      <c r="T117" s="22" t="n">
-        <v>95</v>
-      </c>
-      <c r="U117" s="23" t="n">
-        <v>418</v>
-      </c>
-      <c r="V117" s="22" t="n">
-        <v>87</v>
-      </c>
-      <c r="W117" s="23" t="n">
-        <v>149</v>
-      </c>
-      <c r="X117" s="22" t="n">
-        <v>91.59999999999999</v>
+      <c r="E117" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="24" t="n">
+        <v>1705</v>
+      </c>
+      <c r="R117" s="20" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="S117" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" s="24" t="n">
+        <v>1060</v>
+      </c>
+      <c r="V117" s="20" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="W117" s="24" t="n">
+        <v>935</v>
+      </c>
+      <c r="X117" s="20" t="n">
+        <v>68.40000000000001</v>
       </c>
       <c r="Y117" s="21" t="n">
-        <v>142</v>
-      </c>
-      <c r="Z117" s="22" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="AA117" s="23" t="n">
-        <v>637</v>
-      </c>
-      <c r="AB117" s="22" t="n">
-        <v>82</v>
-      </c>
-      <c r="AC117" s="21" t="n">
-        <v>154</v>
-      </c>
-      <c r="AD117" s="22" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="AE117" s="21" t="n">
-        <v>164</v>
-      </c>
-      <c r="AF117" s="22" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="AG117" s="21" t="n">
-        <v>112</v>
-      </c>
-      <c r="AH117" s="22" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="AI117" s="9" t="inlineStr">
-        <is>
-          <t>Google-Logo</t>
-        </is>
+        <v>667</v>
+      </c>
+      <c r="Z117" s="20" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="AA117" s="25" t="n">
+        <v>1959</v>
+      </c>
+      <c r="AB117" s="20" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="AC117" s="23" t="n">
+        <v>608</v>
+      </c>
+      <c r="AD117" s="20" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="AE117" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF117" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH117" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="18" t="inlineStr">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B118" s="18" t="inlineStr">
-        <is>
-          <t>JackTheBest</t>
-        </is>
-      </c>
-      <c r="C118" s="5" t="n">
-        <v>48</v>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>IrisGuo</t>
+        </is>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>115</v>
       </c>
       <c r="D118" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E118" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F118" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" s="25" t="n">
-        <v>2531</v>
-      </c>
-      <c r="H118" s="20" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="I118" s="25" t="n">
-        <v>2501</v>
-      </c>
-      <c r="J118" s="20" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="K118" s="25" t="n">
-        <v>2572</v>
-      </c>
-      <c r="L118" s="20" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="M118" s="24" t="n">
-        <v>2158</v>
-      </c>
-      <c r="N118" s="20" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="O118" s="24" t="n">
-        <v>2619</v>
-      </c>
-      <c r="P118" s="20" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="Q118" s="24" t="n">
-        <v>2218</v>
-      </c>
-      <c r="R118" s="20" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="S118" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T118" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U118" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V118" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W118" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X118" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y118" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z118" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB118" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC118" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD118" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE118" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF118" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG118" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH118" s="20" t="n">
-        <v>0</v>
+      <c r="E118" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="23" t="n">
+        <v>613</v>
+      </c>
+      <c r="N118" s="22" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="O118" s="21" t="n">
+        <v>758</v>
+      </c>
+      <c r="P118" s="22" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="Q118" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="R118" s="22" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="S118" s="21" t="n">
+        <v>269</v>
+      </c>
+      <c r="T118" s="22" t="n">
+        <v>95</v>
+      </c>
+      <c r="U118" s="23" t="n">
+        <v>418</v>
+      </c>
+      <c r="V118" s="22" t="n">
+        <v>87</v>
+      </c>
+      <c r="W118" s="23" t="n">
+        <v>149</v>
+      </c>
+      <c r="X118" s="22" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="Y118" s="21" t="n">
+        <v>142</v>
+      </c>
+      <c r="Z118" s="22" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="AA118" s="23" t="n">
+        <v>637</v>
+      </c>
+      <c r="AB118" s="22" t="n">
+        <v>82</v>
+      </c>
+      <c r="AC118" s="21" t="n">
+        <v>154</v>
+      </c>
+      <c r="AD118" s="22" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="AE118" s="21" t="n">
+        <v>164</v>
+      </c>
+      <c r="AF118" s="22" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AG118" s="21" t="n">
+        <v>112</v>
+      </c>
+      <c r="AH118" s="22" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="AI118" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
+      <c r="A119" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B119" s="1" t="inlineStr">
-        <is>
-          <t>LindaLyu</t>
-        </is>
-      </c>
-      <c r="C119" s="11" t="n">
-        <v>4</v>
+      <c r="B119" s="18" t="inlineStr">
+        <is>
+          <t>JackTheBest</t>
+        </is>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>48</v>
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E119" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG119" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH119" s="22" t="n">
+      <c r="E119" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="25" t="n">
+        <v>2531</v>
+      </c>
+      <c r="H119" s="20" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="I119" s="25" t="n">
+        <v>2501</v>
+      </c>
+      <c r="J119" s="20" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="K119" s="25" t="n">
+        <v>2572</v>
+      </c>
+      <c r="L119" s="20" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="M119" s="24" t="n">
+        <v>2158</v>
+      </c>
+      <c r="N119" s="20" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="O119" s="24" t="n">
+        <v>2619</v>
+      </c>
+      <c r="P119" s="20" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Q119" s="24" t="n">
+        <v>2218</v>
+      </c>
+      <c r="R119" s="20" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="S119" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF119" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH119" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="18" t="inlineStr">
+      <c r="A120" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B120" s="18" t="inlineStr">
-        <is>
-          <t>Lisanaaa</t>
-        </is>
-      </c>
-      <c r="C120" s="5" t="n">
-        <v>163</v>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>LindaLyu</t>
+        </is>
+      </c>
+      <c r="C120" s="11" t="n">
+        <v>4</v>
       </c>
       <c r="D120" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U120" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V120" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W120" s="25" t="n">
-        <v>1328</v>
-      </c>
-      <c r="X120" s="20" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="Y120" s="21" t="n">
-        <v>618</v>
-      </c>
-      <c r="Z120" s="20" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="AA120" s="24" t="n">
-        <v>883</v>
-      </c>
-      <c r="AB120" s="20" t="n">
-        <v>72</v>
-      </c>
-      <c r="AC120" s="24" t="n">
-        <v>1754</v>
-      </c>
-      <c r="AD120" s="20" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="AE120" s="24" t="n">
-        <v>1648</v>
-      </c>
-      <c r="AF120" s="20" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="AG120" s="24" t="n">
-        <v>1215</v>
-      </c>
-      <c r="AH120" s="20" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="AI120" s="9" t="inlineStr">
-        <is>
-          <t>Grab-Logo</t>
-        </is>
+      <c r="E120" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH120" s="22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
+      <c r="A121" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>QAMichaelPeng</t>
-        </is>
-      </c>
-      <c r="C121" s="11" t="n">
-        <v>78</v>
+      <c r="B121" s="18" t="inlineStr">
+        <is>
+          <t>Lisanaaa</t>
+        </is>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>163</v>
       </c>
       <c r="D121" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E121" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F121" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H121" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J121" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L121" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N121" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O121" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P121" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="21" t="n">
-        <v>91</v>
-      </c>
-      <c r="R121" s="22" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="S121" s="21" t="n">
-        <v>58</v>
-      </c>
-      <c r="T121" s="22" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="U121" s="21" t="n">
-        <v>255</v>
-      </c>
-      <c r="V121" s="22" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="W121" s="23" t="n">
-        <v>178</v>
-      </c>
-      <c r="X121" s="22" t="n">
-        <v>90.90000000000001</v>
+      <c r="E121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V121" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" s="25" t="n">
+        <v>1328</v>
+      </c>
+      <c r="X121" s="20" t="n">
+        <v>54.4</v>
       </c>
       <c r="Y121" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z121" s="22" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AA121" s="21" t="n">
-        <v>109</v>
-      </c>
-      <c r="AB121" s="22" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="AC121" s="23" t="n">
-        <v>675</v>
-      </c>
-      <c r="AD121" s="22" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="AE121" s="21" t="n">
-        <v>163</v>
-      </c>
-      <c r="AF121" s="22" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="AG121" s="21" t="n">
-        <v>117</v>
-      </c>
-      <c r="AH121" s="22" t="n">
-        <v>97.40000000000001</v>
+        <v>618</v>
+      </c>
+      <c r="Z121" s="20" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="AA121" s="24" t="n">
+        <v>883</v>
+      </c>
+      <c r="AB121" s="20" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC121" s="24" t="n">
+        <v>1754</v>
+      </c>
+      <c r="AD121" s="20" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE121" s="24" t="n">
+        <v>1648</v>
+      </c>
+      <c r="AF121" s="20" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="AG121" s="24" t="n">
+        <v>1215</v>
+      </c>
+      <c r="AH121" s="20" t="n">
+        <v>62.9</v>
       </c>
       <c r="AI121" s="9" t="inlineStr">
         <is>
-          <t>Amazon-Logo</t>
+          <t>Grab-Logo</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="18" t="inlineStr">
+      <c r="A122" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B122" s="18" t="inlineStr">
-        <is>
-          <t>Spencial</t>
-        </is>
-      </c>
-      <c r="C122" s="5" t="n">
-        <v>52</v>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>QAMichaelPeng</t>
+        </is>
+      </c>
+      <c r="C122" s="11" t="n">
+        <v>78</v>
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E122" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" s="21" t="n">
-        <v>708</v>
-      </c>
-      <c r="P122" s="20" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="Q122" s="23" t="n">
-        <v>320</v>
-      </c>
-      <c r="R122" s="20" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="S122" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U122" s="24" t="n">
-        <v>1473</v>
-      </c>
-      <c r="V122" s="20" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="W122" s="24" t="n">
-        <v>804</v>
-      </c>
-      <c r="X122" s="20" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="Y122" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA122" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AB122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC122" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AD122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE122" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AF122" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG122" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AH122" s="20" t="n">
-        <v>0</v>
+      <c r="E122" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="21" t="n">
+        <v>91</v>
+      </c>
+      <c r="R122" s="22" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="S122" s="21" t="n">
+        <v>58</v>
+      </c>
+      <c r="T122" s="22" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="U122" s="21" t="n">
+        <v>255</v>
+      </c>
+      <c r="V122" s="22" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="W122" s="23" t="n">
+        <v>178</v>
+      </c>
+      <c r="X122" s="22" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="Y122" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z122" s="22" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AA122" s="21" t="n">
+        <v>109</v>
+      </c>
+      <c r="AB122" s="22" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="AC122" s="23" t="n">
+        <v>675</v>
+      </c>
+      <c r="AD122" s="22" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="AE122" s="21" t="n">
+        <v>163</v>
+      </c>
+      <c r="AF122" s="22" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AG122" s="21" t="n">
+        <v>117</v>
+      </c>
+      <c r="AH122" s="22" t="n">
+        <v>97.40000000000001</v>
       </c>
       <c r="AI122" s="9" t="inlineStr">
         <is>
@@ -11758,2577 +11655,2577 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
+      <c r="A123" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B123" s="1" t="inlineStr">
-        <is>
-          <t>Suhe</t>
-        </is>
-      </c>
-      <c r="C123" s="11" t="n">
-        <v>106</v>
+      <c r="B123" s="18" t="inlineStr">
+        <is>
+          <t>Spencial</t>
+        </is>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>52</v>
       </c>
       <c r="D123" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E123" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O123" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="25" t="n">
-        <v>2546</v>
-      </c>
-      <c r="R123" s="22" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="S123" s="23" t="n">
-        <v>1469</v>
-      </c>
-      <c r="T123" s="22" t="n">
-        <v>67.59999999999999</v>
+      <c r="E123" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" s="21" t="n">
+        <v>708</v>
+      </c>
+      <c r="P123" s="20" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="Q123" s="23" t="n">
+        <v>320</v>
+      </c>
+      <c r="R123" s="20" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="S123" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T123" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="U123" s="24" t="n">
-        <v>1546</v>
-      </c>
-      <c r="V123" s="22" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="W123" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y123" s="24" t="n">
-        <v>1838</v>
-      </c>
-      <c r="Z123" s="22" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="AA123" s="24" t="n">
-        <v>1275</v>
-      </c>
-      <c r="AB123" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="AC123" s="25" t="n">
-        <v>2217</v>
-      </c>
-      <c r="AD123" s="22" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="AE123" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG123" s="25" t="n">
-        <v>1637</v>
-      </c>
-      <c r="AH123" s="22" t="n">
-        <v>48.5</v>
+        <v>1473</v>
+      </c>
+      <c r="V123" s="20" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="W123" s="24" t="n">
+        <v>804</v>
+      </c>
+      <c r="X123" s="20" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="Y123" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AB123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AD123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG123" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AH123" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI123" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="18" t="inlineStr">
+      <c r="A124" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B124" s="18" t="inlineStr">
-        <is>
-          <t>Vanggie</t>
-        </is>
-      </c>
-      <c r="C124" s="5" t="n">
-        <v>72</v>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>Suhe</t>
+        </is>
+      </c>
+      <c r="C124" s="11" t="n">
+        <v>106</v>
       </c>
       <c r="D124" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E124" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F124" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H124" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" s="24" t="n">
-        <v>2047</v>
-      </c>
-      <c r="J124" s="20" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="K124" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L124" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" s="24" t="n">
-        <v>1863</v>
-      </c>
-      <c r="N124" s="20" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="O124" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P124" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="23" t="n">
-        <v>810</v>
-      </c>
-      <c r="R124" s="20" t="n">
-        <v>80.8</v>
+      <c r="E124" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="25" t="n">
+        <v>2546</v>
+      </c>
+      <c r="R124" s="22" t="n">
+        <v>40.4</v>
       </c>
       <c r="S124" s="23" t="n">
-        <v>1017</v>
-      </c>
-      <c r="T124" s="20" t="n">
-        <v>76</v>
-      </c>
-      <c r="U124" s="25" t="n">
-        <v>2171</v>
-      </c>
-      <c r="V124" s="20" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="W124" s="25" t="n">
-        <v>1235</v>
-      </c>
-      <c r="X124" s="20" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="Y124" s="23" t="n">
-        <v>1038</v>
-      </c>
-      <c r="Z124" s="20" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="AA124" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AB124" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC124" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AD124" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE124" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AF124" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG124" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AH124" s="20" t="n">
-        <v>0</v>
+        <v>1469</v>
+      </c>
+      <c r="T124" s="22" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="U124" s="24" t="n">
+        <v>1546</v>
+      </c>
+      <c r="V124" s="22" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="W124" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="24" t="n">
+        <v>1838</v>
+      </c>
+      <c r="Z124" s="22" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AA124" s="24" t="n">
+        <v>1275</v>
+      </c>
+      <c r="AB124" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC124" s="25" t="n">
+        <v>2217</v>
+      </c>
+      <c r="AD124" s="22" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="AE124" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="25" t="n">
+        <v>1637</v>
+      </c>
+      <c r="AH124" s="22" t="n">
+        <v>48.5</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
+      <c r="A125" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B125" s="1" t="inlineStr">
-        <is>
-          <t>Vicky_Owen</t>
-        </is>
-      </c>
-      <c r="C125" s="11" t="n">
-        <v>24</v>
+      <c r="B125" s="18" t="inlineStr">
+        <is>
+          <t>Vanggie</t>
+        </is>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>72</v>
       </c>
       <c r="D125" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y125" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA125" s="23" t="n">
-        <v>560</v>
-      </c>
-      <c r="AB125" s="22" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="AC125" s="21" t="n">
-        <v>240</v>
-      </c>
-      <c r="AD125" s="22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE125" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG125" s="24" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AH125" s="22" t="n">
-        <v>61</v>
-      </c>
-      <c r="AI125" s="9" t="inlineStr">
-        <is>
-          <t>Amazon-Logo</t>
-        </is>
+      <c r="E125" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="24" t="n">
+        <v>2047</v>
+      </c>
+      <c r="J125" s="20" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="K125" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" s="24" t="n">
+        <v>1863</v>
+      </c>
+      <c r="N125" s="20" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="O125" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="23" t="n">
+        <v>810</v>
+      </c>
+      <c r="R125" s="20" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="S125" s="23" t="n">
+        <v>1017</v>
+      </c>
+      <c r="T125" s="20" t="n">
+        <v>76</v>
+      </c>
+      <c r="U125" s="25" t="n">
+        <v>2171</v>
+      </c>
+      <c r="V125" s="20" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="W125" s="25" t="n">
+        <v>1235</v>
+      </c>
+      <c r="X125" s="20" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="Y125" s="23" t="n">
+        <v>1038</v>
+      </c>
+      <c r="Z125" s="20" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="AA125" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AB125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AD125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF125" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AH125" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="18" t="inlineStr">
+      <c r="A126" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B126" s="18" t="inlineStr">
-        <is>
-          <t>XRS</t>
-        </is>
-      </c>
-      <c r="C126" s="5" t="n">
-        <v>1</v>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>Vicky_Owen</t>
+        </is>
+      </c>
+      <c r="C126" s="11" t="n">
+        <v>24</v>
       </c>
       <c r="D126" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W126" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y126" s="25" t="n">
-        <v>2394</v>
-      </c>
-      <c r="Z126" s="20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA126" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC126" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE126" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF126" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG126" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH126" s="20" t="n">
-        <v>0</v>
+      <c r="E126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="X126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="23" t="n">
+        <v>560</v>
+      </c>
+      <c r="AB126" s="22" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AC126" s="21" t="n">
+        <v>240</v>
+      </c>
+      <c r="AD126" s="22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE126" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF126" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="24" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AH126" s="22" t="n">
+        <v>61</v>
+      </c>
+      <c r="AI126" s="9" t="inlineStr">
+        <is>
+          <t>Amazon-Logo</t>
+        </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
+      <c r="A127" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B127" s="1" t="inlineStr">
-        <is>
-          <t>XYang93</t>
-        </is>
-      </c>
-      <c r="C127" s="11" t="n">
-        <v>160</v>
+      <c r="B127" s="18" t="inlineStr">
+        <is>
+          <t>XRS</t>
+        </is>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="D127" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U127" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W127" s="25" t="n">
-        <v>1585</v>
-      </c>
-      <c r="X127" s="22" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="Y127" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA127" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB127" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC127" s="25" t="n">
-        <v>2382</v>
-      </c>
-      <c r="AD127" s="22" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="AE127" s="23" t="n">
-        <v>942</v>
-      </c>
-      <c r="AF127" s="22" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="AG127" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AH127" s="22" t="n">
+      <c r="E127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="X127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="25" t="n">
+        <v>2394</v>
+      </c>
+      <c r="Z127" s="20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA127" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE127" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF127" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG127" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH127" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="18" t="inlineStr">
+      <c r="A128" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B128" s="18" t="inlineStr">
-        <is>
-          <t>Yizhao_Han</t>
-        </is>
-      </c>
-      <c r="C128" s="5" t="n">
-        <v>38</v>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>XYang93</t>
+        </is>
+      </c>
+      <c r="C128" s="11" t="n">
+        <v>160</v>
       </c>
       <c r="D128" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E128" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M128" s="24" t="n">
-        <v>1599</v>
-      </c>
-      <c r="N128" s="20" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="O128" s="21" t="n">
-        <v>461</v>
-      </c>
-      <c r="P128" s="20" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="Q128" s="23" t="n">
-        <v>1041</v>
-      </c>
-      <c r="R128" s="20" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="S128" s="21" t="n">
-        <v>402</v>
-      </c>
-      <c r="T128" s="20" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="U128" s="24" t="n">
-        <v>1124</v>
-      </c>
-      <c r="V128" s="20" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="W128" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA128" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC128" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE128" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG128" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH128" s="20" t="n">
+      <c r="E128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" s="25" t="n">
+        <v>1585</v>
+      </c>
+      <c r="X128" s="22" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="Y128" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="25" t="n">
+        <v>2382</v>
+      </c>
+      <c r="AD128" s="22" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="AE128" s="23" t="n">
+        <v>942</v>
+      </c>
+      <c r="AF128" s="22" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="AG128" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH128" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
+      <c r="A129" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B129" s="1" t="inlineStr">
-        <is>
-          <t>ZOEGREEN</t>
-        </is>
-      </c>
-      <c r="C129" s="11" t="n">
-        <v>112</v>
+      <c r="B129" s="18" t="inlineStr">
+        <is>
+          <t>Yizhao_Han</t>
+        </is>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>38</v>
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E129" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F129" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H129" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J129" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L129" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N129" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O129" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P129" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R129" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S129" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T129" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U129" s="23" t="n">
-        <v>674</v>
-      </c>
-      <c r="V129" s="22" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="W129" s="23" t="n">
-        <v>411</v>
-      </c>
-      <c r="X129" s="22" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="Y129" s="24" t="n">
-        <v>1348</v>
-      </c>
-      <c r="Z129" s="22" t="n">
-        <v>59</v>
-      </c>
-      <c r="AA129" s="24" t="n">
-        <v>1280</v>
-      </c>
-      <c r="AB129" s="22" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="AC129" s="23" t="n">
-        <v>967</v>
-      </c>
-      <c r="AD129" s="22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE129" s="23" t="n">
-        <v>460</v>
-      </c>
-      <c r="AF129" s="22" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="AG129" s="25" t="n">
-        <v>2181</v>
-      </c>
-      <c r="AH129" s="22" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="AI129" s="9" t="inlineStr">
-        <is>
-          <t>Microsoft-Logo</t>
-        </is>
+      <c r="E129" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="24" t="n">
+        <v>1599</v>
+      </c>
+      <c r="N129" s="20" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="O129" s="21" t="n">
+        <v>461</v>
+      </c>
+      <c r="P129" s="20" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="Q129" s="23" t="n">
+        <v>1041</v>
+      </c>
+      <c r="R129" s="20" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="S129" s="21" t="n">
+        <v>402</v>
+      </c>
+      <c r="T129" s="20" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="U129" s="24" t="n">
+        <v>1124</v>
+      </c>
+      <c r="V129" s="20" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="W129" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF129" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG129" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH129" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="18" t="inlineStr">
+      <c r="A130" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B130" s="18" t="inlineStr">
-        <is>
-          <t>ZhuYamei</t>
-        </is>
-      </c>
-      <c r="C130" s="5" t="n">
-        <v>60</v>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>ZOEGREEN</t>
+        </is>
+      </c>
+      <c r="C130" s="11" t="n">
+        <v>112</v>
       </c>
       <c r="D130" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U130" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V130" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W130" s="25" t="n">
-        <v>1771</v>
-      </c>
-      <c r="X130" s="20" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="Y130" s="21" t="n">
-        <v>664</v>
-      </c>
-      <c r="Z130" s="20" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="AA130" s="23" t="n">
-        <v>506</v>
-      </c>
-      <c r="AB130" s="20" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="AC130" s="24" t="n">
-        <v>1717</v>
-      </c>
-      <c r="AD130" s="20" t="n">
-        <v>54.6</v>
+      <c r="E130" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F130" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H130" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J130" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L130" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N130" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P130" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R130" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T130" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" s="23" t="n">
+        <v>674</v>
+      </c>
+      <c r="V130" s="22" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="W130" s="23" t="n">
+        <v>411</v>
+      </c>
+      <c r="X130" s="22" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="Y130" s="24" t="n">
+        <v>1348</v>
+      </c>
+      <c r="Z130" s="22" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA130" s="24" t="n">
+        <v>1280</v>
+      </c>
+      <c r="AB130" s="22" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="AC130" s="23" t="n">
+        <v>967</v>
+      </c>
+      <c r="AD130" s="22" t="n">
+        <v>75</v>
       </c>
       <c r="AE130" s="23" t="n">
-        <v>865</v>
-      </c>
-      <c r="AF130" s="20" t="n">
-        <v>77</v>
-      </c>
-      <c r="AG130" s="23" t="n">
-        <v>567</v>
-      </c>
-      <c r="AH130" s="20" t="n">
-        <v>82.40000000000001</v>
+        <v>460</v>
+      </c>
+      <c r="AF130" s="22" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="AG130" s="25" t="n">
+        <v>2181</v>
+      </c>
+      <c r="AH130" s="22" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="AI130" s="9" t="inlineStr">
+        <is>
+          <t>Microsoft-Logo</t>
+        </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
+      <c r="A131" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B131" s="1" t="inlineStr">
-        <is>
-          <t>abyebye</t>
-        </is>
-      </c>
-      <c r="C131" s="11" t="n">
-        <v>22</v>
+      <c r="B131" s="18" t="inlineStr">
+        <is>
+          <t>ZhuYamei</t>
+        </is>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>60</v>
       </c>
       <c r="D131" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E131" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" s="25" t="n">
-        <v>2177</v>
-      </c>
-      <c r="J131" s="22" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K131" s="24" t="n">
-        <v>1296</v>
-      </c>
-      <c r="L131" s="22" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="M131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF131" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG131" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH131" s="22" t="n">
-        <v>0</v>
+      <c r="E131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V131" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W131" s="25" t="n">
+        <v>1771</v>
+      </c>
+      <c r="X131" s="20" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="Y131" s="21" t="n">
+        <v>664</v>
+      </c>
+      <c r="Z131" s="20" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="AA131" s="23" t="n">
+        <v>506</v>
+      </c>
+      <c r="AB131" s="20" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="AC131" s="24" t="n">
+        <v>1717</v>
+      </c>
+      <c r="AD131" s="20" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="AE131" s="23" t="n">
+        <v>865</v>
+      </c>
+      <c r="AF131" s="20" t="n">
+        <v>77</v>
+      </c>
+      <c r="AG131" s="23" t="n">
+        <v>567</v>
+      </c>
+      <c r="AH131" s="20" t="n">
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="18" t="inlineStr">
+      <c r="A132" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B132" s="18" t="inlineStr">
-        <is>
-          <t>banrenmasanxing</t>
-        </is>
-      </c>
-      <c r="C132" s="5" t="n">
-        <v>26</v>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>abyebye</t>
+        </is>
+      </c>
+      <c r="C132" s="11" t="n">
+        <v>22</v>
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E132" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O132" s="23" t="n">
-        <v>1852</v>
-      </c>
-      <c r="P132" s="20" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="Q132" s="24" t="n">
-        <v>2042</v>
-      </c>
-      <c r="R132" s="20" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="S132" s="24" t="n">
-        <v>2579</v>
-      </c>
-      <c r="T132" s="20" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="U132" s="25" t="n">
-        <v>2502</v>
-      </c>
-      <c r="V132" s="20" t="n">
-        <v>37</v>
-      </c>
-      <c r="W132" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y132" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA132" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC132" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE132" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF132" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG132" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH132" s="20" t="n">
+      <c r="E132" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="25" t="n">
+        <v>2177</v>
+      </c>
+      <c r="J132" s="22" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K132" s="24" t="n">
+        <v>1296</v>
+      </c>
+      <c r="L132" s="22" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="M132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF132" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG132" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH132" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
+      <c r="A133" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B133" s="1" t="inlineStr">
-        <is>
-          <t>bellumpara</t>
-        </is>
-      </c>
-      <c r="C133" s="11" t="n">
-        <v>166</v>
+      <c r="B133" s="18" t="inlineStr">
+        <is>
+          <t>banrenmasanxing</t>
+        </is>
+      </c>
+      <c r="C133" s="5" t="n">
+        <v>26</v>
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U133" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W133" s="23" t="n">
-        <v>379</v>
-      </c>
-      <c r="X133" s="22" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="Y133" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z133" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA133" s="24" t="n">
-        <v>913</v>
-      </c>
-      <c r="AB133" s="22" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="AC133" s="24" t="n">
-        <v>1223</v>
-      </c>
-      <c r="AD133" s="22" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="AE133" s="24" t="n">
-        <v>1181</v>
-      </c>
-      <c r="AF133" s="22" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="AG133" s="24" t="n">
-        <v>1109</v>
-      </c>
-      <c r="AH133" s="22" t="n">
-        <v>65.3</v>
+      <c r="E133" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" s="23" t="n">
+        <v>1852</v>
+      </c>
+      <c r="P133" s="20" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="Q133" s="24" t="n">
+        <v>2042</v>
+      </c>
+      <c r="R133" s="20" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="S133" s="24" t="n">
+        <v>2579</v>
+      </c>
+      <c r="T133" s="20" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="U133" s="25" t="n">
+        <v>2502</v>
+      </c>
+      <c r="V133" s="20" t="n">
+        <v>37</v>
+      </c>
+      <c r="W133" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF133" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG133" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH133" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="18" t="inlineStr">
+      <c r="A134" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B134" s="18" t="inlineStr">
-        <is>
-          <t>cookiecookie</t>
-        </is>
-      </c>
-      <c r="C134" s="5" t="n">
-        <v>15</v>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>bellumpara</t>
+        </is>
+      </c>
+      <c r="C134" s="11" t="n">
+        <v>166</v>
       </c>
       <c r="D134" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E134" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M134" s="24" t="n">
-        <v>2236</v>
-      </c>
-      <c r="N134" s="20" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="O134" s="25" t="n">
-        <v>3055</v>
-      </c>
-      <c r="P134" s="20" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF134" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG134" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH134" s="20" t="n">
-        <v>0</v>
+      <c r="E134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" s="23" t="n">
+        <v>379</v>
+      </c>
+      <c r="X134" s="22" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="Y134" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z134" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="24" t="n">
+        <v>913</v>
+      </c>
+      <c r="AB134" s="22" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="AC134" s="24" t="n">
+        <v>1223</v>
+      </c>
+      <c r="AD134" s="22" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="AE134" s="24" t="n">
+        <v>1181</v>
+      </c>
+      <c r="AF134" s="22" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AG134" s="24" t="n">
+        <v>1109</v>
+      </c>
+      <c r="AH134" s="22" t="n">
+        <v>65.3</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
+      <c r="A135" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B135" s="1" t="inlineStr">
-        <is>
-          <t>crossbowman</t>
-        </is>
-      </c>
-      <c r="C135" s="11" t="n">
-        <v>17</v>
+      <c r="B135" s="18" t="inlineStr">
+        <is>
+          <t>cookiecookie</t>
+        </is>
+      </c>
+      <c r="C135" s="5" t="n">
+        <v>15</v>
       </c>
       <c r="D135" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E135" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O135" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q135" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S135" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U135" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W135" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA135" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC135" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE135" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF135" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG135" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH135" s="22" t="n">
+      <c r="E135" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" s="24" t="n">
+        <v>2236</v>
+      </c>
+      <c r="N135" s="20" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="O135" s="25" t="n">
+        <v>3055</v>
+      </c>
+      <c r="P135" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF135" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG135" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH135" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="18" t="inlineStr">
+      <c r="A136" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B136" s="18" t="inlineStr">
-        <is>
-          <t>deerstalker</t>
-        </is>
-      </c>
-      <c r="C136" s="5" t="n">
-        <v>177</v>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>crossbowman</t>
+        </is>
+      </c>
+      <c r="C136" s="11" t="n">
+        <v>17</v>
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E136" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M136" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q136" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S136" s="23" t="n">
-        <v>1675</v>
-      </c>
-      <c r="T136" s="20" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="U136" s="24" t="n">
-        <v>1870</v>
-      </c>
-      <c r="V136" s="20" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="W136" s="25" t="n">
-        <v>1958</v>
-      </c>
-      <c r="X136" s="20" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="Y136" s="24" t="n">
-        <v>1832</v>
-      </c>
-      <c r="Z136" s="20" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="AA136" s="24" t="n">
-        <v>908</v>
-      </c>
-      <c r="AB136" s="20" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="AC136" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE136" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF136" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG136" s="24" t="n">
-        <v>1361</v>
-      </c>
-      <c r="AH136" s="20" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="AI136" s="9" t="inlineStr">
-        <is>
-          <t>Google-Logo</t>
-        </is>
+      <c r="E136" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W136" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG136" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH136" s="22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
+      <c r="A137" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B137" s="1" t="inlineStr">
-        <is>
-          <t>dhf13</t>
-        </is>
-      </c>
-      <c r="C137" s="11" t="n">
-        <v>176</v>
+      <c r="B137" s="18" t="inlineStr">
+        <is>
+          <t>deerstalker</t>
+        </is>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>177</v>
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E137" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M137" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O137" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q137" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S137" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T137" s="22" t="n">
-        <v>0</v>
+      <c r="E137" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" s="23" t="n">
+        <v>1675</v>
+      </c>
+      <c r="T137" s="20" t="n">
+        <v>63.8</v>
       </c>
       <c r="U137" s="24" t="n">
-        <v>925</v>
-      </c>
-      <c r="V137" s="22" t="n">
-        <v>72.3</v>
+        <v>1870</v>
+      </c>
+      <c r="V137" s="20" t="n">
+        <v>54.2</v>
       </c>
       <c r="W137" s="25" t="n">
-        <v>1462</v>
-      </c>
-      <c r="X137" s="22" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="Y137" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA137" s="23" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB137" s="22" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="AC137" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD137" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE137" s="21" t="n">
-        <v>225</v>
-      </c>
-      <c r="AF137" s="22" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="AG137" s="23" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH137" s="22" t="n">
-        <v>83.8</v>
+        <v>1958</v>
+      </c>
+      <c r="X137" s="20" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="Y137" s="24" t="n">
+        <v>1832</v>
+      </c>
+      <c r="Z137" s="20" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AA137" s="24" t="n">
+        <v>908</v>
+      </c>
+      <c r="AB137" s="20" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="AC137" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF137" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG137" s="24" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AH137" s="20" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="AI137" s="9" t="inlineStr">
+        <is>
+          <t>Google-Logo</t>
+        </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="18" t="inlineStr">
+      <c r="A138" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B138" s="18" t="inlineStr">
-        <is>
-          <t>fuxuemingzhu</t>
-        </is>
-      </c>
-      <c r="C138" s="5" t="n">
-        <v>161</v>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>dhf13</t>
+        </is>
+      </c>
+      <c r="C138" s="11" t="n">
+        <v>176</v>
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E138" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F138" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H138" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J138" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L138" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M138" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N138" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O138" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="P138" s="20" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="Q138" s="23" t="n">
-        <v>364</v>
-      </c>
-      <c r="R138" s="20" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="S138" s="23" t="n">
-        <v>859</v>
-      </c>
-      <c r="T138" s="20" t="n">
-        <v>79</v>
+      <c r="E138" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T138" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="U138" s="24" t="n">
-        <v>1338</v>
-      </c>
-      <c r="V138" s="20" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="W138" s="24" t="n">
-        <v>885</v>
-      </c>
-      <c r="X138" s="20" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="Y138" s="24" t="n">
-        <v>1573</v>
-      </c>
-      <c r="Z138" s="20" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="AA138" s="24" t="n">
-        <v>828</v>
-      </c>
-      <c r="AB138" s="20" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="AC138" s="23" t="n">
-        <v>846</v>
-      </c>
-      <c r="AD138" s="20" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="AE138" s="23" t="n">
-        <v>459</v>
-      </c>
-      <c r="AF138" s="20" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="AG138" s="24" t="n">
-        <v>1117</v>
-      </c>
-      <c r="AH138" s="20" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="AI138" s="9" t="inlineStr">
-        <is>
-          <t>ByteDance-Logo</t>
-        </is>
+        <v>925</v>
+      </c>
+      <c r="V138" s="22" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="W138" s="25" t="n">
+        <v>1462</v>
+      </c>
+      <c r="X138" s="22" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="Y138" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="23" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB138" s="22" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="AC138" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE138" s="21" t="n">
+        <v>225</v>
+      </c>
+      <c r="AF138" s="22" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="AG138" s="23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH138" s="22" t="n">
+        <v>83.8</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
+      <c r="A139" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B139" s="1" t="inlineStr">
-        <is>
-          <t>fyang618</t>
-        </is>
-      </c>
-      <c r="C139" s="11" t="n">
-        <v>164</v>
+      <c r="B139" s="18" t="inlineStr">
+        <is>
+          <t>fuxuemingzhu</t>
+        </is>
+      </c>
+      <c r="C139" s="5" t="n">
+        <v>161</v>
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E139" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F139" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H139" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J139" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L139" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M139" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N139" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O139" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P139" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q139" s="24" t="n">
-        <v>1285</v>
-      </c>
-      <c r="R139" s="22" t="n">
-        <v>67.5</v>
+      <c r="E139" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F139" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H139" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J139" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L139" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N139" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="21" t="n">
+        <v>28</v>
+      </c>
+      <c r="P139" s="20" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="Q139" s="23" t="n">
+        <v>364</v>
+      </c>
+      <c r="R139" s="20" t="n">
+        <v>88.59999999999999</v>
       </c>
       <c r="S139" s="23" t="n">
-        <v>1737</v>
-      </c>
-      <c r="T139" s="22" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="U139" s="25" t="n">
-        <v>2064</v>
-      </c>
-      <c r="V139" s="22" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="W139" s="25" t="n">
-        <v>1848</v>
-      </c>
-      <c r="X139" s="22" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="Y139" s="23" t="n">
-        <v>997</v>
-      </c>
-      <c r="Z139" s="22" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="AA139" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB139" s="22" t="n">
-        <v>0</v>
+        <v>859</v>
+      </c>
+      <c r="T139" s="20" t="n">
+        <v>79</v>
+      </c>
+      <c r="U139" s="24" t="n">
+        <v>1338</v>
+      </c>
+      <c r="V139" s="20" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="W139" s="24" t="n">
+        <v>885</v>
+      </c>
+      <c r="X139" s="20" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="Y139" s="24" t="n">
+        <v>1573</v>
+      </c>
+      <c r="Z139" s="20" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="AA139" s="24" t="n">
+        <v>828</v>
+      </c>
+      <c r="AB139" s="20" t="n">
+        <v>73.09999999999999</v>
       </c>
       <c r="AC139" s="23" t="n">
-        <v>872</v>
-      </c>
-      <c r="AD139" s="22" t="n">
-        <v>77</v>
+        <v>846</v>
+      </c>
+      <c r="AD139" s="20" t="n">
+        <v>77.5</v>
       </c>
       <c r="AE139" s="23" t="n">
-        <v>484</v>
-      </c>
-      <c r="AF139" s="22" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="AG139" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AH139" s="22" t="n">
-        <v>0</v>
+        <v>459</v>
+      </c>
+      <c r="AF139" s="20" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="AG139" s="24" t="n">
+        <v>1117</v>
+      </c>
+      <c r="AH139" s="20" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="AI139" s="9" t="inlineStr">
+        <is>
+          <t>ByteDance-Logo</t>
+        </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="18" t="inlineStr">
+      <c r="A140" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B140" s="18" t="inlineStr">
-        <is>
-          <t>galiniunan</t>
-        </is>
-      </c>
-      <c r="C140" s="5" t="n">
-        <v>199</v>
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t>fyang618</t>
+        </is>
+      </c>
+      <c r="C140" s="11" t="n">
+        <v>164</v>
       </c>
       <c r="D140" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E140" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F140" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" s="21" t="n">
-        <v>851</v>
-      </c>
-      <c r="H140" s="20" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="I140" s="21" t="n">
-        <v>438</v>
-      </c>
-      <c r="J140" s="20" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="K140" s="21" t="n">
-        <v>52</v>
-      </c>
-      <c r="L140" s="20" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="M140" s="23" t="n">
-        <v>504</v>
-      </c>
-      <c r="N140" s="20" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="O140" s="21" t="n">
-        <v>305</v>
-      </c>
-      <c r="P140" s="20" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q140" s="23" t="n">
-        <v>1102</v>
-      </c>
-      <c r="R140" s="20" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="S140" s="21" t="n">
-        <v>540</v>
-      </c>
-      <c r="T140" s="20" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="U140" s="21" t="n">
-        <v>56</v>
-      </c>
-      <c r="V140" s="20" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="W140" s="21" t="n">
-        <v>97</v>
-      </c>
-      <c r="X140" s="20" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="Y140" s="21" t="n">
-        <v>170</v>
-      </c>
-      <c r="Z140" s="20" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="AA140" s="21" t="n">
-        <v>184</v>
-      </c>
-      <c r="AB140" s="20" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="AC140" s="21" t="n">
-        <v>345</v>
-      </c>
-      <c r="AD140" s="20" t="n">
-        <v>92.90000000000001</v>
+      <c r="E140" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="24" t="n">
+        <v>1285</v>
+      </c>
+      <c r="R140" s="22" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="S140" s="23" t="n">
+        <v>1737</v>
+      </c>
+      <c r="T140" s="22" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="U140" s="25" t="n">
+        <v>2064</v>
+      </c>
+      <c r="V140" s="22" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="W140" s="25" t="n">
+        <v>1848</v>
+      </c>
+      <c r="X140" s="22" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="Y140" s="23" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z140" s="22" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="AA140" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="23" t="n">
+        <v>872</v>
+      </c>
+      <c r="AD140" s="22" t="n">
+        <v>77</v>
       </c>
       <c r="AE140" s="23" t="n">
-        <v>1023</v>
-      </c>
-      <c r="AF140" s="20" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="AG140" s="25" t="n">
-        <v>1455</v>
-      </c>
-      <c r="AH140" s="20" t="n">
-        <v>52.5</v>
+        <v>484</v>
+      </c>
+      <c r="AF140" s="22" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="AG140" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH140" s="22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
+      <c r="A141" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B141" s="1" t="inlineStr">
-        <is>
-          <t>gyf6434</t>
-        </is>
-      </c>
-      <c r="C141" s="11" t="n">
-        <v>19</v>
+      <c r="B141" s="18" t="inlineStr">
+        <is>
+          <t>galiniunan</t>
+        </is>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>199</v>
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E141" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" s="22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" s="25" t="n">
-        <v>2209</v>
-      </c>
-      <c r="J141" s="22" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="K141" s="25" t="n">
-        <v>2198</v>
-      </c>
-      <c r="L141" s="22" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="M141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="T141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF141" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG141" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH141" s="22" t="n">
-        <v>0</v>
+      <c r="E141" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F141" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" s="21" t="n">
+        <v>851</v>
+      </c>
+      <c r="H141" s="20" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="I141" s="21" t="n">
+        <v>438</v>
+      </c>
+      <c r="J141" s="20" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="K141" s="21" t="n">
+        <v>52</v>
+      </c>
+      <c r="L141" s="20" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="M141" s="23" t="n">
+        <v>504</v>
+      </c>
+      <c r="N141" s="20" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="O141" s="21" t="n">
+        <v>305</v>
+      </c>
+      <c r="P141" s="20" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q141" s="23" t="n">
+        <v>1102</v>
+      </c>
+      <c r="R141" s="20" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="S141" s="21" t="n">
+        <v>540</v>
+      </c>
+      <c r="T141" s="20" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="U141" s="21" t="n">
+        <v>56</v>
+      </c>
+      <c r="V141" s="20" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="W141" s="21" t="n">
+        <v>97</v>
+      </c>
+      <c r="X141" s="20" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="Y141" s="21" t="n">
+        <v>170</v>
+      </c>
+      <c r="Z141" s="20" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="AA141" s="21" t="n">
+        <v>184</v>
+      </c>
+      <c r="AB141" s="20" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="AC141" s="21" t="n">
+        <v>345</v>
+      </c>
+      <c r="AD141" s="20" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="AE141" s="23" t="n">
+        <v>1023</v>
+      </c>
+      <c r="AF141" s="20" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="AG141" s="25" t="n">
+        <v>1455</v>
+      </c>
+      <c r="AH141" s="20" t="n">
+        <v>52.5</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="18" t="inlineStr">
+      <c r="A142" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B142" s="18" t="inlineStr">
-        <is>
-          <t>hgzry812</t>
-        </is>
-      </c>
-      <c r="C142" s="5" t="n">
-        <v>15</v>
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t>gyf6434</t>
+        </is>
+      </c>
+      <c r="C142" s="11" t="n">
+        <v>19</v>
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E142" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M142" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O142" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S142" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U142" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W142" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y142" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA142" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC142" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE142" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF142" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG142" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH142" s="20" t="n">
+      <c r="E142" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" s="25" t="n">
+        <v>2209</v>
+      </c>
+      <c r="J142" s="22" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="K142" s="25" t="n">
+        <v>2198</v>
+      </c>
+      <c r="L142" s="22" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="M142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF142" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG142" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH142" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
+      <c r="A143" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B143" s="1" t="inlineStr">
-        <is>
-          <t>jiancheng2</t>
-        </is>
-      </c>
-      <c r="C143" s="11" t="n">
-        <v>14</v>
+      <c r="B143" s="18" t="inlineStr">
+        <is>
+          <t>hgzry812</t>
+        </is>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>15</v>
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E143" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" s="25" t="n">
-        <v>3089</v>
-      </c>
-      <c r="N143" s="22" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="O143" s="23" t="n">
-        <v>1457</v>
-      </c>
-      <c r="P143" s="22" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="Q143" s="23" t="n">
-        <v>819</v>
-      </c>
-      <c r="R143" s="22" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="S143" s="21" t="n">
-        <v>514</v>
-      </c>
-      <c r="T143" s="22" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="U143" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W143" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y143" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA143" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AB143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC143" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE143" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AF143" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG143" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AH143" s="22" t="n">
+      <c r="E143" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE143" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF143" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG143" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH143" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="18" t="inlineStr">
+      <c r="A144" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B144" s="18" t="inlineStr">
-        <is>
-          <t>jiang718</t>
-        </is>
-      </c>
-      <c r="C144" s="5" t="n">
-        <v>28</v>
+      <c r="B144" s="1" t="inlineStr">
+        <is>
+          <t>jiancheng2</t>
+        </is>
+      </c>
+      <c r="C144" s="11" t="n">
+        <v>14</v>
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y144" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Z144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA144" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC144" s="23" t="n">
-        <v>544</v>
-      </c>
-      <c r="AD144" s="20" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="AE144" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF144" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG144" s="23" t="n">
-        <v>461</v>
-      </c>
-      <c r="AH144" s="20" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="AI144" s="9" t="inlineStr">
-        <is>
-          <t>PureStorage-Logo</t>
-        </is>
+      <c r="E144" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" s="25" t="n">
+        <v>3089</v>
+      </c>
+      <c r="N144" s="22" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="O144" s="23" t="n">
+        <v>1457</v>
+      </c>
+      <c r="P144" s="22" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="Q144" s="23" t="n">
+        <v>819</v>
+      </c>
+      <c r="R144" s="22" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="S144" s="21" t="n">
+        <v>514</v>
+      </c>
+      <c r="T144" s="22" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="U144" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF144" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG144" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AH144" s="22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
+      <c r="A145" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B145" s="1" t="inlineStr">
-        <is>
-          <t>jianzhun</t>
-        </is>
-      </c>
-      <c r="C145" s="11" t="n">
-        <v>74</v>
+      <c r="B145" s="18" t="inlineStr">
+        <is>
+          <t>jiang718</t>
+        </is>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>28</v>
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E145" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F145" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H145" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J145" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L145" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N145" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P145" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q145" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R145" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S145" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T145" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U145" s="23" t="n">
-        <v>448</v>
-      </c>
-      <c r="V145" s="22" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="W145" s="25" t="n">
-        <v>1841</v>
-      </c>
-      <c r="X145" s="22" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="Y145" s="21" t="n">
-        <v>813</v>
-      </c>
-      <c r="Z145" s="22" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="AA145" s="21" t="n">
-        <v>205</v>
-      </c>
-      <c r="AB145" s="22" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="AC145" s="21" t="n">
-        <v>518</v>
-      </c>
-      <c r="AD145" s="22" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="AE145" s="23" t="n">
-        <v>672</v>
-      </c>
-      <c r="AF145" s="22" t="n">
-        <v>81</v>
+      <c r="E145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="X145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Z145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB145" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="23" t="n">
+        <v>544</v>
+      </c>
+      <c r="AD145" s="20" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="AE145" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF145" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AG145" s="23" t="n">
-        <v>642</v>
-      </c>
-      <c r="AH145" s="22" t="n">
-        <v>80.7</v>
+        <v>461</v>
+      </c>
+      <c r="AH145" s="20" t="n">
+        <v>84.7</v>
       </c>
       <c r="AI145" s="9" t="inlineStr">
         <is>
-          <t>SnowFlake-Logo</t>
+          <t>PureStorage-Logo</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="18" t="inlineStr">
+      <c r="A146" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B146" s="18" t="inlineStr">
-        <is>
-          <t>kaihaohust</t>
-        </is>
-      </c>
-      <c r="C146" s="5" t="n">
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>jianzhun</t>
+        </is>
+      </c>
+      <c r="C146" s="11" t="n">
         <v>74</v>
       </c>
       <c r="D146" s="19" t="inlineStr">
@@ -14336,1559 +14233,1674 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E146" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F146" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H146" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J146" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L146" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N146" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="P146" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q146" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R146" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S146" s="23" t="n">
-        <v>838</v>
-      </c>
-      <c r="T146" s="20" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="U146" s="24" t="n">
-        <v>917</v>
-      </c>
-      <c r="V146" s="20" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="W146" s="23" t="n">
-        <v>195</v>
-      </c>
-      <c r="X146" s="20" t="n">
-        <v>90.5</v>
+      <c r="E146" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F146" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H146" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J146" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L146" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N146" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P146" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R146" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T146" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" s="23" t="n">
+        <v>448</v>
+      </c>
+      <c r="V146" s="22" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="W146" s="25" t="n">
+        <v>1841</v>
+      </c>
+      <c r="X146" s="22" t="n">
+        <v>42.5</v>
       </c>
       <c r="Y146" s="21" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z146" s="20" t="n">
-        <v>99</v>
-      </c>
-      <c r="AA146" s="23" t="n">
-        <v>497</v>
-      </c>
-      <c r="AB146" s="20" t="n">
-        <v>84.90000000000001</v>
+        <v>813</v>
+      </c>
+      <c r="Z146" s="22" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="AA146" s="21" t="n">
+        <v>205</v>
+      </c>
+      <c r="AB146" s="22" t="n">
+        <v>95.8</v>
       </c>
       <c r="AC146" s="21" t="n">
-        <v>336</v>
-      </c>
-      <c r="AD146" s="20" t="n">
-        <v>93.09999999999999</v>
+        <v>518</v>
+      </c>
+      <c r="AD146" s="22" t="n">
+        <v>89.3</v>
       </c>
       <c r="AE146" s="23" t="n">
-        <v>443</v>
-      </c>
-      <c r="AF146" s="20" t="n">
-        <v>85.8</v>
+        <v>672</v>
+      </c>
+      <c r="AF146" s="22" t="n">
+        <v>81</v>
       </c>
       <c r="AG146" s="23" t="n">
-        <v>290</v>
-      </c>
-      <c r="AH146" s="20" t="n">
-        <v>88.5</v>
+        <v>642</v>
+      </c>
+      <c r="AH146" s="22" t="n">
+        <v>80.7</v>
       </c>
       <c r="AI146" s="9" t="inlineStr">
         <is>
-          <t>Walmart-Logo</t>
+     